--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\github\ohdsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\github\ohdsi\PhenotypeLibrary\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2532,8 +2532,8 @@
   <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6252,7 +6252,7 @@
         <v>441848000</v>
       </c>
       <c r="B175">
-        <v>441848000</v>
+        <v>0</v>
       </c>
       <c r="C175">
         <v>441848000</v>
@@ -8213,7 +8213,7 @@
         <v>46271022000</v>
       </c>
       <c r="B266">
-        <v>46271022000</v>
+        <v>4030518000</v>
       </c>
       <c r="C266">
         <v>46271022000</v>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="562">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -2532,8 +2532,8 @@
   <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,6 +4651,9 @@
       <c r="F98" s="1" t="s">
         <v>555</v>
       </c>
+      <c r="I98" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A99">

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -15,14 +15,14 @@
     <sheet name="PhenotypeDescription" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$267</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="563">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -369,9 +369,6 @@
     <t>Type 1 diabetes mellitus</t>
   </si>
   <si>
-    <t>Overview: Type 1 diabetes mellitus (T1DM), is one of the most common chronic diseases in childhood and is caused by insulin deficiency following (auto-antibody mediated) destruction of the insulin-producing pancreatic beta cells. Type 1 accounts for about 80% of Diabetes Mellitus in childhood and about 25% of adults. Its incidence varies by geography, age, gender, family history and ethnicity - and is associated with both genetic and environmental risk factors. A chronic condition in which the pancreas produces little or no insulin to control blood sugar levels. T1 was previously called insulin-dependent diabetes or juvenile diabetes.  T1a (85% - have detectable autoantibodies for pancreatic beta cells), T1b (no detectable autoantibodies, for pancreatic beta cells). Presentation: Hyperglycemia without acidosis is the most common presentation of childhood T1DM in most populations - with polyuria, polydipsia and weight loss detected in ambulatory settings. Diabetic Ketoacidosis (DKA, hyperglycemia and ketoacidosis) is second most common presentation - but severe symptoms compared to those without acidosis. Bed-wetting in kids who previously did not wet the bed. Some may be silent. Assessment: First step establish DM diagnosis using any one of glycated hemoglobin (A1C) &gt;= 6.5, fasting plasma glucose &gt;= 126, random venous plasma glucose &gt;= 200, oral gluocse tt &gt;= 200. ). There is no set of criteria or diagnostic test can consistently distinguish between T1 and T2 - but may be based on a combination of body habitus (T2 - obese), age (T1- younger), insulin resistance (T2 - acanthosis nigricans), Antibodies (T1 - pancreatic islet-specific pancreatic autoantibodies), high fasting insulin (in T2) and C-peptides (in T2). Plan: diabetes education, blood sugar monitoring, insulin therapy, diet, and exercise. Age based care - challenging with young children. Prognosis: Careful management leads to risk reduction.</t>
-  </si>
-  <si>
     <t>Gastritis</t>
   </si>
   <si>
@@ -385,9 +382,6 @@
   </si>
   <si>
     <t>Type 2 diabetes mellitus</t>
-  </si>
-  <si>
-    <t>Overview: Type 2 DM accounts for 90% of all DM, and the generic use of Diabetes Mellitus almost always refers to Type 2.It is hyperglycemia and related complications usually due to progressive loss of insulin secretion from the pancreatic beta cells with background of insulin resistance. It is a state of 'relative' insulin deficiency - where insulin even when present may be less effective due to resistance. Presentation: The classic symptoms of hyperglycemia (including polyuria, polydipsia, nocturia, blurred vision, and weight loss) but these are most commonly observered in retrospect with most common mode of diagnosis is screening in asymptomatic patients, or seeking emergency care for hyperosmolar hyperglycemic state without ketoacidosis. Assessment: Oral glucose tolerance test and HbA1c, fasting blood glucose, lipid, liver function testsPlan: Initial management is achieve normoglycemic state with lifestyle modification - weight, diet. Metformin is commonly recommended first line, but treatment choices vary with presence of other risk factors. Progression may lead to dependence on insulin. Prognosis: life long disease that is amenable and managed</t>
   </si>
   <si>
     <t>Shock</t>
@@ -1099,9 +1093,6 @@
     <t>Diabetic ketoacidosis</t>
   </si>
   <si>
-    <t>Overview: one of the two main serious acute complications of diabetes mellitus. DKA is an anion gap metabolic acidosis that is managed commonly in critical care unit as a medical emergency. See more in Type 1 diabetes. Presentation: frequent urination, extreme thirst, high blood sugar levels and high urine ketones; N/V, fruity-smelling breath. comma at presentation is common, altered mental status. Assessment: level of consciousness and alertness, anion gap, blood glucose, potassium and sodium, ABG, CXR to look for infection (like pneumonia)Plan: fluid replacement/hydration, insulin, potassium and electrolye correction, maintain blood pressurePrognosis: usually recovers in a few days with discharge from intensive care unit. Long term diabetes management is critical to prevent relapse.</t>
-  </si>
-  <si>
     <t>Acute tubular necrosis</t>
   </si>
   <si>
@@ -1147,9 +1138,6 @@
     <t>Gestational diabetes mellitus</t>
   </si>
   <si>
-    <t>Overview: blood sugar levels become high during pregnancy. Presentation: thirsty, hungrier, urinary frequency; can have excess weight gain; can have no symptoms. Assessment:Usually happens in the second half of pregnancy (24 - 28 wks). glucose challenge or glucose screening test. Plan: Women with class A1 can manage it through diet and exercise. Those who have class A2 need to take insulin or other medications. Blood sugar monitoring. Lifestyle changes, diet. Prognosis: Gestational diabetes goes away after you give birth. Higher risk of developing type 2 diabetes later in life.</t>
-  </si>
-  <si>
     <t>needs updated description</t>
   </si>
   <si>
@@ -1712,6 +1700,21 @@
   </si>
   <si>
     <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] (MZL) is a group of indolent (slow growing) NHL B-cell lymphomas, which account for approximately eight percent of all NHL cases. The average age at diagnosis is 60 years, and it is slightly more common in women than in men. Presentation: Assessment: Plan: immunotherapy and chemotherapy. Common initial treatments are bendamustine (Treanda) plus rituximab and R-CHOP (rituximab, cyclophosphamide, doxorubicin, vincristine, and prednisone), Prognosis: depends on the type, the stage and location of the disease, the patient’s age and overall health, and any lymphoma-related signs or symptoms.</t>
+  </si>
+  <si>
+    <t>Diabetes Mellitus</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] one of the two main serious acute complications of diabetes mellitus. DKA is an anion gap metabolic acidosis that is managed commonly in critical care unit as a medical emergency. See more in Type 1 diabetes. Presentation: frequent urination, extreme thirst, high blood sugar levels and high urine ketones; N/V, fruity-smelling breath. comma at presentation is common, altered mental status. Assessment: level of consciousness and alertness, anion gap, blood glucose, potassium and sodium, ABG, CXR to look for infection (like pneumonia)Plan: fluid replacement/hydration, insulin, potassium and electrolye correction, maintain blood pressurePrognosis: usually recovers in a few days with discharge from intensive care unit. Long term diabetes management is critical to prevent relapse.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] Type 1 diabetes mellitus (T1DM), is one of the most common chronic diseases in childhood and is caused by insulin deficiency following (auto-antibody mediated) destruction of the insulin-producing pancreatic beta cells. Type 1 accounts for about 80% of Diabetes Mellitus in childhood and about 25% of adults. Its incidence varies by geography, age, gender, family history and ethnicity - and is associated with both genetic and environmental risk factors. A chronic condition in which the pancreas produces little or no insulin to control blood sugar levels. T1 was previously called insulin-dependent diabetes or juvenile diabetes.  T1a (85% - have detectable autoantibodies for pancreatic beta cells), T1b (no detectable autoantibodies, for pancreatic beta cells). Presentation: Hyperglycemia without acidosis is the most common presentation of childhood T1DM in most populations - with polyuria, polydipsia and weight loss detected in ambulatory settings. Diabetic Ketoacidosis (DKA, hyperglycemia and ketoacidosis) is second most common presentation - but severe symptoms compared to those without acidosis. Bed-wetting in kids who previously did not wet the bed. Some may be silent. Assessment: First step establish DM diagnosis using any one of glycated hemoglobin (A1C) &gt;= 6.5, fasting plasma glucose &gt;= 126, random venous plasma glucose &gt;= 200, oral gluocse tt &gt;= 200. ). There is no set of criteria or diagnostic test can consistently distinguish between T1 and T2 - but may be based on a combination of body habitus (T2 - obese), age (T1- younger), insulin resistance (T2 - acanthosis nigricans), Antibodies (T1 - pancreatic islet-specific pancreatic autoantibodies), high fasting insulin (in T2) and C-peptides (in T2). Plan: diabetes education, blood sugar monitoring, insulin therapy, diet, and exercise. Age based care - challenging with young children. Prognosis: Careful management leads to risk reduction.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] Type 2 DM accounts for 90% of all DM, and the generic use of Diabetes Mellitus almost always refers to Type 2.It is hyperglycemia and related complications usually due to progressive loss of insulin secretion from the pancreatic beta cells with background of insulin resistance. It is a state of 'relative' insulin deficiency - where insulin even when present may be less effective due to resistance. Presentation: The classic symptoms of hyperglycemia (including polyuria, polydipsia, nocturia, blurred vision, and weight loss) but these are most commonly observered in retrospect with most common mode of diagnosis is screening in asymptomatic patients, or seeking emergency care for hyperosmolar hyperglycemic state without ketoacidosis. Assessment: Oral glucose tolerance test and HbA1c, fasting blood glucose, lipid, liver function testsPlan: Initial management is achieve normoglycemic state with lifestyle modification - weight, diet. Metformin is commonly recommended first line, but treatment choices vary with presence of other risk factors. Progression may lead to dependence on insulin. Prognosis: life long disease that is amenable and managed</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] blood sugar levels become high during pregnancy. Presentation: thirsty, hungrier, urinary frequency; can have excess weight gain; can have no symptoms. Assessment:Usually happens in the second half of pregnancy (24 - 28 wks). glucose challenge or glucose screening test. Plan: Women with class A1 can manage it through diet and exercise. Those who have class A2 need to take insulin or other medications. Blood sugar monitoring. Lifestyle changes, diet. Prognosis: Gestational diabetes goes away after you give birth. Higher risk of developing type 2 diabetes later in life.</t>
   </si>
 </sst>
 </file>
@@ -2529,11 +2532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I266"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2637,7 @@
         <v>27918</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -2657,7 +2660,7 @@
         <v>30753</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -2740,10 +2743,10 @@
         <v>73553</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2852,7 +2855,7 @@
         <v>80182</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2935,7 +2938,7 @@
         <v>81893</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
@@ -2958,7 +2961,7 @@
         <v>81902</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3041,7 +3044,7 @@
         <v>132797</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I23" t="s">
         <v>26</v>
@@ -3064,7 +3067,7 @@
         <v>133169</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I24" t="s">
         <v>26</v>
@@ -3227,7 +3230,7 @@
         <v>138994</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I32" t="s">
         <v>26</v>
@@ -3313,7 +3316,7 @@
         <v>140352</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I36" t="s">
         <v>26</v>
@@ -3416,7 +3419,7 @@
         <v>192359</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I41" t="s">
         <v>26</v>
@@ -3542,7 +3545,7 @@
         <v>194992</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I47" t="s">
         <v>26</v>
@@ -3794,7 +3797,7 @@
         <v>201254000</v>
       </c>
       <c r="B59">
-        <v>201254000</v>
+        <v>201820000</v>
       </c>
       <c r="C59">
         <v>201254000</v>
@@ -3806,7 +3809,10 @@
         <v>201254</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>115</v>
+        <v>560</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3820,13 +3826,13 @@
         <v>201340000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E60">
         <v>201340</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I60" t="s">
         <v>26</v>
@@ -3843,13 +3849,13 @@
         <v>201606000</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E61">
         <v>201606</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
@@ -3866,1140 +3872,1140 @@
         <v>201620000</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E62">
         <v>201620</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>201820000</v>
+      </c>
+      <c r="C63">
+        <v>201820000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>558</v>
+      </c>
+      <c r="E63">
+        <v>201820</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H63" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>201826000</v>
+      </c>
+      <c r="B64">
+        <v>201820000</v>
+      </c>
+      <c r="C64">
+        <v>201826000</v>
+      </c>
+      <c r="D64" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>201826000</v>
-      </c>
-      <c r="B63">
-        <v>201826000</v>
-      </c>
-      <c r="C63">
-        <v>201826000</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E64">
+        <v>201826</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>201965000</v>
+      </c>
+      <c r="B65">
+        <v>201965000</v>
+      </c>
+      <c r="C65">
+        <v>201965000</v>
+      </c>
+      <c r="D65" t="s">
         <v>120</v>
       </c>
-      <c r="E63">
-        <v>201826</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="E65">
+        <v>201965</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>201965000</v>
-      </c>
-      <c r="B64">
-        <v>201965000</v>
-      </c>
-      <c r="C64">
-        <v>201965000</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="H65" t="s">
         <v>122</v>
       </c>
-      <c r="E64">
-        <v>201965</v>
-      </c>
-      <c r="F64" s="1" t="s">
+    </row>
+    <row r="66" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>254443000</v>
+      </c>
+      <c r="B66">
+        <v>254443000</v>
+      </c>
+      <c r="C66">
+        <v>254443000</v>
+      </c>
+      <c r="D66" t="s">
         <v>123</v>
       </c>
-      <c r="H64" t="s">
+      <c r="E66">
+        <v>254443</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>254443000</v>
-      </c>
-      <c r="B65">
-        <v>254443000</v>
-      </c>
-      <c r="C65">
-        <v>254443000</v>
-      </c>
-      <c r="D65" t="s">
+    <row r="67" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>254761000</v>
+      </c>
+      <c r="B67">
+        <v>254761000</v>
+      </c>
+      <c r="C67">
+        <v>254761000</v>
+      </c>
+      <c r="D67" t="s">
         <v>125</v>
       </c>
-      <c r="E65">
-        <v>254443</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="E67">
+        <v>254761</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>254761000</v>
-      </c>
-      <c r="B66">
-        <v>254761000</v>
-      </c>
-      <c r="C66">
-        <v>254761000</v>
-      </c>
-      <c r="D66" t="s">
+    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>255573000</v>
+      </c>
+      <c r="B68">
+        <v>255573000</v>
+      </c>
+      <c r="C68">
+        <v>255573000</v>
+      </c>
+      <c r="D68" t="s">
         <v>127</v>
       </c>
-      <c r="E66">
-        <v>254761</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="E68">
+        <v>255573</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>255573000</v>
-      </c>
-      <c r="B67">
-        <v>255573000</v>
-      </c>
-      <c r="C67">
-        <v>255573000</v>
-      </c>
-      <c r="D67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67">
-        <v>255573</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>255848000</v>
-      </c>
-      <c r="B68">
-        <v>255848000</v>
-      </c>
-      <c r="C68">
-        <v>255848000</v>
-      </c>
-      <c r="D68" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68">
-        <v>255848</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>255848000</v>
+      </c>
+      <c r="B69">
+        <v>255848000</v>
+      </c>
+      <c r="C69">
+        <v>255848000</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69">
+        <v>255848</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>257007000</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>257007000</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>257007000</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70">
+        <v>257007</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>257628000</v>
+      </c>
+      <c r="B71">
+        <v>257628000</v>
+      </c>
+      <c r="C71">
+        <v>257628000</v>
+      </c>
+      <c r="D71" t="s">
         <v>133</v>
       </c>
-      <c r="E69">
-        <v>257007</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="E71">
+        <v>257628</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>257628000</v>
-      </c>
-      <c r="B70">
-        <v>257628000</v>
-      </c>
-      <c r="C70">
-        <v>257628000</v>
-      </c>
-      <c r="D70" t="s">
+    <row r="72" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>312327000</v>
+      </c>
+      <c r="B72">
+        <v>312327000</v>
+      </c>
+      <c r="C72">
+        <v>312327000</v>
+      </c>
+      <c r="D72" t="s">
         <v>135</v>
       </c>
-      <c r="E70">
-        <v>257628</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="E72">
+        <v>312327</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>312327000</v>
-      </c>
-      <c r="B71">
-        <v>312327000</v>
-      </c>
-      <c r="C71">
-        <v>312327000</v>
-      </c>
-      <c r="D71" t="s">
+    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>312437000</v>
+      </c>
+      <c r="B73">
+        <v>312437000</v>
+      </c>
+      <c r="C73">
+        <v>312437000</v>
+      </c>
+      <c r="D73" t="s">
         <v>137</v>
       </c>
-      <c r="E71">
-        <v>312327</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="E73">
+        <v>312437</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>312437000</v>
-      </c>
-      <c r="B72">
-        <v>312437000</v>
-      </c>
-      <c r="C72">
-        <v>312437000</v>
-      </c>
-      <c r="D72" t="s">
+    <row r="74" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>312939000</v>
+      </c>
+      <c r="B74">
+        <v>312939000</v>
+      </c>
+      <c r="C74">
+        <v>312939000</v>
+      </c>
+      <c r="D74" t="s">
         <v>139</v>
       </c>
-      <c r="E72">
-        <v>312437</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="E74">
+        <v>312939</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>312939000</v>
-      </c>
-      <c r="B73">
-        <v>312939000</v>
-      </c>
-      <c r="C73">
-        <v>312939000</v>
-      </c>
-      <c r="D73" t="s">
+    <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>313217000</v>
+      </c>
+      <c r="B75">
+        <v>44784217000</v>
+      </c>
+      <c r="C75">
+        <v>313217000</v>
+      </c>
+      <c r="D75" t="s">
         <v>141</v>
       </c>
-      <c r="E73">
-        <v>312939</v>
-      </c>
-      <c r="F73" s="1" t="s">
+      <c r="E75">
+        <v>313217</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>313223000</v>
+      </c>
+      <c r="B76">
+        <v>4137275000</v>
+      </c>
+      <c r="C76">
+        <v>313223000</v>
+      </c>
+      <c r="D76" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>313217000</v>
-      </c>
-      <c r="B74">
-        <v>44784217000</v>
-      </c>
-      <c r="C74">
-        <v>313217000</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E76">
+        <v>313223</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>313459000</v>
+      </c>
+      <c r="B77">
+        <v>313459000</v>
+      </c>
+      <c r="C77">
+        <v>313459000</v>
+      </c>
+      <c r="D77" t="s">
         <v>143</v>
       </c>
-      <c r="E74">
-        <v>313217</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>313223000</v>
-      </c>
-      <c r="B75">
+      <c r="E77">
+        <v>313459</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>313800000</v>
+      </c>
+      <c r="B78">
+        <v>313800000</v>
+      </c>
+      <c r="C78">
+        <v>313800000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78">
+        <v>313800</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>314381000</v>
+      </c>
+      <c r="B79">
         <v>4137275000</v>
       </c>
-      <c r="C75">
-        <v>313223000</v>
-      </c>
-      <c r="D75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E75">
-        <v>313223</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="I75" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>313459000</v>
-      </c>
-      <c r="B76">
-        <v>313459000</v>
-      </c>
-      <c r="C76">
-        <v>313459000</v>
-      </c>
-      <c r="D76" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76">
-        <v>313459</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>313800000</v>
-      </c>
-      <c r="B77">
-        <v>313800000</v>
-      </c>
-      <c r="C77">
-        <v>313800000</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C79">
+        <v>314381000</v>
+      </c>
+      <c r="D79" t="s">
         <v>147</v>
       </c>
-      <c r="E77">
-        <v>313800</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="E79">
+        <v>314381</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>314381000</v>
-      </c>
-      <c r="B78">
-        <v>4137275000</v>
-      </c>
-      <c r="C78">
-        <v>314381000</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="I79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>314383000</v>
+      </c>
+      <c r="B80">
+        <v>314383000</v>
+      </c>
+      <c r="C80">
+        <v>314383000</v>
+      </c>
+      <c r="D80" t="s">
         <v>149</v>
       </c>
-      <c r="E78">
-        <v>314381</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="E80">
+        <v>314383</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>314383000</v>
-      </c>
-      <c r="B79">
-        <v>314383000</v>
-      </c>
-      <c r="C79">
-        <v>314383000</v>
-      </c>
-      <c r="D79" t="s">
+    </row>
+    <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>316139000</v>
+      </c>
+      <c r="B81">
+        <v>316139000</v>
+      </c>
+      <c r="C81">
+        <v>316139000</v>
+      </c>
+      <c r="D81" t="s">
         <v>151</v>
       </c>
-      <c r="E79">
-        <v>314383</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="E81">
+        <v>316139</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>316139000</v>
-      </c>
-      <c r="B80">
-        <v>316139000</v>
-      </c>
-      <c r="C80">
-        <v>316139000</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="H81" t="s">
         <v>153</v>
       </c>
-      <c r="E80">
-        <v>316139</v>
-      </c>
-      <c r="F80" s="1" t="s">
+    </row>
+    <row r="82" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>316866000</v>
+      </c>
+      <c r="B82">
+        <v>316866000</v>
+      </c>
+      <c r="C82">
+        <v>316866000</v>
+      </c>
+      <c r="D82" t="s">
         <v>154</v>
       </c>
-      <c r="H80" t="s">
+      <c r="E82">
+        <v>316866</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>316866000</v>
-      </c>
-      <c r="B81">
-        <v>316866000</v>
-      </c>
-      <c r="C81">
-        <v>316866000</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="H82" t="s">
         <v>156</v>
-      </c>
-      <c r="E81">
-        <v>316866</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H81" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>317009000</v>
-      </c>
-      <c r="B82">
-        <v>317009000</v>
-      </c>
-      <c r="C82">
-        <v>317009000</v>
-      </c>
-      <c r="D82" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82">
-        <v>317009</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>317576000</v>
+        <v>317009000</v>
       </c>
       <c r="B83">
-        <v>4185932000</v>
+        <v>317009000</v>
       </c>
       <c r="C83">
-        <v>317576000</v>
+        <v>317009000</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E83">
-        <v>317576</v>
+        <v>317009</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="I83" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>317576000</v>
+      </c>
+      <c r="B84">
+        <v>4185932000</v>
+      </c>
+      <c r="C84">
+        <v>317576000</v>
+      </c>
+      <c r="D84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84">
+        <v>317576</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>318443000</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>318443000</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>318443000</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D85" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E85">
+        <v>318443</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>318736000</v>
+      </c>
+      <c r="B86">
+        <v>318736000</v>
+      </c>
+      <c r="C86">
+        <v>318736000</v>
+      </c>
+      <c r="D86" t="s">
         <v>162</v>
       </c>
-      <c r="E84">
-        <v>318443</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="E86">
+        <v>318736</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H84" t="s">
+    </row>
+    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>318800000</v>
+      </c>
+      <c r="B87">
+        <v>318800000</v>
+      </c>
+      <c r="C87">
+        <v>318800000</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E87">
+        <v>318800</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>319041000</v>
+      </c>
+      <c r="B88">
+        <v>319041000</v>
+      </c>
+      <c r="C88">
+        <v>319041000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88">
+        <v>319041</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>319049000</v>
+      </c>
+      <c r="B89">
+        <v>4256228000</v>
+      </c>
+      <c r="C89">
+        <v>319049000</v>
+      </c>
+      <c r="D89" t="s">
+        <v>168</v>
+      </c>
+      <c r="E89">
+        <v>319049</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H89" t="s">
+        <v>170</v>
+      </c>
+      <c r="I89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>320749000</v>
+      </c>
+      <c r="B90">
+        <v>4137275000</v>
+      </c>
+      <c r="C90">
+        <v>320749000</v>
+      </c>
+      <c r="D90" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90">
+        <v>320749</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>321042000</v>
+      </c>
+      <c r="B91">
+        <v>201965000</v>
+      </c>
+      <c r="C91">
+        <v>321042000</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91">
+        <v>321042</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H91" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>318736000</v>
-      </c>
-      <c r="B85">
-        <v>318736000</v>
-      </c>
-      <c r="C85">
-        <v>318736000</v>
-      </c>
-      <c r="D85" t="s">
-        <v>164</v>
-      </c>
-      <c r="E85">
-        <v>318736</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>318800000</v>
-      </c>
-      <c r="B86">
-        <v>318800000</v>
-      </c>
-      <c r="C86">
-        <v>318800000</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E86">
-        <v>318800</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>319041000</v>
-      </c>
-      <c r="B87">
-        <v>319041000</v>
-      </c>
-      <c r="C87">
-        <v>319041000</v>
-      </c>
-      <c r="D87" t="s">
-        <v>168</v>
-      </c>
-      <c r="E87">
-        <v>319041</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>319049000</v>
-      </c>
-      <c r="B88">
-        <v>4256228000</v>
-      </c>
-      <c r="C88">
-        <v>319049000</v>
-      </c>
-      <c r="D88" t="s">
-        <v>170</v>
-      </c>
-      <c r="E88">
-        <v>319049</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H88" t="s">
-        <v>172</v>
-      </c>
-      <c r="I88" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>320749000</v>
-      </c>
-      <c r="B89">
-        <v>4137275000</v>
-      </c>
-      <c r="C89">
-        <v>320749000</v>
-      </c>
-      <c r="D89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89">
-        <v>320749</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="I91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>321052000</v>
+      </c>
+      <c r="B92">
+        <v>321052000</v>
+      </c>
+      <c r="C92">
+        <v>321052000</v>
+      </c>
+      <c r="D92" t="s">
         <v>174</v>
       </c>
-      <c r="I89" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>321042000</v>
-      </c>
-      <c r="B90">
-        <v>201965000</v>
-      </c>
-      <c r="C90">
-        <v>321042000</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="E92">
+        <v>321052</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E90">
-        <v>321042</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="H92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>321318000</v>
+      </c>
+      <c r="B93">
+        <v>4185932000</v>
+      </c>
+      <c r="C93">
+        <v>321318000</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93">
+        <v>321318</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>321319000</v>
+      </c>
+      <c r="B94">
+        <v>321319000</v>
+      </c>
+      <c r="C94">
+        <v>321319000</v>
+      </c>
+      <c r="D94" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94">
+        <v>321319</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>321588000</v>
+      </c>
+      <c r="B95">
+        <v>321588000</v>
+      </c>
+      <c r="C95">
+        <v>321588000</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95">
+        <v>321588</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H95" t="s">
         <v>29</v>
       </c>
-      <c r="I90" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>321052000</v>
-      </c>
-      <c r="B91">
-        <v>321052000</v>
-      </c>
-      <c r="C91">
-        <v>321052000</v>
-      </c>
-      <c r="D91" t="s">
-        <v>176</v>
-      </c>
-      <c r="E91">
-        <v>321052</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>321318000</v>
-      </c>
-      <c r="B92">
-        <v>4185932000</v>
-      </c>
-      <c r="C92">
-        <v>321318000</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E92">
-        <v>321318</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="I92" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>321319000</v>
-      </c>
-      <c r="B93">
-        <v>321319000</v>
-      </c>
-      <c r="C93">
-        <v>321319000</v>
-      </c>
-      <c r="D93" t="s">
-        <v>180</v>
-      </c>
-      <c r="E93">
-        <v>321319</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>321588000</v>
-      </c>
-      <c r="B94">
-        <v>321588000</v>
-      </c>
-      <c r="C94">
-        <v>321588000</v>
-      </c>
-      <c r="D94" s="3" t="s">
+    </row>
+    <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>372328000</v>
+      </c>
+      <c r="B96">
+        <v>372328000</v>
+      </c>
+      <c r="C96">
+        <v>372328000</v>
+      </c>
+      <c r="D96" t="s">
         <v>182</v>
       </c>
-      <c r="E94">
-        <v>321588</v>
-      </c>
-      <c r="F94" s="1" t="s">
+      <c r="E96">
+        <v>372328</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>372328000</v>
-      </c>
-      <c r="B95">
-        <v>372328000</v>
-      </c>
-      <c r="C95">
-        <v>372328000</v>
-      </c>
-      <c r="D95" t="s">
+    </row>
+    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>373503000</v>
+      </c>
+      <c r="B97">
+        <v>381591000</v>
+      </c>
+      <c r="C97">
+        <v>373503000</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E95">
-        <v>372328</v>
-      </c>
-      <c r="F95" s="1" t="s">
+      <c r="E97">
+        <v>373503</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>374021000</v>
+      </c>
+      <c r="B98">
+        <v>4190307000</v>
+      </c>
+      <c r="C98">
+        <v>374021000</v>
+      </c>
+      <c r="D98" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>373503000</v>
-      </c>
-      <c r="B96">
-        <v>381591000</v>
-      </c>
-      <c r="C96">
-        <v>373503000</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="E98">
+        <v>374021</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E96">
-        <v>373503</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>374021000</v>
-      </c>
-      <c r="B97">
-        <v>4190307000</v>
-      </c>
-      <c r="C97">
-        <v>374021000</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="H98" t="s">
         <v>187</v>
       </c>
-      <c r="E97">
-        <v>374021</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="I98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>374028000</v>
+      </c>
+      <c r="B99">
+        <v>378416000</v>
+      </c>
+      <c r="C99">
+        <v>374028000</v>
+      </c>
+      <c r="D99" t="s">
         <v>188</v>
       </c>
-      <c r="H97" t="s">
-        <v>189</v>
-      </c>
-      <c r="I97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>374028000</v>
-      </c>
-      <c r="B98">
-        <v>378416000</v>
-      </c>
-      <c r="C98">
-        <v>374028000</v>
-      </c>
-      <c r="D98" t="s">
-        <v>190</v>
-      </c>
-      <c r="E98">
+      <c r="E99">
         <v>374028</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>374366000</v>
-      </c>
-      <c r="B99">
-        <v>374366000</v>
-      </c>
-      <c r="C99">
-        <v>374366000</v>
-      </c>
-      <c r="D99" t="s">
-        <v>191</v>
-      </c>
-      <c r="E99">
-        <v>374366</v>
-      </c>
       <c r="F99" s="1" t="s">
-        <v>192</v>
+        <v>551</v>
+      </c>
+      <c r="I99" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A100">
+        <v>374366000</v>
+      </c>
+      <c r="B100">
+        <v>374366000</v>
+      </c>
+      <c r="C100">
+        <v>374366000</v>
+      </c>
+      <c r="D100" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100">
+        <v>374366</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>374377000</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>374377000</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>374377000</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
+        <v>191</v>
+      </c>
+      <c r="E101">
+        <v>374377</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>374919000</v>
+      </c>
+      <c r="B102">
+        <v>375801000</v>
+      </c>
+      <c r="C102">
+        <v>374919000</v>
+      </c>
+      <c r="D102" t="s">
         <v>193</v>
       </c>
-      <c r="E100">
-        <v>374377</v>
-      </c>
-      <c r="F100" s="1" t="s">
+      <c r="E102">
+        <v>374919</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H100" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>374919000</v>
-      </c>
-      <c r="B101">
+      <c r="I102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>374954000</v>
+      </c>
+      <c r="B103">
+        <v>37436000</v>
+      </c>
+      <c r="C103">
+        <v>374954000</v>
+      </c>
+      <c r="D103" t="s">
+        <v>195</v>
+      </c>
+      <c r="E103">
+        <v>374954</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>375801000</v>
       </c>
-      <c r="C101">
-        <v>374919000</v>
-      </c>
-      <c r="D101" t="s">
-        <v>195</v>
-      </c>
-      <c r="E101">
-        <v>374919</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>374954000</v>
-      </c>
-      <c r="B102">
-        <v>37436000</v>
-      </c>
-      <c r="C102">
-        <v>374954000</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="B104">
+        <v>375801000</v>
+      </c>
+      <c r="C104">
+        <v>375801000</v>
+      </c>
+      <c r="D104" t="s">
         <v>197</v>
       </c>
-      <c r="E102">
-        <v>374954</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="E104">
+        <v>375801</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="I102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>375801000</v>
-      </c>
-      <c r="B103">
-        <v>375801000</v>
-      </c>
-      <c r="C103">
-        <v>375801000</v>
-      </c>
-      <c r="D103" t="s">
-        <v>199</v>
-      </c>
-      <c r="E103">
-        <v>375801</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>375806000</v>
-      </c>
-      <c r="B104">
-        <v>375806000</v>
-      </c>
-      <c r="C104">
-        <v>375806000</v>
-      </c>
-      <c r="D104" t="s">
-        <v>201</v>
-      </c>
-      <c r="E104">
-        <v>375806</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A105">
+        <v>375806000</v>
+      </c>
+      <c r="B105">
+        <v>375806000</v>
+      </c>
+      <c r="C105">
+        <v>375806000</v>
+      </c>
+      <c r="D105" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105">
+        <v>375806</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>376713000</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>381591000</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>376713000</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
+        <v>201</v>
+      </c>
+      <c r="E106">
+        <v>376713</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>377091000</v>
+      </c>
+      <c r="B107">
+        <v>377091000</v>
+      </c>
+      <c r="C107">
+        <v>377091000</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E105">
-        <v>376713</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="E107">
+        <v>377091</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>377091000</v>
-      </c>
-      <c r="B106">
-        <v>377091000</v>
-      </c>
-      <c r="C106">
-        <v>377091000</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="H107" t="s">
         <v>205</v>
       </c>
-      <c r="E106">
-        <v>377091</v>
-      </c>
-      <c r="F106" s="1" t="s">
+    </row>
+    <row r="108" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>378135000</v>
+      </c>
+      <c r="B108">
+        <v>378135000</v>
+      </c>
+      <c r="C108">
+        <v>378135000</v>
+      </c>
+      <c r="D108" t="s">
         <v>206</v>
       </c>
-      <c r="H106" t="s">
+      <c r="E108">
+        <v>378135</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>378135000</v>
-      </c>
-      <c r="B107">
-        <v>378135000</v>
-      </c>
-      <c r="C107">
-        <v>378135000</v>
-      </c>
-      <c r="D107" t="s">
+    <row r="109" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>378143000</v>
+      </c>
+      <c r="B109">
+        <v>4190307000</v>
+      </c>
+      <c r="C109">
+        <v>378143000</v>
+      </c>
+      <c r="D109" t="s">
         <v>208</v>
       </c>
-      <c r="E107">
-        <v>378135</v>
-      </c>
-      <c r="F107" s="1" t="s">
+      <c r="E109">
+        <v>378143</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>378143000</v>
-      </c>
-      <c r="B108">
-        <v>4190307000</v>
-      </c>
-      <c r="C108">
-        <v>378143000</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="H109" t="s">
         <v>210</v>
       </c>
-      <c r="E108">
-        <v>378143</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="I109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>378253000</v>
+      </c>
+      <c r="B110">
+        <v>378253000</v>
+      </c>
+      <c r="C110">
+        <v>378253000</v>
+      </c>
+      <c r="D110" t="s">
         <v>211</v>
       </c>
-      <c r="H108" t="s">
+      <c r="E110">
+        <v>378253</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>378253000</v>
-      </c>
-      <c r="B109">
-        <v>378253000</v>
-      </c>
-      <c r="C109">
-        <v>378253000</v>
-      </c>
-      <c r="D109" t="s">
-        <v>213</v>
-      </c>
-      <c r="E109">
-        <v>378253</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110">
+    </row>
+    <row r="111" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>378414000</v>
-      </c>
-      <c r="B110">
-        <v>378416000</v>
-      </c>
-      <c r="C110">
-        <v>378414000</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E110">
-        <v>378414</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I110" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>378416000</v>
       </c>
       <c r="B111">
         <v>378416000</v>
       </c>
       <c r="C111">
+        <v>378414000</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E111">
+        <v>378414</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>378416000</v>
       </c>
-      <c r="D111" t="s">
+      <c r="B112">
+        <v>378416000</v>
+      </c>
+      <c r="C112">
+        <v>378416000</v>
+      </c>
+      <c r="D112" t="s">
+        <v>214</v>
+      </c>
+      <c r="E112">
+        <v>378416</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>378419000</v>
+      </c>
+      <c r="B113">
+        <v>378419000</v>
+      </c>
+      <c r="C113">
+        <v>378419000</v>
+      </c>
+      <c r="D113" t="s">
         <v>216</v>
       </c>
-      <c r="E111">
-        <v>378416</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="E113">
+        <v>378419</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>378419000</v>
-      </c>
-      <c r="B112">
-        <v>378419000</v>
-      </c>
-      <c r="C112">
-        <v>378419000</v>
-      </c>
-      <c r="D112" t="s">
+    <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>380378000</v>
+      </c>
+      <c r="B114">
+        <v>377091000</v>
+      </c>
+      <c r="C114">
+        <v>380378000</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E112">
-        <v>378419</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>380378000</v>
-      </c>
-      <c r="B113">
-        <v>377091000</v>
-      </c>
-      <c r="C113">
-        <v>380378000</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E113">
+      <c r="E114">
         <v>380378</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="I113" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>381009000</v>
-      </c>
-      <c r="B114">
-        <v>375801000</v>
-      </c>
-      <c r="C114">
-        <v>381009000</v>
-      </c>
-      <c r="D114" t="s">
-        <v>221</v>
-      </c>
-      <c r="E114">
-        <v>381009</v>
-      </c>
       <c r="F114" s="1" t="s">
-        <v>222</v>
+        <v>533</v>
       </c>
       <c r="I114" t="s">
         <v>26</v>
@@ -5007,3047 +5013,3050 @@
     </row>
     <row r="115" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A115">
+        <v>381009000</v>
+      </c>
+      <c r="B115">
+        <v>375801000</v>
+      </c>
+      <c r="C115">
+        <v>381009000</v>
+      </c>
+      <c r="D115" t="s">
+        <v>219</v>
+      </c>
+      <c r="E115">
+        <v>381009</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>381114000</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <v>381114000</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>381114000</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116">
+        <v>381114</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>381270000</v>
+      </c>
+      <c r="B117">
+        <v>381270000</v>
+      </c>
+      <c r="C117">
+        <v>381270000</v>
+      </c>
+      <c r="D117" t="s">
         <v>223</v>
       </c>
-      <c r="E115">
-        <v>381114</v>
-      </c>
-      <c r="F115" s="1" t="s">
+      <c r="E117">
+        <v>381270</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>381270000</v>
-      </c>
-      <c r="B116">
-        <v>381270000</v>
-      </c>
-      <c r="C116">
-        <v>381270000</v>
-      </c>
-      <c r="D116" t="s">
-        <v>225</v>
-      </c>
-      <c r="E116">
-        <v>381270</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>381316000</v>
-      </c>
-      <c r="B117">
-        <v>381591000</v>
-      </c>
-      <c r="C117">
-        <v>381316000</v>
-      </c>
-      <c r="D117" t="s">
-        <v>227</v>
-      </c>
-      <c r="E117">
-        <v>381316</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I117" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>381591000</v>
       </c>
       <c r="B118">
         <v>381591000</v>
       </c>
       <c r="C118">
+        <v>381316000</v>
+      </c>
+      <c r="D118" t="s">
+        <v>225</v>
+      </c>
+      <c r="E118">
+        <v>381316</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>381591000</v>
       </c>
-      <c r="D118" t="s">
+      <c r="B119">
+        <v>381591000</v>
+      </c>
+      <c r="C119">
+        <v>381591000</v>
+      </c>
+      <c r="D119" t="s">
+        <v>227</v>
+      </c>
+      <c r="E119">
+        <v>381591</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H119" t="s">
         <v>229</v>
       </c>
-      <c r="E118">
-        <v>381591</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H118" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>432571000</v>
       </c>
-      <c r="B119">
+      <c r="B120">
         <v>432571000</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <v>432571000</v>
       </c>
-      <c r="D119" t="s">
-        <v>556</v>
-      </c>
-      <c r="E119">
+      <c r="D120" t="s">
+        <v>552</v>
+      </c>
+      <c r="E120">
         <v>432571000</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>432585000</v>
-      </c>
-      <c r="B120">
-        <v>432585000</v>
-      </c>
-      <c r="C120">
-        <v>432585000</v>
-      </c>
-      <c r="D120" t="s">
-        <v>232</v>
-      </c>
-      <c r="E120">
-        <v>432585</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H120" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>432595000</v>
+        <v>432585000</v>
       </c>
       <c r="B121">
-        <v>432595000</v>
+        <v>432585000</v>
       </c>
       <c r="C121">
-        <v>432595000</v>
+        <v>432585000</v>
       </c>
       <c r="D121" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E121">
-        <v>432595</v>
+        <v>432585</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>543</v>
+        <v>231</v>
+      </c>
+      <c r="H121" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A122">
+        <v>432595000</v>
+      </c>
+      <c r="B122">
+        <v>432595000</v>
+      </c>
+      <c r="C122">
+        <v>432595000</v>
+      </c>
+      <c r="D122" t="s">
+        <v>233</v>
+      </c>
+      <c r="E122">
+        <v>432595</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>432791000</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <v>432791000</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <v>432791000</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
+        <v>234</v>
+      </c>
+      <c r="E123">
+        <v>432791</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>432867000</v>
+      </c>
+      <c r="B124">
+        <v>432867000</v>
+      </c>
+      <c r="C124">
+        <v>432867000</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E122">
-        <v>432791</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="E124">
+        <v>432867</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>432867000</v>
-      </c>
-      <c r="B123">
-        <v>432867000</v>
-      </c>
-      <c r="C123">
-        <v>432867000</v>
-      </c>
-      <c r="D123" s="3" t="s">
+    <row r="125" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>432870000</v>
+      </c>
+      <c r="B125">
+        <v>432870000</v>
+      </c>
+      <c r="C125">
+        <v>432870000</v>
+      </c>
+      <c r="D125" t="s">
         <v>238</v>
       </c>
-      <c r="E123">
-        <v>432867</v>
-      </c>
-      <c r="F123" s="1" t="s">
+      <c r="E125">
+        <v>432870</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>432870000</v>
-      </c>
-      <c r="B124">
-        <v>432870000</v>
-      </c>
-      <c r="C124">
-        <v>432870000</v>
-      </c>
-      <c r="D124" t="s">
+    <row r="126" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>432881000</v>
+      </c>
+      <c r="B126">
+        <v>432881000</v>
+      </c>
+      <c r="C126">
+        <v>432881000</v>
+      </c>
+      <c r="D126" t="s">
         <v>240</v>
       </c>
-      <c r="E124">
-        <v>432870</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="E126">
+        <v>432881</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>432881000</v>
-      </c>
-      <c r="B125">
-        <v>432881000</v>
-      </c>
-      <c r="C125">
-        <v>432881000</v>
-      </c>
-      <c r="D125" t="s">
-        <v>242</v>
-      </c>
-      <c r="E125">
-        <v>432881</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>432893000</v>
-      </c>
-      <c r="B126">
-        <v>4027537000</v>
-      </c>
-      <c r="C126">
-        <v>432893000</v>
-      </c>
-      <c r="D126" t="s">
-        <v>244</v>
-      </c>
-      <c r="E126">
-        <v>432893</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I126" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A127">
+        <v>432893000</v>
+      </c>
+      <c r="B127">
+        <v>4027537000</v>
+      </c>
+      <c r="C127">
+        <v>432893000</v>
+      </c>
+      <c r="D127" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127">
+        <v>432893</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>433595000</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>433595000</v>
       </c>
-      <c r="C127">
+      <c r="C128">
         <v>433595000</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
+        <v>244</v>
+      </c>
+      <c r="E128">
+        <v>433595</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>433736000</v>
+      </c>
+      <c r="B129">
+        <v>433736000</v>
+      </c>
+      <c r="C129">
+        <v>433736000</v>
+      </c>
+      <c r="D129" t="s">
         <v>246</v>
       </c>
-      <c r="E127">
-        <v>433595</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="E129">
+        <v>433736</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>433736000</v>
-      </c>
-      <c r="B128">
-        <v>433736000</v>
-      </c>
-      <c r="C128">
-        <v>433736000</v>
-      </c>
-      <c r="D128" t="s">
+    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>434119000</v>
+      </c>
+      <c r="B130">
+        <v>434119000</v>
+      </c>
+      <c r="C130">
+        <v>434119000</v>
+      </c>
+      <c r="D130" t="s">
         <v>248</v>
       </c>
-      <c r="E128">
-        <v>433736</v>
-      </c>
-      <c r="F128" s="1" t="s">
+      <c r="E130">
+        <v>434119</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>434119000</v>
-      </c>
-      <c r="B129">
-        <v>434119000</v>
-      </c>
-      <c r="C129">
-        <v>434119000</v>
-      </c>
-      <c r="D129" t="s">
+    <row r="131" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>434557000</v>
+      </c>
+      <c r="B131">
+        <v>434557000</v>
+      </c>
+      <c r="C131">
+        <v>434557000</v>
+      </c>
+      <c r="D131" t="s">
         <v>250</v>
       </c>
-      <c r="E129">
-        <v>434119</v>
-      </c>
-      <c r="F129" s="1" t="s">
+      <c r="E131">
+        <v>434557</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>434557000</v>
-      </c>
-      <c r="B130">
-        <v>434557000</v>
-      </c>
-      <c r="C130">
-        <v>434557000</v>
-      </c>
-      <c r="D130" t="s">
+    <row r="132" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>434584000</v>
+      </c>
+      <c r="B132">
+        <v>434584000</v>
+      </c>
+      <c r="C132">
+        <v>434584000</v>
+      </c>
+      <c r="D132" t="s">
         <v>252</v>
       </c>
-      <c r="E130">
-        <v>434557</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="E132">
+        <v>434584</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>434584000</v>
-      </c>
-      <c r="B131">
-        <v>434584000</v>
-      </c>
-      <c r="C131">
-        <v>434584000</v>
-      </c>
-      <c r="D131" t="s">
+    <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>434592000</v>
+      </c>
+      <c r="B133">
+        <v>432571000</v>
+      </c>
+      <c r="C133">
+        <v>434592000</v>
+      </c>
+      <c r="D133" t="s">
         <v>254</v>
       </c>
-      <c r="E131">
-        <v>434584</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>434592000</v>
-      </c>
-      <c r="B132">
-        <v>432571000</v>
-      </c>
-      <c r="C132">
-        <v>434592000</v>
-      </c>
-      <c r="D132" t="s">
-        <v>256</v>
-      </c>
-      <c r="E132">
+      <c r="E133">
         <v>434592</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>434610000</v>
-      </c>
-      <c r="B133">
-        <v>434610000</v>
-      </c>
-      <c r="C133">
-        <v>434610000</v>
-      </c>
-      <c r="D133" t="s">
-        <v>257</v>
-      </c>
-      <c r="E133">
-        <v>434610</v>
-      </c>
       <c r="F133" s="1" t="s">
-        <v>258</v>
+        <v>553</v>
+      </c>
+      <c r="I133" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A134">
+        <v>434610000</v>
+      </c>
+      <c r="B134">
+        <v>434610000</v>
+      </c>
+      <c r="C134">
+        <v>434610000</v>
+      </c>
+      <c r="D134" t="s">
+        <v>255</v>
+      </c>
+      <c r="E134">
+        <v>434610</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>434821000</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <v>201965000</v>
       </c>
-      <c r="C134">
+      <c r="C135">
         <v>434821000</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
+        <v>257</v>
+      </c>
+      <c r="E135">
+        <v>434821</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>435224000</v>
+      </c>
+      <c r="B136">
+        <v>435224000</v>
+      </c>
+      <c r="C136">
+        <v>435224000</v>
+      </c>
+      <c r="D136" t="s">
         <v>259</v>
       </c>
-      <c r="E134">
-        <v>434821</v>
-      </c>
-      <c r="F134" s="1" t="s">
+      <c r="E136">
+        <v>435224</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>435224000</v>
-      </c>
-      <c r="B135">
-        <v>435224000</v>
-      </c>
-      <c r="C135">
-        <v>435224000</v>
-      </c>
-      <c r="D135" t="s">
+    </row>
+    <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>435783000</v>
+      </c>
+      <c r="B137">
+        <v>435783000</v>
+      </c>
+      <c r="C137">
+        <v>435783000</v>
+      </c>
+      <c r="D137" t="s">
         <v>261</v>
       </c>
-      <c r="E135">
-        <v>435224</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="E137">
+        <v>435783</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>435783000</v>
-      </c>
-      <c r="B136">
-        <v>435783000</v>
-      </c>
-      <c r="C136">
-        <v>435783000</v>
-      </c>
-      <c r="D136" t="s">
+    <row r="138" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>435785000</v>
+      </c>
+      <c r="B138">
+        <v>4190307000</v>
+      </c>
+      <c r="C138">
+        <v>435785000</v>
+      </c>
+      <c r="D138" t="s">
         <v>263</v>
       </c>
-      <c r="E136">
-        <v>435783</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="E138">
+        <v>435785</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>435785000</v>
-      </c>
-      <c r="B137">
-        <v>4190307000</v>
-      </c>
-      <c r="C137">
-        <v>435785000</v>
-      </c>
-      <c r="D137" t="s">
-        <v>265</v>
-      </c>
-      <c r="E137">
-        <v>435785</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I137" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>436073000</v>
-      </c>
-      <c r="B138">
-        <v>436073000</v>
-      </c>
-      <c r="C138">
-        <v>436073000</v>
-      </c>
-      <c r="D138" t="s">
-        <v>267</v>
-      </c>
-      <c r="E138">
-        <v>436073</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>268</v>
+      <c r="I138" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>436081000</v>
+        <v>436073000</v>
       </c>
       <c r="B139">
-        <v>436081000</v>
+        <v>436073000</v>
       </c>
       <c r="C139">
-        <v>436081000</v>
+        <v>436073000</v>
       </c>
       <c r="D139" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E139">
-        <v>436081</v>
+        <v>436073</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H139" t="s">
-        <v>532</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A140">
+        <v>436081000</v>
+      </c>
+      <c r="B140">
+        <v>436081000</v>
+      </c>
+      <c r="C140">
+        <v>436081000</v>
+      </c>
+      <c r="D140" t="s">
+        <v>267</v>
+      </c>
+      <c r="E140">
+        <v>436081</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H140" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>436096000</v>
       </c>
-      <c r="B140">
+      <c r="B141">
         <v>436096000</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <v>436096000</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
+        <v>269</v>
+      </c>
+      <c r="E141">
+        <v>436096</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>436100000</v>
+      </c>
+      <c r="B142">
+        <v>436100000</v>
+      </c>
+      <c r="C142">
+        <v>436100000</v>
+      </c>
+      <c r="D142" t="s">
         <v>271</v>
       </c>
-      <c r="E140">
-        <v>436096</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="E142">
+        <v>436100</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>436100000</v>
-      </c>
-      <c r="B141">
-        <v>436100000</v>
-      </c>
-      <c r="C141">
-        <v>436100000</v>
-      </c>
-      <c r="D141" t="s">
+    <row r="143" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>436235000</v>
+      </c>
+      <c r="B143">
+        <v>436235000</v>
+      </c>
+      <c r="C143">
+        <v>436235000</v>
+      </c>
+      <c r="D143" t="s">
         <v>273</v>
       </c>
-      <c r="E141">
-        <v>436100</v>
-      </c>
-      <c r="F141" s="1" t="s">
+      <c r="E143">
+        <v>4307095</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>436235000</v>
-      </c>
-      <c r="B142">
-        <v>436235000</v>
-      </c>
-      <c r="C142">
-        <v>436235000</v>
-      </c>
-      <c r="D142" t="s">
+    <row r="144" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>436642000</v>
+      </c>
+      <c r="B144">
+        <v>4137275000</v>
+      </c>
+      <c r="C144">
+        <v>436642000</v>
+      </c>
+      <c r="D144" t="s">
         <v>275</v>
       </c>
-      <c r="E142">
-        <v>4307095</v>
-      </c>
-      <c r="F142" s="1" t="s">
+      <c r="E144">
+        <v>436642</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>436642000</v>
-      </c>
-      <c r="B143">
-        <v>4137275000</v>
-      </c>
-      <c r="C143">
-        <v>436642000</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="I144" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>436665000</v>
+      </c>
+      <c r="B145">
+        <v>436665000</v>
+      </c>
+      <c r="C145">
+        <v>436665000</v>
+      </c>
+      <c r="D145" t="s">
         <v>277</v>
       </c>
-      <c r="E143">
-        <v>436642</v>
-      </c>
-      <c r="F143" s="1" t="s">
+      <c r="E145">
+        <v>436665</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I143" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>436665000</v>
-      </c>
-      <c r="B144">
-        <v>436665000</v>
-      </c>
-      <c r="C144">
-        <v>436665000</v>
-      </c>
-      <c r="D144" t="s">
+    </row>
+    <row r="146" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>436676000</v>
+      </c>
+      <c r="B146">
+        <v>436676000</v>
+      </c>
+      <c r="C146">
+        <v>436676000</v>
+      </c>
+      <c r="D146" t="s">
         <v>279</v>
       </c>
-      <c r="E144">
-        <v>436665</v>
-      </c>
-      <c r="F144" s="1" t="s">
+      <c r="E146">
+        <v>436676</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>436676000</v>
-      </c>
-      <c r="B145">
-        <v>436676000</v>
-      </c>
-      <c r="C145">
-        <v>436676000</v>
-      </c>
-      <c r="D145" t="s">
+    <row r="147" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>436962000</v>
+      </c>
+      <c r="B147">
+        <v>436962000</v>
+      </c>
+      <c r="C147">
+        <v>436962000</v>
+      </c>
+      <c r="D147" t="s">
         <v>281</v>
       </c>
-      <c r="E145">
-        <v>436676</v>
-      </c>
-      <c r="F145" s="1" t="s">
+      <c r="E147">
+        <v>436962</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>436962000</v>
-      </c>
-      <c r="B146">
-        <v>436962000</v>
-      </c>
-      <c r="C146">
-        <v>436962000</v>
-      </c>
-      <c r="D146" t="s">
+    <row r="148" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>437082000</v>
+      </c>
+      <c r="B148">
+        <v>73553000</v>
+      </c>
+      <c r="C148">
+        <v>437082000</v>
+      </c>
+      <c r="D148" t="s">
         <v>283</v>
       </c>
-      <c r="E146">
-        <v>436962</v>
-      </c>
-      <c r="F146" s="1" t="s">
+      <c r="E148">
+        <v>437082</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>437222000</v>
+      </c>
+      <c r="B149">
+        <v>437222000</v>
+      </c>
+      <c r="C149">
+        <v>437222000</v>
+      </c>
+      <c r="D149" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>437082000</v>
-      </c>
-      <c r="B147">
-        <v>73553000</v>
-      </c>
-      <c r="C147">
-        <v>437082000</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="E149">
+        <v>437222</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E147">
-        <v>437082</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="I147" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>437222000</v>
-      </c>
-      <c r="B148">
-        <v>437222000</v>
-      </c>
-      <c r="C148">
-        <v>437222000</v>
-      </c>
-      <c r="D148" t="s">
+    </row>
+    <row r="150" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>437233000</v>
+      </c>
+      <c r="B150">
+        <v>436081000</v>
+      </c>
+      <c r="C150">
+        <v>437233000</v>
+      </c>
+      <c r="D150" t="s">
         <v>286</v>
       </c>
-      <c r="E148">
-        <v>437222</v>
-      </c>
-      <c r="F148" s="1" t="s">
+      <c r="E150">
+        <v>437233</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>437233000</v>
-      </c>
-      <c r="B149">
-        <v>436081000</v>
-      </c>
-      <c r="C149">
-        <v>437233000</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="I150" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>437312000</v>
+      </c>
+      <c r="B151">
+        <v>437312000</v>
+      </c>
+      <c r="C151">
+        <v>437312000</v>
+      </c>
+      <c r="D151" t="s">
         <v>288</v>
       </c>
-      <c r="E149">
-        <v>437233</v>
-      </c>
-      <c r="F149" s="1" t="s">
+      <c r="E151">
+        <v>437312</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I149" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>437312000</v>
-      </c>
-      <c r="B150">
-        <v>437312000</v>
-      </c>
-      <c r="C150">
-        <v>437312000</v>
-      </c>
-      <c r="D150" t="s">
+    </row>
+    <row r="152" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>437541000</v>
+      </c>
+      <c r="B152">
+        <v>437541000</v>
+      </c>
+      <c r="C152">
+        <v>437541000</v>
+      </c>
+      <c r="D152" t="s">
         <v>290</v>
       </c>
-      <c r="E150">
-        <v>437312</v>
-      </c>
-      <c r="F150" s="1" t="s">
+      <c r="E152">
+        <v>437541</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>437541000</v>
-      </c>
-      <c r="B151">
-        <v>437541000</v>
-      </c>
-      <c r="C151">
-        <v>437541000</v>
-      </c>
-      <c r="D151" t="s">
+    <row r="153" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>437663000</v>
+      </c>
+      <c r="B153">
+        <v>437663000</v>
+      </c>
+      <c r="C153">
+        <v>437663000</v>
+      </c>
+      <c r="D153" t="s">
         <v>292</v>
       </c>
-      <c r="E151">
-        <v>437541</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="E153">
+        <v>437663</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>437663000</v>
-      </c>
-      <c r="B152">
-        <v>437663000</v>
-      </c>
-      <c r="C152">
-        <v>437663000</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="H153" t="s">
         <v>294</v>
-      </c>
-      <c r="E152">
-        <v>437663</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H152" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>437833000</v>
-      </c>
-      <c r="B153">
-        <v>437833000</v>
-      </c>
-      <c r="C153">
-        <v>437833000</v>
-      </c>
-      <c r="D153" t="s">
-        <v>297</v>
-      </c>
-      <c r="E153">
-        <v>437833</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A154">
+        <v>437833000</v>
+      </c>
+      <c r="B154">
+        <v>437833000</v>
+      </c>
+      <c r="C154">
+        <v>437833000</v>
+      </c>
+      <c r="D154" t="s">
+        <v>295</v>
+      </c>
+      <c r="E154">
+        <v>437833</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>438120000</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <v>438120000</v>
       </c>
-      <c r="C154">
+      <c r="C155">
         <v>438120000</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D155" t="s">
+        <v>297</v>
+      </c>
+      <c r="E155">
+        <v>438120</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>438130000</v>
+      </c>
+      <c r="B156">
+        <v>438130000</v>
+      </c>
+      <c r="C156">
+        <v>438130000</v>
+      </c>
+      <c r="D156" t="s">
         <v>299</v>
       </c>
-      <c r="E154">
-        <v>438120</v>
-      </c>
-      <c r="F154" s="1" t="s">
+      <c r="E156">
+        <v>438130</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>438130000</v>
-      </c>
-      <c r="B155">
-        <v>438130000</v>
-      </c>
-      <c r="C155">
-        <v>438130000</v>
-      </c>
-      <c r="D155" t="s">
+    <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>438409000</v>
+      </c>
+      <c r="B157">
+        <v>438409000</v>
+      </c>
+      <c r="C157">
+        <v>438409000</v>
+      </c>
+      <c r="D157" t="s">
         <v>301</v>
       </c>
-      <c r="E155">
-        <v>438130</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="E157">
+        <v>438409</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>438409000</v>
-      </c>
-      <c r="B156">
-        <v>438409000</v>
-      </c>
-      <c r="C156">
-        <v>438409000</v>
-      </c>
-      <c r="D156" t="s">
+    <row r="158" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>439393000</v>
+      </c>
+      <c r="B158">
+        <v>439393000</v>
+      </c>
+      <c r="C158">
+        <v>439393000</v>
+      </c>
+      <c r="D158" t="s">
         <v>303</v>
       </c>
-      <c r="E156">
-        <v>438409</v>
-      </c>
-      <c r="F156" s="1" t="s">
+      <c r="E158">
+        <v>439393</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>439393000</v>
-      </c>
-      <c r="B157">
-        <v>439393000</v>
-      </c>
-      <c r="C157">
-        <v>439393000</v>
-      </c>
-      <c r="D157" t="s">
+    <row r="159" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>439727000</v>
+      </c>
+      <c r="B159">
+        <v>439727000</v>
+      </c>
+      <c r="C159">
+        <v>439727000</v>
+      </c>
+      <c r="D159" t="s">
         <v>305</v>
       </c>
-      <c r="E157">
-        <v>439393</v>
-      </c>
-      <c r="F157" s="1" t="s">
+      <c r="E159">
+        <v>439727</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>439727000</v>
-      </c>
-      <c r="B158">
-        <v>439727000</v>
-      </c>
-      <c r="C158">
-        <v>439727000</v>
-      </c>
-      <c r="D158" t="s">
+    <row r="160" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>439776000</v>
+      </c>
+      <c r="B160">
+        <v>439776000</v>
+      </c>
+      <c r="C160">
+        <v>439776000</v>
+      </c>
+      <c r="D160" t="s">
         <v>307</v>
       </c>
-      <c r="E158">
-        <v>439727</v>
-      </c>
-      <c r="F158" s="1" t="s">
+      <c r="E160">
+        <v>439776</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>439776000</v>
-      </c>
-      <c r="B159">
-        <v>439776000</v>
-      </c>
-      <c r="C159">
-        <v>439776000</v>
-      </c>
-      <c r="D159" t="s">
+    <row r="161" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>439777000</v>
+      </c>
+      <c r="B161">
+        <v>439777000</v>
+      </c>
+      <c r="C161">
+        <v>439777000</v>
+      </c>
+      <c r="D161" t="s">
         <v>309</v>
       </c>
-      <c r="E159">
-        <v>439776</v>
-      </c>
-      <c r="F159" s="1" t="s">
+      <c r="E161">
+        <v>439777</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>439777000</v>
-      </c>
-      <c r="B160">
-        <v>439777000</v>
-      </c>
-      <c r="C160">
-        <v>439777000</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="H161" t="s">
         <v>311</v>
       </c>
-      <c r="E160">
-        <v>439777</v>
-      </c>
-      <c r="F160" s="1" t="s">
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>439842000</v>
+      </c>
+      <c r="B162">
+        <v>439842000</v>
+      </c>
+      <c r="C162">
+        <v>439842000</v>
+      </c>
+      <c r="D162" t="s">
         <v>312</v>
       </c>
-      <c r="H160" t="s">
+      <c r="E162">
+        <v>439842</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>439842000</v>
-      </c>
-      <c r="B161">
-        <v>439842000</v>
-      </c>
-      <c r="C161">
-        <v>439842000</v>
-      </c>
-      <c r="D161" t="s">
+    <row r="163" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>440377000</v>
+      </c>
+      <c r="B163">
+        <v>440377000</v>
+      </c>
+      <c r="C163">
+        <v>440377000</v>
+      </c>
+      <c r="D163" t="s">
         <v>314</v>
       </c>
-      <c r="E161">
-        <v>439842</v>
-      </c>
-      <c r="F161" s="1" t="s">
+      <c r="E163">
+        <v>440377</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>440377000</v>
-      </c>
-      <c r="B162">
-        <v>440377000</v>
-      </c>
-      <c r="C162">
-        <v>440377000</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="H163" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>440383000</v>
+      </c>
+      <c r="B164">
+        <v>440383000</v>
+      </c>
+      <c r="C164">
+        <v>440383000</v>
+      </c>
+      <c r="D164" t="s">
         <v>316</v>
       </c>
-      <c r="E162">
-        <v>440377</v>
-      </c>
-      <c r="F162" s="1" t="s">
+      <c r="E164">
+        <v>440383</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H162" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>440383000</v>
-      </c>
-      <c r="B163">
-        <v>440383000</v>
-      </c>
-      <c r="C163">
-        <v>440383000</v>
-      </c>
-      <c r="D163" t="s">
+    </row>
+    <row r="165" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>440417000</v>
+      </c>
+      <c r="B165">
+        <v>440417000</v>
+      </c>
+      <c r="C165">
+        <v>440417000</v>
+      </c>
+      <c r="D165" t="s">
         <v>318</v>
       </c>
-      <c r="E163">
-        <v>440383</v>
-      </c>
-      <c r="F163" s="1" t="s">
+      <c r="E165">
+        <v>440417</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>440417000</v>
-      </c>
-      <c r="B164">
-        <v>440417000</v>
-      </c>
-      <c r="C164">
-        <v>440417000</v>
-      </c>
-      <c r="D164" t="s">
+    <row r="166" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>440674000</v>
+      </c>
+      <c r="B166">
+        <v>440674000</v>
+      </c>
+      <c r="C166">
+        <v>440674000</v>
+      </c>
+      <c r="D166" t="s">
         <v>320</v>
       </c>
-      <c r="E164">
-        <v>440417</v>
-      </c>
-      <c r="F164" s="1" t="s">
+      <c r="E166">
+        <v>440674</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>440674000</v>
-      </c>
-      <c r="B165">
-        <v>440674000</v>
-      </c>
-      <c r="C165">
-        <v>440674000</v>
-      </c>
-      <c r="D165" t="s">
-        <v>322</v>
-      </c>
-      <c r="E165">
-        <v>440674</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>440703000</v>
-      </c>
-      <c r="B166">
-        <v>440703000</v>
-      </c>
-      <c r="C166">
-        <v>440703000</v>
-      </c>
-      <c r="D166" t="s">
-        <v>324</v>
-      </c>
-      <c r="E166">
-        <v>440703</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A167">
+        <v>440703000</v>
+      </c>
+      <c r="B167">
+        <v>440703000</v>
+      </c>
+      <c r="C167">
+        <v>440703000</v>
+      </c>
+      <c r="D167" t="s">
+        <v>322</v>
+      </c>
+      <c r="E167">
+        <v>440703</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>440740000</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <v>4137275000</v>
       </c>
-      <c r="C167">
+      <c r="C168">
         <v>440740000</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D168" t="s">
+        <v>324</v>
+      </c>
+      <c r="E168">
+        <v>440740</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>440925000</v>
+      </c>
+      <c r="B169">
+        <v>440925000</v>
+      </c>
+      <c r="C169">
+        <v>440925000</v>
+      </c>
+      <c r="D169" t="s">
         <v>326</v>
       </c>
-      <c r="E167">
-        <v>440740</v>
-      </c>
-      <c r="F167" s="1" t="s">
+      <c r="E169">
+        <v>440925</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="I167" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>440925000</v>
-      </c>
-      <c r="B168">
-        <v>440925000</v>
-      </c>
-      <c r="C168">
-        <v>440925000</v>
-      </c>
-      <c r="D168" t="s">
-        <v>328</v>
-      </c>
-      <c r="E168">
-        <v>440925</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>440940000</v>
-      </c>
-      <c r="B169">
-        <v>440940000</v>
-      </c>
-      <c r="C169">
-        <v>440940000</v>
-      </c>
-      <c r="D169" t="s">
-        <v>330</v>
-      </c>
-      <c r="E169">
-        <v>440940</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A170">
+        <v>440940000</v>
+      </c>
+      <c r="B170">
+        <v>440940000</v>
+      </c>
+      <c r="C170">
+        <v>440940000</v>
+      </c>
+      <c r="D170" t="s">
+        <v>328</v>
+      </c>
+      <c r="E170">
+        <v>440940</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>441202000</v>
       </c>
-      <c r="B170">
+      <c r="B171">
         <v>441202000</v>
       </c>
-      <c r="C170">
+      <c r="C171">
         <v>441202000</v>
       </c>
-      <c r="D170" t="s">
-        <v>332</v>
-      </c>
-      <c r="E170">
+      <c r="D171" t="s">
+        <v>330</v>
+      </c>
+      <c r="E171">
         <v>441202</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>441284000</v>
-      </c>
-      <c r="B171">
-        <v>441284000</v>
-      </c>
-      <c r="C171">
-        <v>441284000</v>
-      </c>
-      <c r="D171" t="s">
-        <v>334</v>
-      </c>
-      <c r="E171">
-        <v>441284</v>
-      </c>
       <c r="F171" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A172">
+        <v>441284000</v>
+      </c>
+      <c r="B172">
+        <v>441284000</v>
+      </c>
+      <c r="C172">
+        <v>441284000</v>
+      </c>
+      <c r="D172" t="s">
+        <v>332</v>
+      </c>
+      <c r="E172">
+        <v>441284</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>441408000</v>
       </c>
-      <c r="B172">
+      <c r="B173">
         <v>441408000</v>
       </c>
-      <c r="C172">
+      <c r="C173">
         <v>441408000</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D173" t="s">
+        <v>334</v>
+      </c>
+      <c r="E173">
+        <v>441408</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>441542000</v>
+      </c>
+      <c r="B174">
+        <v>441542000</v>
+      </c>
+      <c r="C174">
+        <v>441542000</v>
+      </c>
+      <c r="D174" t="s">
         <v>336</v>
       </c>
-      <c r="E172">
-        <v>441408</v>
-      </c>
-      <c r="F172" s="1" t="s">
+      <c r="E174">
+        <v>441542</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>441542000</v>
-      </c>
-      <c r="B173">
-        <v>441542000</v>
-      </c>
-      <c r="C173">
-        <v>441542000</v>
-      </c>
-      <c r="D173" t="s">
+    <row r="175" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>441788000</v>
+      </c>
+      <c r="B175">
+        <v>441788000</v>
+      </c>
+      <c r="C175">
+        <v>441788000</v>
+      </c>
+      <c r="D175" t="s">
         <v>338</v>
       </c>
-      <c r="E173">
-        <v>441542</v>
-      </c>
-      <c r="F173" s="1" t="s">
+      <c r="E175">
+        <v>441788</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>441788000</v>
-      </c>
-      <c r="B174">
-        <v>441788000</v>
-      </c>
-      <c r="C174">
-        <v>441788000</v>
-      </c>
-      <c r="D174" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>441848000</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>441848000</v>
+      </c>
+      <c r="D176" t="s">
         <v>340</v>
       </c>
-      <c r="E174">
-        <v>441788</v>
-      </c>
-      <c r="F174" s="1" t="s">
+      <c r="E176">
+        <v>441848</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>441848000</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>441848000</v>
-      </c>
-      <c r="D175" t="s">
-        <v>342</v>
-      </c>
-      <c r="E175">
-        <v>441848</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I175" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>442752000</v>
-      </c>
-      <c r="B176">
-        <v>442752000</v>
-      </c>
-      <c r="C176">
-        <v>442752000</v>
-      </c>
-      <c r="D176" t="s">
-        <v>344</v>
-      </c>
-      <c r="E176">
-        <v>442752</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>345</v>
+      <c r="I176" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A177">
+        <v>442752000</v>
+      </c>
+      <c r="B177">
+        <v>442752000</v>
+      </c>
+      <c r="C177">
+        <v>442752000</v>
+      </c>
+      <c r="D177" t="s">
+        <v>342</v>
+      </c>
+      <c r="E177">
+        <v>442752</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>443213000</v>
       </c>
-      <c r="B177">
+      <c r="B178">
         <v>443213000</v>
       </c>
-      <c r="C177">
+      <c r="C178">
         <v>443213000</v>
       </c>
-      <c r="D177" t="s">
-        <v>346</v>
-      </c>
-      <c r="E177">
+      <c r="D178" t="s">
+        <v>344</v>
+      </c>
+      <c r="E178">
         <v>443213</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>443387000</v>
-      </c>
-      <c r="B178">
-        <v>443387000</v>
-      </c>
-      <c r="C178">
-        <v>443387000</v>
-      </c>
-      <c r="D178" t="s">
-        <v>348</v>
-      </c>
-      <c r="E178">
-        <v>443387</v>
-      </c>
       <c r="F178" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A179">
+        <v>443387000</v>
+      </c>
+      <c r="B179">
+        <v>443387000</v>
+      </c>
+      <c r="C179">
+        <v>443387000</v>
+      </c>
+      <c r="D179" t="s">
+        <v>346</v>
+      </c>
+      <c r="E179">
+        <v>443387</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>443392000</v>
       </c>
-      <c r="B179">
+      <c r="B180">
         <v>443392000</v>
       </c>
-      <c r="C179">
+      <c r="C180">
         <v>443392000</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D180" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E180">
+        <v>443392</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>443454000</v>
+      </c>
+      <c r="B181">
+        <v>381591000</v>
+      </c>
+      <c r="C181">
+        <v>443454000</v>
+      </c>
+      <c r="D181" t="s">
         <v>350</v>
       </c>
-      <c r="E179">
-        <v>443392</v>
-      </c>
-      <c r="F179" s="1" t="s">
+      <c r="E181">
+        <v>443454</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>443454000</v>
-      </c>
-      <c r="B180">
-        <v>381591000</v>
-      </c>
-      <c r="C180">
-        <v>443454000</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="I181" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>443700000</v>
+      </c>
+      <c r="B182">
+        <v>443700000</v>
+      </c>
+      <c r="C182">
+        <v>443700000</v>
+      </c>
+      <c r="D182" t="s">
         <v>352</v>
       </c>
-      <c r="E180">
-        <v>443454</v>
-      </c>
-      <c r="F180" s="1" t="s">
+      <c r="E182">
+        <v>443700</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="I180" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>443700000</v>
-      </c>
-      <c r="B181">
-        <v>443700000</v>
-      </c>
-      <c r="C181">
-        <v>443700000</v>
-      </c>
-      <c r="D181" t="s">
+    </row>
+    <row r="183" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>443727000</v>
+      </c>
+      <c r="B183">
+        <v>201820000</v>
+      </c>
+      <c r="C183">
+        <v>443727000</v>
+      </c>
+      <c r="D183" t="s">
         <v>354</v>
       </c>
-      <c r="E181">
-        <v>443700</v>
-      </c>
-      <c r="F181" s="1" t="s">
+      <c r="E183">
+        <v>443727</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I183" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>444044000</v>
+      </c>
+      <c r="B184">
+        <v>4030518000</v>
+      </c>
+      <c r="C184">
+        <v>444044000</v>
+      </c>
+      <c r="D184" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>443727000</v>
-      </c>
-      <c r="B182">
-        <v>443727000</v>
-      </c>
-      <c r="C182">
-        <v>443727000</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="E184">
+        <v>444044</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>444070000</v>
+      </c>
+      <c r="B185">
+        <v>444070000</v>
+      </c>
+      <c r="C185">
+        <v>444070000</v>
+      </c>
+      <c r="D185" t="s">
         <v>356</v>
       </c>
-      <c r="E182">
-        <v>443727</v>
-      </c>
-      <c r="F182" s="1" t="s">
+      <c r="E185">
+        <v>444070</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>444044000</v>
-      </c>
-      <c r="B183">
+    <row r="186" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>444247000</v>
+      </c>
+      <c r="B186">
+        <v>444247000</v>
+      </c>
+      <c r="C186">
+        <v>444247000</v>
+      </c>
+      <c r="D186" t="s">
+        <v>358</v>
+      </c>
+      <c r="E186">
+        <v>444247</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>444429000</v>
+      </c>
+      <c r="B187">
+        <v>444429000</v>
+      </c>
+      <c r="C187">
+        <v>444429000</v>
+      </c>
+      <c r="D187" t="s">
+        <v>360</v>
+      </c>
+      <c r="E187">
+        <v>444429</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>4000634000</v>
+      </c>
+      <c r="B188">
+        <v>73553000</v>
+      </c>
+      <c r="C188">
+        <v>4000634000</v>
+      </c>
+      <c r="D188" t="s">
+        <v>362</v>
+      </c>
+      <c r="E188">
+        <v>4000634</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H188" t="s">
+        <v>364</v>
+      </c>
+      <c r="I188" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>4002359000</v>
+      </c>
+      <c r="B189">
+        <v>436081000</v>
+      </c>
+      <c r="C189">
+        <v>4002359000</v>
+      </c>
+      <c r="D189" t="s">
+        <v>365</v>
+      </c>
+      <c r="E189">
+        <v>4002359</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I189" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>4013643000</v>
+      </c>
+      <c r="B190">
+        <v>4013643000</v>
+      </c>
+      <c r="C190">
+        <v>4013643000</v>
+      </c>
+      <c r="D190" t="s">
+        <v>367</v>
+      </c>
+      <c r="E190">
+        <v>4013643</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>4024659000</v>
+      </c>
+      <c r="B191">
+        <v>201820000</v>
+      </c>
+      <c r="C191">
+        <v>4024659000</v>
+      </c>
+      <c r="D191" t="s">
+        <v>369</v>
+      </c>
+      <c r="E191">
+        <v>4024659</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H191" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4027537000</v>
+      </c>
+      <c r="B192">
+        <v>4027537000</v>
+      </c>
+      <c r="C192">
+        <v>4027537000</v>
+      </c>
+      <c r="D192" t="s">
+        <v>371</v>
+      </c>
+      <c r="E192">
+        <v>4027537</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4028363000</v>
+      </c>
+      <c r="B193">
+        <v>4028363000</v>
+      </c>
+      <c r="C193">
+        <v>4028363000</v>
+      </c>
+      <c r="D193" t="s">
+        <v>373</v>
+      </c>
+      <c r="E193">
+        <v>4028363</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>4030518000</v>
       </c>
-      <c r="C183">
-        <v>444044000</v>
-      </c>
-      <c r="D183" t="s">
-        <v>358</v>
-      </c>
-      <c r="E183">
-        <v>444044</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I183" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>444070000</v>
-      </c>
-      <c r="B184">
-        <v>444070000</v>
-      </c>
-      <c r="C184">
-        <v>444070000</v>
-      </c>
-      <c r="D184" t="s">
-        <v>359</v>
-      </c>
-      <c r="E184">
-        <v>444070</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>444247000</v>
-      </c>
-      <c r="B185">
-        <v>444247000</v>
-      </c>
-      <c r="C185">
-        <v>444247000</v>
-      </c>
-      <c r="D185" t="s">
-        <v>361</v>
-      </c>
-      <c r="E185">
-        <v>444247</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>444429000</v>
-      </c>
-      <c r="B186">
-        <v>444429000</v>
-      </c>
-      <c r="C186">
-        <v>444429000</v>
-      </c>
-      <c r="D186" t="s">
-        <v>363</v>
-      </c>
-      <c r="E186">
-        <v>444429</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>4000634000</v>
-      </c>
-      <c r="B187">
-        <v>73553000</v>
-      </c>
-      <c r="C187">
-        <v>4000634000</v>
-      </c>
-      <c r="D187" t="s">
-        <v>365</v>
-      </c>
-      <c r="E187">
-        <v>4000634</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="H187" t="s">
-        <v>367</v>
-      </c>
-      <c r="I187" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>4002359000</v>
-      </c>
-      <c r="B188">
+      <c r="B194">
+        <v>4030518000</v>
+      </c>
+      <c r="C194">
+        <v>4030518000</v>
+      </c>
+      <c r="D194" t="s">
+        <v>375</v>
+      </c>
+      <c r="E194">
+        <v>4030518</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>4038838000</v>
+      </c>
+      <c r="B195">
+        <v>432571000</v>
+      </c>
+      <c r="C195">
+        <v>4038838000</v>
+      </c>
+      <c r="D195" t="s">
+        <v>377</v>
+      </c>
+      <c r="E195">
+        <v>4038838</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I195" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>4043371000</v>
+      </c>
+      <c r="C196">
+        <v>4043371000</v>
+      </c>
+      <c r="D196" t="s">
+        <v>514</v>
+      </c>
+      <c r="E196">
+        <v>4043371</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H196" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>4046338000</v>
+      </c>
+      <c r="B197">
+        <v>4046338000</v>
+      </c>
+      <c r="C197">
+        <v>4046338000</v>
+      </c>
+      <c r="D197" t="s">
+        <v>378</v>
+      </c>
+      <c r="E197">
+        <v>4046338</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4058821000</v>
+      </c>
+      <c r="B198">
+        <v>4212540000</v>
+      </c>
+      <c r="C198">
+        <v>4058821000</v>
+      </c>
+      <c r="D198" t="s">
+        <v>380</v>
+      </c>
+      <c r="E198">
+        <v>4058821</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I198" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>4063434000</v>
+      </c>
+      <c r="B199">
+        <v>140168000</v>
+      </c>
+      <c r="C199">
+        <v>4063434000</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E199">
+        <v>4063434</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I199" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>4064161000</v>
+      </c>
+      <c r="B200">
+        <v>4212540000</v>
+      </c>
+      <c r="C200">
+        <v>4064161000</v>
+      </c>
+      <c r="D200" t="s">
+        <v>383</v>
+      </c>
+      <c r="E200">
+        <v>4064161</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I200" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>4067106000</v>
+      </c>
+      <c r="B201">
+        <v>4067106000</v>
+      </c>
+      <c r="C201">
+        <v>4067106000</v>
+      </c>
+      <c r="D201" t="s">
+        <v>385</v>
+      </c>
+      <c r="E201">
+        <v>4067106</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>4070552000</v>
+      </c>
+      <c r="B202">
+        <v>4164770000</v>
+      </c>
+      <c r="C202">
+        <v>4070552000</v>
+      </c>
+      <c r="D202" t="s">
+        <v>387</v>
+      </c>
+      <c r="E202">
+        <v>4070552</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H202" t="s">
+        <v>389</v>
+      </c>
+      <c r="I202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>4074815000</v>
+      </c>
+      <c r="B203">
+        <v>4043371000</v>
+      </c>
+      <c r="C203">
+        <v>4074815000</v>
+      </c>
+      <c r="D203" t="s">
+        <v>390</v>
+      </c>
+      <c r="E203">
+        <v>4074815</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I203" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>4079843000</v>
+      </c>
+      <c r="B204">
+        <v>4306655000</v>
+      </c>
+      <c r="C204">
+        <v>4079843000</v>
+      </c>
+      <c r="D204" t="s">
+        <v>391</v>
+      </c>
+      <c r="E204">
+        <v>4079843</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I204" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4091559000</v>
+      </c>
+      <c r="B205">
+        <v>378135000</v>
+      </c>
+      <c r="C205">
+        <v>4091559000</v>
+      </c>
+      <c r="D205" t="s">
+        <v>392</v>
+      </c>
+      <c r="E205">
+        <v>4091559</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I205" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4092289000</v>
+      </c>
+      <c r="B206">
+        <v>4092289000</v>
+      </c>
+      <c r="C206">
+        <v>4092289000</v>
+      </c>
+      <c r="D206" t="s">
+        <v>394</v>
+      </c>
+      <c r="E206">
+        <v>4092289</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>4098292000</v>
+      </c>
+      <c r="B207">
+        <v>4098292000</v>
+      </c>
+      <c r="C207">
+        <v>4098292000</v>
+      </c>
+      <c r="D207" t="s">
+        <v>396</v>
+      </c>
+      <c r="E207">
+        <v>4098292</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>4098597000</v>
+      </c>
+      <c r="B208">
         <v>436081000</v>
       </c>
-      <c r="C188">
-        <v>4002359000</v>
-      </c>
-      <c r="D188" t="s">
-        <v>368</v>
-      </c>
-      <c r="E188">
-        <v>4002359</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="I188" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>4013643000</v>
-      </c>
-      <c r="B189">
-        <v>4013643000</v>
-      </c>
-      <c r="C189">
-        <v>4013643000</v>
-      </c>
-      <c r="D189" t="s">
-        <v>370</v>
-      </c>
-      <c r="E189">
-        <v>4013643</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>4024659000</v>
-      </c>
-      <c r="B190">
-        <v>4024659000</v>
-      </c>
-      <c r="C190">
-        <v>4024659000</v>
-      </c>
-      <c r="D190" t="s">
-        <v>372</v>
-      </c>
-      <c r="E190">
-        <v>4024659</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H190" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>4027537000</v>
-      </c>
-      <c r="B191">
-        <v>4027537000</v>
-      </c>
-      <c r="C191">
-        <v>4027537000</v>
-      </c>
-      <c r="D191" t="s">
-        <v>375</v>
-      </c>
-      <c r="E191">
-        <v>4027537</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>4028363000</v>
-      </c>
-      <c r="B192">
-        <v>4028363000</v>
-      </c>
-      <c r="C192">
-        <v>4028363000</v>
-      </c>
-      <c r="D192" t="s">
-        <v>377</v>
-      </c>
-      <c r="E192">
-        <v>4028363</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="375" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>4030518000</v>
-      </c>
-      <c r="B193">
-        <v>4030518000</v>
-      </c>
-      <c r="C193">
-        <v>4030518000</v>
-      </c>
-      <c r="D193" t="s">
-        <v>379</v>
-      </c>
-      <c r="E193">
-        <v>4030518</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>4038838000</v>
-      </c>
-      <c r="B194">
-        <v>432571000</v>
-      </c>
-      <c r="C194">
-        <v>4038838000</v>
-      </c>
-      <c r="D194" t="s">
-        <v>381</v>
-      </c>
-      <c r="E194">
-        <v>4038838</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I194" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B195">
-        <v>4043371000</v>
-      </c>
-      <c r="C195">
-        <v>4043371000</v>
-      </c>
-      <c r="D195" t="s">
-        <v>518</v>
-      </c>
-      <c r="E195">
-        <v>4043371</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H195" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>4046338000</v>
-      </c>
-      <c r="B196">
-        <v>4046338000</v>
-      </c>
-      <c r="C196">
-        <v>4046338000</v>
-      </c>
-      <c r="D196" t="s">
-        <v>382</v>
-      </c>
-      <c r="E196">
-        <v>4046338</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>4058821000</v>
-      </c>
-      <c r="B197">
-        <v>4212540000</v>
-      </c>
-      <c r="C197">
-        <v>4058821000</v>
-      </c>
-      <c r="D197" t="s">
-        <v>384</v>
-      </c>
-      <c r="E197">
-        <v>4058821</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I197" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>4063434000</v>
-      </c>
-      <c r="B198">
-        <v>140168000</v>
-      </c>
-      <c r="C198">
-        <v>4063434000</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E198">
-        <v>4063434</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I198" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>4064161000</v>
-      </c>
-      <c r="B199">
-        <v>4212540000</v>
-      </c>
-      <c r="C199">
-        <v>4064161000</v>
-      </c>
-      <c r="D199" t="s">
-        <v>387</v>
-      </c>
-      <c r="E199">
-        <v>4064161</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I199" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>4067106000</v>
-      </c>
-      <c r="B200">
-        <v>4067106000</v>
-      </c>
-      <c r="C200">
-        <v>4067106000</v>
-      </c>
-      <c r="D200" t="s">
-        <v>389</v>
-      </c>
-      <c r="E200">
-        <v>4067106</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>4070552000</v>
-      </c>
-      <c r="B201">
-        <v>4164770000</v>
-      </c>
-      <c r="C201">
-        <v>4070552000</v>
-      </c>
-      <c r="D201" t="s">
-        <v>391</v>
-      </c>
-      <c r="E201">
-        <v>4070552</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H201" t="s">
-        <v>393</v>
-      </c>
-      <c r="I201" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>4074815000</v>
-      </c>
-      <c r="B202">
-        <v>4043371000</v>
-      </c>
-      <c r="C202">
-        <v>4074815000</v>
-      </c>
-      <c r="D202" t="s">
-        <v>394</v>
-      </c>
-      <c r="E202">
-        <v>4074815</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I202" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>4079843000</v>
-      </c>
-      <c r="B203">
-        <v>4306655000</v>
-      </c>
-      <c r="C203">
-        <v>4079843000</v>
-      </c>
-      <c r="D203" t="s">
-        <v>395</v>
-      </c>
-      <c r="E203">
-        <v>4079843</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I203" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>4091559000</v>
-      </c>
-      <c r="B204">
-        <v>378135000</v>
-      </c>
-      <c r="C204">
-        <v>4091559000</v>
-      </c>
-      <c r="D204" t="s">
-        <v>396</v>
-      </c>
-      <c r="E204">
-        <v>4091559</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I204" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>4092289000</v>
-      </c>
-      <c r="B205">
-        <v>4092289000</v>
-      </c>
-      <c r="C205">
-        <v>4092289000</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="C208">
+        <v>4098597000</v>
+      </c>
+      <c r="D208" t="s">
         <v>398</v>
       </c>
-      <c r="E205">
-        <v>4092289</v>
-      </c>
-      <c r="F205" s="1" t="s">
+      <c r="E208">
+        <v>4098597</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>4098292000</v>
-      </c>
-      <c r="B206">
-        <v>4098292000</v>
-      </c>
-      <c r="C206">
-        <v>4098292000</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="I208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4101602000</v>
+      </c>
+      <c r="B209">
+        <v>4137275000</v>
+      </c>
+      <c r="C209">
+        <v>4101602000</v>
+      </c>
+      <c r="D209" t="s">
         <v>400</v>
       </c>
-      <c r="E206">
-        <v>4098292</v>
-      </c>
-      <c r="F206" s="1" t="s">
+      <c r="E209">
+        <v>4101602</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>4098597000</v>
-      </c>
-      <c r="B207">
-        <v>436081000</v>
-      </c>
-      <c r="C207">
-        <v>4098597000</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="I209" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>4103295000</v>
+      </c>
+      <c r="B210">
+        <v>44784217000</v>
+      </c>
+      <c r="C210">
+        <v>4103295000</v>
+      </c>
+      <c r="D210" t="s">
         <v>402</v>
       </c>
-      <c r="E207">
-        <v>4098597</v>
-      </c>
-      <c r="F207" s="1" t="s">
+      <c r="E210">
+        <v>4103295</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I210" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>4112853000</v>
+      </c>
+      <c r="B211">
+        <v>4112853000</v>
+      </c>
+      <c r="C211">
+        <v>4112853000</v>
+      </c>
+      <c r="D211" t="s">
         <v>403</v>
       </c>
-      <c r="I207" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>4101602000</v>
-      </c>
-      <c r="B208">
-        <v>4137275000</v>
-      </c>
-      <c r="C208">
-        <v>4101602000</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="E211">
+        <v>4112853</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="E208">
-        <v>4101602</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I208" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>4103295000</v>
-      </c>
-      <c r="B209">
-        <v>44784217000</v>
-      </c>
-      <c r="C209">
-        <v>4103295000</v>
-      </c>
-      <c r="D209" t="s">
-        <v>406</v>
-      </c>
-      <c r="E209">
-        <v>4103295</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I209" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>4112853000</v>
-      </c>
-      <c r="B210">
-        <v>4112853000</v>
-      </c>
-      <c r="C210">
-        <v>4112853000</v>
-      </c>
-      <c r="D210" t="s">
-        <v>407</v>
-      </c>
-      <c r="E210">
-        <v>4112853</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>4124836000</v>
-      </c>
-      <c r="B211">
-        <v>321052000</v>
-      </c>
-      <c r="C211">
-        <v>4124836000</v>
-      </c>
-      <c r="D211" t="s">
-        <v>409</v>
-      </c>
-      <c r="E211">
-        <v>4124836</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="I211" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A212">
+        <v>4124836000</v>
+      </c>
+      <c r="B212">
+        <v>321052000</v>
+      </c>
+      <c r="C212">
+        <v>4124836000</v>
+      </c>
+      <c r="D212" t="s">
+        <v>405</v>
+      </c>
+      <c r="E212">
+        <v>4124836</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I212" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>4131909000</v>
       </c>
-      <c r="B212">
+      <c r="B213">
         <v>4131909000</v>
       </c>
-      <c r="C212">
+      <c r="C213">
         <v>4131909000</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D213" t="s">
+        <v>407</v>
+      </c>
+      <c r="E213">
+        <v>4131909</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>4133004000</v>
+      </c>
+      <c r="B214">
+        <v>4133004000</v>
+      </c>
+      <c r="C214">
+        <v>4133004000</v>
+      </c>
+      <c r="D214" t="s">
+        <v>409</v>
+      </c>
+      <c r="E214">
+        <v>4133004</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>4137275000</v>
+      </c>
+      <c r="B215">
+        <v>4137275000</v>
+      </c>
+      <c r="C215">
+        <v>4137275000</v>
+      </c>
+      <c r="D215" t="s">
         <v>411</v>
       </c>
-      <c r="E212">
-        <v>4131909</v>
-      </c>
-      <c r="F212" s="1" t="s">
+      <c r="E215">
+        <v>4137275</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>4133004000</v>
-      </c>
-      <c r="B213">
-        <v>4133004000</v>
-      </c>
-      <c r="C213">
-        <v>4133004000</v>
-      </c>
-      <c r="D213" t="s">
+    <row r="216" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>4138837000</v>
+      </c>
+      <c r="B216">
+        <v>4138837000</v>
+      </c>
+      <c r="C216">
+        <v>4138837000</v>
+      </c>
+      <c r="D216" t="s">
         <v>413</v>
       </c>
-      <c r="E213">
-        <v>4133004</v>
-      </c>
-      <c r="F213" s="1" t="s">
+      <c r="E216">
+        <v>4138837</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="H216" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>4139034000</v>
+      </c>
+      <c r="B217">
+        <v>4139034000</v>
+      </c>
+      <c r="C217">
+        <v>4139034000</v>
+      </c>
+      <c r="D217" t="s">
+        <v>416</v>
+      </c>
+      <c r="E217">
+        <v>4139034</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H217" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>4147411000</v>
+      </c>
+      <c r="B218">
+        <v>432571000</v>
+      </c>
+      <c r="C218">
+        <v>4147411000</v>
+      </c>
+      <c r="D218" t="s">
+        <v>418</v>
+      </c>
+      <c r="E218">
+        <v>4147411</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I218" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>4163261000</v>
+      </c>
+      <c r="B219">
+        <v>4163261000</v>
+      </c>
+      <c r="C219">
+        <v>4163261000</v>
+      </c>
+      <c r="D219" t="s">
+        <v>419</v>
+      </c>
+      <c r="E219">
+        <v>4163261</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>4164770000</v>
+      </c>
+      <c r="B220">
+        <v>4164770000</v>
+      </c>
+      <c r="C220">
+        <v>4164770000</v>
+      </c>
+      <c r="D220" t="s">
+        <v>421</v>
+      </c>
+      <c r="E220">
+        <v>4164770</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>4169095000</v>
+      </c>
+      <c r="B221">
+        <v>4169095000</v>
+      </c>
+      <c r="C221">
+        <v>4169095000</v>
+      </c>
+      <c r="D221" t="s">
+        <v>423</v>
+      </c>
+      <c r="E221">
+        <v>4169095</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>4174977000</v>
+      </c>
+      <c r="B222">
+        <v>378416000</v>
+      </c>
+      <c r="C222">
+        <v>4174977000</v>
+      </c>
+      <c r="D222" t="s">
+        <v>425</v>
+      </c>
+      <c r="E222">
+        <v>4174977</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I222" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>4175485000</v>
+      </c>
+      <c r="C223">
+        <v>4175485000</v>
+      </c>
+      <c r="D223" t="s">
+        <v>545</v>
+      </c>
+      <c r="E223">
+        <v>4175485</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>4180790000</v>
+      </c>
+      <c r="B224">
+        <v>4180790000</v>
+      </c>
+      <c r="C224">
+        <v>4180790000</v>
+      </c>
+      <c r="D224" t="s">
+        <v>426</v>
+      </c>
+      <c r="E224">
+        <v>4180790</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>4181343000</v>
+      </c>
+      <c r="B225">
+        <v>4181343000</v>
+      </c>
+      <c r="C225">
+        <v>4181343000</v>
+      </c>
+      <c r="D225" t="s">
+        <v>428</v>
+      </c>
+      <c r="E225">
+        <v>4181343</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>4181351000</v>
+      </c>
+      <c r="B226">
+        <v>4181351000</v>
+      </c>
+      <c r="C226">
+        <v>4181351000</v>
+      </c>
+      <c r="D226" t="s">
+        <v>430</v>
+      </c>
+      <c r="E226">
+        <v>4181351</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>4182210000</v>
+      </c>
+      <c r="B227">
+        <v>4182210000</v>
+      </c>
+      <c r="C227">
+        <v>4182210000</v>
+      </c>
+      <c r="D227" t="s">
+        <v>432</v>
+      </c>
+      <c r="E227">
+        <v>4182210</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>4182711000</v>
+      </c>
+      <c r="B228">
         <v>4137275000</v>
       </c>
-      <c r="B214">
-        <v>4137275000</v>
-      </c>
-      <c r="C214">
-        <v>4137275000</v>
-      </c>
-      <c r="D214" t="s">
-        <v>415</v>
-      </c>
-      <c r="E214">
-        <v>4137275</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>4138837000</v>
-      </c>
-      <c r="B215">
-        <v>4138837000</v>
-      </c>
-      <c r="C215">
-        <v>4138837000</v>
-      </c>
-      <c r="D215" t="s">
-        <v>417</v>
-      </c>
-      <c r="E215">
-        <v>4138837</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H215" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>4139034000</v>
-      </c>
-      <c r="B216">
-        <v>4139034000</v>
-      </c>
-      <c r="C216">
-        <v>4139034000</v>
-      </c>
-      <c r="D216" t="s">
-        <v>420</v>
-      </c>
-      <c r="E216">
-        <v>4139034</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="H216" t="s">
+      <c r="C228">
+        <v>4182711000</v>
+      </c>
+      <c r="D228" t="s">
+        <v>434</v>
+      </c>
+      <c r="E228">
+        <v>4182711</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H228" t="s">
+        <v>436</v>
+      </c>
+      <c r="I228" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>4185711000</v>
+      </c>
+      <c r="B229">
+        <v>4185711000</v>
+      </c>
+      <c r="C229">
+        <v>4185711000</v>
+      </c>
+      <c r="D229" t="s">
+        <v>437</v>
+      </c>
+      <c r="E229">
+        <v>4185711</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>4185932000</v>
+      </c>
+      <c r="B230">
+        <v>4185932000</v>
+      </c>
+      <c r="C230">
+        <v>4185932000</v>
+      </c>
+      <c r="D230" t="s">
+        <v>439</v>
+      </c>
+      <c r="E230">
+        <v>4185932</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>4190307000</v>
+      </c>
+      <c r="B231">
+        <v>4190307000</v>
+      </c>
+      <c r="C231">
+        <v>4190307000</v>
+      </c>
+      <c r="D231" t="s">
+        <v>441</v>
+      </c>
+      <c r="E231">
+        <v>4190307</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>4195694000</v>
+      </c>
+      <c r="B232">
+        <v>4195694000</v>
+      </c>
+      <c r="C232">
+        <v>4195694000</v>
+      </c>
+      <c r="D232" t="s">
+        <v>442</v>
+      </c>
+      <c r="E232">
+        <v>4195694</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H232" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>4201096000</v>
+      </c>
+      <c r="B233">
+        <v>4190307000</v>
+      </c>
+      <c r="C233">
+        <v>4201096000</v>
+      </c>
+      <c r="D233" t="s">
+        <v>445</v>
+      </c>
+      <c r="E233">
+        <v>4201096</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I233" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>4212540000</v>
+      </c>
+      <c r="B234">
+        <v>4212540000</v>
+      </c>
+      <c r="C234">
+        <v>4212540000</v>
+      </c>
+      <c r="D234" t="s">
+        <v>447</v>
+      </c>
+      <c r="E234">
+        <v>4212540</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>4223659000</v>
+      </c>
+      <c r="B235">
+        <v>4223659000</v>
+      </c>
+      <c r="C235">
+        <v>4223659000</v>
+      </c>
+      <c r="D235" t="s">
+        <v>449</v>
+      </c>
+      <c r="E235">
+        <v>4223659</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>4236484000</v>
+      </c>
+      <c r="B236">
+        <v>4236484000</v>
+      </c>
+      <c r="C236">
+        <v>4236484000</v>
+      </c>
+      <c r="D236" t="s">
+        <v>451</v>
+      </c>
+      <c r="E236">
+        <v>4236484</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>4245975000</v>
+      </c>
+      <c r="B237">
+        <v>4245975000</v>
+      </c>
+      <c r="C237">
+        <v>4245975000</v>
+      </c>
+      <c r="D237" t="s">
+        <v>453</v>
+      </c>
+      <c r="E237">
+        <v>4245975</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>4246127000</v>
+      </c>
+      <c r="B238">
+        <v>4246127000</v>
+      </c>
+      <c r="C238">
+        <v>4246127000</v>
+      </c>
+      <c r="D238" t="s">
+        <v>455</v>
+      </c>
+      <c r="E238">
+        <v>4246127</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H238" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>4147411000</v>
-      </c>
-      <c r="B217">
-        <v>432571000</v>
-      </c>
-      <c r="C217">
-        <v>4147411000</v>
-      </c>
-      <c r="D217" t="s">
-        <v>422</v>
-      </c>
-      <c r="E217">
-        <v>4147411</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I217" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>4163261000</v>
-      </c>
-      <c r="B218">
-        <v>4163261000</v>
-      </c>
-      <c r="C218">
-        <v>4163261000</v>
-      </c>
-      <c r="D218" t="s">
-        <v>423</v>
-      </c>
-      <c r="E218">
-        <v>4163261</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>4164770000</v>
-      </c>
-      <c r="B219">
-        <v>4164770000</v>
-      </c>
-      <c r="C219">
-        <v>4164770000</v>
-      </c>
-      <c r="D219" t="s">
-        <v>425</v>
-      </c>
-      <c r="E219">
-        <v>4164770</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>4169095000</v>
-      </c>
-      <c r="B220">
-        <v>4169095000</v>
-      </c>
-      <c r="C220">
-        <v>4169095000</v>
-      </c>
-      <c r="D220" t="s">
-        <v>427</v>
-      </c>
-      <c r="E220">
-        <v>4169095</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>4174977000</v>
-      </c>
-      <c r="B221">
-        <v>378416000</v>
-      </c>
-      <c r="C221">
-        <v>4174977000</v>
-      </c>
-      <c r="D221" t="s">
-        <v>429</v>
-      </c>
-      <c r="E221">
-        <v>4174977</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="I221" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B222">
-        <v>4175485000</v>
-      </c>
-      <c r="C222">
-        <v>4175485000</v>
-      </c>
-      <c r="D222" t="s">
-        <v>549</v>
-      </c>
-      <c r="E222">
-        <v>4175485</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>4180790000</v>
-      </c>
-      <c r="B223">
-        <v>4180790000</v>
-      </c>
-      <c r="C223">
-        <v>4180790000</v>
-      </c>
-      <c r="D223" t="s">
-        <v>430</v>
-      </c>
-      <c r="E223">
-        <v>4180790</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>4181343000</v>
-      </c>
-      <c r="B224">
-        <v>4181343000</v>
-      </c>
-      <c r="C224">
-        <v>4181343000</v>
-      </c>
-      <c r="D224" t="s">
-        <v>432</v>
-      </c>
-      <c r="E224">
-        <v>4181343</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>4181351000</v>
-      </c>
-      <c r="B225">
-        <v>4181351000</v>
-      </c>
-      <c r="C225">
-        <v>4181351000</v>
-      </c>
-      <c r="D225" t="s">
-        <v>434</v>
-      </c>
-      <c r="E225">
-        <v>4181351</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>4182210000</v>
-      </c>
-      <c r="B226">
-        <v>4182210000</v>
-      </c>
-      <c r="C226">
-        <v>4182210000</v>
-      </c>
-      <c r="D226" t="s">
-        <v>436</v>
-      </c>
-      <c r="E226">
-        <v>4182210</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>4182711000</v>
-      </c>
-      <c r="B227">
-        <v>4137275000</v>
-      </c>
-      <c r="C227">
-        <v>4182711000</v>
-      </c>
-      <c r="D227" t="s">
-        <v>438</v>
-      </c>
-      <c r="E227">
-        <v>4182711</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H227" t="s">
-        <v>440</v>
-      </c>
-      <c r="I227" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>4185711000</v>
-      </c>
-      <c r="B228">
-        <v>4185711000</v>
-      </c>
-      <c r="C228">
-        <v>4185711000</v>
-      </c>
-      <c r="D228" t="s">
-        <v>441</v>
-      </c>
-      <c r="E228">
-        <v>4185711</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>4185932000</v>
-      </c>
-      <c r="B229">
-        <v>4185932000</v>
-      </c>
-      <c r="C229">
-        <v>4185932000</v>
-      </c>
-      <c r="D229" t="s">
-        <v>443</v>
-      </c>
-      <c r="E229">
-        <v>4185932</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>4190307000</v>
-      </c>
-      <c r="B230">
-        <v>4190307000</v>
-      </c>
-      <c r="C230">
-        <v>4190307000</v>
-      </c>
-      <c r="D230" t="s">
-        <v>445</v>
-      </c>
-      <c r="E230">
-        <v>4190307</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>4195694000</v>
-      </c>
-      <c r="B231">
-        <v>4195694000</v>
-      </c>
-      <c r="C231">
-        <v>4195694000</v>
-      </c>
-      <c r="D231" t="s">
-        <v>446</v>
-      </c>
-      <c r="E231">
-        <v>4195694</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H231" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>4201096000</v>
-      </c>
-      <c r="B232">
-        <v>4190307000</v>
-      </c>
-      <c r="C232">
-        <v>4201096000</v>
-      </c>
-      <c r="D232" t="s">
-        <v>449</v>
-      </c>
-      <c r="E232">
-        <v>4201096</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="I232" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row r="239" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>4253901000</v>
+      </c>
+      <c r="B239">
+        <v>73553000</v>
+      </c>
+      <c r="C239">
+        <v>4253901000</v>
+      </c>
+      <c r="D239" t="s">
+        <v>457</v>
+      </c>
+      <c r="E239">
+        <v>4253901</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>4256228000</v>
+      </c>
+      <c r="B240">
+        <v>4256228000</v>
+      </c>
+      <c r="C240">
+        <v>4256228000</v>
+      </c>
+      <c r="D240" t="s">
+        <v>459</v>
+      </c>
+      <c r="E240">
+        <v>4256228</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H240" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4260535000</v>
+      </c>
+      <c r="B241">
+        <v>4043371000</v>
+      </c>
+      <c r="C241">
+        <v>4260535000</v>
+      </c>
+      <c r="D241" t="s">
+        <v>462</v>
+      </c>
+      <c r="E241">
+        <v>4260535</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H241" t="s">
+        <v>463</v>
+      </c>
+      <c r="I241" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>4266367000</v>
+      </c>
+      <c r="B242">
+        <v>4266367000</v>
+      </c>
+      <c r="C242">
+        <v>4266367000</v>
+      </c>
+      <c r="D242" t="s">
+        <v>464</v>
+      </c>
+      <c r="E242">
+        <v>4266367</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>4272240000</v>
+      </c>
+      <c r="B243">
+        <v>4272240000</v>
+      </c>
+      <c r="C243">
+        <v>4272240000</v>
+      </c>
+      <c r="D243" t="s">
+        <v>466</v>
+      </c>
+      <c r="E243">
+        <v>4272240</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>4273391000</v>
+      </c>
+      <c r="B244">
+        <v>4273391000</v>
+      </c>
+      <c r="C244">
+        <v>4273391000</v>
+      </c>
+      <c r="D244" t="s">
+        <v>468</v>
+      </c>
+      <c r="E244">
+        <v>4273391</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>4281232000</v>
+      </c>
+      <c r="B245">
         <v>4212540000</v>
       </c>
-      <c r="B233">
-        <v>4212540000</v>
-      </c>
-      <c r="C233">
-        <v>4212540000</v>
-      </c>
-      <c r="D233" t="s">
-        <v>451</v>
-      </c>
-      <c r="E233">
-        <v>4212540</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>4223659000</v>
-      </c>
-      <c r="B234">
-        <v>4223659000</v>
-      </c>
-      <c r="C234">
-        <v>4223659000</v>
-      </c>
-      <c r="D234" t="s">
-        <v>453</v>
-      </c>
-      <c r="E234">
-        <v>4223659</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>4236484000</v>
-      </c>
-      <c r="B235">
-        <v>4236484000</v>
-      </c>
-      <c r="C235">
-        <v>4236484000</v>
-      </c>
-      <c r="D235" t="s">
-        <v>455</v>
-      </c>
-      <c r="E235">
-        <v>4236484</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>4245975000</v>
-      </c>
-      <c r="B236">
-        <v>4245975000</v>
-      </c>
-      <c r="C236">
-        <v>4245975000</v>
-      </c>
-      <c r="D236" t="s">
-        <v>457</v>
-      </c>
-      <c r="E236">
-        <v>4245975</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>4246127000</v>
-      </c>
-      <c r="B237">
-        <v>4246127000</v>
-      </c>
-      <c r="C237">
-        <v>4246127000</v>
-      </c>
-      <c r="D237" t="s">
-        <v>459</v>
-      </c>
-      <c r="E237">
-        <v>4246127</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H237" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>4253901000</v>
-      </c>
-      <c r="B238">
-        <v>73553000</v>
-      </c>
-      <c r="C238">
-        <v>4253901000</v>
-      </c>
-      <c r="D238" t="s">
-        <v>461</v>
-      </c>
-      <c r="E238">
-        <v>4253901</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I238" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>4256228000</v>
-      </c>
-      <c r="B239">
-        <v>4256228000</v>
-      </c>
-      <c r="C239">
-        <v>4256228000</v>
-      </c>
-      <c r="D239" t="s">
-        <v>463</v>
-      </c>
-      <c r="E239">
-        <v>4256228</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H239" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>4260535000</v>
-      </c>
-      <c r="B240">
-        <v>4043371000</v>
-      </c>
-      <c r="C240">
-        <v>4260535000</v>
-      </c>
-      <c r="D240" t="s">
-        <v>466</v>
-      </c>
-      <c r="E240">
-        <v>4260535</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H240" t="s">
-        <v>467</v>
-      </c>
-      <c r="I240" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>4266367000</v>
-      </c>
-      <c r="B241">
-        <v>4266367000</v>
-      </c>
-      <c r="C241">
-        <v>4266367000</v>
-      </c>
-      <c r="D241" t="s">
-        <v>468</v>
-      </c>
-      <c r="E241">
-        <v>4266367</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>4272240000</v>
-      </c>
-      <c r="B242">
-        <v>4272240000</v>
-      </c>
-      <c r="C242">
-        <v>4272240000</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="C245">
+        <v>4281232000</v>
+      </c>
+      <c r="D245" t="s">
         <v>470</v>
       </c>
-      <c r="E242">
-        <v>4272240</v>
-      </c>
-      <c r="F242" s="1" t="s">
+      <c r="E245">
+        <v>4281232</v>
+      </c>
+      <c r="F245" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>4273391000</v>
-      </c>
-      <c r="B243">
-        <v>4273391000</v>
-      </c>
-      <c r="C243">
-        <v>4273391000</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="I245" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>4284492000</v>
+      </c>
+      <c r="B246">
+        <v>140168000</v>
+      </c>
+      <c r="C246">
+        <v>4284492000</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E243">
-        <v>4273391</v>
-      </c>
-      <c r="F243" s="1" t="s">
+      <c r="E246">
+        <v>4284492</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>4285717000</v>
+      </c>
+      <c r="B247">
+        <v>4285717000</v>
+      </c>
+      <c r="C247">
+        <v>4285717000</v>
+      </c>
+      <c r="D247" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>4281232000</v>
-      </c>
-      <c r="B244">
-        <v>4212540000</v>
-      </c>
-      <c r="C244">
-        <v>4281232000</v>
-      </c>
-      <c r="D244" t="s">
+      <c r="E247">
+        <v>4285717</v>
+      </c>
+      <c r="F247" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="E244">
-        <v>4281232</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I244" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>4284492000</v>
-      </c>
-      <c r="B245">
-        <v>140168000</v>
-      </c>
-      <c r="C245">
-        <v>4284492000</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E245">
-        <v>4284492</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I245" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>4285717000</v>
-      </c>
-      <c r="B246">
-        <v>4285717000</v>
-      </c>
-      <c r="C246">
-        <v>4285717000</v>
-      </c>
-      <c r="D246" t="s">
-        <v>477</v>
-      </c>
-      <c r="E246">
-        <v>4285717</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>4286201000</v>
-      </c>
-      <c r="B247">
-        <v>4286201000</v>
-      </c>
-      <c r="C247">
-        <v>4286201000</v>
-      </c>
-      <c r="D247" t="s">
-        <v>479</v>
-      </c>
-      <c r="E247">
-        <v>4286201</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A248">
+        <v>4286201000</v>
+      </c>
+      <c r="B248">
+        <v>4286201000</v>
+      </c>
+      <c r="C248">
+        <v>4286201000</v>
+      </c>
+      <c r="D248" t="s">
+        <v>475</v>
+      </c>
+      <c r="E248">
+        <v>4286201</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>4290976000</v>
       </c>
-      <c r="B248">
+      <c r="B249">
         <v>4137275000</v>
       </c>
-      <c r="C248">
+      <c r="C249">
         <v>4290976000</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D249" t="s">
+        <v>477</v>
+      </c>
+      <c r="E249">
+        <v>4290976</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>4299535000</v>
+      </c>
+      <c r="B250">
+        <v>4299535000</v>
+      </c>
+      <c r="C250">
+        <v>4299535000</v>
+      </c>
+      <c r="D250" t="s">
+        <v>479</v>
+      </c>
+      <c r="E250">
+        <v>4299535</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>4306655000</v>
+      </c>
+      <c r="B251">
+        <v>4306655000</v>
+      </c>
+      <c r="C251">
+        <v>4306655000</v>
+      </c>
+      <c r="D251" t="s">
         <v>481</v>
       </c>
-      <c r="E248">
-        <v>4290976</v>
-      </c>
-      <c r="F248" s="1" t="s">
+      <c r="E251">
+        <v>4306655</v>
+      </c>
+      <c r="F251" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I248" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>4299535000</v>
-      </c>
-      <c r="B249">
-        <v>4299535000</v>
-      </c>
-      <c r="C249">
-        <v>4299535000</v>
-      </c>
-      <c r="D249" t="s">
+    </row>
+    <row r="252" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>4311499000</v>
+      </c>
+      <c r="B252">
+        <v>4311499000</v>
+      </c>
+      <c r="C252">
+        <v>4311499000</v>
+      </c>
+      <c r="D252" t="s">
         <v>483</v>
       </c>
-      <c r="E249">
-        <v>4299535</v>
-      </c>
-      <c r="F249" s="1" t="s">
+      <c r="E252">
+        <v>4311499</v>
+      </c>
+      <c r="F252" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>4306655000</v>
-      </c>
-      <c r="B250">
-        <v>4306655000</v>
-      </c>
-      <c r="C250">
-        <v>4306655000</v>
-      </c>
-      <c r="D250" t="s">
+      <c r="H252" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>4318985000</v>
+      </c>
+      <c r="B253">
+        <v>378416000</v>
+      </c>
+      <c r="C253">
+        <v>4318985000</v>
+      </c>
+      <c r="D253" t="s">
         <v>485</v>
       </c>
-      <c r="E250">
-        <v>4306655</v>
-      </c>
-      <c r="F250" s="1" t="s">
+      <c r="E253">
+        <v>4318985</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>4322024000</v>
+      </c>
+      <c r="B254">
+        <v>4322024000</v>
+      </c>
+      <c r="C254">
+        <v>4322024000</v>
+      </c>
+      <c r="D254" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>4311499000</v>
-      </c>
-      <c r="B251">
-        <v>4311499000</v>
-      </c>
-      <c r="C251">
-        <v>4311499000</v>
-      </c>
-      <c r="D251" t="s">
+      <c r="E254">
+        <v>4322024</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E251">
-        <v>4311499</v>
-      </c>
-      <c r="F251" s="1" t="s">
+      <c r="H254" t="s">
         <v>488</v>
-      </c>
-      <c r="H251" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>4318985000</v>
-      </c>
-      <c r="B252">
-        <v>378416000</v>
-      </c>
-      <c r="C252">
-        <v>4318985000</v>
-      </c>
-      <c r="D252" t="s">
-        <v>489</v>
-      </c>
-      <c r="E252">
-        <v>4318985</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I252" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>4322024000</v>
-      </c>
-      <c r="B253">
-        <v>4322024000</v>
-      </c>
-      <c r="C253">
-        <v>4322024000</v>
-      </c>
-      <c r="D253" t="s">
-        <v>490</v>
-      </c>
-      <c r="E253">
-        <v>4322024</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H253" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>4344489000</v>
-      </c>
-      <c r="B254">
-        <v>4137275000</v>
-      </c>
-      <c r="C254">
-        <v>4344489000</v>
-      </c>
-      <c r="D254" t="s">
-        <v>493</v>
-      </c>
-      <c r="E254">
-        <v>4344489</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I254" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A255">
+        <v>4344489000</v>
+      </c>
+      <c r="B255">
+        <v>4137275000</v>
+      </c>
+      <c r="C255">
+        <v>4344489000</v>
+      </c>
+      <c r="D255" t="s">
+        <v>489</v>
+      </c>
+      <c r="E255">
+        <v>4344489</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I255" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A256">
         <v>36712702000</v>
       </c>
-      <c r="B255">
+      <c r="B256">
         <v>36712702000</v>
       </c>
-      <c r="C255">
+      <c r="C256">
         <v>36712702000</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D256" t="s">
+        <v>490</v>
+      </c>
+      <c r="E256">
+        <v>36712702</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>37311061000</v>
+      </c>
+      <c r="B257">
+        <v>37311061000</v>
+      </c>
+      <c r="C257">
+        <v>37311061000</v>
+      </c>
+      <c r="D257" t="s">
+        <v>492</v>
+      </c>
+      <c r="E257">
+        <v>37311061</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>40479589000</v>
+      </c>
+      <c r="B258">
+        <v>321319000</v>
+      </c>
+      <c r="C258">
+        <v>40479589000</v>
+      </c>
+      <c r="D258" t="s">
         <v>494</v>
       </c>
-      <c r="E255">
-        <v>36712702</v>
-      </c>
-      <c r="F255" s="1" t="s">
+      <c r="E258">
+        <v>40479589</v>
+      </c>
+      <c r="F258" s="1" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>37311061000</v>
-      </c>
-      <c r="B256">
-        <v>37311061000</v>
-      </c>
-      <c r="C256">
-        <v>37311061000</v>
-      </c>
-      <c r="D256" t="s">
-        <v>496</v>
-      </c>
-      <c r="E256">
-        <v>37311061</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>40479589000</v>
-      </c>
-      <c r="B257">
-        <v>321319000</v>
-      </c>
-      <c r="C257">
-        <v>40479589000</v>
-      </c>
-      <c r="D257" t="s">
-        <v>498</v>
-      </c>
-      <c r="E257">
-        <v>40479589</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I257" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>40481901000</v>
-      </c>
-      <c r="B258">
-        <v>432571000</v>
-      </c>
-      <c r="C258">
-        <v>40481901000</v>
-      </c>
-      <c r="D258" t="s">
-        <v>500</v>
-      </c>
-      <c r="E258">
-        <v>40481901</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="I258" t="s">
         <v>26</v>
@@ -8055,189 +8064,212 @@
     </row>
     <row r="259" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A259">
+        <v>40481901000</v>
+      </c>
+      <c r="B259">
+        <v>432571000</v>
+      </c>
+      <c r="C259">
+        <v>40481901000</v>
+      </c>
+      <c r="D259" t="s">
+        <v>496</v>
+      </c>
+      <c r="E259">
+        <v>40481901</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A260">
         <v>40481902000</v>
       </c>
-      <c r="B259">
+      <c r="B260">
         <v>40481902000</v>
       </c>
-      <c r="C259">
+      <c r="C260">
         <v>40481902000</v>
       </c>
-      <c r="D259" t="s">
-        <v>501</v>
-      </c>
-      <c r="E259">
+      <c r="D260" t="s">
+        <v>497</v>
+      </c>
+      <c r="E260">
         <v>40481902</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H259" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>40490918000</v>
-      </c>
-      <c r="B260">
-        <v>432571000</v>
-      </c>
-      <c r="C260">
-        <v>40490918000</v>
-      </c>
-      <c r="D260" t="s">
-        <v>504</v>
-      </c>
-      <c r="E260">
-        <v>40490918</v>
-      </c>
       <c r="F260" s="1" t="s">
-        <v>561</v>
+        <v>498</v>
       </c>
       <c r="H260" t="s">
-        <v>29</v>
-      </c>
-      <c r="I260" t="s">
-        <v>26</v>
+        <v>499</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A261">
+        <v>40490918000</v>
+      </c>
+      <c r="B261">
+        <v>432571000</v>
+      </c>
+      <c r="C261">
+        <v>40490918000</v>
+      </c>
+      <c r="D261" t="s">
+        <v>500</v>
+      </c>
+      <c r="E261">
+        <v>40490918</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H261" t="s">
+        <v>29</v>
+      </c>
+      <c r="I261" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A262">
         <v>42535714000</v>
       </c>
-      <c r="B261">
+      <c r="B262">
         <v>4137275000</v>
       </c>
-      <c r="C261">
+      <c r="C262">
         <v>42535714000</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D262" t="s">
+        <v>501</v>
+      </c>
+      <c r="E262">
+        <v>42535714</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I262" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>43021132000</v>
+      </c>
+      <c r="B263">
+        <v>43021132000</v>
+      </c>
+      <c r="C263">
+        <v>43021132000</v>
+      </c>
+      <c r="D263" t="s">
+        <v>503</v>
+      </c>
+      <c r="E263">
+        <v>43021132</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>43530714000</v>
+      </c>
+      <c r="B264">
+        <v>43530714000</v>
+      </c>
+      <c r="C264">
+        <v>43530714000</v>
+      </c>
+      <c r="D264" t="s">
         <v>505</v>
       </c>
-      <c r="E261">
-        <v>42535714</v>
-      </c>
-      <c r="F261" s="1" t="s">
+      <c r="E264">
+        <v>43530714</v>
+      </c>
+      <c r="F264" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I261" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>43021132000</v>
-      </c>
-      <c r="B262">
-        <v>43021132000</v>
-      </c>
-      <c r="C262">
-        <v>43021132000</v>
-      </c>
-      <c r="D262" t="s">
+    </row>
+    <row r="265" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>44784217000</v>
+      </c>
+      <c r="B265">
+        <v>44784217000</v>
+      </c>
+      <c r="C265">
+        <v>44784217000</v>
+      </c>
+      <c r="D265" t="s">
         <v>507</v>
       </c>
-      <c r="E262">
-        <v>43021132</v>
-      </c>
-      <c r="F262" s="1" t="s">
+      <c r="E265">
+        <v>44784217</v>
+      </c>
+      <c r="F265" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>43530714000</v>
-      </c>
-      <c r="B263">
-        <v>43530714000</v>
-      </c>
-      <c r="C263">
-        <v>43530714000</v>
-      </c>
-      <c r="D263" t="s">
+      <c r="H265" t="s">
         <v>509</v>
       </c>
-      <c r="E263">
-        <v>43530714</v>
-      </c>
-      <c r="F263" s="1" t="s">
+    </row>
+    <row r="266" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>45763653000</v>
+      </c>
+      <c r="B266">
+        <v>45763653000</v>
+      </c>
+      <c r="C266">
+        <v>45763653000</v>
+      </c>
+      <c r="D266" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>44784217000</v>
-      </c>
-      <c r="B264">
-        <v>44784217000</v>
-      </c>
-      <c r="C264">
-        <v>44784217000</v>
-      </c>
-      <c r="D264" t="s">
+      <c r="E266">
+        <v>45763653</v>
+      </c>
+      <c r="F266" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="E264">
-        <v>44784217</v>
-      </c>
-      <c r="F264" s="1" t="s">
+      <c r="H266" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>46271022000</v>
+      </c>
+      <c r="B267">
+        <v>4030518000</v>
+      </c>
+      <c r="C267">
+        <v>46271022000</v>
+      </c>
+      <c r="D267" t="s">
         <v>512</v>
       </c>
-      <c r="H264" t="s">
+      <c r="E267">
+        <v>46271022</v>
+      </c>
+      <c r="F267" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>45763653000</v>
-      </c>
-      <c r="B265">
-        <v>45763653000</v>
-      </c>
-      <c r="C265">
-        <v>45763653000</v>
-      </c>
-      <c r="D265" t="s">
-        <v>514</v>
-      </c>
-      <c r="E265">
-        <v>45763653</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H265" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>46271022000</v>
-      </c>
-      <c r="B266">
-        <v>4030518000</v>
-      </c>
-      <c r="C266">
-        <v>46271022000</v>
-      </c>
-      <c r="D266" t="s">
-        <v>516</v>
-      </c>
-      <c r="E266">
-        <v>46271022</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I266" t="s">
+      <c r="I267" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I266">
-    <sortState ref="A2:I266">
-      <sortCondition ref="C1:C266"/>
+  <autoFilter ref="A1:I267">
+    <sortState ref="A2:I267">
+      <sortCondition ref="C1:C267"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -15,14 +15,14 @@
     <sheet name="PhenotypeDescription" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$268</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="564">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Neck pain</t>
   </si>
   <si>
-    <t>Overview: Musculoskeletal or neurological pain in the neck. Neck pain can have causes that aren't due to underlying disease. Presentation: Neck muscle tightness or spasms; decreased ability to move neck. Maybe associated with headache, neck tenderness, muscle weakness or numbness. Assessment: History and physical exam, imaging tests, electromyography (EMG for pinched nerve). Plan: Pain relivers, muscle relaxants, tricyclic antidepressants; physical therpay, Transcutaneous electrical nerve stimulation (TENS), short-term immobilization; corticosteroid injections, or surgery (if compression) Prognosis: Improves gradually with treatment. Seek immediate care if severe neck pain results from an injury, such as a motor vehicle accident, diving accident or fall.</t>
-  </si>
-  <si>
     <t>Hypoglycemia</t>
   </si>
   <si>
@@ -72,15 +69,9 @@
     <t>Dysphagia</t>
   </si>
   <si>
-    <t>Overview: Swallowing difficulties, can range from mild difficulty to complete and painful blockage. Presentation: Coughing or chocking when eating or drinking, briging food back up or through the nose, drooling, frequent heatburn, gagging, aspiration pneumonia Assessment: History and physical, barium x-ray, swallowing study, endoscopy, manometry - more common in older adults. People with certain neurological or nervous system disorders are more likely to experience difficulty swallowing. Plan: Early detection and treatment of the identified causePrognosis: Sometimes the cause cannot be identified. Dependent on the cause of dysphagia and frequency.</t>
-  </si>
-  <si>
     <t>Nausea</t>
   </si>
   <si>
-    <t>Overview: A queasy sensation including an urge to vomit, and can occur without vomiting. Retching differs from vomiting in the absence of expulsion of gastric content. Patients may confuse vomiting with regurgitation, which is the return of esophageal contents to the hypopharynx with little effort.  Many causes of nausea - gastric rhythm disturbance is a peripheral mechanism underlying nausea from various causes. Common causes - drugs like opiod and cannabis, side effect of chemotherapy, gastrointestinal organic etiology e.g. cholelithiasis, bowel obstruction, gastroparesis, gastrointestinal bleeding. Neurologic etiology such as vestibular neuritis with vertigo, headache. Hormonal etiology such as in pregnancy. Infectious like gastroenteritis. Presentation: Uncomfortable, bothersome, disabling feeling in the chest, upper abdomen, or back of the throat. Assessment: Self-report.  Plan: Depends on the cause. Resting, eating bland foods, and avoiding strong stimuli to reduce nausea. OTC motion sickness medication may also help. Hydration. Drugs like metoclopramide, ondansetron, prochlorperazine, domperidone, erythromycin and droperidol. Prognosis: Usually acute and short-lived, but can be prolonged. If experience nausea in combination with other symptoms that may require medical attention.</t>
-  </si>
-  <si>
     <t>Disorder of optic nerve</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>Constipation</t>
   </si>
   <si>
-    <t>Overview: Constipation is presence for atleast 3 months of straining, lumpy hard stools, sensation of incomplete evacuation, use of digital maneuvers, sensation of anorectal obstruction or blockage. It is a deviation from normal stooling pattern which has variable definition based on persons age. Presentation: Commonly self reported, and associated with abdominal pain, bloating and discomfort. Assessment: Rule out organic causes. Constipation is most commonly functional in nature. Can be medication-induced constipation (from opioids, NSAIDs, iron supplements, etc) Plan: Education, biofeedback, drinking more fluids, high-fiber foods, stool softeners and laxatives. Prognosis: Acute and treatable using stool softeners and laxatives.</t>
-  </si>
-  <si>
     <t>Myasthenia gravis</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>Joint pain</t>
   </si>
   <si>
-    <t>Overview: Physical discomfort where two or more bones meet to form a joint, ranging from mild to disabling. Many different conditions can lead to joint pain, including osteoarthritis, rheumatoid arthritis, bursitis, gout, strains, sprains, and other injuries. Joint pain is extremely common. Knee pain most common complaint. Presentation: limited or decreased mobility, pain or tenderness upon palpation Assessment: Self-report, physical exam, x-rays to rule-out injury and to identify arthritis-related joint damage. Screen for certain autoimmune disorders. Sedimentation rate test to measure the level of inflammation in the body or a complete blood count (CBC). Plan: Medication - nonsteroidal anti-inflammatory drug (NSAID) such as aspirin, ibuprofen, or naproxen sodium, physical therapy, or alternative treatments. Tylenol, opioids, muscle relaxants, or antidepressants and antiepileptic drugs (interfere with pain signals)Prognosis: Depends on the cause. Early detection and diagnosis can allow for effective treatment of the underlying cause of discomfort.</t>
-  </si>
-  <si>
     <t>Needs revision - non specific</t>
   </si>
   <si>
@@ -198,9 +183,6 @@
     <t>Jaundice</t>
   </si>
   <si>
-    <t>Overview: A condition in which the skin, whites of the eyes and mucous membranes turn yellow because of a high level of bilirubin. Jaundice may occur if the liver cannot process RBCs as they break down. Normal in healthy newborns (neonatal jaundice) and usually clears on its own. At other ages, it may signal infection or liver disease. Types: Hepatocellular jaundice, Hemolytic jaundice, and Obstructive jaundice. Presentation: (Adult jaundice) - caused by infection then can see fever, chills, abdominal pain, flu-like ymptoms, change in skin color, dark urine and/or clay-colored stool. Can also have wgt loss and pruritus; signs of liver disease (bruising, spide angiomas, palmar erythema) Assessment: UA (positive for bilirubin), CBC and bilirubin levels, ultrasound and CT, liver exam and biopsy Plan: Jaundice usually does not require treatment in adults, but treat the underlying cause Prognosis: As underlying condition goes away or improves, jaundice goes away.</t>
-  </si>
-  <si>
     <t>Chronic lymphoid leukemia</t>
   </si>
   <si>
@@ -285,9 +267,6 @@
     <t>Low back pain</t>
   </si>
   <si>
-    <t>Overview: A common, painful condition affecting the lower portion of the spine. Acute back pain comes on suddenly, often after an injury from sports or heavy lifting. Pain that lasts more than three months is considered chronic. Presentation: Dull ache to a stabbing or shooting sensation, hard to move or stand up straight, leg numbness or pins/needles Assessment: Self-report of pain, bone scan, discography, electrogiagnostics (EMG, evoked potential studies), imaging studiesPlan: Physical therpay and pain relievers - Nonsteroidal anti-inflammatory, analgesics, muscle relaxants, narcotics; topical pain relief; acupuncture, masssage; maybe spinal injections or surgery, implanted verve stimulators Prognosis: Favorable prognosis, most cases recover within a short period of time; but can have chronic low back pain</t>
-  </si>
-  <si>
     <t>Prelabor Rupture of Membranes</t>
   </si>
   <si>
@@ -300,9 +279,6 @@
     <t>Diarrhea</t>
   </si>
   <si>
-    <t>Overview: Loose, watery stools that occur more frequently than usual. Diarrhea is usually caused by a virus or, sometimes, contaminated food. Less frequently, it can be a sign of another disorder, such as inflammatory bowel disease or irritable bowel syndrome. Presentation: Frequent, loose, watery stools and belly pain. Plan: Replacing lost fluids with an oral rehydration solution (ORS) may help prevent dehydration. Over-the-counter antidiarrheal drugs such as Pepto-Bismol and Kaopectate may help. Prognosis: Most cases clear on their own. Some infections may need antibiotics. Severe cases can cause enough dehydration to require intravenous fluids.</t>
-  </si>
-  <si>
     <t>Acute kidney injury or Acute renal failure syndrome</t>
   </si>
   <si>
@@ -351,9 +327,6 @@
     <t>Abdominal pain</t>
   </si>
   <si>
-    <t>Overview: Commonly classified into acute vs chronic - although there is no established definition to differentiate the two. Abdominal pain that is new in onset in past few days and may still be accelerating is generally considered acute. Presentation: pain is described by position, chronology (onset, duration, frequency), severity (scale 1 to 10), aggravating and reliving factors. Assement: If acute abdomen a determination needs to be made if this is an emergency (unstable vital signs, signs of peritonitis or perforation). Localized pain that is considered non urgent may have different management based on location e.g. right upper quadrant is investigated for liver/gall bladder disease, while epi gastric area pain is managed for gastritis/ulcer. Ultrasound of the abdomen or CT abdomen as needed. Plan: Depends on the underlying etiology. Prognosis: Abdominal pain is most commonly benign and self-limited.</t>
-  </si>
-  <si>
     <t>Autoimmune hepatitis</t>
   </si>
   <si>
@@ -402,9 +375,6 @@
     <t>Cough</t>
   </si>
   <si>
-    <t>Overview: Cough is commonly classified by duration with acute cough lasting &lt; 3 weeks, sub-acute (3 to 8 weeks), chronic (&gt; 8 weeks). Cough is the result of irritation to cough receptors that are triggered by chemical/mechanical stimuli and are present in many areas in the body including pericardium, diaphragm, stomach. Presentation: Cough is a common manifestation of several conditions. Acute cough may be a symptom of an infection, while the chronic cough may be because of gastroesophageal reflux disease, asthma, drugs like ACE inhibitors, chronic bronchitis, eosinophilc bronchitis, lung cancer, smoking etc. Assessment: History is most important for diagnosis to understand the duration and inciting factors of the cough. Assessment: depends on the underlying suspected cause. Plan: Specific treatment is to identify and treat the underlying disease. Non specific treatment includes centrally acting antitussive agents like dextromethorphan, codeine, morphine. Prognosis: Good, if eliciting agent may be identified and eliminated.</t>
-  </si>
-  <si>
     <t>Chronic obstructive lung disease</t>
   </si>
   <si>
@@ -438,9 +408,6 @@
     <t>Dyspnea</t>
   </si>
   <si>
-    <t>Overview: Subjective feeling of difficultly or labored breathing, maybe acute new onset, or chronic long standing. Commonly caused because of respiratory causes, but maybe secondary to cardiovascular (Congestive heart failure) or neuromuscular/obstruction. Presentation: Labored breathing of varying duration and exacerbated by activity. Maybe associated with panic, anxiety and airhunger. Assessment: Determine if acute or chronice, if cardiovascular or pulmonary or other reasons. Plan: Ensure adequate oxygenation, and manage hypercapnia. Specific management depends on cause. Prognosis: Acute dyspnea is commonly resolved after correcting the inciting cause. Chronic disease during lung or cardiovacscular disease may recur, relapse or worsen based on underlying disease.</t>
-  </si>
-  <si>
     <t>Thromboangiitis obliterans</t>
   </si>
   <si>
@@ -600,9 +567,6 @@
     <t>Paresis</t>
   </si>
   <si>
-    <t>Overview: A weakness of voluntary movement. Can be unilateral or bilateral, localized or generalized. Presentation: Acute or insidious onset of weakness of voluntary movement. Double vision. Assessment: Brain, spinal cord imaging by MRI or CT scan, history of tick bites, physical exam with hypo or hyperreflexic deep tendon reflexes, restricted range of motion of eye muscles, evaluate for poisoning if history indicates, potassium, glucose, calcium, magnesium, phosphate levels, cbc, blood cultures, ECG, TSH. Plan: Treat underlying cause, if found. In some cases physical therapy helpful. Prognosis: Depends upon cause of paresis.</t>
-  </si>
-  <si>
     <t>Multiple sclerosis</t>
   </si>
   <si>
@@ -660,9 +624,6 @@
     <t>Headache</t>
   </si>
   <si>
-    <t>Overview: one of the most common medical condition, but in about 90% of cases it is either migraine, tension-type (most common), and cluster headache. The generic term headache would be used to describe these three sub-types of headache. Presentation: Migraine is recurrent attacks, often unilateral, throbbing/pulsatile quality often accompanied by nausea, vomiting, photophobia. Tension-type headache - bilateteral, nonthrobbing headache without other associated features. Cluster headache - severe unilateral headaches accompanied by autonmic phenomena like congestion, edema, sweating, miosis. Secondary headaches are special cases of headache due to underlying cause such as systemic disorder (acute hypertension, meningitis) or neurological (increased intracranial pressure). The common use of term headache, should not include secondary headache. Assessment: rule out serious underlying pathology and secondary causes such as meningitis, trauma, etc. all may suggest need for CT scan of head. Look for red-flags. Photophobia, Incapcitiy and Nausea are screening for migraine. Plan: Acute or headaches because of secondary causes should involve management of underlying etiology (not part of this phenotype). Migraine headache management is to reduce frequency of symptoms/attacks. Simple analgesics NSAIDS. Triptans, muscle relaxants, antihistamine (cocktail)Prognosis: varible - may go into remission</t>
-  </si>
-  <si>
     <t>Retinal detachment</t>
   </si>
   <si>
@@ -759,9 +720,6 @@
     <t>Edema</t>
   </si>
   <si>
-    <t>Overview: Edema is palpable swelling produced by expansion of the interstitial fluid volume. Massive edema is sometime called anasarca. Although the term edema is broad and includes peripheral edema, pulmonary edema, ascites, and other forms of edema, which include lymphedema, nonpitting edema, and periorbital and scrotal edema - this phenotype is limited to peripheral edema. Presentation: Peripheral edema commonly occurs in gravity dependent areas like legs and buttocks. Edema may be pitting or nonpitting; with pitting edema being more common. Pitting edema is defined by the presence of tissue depression after pressure is applied to the edematous area for at least five seconds. Assessment: Peripheral edema is rarely life threatening by itself compared to pulmonary edema. The cause of peripheral edema maybe identified with detail history and whether the edema is localized or generalized. Plan: Treat the cause where possible. Diuretic may be used for some types of generalized retention edema (e.g. congestive heart failure, cirrhosis)Prognosis: depends on underlying cause. Chronic peripheral edema may lead to fibrosis in tissue.</t>
-  </si>
-  <si>
     <t>Obesity</t>
   </si>
   <si>
@@ -834,9 +792,6 @@
     <t>Chronic pain</t>
   </si>
   <si>
-    <t>Overview: Pain that is ongoing and usually lasts longer than six months, persistent pain signals in the nervous system. Chronic pain linked to headaches, arthritis, cancer, nerve pain, back pain, and fibromyalgia pain, past injuries Presentation: tense muscles, limited ability to move around, a lack of energy, appetite changes. Emotional effects of chronic pain include depression, anger, anxiety, sleep distrubance Assessment: self-diagnosable - dull ache, throbbing, stiffness, throbbing; no labs or images (except for acute injury leading to acute pain) Plan: Pain specialist when needed - medicine, physical therapy, acupuncture, local electrical stimulation, relaxation therapiesPrognosis: Very common, can be helped if the cause of pain is understood, chronic pain can persist for years</t>
-  </si>
-  <si>
     <t>Narcolepsy</t>
   </si>
   <si>
@@ -846,9 +801,6 @@
     <t>Hyposmia</t>
   </si>
   <si>
-    <t>Overview: Hyposmia or microsmia, is a reduced ability to smell and to detect odors. hyposmia, is one of the non-motor symptoms of Parkinson’s disease. Anosmia is no odors can be detected. COVID-19 has presented sudden hyposmia as a most prominent disease manifestation. Presentation: Self-report of sense of smell changes Assessment: Physical exam, history, scratch-and-sniff tests, endoscopy Plan: Medication, surgery, determine underlying cause Prognosis: Hyposmia that is due to a seasonal allergy or a cold usually improves without treatment. If a person loses their sense of smell after a head injury or a significant inflammatory injury to the olfactory system, a complete recovery may not be possible. Many lose sense of smell with age.</t>
-  </si>
-  <si>
     <t>Behcet's syndrome</t>
   </si>
   <si>
@@ -870,9 +822,6 @@
     <t>Insomnia</t>
   </si>
   <si>
-    <t>Overview: Insomnia is a common sleep disorder in which a person has trouble falling and/or staying asleep. Insomnia can be acute or chronic in nature. Presentation: Having trouble getting to sleep or staying asleep more than 3 nights a week for 3 months is considered chronic, compromised daytime function, fatigue/malaise, behavior problems (hyperactivity, impulsivity, aggression)Assessment: Self-reported based on sleep history, sleep diary, behavioral or adjustment issues presentPlan: Insomnia may be addressed with cognitive behavioral therapy (CBT) prior to medications which can be used in conjunction with CBT such as benzodiazepine receptor agonists (BZRAs, including benzodiazepines and nonbenzodiazepine BZRAs, or "z drugs"), sedating antidepressants, melatonin agonists, orexin receptor antagonists, and antipsychotics. Prognosis: Insomnia can be resolved to healthy sleep patterns if success is achieved with medication and/or CBT</t>
-  </si>
-  <si>
     <t>Ankylosing spondylitis</t>
   </si>
   <si>
@@ -891,9 +840,6 @@
     <t>Bleeding</t>
   </si>
   <si>
-    <t>Overview: Unexpected/unanticipated loss of blood, commonly above anticipated. Presentation: Blood coming out of a body part that is not physiological. Plan: Monitor and treat hemodynamic instability. Stop the bleeding, by tracing the cause. Bleeding into body cavities (e.g. abdomen is harder to manage. Prognosis: Depends on site and cause. In the presence of coagulpathy and/or hemodynamic instability, may lead to death.</t>
-  </si>
-  <si>
     <t>Glaucoma</t>
   </si>
   <si>
@@ -903,9 +849,6 @@
     <t>Fever</t>
   </si>
   <si>
-    <t>Overview: Body temperature is regulated by hypothalamus with normal range between 36.5 to 37.5C with rectal temperature slightly higher. Fever is elevation of body temperature above normal variations with temperature above 38.3C accepted to high enough is most cases. It is caused due to change in hypothalamic set point. Hyperthermia may occur without change in hypothalamic set point - so not all hyperthermia is fever e.g. heat stroke is not fever. Presenation: May be accompanied by chills, rigors/shivering because of increased heat production from muscles. Assessment: exclude hyperthermia. Check for infections, toxins. Plan: treat the cause. Symptoms may be managed with antipyretics. Prognosis: most are short lived, with identifiable or suspected etiology. Rarely may be fever of unknown origin.</t>
-  </si>
-  <si>
     <t>Broad (cohorts of interest - fever of unknown origin, viral fever, fever by age category very young/infants/children/adult, fever with known etiology like pneumonia, sepsis, bacterial infections, low grade vs high grade)</t>
   </si>
   <si>
@@ -967,9 +910,6 @@
   </si>
   <si>
     <t>Paralysis</t>
-  </si>
-  <si>
-    <t>Overview: Loss of voluntary movement. Can be unilateral or bilateral, localized or generalized. Presentation: Acute or insidious onset of complete loss of voluntary movement. Double vision. Assessment: Brain, spinal cord imaging by MRI or CT scan, history of tick bites, physical exam with hypo or hyperreflexic deep tendon reflexes, restricted range of motion of eye muscles, evaluate for poisoning if history indicates, potassium, glucose, calcium, magnesium, phosphate levels, cbc, blood cultures, ECG, TSH. Lumbar puncture. Plan: Treat underlying cause, if found. In some cases physical therapy helpful. Prognosis: Depends upon cause of paralysis</t>
   </si>
   <si>
     <t>Depressive disorder</t>
@@ -1033,15 +973,9 @@
     <t>Vomiting</t>
   </si>
   <si>
-    <t>Overview: Forcefully expelling the stomach's contents out of the mouth. Vomiting can have causes that aren't due to underlying disease.Emesis is vomiting. Presentation: self-reported: nausea, retching and vomiting, cold sweat, pallor, salivation Assessment: Nauseous, stomachache, time plus onset, CBC (dehydration), electrolytes, CXR and Abdominal xray (for obstruction), drug levels Plan: Depends on the underlying cause. Drinking plenty of water and sports drinks containing electrolytes can help prevent dehydration. Antiemetics, antacids, anti-anxiety (if related to an anxiety condition)Prognosis: Common symptom of many conditions. Vomiting can be concerning if showing signs of severe dehydration, or it accompanies chest pain, sudden and severe abdominal pain, a high fever, or a stiff neck. (sequelae - aspiration, Mallory Weiss syndrome, boerhaave's syndrome, hypovolemia, electrolyte imbalance)</t>
-  </si>
-  <si>
     <t>Anxiety</t>
   </si>
   <si>
-    <t>Overview: A feeling of fear or apprehension about what's to come that are strong enough to interfere with daily activities. Examples of anxiety disorders include panic attacks, obsessive-compulsive disorder, and post-traumatic stress disorder. Presentation: Stress that's out of proportion to the impact of the event, inability to set aside a worry, and restlessness. increased heart rate, fast breathing, and trouble concentrating or sleeping Assessment: Diagnosis requires a lengthy process of physical examinations, mental health evaluations, and psychological questionnairesPlan: Psychotherapy and medication (antidepressants and sedatives), lifestyle changes Prognosis: Anxiety may not go away, but can be managed and live a healthy, happy life</t>
-  </si>
-  <si>
     <t>Human papilloma virus infection</t>
   </si>
   <si>
@@ -1057,9 +991,6 @@
     <t>Muscle pain</t>
   </si>
   <si>
-    <t>Overview: Muscle pain. Soreness and achiness in the muscles that can range from mild to severe and present with many diseases (also see fibromyalgia, polymyalgia). Muscle pain is a possible symptom of COVID-19Presentation: Pain in a local area, or more widespread, joint or muscle pain, tired and weak Assessment: Clinical examination, self-diagnosis, xray (if injury); if prolonged - then lab studies (selective testing)Plan: Rest area with pain, OTC pain relivers, ice/heat, stretching, massage Prognosis: Depends on the underlying cause</t>
-  </si>
-  <si>
     <t>Stillbirth</t>
   </si>
   <si>
@@ -1099,9 +1030,6 @@
     <t>Tachycardia</t>
   </si>
   <si>
-    <t>Overview: heart beat more than 100 times per minute (more than normal due to conditions unrelated to normal physiological stress). Types: atrial fib, atrial flutter, SVT, V tach, V fibPresentation: SOB, fsat heart rate, palpitations, chest pain, syncopeAssessment: EKG, Holter, Electrophysiological test, cardiac imaging, stress test, tilt table test, Plan: slow the heart rate down - vagal maneuvers, anti-arrhythmic, cardioversion, catheter ablation, pacemaker, ICD, heart surgeryPrognosis: Treating the underlying problem may prevent or minimize tachycardia episodes.</t>
-  </si>
-  <si>
     <t>Venous thromboembolism</t>
   </si>
   <si>
@@ -1300,9 +1228,6 @@
     <t>Bradycardia</t>
   </si>
   <si>
-    <t>Overview: Slower than normal heart rate. Adults at rest usually beat between 60 and 100 times a minute. Bradycarida is fewer than 60 beats per minute. Depends on age and physical condition. Presentation: near-fainting or fainting, dizzy, fatigure, SOB, chest pain, confusion Assessment: Symptoms and history, EKG, or Holter monitor Plan: Borderline or occasional bradycardia may not require treatment. Change in medications, pacemaker Prognosis: Bradycardia can be treated and cured.</t>
-  </si>
-  <si>
     <t>Diabetic Retinopathy</t>
   </si>
   <si>
@@ -1342,9 +1267,6 @@
     <t>Anosmia</t>
   </si>
   <si>
-    <t>Overview: partial (hyposmia) or complete (anosmia) loss of smell. Presentation: Food tastes bland, possible weight loss, poor nutrition, stuffy nose (common cold or sinusitis). Assessment: self-report; H&amp;P - chronis sinusitis, COVID-19, nasal polyps; University of Pennsylvania Smell Identification Test (UPSIT); Butanol threshold test; CBC, sed rate, LFTs, thyroid profile. Plan: Depends on the etiology; Nasal and paranasal sinus diseases are the most common causes of olfactory abnormalities; Glucocorticoids, antihistamines, and possible surgery. Prognosis: Depends upon etiology - If obstruction, remove the obstruction. No effective treatment for olfactory and taste impairment caused by viral infections and/or head trauma. Can be permanent. Main neurological symptom and one of the earliest and commonly reported indicators of COVID-19</t>
-  </si>
-  <si>
     <t>Chronic coronary syndrome</t>
   </si>
   <si>
@@ -1378,9 +1300,6 @@
     <t>Fatigue</t>
   </si>
   <si>
-    <t>Overview: Acute fatigue - present less than 1 week, transient fatigue present 1 week to less than 1 month, prolonged fatigue if present 1 month to less than 6 months. Chronic fatigue is present greater than 6 months. A subjective diagnosis for patients greater than or equal to 5 years of age which is a new symptom for which fatigue is the primary complaint, it is not relieved by rest and interferes with an individual's ability to function. Presentation: Difficulty or inability to initiate activity (subjective sense of weakness), reduced capacity to maintain activity (easy fatigability) difficulty with concentration, memory, and emotional stability (mental fatigue) Assessment: Medical causes need to be ruled out -- including excessive daytime sleepiness (sleep disorders including sleep apnea); anemia, infection, cancer, cardiopulmonary disease, substance abuse, psychiatric issues and others. Plan: Correct/treat underlying medical conditions Prognosis: Patients require support for their symptoms, cognitive behavioral therapy can help, exercise can help. Acute fatigue has better Prognosis: than chronic fatigue.</t>
-  </si>
-  <si>
     <t>Paraesthesia</t>
   </si>
   <si>
@@ -1429,9 +1348,6 @@
     <t>Malaise</t>
   </si>
   <si>
-    <t>Overview: A general feeling of discomfort, illness, or lack of well-being. Scores of illnesses or disorders (and medicines) can lead to different degrees of malaisePresentation: Might have fatigue, pain, and a lack of interest in usual activitiesAssessment: Physical exam Plan: Treatment based on exam and tests. Prognosis: Not a disease, need to look for other symptoms to reach a diagnosis.</t>
-  </si>
-  <si>
     <t>Suicidality</t>
   </si>
   <si>
@@ -1546,9 +1462,6 @@
     <t>Altered smell or taste</t>
   </si>
   <si>
-    <t>Overview: subjective symptoms related to smell or taste with high variation. Presentation: For taste - reports may be of diminished (hypogeusia), absent (ageusia), altered (dysgeusia), disturbance (aliageusia) or unpleasant (phanogeusia) in absence of stimuli. Hypogeusia is most common complaint. For smell - hyposmia, ansomia, parosmia or dysosmia. Assessment: search for etiology. Eliminate external causes such as drugs, environment, rule out nutritional and metabolic disorders, nerve damage, psychological. Plan: eliminate the cause. Prognosis: depends on underlying causes. If cause is eliminate, may recover quickly.</t>
-  </si>
-  <si>
     <t>Cardiac arrhythmia</t>
   </si>
   <si>
@@ -1715,13 +1628,103 @@
   </si>
   <si>
     <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] blood sugar levels become high during pregnancy. Presentation: thirsty, hungrier, urinary frequency; can have excess weight gain; can have no symptoms. Assessment:Usually happens in the second half of pregnancy (24 - 28 wks). glucose challenge or glucose screening test. Plan: Women with class A1 can manage it through diet and exercise. Those who have class A2 need to take insulin or other medications. Blood sugar monitoring. Lifestyle changes, diet. Prognosis: Gestational diabetes goes away after you give birth. Higher risk of developing type 2 diabetes later in life.</t>
+  </si>
+  <si>
+    <t>Clinical Signs and Symptoms</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Musculoskeletal or neurological pain in the neck. Neck pain can have causes that aren't due to underlying disease. Presentation: Neck muscle tightness or spasms; decreased ability to move neck. Maybe associated with headache, neck tenderness, muscle weakness or numbness. Assessment: History and physical exam, imaging tests, electromyography (EMG for pinched nerve). Plan: Pain relivers, muscle relaxants, tricyclic antidepressants; physical therpay, Transcutaneous electrical nerve stimulation (TENS), short-term immobilization; corticosteroid injections, or surgery (if compression) Prognosis: Improves gradually with treatment. Seek immediate care if severe neck pain results from an injury, such as a motor vehicle accident, diving accident or fall.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Swallowing difficulties, can range from mild difficulty to complete and painful blockage. Presentation: Coughing or chocking when eating or drinking, briging food back up or through the nose, drooling, frequent heatburn, gagging, aspiration pneumonia Assessment: History and physical, barium x-ray, swallowing study, endoscopy, manometry - more common in older adults. People with certain neurological or nervous system disorders are more likely to experience difficulty swallowing. Plan: Early detection and treatment of the identified causePrognosis: Sometimes the cause cannot be identified. Dependent on the cause of dysphagia and frequency.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A queasy sensation including an urge to vomit, and can occur without vomiting. Retching differs from vomiting in the absence of expulsion of gastric content. Patients may confuse vomiting with regurgitation, which is the return of esophageal contents to the hypopharynx with little effort.  Many causes of nausea - gastric rhythm disturbance is a peripheral mechanism underlying nausea from various causes. Common causes - drugs like opiod and cannabis, side effect of chemotherapy, gastrointestinal organic etiology e.g. cholelithiasis, bowel obstruction, gastroparesis, gastrointestinal bleeding. Neurologic etiology such as vestibular neuritis with vertigo, headache. Hormonal etiology such as in pregnancy. Infectious like gastroenteritis. Presentation: Uncomfortable, bothersome, disabling feeling in the chest, upper abdomen, or back of the throat. Assessment: Self-report.  Plan: Depends on the cause. Resting, eating bland foods, and avoiding strong stimuli to reduce nausea. OTC motion sickness medication may also help. Hydration. Drugs like metoclopramide, ondansetron, prochlorperazine, domperidone, erythromycin and droperidol. Prognosis: Usually acute and short-lived, but can be prolonged. If experience nausea in combination with other symptoms that may require medical attention.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Constipation is presence for atleast 3 months of straining, lumpy hard stools, sensation of incomplete evacuation, use of digital maneuvers, sensation of anorectal obstruction or blockage. It is a deviation from normal stooling pattern which has variable definition based on persons age. Presentation: Commonly self reported, and associated with abdominal pain, bloating and discomfort. Assessment: Rule out organic causes. Constipation is most commonly functional in nature. Can be medication-induced constipation (from opioids, NSAIDs, iron supplements, etc) Plan: Education, biofeedback, drinking more fluids, high-fiber foods, stool softeners and laxatives. Prognosis: Acute and treatable using stool softeners and laxatives.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Physical discomfort where two or more bones meet to form a joint, ranging from mild to disabling. Many different conditions can lead to joint pain, including osteoarthritis, rheumatoid arthritis, bursitis, gout, strains, sprains, and other injuries. Joint pain is extremely common. Knee pain most common complaint. Presentation: limited or decreased mobility, pain or tenderness upon palpation Assessment: Self-report, physical exam, x-rays to rule-out injury and to identify arthritis-related joint damage. Screen for certain autoimmune disorders. Sedimentation rate test to measure the level of inflammation in the body or a complete blood count (CBC). Plan: Medication - nonsteroidal anti-inflammatory drug (NSAID) such as aspirin, ibuprofen, or naproxen sodium, physical therapy, or alternative treatments. Tylenol, opioids, muscle relaxants, or antidepressants and antiepileptic drugs (interfere with pain signals)Prognosis: Depends on the cause. Early detection and diagnosis can allow for effective treatment of the underlying cause of discomfort.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A condition in which the skin, whites of the eyes and mucous membranes turn yellow because of a high level of bilirubin. Jaundice may occur if the liver cannot process RBCs as they break down. Normal in healthy newborns (neonatal jaundice) and usually clears on its own. At other ages, it may signal infection or liver disease. Types: Hepatocellular jaundice, Hemolytic jaundice, and Obstructive jaundice. Presentation: (Adult jaundice) - caused by infection then can see fever, chills, abdominal pain, flu-like ymptoms, change in skin color, dark urine and/or clay-colored stool. Can also have wgt loss and pruritus; signs of liver disease (bruising, spide angiomas, palmar erythema) Assessment: UA (positive for bilirubin), CBC and bilirubin levels, ultrasound and CT, liver exam and biopsy Plan: Jaundice usually does not require treatment in adults, but treat the underlying cause Prognosis: As underlying condition goes away or improves, jaundice goes away.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A common, painful condition affecting the lower portion of the spine. Acute back pain comes on suddenly, often after an injury from sports or heavy lifting. Pain that lasts more than three months is considered chronic. Presentation: Dull ache to a stabbing or shooting sensation, hard to move or stand up straight, leg numbness or pins/needles Assessment: Self-report of pain, bone scan, discography, electrogiagnostics (EMG, evoked potential studies), imaging studiesPlan: Physical therpay and pain relievers - Nonsteroidal anti-inflammatory, analgesics, muscle relaxants, narcotics; topical pain relief; acupuncture, masssage; maybe spinal injections or surgery, implanted verve stimulators Prognosis: Favorable prognosis, most cases recover within a short period of time; but can have chronic low back pain</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Loose, watery stools that occur more frequently than usual. Diarrhea is usually caused by a virus or, sometimes, contaminated food. Less frequently, it can be a sign of another disorder, such as inflammatory bowel disease or irritable bowel syndrome. Presentation: Frequent, loose, watery stools and belly pain. Plan: Replacing lost fluids with an oral rehydration solution (ORS) may help prevent dehydration. Over-the-counter antidiarrheal drugs such as Pepto-Bismol and Kaopectate may help. Prognosis: Most cases clear on their own. Some infections may need antibiotics. Severe cases can cause enough dehydration to require intravenous fluids.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Cough is commonly classified by duration with acute cough lasting &lt; 3 weeks, sub-acute (3 to 8 weeks), chronic (&gt; 8 weeks). Cough is the result of irritation to cough receptors that are triggered by chemical/mechanical stimuli and are present in many areas in the body including pericardium, diaphragm, stomach. Presentation: Cough is a common manifestation of several conditions. Acute cough may be a symptom of an infection, while the chronic cough may be because of gastroesophageal reflux disease, asthma, drugs like ACE inhibitors, chronic bronchitis, eosinophilc bronchitis, lung cancer, smoking etc. Assessment: History is most important for diagnosis to understand the duration and inciting factors of the cough. Assessment: depends on the underlying suspected cause. Plan: Specific treatment is to identify and treat the underlying disease. Non specific treatment includes centrally acting antitussive agents like dextromethorphan, codeine, morphine. Prognosis: Good, if eliciting agent may be identified and eliminated.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Commonly classified into acute vs chronic - although there is no established definition to differentiate the two. Abdominal pain that is new in onset in past few days and may still be accelerating is generally considered acute. Presentation: pain is described by position, chronology (onset, duration, frequency), severity (scale 1 to 10), aggravating and reliving factors. Assement: If acute abdomen a determination needs to be made if this is an emergency (unstable vital signs, signs of peritonitis or perforation). Localized pain that is considered non urgent may have different management based on location e.g. right upper quadrant is investigated for liver/gall bladder disease, while epi gastric area pain is managed for gastritis/ulcer. Ultrasound of the abdomen or CT abdomen as needed. Plan: Depends on the underlying etiology. Prognosis: Abdominal pain is most commonly benign and self-limited.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Subjective feeling of difficultly or labored breathing, maybe acute new onset, or chronic long standing. Commonly caused because of respiratory causes, but maybe secondary to cardiovascular (Congestive heart failure) or neuromuscular/obstruction. Presentation: Labored breathing of varying duration and exacerbated by activity. Maybe associated with panic, anxiety and airhunger. Assessment: Determine if acute or chronice, if cardiovascular or pulmonary or other reasons. Plan: Ensure adequate oxygenation, and manage hypercapnia. Specific management depends on cause. Prognosis: Acute dyspnea is commonly resolved after correcting the inciting cause. Chronic disease during lung or cardiovacscular disease may recur, relapse or worsen based on underlying disease.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A weakness of voluntary movement. Can be unilateral or bilateral, localized or generalized. Presentation: Acute or insidious onset of weakness of voluntary movement. Double vision. Assessment: Brain, spinal cord imaging by MRI or CT scan, history of tick bites, physical exam with hypo or hyperreflexic deep tendon reflexes, restricted range of motion of eye muscles, evaluate for poisoning if history indicates, potassium, glucose, calcium, magnesium, phosphate levels, cbc, blood cultures, ECG, TSH. Plan: Treat underlying cause, if found. In some cases physical therapy helpful. Prognosis: Depends upon cause of paresis.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] one of the most common medical condition, but in about 90% of cases it is either migraine, tension-type (most common), and cluster headache. The generic term headache would be used to describe these three sub-types of headache. Presentation: Migraine is recurrent attacks, often unilateral, throbbing/pulsatile quality often accompanied by nausea, vomiting, photophobia. Tension-type headache - bilateteral, nonthrobbing headache without other associated features. Cluster headache - severe unilateral headaches accompanied by autonmic phenomena like congestion, edema, sweating, miosis. Secondary headaches are special cases of headache due to underlying cause such as systemic disorder (acute hypertension, meningitis) or neurological (increased intracranial pressure). The common use of term headache, should not include secondary headache. Assessment: rule out serious underlying pathology and secondary causes such as meningitis, trauma, etc. all may suggest need for CT scan of head. Look for red-flags. Photophobia, Incapcitiy and Nausea are screening for migraine. Plan: Acute or headaches because of secondary causes should involve management of underlying etiology (not part of this phenotype). Migraine headache management is to reduce frequency of symptoms/attacks. Simple analgesics NSAIDS. Triptans, muscle relaxants, antihistamine (cocktail)Prognosis: varible - may go into remission</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Edema is palpable swelling produced by expansion of the interstitial fluid volume. Massive edema is sometime called anasarca. Although the term edema is broad and includes peripheral edema, pulmonary edema, ascites, and other forms of edema, which include lymphedema, nonpitting edema, and periorbital and scrotal edema - this phenotype is limited to peripheral edema. Presentation: Peripheral edema commonly occurs in gravity dependent areas like legs and buttocks. Edema may be pitting or nonpitting; with pitting edema being more common. Pitting edema is defined by the presence of tissue depression after pressure is applied to the edematous area for at least five seconds. Assessment: Peripheral edema is rarely life threatening by itself compared to pulmonary edema. The cause of peripheral edema maybe identified with detail history and whether the edema is localized or generalized. Plan: Treat the cause where possible. Diuretic may be used for some types of generalized retention edema (e.g. congestive heart failure, cirrhosis)Prognosis: depends on underlying cause. Chronic peripheral edema may lead to fibrosis in tissue.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Pain that is ongoing and usually lasts longer than six months, persistent pain signals in the nervous system. Chronic pain linked to headaches, arthritis, cancer, nerve pain, back pain, and fibromyalgia pain, past injuries Presentation: tense muscles, limited ability to move around, a lack of energy, appetite changes. Emotional effects of chronic pain include depression, anger, anxiety, sleep distrubance Assessment: self-diagnosable - dull ache, throbbing, stiffness, throbbing; no labs or images (except for acute injury leading to acute pain) Plan: Pain specialist when needed - medicine, physical therapy, acupuncture, local electrical stimulation, relaxation therapiesPrognosis: Very common, can be helped if the cause of pain is understood, chronic pain can persist for years</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Hyposmia or microsmia, is a reduced ability to smell and to detect odors. hyposmia, is one of the non-motor symptoms of Parkinson’s disease. Anosmia is no odors can be detected. COVID-19 has presented sudden hyposmia as a most prominent disease manifestation. Presentation: Self-report of sense of smell changes Assessment: Physical exam, history, scratch-and-sniff tests, endoscopy Plan: Medication, surgery, determine underlying cause Prognosis: Hyposmia that is due to a seasonal allergy or a cold usually improves without treatment. If a person loses their sense of smell after a head injury or a significant inflammatory injury to the olfactory system, a complete recovery may not be possible. Many lose sense of smell with age.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Insomnia is a common sleep disorder in which a person has trouble falling and/or staying asleep. Insomnia can be acute or chronic in nature. Presentation: Having trouble getting to sleep or staying asleep more than 3 nights a week for 3 months is considered chronic, compromised daytime function, fatigue/malaise, behavior problems (hyperactivity, impulsivity, aggression)Assessment: Self-reported based on sleep history, sleep diary, behavioral or adjustment issues presentPlan: Insomnia may be addressed with cognitive behavioral therapy (CBT) prior to medications which can be used in conjunction with CBT such as benzodiazepine receptor agonists (BZRAs, including benzodiazepines and nonbenzodiazepine BZRAs, or "z drugs"), sedating antidepressants, melatonin agonists, orexin receptor antagonists, and antipsychotics. Prognosis: Insomnia can be resolved to healthy sleep patterns if success is achieved with medication and/or CBT</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Unexpected/unanticipated loss of blood, commonly above anticipated. Presentation: Blood coming out of a body part that is not physiological. Plan: Monitor and treat hemodynamic instability. Stop the bleeding, by tracing the cause. Bleeding into body cavities (e.g. abdomen is harder to manage. Prognosis: Depends on site and cause. In the presence of coagulpathy and/or hemodynamic instability, may lead to death.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Body temperature is regulated by hypothalamus with normal range between 36.5 to 37.5C with rectal temperature slightly higher. Fever is elevation of body temperature above normal variations with temperature above 38.3C accepted to high enough is most cases. It is caused due to change in hypothalamic set point. Hyperthermia may occur without change in hypothalamic set point - so not all hyperthermia is fever e.g. heat stroke is not fever. Presenation: May be accompanied by chills, rigors/shivering because of increased heat production from muscles. Assessment: exclude hyperthermia. Check for infections, toxins. Plan: treat the cause. Symptoms may be managed with antipyretics. Prognosis: most are short lived, with identifiable or suspected etiology. Rarely may be fever of unknown origin.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Loss of voluntary movement. Can be unilateral or bilateral, localized or generalized. Presentation: Acute or insidious onset of complete loss of voluntary movement. Double vision. Assessment: Brain, spinal cord imaging by MRI or CT scan, history of tick bites, physical exam with hypo or hyperreflexic deep tendon reflexes, restricted range of motion of eye muscles, evaluate for poisoning if history indicates, potassium, glucose, calcium, magnesium, phosphate levels, cbc, blood cultures, ECG, TSH. Lumbar puncture. Plan: Treat underlying cause, if found. In some cases physical therapy helpful. Prognosis: Depends upon cause of paralysis</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Forcefully expelling the stomach's contents out of the mouth. Vomiting can have causes that aren't due to underlying disease.Emesis is vomiting. Presentation: self-reported: nausea, retching and vomiting, cold sweat, pallor, salivation Assessment: Nauseous, stomachache, time plus onset, CBC (dehydration), electrolytes, CXR and Abdominal xray (for obstruction), drug levels Plan: Depends on the underlying cause. Drinking plenty of water and sports drinks containing electrolytes can help prevent dehydration. Antiemetics, antacids, anti-anxiety (if related to an anxiety condition)Prognosis: Common symptom of many conditions. Vomiting can be concerning if showing signs of severe dehydration, or it accompanies chest pain, sudden and severe abdominal pain, a high fever, or a stiff neck. (sequelae - aspiration, Mallory Weiss syndrome, boerhaave's syndrome, hypovolemia, electrolyte imbalance)</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A feeling of fear or apprehension about what's to come that are strong enough to interfere with daily activities. Examples of anxiety disorders include panic attacks, obsessive-compulsive disorder, and post-traumatic stress disorder. Presentation: Stress that's out of proportion to the impact of the event, inability to set aside a worry, and restlessness. increased heart rate, fast breathing, and trouble concentrating or sleeping Assessment: Diagnosis requires a lengthy process of physical examinations, mental health evaluations, and psychological questionnairesPlan: Psychotherapy and medication (antidepressants and sedatives), lifestyle changes Prognosis: Anxiety may not go away, but can be managed and live a healthy, happy life</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Muscle pain. Soreness and achiness in the muscles that can range from mild to severe and present with many diseases (also see fibromyalgia, polymyalgia). Muscle pain is a possible symptom of COVID-19Presentation: Pain in a local area, or more widespread, joint or muscle pain, tired and weak Assessment: Clinical examination, self-diagnosis, xray (if injury); if prolonged - then lab studies (selective testing)Plan: Rest area with pain, OTC pain relivers, ice/heat, stretching, massage Prognosis: Depends on the underlying cause</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] heart beat more than 100 times per minute (more than normal due to conditions unrelated to normal physiological stress). Types: atrial fib, atrial flutter, SVT, V tach, V fibPresentation: SOB, fsat heart rate, palpitations, chest pain, syncopeAssessment: EKG, Holter, Electrophysiological test, cardiac imaging, stress test, tilt table test, Plan: slow the heart rate down - vagal maneuvers, anti-arrhythmic, cardioversion, catheter ablation, pacemaker, ICD, heart surgeryPrognosis: Treating the underlying problem may prevent or minimize tachycardia episodes.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Slower than normal heart rate. Adults at rest usually beat between 60 and 100 times a minute. Bradycarida is fewer than 60 beats per minute. Depends on age and physical condition. Presentation: near-fainting or fainting, dizzy, fatigure, SOB, chest pain, confusion Assessment: Symptoms and history, EKG, or Holter monitor Plan: Borderline or occasional bradycardia may not require treatment. Change in medications, pacemaker Prognosis: Bradycardia can be treated and cured.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] partial (hyposmia) or complete (anosmia) loss of smell. Presentation: Food tastes bland, possible weight loss, poor nutrition, stuffy nose (common cold or sinusitis). Assessment: self-report; H&amp;P - chronis sinusitis, COVID-19, nasal polyps; University of Pennsylvania Smell Identification Test (UPSIT); Butanol threshold test; CBC, sed rate, LFTs, thyroid profile. Plan: Depends on the etiology; Nasal and paranasal sinus diseases are the most common causes of olfactory abnormalities; Glucocorticoids, antihistamines, and possible surgery. Prognosis: Depends upon etiology - If obstruction, remove the obstruction. No effective treatment for olfactory and taste impairment caused by viral infections and/or head trauma. Can be permanent. Main neurological symptom and one of the earliest and commonly reported indicators of COVID-19</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Acute fatigue - present less than 1 week, transient fatigue present 1 week to less than 1 month, prolonged fatigue if present 1 month to less than 6 months. Chronic fatigue is present greater than 6 months. A subjective diagnosis for patients greater than or equal to 5 years of age which is a new symptom for which fatigue is the primary complaint, it is not relieved by rest and interferes with an individual's ability to function. Presentation: Difficulty or inability to initiate activity (subjective sense of weakness), reduced capacity to maintain activity (easy fatigability) difficulty with concentration, memory, and emotional stability (mental fatigue) Assessment: Medical causes need to be ruled out -- including excessive daytime sleepiness (sleep disorders including sleep apnea); anemia, infection, cancer, cardiopulmonary disease, substance abuse, psychiatric issues and others. Plan: Correct/treat underlying medical conditions Prognosis: Patients require support for their symptoms, cognitive behavioral therapy can help, exercise can help. Acute fatigue has better Prognosis: than chronic fatigue.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A general feeling of discomfort, illness, or lack of well-being. Scores of illnesses or disorders (and medicines) can lead to different degrees of malaisePresentation: Might have fatigue, pain, and a lack of interest in usual activitiesAssessment: Physical exam Plan: Treatment based on exam and tests. Prognosis: Not a disease, need to look for other symptoms to reach a diagnosis.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] subjective symptoms related to smell or taste with high variation. Presentation: For taste - reports may be of diminished (hypogeusia), absent (ageusia), altered (dysgeusia), disturbance (aliageusia) or unpleasant (phanogeusia) in absence of stimuli. Hypogeusia is most common complaint. For smell - hyposmia, ansomia, parosmia or dysosmia. Assessment: search for etiology. Eliminate external causes such as drugs, environment, rule out nutritional and metabolic disorders, nerve damage, psychological. Plan: eliminate the cause. Prognosis: depends on underlying causes. If cause is eliminate, may recover quickly.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1852,6 +1855,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2204,13 +2213,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2532,11 +2542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,12 +2590,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24134000</v>
       </c>
       <c r="B2">
-        <v>24134000</v>
+        <v>4094294000</v>
       </c>
       <c r="C2">
         <v>24134000</v>
@@ -2597,7 +2607,10 @@
         <v>24134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>535</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2611,13 +2624,13 @@
         <v>24609000</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>24609</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -2631,16 +2644,16 @@
         <v>27918000</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>27918</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2654,16 +2667,16 @@
         <v>30753000</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>30753</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2671,19 +2684,22 @@
         <v>31317000</v>
       </c>
       <c r="B6">
-        <v>31317000</v>
+        <v>4094294000</v>
       </c>
       <c r="C6">
         <v>31317000</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E6">
         <v>31317</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>536</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -2691,19 +2707,22 @@
         <v>31967000</v>
       </c>
       <c r="B7">
-        <v>31967000</v>
+        <v>4094294000</v>
       </c>
       <c r="C7">
         <v>31967000</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E7">
         <v>31967</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>537</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -2717,13 +2736,13 @@
         <v>37436000</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>374360</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2737,36 +2756,39 @@
         <v>73553000</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>73553</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>75860000</v>
       </c>
       <c r="B10">
-        <v>75860000</v>
+        <v>4094294000</v>
       </c>
       <c r="C10">
         <v>75860000</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>75860</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>538</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -2780,39 +2802,42 @@
         <v>76685000</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>76685</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>77074000</v>
       </c>
       <c r="B12">
-        <v>77074000</v>
+        <v>4094294000</v>
       </c>
       <c r="C12">
         <v>77074000</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>77074</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>539</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2826,16 +2851,16 @@
         <v>80180000</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>80180</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2849,13 +2874,13 @@
         <v>80182000</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>80182</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2868,14 +2893,14 @@
       <c r="C15">
         <v>80204000</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E15">
         <v>80204</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2889,13 +2914,13 @@
         <v>80502000</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>80502</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2909,16 +2934,16 @@
         <v>80809000</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>80809</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -2932,16 +2957,16 @@
         <v>81893000</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>81893</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2955,13 +2980,13 @@
         <v>81902000</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>81902</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2975,16 +3000,16 @@
         <v>81931000</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>81931</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -2998,13 +3023,13 @@
         <v>132702000</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>132702</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3018,13 +3043,13 @@
         <v>132703000</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>132703</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3038,16 +3063,16 @@
         <v>132797000</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>132797</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3061,16 +3086,16 @@
         <v>133169000</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>133169</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -3084,13 +3109,13 @@
         <v>133444000</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>133444</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3103,14 +3128,14 @@
       <c r="C26">
         <v>133834000</v>
       </c>
-      <c r="D26" t="s">
-        <v>51</v>
+      <c r="D26" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E26">
         <v>133834</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3124,13 +3149,13 @@
         <v>134442000</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>134442</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3143,14 +3168,14 @@
       <c r="C28">
         <v>136774000</v>
       </c>
-      <c r="D28" t="s">
-        <v>55</v>
+      <c r="D28" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E28">
         <v>136774</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3158,19 +3183,22 @@
         <v>137977000</v>
       </c>
       <c r="B29">
-        <v>137977000</v>
+        <v>4094294000</v>
       </c>
       <c r="C29">
         <v>137977000</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E29">
         <v>137977</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>58</v>
+        <v>540</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3184,13 +3212,13 @@
         <v>138379000</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E30">
         <v>138379</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3204,13 +3232,13 @@
         <v>138502000</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>138502</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3224,16 +3252,16 @@
         <v>138994000</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E32">
         <v>138994</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -3247,16 +3275,16 @@
         <v>139803000</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E33">
         <v>139803</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3270,13 +3298,13 @@
         <v>139899000</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>139899</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3290,13 +3318,13 @@
         <v>140168000</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>140168</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3310,16 +3338,16 @@
         <v>140352000</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>140352</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3333,13 +3361,13 @@
         <v>140673000</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>140673</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3353,13 +3381,13 @@
         <v>141232000</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>141232</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3373,13 +3401,13 @@
         <v>141456000</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E39">
         <v>141456</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3393,13 +3421,13 @@
         <v>141933000</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E40">
         <v>141933</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3413,16 +3441,16 @@
         <v>192359000</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E41">
         <v>192359</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3436,13 +3464,13 @@
         <v>192671000</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E42">
         <v>192671</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3456,13 +3484,13 @@
         <v>192675000</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E43">
         <v>192675</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3476,16 +3504,16 @@
         <v>193782000</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>193782</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3493,19 +3521,22 @@
         <v>194133000</v>
       </c>
       <c r="B45">
-        <v>194133000</v>
+        <v>4094294000</v>
       </c>
       <c r="C45">
         <v>194133000</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <v>194133</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>87</v>
+        <v>541</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3519,13 +3550,13 @@
         <v>194702000</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E46">
         <v>194702</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -3539,16 +3570,16 @@
         <v>194992000</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <v>194992</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3556,19 +3587,22 @@
         <v>196523000</v>
       </c>
       <c r="B48">
-        <v>196523000</v>
+        <v>4094294000</v>
       </c>
       <c r="C48">
         <v>196523000</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E48">
         <v>196523</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>542</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3582,16 +3616,16 @@
         <v>197320000</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E49">
         <v>197320</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3605,16 +3639,16 @@
         <v>197494000</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E50">
         <v>197494</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3628,13 +3662,13 @@
         <v>197508000</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E51">
         <v>197508</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -3648,19 +3682,19 @@
         <v>198571000</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E52">
         <v>198571</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I52" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3674,13 +3708,13 @@
         <v>198984000</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E53">
         <v>198984</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3694,13 +3728,13 @@
         <v>198985000</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E54">
         <v>198985</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3714,33 +3748,36 @@
         <v>199074000</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E55">
         <v>199074</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>200219000</v>
       </c>
       <c r="B56">
-        <v>200219000</v>
+        <v>4094294000</v>
       </c>
       <c r="C56">
         <v>200219000</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E56">
         <v>200219</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>109</v>
+        <v>544</v>
+      </c>
+      <c r="I56" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3754,16 +3791,16 @@
         <v>200762000</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E57">
         <v>200762</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3777,19 +3814,19 @@
         <v>201214000</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E58">
         <v>201214</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H58" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="195" x14ac:dyDescent="0.25">
@@ -3803,16 +3840,16 @@
         <v>201254000</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E59">
         <v>201254</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="I59" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3826,16 +3863,16 @@
         <v>201340000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E60">
         <v>201340</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="I60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -3849,16 +3886,16 @@
         <v>201606000</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E61">
         <v>201606</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="I61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3872,13 +3909,13 @@
         <v>201620000</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E62">
         <v>201620</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3889,16 +3926,16 @@
         <v>201820000</v>
       </c>
       <c r="D63" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="E63">
         <v>201820</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="H63" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3912,16 +3949,16 @@
         <v>201826000</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E64">
         <v>201826</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="I64" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -3935,16 +3972,16 @@
         <v>201965000</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E65">
         <v>201965</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H65" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3958,13 +3995,13 @@
         <v>254443000</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E66">
         <v>254443</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3972,19 +4009,22 @@
         <v>254761000</v>
       </c>
       <c r="B67">
-        <v>254761000</v>
+        <v>4094294000</v>
       </c>
       <c r="C67">
         <v>254761000</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E67">
         <v>254761</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>126</v>
+        <v>543</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3998,13 +4038,13 @@
         <v>255573000</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E68">
         <v>255573</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4018,13 +4058,13 @@
         <v>255848000</v>
       </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E69">
         <v>255848</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4038,13 +4078,13 @@
         <v>257007000</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E70">
         <v>257007</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4058,13 +4098,13 @@
         <v>257628000</v>
       </c>
       <c r="D71" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E71">
         <v>257628</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4078,33 +4118,36 @@
         <v>312327000</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E72">
         <v>312327</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>312437000</v>
       </c>
       <c r="B73">
-        <v>312437000</v>
+        <v>4094294000</v>
       </c>
       <c r="C73">
         <v>312437000</v>
       </c>
       <c r="D73" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E73">
         <v>312437</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>138</v>
+        <v>545</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="195" x14ac:dyDescent="0.25">
@@ -4118,13 +4161,13 @@
         <v>312939000</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E74">
         <v>312939</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4138,16 +4181,16 @@
         <v>313217000</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E75">
         <v>313217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="I75" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4161,16 +4204,16 @@
         <v>313223000</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E76">
         <v>313223</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="I76" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4184,13 +4227,13 @@
         <v>313459000</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E77">
         <v>313459</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -4204,13 +4247,13 @@
         <v>313800000</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E78">
         <v>313800</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4224,16 +4267,16 @@
         <v>314381000</v>
       </c>
       <c r="D79" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E79">
         <v>314381</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I79" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4247,13 +4290,13 @@
         <v>314383000</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E80">
         <v>314383</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -4267,16 +4310,16 @@
         <v>316139000</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E81">
         <v>316139</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H81" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4290,16 +4333,16 @@
         <v>316866000</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E82">
         <v>316866</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H82" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4313,13 +4356,13 @@
         <v>317009000</v>
       </c>
       <c r="D83" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E83">
         <v>317009</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4333,16 +4376,16 @@
         <v>317576000</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E84">
         <v>317576</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4356,16 +4399,16 @@
         <v>318443000</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E85">
         <v>318443</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H85" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4379,13 +4422,13 @@
         <v>318736000</v>
       </c>
       <c r="D86" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E86">
         <v>318736</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4399,13 +4442,13 @@
         <v>318800000</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E87">
         <v>318800</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4419,13 +4462,13 @@
         <v>319041000</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E88">
         <v>319041</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4439,19 +4482,19 @@
         <v>319049000</v>
       </c>
       <c r="D89" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E89">
         <v>319049</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H89" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I89" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4465,16 +4508,16 @@
         <v>320749000</v>
       </c>
       <c r="D90" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E90">
         <v>320749</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4488,19 +4531,19 @@
         <v>321042000</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E91">
         <v>321042</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="H91" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I91" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -4514,16 +4557,16 @@
         <v>321052000</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E92">
         <v>321052</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H92" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4537,16 +4580,16 @@
         <v>321318000</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E93">
         <v>321318</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="I93" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -4560,13 +4603,13 @@
         <v>321319000</v>
       </c>
       <c r="D94" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E94">
         <v>321319</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4580,16 +4623,16 @@
         <v>321588000</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E95">
         <v>321588</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H95" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4603,13 +4646,13 @@
         <v>372328000</v>
       </c>
       <c r="D96" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E96">
         <v>372328</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4623,16 +4666,16 @@
         <v>373503000</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E97">
         <v>373503</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="I97" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4646,19 +4689,19 @@
         <v>374021000</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E98">
         <v>374021</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H98" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="I98" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4672,16 +4715,16 @@
         <v>374028000</v>
       </c>
       <c r="D99" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E99">
         <v>374028</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="I99" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4695,13 +4738,13 @@
         <v>374366000</v>
       </c>
       <c r="D100" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E100">
         <v>374366</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4709,22 +4752,25 @@
         <v>374377000</v>
       </c>
       <c r="B101">
-        <v>374377000</v>
+        <v>4094294000</v>
       </c>
       <c r="C101">
         <v>374377000</v>
       </c>
       <c r="D101" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E101">
         <v>374377</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>192</v>
+        <v>546</v>
       </c>
       <c r="H101" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="I101" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4738,16 +4784,16 @@
         <v>374919000</v>
       </c>
       <c r="D102" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E102">
         <v>374919</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I102" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4761,16 +4807,16 @@
         <v>374954000</v>
       </c>
       <c r="D103" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E103">
         <v>374954</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I103" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4784,13 +4830,13 @@
         <v>375801000</v>
       </c>
       <c r="D104" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E104">
         <v>375801</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4804,13 +4850,13 @@
         <v>375806000</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E105">
         <v>375806</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4824,16 +4870,16 @@
         <v>376713000</v>
       </c>
       <c r="D106" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E106">
         <v>376713</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I106" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -4847,16 +4893,16 @@
         <v>377091000</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E107">
         <v>377091</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H107" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4870,13 +4916,13 @@
         <v>378135000</v>
       </c>
       <c r="D108" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E108">
         <v>378135</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="315" x14ac:dyDescent="0.25">
@@ -4890,19 +4936,19 @@
         <v>378143000</v>
       </c>
       <c r="D109" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E109">
         <v>378143</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H109" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="I109" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -4910,19 +4956,22 @@
         <v>378253000</v>
       </c>
       <c r="B110">
-        <v>378253000</v>
+        <v>4094294000</v>
       </c>
       <c r="C110">
         <v>378253000</v>
       </c>
       <c r="D110" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E110">
         <v>378253</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>212</v>
+        <v>547</v>
+      </c>
+      <c r="I110" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4936,16 +4985,16 @@
         <v>378414000</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E111">
         <v>378414</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="I111" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4959,13 +5008,13 @@
         <v>378416000</v>
       </c>
       <c r="D112" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E112">
         <v>378416</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4979,13 +5028,13 @@
         <v>378419000</v>
       </c>
       <c r="D113" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E113">
         <v>378419</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4999,16 +5048,16 @@
         <v>380378000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E114">
         <v>380378</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="I114" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5022,16 +5071,16 @@
         <v>381009000</v>
       </c>
       <c r="D115" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E115">
         <v>381009</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I115" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5045,13 +5094,13 @@
         <v>381114000</v>
       </c>
       <c r="D116" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E116">
         <v>381114</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5065,13 +5114,13 @@
         <v>381270000</v>
       </c>
       <c r="D117" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E117">
         <v>381270</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5085,16 +5134,16 @@
         <v>381316000</v>
       </c>
       <c r="D118" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E118">
         <v>381316</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I118" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -5108,16 +5157,16 @@
         <v>381591000</v>
       </c>
       <c r="D119" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E119">
         <v>381591</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="H119" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5131,13 +5180,13 @@
         <v>432571000</v>
       </c>
       <c r="D120" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="E120">
         <v>432571000</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5151,16 +5200,16 @@
         <v>432585000</v>
       </c>
       <c r="D121" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E121">
         <v>432585</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="H121" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5174,13 +5223,13 @@
         <v>432595000</v>
       </c>
       <c r="D122" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E122">
         <v>432595</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5194,13 +5243,13 @@
         <v>432791000</v>
       </c>
       <c r="D123" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E123">
         <v>432791</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5214,13 +5263,13 @@
         <v>432867000</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E124">
         <v>432867</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5234,13 +5283,13 @@
         <v>432870000</v>
       </c>
       <c r="D125" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E125">
         <v>432870</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5254,13 +5303,13 @@
         <v>432881000</v>
       </c>
       <c r="D126" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E126">
         <v>432881</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5274,16 +5323,16 @@
         <v>432893000</v>
       </c>
       <c r="D127" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E127">
         <v>432893</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="I127" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5291,19 +5340,22 @@
         <v>433595000</v>
       </c>
       <c r="B128">
-        <v>433595000</v>
+        <v>4094294000</v>
       </c>
       <c r="C128">
         <v>433595000</v>
       </c>
       <c r="D128" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E128">
         <v>433595</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>245</v>
+        <v>548</v>
+      </c>
+      <c r="I128" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5317,13 +5369,13 @@
         <v>433736000</v>
       </c>
       <c r="D129" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E129">
         <v>433736</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5337,13 +5389,13 @@
         <v>434119000</v>
       </c>
       <c r="D130" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E130">
         <v>434119</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5357,13 +5409,13 @@
         <v>434557000</v>
       </c>
       <c r="D131" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E131">
         <v>434557</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5377,13 +5429,13 @@
         <v>434584000</v>
       </c>
       <c r="D132" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E132">
         <v>434584</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -5397,16 +5449,16 @@
         <v>434592000</v>
       </c>
       <c r="D133" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E133">
         <v>434592</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="I133" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5420,13 +5472,13 @@
         <v>434610000</v>
       </c>
       <c r="D134" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E134">
         <v>434610</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5440,16 +5492,16 @@
         <v>434821000</v>
       </c>
       <c r="D135" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E135">
         <v>434821</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="I135" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5463,13 +5515,13 @@
         <v>435224000</v>
       </c>
       <c r="D136" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E136">
         <v>435224</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5483,13 +5535,13 @@
         <v>435783000</v>
       </c>
       <c r="D137" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E137">
         <v>435783</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -5503,16 +5555,16 @@
         <v>435785000</v>
       </c>
       <c r="D138" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E138">
         <v>435785</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="I138" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5526,13 +5578,13 @@
         <v>436073000</v>
       </c>
       <c r="D139" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E139">
         <v>436073</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5546,16 +5598,16 @@
         <v>436081000</v>
       </c>
       <c r="D140" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E140">
         <v>436081</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="H140" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5563,19 +5615,22 @@
         <v>436096000</v>
       </c>
       <c r="B141">
-        <v>436096000</v>
+        <v>4094294000</v>
       </c>
       <c r="C141">
         <v>436096000</v>
       </c>
       <c r="D141" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E141">
         <v>436096</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>270</v>
+        <v>549</v>
+      </c>
+      <c r="I141" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5589,33 +5644,36 @@
         <v>436100000</v>
       </c>
       <c r="D142" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E142">
         <v>436100</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>436235000</v>
       </c>
       <c r="B143">
-        <v>436235000</v>
+        <v>4094294000</v>
       </c>
       <c r="C143">
         <v>436235000</v>
       </c>
       <c r="D143" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E143">
         <v>4307095</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>274</v>
+        <v>550</v>
+      </c>
+      <c r="I143" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -5629,16 +5687,16 @@
         <v>436642000</v>
       </c>
       <c r="D144" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E144">
         <v>436642</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I144" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5652,13 +5710,13 @@
         <v>436665000</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E145">
         <v>436665</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5672,13 +5730,13 @@
         <v>436676000</v>
       </c>
       <c r="D146" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E146">
         <v>436676</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5686,19 +5744,22 @@
         <v>436962000</v>
       </c>
       <c r="B147">
-        <v>436962000</v>
+        <v>4094294000</v>
       </c>
       <c r="C147">
         <v>436962000</v>
       </c>
       <c r="D147" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E147">
         <v>436962</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>282</v>
+        <v>551</v>
+      </c>
+      <c r="I147" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5712,16 +5773,16 @@
         <v>437082000</v>
       </c>
       <c r="D148" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E148">
         <v>437082</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="I148" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -5735,13 +5796,13 @@
         <v>437222000</v>
       </c>
       <c r="D149" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E149">
         <v>437222</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5755,36 +5816,39 @@
         <v>437233000</v>
       </c>
       <c r="D150" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E150">
         <v>437233</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="I150" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>437312000</v>
       </c>
       <c r="B151">
-        <v>437312000</v>
+        <v>4094294000</v>
       </c>
       <c r="C151">
         <v>437312000</v>
       </c>
       <c r="D151" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E151">
         <v>437312</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>289</v>
+        <v>552</v>
+      </c>
+      <c r="I151" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5798,13 +5862,13 @@
         <v>437541000</v>
       </c>
       <c r="D152" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E152">
         <v>437541</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5812,22 +5876,25 @@
         <v>437663000</v>
       </c>
       <c r="B153">
-        <v>437663000</v>
+        <v>4094294000</v>
       </c>
       <c r="C153">
         <v>437663000</v>
       </c>
       <c r="D153" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="E153">
         <v>437663</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>293</v>
+        <v>553</v>
       </c>
       <c r="H153" t="s">
-        <v>294</v>
+        <v>275</v>
+      </c>
+      <c r="I153" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5841,13 +5908,13 @@
         <v>437833000</v>
       </c>
       <c r="D154" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="E154">
         <v>437833</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5861,13 +5928,13 @@
         <v>438120000</v>
       </c>
       <c r="D155" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E155">
         <v>438120</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5881,13 +5948,13 @@
         <v>438130000</v>
       </c>
       <c r="D156" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E156">
         <v>438130</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5901,13 +5968,13 @@
         <v>438409000</v>
       </c>
       <c r="D157" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E157">
         <v>438409</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -5921,13 +5988,13 @@
         <v>439393000</v>
       </c>
       <c r="D158" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E158">
         <v>439393</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5941,13 +6008,13 @@
         <v>439727000</v>
       </c>
       <c r="D159" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E159">
         <v>439727</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5961,13 +6028,13 @@
         <v>439776000</v>
       </c>
       <c r="D160" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="E160">
         <v>439776</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5981,16 +6048,16 @@
         <v>439777000</v>
       </c>
       <c r="D161" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="E161">
         <v>439777</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="H161" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6004,13 +6071,13 @@
         <v>439842000</v>
       </c>
       <c r="D162" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="E162">
         <v>439842</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6018,22 +6085,25 @@
         <v>440377000</v>
       </c>
       <c r="B163">
-        <v>440377000</v>
+        <v>4094294000</v>
       </c>
       <c r="C163">
         <v>440377000</v>
       </c>
       <c r="D163" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E163">
         <v>440377</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>315</v>
+        <v>554</v>
       </c>
       <c r="H163" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="I163" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6047,13 +6117,13 @@
         <v>440383000</v>
       </c>
       <c r="D164" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E164">
         <v>440383</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -6067,13 +6137,13 @@
         <v>440417000</v>
       </c>
       <c r="D165" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E165">
         <v>440417</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6087,13 +6157,13 @@
         <v>440674000</v>
       </c>
       <c r="D166" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="E166">
         <v>440674</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6107,13 +6177,13 @@
         <v>440703000</v>
       </c>
       <c r="D167" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="E167">
         <v>440703</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6127,16 +6197,16 @@
         <v>440740000</v>
       </c>
       <c r="D168" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="E168">
         <v>440740</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="I168" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -6150,13 +6220,13 @@
         <v>440925000</v>
       </c>
       <c r="D169" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E169">
         <v>440925</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6170,13 +6240,13 @@
         <v>440940000</v>
       </c>
       <c r="D170" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="E170">
         <v>440940</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6190,13 +6260,13 @@
         <v>441202000</v>
       </c>
       <c r="D171" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E171">
         <v>441202</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6210,53 +6280,59 @@
         <v>441284000</v>
       </c>
       <c r="D172" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="E172">
         <v>441284</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>441408000</v>
       </c>
       <c r="B173">
-        <v>441408000</v>
+        <v>4094294000</v>
       </c>
       <c r="C173">
         <v>441408000</v>
       </c>
       <c r="D173" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="E173">
         <v>441408</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="I173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>441542000</v>
       </c>
       <c r="B174">
-        <v>441542000</v>
+        <v>4094294000</v>
       </c>
       <c r="C174">
         <v>441542000</v>
       </c>
       <c r="D174" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="E174">
         <v>441542</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>337</v>
+        <v>556</v>
+      </c>
+      <c r="I174" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6270,13 +6346,13 @@
         <v>441788000</v>
       </c>
       <c r="D175" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="E175">
         <v>441788</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6290,16 +6366,16 @@
         <v>441848000</v>
       </c>
       <c r="D176" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="E176">
         <v>441848</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="I176" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6307,19 +6383,22 @@
         <v>442752000</v>
       </c>
       <c r="B177">
-        <v>442752000</v>
+        <v>4094294000</v>
       </c>
       <c r="C177">
         <v>442752000</v>
       </c>
       <c r="D177" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="E177">
         <v>442752</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>343</v>
+        <v>557</v>
+      </c>
+      <c r="I177" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6333,13 +6412,13 @@
         <v>443213000</v>
       </c>
       <c r="D178" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="E178">
         <v>443213</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6353,13 +6432,13 @@
         <v>443387000</v>
       </c>
       <c r="D179" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="E179">
         <v>443387</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6373,13 +6452,13 @@
         <v>443392000</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="E180">
         <v>443392</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6393,16 +6472,16 @@
         <v>443454000</v>
       </c>
       <c r="D181" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E181">
         <v>443454</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="I181" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6416,13 +6495,13 @@
         <v>443700000</v>
       </c>
       <c r="D182" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="E182">
         <v>443700</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6436,16 +6515,16 @@
         <v>443727000</v>
       </c>
       <c r="D183" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="E183">
         <v>443727</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="I183" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6459,36 +6538,39 @@
         <v>444044000</v>
       </c>
       <c r="D184" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="E184">
         <v>444044</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="I184" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>444070000</v>
       </c>
       <c r="B185">
-        <v>444070000</v>
+        <v>4094294000</v>
       </c>
       <c r="C185">
         <v>444070000</v>
       </c>
       <c r="D185" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="E185">
         <v>444070</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>357</v>
+        <v>558</v>
+      </c>
+      <c r="I185" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6502,13 +6584,13 @@
         <v>444247000</v>
       </c>
       <c r="D186" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="E186">
         <v>444247</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6522,13 +6604,13 @@
         <v>444429000</v>
       </c>
       <c r="D187" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="E187">
         <v>444429</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6542,19 +6624,19 @@
         <v>4000634000</v>
       </c>
       <c r="D188" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="E188">
         <v>4000634</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="H188" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="I188" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6568,16 +6650,16 @@
         <v>4002359000</v>
       </c>
       <c r="D189" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="E189">
         <v>4002359</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="I189" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6591,13 +6673,13 @@
         <v>4013643000</v>
       </c>
       <c r="D190" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E190">
         <v>4013643</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6611,16 +6693,16 @@
         <v>4024659000</v>
       </c>
       <c r="D191" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="E191">
         <v>4024659</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
       <c r="H191" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6634,13 +6716,13 @@
         <v>4027537000</v>
       </c>
       <c r="D192" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="E192">
         <v>4027537</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6654,13 +6736,13 @@
         <v>4028363000</v>
       </c>
       <c r="D193" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="E193">
         <v>4028363</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="375" x14ac:dyDescent="0.25">
@@ -6674,13 +6756,13 @@
         <v>4030518000</v>
       </c>
       <c r="D194" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="E194">
         <v>4030518</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6694,16 +6776,16 @@
         <v>4038838000</v>
       </c>
       <c r="D195" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="E195">
         <v>4038838</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="I195" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6714,16 +6796,16 @@
         <v>4043371000</v>
       </c>
       <c r="D196" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="E196">
         <v>4043371</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="H196" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6737,13 +6819,13 @@
         <v>4046338000</v>
       </c>
       <c r="D197" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="E197">
         <v>4046338</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -6757,16 +6839,16 @@
         <v>4058821000</v>
       </c>
       <c r="D198" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E198">
         <v>4058821</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="I198" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6780,16 +6862,16 @@
         <v>4063434000</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="E199">
         <v>4063434</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="I199" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6803,16 +6885,16 @@
         <v>4064161000</v>
       </c>
       <c r="D200" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="E200">
         <v>4064161</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="I200" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6826,13 +6908,13 @@
         <v>4067106000</v>
       </c>
       <c r="D201" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="E201">
         <v>4067106</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6846,19 +6928,19 @@
         <v>4070552000</v>
       </c>
       <c r="D202" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="E202">
         <v>4070552</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="H202" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="I202" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6872,16 +6954,16 @@
         <v>4074815000</v>
       </c>
       <c r="D203" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E203">
         <v>4074815</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="I203" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6895,16 +6977,16 @@
         <v>4079843000</v>
       </c>
       <c r="D204" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="E204">
         <v>4079843</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="I204" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6918,16 +7000,16 @@
         <v>4091559000</v>
       </c>
       <c r="D205" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E205">
         <v>4091559</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="I205" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6941,1335 +7023,1370 @@
         <v>4092289000</v>
       </c>
       <c r="D206" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E206">
         <v>4092289</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
+        <v>4094294000</v>
+      </c>
+      <c r="B207">
+        <v>4094294000</v>
+      </c>
+      <c r="C207">
+        <v>4094294000</v>
+      </c>
+      <c r="D207" t="s">
+        <v>534</v>
+      </c>
+      <c r="E207">
+        <v>4094294</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>4098292000</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <v>4098292000</v>
       </c>
-      <c r="C207">
+      <c r="C208">
         <v>4098292000</v>
       </c>
-      <c r="D207" t="s">
-        <v>396</v>
-      </c>
-      <c r="E207">
+      <c r="D208" t="s">
+        <v>372</v>
+      </c>
+      <c r="E208">
         <v>4098292</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="F208" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>4098597000</v>
       </c>
-      <c r="B208">
+      <c r="B209">
         <v>436081000</v>
       </c>
-      <c r="C208">
+      <c r="C209">
         <v>4098597000</v>
       </c>
-      <c r="D208" t="s">
-        <v>398</v>
-      </c>
-      <c r="E208">
+      <c r="D209" t="s">
+        <v>374</v>
+      </c>
+      <c r="E209">
         <v>4098597</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I208" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="F209" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I209" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>4101602000</v>
       </c>
-      <c r="B209">
+      <c r="B210">
         <v>4137275000</v>
       </c>
-      <c r="C209">
+      <c r="C210">
         <v>4101602000</v>
       </c>
-      <c r="D209" t="s">
-        <v>400</v>
-      </c>
-      <c r="E209">
+      <c r="D210" t="s">
+        <v>376</v>
+      </c>
+      <c r="E210">
         <v>4101602</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I209" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="F210" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I210" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>4103295000</v>
       </c>
-      <c r="B210">
+      <c r="B211">
         <v>44784217000</v>
       </c>
-      <c r="C210">
+      <c r="C211">
         <v>4103295000</v>
       </c>
-      <c r="D210" t="s">
-        <v>402</v>
-      </c>
-      <c r="E210">
+      <c r="D211" t="s">
+        <v>378</v>
+      </c>
+      <c r="E211">
         <v>4103295</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I210" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="F211" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I211" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>4112853000</v>
       </c>
-      <c r="B211">
+      <c r="B212">
         <v>4112853000</v>
       </c>
-      <c r="C211">
+      <c r="C212">
         <v>4112853000</v>
       </c>
-      <c r="D211" t="s">
-        <v>403</v>
-      </c>
-      <c r="E211">
+      <c r="D212" t="s">
+        <v>379</v>
+      </c>
+      <c r="E212">
         <v>4112853</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>4124836000</v>
-      </c>
-      <c r="B212">
-        <v>321052000</v>
-      </c>
-      <c r="C212">
-        <v>4124836000</v>
-      </c>
-      <c r="D212" t="s">
-        <v>405</v>
-      </c>
-      <c r="E212">
-        <v>4124836</v>
-      </c>
       <c r="F212" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="I212" t="s">
-        <v>26</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A213">
+        <v>4124836000</v>
+      </c>
+      <c r="B213">
+        <v>321052000</v>
+      </c>
+      <c r="C213">
+        <v>4124836000</v>
+      </c>
+      <c r="D213" t="s">
+        <v>381</v>
+      </c>
+      <c r="E213">
+        <v>4124836</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I213" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>4131909000</v>
       </c>
-      <c r="B213">
+      <c r="B214">
         <v>4131909000</v>
       </c>
-      <c r="C213">
+      <c r="C214">
         <v>4131909000</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D214" t="s">
+        <v>383</v>
+      </c>
+      <c r="E214">
+        <v>4131909</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>4133004000</v>
+      </c>
+      <c r="B215">
+        <v>4133004000</v>
+      </c>
+      <c r="C215">
+        <v>4133004000</v>
+      </c>
+      <c r="D215" t="s">
+        <v>385</v>
+      </c>
+      <c r="E215">
+        <v>4133004</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>4137275000</v>
+      </c>
+      <c r="B216">
+        <v>4137275000</v>
+      </c>
+      <c r="C216">
+        <v>4137275000</v>
+      </c>
+      <c r="D216" t="s">
+        <v>387</v>
+      </c>
+      <c r="E216">
+        <v>4137275</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>4138837000</v>
+      </c>
+      <c r="B217">
+        <v>4138837000</v>
+      </c>
+      <c r="C217">
+        <v>4138837000</v>
+      </c>
+      <c r="D217" t="s">
+        <v>389</v>
+      </c>
+      <c r="E217">
+        <v>4138837</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H217" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>4139034000</v>
+      </c>
+      <c r="B218">
+        <v>4139034000</v>
+      </c>
+      <c r="C218">
+        <v>4139034000</v>
+      </c>
+      <c r="D218" t="s">
+        <v>392</v>
+      </c>
+      <c r="E218">
+        <v>4139034</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H218" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>4147411000</v>
+      </c>
+      <c r="B219">
+        <v>432571000</v>
+      </c>
+      <c r="C219">
+        <v>4147411000</v>
+      </c>
+      <c r="D219" t="s">
+        <v>394</v>
+      </c>
+      <c r="E219">
+        <v>4147411</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I219" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>4163261000</v>
+      </c>
+      <c r="B220">
+        <v>4163261000</v>
+      </c>
+      <c r="C220">
+        <v>4163261000</v>
+      </c>
+      <c r="D220" t="s">
+        <v>395</v>
+      </c>
+      <c r="E220">
+        <v>4163261</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>4164770000</v>
+      </c>
+      <c r="B221">
+        <v>4164770000</v>
+      </c>
+      <c r="C221">
+        <v>4164770000</v>
+      </c>
+      <c r="D221" t="s">
+        <v>397</v>
+      </c>
+      <c r="E221">
+        <v>4164770</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>4169095000</v>
+      </c>
+      <c r="B222">
+        <v>4094294000</v>
+      </c>
+      <c r="C222">
+        <v>4169095000</v>
+      </c>
+      <c r="D222" t="s">
+        <v>399</v>
+      </c>
+      <c r="E222">
+        <v>4169095</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I222" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>4174977000</v>
+      </c>
+      <c r="B223">
+        <v>378416000</v>
+      </c>
+      <c r="C223">
+        <v>4174977000</v>
+      </c>
+      <c r="D223" t="s">
+        <v>400</v>
+      </c>
+      <c r="E223">
+        <v>4174977</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I223" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>4175485000</v>
+      </c>
+      <c r="C224">
+        <v>4175485000</v>
+      </c>
+      <c r="D224" t="s">
+        <v>516</v>
+      </c>
+      <c r="E224">
+        <v>4175485</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>4180790000</v>
+      </c>
+      <c r="B225">
+        <v>4180790000</v>
+      </c>
+      <c r="C225">
+        <v>4180790000</v>
+      </c>
+      <c r="D225" t="s">
+        <v>401</v>
+      </c>
+      <c r="E225">
+        <v>4180790</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>4181343000</v>
+      </c>
+      <c r="B226">
+        <v>4181343000</v>
+      </c>
+      <c r="C226">
+        <v>4181343000</v>
+      </c>
+      <c r="D226" t="s">
+        <v>403</v>
+      </c>
+      <c r="E226">
+        <v>4181343</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>4181351000</v>
+      </c>
+      <c r="B227">
+        <v>4181351000</v>
+      </c>
+      <c r="C227">
+        <v>4181351000</v>
+      </c>
+      <c r="D227" t="s">
+        <v>405</v>
+      </c>
+      <c r="E227">
+        <v>4181351</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>4182210000</v>
+      </c>
+      <c r="B228">
+        <v>4182210000</v>
+      </c>
+      <c r="C228">
+        <v>4182210000</v>
+      </c>
+      <c r="D228" t="s">
         <v>407</v>
       </c>
-      <c r="E213">
-        <v>4131909</v>
-      </c>
-      <c r="F213" s="1" t="s">
+      <c r="E228">
+        <v>4182210</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>4133004000</v>
-      </c>
-      <c r="B214">
-        <v>4133004000</v>
-      </c>
-      <c r="C214">
-        <v>4133004000</v>
-      </c>
-      <c r="D214" t="s">
+    <row r="229" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>4182711000</v>
+      </c>
+      <c r="B229">
+        <v>4137275000</v>
+      </c>
+      <c r="C229">
+        <v>4182711000</v>
+      </c>
+      <c r="D229" t="s">
         <v>409</v>
       </c>
-      <c r="E214">
-        <v>4133004</v>
-      </c>
-      <c r="F214" s="1" t="s">
+      <c r="E229">
+        <v>4182711</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>4137275000</v>
-      </c>
-      <c r="B215">
-        <v>4137275000</v>
-      </c>
-      <c r="C215">
-        <v>4137275000</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="H229" t="s">
         <v>411</v>
       </c>
-      <c r="E215">
-        <v>4137275</v>
-      </c>
-      <c r="F215" s="1" t="s">
+      <c r="I229" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>4185711000</v>
+      </c>
+      <c r="B230">
+        <v>4094294000</v>
+      </c>
+      <c r="C230">
+        <v>4185711000</v>
+      </c>
+      <c r="D230" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>4138837000</v>
-      </c>
-      <c r="B216">
-        <v>4138837000</v>
-      </c>
-      <c r="C216">
-        <v>4138837000</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="E230">
+        <v>4185711</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I230" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>4185932000</v>
+      </c>
+      <c r="B231">
+        <v>4185932000</v>
+      </c>
+      <c r="C231">
+        <v>4185932000</v>
+      </c>
+      <c r="D231" t="s">
         <v>413</v>
       </c>
-      <c r="E216">
-        <v>4138837</v>
-      </c>
-      <c r="F216" s="1" t="s">
+      <c r="E231">
+        <v>4185932</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="H216" t="s">
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>4190307000</v>
+      </c>
+      <c r="B232">
+        <v>4190307000</v>
+      </c>
+      <c r="C232">
+        <v>4190307000</v>
+      </c>
+      <c r="D232" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>4139034000</v>
-      </c>
-      <c r="B217">
-        <v>4139034000</v>
-      </c>
-      <c r="C217">
-        <v>4139034000</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="E232">
+        <v>4190307</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>4195694000</v>
+      </c>
+      <c r="B233">
+        <v>4195694000</v>
+      </c>
+      <c r="C233">
+        <v>4195694000</v>
+      </c>
+      <c r="D233" t="s">
         <v>416</v>
       </c>
-      <c r="E217">
-        <v>4139034</v>
-      </c>
-      <c r="F217" s="1" t="s">
+      <c r="E233">
+        <v>4195694</v>
+      </c>
+      <c r="F233" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H217" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>4147411000</v>
-      </c>
-      <c r="B218">
-        <v>432571000</v>
-      </c>
-      <c r="C218">
-        <v>4147411000</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="H233" t="s">
         <v>418</v>
       </c>
-      <c r="E218">
-        <v>4147411</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I218" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>4163261000</v>
-      </c>
-      <c r="B219">
-        <v>4163261000</v>
-      </c>
-      <c r="C219">
-        <v>4163261000</v>
-      </c>
-      <c r="D219" t="s">
+    </row>
+    <row r="234" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>4201096000</v>
+      </c>
+      <c r="B234">
+        <v>4190307000</v>
+      </c>
+      <c r="C234">
+        <v>4201096000</v>
+      </c>
+      <c r="D234" t="s">
         <v>419</v>
       </c>
-      <c r="E219">
-        <v>4163261</v>
-      </c>
-      <c r="F219" s="1" t="s">
+      <c r="E234">
+        <v>4201096</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>4164770000</v>
-      </c>
-      <c r="B220">
-        <v>4164770000</v>
-      </c>
-      <c r="C220">
-        <v>4164770000</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="I234" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>4212540000</v>
+      </c>
+      <c r="B235">
+        <v>4212540000</v>
+      </c>
+      <c r="C235">
+        <v>4212540000</v>
+      </c>
+      <c r="D235" t="s">
         <v>421</v>
       </c>
-      <c r="E220">
-        <v>4164770</v>
-      </c>
-      <c r="F220" s="1" t="s">
+      <c r="E235">
+        <v>4212540</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>4169095000</v>
-      </c>
-      <c r="B221">
-        <v>4169095000</v>
-      </c>
-      <c r="C221">
-        <v>4169095000</v>
-      </c>
-      <c r="D221" t="s">
+    <row r="236" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>4223659000</v>
+      </c>
+      <c r="B236">
+        <v>4094294000</v>
+      </c>
+      <c r="C236">
+        <v>4223659000</v>
+      </c>
+      <c r="D236" t="s">
         <v>423</v>
       </c>
-      <c r="E221">
-        <v>4169095</v>
-      </c>
-      <c r="F221" s="1" t="s">
+      <c r="E236">
+        <v>4223659</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I236" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>4236484000</v>
+      </c>
+      <c r="B237">
+        <v>4236484000</v>
+      </c>
+      <c r="C237">
+        <v>4236484000</v>
+      </c>
+      <c r="D237" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>4174977000</v>
-      </c>
-      <c r="B222">
-        <v>378416000</v>
-      </c>
-      <c r="C222">
-        <v>4174977000</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="E237">
+        <v>4236484</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E222">
-        <v>4174977</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I222" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B223">
-        <v>4175485000</v>
-      </c>
-      <c r="C223">
-        <v>4175485000</v>
-      </c>
-      <c r="D223" t="s">
-        <v>545</v>
-      </c>
-      <c r="E223">
-        <v>4175485</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>4180790000</v>
-      </c>
-      <c r="B224">
-        <v>4180790000</v>
-      </c>
-      <c r="C224">
-        <v>4180790000</v>
-      </c>
-      <c r="D224" t="s">
+    </row>
+    <row r="238" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>4245975000</v>
+      </c>
+      <c r="B238">
+        <v>4245975000</v>
+      </c>
+      <c r="C238">
+        <v>4245975000</v>
+      </c>
+      <c r="D238" t="s">
         <v>426</v>
       </c>
-      <c r="E224">
-        <v>4180790</v>
-      </c>
-      <c r="F224" s="1" t="s">
+      <c r="E238">
+        <v>4245975</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>4181343000</v>
-      </c>
-      <c r="B225">
-        <v>4181343000</v>
-      </c>
-      <c r="C225">
-        <v>4181343000</v>
-      </c>
-      <c r="D225" t="s">
+    <row r="239" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>4246127000</v>
+      </c>
+      <c r="B239">
+        <v>4246127000</v>
+      </c>
+      <c r="C239">
+        <v>4246127000</v>
+      </c>
+      <c r="D239" t="s">
         <v>428</v>
       </c>
-      <c r="E225">
-        <v>4181343</v>
-      </c>
-      <c r="F225" s="1" t="s">
+      <c r="E239">
+        <v>4246127</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>4181351000</v>
-      </c>
-      <c r="B226">
-        <v>4181351000</v>
-      </c>
-      <c r="C226">
-        <v>4181351000</v>
-      </c>
-      <c r="D226" t="s">
+      <c r="H239" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>4253901000</v>
+      </c>
+      <c r="B240">
+        <v>73553000</v>
+      </c>
+      <c r="C240">
+        <v>4253901000</v>
+      </c>
+      <c r="D240" t="s">
         <v>430</v>
       </c>
-      <c r="E226">
-        <v>4181351</v>
-      </c>
-      <c r="F226" s="1" t="s">
+      <c r="E240">
+        <v>4253901</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>4182210000</v>
-      </c>
-      <c r="B227">
-        <v>4182210000</v>
-      </c>
-      <c r="C227">
-        <v>4182210000</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="I240" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4256228000</v>
+      </c>
+      <c r="B241">
+        <v>4256228000</v>
+      </c>
+      <c r="C241">
+        <v>4256228000</v>
+      </c>
+      <c r="D241" t="s">
         <v>432</v>
       </c>
-      <c r="E227">
-        <v>4182210</v>
-      </c>
-      <c r="F227" s="1" t="s">
+      <c r="E241">
+        <v>4256228</v>
+      </c>
+      <c r="F241" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>4182711000</v>
-      </c>
-      <c r="B228">
-        <v>4137275000</v>
-      </c>
-      <c r="C228">
-        <v>4182711000</v>
-      </c>
-      <c r="D228" t="s">
+      <c r="H241" t="s">
         <v>434</v>
       </c>
-      <c r="E228">
-        <v>4182711</v>
-      </c>
-      <c r="F228" s="1" t="s">
+    </row>
+    <row r="242" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>4260535000</v>
+      </c>
+      <c r="B242">
+        <v>4043371000</v>
+      </c>
+      <c r="C242">
+        <v>4260535000</v>
+      </c>
+      <c r="D242" t="s">
         <v>435</v>
       </c>
-      <c r="H228" t="s">
+      <c r="E242">
+        <v>4260535</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H242" t="s">
         <v>436</v>
       </c>
-      <c r="I228" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>4185711000</v>
-      </c>
-      <c r="B229">
-        <v>4185711000</v>
-      </c>
-      <c r="C229">
-        <v>4185711000</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="I242" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>4266367000</v>
+      </c>
+      <c r="B243">
+        <v>4266367000</v>
+      </c>
+      <c r="C243">
+        <v>4266367000</v>
+      </c>
+      <c r="D243" t="s">
         <v>437</v>
       </c>
-      <c r="E229">
-        <v>4185711</v>
-      </c>
-      <c r="F229" s="1" t="s">
+      <c r="E243">
+        <v>4266367</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>4185932000</v>
-      </c>
-      <c r="B230">
-        <v>4185932000</v>
-      </c>
-      <c r="C230">
-        <v>4185932000</v>
-      </c>
-      <c r="D230" t="s">
+    <row r="244" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>4272240000</v>
+      </c>
+      <c r="B244">
+        <v>4094294000</v>
+      </c>
+      <c r="C244">
+        <v>4272240000</v>
+      </c>
+      <c r="D244" t="s">
         <v>439</v>
       </c>
-      <c r="E230">
-        <v>4185932</v>
-      </c>
-      <c r="F230" s="1" t="s">
+      <c r="E244">
+        <v>4272240</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I244" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>4273391000</v>
+      </c>
+      <c r="B245">
+        <v>4273391000</v>
+      </c>
+      <c r="C245">
+        <v>4273391000</v>
+      </c>
+      <c r="D245" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>4190307000</v>
-      </c>
-      <c r="B231">
-        <v>4190307000</v>
-      </c>
-      <c r="C231">
-        <v>4190307000</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="E245">
+        <v>4273391</v>
+      </c>
+      <c r="F245" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E231">
-        <v>4190307</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>4195694000</v>
-      </c>
-      <c r="B232">
-        <v>4195694000</v>
-      </c>
-      <c r="C232">
-        <v>4195694000</v>
-      </c>
-      <c r="D232" t="s">
+    </row>
+    <row r="246" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>4281232000</v>
+      </c>
+      <c r="B246">
+        <v>4212540000</v>
+      </c>
+      <c r="C246">
+        <v>4281232000</v>
+      </c>
+      <c r="D246" t="s">
         <v>442</v>
       </c>
-      <c r="E232">
-        <v>4195694</v>
-      </c>
-      <c r="F232" s="1" t="s">
+      <c r="E246">
+        <v>4281232</v>
+      </c>
+      <c r="F246" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H232" t="s">
+      <c r="I246" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>4284492000</v>
+      </c>
+      <c r="B247">
+        <v>140168000</v>
+      </c>
+      <c r="C247">
+        <v>4284492000</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>4201096000</v>
-      </c>
-      <c r="B233">
-        <v>4190307000</v>
-      </c>
-      <c r="C233">
-        <v>4201096000</v>
-      </c>
-      <c r="D233" t="s">
+      <c r="E247">
+        <v>4284492</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I247" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>4285717000</v>
+      </c>
+      <c r="B248">
+        <v>4285717000</v>
+      </c>
+      <c r="C248">
+        <v>4285717000</v>
+      </c>
+      <c r="D248" t="s">
         <v>445</v>
       </c>
-      <c r="E233">
-        <v>4201096</v>
-      </c>
-      <c r="F233" s="1" t="s">
+      <c r="E248">
+        <v>4285717</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="I233" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>4212540000</v>
-      </c>
-      <c r="B234">
-        <v>4212540000</v>
-      </c>
-      <c r="C234">
-        <v>4212540000</v>
-      </c>
-      <c r="D234" t="s">
-        <v>447</v>
-      </c>
-      <c r="E234">
-        <v>4212540</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>4223659000</v>
-      </c>
-      <c r="B235">
-        <v>4223659000</v>
-      </c>
-      <c r="C235">
-        <v>4223659000</v>
-      </c>
-      <c r="D235" t="s">
-        <v>449</v>
-      </c>
-      <c r="E235">
-        <v>4223659</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>4236484000</v>
-      </c>
-      <c r="B236">
-        <v>4236484000</v>
-      </c>
-      <c r="C236">
-        <v>4236484000</v>
-      </c>
-      <c r="D236" t="s">
-        <v>451</v>
-      </c>
-      <c r="E236">
-        <v>4236484</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>4245975000</v>
-      </c>
-      <c r="B237">
-        <v>4245975000</v>
-      </c>
-      <c r="C237">
-        <v>4245975000</v>
-      </c>
-      <c r="D237" t="s">
-        <v>453</v>
-      </c>
-      <c r="E237">
-        <v>4245975</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>4246127000</v>
-      </c>
-      <c r="B238">
-        <v>4246127000</v>
-      </c>
-      <c r="C238">
-        <v>4246127000</v>
-      </c>
-      <c r="D238" t="s">
-        <v>455</v>
-      </c>
-      <c r="E238">
-        <v>4246127</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H238" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>4253901000</v>
-      </c>
-      <c r="B239">
-        <v>73553000</v>
-      </c>
-      <c r="C239">
-        <v>4253901000</v>
-      </c>
-      <c r="D239" t="s">
-        <v>457</v>
-      </c>
-      <c r="E239">
-        <v>4253901</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I239" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>4256228000</v>
-      </c>
-      <c r="B240">
-        <v>4256228000</v>
-      </c>
-      <c r="C240">
-        <v>4256228000</v>
-      </c>
-      <c r="D240" t="s">
-        <v>459</v>
-      </c>
-      <c r="E240">
-        <v>4256228</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H240" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>4260535000</v>
-      </c>
-      <c r="B241">
-        <v>4043371000</v>
-      </c>
-      <c r="C241">
-        <v>4260535000</v>
-      </c>
-      <c r="D241" t="s">
-        <v>462</v>
-      </c>
-      <c r="E241">
-        <v>4260535</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H241" t="s">
-        <v>463</v>
-      </c>
-      <c r="I241" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>4266367000</v>
-      </c>
-      <c r="B242">
-        <v>4266367000</v>
-      </c>
-      <c r="C242">
-        <v>4266367000</v>
-      </c>
-      <c r="D242" t="s">
-        <v>464</v>
-      </c>
-      <c r="E242">
-        <v>4266367</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>4272240000</v>
-      </c>
-      <c r="B243">
-        <v>4272240000</v>
-      </c>
-      <c r="C243">
-        <v>4272240000</v>
-      </c>
-      <c r="D243" t="s">
-        <v>466</v>
-      </c>
-      <c r="E243">
-        <v>4272240</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>4273391000</v>
-      </c>
-      <c r="B244">
-        <v>4273391000</v>
-      </c>
-      <c r="C244">
-        <v>4273391000</v>
-      </c>
-      <c r="D244" t="s">
-        <v>468</v>
-      </c>
-      <c r="E244">
-        <v>4273391</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>4281232000</v>
-      </c>
-      <c r="B245">
-        <v>4212540000</v>
-      </c>
-      <c r="C245">
-        <v>4281232000</v>
-      </c>
-      <c r="D245" t="s">
-        <v>470</v>
-      </c>
-      <c r="E245">
-        <v>4281232</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I245" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>4284492000</v>
-      </c>
-      <c r="B246">
-        <v>140168000</v>
-      </c>
-      <c r="C246">
-        <v>4284492000</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E246">
-        <v>4284492</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="I246" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>4285717000</v>
-      </c>
-      <c r="B247">
-        <v>4285717000</v>
-      </c>
-      <c r="C247">
-        <v>4285717000</v>
-      </c>
-      <c r="D247" t="s">
-        <v>473</v>
-      </c>
-      <c r="E247">
-        <v>4285717</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>4286201000</v>
-      </c>
-      <c r="B248">
-        <v>4286201000</v>
-      </c>
-      <c r="C248">
-        <v>4286201000</v>
-      </c>
-      <c r="D248" t="s">
-        <v>475</v>
-      </c>
-      <c r="E248">
-        <v>4286201</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A249">
+        <v>4286201000</v>
+      </c>
+      <c r="B249">
+        <v>4286201000</v>
+      </c>
+      <c r="C249">
+        <v>4286201000</v>
+      </c>
+      <c r="D249" t="s">
+        <v>447</v>
+      </c>
+      <c r="E249">
+        <v>4286201</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>4290976000</v>
       </c>
-      <c r="B249">
+      <c r="B250">
         <v>4137275000</v>
       </c>
-      <c r="C249">
+      <c r="C250">
         <v>4290976000</v>
       </c>
-      <c r="D249" t="s">
-        <v>477</v>
-      </c>
-      <c r="E249">
+      <c r="D250" t="s">
+        <v>449</v>
+      </c>
+      <c r="E250">
         <v>4290976</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="I249" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="F250" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I250" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>4299535000</v>
       </c>
-      <c r="B250">
+      <c r="B251">
         <v>4299535000</v>
       </c>
-      <c r="C250">
+      <c r="C251">
         <v>4299535000</v>
       </c>
-      <c r="D250" t="s">
-        <v>479</v>
-      </c>
-      <c r="E250">
+      <c r="D251" t="s">
+        <v>451</v>
+      </c>
+      <c r="E251">
         <v>4299535</v>
       </c>
-      <c r="F250" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="F251" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>4306655000</v>
       </c>
-      <c r="B251">
+      <c r="B252">
         <v>4306655000</v>
       </c>
-      <c r="C251">
+      <c r="C252">
         <v>4306655000</v>
       </c>
-      <c r="D251" t="s">
-        <v>481</v>
-      </c>
-      <c r="E251">
+      <c r="D252" t="s">
+        <v>453</v>
+      </c>
+      <c r="E252">
         <v>4306655</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="F252" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A253">
         <v>4311499000</v>
       </c>
-      <c r="B252">
+      <c r="B253">
         <v>4311499000</v>
       </c>
-      <c r="C252">
+      <c r="C253">
         <v>4311499000</v>
       </c>
-      <c r="D252" t="s">
-        <v>483</v>
-      </c>
-      <c r="E252">
+      <c r="D253" t="s">
+        <v>455</v>
+      </c>
+      <c r="E253">
         <v>4311499</v>
       </c>
-      <c r="F252" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H252" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="F253" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H253" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A254">
         <v>4318985000</v>
       </c>
-      <c r="B253">
+      <c r="B254">
         <v>378416000</v>
       </c>
-      <c r="C253">
+      <c r="C254">
         <v>4318985000</v>
       </c>
-      <c r="D253" t="s">
-        <v>485</v>
-      </c>
-      <c r="E253">
+      <c r="D254" t="s">
+        <v>457</v>
+      </c>
+      <c r="E254">
         <v>4318985</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I253" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="F254" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I254" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A255">
         <v>4322024000</v>
       </c>
-      <c r="B254">
+      <c r="B255">
         <v>4322024000</v>
       </c>
-      <c r="C254">
+      <c r="C255">
         <v>4322024000</v>
       </c>
-      <c r="D254" t="s">
-        <v>486</v>
-      </c>
-      <c r="E254">
+      <c r="D255" t="s">
+        <v>458</v>
+      </c>
+      <c r="E255">
         <v>4322024</v>
       </c>
-      <c r="F254" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H254" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>4344489000</v>
-      </c>
-      <c r="B255">
-        <v>4137275000</v>
-      </c>
-      <c r="C255">
-        <v>4344489000</v>
-      </c>
-      <c r="D255" t="s">
-        <v>489</v>
-      </c>
-      <c r="E255">
-        <v>4344489</v>
-      </c>
       <c r="F255" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I255" t="s">
-        <v>26</v>
+        <v>459</v>
+      </c>
+      <c r="H255" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A256">
+        <v>4344489000</v>
+      </c>
+      <c r="B256">
+        <v>4137275000</v>
+      </c>
+      <c r="C256">
+        <v>4344489000</v>
+      </c>
+      <c r="D256" t="s">
+        <v>461</v>
+      </c>
+      <c r="E256">
+        <v>4344489</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I256" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>36712702000</v>
       </c>
-      <c r="B256">
+      <c r="B257">
         <v>36712702000</v>
       </c>
-      <c r="C256">
+      <c r="C257">
         <v>36712702000</v>
       </c>
-      <c r="D256" t="s">
-        <v>490</v>
-      </c>
-      <c r="E256">
+      <c r="D257" t="s">
+        <v>462</v>
+      </c>
+      <c r="E257">
         <v>36712702</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="F257" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A258">
         <v>37311061000</v>
       </c>
-      <c r="B257">
+      <c r="B258">
         <v>37311061000</v>
       </c>
-      <c r="C257">
+      <c r="C258">
         <v>37311061000</v>
       </c>
-      <c r="D257" t="s">
-        <v>492</v>
-      </c>
-      <c r="E257">
+      <c r="D258" t="s">
+        <v>464</v>
+      </c>
+      <c r="E258">
         <v>37311061</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="F258" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>40479589000</v>
       </c>
-      <c r="B258">
+      <c r="B259">
         <v>321319000</v>
       </c>
-      <c r="C258">
+      <c r="C259">
         <v>40479589000</v>
       </c>
-      <c r="D258" t="s">
-        <v>494</v>
-      </c>
-      <c r="E258">
+      <c r="D259" t="s">
+        <v>466</v>
+      </c>
+      <c r="E259">
         <v>40479589</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I258" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>40481901000</v>
-      </c>
-      <c r="B259">
-        <v>432571000</v>
-      </c>
-      <c r="C259">
-        <v>40481901000</v>
-      </c>
-      <c r="D259" t="s">
-        <v>496</v>
-      </c>
-      <c r="E259">
-        <v>40481901</v>
-      </c>
       <c r="F259" s="1" t="s">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="I259" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A260">
+        <v>40481901000</v>
+      </c>
+      <c r="B260">
+        <v>432571000</v>
+      </c>
+      <c r="C260">
+        <v>40481901000</v>
+      </c>
+      <c r="D260" t="s">
+        <v>468</v>
+      </c>
+      <c r="E260">
+        <v>40481901</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I260" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A261">
         <v>40481902000</v>
       </c>
-      <c r="B260">
+      <c r="B261">
         <v>40481902000</v>
       </c>
-      <c r="C260">
+      <c r="C261">
         <v>40481902000</v>
       </c>
-      <c r="D260" t="s">
-        <v>497</v>
-      </c>
-      <c r="E260">
+      <c r="D261" t="s">
+        <v>469</v>
+      </c>
+      <c r="E261">
         <v>40481902</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H260" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>40490918000</v>
-      </c>
-      <c r="B261">
-        <v>432571000</v>
-      </c>
-      <c r="C261">
-        <v>40490918000</v>
-      </c>
-      <c r="D261" t="s">
-        <v>500</v>
-      </c>
-      <c r="E261">
-        <v>40490918</v>
-      </c>
       <c r="F261" s="1" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="H261" t="s">
-        <v>29</v>
-      </c>
-      <c r="I261" t="s">
-        <v>26</v>
+        <v>471</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A262">
+        <v>40490918000</v>
+      </c>
+      <c r="B262">
+        <v>432571000</v>
+      </c>
+      <c r="C262">
+        <v>40490918000</v>
+      </c>
+      <c r="D262" t="s">
+        <v>472</v>
+      </c>
+      <c r="E262">
+        <v>40490918</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H262" t="s">
+        <v>24</v>
+      </c>
+      <c r="I262" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A263">
         <v>42535714000</v>
       </c>
-      <c r="B262">
+      <c r="B263">
         <v>4137275000</v>
       </c>
-      <c r="C262">
+      <c r="C263">
         <v>42535714000</v>
       </c>
-      <c r="D262" t="s">
-        <v>501</v>
-      </c>
-      <c r="E262">
+      <c r="D263" t="s">
+        <v>473</v>
+      </c>
+      <c r="E263">
         <v>42535714</v>
       </c>
-      <c r="F262" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="I262" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="F263" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I263" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A264">
         <v>43021132000</v>
       </c>
-      <c r="B263">
+      <c r="B264">
         <v>43021132000</v>
       </c>
-      <c r="C263">
+      <c r="C264">
         <v>43021132000</v>
       </c>
-      <c r="D263" t="s">
-        <v>503</v>
-      </c>
-      <c r="E263">
+      <c r="D264" t="s">
+        <v>475</v>
+      </c>
+      <c r="E264">
         <v>43021132</v>
       </c>
-      <c r="F263" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="F264" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A265">
         <v>43530714000</v>
       </c>
-      <c r="B264">
+      <c r="B265">
+        <v>4094294000</v>
+      </c>
+      <c r="C265">
         <v>43530714000</v>
       </c>
-      <c r="C264">
-        <v>43530714000</v>
-      </c>
-      <c r="D264" t="s">
-        <v>505</v>
-      </c>
-      <c r="E264">
+      <c r="D265" t="s">
+        <v>477</v>
+      </c>
+      <c r="E265">
         <v>43530714</v>
       </c>
-      <c r="F264" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="F265" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I265" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A266">
         <v>44784217000</v>
       </c>
-      <c r="B265">
+      <c r="B266">
         <v>44784217000</v>
       </c>
-      <c r="C265">
+      <c r="C266">
         <v>44784217000</v>
       </c>
-      <c r="D265" t="s">
-        <v>507</v>
-      </c>
-      <c r="E265">
+      <c r="D266" t="s">
+        <v>478</v>
+      </c>
+      <c r="E266">
         <v>44784217</v>
       </c>
-      <c r="F265" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H265" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="F266" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H266" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A267">
         <v>45763653000</v>
       </c>
-      <c r="B266">
+      <c r="B267">
         <v>45763653000</v>
       </c>
-      <c r="C266">
+      <c r="C267">
         <v>45763653000</v>
       </c>
-      <c r="D266" t="s">
-        <v>510</v>
-      </c>
-      <c r="E266">
+      <c r="D267" t="s">
+        <v>481</v>
+      </c>
+      <c r="E267">
         <v>45763653</v>
       </c>
-      <c r="F266" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H266" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="F267" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H267" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A268">
         <v>46271022000</v>
       </c>
-      <c r="B267">
+      <c r="B268">
         <v>4030518000</v>
       </c>
-      <c r="C267">
+      <c r="C268">
         <v>46271022000</v>
       </c>
-      <c r="D267" t="s">
-        <v>512</v>
-      </c>
-      <c r="E267">
+      <c r="D268" t="s">
+        <v>483</v>
+      </c>
+      <c r="E268">
         <v>46271022</v>
       </c>
-      <c r="F267" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I267" t="s">
-        <v>26</v>
+      <c r="F268" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I268" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I267">
-    <sortState ref="A2:I267">
-      <sortCondition ref="C1:C267"/>
+  <autoFilter ref="A1:I268">
+    <sortState ref="A2:I268">
+      <sortCondition ref="C1:C268"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -15,14 +15,14 @@
     <sheet name="PhenotypeDescription" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$269</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="564">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -2542,11 +2542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3123,12 +3123,12 @@
         <v>133834000</v>
       </c>
       <c r="B26">
-        <v>133834000</v>
+        <v>43021226000</v>
       </c>
       <c r="C26">
         <v>133834000</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E26">
@@ -3136,6 +3136,9 @@
       </c>
       <c r="F26" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4072,12 +4075,12 @@
         <v>257007000</v>
       </c>
       <c r="B70">
-        <v>257007000</v>
+        <v>43021226000</v>
       </c>
       <c r="C70">
         <v>257007000</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E70">
@@ -4085,6 +4088,9 @@
       </c>
       <c r="F70" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5237,12 +5243,12 @@
         <v>432791000</v>
       </c>
       <c r="B123">
-        <v>432791000</v>
+        <v>43021226000</v>
       </c>
       <c r="C123">
         <v>432791000</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E123">
@@ -5250,6 +5256,9 @@
       </c>
       <c r="F123" s="1" t="s">
         <v>222</v>
+      </c>
+      <c r="I123" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6254,12 +6263,12 @@
         <v>441202000</v>
       </c>
       <c r="B171">
-        <v>441202000</v>
+        <v>43021226000</v>
       </c>
       <c r="C171">
         <v>441202000</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E171">
@@ -6267,6 +6276,9 @@
       </c>
       <c r="F171" s="1" t="s">
         <v>311</v>
+      </c>
+      <c r="I171" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6451,7 +6463,7 @@
       <c r="C180">
         <v>443392000</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E180">
@@ -8291,102 +8303,122 @@
         <v>476</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>43021226000</v>
+      </c>
+      <c r="C265">
+        <v>43021226000</v>
+      </c>
+      <c r="D265">
+        <v>43021226000</v>
+      </c>
+      <c r="E265">
+        <v>43021226</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H265" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A266">
         <v>43530714000</v>
       </c>
-      <c r="B265">
+      <c r="B266">
         <v>4094294000</v>
       </c>
-      <c r="C265">
+      <c r="C266">
         <v>43530714000</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D266" t="s">
         <v>477</v>
       </c>
-      <c r="E265">
+      <c r="E266">
         <v>43530714</v>
       </c>
-      <c r="F265" s="1" t="s">
+      <c r="F266" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="I265" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="I266" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A267">
         <v>44784217000</v>
       </c>
-      <c r="B266">
+      <c r="B267">
         <v>44784217000</v>
       </c>
-      <c r="C266">
+      <c r="C267">
         <v>44784217000</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D267" t="s">
         <v>478</v>
       </c>
-      <c r="E266">
+      <c r="E267">
         <v>44784217</v>
       </c>
-      <c r="F266" s="1" t="s">
+      <c r="F267" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H266" t="s">
+      <c r="H267" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A267">
+    <row r="268" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A268">
         <v>45763653000</v>
       </c>
-      <c r="B267">
+      <c r="B268">
         <v>45763653000</v>
       </c>
-      <c r="C267">
+      <c r="C268">
         <v>45763653000</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D268" t="s">
         <v>481</v>
       </c>
-      <c r="E267">
+      <c r="E268">
         <v>45763653</v>
       </c>
-      <c r="F267" s="1" t="s">
+      <c r="F268" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H267" t="s">
+      <c r="H268" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A268">
+    <row r="269" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A269">
         <v>46271022000</v>
       </c>
-      <c r="B268">
+      <c r="B269">
         <v>4030518000</v>
       </c>
-      <c r="C268">
+      <c r="C269">
         <v>46271022000</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D269" t="s">
         <v>483</v>
       </c>
-      <c r="E268">
+      <c r="E269">
         <v>46271022</v>
       </c>
-      <c r="F268" s="1" t="s">
+      <c r="F269" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="I268" t="s">
+      <c r="I269" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I268">
-    <sortState ref="A2:I268">
-      <sortCondition ref="C1:C268"/>
+  <autoFilter ref="A1:I269">
+    <sortState ref="A2:I269">
+      <sortCondition ref="C1:C269"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="565">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -400,9 +400,6 @@
   </si>
   <si>
     <t>Acute myocardial infarction</t>
-  </si>
-  <si>
-    <t>Overview: Medical emergency, anoxic tissue injury to myocardium because of decreased blood suppy due to blockage of coronary blood vessels. Presentation: Tightness or pain in the chest, neck, back, or arms, shortness of breath, sweating, N/V as well as fatigue, lightheadedness, abnormal heartbeat, and anxiety. Assessment: Risk factors (HTN, high chol levels, diabetes, obesity, smoking, age, family hx), EKG, troponin (looking for heart damage), stress test, angiogram, and echocardiogramPlan: Immediate priority of thrombolysis and/or reperfusion of the myocardium. Blood thinner (aspirin), thrombolytics, antiplatelet, nitroglycerin, beta-blockers, ACE inhibitors. Cardiac stents or CABG Prognosis: Recovery from a heart attack depends on how much heart damage occurs and and how quickly emergency care is received. New events may occur in future. After recovery from the acute event, patient may develop chronic symptoms of myocardial injury including congestive heart failure.</t>
   </si>
   <si>
     <t>Dyspnea</t>
@@ -1267,12 +1264,6 @@
     <t>Anosmia</t>
   </si>
   <si>
-    <t>Chronic coronary syndrome</t>
-  </si>
-  <si>
-    <t>Overview: aka Chronic coronary syndrome, stable ischemic heart disease, coronary heart disease, coronary artery disease, are terms used to describe a syndrome due to inadequate supply of blood to the myocardium due to obstruction of the epicardial coronary arteries, usually from atherosclerosis (arteriosclerosis is vessel narrowing, hardening. atherosclerosis is a subtype of arteriosclerosis due to cholestrol plaque). This is distinct from Acute Coronary syndrome (acute myocardial infarction and unstable angina). Although a few people in this category may have acute (unstable) disease, the vast majority have a chronic (stable) disease - stable ischemic heart disease. Unless otherwise specified, this phenotype describes individuals with such chronic stable disease. While some may have history of prior myocardial infaction, others may have had silent infarction of heart that was incidentally found. An important subtype is left main coronary artery disease (LMCAD) and is a diagnosis made via coronary arteriography, and maybe suggested based on ECG pattern on stress testing. Left main equivalent disease, defined as severe (≥70 percent) proximal left anterior descending coronary artery and proximal left circumflex disease. Presentation: People with this disease may have Angina pectoris, chest discomfort that occurs predictably and reproducibly at a certain level of exertion and is relieved with rest or nitroglycerin. Many maybe asymptomatic with symptoms only detected in stress testing. Hypertension and hyperlipidemia frequently present. Assessment: extent and severity of coronary disease can be assessed by stress testing, cardiac imaging, and angiography. history or pathologic Q waves on an electrocardiogram, or wall motion abnormalities on echocardiogram may help identify old myocardial infarction. Plan:  secure the diagnosis, assess the extent of disease, relieve symptoms, and prevent future cardiac events such as acute coronary syndromes. Risk reduction (control of hypertension, lipids, weight loss, control of diabetes, exercise, antiplatelet therapy), antianginal therapy use of nitrites. Decrease cardiac demands with calcium channel blockers, beta blockers, supportive care. If LMCAD is detected, strong consider revascularization including coronary artery bypass graft. Prognosis: Coronary artery disease can lead to fatal myocardial infarction without adequate management. Most patients with significant LMCAD are symptomatic and are at higher risk of cardiovascular events, without revascularization, three-year survival is as low as 30% - CABG is recommended over PCI (controversial).</t>
-  </si>
-  <si>
     <t>Inflammation of Central Nervous System</t>
   </si>
   <si>
@@ -1718,6 +1709,18 @@
   </si>
   <si>
     <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] subjective symptoms related to smell or taste with high variation. Presentation: For taste - reports may be of diminished (hypogeusia), absent (ageusia), altered (dysgeusia), disturbance (aliageusia) or unpleasant (phanogeusia) in absence of stimuli. Hypogeusia is most common complaint. For smell - hyposmia, ansomia, parosmia or dysosmia. Assessment: search for etiology. Eliminate external causes such as drugs, environment, rule out nutritional and metabolic disorders, nerve damage, psychological. Plan: eliminate the cause. Prognosis: depends on underlying causes. If cause is eliminate, may recover quickly.</t>
+  </si>
+  <si>
+    <t>Hypersensitivity condition</t>
+  </si>
+  <si>
+    <t>Ischemic heart disease</t>
+  </si>
+  <si>
+    <t>Overview: Ischemic heart disease includes acute (unstable), chronic (stable) and acute on chronic (unstable) ischemic heart disease. Chronic coronary syndrome, stable ischemic heart disease, coronary heart disease, coronary artery disease, are terms used to describe a syndrome due to inadequate supply of blood to the myocardium due to obstruction of the epicardial coronary arteries, usually from atherosclerosis (arteriosclerosis is vessel narrowing, hardening. atherosclerosis is a subtype of arteriosclerosis due to cholestrol plaque). This is distinct from Acute Coronary syndrome (acute myocardial infarction and unstable angina). Although a few people in this category may have acute (unstable) disease, the vast majority have a chronic (stable) disease - stable ischemic heart disease. Unless otherwise specified, this phenotype describes individuals with such chronic stable disease. While some may have history of prior myocardial infaction, others may have had silent infarction of heart that was incidentally found. An important subtype is left main coronary artery disease (LMCAD) and is a diagnosis made via coronary arteriography, and maybe suggested based on ECG pattern on stress testing. Left main equivalent disease, defined as severe (≥70 percent) proximal left anterior descending coronary artery and proximal left circumflex disease. Presentation: People with this disease may have Angina pectoris, chest discomfort that occurs predictably and reproducibly at a certain level of exertion and is relieved with rest or nitroglycerin. Many maybe asymptomatic with symptoms only detected in stress testing. Hypertension and hyperlipidemia frequently present. Assessment: extent and severity of coronary disease can be assessed by stress testing, cardiac imaging, and angiography. history or pathologic Q waves on an electrocardiogram, or wall motion abnormalities on echocardiogram may help identify old myocardial infarction. Plan:  secure the diagnosis, assess the extent of disease, relieve symptoms, and prevent future cardiac events such as acute coronary syndromes. Risk reduction (control of hypertension, lipids, weight loss, control of diabetes, exercise, antiplatelet therapy), antianginal therapy use of nitrites. Decrease cardiac demands with calcium channel blockers, beta blockers, supportive care. If LMCAD is detected, strong consider revascularization including coronary artery bypass graft. Prognosis: Coronary artery disease can lead to fatal myocardial infarction without adequate management. Most patients with significant LMCAD are symptomatic and are at higher risk of cardiovascular events, without revascularization, three-year survival is as low as 30% - CABG is recommended over PCI (controversial).</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecate in favor of ischemic heart disease, 4185932000] Medical emergency, anoxic tissue injury to myocardium because of decreased blood suppy due to blockage of coronary blood vessels. Presentation: Tightness or pain in the chest, neck, back, or arms, shortness of breath, sweating, N/V as well as fatigue, lightheadedness, abnormal heartbeat, and anxiety. Assessment: Risk factors (HTN, high chol levels, diabetes, obesity, smoking, age, family hx), EKG, troponin (looking for heart damage), stress test, angiogram, and echocardiogramPlan: Immediate priority of thrombolysis and/or reperfusion of the myocardium. Blood thinner (aspirin), thrombolytics, antiplatelet, nitroglycerin, beta-blockers, ACE inhibitors. Cardiac stents or CABG Prognosis: Recovery from a heart attack depends on how much heart damage occurs and and how quickly emergency care is received. New events may occur in future. After recovery from the acute event, patient may develop chronic symptoms of myocardial injury including congestive heart failure.</t>
   </si>
 </sst>
 </file>
@@ -2546,7 +2549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,7 +2610,7 @@
         <v>24134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2650,7 +2653,7 @@
         <v>27918</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2673,7 +2676,7 @@
         <v>30753</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -2696,7 +2699,7 @@
         <v>31317</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -2719,7 +2722,7 @@
         <v>31967</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -2762,10 +2765,10 @@
         <v>73553</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2785,7 +2788,7 @@
         <v>75860</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -2831,7 +2834,7 @@
         <v>77074</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -2880,7 +2883,7 @@
         <v>80182</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2963,7 +2966,7 @@
         <v>81893</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -2986,7 +2989,7 @@
         <v>81902</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3069,7 +3072,7 @@
         <v>132797</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -3092,7 +3095,7 @@
         <v>133169</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -3198,7 +3201,7 @@
         <v>137977</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -3261,7 +3264,7 @@
         <v>138994</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3347,7 +3350,7 @@
         <v>140352</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -3450,7 +3453,7 @@
         <v>192359</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -3536,7 +3539,7 @@
         <v>194133</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3579,7 +3582,7 @@
         <v>194992</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3602,7 +3605,7 @@
         <v>196523</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3777,7 +3780,7 @@
         <v>200219</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3849,7 +3852,7 @@
         <v>201254</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3872,7 +3875,7 @@
         <v>201340</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3895,7 +3898,7 @@
         <v>201606</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3929,16 +3932,16 @@
         <v>201820000</v>
       </c>
       <c r="D63" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E63">
         <v>201820</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H63" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3958,7 +3961,7 @@
         <v>201826</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -4024,7 +4027,7 @@
         <v>254761</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -4118,19 +4121,22 @@
         <v>312327000</v>
       </c>
       <c r="B72">
-        <v>312327000</v>
+        <v>4185932000</v>
       </c>
       <c r="C72">
         <v>312327000</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E72">
         <v>312327</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>126</v>
+        <v>564</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4144,13 +4150,13 @@
         <v>312437000</v>
       </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73">
         <v>312437</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -4167,13 +4173,13 @@
         <v>312939000</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E74">
         <v>312939</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4187,13 +4193,13 @@
         <v>313217000</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E75">
         <v>313217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -4210,13 +4216,13 @@
         <v>313223000</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76">
         <v>313223</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -4233,13 +4239,13 @@
         <v>313459000</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77">
         <v>313459</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -4253,13 +4259,13 @@
         <v>313800000</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E78">
         <v>313800</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4273,13 +4279,13 @@
         <v>314381000</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E79">
         <v>314381</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -4295,14 +4301,14 @@
       <c r="C80">
         <v>314383000</v>
       </c>
-      <c r="D80" t="s">
-        <v>138</v>
+      <c r="D80" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E80">
         <v>314383</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -4315,17 +4321,17 @@
       <c r="C81">
         <v>316139000</v>
       </c>
-      <c r="D81" t="s">
-        <v>140</v>
+      <c r="D81" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E81">
         <v>316139</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H81" t="s">
         <v>141</v>
-      </c>
-      <c r="H81" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4339,16 +4345,16 @@
         <v>316866000</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E82">
         <v>316866</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H82" t="s">
         <v>144</v>
-      </c>
-      <c r="H82" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4362,13 +4368,13 @@
         <v>317009000</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E83">
         <v>317009</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4382,13 +4388,13 @@
         <v>317576000</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E84">
         <v>317576</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4405,13 +4411,13 @@
         <v>318443000</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E85">
         <v>318443</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H85" t="s">
         <v>24</v>
@@ -4428,13 +4434,13 @@
         <v>318736000</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E86">
         <v>318736</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4448,13 +4454,13 @@
         <v>318800000</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E87">
         <v>318800</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4468,13 +4474,13 @@
         <v>319041000</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E88">
         <v>319041</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4488,16 +4494,16 @@
         <v>319049000</v>
       </c>
       <c r="D89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E89">
         <v>319049</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H89" t="s">
         <v>158</v>
-      </c>
-      <c r="H89" t="s">
-        <v>159</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -4514,13 +4520,13 @@
         <v>320749000</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E90">
         <v>320749</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -4537,13 +4543,13 @@
         <v>321042000</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E91">
         <v>321042</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H91" t="s">
         <v>24</v>
@@ -4563,16 +4569,16 @@
         <v>321052000</v>
       </c>
       <c r="D92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E92">
         <v>321052</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H92" t="s">
         <v>164</v>
-      </c>
-      <c r="H92" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4586,13 +4592,13 @@
         <v>321318000</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E93">
         <v>321318</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -4608,14 +4614,14 @@
       <c r="C94">
         <v>321319000</v>
       </c>
-      <c r="D94" t="s">
-        <v>167</v>
+      <c r="D94" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="E94">
         <v>321319</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4628,14 +4634,14 @@
       <c r="C95">
         <v>321588000</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>169</v>
+      <c r="D95" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E95">
         <v>321588</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H95" t="s">
         <v>24</v>
@@ -4652,13 +4658,13 @@
         <v>372328000</v>
       </c>
       <c r="D96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E96">
         <v>372328</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4672,13 +4678,13 @@
         <v>373503000</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E97">
         <v>373503</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
@@ -4695,16 +4701,16 @@
         <v>374021000</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E98">
         <v>374021</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H98" t="s">
         <v>175</v>
-      </c>
-      <c r="H98" t="s">
-        <v>176</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -4721,13 +4727,13 @@
         <v>374028000</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E99">
         <v>374028</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -4744,13 +4750,13 @@
         <v>374366000</v>
       </c>
       <c r="D100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E100">
         <v>374366</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4764,13 +4770,13 @@
         <v>374377000</v>
       </c>
       <c r="D101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E101">
         <v>374377</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H101" t="s">
         <v>24</v>
@@ -4790,13 +4796,13 @@
         <v>374919000</v>
       </c>
       <c r="D102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E102">
         <v>374919</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -4813,13 +4819,13 @@
         <v>374954000</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E103">
         <v>374954</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -4836,13 +4842,13 @@
         <v>375801000</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E104">
         <v>375801</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4856,13 +4862,13 @@
         <v>375806000</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E105">
         <v>375806</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4876,13 +4882,13 @@
         <v>376713000</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E106">
         <v>376713</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
@@ -4899,16 +4905,16 @@
         <v>377091000</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E107">
         <v>377091</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H107" t="s">
         <v>192</v>
-      </c>
-      <c r="H107" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4922,13 +4928,13 @@
         <v>378135000</v>
       </c>
       <c r="D108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E108">
         <v>378135</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="315" x14ac:dyDescent="0.25">
@@ -4942,16 +4948,16 @@
         <v>378143000</v>
       </c>
       <c r="D109" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E109">
         <v>378143</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H109" t="s">
         <v>197</v>
-      </c>
-      <c r="H109" t="s">
-        <v>198</v>
       </c>
       <c r="I109" t="s">
         <v>22</v>
@@ -4968,13 +4974,13 @@
         <v>378253000</v>
       </c>
       <c r="D110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E110">
         <v>378253</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -4991,13 +4997,13 @@
         <v>378414000</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E111">
         <v>378414</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -5014,13 +5020,13 @@
         <v>378416000</v>
       </c>
       <c r="D112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E112">
         <v>378416</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5034,13 +5040,13 @@
         <v>378419000</v>
       </c>
       <c r="D113" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E113">
         <v>378419</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5054,13 +5060,13 @@
         <v>380378000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E114">
         <v>380378</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -5077,13 +5083,13 @@
         <v>381009000</v>
       </c>
       <c r="D115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E115">
         <v>381009</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
@@ -5100,13 +5106,13 @@
         <v>381114000</v>
       </c>
       <c r="D116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E116">
         <v>381114</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5120,13 +5126,13 @@
         <v>381270000</v>
       </c>
       <c r="D117" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E117">
         <v>381270</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5140,13 +5146,13 @@
         <v>381316000</v>
       </c>
       <c r="D118" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E118">
         <v>381316</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I118" t="s">
         <v>22</v>
@@ -5163,16 +5169,16 @@
         <v>381591000</v>
       </c>
       <c r="D119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E119">
         <v>381591</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H119" t="s">
         <v>215</v>
-      </c>
-      <c r="H119" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5186,13 +5192,13 @@
         <v>432571000</v>
       </c>
       <c r="D120" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E120">
         <v>432571000</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5206,16 +5212,16 @@
         <v>432585000</v>
       </c>
       <c r="D121" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E121">
         <v>432585</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H121" t="s">
         <v>218</v>
-      </c>
-      <c r="H121" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5229,13 +5235,13 @@
         <v>432595000</v>
       </c>
       <c r="D122" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E122">
         <v>432595</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5249,13 +5255,13 @@
         <v>432791000</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E123">
         <v>432791</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I123" t="s">
         <v>22</v>
@@ -5272,13 +5278,13 @@
         <v>432867000</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E124">
         <v>432867</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5292,13 +5298,13 @@
         <v>432870000</v>
       </c>
       <c r="D125" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E125">
         <v>432870</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5312,13 +5318,13 @@
         <v>432881000</v>
       </c>
       <c r="D126" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E126">
         <v>432881</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5332,13 +5338,13 @@
         <v>432893000</v>
       </c>
       <c r="D127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E127">
         <v>432893</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -5355,13 +5361,13 @@
         <v>433595000</v>
       </c>
       <c r="D128" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E128">
         <v>433595</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -5378,13 +5384,13 @@
         <v>433736000</v>
       </c>
       <c r="D129" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E129">
         <v>433736</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5398,13 +5404,13 @@
         <v>434119000</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E130">
         <v>434119</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5418,13 +5424,13 @@
         <v>434557000</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E131">
         <v>434557</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5438,13 +5444,13 @@
         <v>434584000</v>
       </c>
       <c r="D132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E132">
         <v>434584</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -5458,13 +5464,13 @@
         <v>434592000</v>
       </c>
       <c r="D133" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E133">
         <v>434592</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -5481,13 +5487,13 @@
         <v>434610000</v>
       </c>
       <c r="D134" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E134">
         <v>434610</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5501,13 +5507,13 @@
         <v>434821000</v>
       </c>
       <c r="D135" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E135">
         <v>434821</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I135" t="s">
         <v>22</v>
@@ -5524,13 +5530,13 @@
         <v>435224000</v>
       </c>
       <c r="D136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E136">
         <v>435224</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5544,13 +5550,13 @@
         <v>435783000</v>
       </c>
       <c r="D137" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E137">
         <v>435783</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -5564,13 +5570,13 @@
         <v>435785000</v>
       </c>
       <c r="D138" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E138">
         <v>435785</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I138" t="s">
         <v>22</v>
@@ -5587,13 +5593,13 @@
         <v>436073000</v>
       </c>
       <c r="D139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E139">
         <v>436073</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5607,16 +5613,16 @@
         <v>436081000</v>
       </c>
       <c r="D140" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E140">
         <v>436081</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H140" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5630,13 +5636,13 @@
         <v>436096000</v>
       </c>
       <c r="D141" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E141">
         <v>436096</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I141" t="s">
         <v>22</v>
@@ -5653,13 +5659,13 @@
         <v>436100000</v>
       </c>
       <c r="D142" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E142">
         <v>436100</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5673,13 +5679,13 @@
         <v>436235000</v>
       </c>
       <c r="D143" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E143">
         <v>4307095</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I143" t="s">
         <v>22</v>
@@ -5696,13 +5702,13 @@
         <v>436642000</v>
       </c>
       <c r="D144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E144">
         <v>436642</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I144" t="s">
         <v>22</v>
@@ -5719,13 +5725,13 @@
         <v>436665000</v>
       </c>
       <c r="D145" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E145">
         <v>436665</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5739,13 +5745,13 @@
         <v>436676000</v>
       </c>
       <c r="D146" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E146">
         <v>436676</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5759,13 +5765,13 @@
         <v>436962000</v>
       </c>
       <c r="D147" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E147">
         <v>436962</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I147" t="s">
         <v>22</v>
@@ -5782,13 +5788,13 @@
         <v>437082000</v>
       </c>
       <c r="D148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E148">
         <v>437082</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I148" t="s">
         <v>22</v>
@@ -5805,13 +5811,13 @@
         <v>437222000</v>
       </c>
       <c r="D149" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E149">
         <v>437222</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5825,13 +5831,13 @@
         <v>437233000</v>
       </c>
       <c r="D150" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E150">
         <v>437233</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I150" t="s">
         <v>22</v>
@@ -5848,13 +5854,13 @@
         <v>437312000</v>
       </c>
       <c r="D151" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E151">
         <v>437312</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I151" t="s">
         <v>22</v>
@@ -5871,13 +5877,13 @@
         <v>437541000</v>
       </c>
       <c r="D152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E152">
         <v>437541</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5891,16 +5897,16 @@
         <v>437663000</v>
       </c>
       <c r="D153" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E153">
         <v>437663</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H153" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I153" t="s">
         <v>22</v>
@@ -5917,13 +5923,13 @@
         <v>437833000</v>
       </c>
       <c r="D154" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E154">
         <v>437833</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5937,13 +5943,13 @@
         <v>438120000</v>
       </c>
       <c r="D155" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E155">
         <v>438120</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5957,13 +5963,13 @@
         <v>438130000</v>
       </c>
       <c r="D156" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E156">
         <v>438130</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5977,13 +5983,13 @@
         <v>438409000</v>
       </c>
       <c r="D157" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E157">
         <v>438409</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -5997,13 +6003,13 @@
         <v>439393000</v>
       </c>
       <c r="D158" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E158">
         <v>439393</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6017,13 +6023,13 @@
         <v>439727000</v>
       </c>
       <c r="D159" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E159">
         <v>439727</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6037,13 +6043,13 @@
         <v>439776000</v>
       </c>
       <c r="D160" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E160">
         <v>439776</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6057,16 +6063,16 @@
         <v>439777000</v>
       </c>
       <c r="D161" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E161">
         <v>439777</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H161" t="s">
         <v>291</v>
-      </c>
-      <c r="H161" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6080,13 +6086,13 @@
         <v>439842000</v>
       </c>
       <c r="D162" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E162">
         <v>439842</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6100,13 +6106,13 @@
         <v>440377000</v>
       </c>
       <c r="D163" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E163">
         <v>440377</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H163" t="s">
         <v>24</v>
@@ -6126,13 +6132,13 @@
         <v>440383000</v>
       </c>
       <c r="D164" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E164">
         <v>440383</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -6146,13 +6152,13 @@
         <v>440417000</v>
       </c>
       <c r="D165" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E165">
         <v>440417</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6166,13 +6172,13 @@
         <v>440674000</v>
       </c>
       <c r="D166" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E166">
         <v>440674</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6186,13 +6192,13 @@
         <v>440703000</v>
       </c>
       <c r="D167" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E167">
         <v>440703</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6206,13 +6212,13 @@
         <v>440740000</v>
       </c>
       <c r="D168" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E168">
         <v>440740</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I168" t="s">
         <v>22</v>
@@ -6229,13 +6235,13 @@
         <v>440925000</v>
       </c>
       <c r="D169" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E169">
         <v>440925</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6249,13 +6255,13 @@
         <v>440940000</v>
       </c>
       <c r="D170" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E170">
         <v>440940</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6269,13 +6275,13 @@
         <v>441202000</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E171">
         <v>441202</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I171" t="s">
         <v>22</v>
@@ -6292,13 +6298,13 @@
         <v>441284000</v>
       </c>
       <c r="D172" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E172">
         <v>441284</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6312,13 +6318,13 @@
         <v>441408000</v>
       </c>
       <c r="D173" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E173">
         <v>441408</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I173" t="s">
         <v>22</v>
@@ -6335,13 +6341,13 @@
         <v>441542000</v>
       </c>
       <c r="D174" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E174">
         <v>441542</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I174" t="s">
         <v>22</v>
@@ -6358,13 +6364,13 @@
         <v>441788000</v>
       </c>
       <c r="D175" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E175">
         <v>441788</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6378,13 +6384,13 @@
         <v>441848000</v>
       </c>
       <c r="D176" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E176">
         <v>441848</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I176" t="s">
         <v>22</v>
@@ -6401,13 +6407,13 @@
         <v>442752000</v>
       </c>
       <c r="D177" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E177">
         <v>442752</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I177" t="s">
         <v>22</v>
@@ -6424,13 +6430,13 @@
         <v>443213000</v>
       </c>
       <c r="D178" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E178">
         <v>443213</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6444,13 +6450,13 @@
         <v>443387000</v>
       </c>
       <c r="D179" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E179">
         <v>443387</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6464,13 +6470,13 @@
         <v>443392000</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E180">
         <v>443392</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6484,13 +6490,13 @@
         <v>443454000</v>
       </c>
       <c r="D181" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E181">
         <v>443454</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I181" t="s">
         <v>22</v>
@@ -6507,13 +6513,13 @@
         <v>443700000</v>
       </c>
       <c r="D182" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E182">
         <v>443700</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6527,13 +6533,13 @@
         <v>443727000</v>
       </c>
       <c r="D183" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E183">
         <v>443727</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I183" t="s">
         <v>22</v>
@@ -6550,13 +6556,13 @@
         <v>444044000</v>
       </c>
       <c r="D184" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E184">
         <v>444044</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I184" t="s">
         <v>22</v>
@@ -6573,13 +6579,13 @@
         <v>444070000</v>
       </c>
       <c r="D185" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E185">
         <v>444070</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I185" t="s">
         <v>22</v>
@@ -6596,13 +6602,13 @@
         <v>444247000</v>
       </c>
       <c r="D186" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E186">
         <v>444247</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6616,13 +6622,13 @@
         <v>444429000</v>
       </c>
       <c r="D187" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E187">
         <v>444429</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6636,16 +6642,16 @@
         <v>4000634000</v>
       </c>
       <c r="D188" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E188">
         <v>4000634</v>
       </c>
       <c r="F188" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H188" t="s">
         <v>339</v>
-      </c>
-      <c r="H188" t="s">
-        <v>340</v>
       </c>
       <c r="I188" t="s">
         <v>22</v>
@@ -6662,13 +6668,13 @@
         <v>4002359000</v>
       </c>
       <c r="D189" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E189">
         <v>4002359</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I189" t="s">
         <v>22</v>
@@ -6685,13 +6691,13 @@
         <v>4013643000</v>
       </c>
       <c r="D190" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E190">
         <v>4013643</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6705,16 +6711,16 @@
         <v>4024659000</v>
       </c>
       <c r="D191" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E191">
         <v>4024659</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H191" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6728,13 +6734,13 @@
         <v>4027537000</v>
       </c>
       <c r="D192" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E192">
         <v>4027537</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6748,13 +6754,13 @@
         <v>4028363000</v>
       </c>
       <c r="D193" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E193">
         <v>4028363</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="375" x14ac:dyDescent="0.25">
@@ -6768,13 +6774,13 @@
         <v>4030518000</v>
       </c>
       <c r="D194" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E194">
         <v>4030518</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6788,13 +6794,13 @@
         <v>4038838000</v>
       </c>
       <c r="D195" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E195">
         <v>4038838</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I195" t="s">
         <v>22</v>
@@ -6808,16 +6814,16 @@
         <v>4043371000</v>
       </c>
       <c r="D196" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E196">
         <v>4043371</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H196" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6831,13 +6837,13 @@
         <v>4046338000</v>
       </c>
       <c r="D197" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E197">
         <v>4046338</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -6851,13 +6857,13 @@
         <v>4058821000</v>
       </c>
       <c r="D198" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E198">
         <v>4058821</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I198" t="s">
         <v>22</v>
@@ -6874,13 +6880,13 @@
         <v>4063434000</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E199">
         <v>4063434</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -6897,13 +6903,13 @@
         <v>4064161000</v>
       </c>
       <c r="D200" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E200">
         <v>4064161</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I200" t="s">
         <v>22</v>
@@ -6920,13 +6926,13 @@
         <v>4067106000</v>
       </c>
       <c r="D201" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E201">
         <v>4067106</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6940,16 +6946,16 @@
         <v>4070552000</v>
       </c>
       <c r="D202" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E202">
         <v>4070552</v>
       </c>
       <c r="F202" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H202" t="s">
         <v>364</v>
-      </c>
-      <c r="H202" t="s">
-        <v>365</v>
       </c>
       <c r="I202" t="s">
         <v>22</v>
@@ -6966,13 +6972,13 @@
         <v>4074815000</v>
       </c>
       <c r="D203" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E203">
         <v>4074815</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I203" t="s">
         <v>22</v>
@@ -6989,13 +6995,13 @@
         <v>4079843000</v>
       </c>
       <c r="D204" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E204">
         <v>4079843</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I204" t="s">
         <v>22</v>
@@ -7012,13 +7018,13 @@
         <v>4091559000</v>
       </c>
       <c r="D205" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E205">
         <v>4091559</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I205" t="s">
         <v>22</v>
@@ -7035,13 +7041,13 @@
         <v>4092289000</v>
       </c>
       <c r="D206" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E206">
         <v>4092289</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -7055,13 +7061,13 @@
         <v>4094294000</v>
       </c>
       <c r="D207" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E207">
         <v>4094294</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7075,13 +7081,13 @@
         <v>4098292000</v>
       </c>
       <c r="D208" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E208">
         <v>4098292</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7095,13 +7101,13 @@
         <v>4098597000</v>
       </c>
       <c r="D209" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E209">
         <v>4098597</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I209" t="s">
         <v>22</v>
@@ -7118,13 +7124,13 @@
         <v>4101602000</v>
       </c>
       <c r="D210" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E210">
         <v>4101602</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I210" t="s">
         <v>22</v>
@@ -7141,13 +7147,13 @@
         <v>4103295000</v>
       </c>
       <c r="D211" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E211">
         <v>4103295</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I211" t="s">
         <v>22</v>
@@ -7164,13 +7170,13 @@
         <v>4112853000</v>
       </c>
       <c r="D212" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E212">
         <v>4112853</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7184,13 +7190,13 @@
         <v>4124836000</v>
       </c>
       <c r="D213" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E213">
         <v>4124836</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I213" t="s">
         <v>22</v>
@@ -7207,13 +7213,13 @@
         <v>4131909000</v>
       </c>
       <c r="D214" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E214">
         <v>4131909</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -7227,13 +7233,13 @@
         <v>4133004000</v>
       </c>
       <c r="D215" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E215">
         <v>4133004</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -7247,13 +7253,13 @@
         <v>4137275000</v>
       </c>
       <c r="D216" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E216">
         <v>4137275</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="195" x14ac:dyDescent="0.25">
@@ -7267,16 +7273,16 @@
         <v>4138837000</v>
       </c>
       <c r="D217" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E217">
         <v>4138837</v>
       </c>
       <c r="F217" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H217" t="s">
         <v>390</v>
-      </c>
-      <c r="H217" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -7290,13 +7296,13 @@
         <v>4139034000</v>
       </c>
       <c r="D218" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E218">
         <v>4139034</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H218" t="s">
         <v>24</v>
@@ -7313,13 +7319,13 @@
         <v>4147411000</v>
       </c>
       <c r="D219" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E219">
         <v>4147411</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I219" t="s">
         <v>22</v>
@@ -7336,13 +7342,13 @@
         <v>4163261000</v>
       </c>
       <c r="D220" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E220">
         <v>4163261</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -7356,13 +7362,13 @@
         <v>4164770000</v>
       </c>
       <c r="D221" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E221">
         <v>4164770</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -7376,13 +7382,13 @@
         <v>4169095000</v>
       </c>
       <c r="D222" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E222">
         <v>4169095</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I222" t="s">
         <v>22</v>
@@ -7399,13 +7405,13 @@
         <v>4174977000</v>
       </c>
       <c r="D223" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E223">
         <v>4174977</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I223" t="s">
         <v>22</v>
@@ -7419,13 +7425,13 @@
         <v>4175485000</v>
       </c>
       <c r="D224" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E224">
         <v>4175485</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7439,13 +7445,13 @@
         <v>4180790000</v>
       </c>
       <c r="D225" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E225">
         <v>4180790</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7459,13 +7465,13 @@
         <v>4181343000</v>
       </c>
       <c r="D226" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E226">
         <v>4181343</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7479,13 +7485,13 @@
         <v>4181351000</v>
       </c>
       <c r="D227" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E227">
         <v>4181351</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -7499,13 +7505,13 @@
         <v>4182210000</v>
       </c>
       <c r="D228" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E228">
         <v>4182210</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -7519,16 +7525,16 @@
         <v>4182711000</v>
       </c>
       <c r="D229" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E229">
         <v>4182711</v>
       </c>
       <c r="F229" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H229" t="s">
         <v>410</v>
-      </c>
-      <c r="H229" t="s">
-        <v>411</v>
       </c>
       <c r="I229" t="s">
         <v>22</v>
@@ -7545,19 +7551,19 @@
         <v>4185711000</v>
       </c>
       <c r="D230" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E230">
         <v>4185711</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I230" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4185932000</v>
       </c>
@@ -7567,14 +7573,14 @@
       <c r="C231">
         <v>4185932000</v>
       </c>
-      <c r="D231" t="s">
-        <v>413</v>
+      <c r="D231" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="E231">
         <v>4185932</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>414</v>
+        <v>563</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7588,13 +7594,13 @@
         <v>4190307000</v>
       </c>
       <c r="D232" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E232">
         <v>4190307</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -7608,16 +7614,16 @@
         <v>4195694000</v>
       </c>
       <c r="D233" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E233">
         <v>4195694</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H233" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -7631,13 +7637,13 @@
         <v>4201096000</v>
       </c>
       <c r="D234" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E234">
         <v>4201096</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I234" t="s">
         <v>22</v>
@@ -7654,13 +7660,13 @@
         <v>4212540000</v>
       </c>
       <c r="D235" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E235">
         <v>4212540</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -7674,13 +7680,13 @@
         <v>4223659000</v>
       </c>
       <c r="D236" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E236">
         <v>4223659</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I236" t="s">
         <v>22</v>
@@ -7697,13 +7703,13 @@
         <v>4236484000</v>
       </c>
       <c r="D237" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E237">
         <v>4236484</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -7717,13 +7723,13 @@
         <v>4245975000</v>
       </c>
       <c r="D238" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E238">
         <v>4245975</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7737,13 +7743,13 @@
         <v>4246127000</v>
       </c>
       <c r="D239" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E239">
         <v>4246127</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H239" t="s">
         <v>24</v>
@@ -7760,13 +7766,13 @@
         <v>4253901000</v>
       </c>
       <c r="D240" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E240">
         <v>4253901</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I240" t="s">
         <v>22</v>
@@ -7783,16 +7789,16 @@
         <v>4256228000</v>
       </c>
       <c r="D241" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E241">
         <v>4256228</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H241" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -7806,16 +7812,16 @@
         <v>4260535000</v>
       </c>
       <c r="D242" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E242">
         <v>4260535</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H242" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I242" t="s">
         <v>22</v>
@@ -7832,13 +7838,13 @@
         <v>4266367000</v>
       </c>
       <c r="D243" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E243">
         <v>4266367</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7852,13 +7858,13 @@
         <v>4272240000</v>
       </c>
       <c r="D244" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E244">
         <v>4272240</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I244" t="s">
         <v>22</v>
@@ -7875,13 +7881,13 @@
         <v>4273391000</v>
       </c>
       <c r="D245" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E245">
         <v>4273391</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7895,13 +7901,13 @@
         <v>4281232000</v>
       </c>
       <c r="D246" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E246">
         <v>4281232</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I246" t="s">
         <v>22</v>
@@ -7918,13 +7924,13 @@
         <v>4284492000</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E247">
         <v>4284492</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I247" t="s">
         <v>22</v>
@@ -7941,13 +7947,13 @@
         <v>4285717000</v>
       </c>
       <c r="D248" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E248">
         <v>4285717</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -7961,13 +7967,13 @@
         <v>4286201000</v>
       </c>
       <c r="D249" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E249">
         <v>4286201</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -7981,13 +7987,13 @@
         <v>4290976000</v>
       </c>
       <c r="D250" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E250">
         <v>4290976</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I250" t="s">
         <v>22</v>
@@ -8004,13 +8010,13 @@
         <v>4299535000</v>
       </c>
       <c r="D251" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E251">
         <v>4299535</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -8024,13 +8030,13 @@
         <v>4306655000</v>
       </c>
       <c r="D252" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E252">
         <v>4306655</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8044,13 +8050,13 @@
         <v>4311499000</v>
       </c>
       <c r="D253" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E253">
         <v>4311499</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H253" t="s">
         <v>24</v>
@@ -8067,13 +8073,13 @@
         <v>4318985000</v>
       </c>
       <c r="D254" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E254">
         <v>4318985</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I254" t="s">
         <v>22</v>
@@ -8090,16 +8096,16 @@
         <v>4322024000</v>
       </c>
       <c r="D255" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E255">
         <v>4322024</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H255" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -8113,13 +8119,13 @@
         <v>4344489000</v>
       </c>
       <c r="D256" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E256">
         <v>4344489</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I256" t="s">
         <v>22</v>
@@ -8136,13 +8142,13 @@
         <v>36712702000</v>
       </c>
       <c r="D257" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E257">
         <v>36712702</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -8156,13 +8162,13 @@
         <v>37311061000</v>
       </c>
       <c r="D258" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E258">
         <v>37311061</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -8176,13 +8182,13 @@
         <v>40479589000</v>
       </c>
       <c r="D259" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E259">
         <v>40479589</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I259" t="s">
         <v>22</v>
@@ -8199,13 +8205,13 @@
         <v>40481901000</v>
       </c>
       <c r="D260" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E260">
         <v>40481901</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I260" t="s">
         <v>22</v>
@@ -8222,16 +8228,16 @@
         <v>40481902000</v>
       </c>
       <c r="D261" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E261">
         <v>40481902</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H261" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8245,13 +8251,13 @@
         <v>40490918000</v>
       </c>
       <c r="D262" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E262">
         <v>40490918</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H262" t="s">
         <v>24</v>
@@ -8271,13 +8277,13 @@
         <v>42535714000</v>
       </c>
       <c r="D263" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E263">
         <v>42535714</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I263" t="s">
         <v>22</v>
@@ -8294,13 +8300,13 @@
         <v>43021132000</v>
       </c>
       <c r="D264" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E264">
         <v>43021132</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -8310,17 +8316,17 @@
       <c r="C265">
         <v>43021226000</v>
       </c>
-      <c r="D265">
-        <v>43021226000</v>
+      <c r="D265" t="s">
+        <v>561</v>
       </c>
       <c r="E265">
         <v>43021226</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H265" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8334,13 +8340,13 @@
         <v>43530714000</v>
       </c>
       <c r="D266" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E266">
         <v>43530714</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I266" t="s">
         <v>22</v>
@@ -8356,17 +8362,17 @@
       <c r="C267">
         <v>44784217000</v>
       </c>
-      <c r="D267" t="s">
-        <v>478</v>
+      <c r="D267" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="E267">
         <v>44784217</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H267" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -8380,13 +8386,13 @@
         <v>45763653000</v>
       </c>
       <c r="D268" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E268">
         <v>45763653</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H268" t="s">
         <v>24</v>
@@ -8403,13 +8409,13 @@
         <v>46271022000</v>
       </c>
       <c r="D269" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E269">
         <v>46271022</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I269" t="s">
         <v>22</v>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="565">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>Asthma</t>
-  </si>
-  <si>
-    <t>Overview: Chronic (long-term) condition that causes the airways in the lungs to become inflamed and narrow (mild-moderate-severe)Presentation: Symptoms vary from person to person and changes over time, SOB, chest tighness, wheezing when exhaling, coughing, asthma attacks brought on by a triggger (exercise, occupational irritants, allergies) Assessment: History and physical, spirometry, and peak flows Plan: Bronchodilator, inhaled corticosteroids, allergy medicines (prevention of asthma attacks) Prognosis: Cannot be cured, but its symptoms can be controlled. Sever asthma attacks can be life-threatening.</t>
   </si>
   <si>
     <t>Coronary arteriosclerosis</t>
@@ -1722,12 +1719,15 @@
   <si>
     <t>Overview: [Deprecate in favor of ischemic heart disease, 4185932000] Medical emergency, anoxic tissue injury to myocardium because of decreased blood suppy due to blockage of coronary blood vessels. Presentation: Tightness or pain in the chest, neck, back, or arms, shortness of breath, sweating, N/V as well as fatigue, lightheadedness, abnormal heartbeat, and anxiety. Assessment: Risk factors (HTN, high chol levels, diabetes, obesity, smoking, age, family hx), EKG, troponin (looking for heart damage), stress test, angiogram, and echocardiogramPlan: Immediate priority of thrombolysis and/or reperfusion of the myocardium. Blood thinner (aspirin), thrombolytics, antiplatelet, nitroglycerin, beta-blockers, ACE inhibitors. Cardiac stents or CABG Prognosis: Recovery from a heart attack depends on how much heart damage occurs and and how quickly emergency care is received. New events may occur in future. After recovery from the acute event, patient may develop chronic symptoms of myocardial injury including congestive heart failure.</t>
   </si>
+  <si>
+    <t>Overview: [Deprecate in favor of hypersensitity disorder, 43021226000] Chronic (long-term) condition that causes the airways in the lungs to become inflamed and narrow (mild-moderate-severe)Presentation: Symptoms vary from person to person and changes over time, SOB, chest tighness, wheezing when exhaling, coughing, asthma attacks brought on by a triggger (exercise, occupational irritants, allergies) Assessment: History and physical, spirometry, and peak flows Plan: Bronchodilator, inhaled corticosteroids, allergy medicines (prevention of asthma attacks) Prognosis: Cannot be cured, but its symptoms can be controlled. Sever asthma attacks can be life-threatening.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1867,6 +1867,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2216,7 +2222,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2224,6 +2230,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2549,7 +2556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,7 +2617,7 @@
         <v>24134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2653,7 +2660,7 @@
         <v>27918</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2676,7 +2683,7 @@
         <v>30753</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -2699,7 +2706,7 @@
         <v>31317</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -2722,7 +2729,7 @@
         <v>31967</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -2765,10 +2772,10 @@
         <v>73553</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2788,7 +2795,7 @@
         <v>75860</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -2834,7 +2841,7 @@
         <v>77074</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -2883,7 +2890,7 @@
         <v>80182</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2966,7 +2973,7 @@
         <v>81893</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -2989,7 +2996,7 @@
         <v>81902</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3072,7 +3079,7 @@
         <v>132797</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -3095,7 +3102,7 @@
         <v>133169</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -3201,7 +3208,7 @@
         <v>137977</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -3264,7 +3271,7 @@
         <v>138994</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3350,7 +3357,7 @@
         <v>140352</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -3453,7 +3460,7 @@
         <v>192359</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -3539,7 +3546,7 @@
         <v>194133</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3582,7 +3589,7 @@
         <v>194992</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3605,7 +3612,7 @@
         <v>196523</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3780,7 +3787,7 @@
         <v>200219</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3852,7 +3859,7 @@
         <v>201254</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3875,7 +3882,7 @@
         <v>201340</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3898,7 +3905,7 @@
         <v>201606</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3932,16 +3939,16 @@
         <v>201820000</v>
       </c>
       <c r="D63" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E63">
         <v>201820</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H63" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3961,7 +3968,7 @@
         <v>201826</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -4027,7 +4034,7 @@
         <v>254761</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -4133,7 +4140,7 @@
         <v>312327</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -4156,7 +4163,7 @@
         <v>312437</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -4199,7 +4206,7 @@
         <v>313217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -4222,7 +4229,7 @@
         <v>313223</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -4357,12 +4364,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>317009000</v>
       </c>
-      <c r="B83">
-        <v>317009000</v>
+      <c r="B83" s="5">
+        <v>43021226000</v>
       </c>
       <c r="C83">
         <v>317009000</v>
@@ -4374,7 +4381,10 @@
         <v>317009</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>146</v>
+        <v>564</v>
+      </c>
+      <c r="I83" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4388,13 +4398,13 @@
         <v>317576000</v>
       </c>
       <c r="D84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E84">
         <v>317576</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4411,13 +4421,13 @@
         <v>318443000</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E85">
         <v>318443</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H85" t="s">
         <v>24</v>
@@ -4434,13 +4444,13 @@
         <v>318736000</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E86">
         <v>318736</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4454,13 +4464,13 @@
         <v>318800000</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E87">
         <v>318800</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4474,13 +4484,13 @@
         <v>319041000</v>
       </c>
       <c r="D88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E88">
         <v>319041</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4494,16 +4504,16 @@
         <v>319049000</v>
       </c>
       <c r="D89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E89">
         <v>319049</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H89" t="s">
         <v>157</v>
-      </c>
-      <c r="H89" t="s">
-        <v>158</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -4520,13 +4530,13 @@
         <v>320749000</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E90">
         <v>320749</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -4543,13 +4553,13 @@
         <v>321042000</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E91">
         <v>321042</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H91" t="s">
         <v>24</v>
@@ -4569,16 +4579,16 @@
         <v>321052000</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E92">
         <v>321052</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H92" t="s">
         <v>163</v>
-      </c>
-      <c r="H92" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4592,13 +4602,13 @@
         <v>321318000</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E93">
         <v>321318</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -4615,13 +4625,13 @@
         <v>321319000</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E94">
         <v>321319</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4635,13 +4645,13 @@
         <v>321588000</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E95">
         <v>321588</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H95" t="s">
         <v>24</v>
@@ -4658,13 +4668,13 @@
         <v>372328000</v>
       </c>
       <c r="D96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E96">
         <v>372328</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4678,13 +4688,13 @@
         <v>373503000</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E97">
         <v>373503</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
@@ -4701,16 +4711,16 @@
         <v>374021000</v>
       </c>
       <c r="D98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E98">
         <v>374021</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H98" t="s">
         <v>174</v>
-      </c>
-      <c r="H98" t="s">
-        <v>175</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -4727,13 +4737,13 @@
         <v>374028000</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E99">
         <v>374028</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -4750,13 +4760,13 @@
         <v>374366000</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E100">
         <v>374366</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4770,13 +4780,13 @@
         <v>374377000</v>
       </c>
       <c r="D101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E101">
         <v>374377</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H101" t="s">
         <v>24</v>
@@ -4796,13 +4806,13 @@
         <v>374919000</v>
       </c>
       <c r="D102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E102">
         <v>374919</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -4819,13 +4829,13 @@
         <v>374954000</v>
       </c>
       <c r="D103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E103">
         <v>374954</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -4842,13 +4852,13 @@
         <v>375801000</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E104">
         <v>375801</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4862,13 +4872,13 @@
         <v>375806000</v>
       </c>
       <c r="D105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E105">
         <v>375806</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4882,13 +4892,13 @@
         <v>376713000</v>
       </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E106">
         <v>376713</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
@@ -4905,16 +4915,16 @@
         <v>377091000</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E107">
         <v>377091</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H107" t="s">
         <v>191</v>
-      </c>
-      <c r="H107" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4928,13 +4938,13 @@
         <v>378135000</v>
       </c>
       <c r="D108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E108">
         <v>378135</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="315" x14ac:dyDescent="0.25">
@@ -4948,16 +4958,16 @@
         <v>378143000</v>
       </c>
       <c r="D109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E109">
         <v>378143</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H109" t="s">
         <v>196</v>
-      </c>
-      <c r="H109" t="s">
-        <v>197</v>
       </c>
       <c r="I109" t="s">
         <v>22</v>
@@ -4974,13 +4984,13 @@
         <v>378253000</v>
       </c>
       <c r="D110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E110">
         <v>378253</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -4997,13 +5007,13 @@
         <v>378414000</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E111">
         <v>378414</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -5020,13 +5030,13 @@
         <v>378416000</v>
       </c>
       <c r="D112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E112">
         <v>378416</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5040,13 +5050,13 @@
         <v>378419000</v>
       </c>
       <c r="D113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E113">
         <v>378419</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5060,13 +5070,13 @@
         <v>380378000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E114">
         <v>380378</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -5083,13 +5093,13 @@
         <v>381009000</v>
       </c>
       <c r="D115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E115">
         <v>381009</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
@@ -5106,13 +5116,13 @@
         <v>381114000</v>
       </c>
       <c r="D116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E116">
         <v>381114</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5126,13 +5136,13 @@
         <v>381270000</v>
       </c>
       <c r="D117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E117">
         <v>381270</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5146,13 +5156,13 @@
         <v>381316000</v>
       </c>
       <c r="D118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E118">
         <v>381316</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I118" t="s">
         <v>22</v>
@@ -5169,16 +5179,16 @@
         <v>381591000</v>
       </c>
       <c r="D119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E119">
         <v>381591</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H119" t="s">
         <v>214</v>
-      </c>
-      <c r="H119" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5192,13 +5202,13 @@
         <v>432571000</v>
       </c>
       <c r="D120" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E120">
         <v>432571000</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5212,16 +5222,16 @@
         <v>432585000</v>
       </c>
       <c r="D121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E121">
         <v>432585</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H121" t="s">
         <v>217</v>
-      </c>
-      <c r="H121" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5235,13 +5245,13 @@
         <v>432595000</v>
       </c>
       <c r="D122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E122">
         <v>432595</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5255,13 +5265,13 @@
         <v>432791000</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E123">
         <v>432791</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I123" t="s">
         <v>22</v>
@@ -5278,13 +5288,13 @@
         <v>432867000</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E124">
         <v>432867</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5298,13 +5308,13 @@
         <v>432870000</v>
       </c>
       <c r="D125" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E125">
         <v>432870</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5318,13 +5328,13 @@
         <v>432881000</v>
       </c>
       <c r="D126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E126">
         <v>432881</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5338,13 +5348,13 @@
         <v>432893000</v>
       </c>
       <c r="D127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E127">
         <v>432893</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -5361,13 +5371,13 @@
         <v>433595000</v>
       </c>
       <c r="D128" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E128">
         <v>433595</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -5384,13 +5394,13 @@
         <v>433736000</v>
       </c>
       <c r="D129" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E129">
         <v>433736</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5404,13 +5414,13 @@
         <v>434119000</v>
       </c>
       <c r="D130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E130">
         <v>434119</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5424,13 +5434,13 @@
         <v>434557000</v>
       </c>
       <c r="D131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E131">
         <v>434557</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5444,13 +5454,13 @@
         <v>434584000</v>
       </c>
       <c r="D132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E132">
         <v>434584</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -5464,13 +5474,13 @@
         <v>434592000</v>
       </c>
       <c r="D133" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E133">
         <v>434592</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -5487,13 +5497,13 @@
         <v>434610000</v>
       </c>
       <c r="D134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E134">
         <v>434610</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5507,13 +5517,13 @@
         <v>434821000</v>
       </c>
       <c r="D135" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E135">
         <v>434821</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I135" t="s">
         <v>22</v>
@@ -5530,13 +5540,13 @@
         <v>435224000</v>
       </c>
       <c r="D136" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E136">
         <v>435224</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5550,13 +5560,13 @@
         <v>435783000</v>
       </c>
       <c r="D137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E137">
         <v>435783</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -5570,13 +5580,13 @@
         <v>435785000</v>
       </c>
       <c r="D138" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E138">
         <v>435785</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I138" t="s">
         <v>22</v>
@@ -5593,13 +5603,13 @@
         <v>436073000</v>
       </c>
       <c r="D139" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E139">
         <v>436073</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5613,16 +5623,16 @@
         <v>436081000</v>
       </c>
       <c r="D140" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E140">
         <v>436081</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H140" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5636,13 +5646,13 @@
         <v>436096000</v>
       </c>
       <c r="D141" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E141">
         <v>436096</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I141" t="s">
         <v>22</v>
@@ -5659,13 +5669,13 @@
         <v>436100000</v>
       </c>
       <c r="D142" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E142">
         <v>436100</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5679,13 +5689,13 @@
         <v>436235000</v>
       </c>
       <c r="D143" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E143">
         <v>4307095</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I143" t="s">
         <v>22</v>
@@ -5702,13 +5712,13 @@
         <v>436642000</v>
       </c>
       <c r="D144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E144">
         <v>436642</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I144" t="s">
         <v>22</v>
@@ -5725,13 +5735,13 @@
         <v>436665000</v>
       </c>
       <c r="D145" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E145">
         <v>436665</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5745,13 +5755,13 @@
         <v>436676000</v>
       </c>
       <c r="D146" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E146">
         <v>436676</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5765,13 +5775,13 @@
         <v>436962000</v>
       </c>
       <c r="D147" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E147">
         <v>436962</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I147" t="s">
         <v>22</v>
@@ -5788,13 +5798,13 @@
         <v>437082000</v>
       </c>
       <c r="D148" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E148">
         <v>437082</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I148" t="s">
         <v>22</v>
@@ -5811,13 +5821,13 @@
         <v>437222000</v>
       </c>
       <c r="D149" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E149">
         <v>437222</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5831,13 +5841,13 @@
         <v>437233000</v>
       </c>
       <c r="D150" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E150">
         <v>437233</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I150" t="s">
         <v>22</v>
@@ -5854,13 +5864,13 @@
         <v>437312000</v>
       </c>
       <c r="D151" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E151">
         <v>437312</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I151" t="s">
         <v>22</v>
@@ -5877,13 +5887,13 @@
         <v>437541000</v>
       </c>
       <c r="D152" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E152">
         <v>437541</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5897,16 +5907,16 @@
         <v>437663000</v>
       </c>
       <c r="D153" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E153">
         <v>437663</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H153" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I153" t="s">
         <v>22</v>
@@ -5923,13 +5933,13 @@
         <v>437833000</v>
       </c>
       <c r="D154" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E154">
         <v>437833</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5943,13 +5953,13 @@
         <v>438120000</v>
       </c>
       <c r="D155" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E155">
         <v>438120</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5963,13 +5973,13 @@
         <v>438130000</v>
       </c>
       <c r="D156" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E156">
         <v>438130</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5983,13 +5993,13 @@
         <v>438409000</v>
       </c>
       <c r="D157" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E157">
         <v>438409</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -6003,13 +6013,13 @@
         <v>439393000</v>
       </c>
       <c r="D158" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E158">
         <v>439393</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6023,13 +6033,13 @@
         <v>439727000</v>
       </c>
       <c r="D159" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E159">
         <v>439727</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6043,13 +6053,13 @@
         <v>439776000</v>
       </c>
       <c r="D160" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E160">
         <v>439776</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6063,16 +6073,16 @@
         <v>439777000</v>
       </c>
       <c r="D161" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E161">
         <v>439777</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H161" t="s">
         <v>290</v>
-      </c>
-      <c r="H161" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6086,13 +6096,13 @@
         <v>439842000</v>
       </c>
       <c r="D162" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E162">
         <v>439842</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6106,13 +6116,13 @@
         <v>440377000</v>
       </c>
       <c r="D163" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E163">
         <v>440377</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H163" t="s">
         <v>24</v>
@@ -6132,13 +6142,13 @@
         <v>440383000</v>
       </c>
       <c r="D164" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E164">
         <v>440383</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -6152,13 +6162,13 @@
         <v>440417000</v>
       </c>
       <c r="D165" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E165">
         <v>440417</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6172,13 +6182,13 @@
         <v>440674000</v>
       </c>
       <c r="D166" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E166">
         <v>440674</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6192,13 +6202,13 @@
         <v>440703000</v>
       </c>
       <c r="D167" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E167">
         <v>440703</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6212,13 +6222,13 @@
         <v>440740000</v>
       </c>
       <c r="D168" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E168">
         <v>440740</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I168" t="s">
         <v>22</v>
@@ -6235,13 +6245,13 @@
         <v>440925000</v>
       </c>
       <c r="D169" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E169">
         <v>440925</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6255,13 +6265,13 @@
         <v>440940000</v>
       </c>
       <c r="D170" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E170">
         <v>440940</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6275,13 +6285,13 @@
         <v>441202000</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E171">
         <v>441202</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I171" t="s">
         <v>22</v>
@@ -6298,13 +6308,13 @@
         <v>441284000</v>
       </c>
       <c r="D172" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E172">
         <v>441284</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6318,13 +6328,13 @@
         <v>441408000</v>
       </c>
       <c r="D173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E173">
         <v>441408</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I173" t="s">
         <v>22</v>
@@ -6341,13 +6351,13 @@
         <v>441542000</v>
       </c>
       <c r="D174" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E174">
         <v>441542</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I174" t="s">
         <v>22</v>
@@ -6364,13 +6374,13 @@
         <v>441788000</v>
       </c>
       <c r="D175" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E175">
         <v>441788</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6384,13 +6394,13 @@
         <v>441848000</v>
       </c>
       <c r="D176" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E176">
         <v>441848</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I176" t="s">
         <v>22</v>
@@ -6407,13 +6417,13 @@
         <v>442752000</v>
       </c>
       <c r="D177" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E177">
         <v>442752</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I177" t="s">
         <v>22</v>
@@ -6430,13 +6440,13 @@
         <v>443213000</v>
       </c>
       <c r="D178" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E178">
         <v>443213</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6450,13 +6460,13 @@
         <v>443387000</v>
       </c>
       <c r="D179" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E179">
         <v>443387</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6470,13 +6480,13 @@
         <v>443392000</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E180">
         <v>443392</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6490,13 +6500,13 @@
         <v>443454000</v>
       </c>
       <c r="D181" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E181">
         <v>443454</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I181" t="s">
         <v>22</v>
@@ -6513,13 +6523,13 @@
         <v>443700000</v>
       </c>
       <c r="D182" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E182">
         <v>443700</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6533,13 +6543,13 @@
         <v>443727000</v>
       </c>
       <c r="D183" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E183">
         <v>443727</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I183" t="s">
         <v>22</v>
@@ -6556,13 +6566,13 @@
         <v>444044000</v>
       </c>
       <c r="D184" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E184">
         <v>444044</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I184" t="s">
         <v>22</v>
@@ -6579,13 +6589,13 @@
         <v>444070000</v>
       </c>
       <c r="D185" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E185">
         <v>444070</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I185" t="s">
         <v>22</v>
@@ -6602,13 +6612,13 @@
         <v>444247000</v>
       </c>
       <c r="D186" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E186">
         <v>444247</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6622,13 +6632,13 @@
         <v>444429000</v>
       </c>
       <c r="D187" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E187">
         <v>444429</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6642,16 +6652,16 @@
         <v>4000634000</v>
       </c>
       <c r="D188" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E188">
         <v>4000634</v>
       </c>
       <c r="F188" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H188" t="s">
         <v>338</v>
-      </c>
-      <c r="H188" t="s">
-        <v>339</v>
       </c>
       <c r="I188" t="s">
         <v>22</v>
@@ -6668,13 +6678,13 @@
         <v>4002359000</v>
       </c>
       <c r="D189" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E189">
         <v>4002359</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I189" t="s">
         <v>22</v>
@@ -6691,13 +6701,13 @@
         <v>4013643000</v>
       </c>
       <c r="D190" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E190">
         <v>4013643</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6711,16 +6721,16 @@
         <v>4024659000</v>
       </c>
       <c r="D191" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E191">
         <v>4024659</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H191" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6734,13 +6744,13 @@
         <v>4027537000</v>
       </c>
       <c r="D192" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E192">
         <v>4027537</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6754,13 +6764,13 @@
         <v>4028363000</v>
       </c>
       <c r="D193" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E193">
         <v>4028363</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="375" x14ac:dyDescent="0.25">
@@ -6774,13 +6784,13 @@
         <v>4030518000</v>
       </c>
       <c r="D194" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E194">
         <v>4030518</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6794,13 +6804,13 @@
         <v>4038838000</v>
       </c>
       <c r="D195" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E195">
         <v>4038838</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I195" t="s">
         <v>22</v>
@@ -6814,16 +6824,16 @@
         <v>4043371000</v>
       </c>
       <c r="D196" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E196">
         <v>4043371</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H196" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6837,13 +6847,13 @@
         <v>4046338000</v>
       </c>
       <c r="D197" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E197">
         <v>4046338</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -6857,13 +6867,13 @@
         <v>4058821000</v>
       </c>
       <c r="D198" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E198">
         <v>4058821</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I198" t="s">
         <v>22</v>
@@ -6880,13 +6890,13 @@
         <v>4063434000</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E199">
         <v>4063434</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -6903,13 +6913,13 @@
         <v>4064161000</v>
       </c>
       <c r="D200" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E200">
         <v>4064161</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I200" t="s">
         <v>22</v>
@@ -6926,13 +6936,13 @@
         <v>4067106000</v>
       </c>
       <c r="D201" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E201">
         <v>4067106</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6946,16 +6956,16 @@
         <v>4070552000</v>
       </c>
       <c r="D202" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E202">
         <v>4070552</v>
       </c>
       <c r="F202" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H202" t="s">
         <v>363</v>
-      </c>
-      <c r="H202" t="s">
-        <v>364</v>
       </c>
       <c r="I202" t="s">
         <v>22</v>
@@ -6972,13 +6982,13 @@
         <v>4074815000</v>
       </c>
       <c r="D203" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E203">
         <v>4074815</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I203" t="s">
         <v>22</v>
@@ -6995,13 +7005,13 @@
         <v>4079843000</v>
       </c>
       <c r="D204" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E204">
         <v>4079843</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I204" t="s">
         <v>22</v>
@@ -7018,13 +7028,13 @@
         <v>4091559000</v>
       </c>
       <c r="D205" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E205">
         <v>4091559</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I205" t="s">
         <v>22</v>
@@ -7041,13 +7051,13 @@
         <v>4092289000</v>
       </c>
       <c r="D206" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E206">
         <v>4092289</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -7061,13 +7071,13 @@
         <v>4094294000</v>
       </c>
       <c r="D207" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E207">
         <v>4094294</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7081,13 +7091,13 @@
         <v>4098292000</v>
       </c>
       <c r="D208" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E208">
         <v>4098292</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7101,13 +7111,13 @@
         <v>4098597000</v>
       </c>
       <c r="D209" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E209">
         <v>4098597</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I209" t="s">
         <v>22</v>
@@ -7124,13 +7134,13 @@
         <v>4101602000</v>
       </c>
       <c r="D210" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E210">
         <v>4101602</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I210" t="s">
         <v>22</v>
@@ -7147,13 +7157,13 @@
         <v>4103295000</v>
       </c>
       <c r="D211" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E211">
         <v>4103295</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I211" t="s">
         <v>22</v>
@@ -7170,13 +7180,13 @@
         <v>4112853000</v>
       </c>
       <c r="D212" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E212">
         <v>4112853</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7190,13 +7200,13 @@
         <v>4124836000</v>
       </c>
       <c r="D213" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E213">
         <v>4124836</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I213" t="s">
         <v>22</v>
@@ -7213,13 +7223,13 @@
         <v>4131909000</v>
       </c>
       <c r="D214" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E214">
         <v>4131909</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -7233,13 +7243,13 @@
         <v>4133004000</v>
       </c>
       <c r="D215" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E215">
         <v>4133004</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -7253,13 +7263,13 @@
         <v>4137275000</v>
       </c>
       <c r="D216" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E216">
         <v>4137275</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="195" x14ac:dyDescent="0.25">
@@ -7273,16 +7283,16 @@
         <v>4138837000</v>
       </c>
       <c r="D217" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E217">
         <v>4138837</v>
       </c>
       <c r="F217" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H217" t="s">
         <v>389</v>
-      </c>
-      <c r="H217" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -7296,13 +7306,13 @@
         <v>4139034000</v>
       </c>
       <c r="D218" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E218">
         <v>4139034</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H218" t="s">
         <v>24</v>
@@ -7319,13 +7329,13 @@
         <v>4147411000</v>
       </c>
       <c r="D219" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E219">
         <v>4147411</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I219" t="s">
         <v>22</v>
@@ -7342,13 +7352,13 @@
         <v>4163261000</v>
       </c>
       <c r="D220" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E220">
         <v>4163261</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -7362,13 +7372,13 @@
         <v>4164770000</v>
       </c>
       <c r="D221" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E221">
         <v>4164770</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -7382,13 +7392,13 @@
         <v>4169095000</v>
       </c>
       <c r="D222" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E222">
         <v>4169095</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I222" t="s">
         <v>22</v>
@@ -7405,13 +7415,13 @@
         <v>4174977000</v>
       </c>
       <c r="D223" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E223">
         <v>4174977</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I223" t="s">
         <v>22</v>
@@ -7425,13 +7435,13 @@
         <v>4175485000</v>
       </c>
       <c r="D224" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E224">
         <v>4175485</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7445,13 +7455,13 @@
         <v>4180790000</v>
       </c>
       <c r="D225" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E225">
         <v>4180790</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7465,13 +7475,13 @@
         <v>4181343000</v>
       </c>
       <c r="D226" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E226">
         <v>4181343</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7485,13 +7495,13 @@
         <v>4181351000</v>
       </c>
       <c r="D227" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E227">
         <v>4181351</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -7505,13 +7515,13 @@
         <v>4182210000</v>
       </c>
       <c r="D228" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E228">
         <v>4182210</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -7525,16 +7535,16 @@
         <v>4182711000</v>
       </c>
       <c r="D229" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E229">
         <v>4182711</v>
       </c>
       <c r="F229" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H229" t="s">
         <v>409</v>
-      </c>
-      <c r="H229" t="s">
-        <v>410</v>
       </c>
       <c r="I229" t="s">
         <v>22</v>
@@ -7551,13 +7561,13 @@
         <v>4185711000</v>
       </c>
       <c r="D230" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E230">
         <v>4185711</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I230" t="s">
         <v>22</v>
@@ -7574,13 +7584,13 @@
         <v>4185932000</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E231">
         <v>4185932</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7594,13 +7604,13 @@
         <v>4190307000</v>
       </c>
       <c r="D232" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E232">
         <v>4190307</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -7614,16 +7624,16 @@
         <v>4195694000</v>
       </c>
       <c r="D233" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E233">
         <v>4195694</v>
       </c>
       <c r="F233" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H233" t="s">
         <v>414</v>
-      </c>
-      <c r="H233" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -7637,13 +7647,13 @@
         <v>4201096000</v>
       </c>
       <c r="D234" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E234">
         <v>4201096</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I234" t="s">
         <v>22</v>
@@ -7660,13 +7670,13 @@
         <v>4212540000</v>
       </c>
       <c r="D235" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E235">
         <v>4212540</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -7680,13 +7690,13 @@
         <v>4223659000</v>
       </c>
       <c r="D236" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E236">
         <v>4223659</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I236" t="s">
         <v>22</v>
@@ -7703,13 +7713,13 @@
         <v>4236484000</v>
       </c>
       <c r="D237" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E237">
         <v>4236484</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -7723,13 +7733,13 @@
         <v>4245975000</v>
       </c>
       <c r="D238" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E238">
         <v>4245975</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7743,13 +7753,13 @@
         <v>4246127000</v>
       </c>
       <c r="D239" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E239">
         <v>4246127</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H239" t="s">
         <v>24</v>
@@ -7766,13 +7776,13 @@
         <v>4253901000</v>
       </c>
       <c r="D240" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E240">
         <v>4253901</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I240" t="s">
         <v>22</v>
@@ -7789,16 +7799,16 @@
         <v>4256228000</v>
       </c>
       <c r="D241" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E241">
         <v>4256228</v>
       </c>
       <c r="F241" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H241" t="s">
         <v>430</v>
-      </c>
-      <c r="H241" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -7812,16 +7822,16 @@
         <v>4260535000</v>
       </c>
       <c r="D242" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E242">
         <v>4260535</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H242" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I242" t="s">
         <v>22</v>
@@ -7838,13 +7848,13 @@
         <v>4266367000</v>
       </c>
       <c r="D243" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E243">
         <v>4266367</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7858,13 +7868,13 @@
         <v>4272240000</v>
       </c>
       <c r="D244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E244">
         <v>4272240</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I244" t="s">
         <v>22</v>
@@ -7881,13 +7891,13 @@
         <v>4273391000</v>
       </c>
       <c r="D245" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E245">
         <v>4273391</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7901,13 +7911,13 @@
         <v>4281232000</v>
       </c>
       <c r="D246" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E246">
         <v>4281232</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I246" t="s">
         <v>22</v>
@@ -7924,13 +7934,13 @@
         <v>4284492000</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E247">
         <v>4284492</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I247" t="s">
         <v>22</v>
@@ -7947,13 +7957,13 @@
         <v>4285717000</v>
       </c>
       <c r="D248" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E248">
         <v>4285717</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -7967,13 +7977,13 @@
         <v>4286201000</v>
       </c>
       <c r="D249" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E249">
         <v>4286201</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -7987,13 +7997,13 @@
         <v>4290976000</v>
       </c>
       <c r="D250" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E250">
         <v>4290976</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I250" t="s">
         <v>22</v>
@@ -8010,13 +8020,13 @@
         <v>4299535000</v>
       </c>
       <c r="D251" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E251">
         <v>4299535</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -8030,13 +8040,13 @@
         <v>4306655000</v>
       </c>
       <c r="D252" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E252">
         <v>4306655</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8050,13 +8060,13 @@
         <v>4311499000</v>
       </c>
       <c r="D253" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E253">
         <v>4311499</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H253" t="s">
         <v>24</v>
@@ -8073,13 +8083,13 @@
         <v>4318985000</v>
       </c>
       <c r="D254" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E254">
         <v>4318985</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I254" t="s">
         <v>22</v>
@@ -8096,16 +8106,16 @@
         <v>4322024000</v>
       </c>
       <c r="D255" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E255">
         <v>4322024</v>
       </c>
       <c r="F255" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H255" t="s">
         <v>456</v>
-      </c>
-      <c r="H255" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -8119,13 +8129,13 @@
         <v>4344489000</v>
       </c>
       <c r="D256" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E256">
         <v>4344489</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I256" t="s">
         <v>22</v>
@@ -8142,13 +8152,13 @@
         <v>36712702000</v>
       </c>
       <c r="D257" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E257">
         <v>36712702</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -8162,13 +8172,13 @@
         <v>37311061000</v>
       </c>
       <c r="D258" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E258">
         <v>37311061</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -8182,13 +8192,13 @@
         <v>40479589000</v>
       </c>
       <c r="D259" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E259">
         <v>40479589</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I259" t="s">
         <v>22</v>
@@ -8205,13 +8215,13 @@
         <v>40481901000</v>
       </c>
       <c r="D260" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E260">
         <v>40481901</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I260" t="s">
         <v>22</v>
@@ -8228,16 +8238,16 @@
         <v>40481902000</v>
       </c>
       <c r="D261" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E261">
         <v>40481902</v>
       </c>
       <c r="F261" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H261" t="s">
         <v>467</v>
-      </c>
-      <c r="H261" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8251,13 +8261,13 @@
         <v>40490918000</v>
       </c>
       <c r="D262" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E262">
         <v>40490918</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H262" t="s">
         <v>24</v>
@@ -8277,13 +8287,13 @@
         <v>42535714000</v>
       </c>
       <c r="D263" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E263">
         <v>42535714</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I263" t="s">
         <v>22</v>
@@ -8300,13 +8310,13 @@
         <v>43021132000</v>
       </c>
       <c r="D264" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E264">
         <v>43021132</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -8317,16 +8327,16 @@
         <v>43021226000</v>
       </c>
       <c r="D265" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E265">
         <v>43021226</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H265" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8340,13 +8350,13 @@
         <v>43530714000</v>
       </c>
       <c r="D266" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E266">
         <v>43530714</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I266" t="s">
         <v>22</v>
@@ -8363,16 +8373,16 @@
         <v>44784217000</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E267">
         <v>44784217</v>
       </c>
       <c r="F267" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H267" t="s">
         <v>476</v>
-      </c>
-      <c r="H267" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -8386,13 +8396,13 @@
         <v>45763653000</v>
       </c>
       <c r="D268" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E268">
         <v>45763653</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H268" t="s">
         <v>24</v>
@@ -8409,13 +8419,13 @@
         <v>46271022000</v>
       </c>
       <c r="D269" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E269">
         <v>46271022</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I269" t="s">
         <v>22</v>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -15,14 +15,14 @@
     <sheet name="PhenotypeDescription" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$270</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="564">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Sleep apnea</t>
   </si>
   <si>
-    <t>Overview: A potentially serious sleep disorder in which breathing repeatedly stops and starts. Involuntary cessation of breathing that occurs while asleep. Presentation: snoring loudly and feeling tired even after a full night's sleep, dry mouth, insomnia, irritabilityAssessment: sleep history, overnight monitoring at a sleep center (Nocturnal polysomnography)Plan: lifestyle changes, Continuous positive airway pressure (CPAP), oral appliances (keeping the throat open), surgeryPrognosis: Can be diagnosed and treated.</t>
-  </si>
-  <si>
     <t>Thrombotic microangiopathy</t>
   </si>
   <si>
@@ -696,9 +693,6 @@
     <t>Thrombocytopenic disorder</t>
   </si>
   <si>
-    <t>Overview: low platelet count = Thrombocytopenia. Fewer than 150,000 platelets per microliter. Platelets stop bleeding by clumping and forming plugs in blood vessel injuries. Presentation: Thrombocytopenia is associated with varying  risks of bleeding, thrombosis, and other potential complications - but are most often asymptomatic. Risks are dependent on absolute platelet count and underlying disease that lead to thrombocytopenia. Excessive bruising (purpura), prolonged bleeding from cuts, gum or nose bleeding, blood in urine or stools. Assessment: There is no 'safe' platelet count and range of normal is broad. CBC, including platelets, physical exam for spleen enlargement. Plan: Depends on cause and severity. Blood or platelet transfusions, corticosteroids, surgery (remove spleen, splenectomy). Prognosis: Treated early and effectively - leads to better outcomes.</t>
-  </si>
-  <si>
     <t>Pancytopenia</t>
   </si>
   <si>
@@ -880,9 +874,6 @@
   </si>
   <si>
     <t>Overview: HIV infections may be caused by one of two retroviruses, HIV-1 or HIV-2. HIV causes AIDS and interferes with the body's ability to fight infections. The virus can be transmitted through contact with infected blood, semen, or vaginal fluids. Presentation: Flu-like symptoms such as fever, sore throat, and fatigue, swollen lymph nodes. Then the disease is usually asymptomatic until it progresses to AIDS. AIDS symptoms include weight loss, fever or night sweats, fatigue, and recurrent infections. Assessment: Signs and symptoms, history. CD4 count, viral count. AIDS is diagnosed when the CD4 count falls below 200 cells per microliter of blood or when extreme wasting or certain serious opportunistic infections or cancers develop. Plan: Prevention and screening. Antiretroviral drugs, prevent opportunistic infections, relieve symptoms Prognosis: Exposure to HIV does not always lead to infection, and some people who have had repeated exposures over many years remain uninfected. No effective HIV vaccine to prevent HIV infection or slow the progression of AIDS in people who are already infected. No cure exists for AIDS, but strict adherence to anti-retroviral therapy (ART) can dramatically slow the disease's progress, prevent secondary infections and complications, and prolong life.</t>
-  </si>
-  <si>
-    <t>Autism spectrum disorder</t>
   </si>
   <si>
     <t>Overview: (ASD) is a complex developmental condition that involves persistent challenges in social interaction, speech and nonverbal communication, and restricted/repetitive behaviors. ASD includes conditions that were previously considered separate — autism, Asperger's syndrome, childhood disintegrative disorder and pervasive developmental disorder. Neurological and developmental disorder beginning early in childhood. Presentation: developmental delays, obsessive traits, body rocking, flapping of hands, unusual reactions, social issues,no eye contact Assessment: symptoms and severity vary, there are many causes. Dx is difficult - no diagnositic tests, observation of social interaction, communication, and behaviors. Criteria in the Diagnostic and Statistical Manual of Mental Disorders Plan: Maximize the child's ability to function by reducing symptoms and supporting development and learning. Behavior programs, antipsychotics, SRIs, stimulants/hyperactivity drugsPrognosis: No cure for ASD, intensive, early treatment can make a big difference in the lives of many children - lasts throughout a person's life.</t>
@@ -1066,9 +1057,6 @@
     <t>Neuromuscular junction disorder</t>
   </si>
   <si>
-    <t>Overview: [TO DO]</t>
-  </si>
-  <si>
     <t>Uveitis</t>
   </si>
   <si>
@@ -1721,13 +1709,22 @@
   </si>
   <si>
     <t>Overview: [Deprecate in favor of hypersensitity disorder, 43021226000] Chronic (long-term) condition that causes the airways in the lungs to become inflamed and narrow (mild-moderate-severe)Presentation: Symptoms vary from person to person and changes over time, SOB, chest tighness, wheezing when exhaling, coughing, asthma attacks brought on by a triggger (exercise, occupational irritants, allergies) Assessment: History and physical, spirometry, and peak flows Plan: Bronchodilator, inhaled corticosteroids, allergy medicines (prevention of asthma attacks) Prognosis: Cannot be cured, but its symptoms can be controlled. Sever asthma attacks can be life-threatening.</t>
+  </si>
+  <si>
+    <t>Overview: A potentially serious sleep disorder in which breathing repeatedly stops and starts. Involuntary cessation of breathing that occurs while asleep. Presentation: snoring loudly and feeling tired even after a full night's sleep, dry mouth, insomnia, irritability. Assessment: sleep history, overnight monitoring at a sleep center (Nocturnal polysomnography)Plan: lifestyle changes, Continuous positive airway pressure (CPAP), oral appliances (keeping the throat open), surgery. Prognosis: Can be diagnosed and treated.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecate in favor of Disorder of cellular component 443723000] low platelet count = Thrombocytopenia. Fewer than 150,000 platelets per microliter. Platelets stop bleeding by clumping and forming plugs in blood vessel injuries. Presentation: Thrombocytopenia is associated with varying  risks of bleeding, thrombosis, and other potential complications - but are most often asymptomatic. Risks are dependent on absolute platelet count and underlying disease that lead to thrombocytopenia. Excessive bruising (purpura), prolonged bleeding from cuts, gum or nose bleeding, blood in urine or stools. Assessment: There is no 'safe' platelet count and range of normal is broad. CBC, including platelets, physical exam for spleen enlargement. Plan: Depends on cause and severity. Blood or platelet transfusions, corticosteroids, surgery (remove spleen, splenectomy). Prognosis: Treated early and effectively - leads to better outcomes.</t>
+  </si>
+  <si>
+    <t>Disorder of cellular component of blood (anemia, pancytopenia, leukopenia, thrombocytopenia)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,6 +1870,12 @@
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2222,7 +2225,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2231,6 +2234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2552,11 +2556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I269"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,7 +2621,7 @@
         <v>24134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2660,7 +2664,7 @@
         <v>27918</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2683,7 +2687,7 @@
         <v>30753</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -2706,7 +2710,7 @@
         <v>31317</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -2729,7 +2733,7 @@
         <v>31967</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -2772,10 +2776,10 @@
         <v>73553</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2795,7 +2799,7 @@
         <v>75860</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -2841,7 +2845,7 @@
         <v>77074</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -2890,7 +2894,7 @@
         <v>80182</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2973,7 +2977,7 @@
         <v>81893</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -2996,7 +3000,7 @@
         <v>81902</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3079,7 +3083,7 @@
         <v>132797</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -3102,7 +3106,7 @@
         <v>133169</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -3208,7 +3212,7 @@
         <v>137977</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -3271,7 +3275,7 @@
         <v>138994</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3357,7 +3361,7 @@
         <v>140352</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -3460,7 +3464,7 @@
         <v>192359</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -3546,7 +3550,7 @@
         <v>194133</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3589,7 +3593,7 @@
         <v>194992</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3612,7 +3616,7 @@
         <v>196523</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3787,7 +3791,7 @@
         <v>200219</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3859,7 +3863,7 @@
         <v>201254</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3882,7 +3886,7 @@
         <v>201340</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3905,7 +3909,7 @@
         <v>201606</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3939,16 +3943,16 @@
         <v>201820000</v>
       </c>
       <c r="D63" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E63">
         <v>201820</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H63" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3968,7 +3972,7 @@
         <v>201826</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -4034,7 +4038,7 @@
         <v>254761</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -4140,7 +4144,7 @@
         <v>312327</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -4163,7 +4167,7 @@
         <v>312437</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -4206,7 +4210,7 @@
         <v>313217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -4229,7 +4233,7 @@
         <v>313223</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -4252,7 +4256,7 @@
         <v>313459</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>132</v>
+        <v>561</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -4266,13 +4270,13 @@
         <v>313800000</v>
       </c>
       <c r="D78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E78">
         <v>313800</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4286,13 +4290,13 @@
         <v>314381000</v>
       </c>
       <c r="D79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E79">
         <v>314381</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -4309,13 +4313,13 @@
         <v>314383000</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80">
         <v>314383</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -4329,16 +4333,16 @@
         <v>316139000</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E81">
         <v>316139</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" t="s">
         <v>140</v>
-      </c>
-      <c r="H81" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4352,16 +4356,16 @@
         <v>316866000</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E82">
         <v>316866</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H82" t="s">
         <v>143</v>
-      </c>
-      <c r="H82" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4375,13 +4379,13 @@
         <v>317009000</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E83">
         <v>317009</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -4398,13 +4402,13 @@
         <v>317576000</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E84">
         <v>317576</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4421,13 +4425,13 @@
         <v>318443000</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E85">
         <v>318443</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H85" t="s">
         <v>24</v>
@@ -4444,13 +4448,13 @@
         <v>318736000</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E86">
         <v>318736</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4464,13 +4468,13 @@
         <v>318800000</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E87">
         <v>318800</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4484,13 +4488,13 @@
         <v>319041000</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E88">
         <v>319041</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4504,16 +4508,16 @@
         <v>319049000</v>
       </c>
       <c r="D89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E89">
         <v>319049</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H89" t="s">
         <v>156</v>
-      </c>
-      <c r="H89" t="s">
-        <v>157</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -4530,13 +4534,13 @@
         <v>320749000</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E90">
         <v>320749</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -4553,13 +4557,13 @@
         <v>321042000</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E91">
         <v>321042</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H91" t="s">
         <v>24</v>
@@ -4579,16 +4583,16 @@
         <v>321052000</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E92">
         <v>321052</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H92" t="s">
         <v>162</v>
-      </c>
-      <c r="H92" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4602,13 +4606,13 @@
         <v>321318000</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E93">
         <v>321318</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -4625,13 +4629,13 @@
         <v>321319000</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E94">
         <v>321319</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4645,13 +4649,13 @@
         <v>321588000</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E95">
         <v>321588</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H95" t="s">
         <v>24</v>
@@ -4668,13 +4672,13 @@
         <v>372328000</v>
       </c>
       <c r="D96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E96">
         <v>372328</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4688,13 +4692,13 @@
         <v>373503000</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E97">
         <v>373503</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
@@ -4711,16 +4715,16 @@
         <v>374021000</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E98">
         <v>374021</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H98" t="s">
         <v>173</v>
-      </c>
-      <c r="H98" t="s">
-        <v>174</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -4737,13 +4741,13 @@
         <v>374028000</v>
       </c>
       <c r="D99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E99">
         <v>374028</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -4760,13 +4764,13 @@
         <v>374366000</v>
       </c>
       <c r="D100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E100">
         <v>374366</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4780,13 +4784,13 @@
         <v>374377000</v>
       </c>
       <c r="D101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E101">
         <v>374377</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H101" t="s">
         <v>24</v>
@@ -4806,13 +4810,13 @@
         <v>374919000</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E102">
         <v>374919</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -4829,13 +4833,13 @@
         <v>374954000</v>
       </c>
       <c r="D103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E103">
         <v>374954</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -4852,13 +4856,13 @@
         <v>375801000</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E104">
         <v>375801</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4872,13 +4876,13 @@
         <v>375806000</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E105">
         <v>375806</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4892,13 +4896,13 @@
         <v>376713000</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E106">
         <v>376713</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
@@ -4915,16 +4919,16 @@
         <v>377091000</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E107">
         <v>377091</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H107" t="s">
         <v>190</v>
-      </c>
-      <c r="H107" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4938,13 +4942,13 @@
         <v>378135000</v>
       </c>
       <c r="D108" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E108">
         <v>378135</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="315" x14ac:dyDescent="0.25">
@@ -4958,16 +4962,16 @@
         <v>378143000</v>
       </c>
       <c r="D109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E109">
         <v>378143</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H109" t="s">
         <v>195</v>
-      </c>
-      <c r="H109" t="s">
-        <v>196</v>
       </c>
       <c r="I109" t="s">
         <v>22</v>
@@ -4984,13 +4988,13 @@
         <v>378253000</v>
       </c>
       <c r="D110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E110">
         <v>378253</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -5007,13 +5011,13 @@
         <v>378414000</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E111">
         <v>378414</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -5030,13 +5034,13 @@
         <v>378416000</v>
       </c>
       <c r="D112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E112">
         <v>378416</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5050,13 +5054,13 @@
         <v>378419000</v>
       </c>
       <c r="D113" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E113">
         <v>378419</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5070,13 +5074,13 @@
         <v>380378000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E114">
         <v>380378</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -5093,13 +5097,13 @@
         <v>381009000</v>
       </c>
       <c r="D115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E115">
         <v>381009</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
@@ -5116,13 +5120,13 @@
         <v>381114000</v>
       </c>
       <c r="D116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E116">
         <v>381114</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5136,13 +5140,13 @@
         <v>381270000</v>
       </c>
       <c r="D117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E117">
         <v>381270</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5156,13 +5160,13 @@
         <v>381316000</v>
       </c>
       <c r="D118" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E118">
         <v>381316</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I118" t="s">
         <v>22</v>
@@ -5179,16 +5183,16 @@
         <v>381591000</v>
       </c>
       <c r="D119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E119">
         <v>381591</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H119" t="s">
         <v>213</v>
-      </c>
-      <c r="H119" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5202,13 +5206,13 @@
         <v>432571000</v>
       </c>
       <c r="D120" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E120">
         <v>432571000</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5222,16 +5226,16 @@
         <v>432585000</v>
       </c>
       <c r="D121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E121">
         <v>432585</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H121" t="s">
         <v>216</v>
-      </c>
-      <c r="H121" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5245,13 +5249,13 @@
         <v>432595000</v>
       </c>
       <c r="D122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E122">
         <v>432595</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5265,13 +5269,13 @@
         <v>432791000</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E123">
         <v>432791</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I123" t="s">
         <v>22</v>
@@ -5288,53 +5292,59 @@
         <v>432867000</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E124">
         <v>432867</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>432870000</v>
       </c>
-      <c r="B125">
-        <v>432870000</v>
+      <c r="B125" s="6">
+        <v>443723000</v>
       </c>
       <c r="C125">
         <v>432870000</v>
       </c>
-      <c r="D125" t="s">
-        <v>223</v>
+      <c r="D125" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="E125">
         <v>432870</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>224</v>
+        <v>562</v>
+      </c>
+      <c r="I125" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>432881000</v>
       </c>
-      <c r="B126">
-        <v>432881000</v>
+      <c r="B126" s="6">
+        <v>443723000</v>
       </c>
       <c r="C126">
         <v>432881000</v>
       </c>
-      <c r="D126" t="s">
-        <v>225</v>
+      <c r="D126" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="E126">
         <v>432881</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="I126" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5348,13 +5358,13 @@
         <v>432893000</v>
       </c>
       <c r="D127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E127">
         <v>432893</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -5371,13 +5381,13 @@
         <v>433595000</v>
       </c>
       <c r="D128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E128">
         <v>433595</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -5394,13 +5404,13 @@
         <v>433736000</v>
       </c>
       <c r="D129" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E129">
         <v>433736</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5414,13 +5424,13 @@
         <v>434119000</v>
       </c>
       <c r="D130" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E130">
         <v>434119</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5434,13 +5444,13 @@
         <v>434557000</v>
       </c>
       <c r="D131" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E131">
         <v>434557</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5454,13 +5464,13 @@
         <v>434584000</v>
       </c>
       <c r="D132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E132">
         <v>434584</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -5474,13 +5484,13 @@
         <v>434592000</v>
       </c>
       <c r="D133" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E133">
         <v>434592</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -5497,13 +5507,13 @@
         <v>434610000</v>
       </c>
       <c r="D134" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E134">
         <v>434610</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5517,13 +5527,13 @@
         <v>434821000</v>
       </c>
       <c r="D135" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E135">
         <v>434821</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I135" t="s">
         <v>22</v>
@@ -5533,20 +5543,23 @@
       <c r="A136">
         <v>435224000</v>
       </c>
-      <c r="B136">
-        <v>435224000</v>
+      <c r="B136" s="6">
+        <v>443723000</v>
       </c>
       <c r="C136">
         <v>435224000</v>
       </c>
-      <c r="D136" t="s">
-        <v>243</v>
+      <c r="D136" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="E136">
         <v>435224</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="I136" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5560,13 +5573,13 @@
         <v>435783000</v>
       </c>
       <c r="D137" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E137">
         <v>435783</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -5580,13 +5593,13 @@
         <v>435785000</v>
       </c>
       <c r="D138" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E138">
         <v>435785</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I138" t="s">
         <v>22</v>
@@ -5603,13 +5616,13 @@
         <v>436073000</v>
       </c>
       <c r="D139" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E139">
         <v>436073</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5623,16 +5636,16 @@
         <v>436081000</v>
       </c>
       <c r="D140" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E140">
         <v>436081</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H140" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5646,13 +5659,13 @@
         <v>436096000</v>
       </c>
       <c r="D141" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E141">
         <v>436096</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I141" t="s">
         <v>22</v>
@@ -5669,13 +5682,13 @@
         <v>436100000</v>
       </c>
       <c r="D142" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E142">
         <v>436100</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5689,13 +5702,13 @@
         <v>436235000</v>
       </c>
       <c r="D143" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E143">
         <v>4307095</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I143" t="s">
         <v>22</v>
@@ -5712,13 +5725,13 @@
         <v>436642000</v>
       </c>
       <c r="D144" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E144">
         <v>436642</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I144" t="s">
         <v>22</v>
@@ -5735,13 +5748,13 @@
         <v>436665000</v>
       </c>
       <c r="D145" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E145">
         <v>436665</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5755,13 +5768,13 @@
         <v>436676000</v>
       </c>
       <c r="D146" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E146">
         <v>436676</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5775,13 +5788,13 @@
         <v>436962000</v>
       </c>
       <c r="D147" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E147">
         <v>436962</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I147" t="s">
         <v>22</v>
@@ -5798,13 +5811,13 @@
         <v>437082000</v>
       </c>
       <c r="D148" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E148">
         <v>437082</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I148" t="s">
         <v>22</v>
@@ -5821,13 +5834,13 @@
         <v>437222000</v>
       </c>
       <c r="D149" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E149">
         <v>437222</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5841,13 +5854,13 @@
         <v>437233000</v>
       </c>
       <c r="D150" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E150">
         <v>437233</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I150" t="s">
         <v>22</v>
@@ -5864,13 +5877,13 @@
         <v>437312000</v>
       </c>
       <c r="D151" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E151">
         <v>437312</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I151" t="s">
         <v>22</v>
@@ -5887,13 +5900,13 @@
         <v>437541000</v>
       </c>
       <c r="D152" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E152">
         <v>437541</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5907,16 +5920,16 @@
         <v>437663000</v>
       </c>
       <c r="D153" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E153">
         <v>437663</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H153" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I153" t="s">
         <v>22</v>
@@ -5933,13 +5946,13 @@
         <v>437833000</v>
       </c>
       <c r="D154" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E154">
         <v>437833</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5953,13 +5966,13 @@
         <v>438120000</v>
       </c>
       <c r="D155" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E155">
         <v>438120</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5973,13 +5986,13 @@
         <v>438130000</v>
       </c>
       <c r="D156" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E156">
         <v>438130</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5993,13 +6006,13 @@
         <v>438409000</v>
       </c>
       <c r="D157" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E157">
         <v>438409</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -6013,13 +6026,13 @@
         <v>439393000</v>
       </c>
       <c r="D158" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E158">
         <v>439393</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6033,13 +6046,13 @@
         <v>439727000</v>
       </c>
       <c r="D159" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E159">
         <v>439727</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6052,14 +6065,14 @@
       <c r="C160">
         <v>439776000</v>
       </c>
-      <c r="D160" t="s">
-        <v>286</v>
+      <c r="D160">
+        <v>0</v>
       </c>
       <c r="E160">
         <v>439776</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6067,22 +6080,25 @@
         <v>439777000</v>
       </c>
       <c r="B161">
-        <v>439777000</v>
+        <v>443723000</v>
       </c>
       <c r="C161">
         <v>439777000</v>
       </c>
-      <c r="D161" t="s">
-        <v>288</v>
+      <c r="D161" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E161">
         <v>439777</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H161" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+      <c r="I161" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6096,13 +6112,13 @@
         <v>439842000</v>
       </c>
       <c r="D162" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E162">
         <v>439842</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6116,13 +6132,13 @@
         <v>440377000</v>
       </c>
       <c r="D163" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E163">
         <v>440377</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H163" t="s">
         <v>24</v>
@@ -6142,13 +6158,13 @@
         <v>440383000</v>
       </c>
       <c r="D164" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E164">
         <v>440383</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -6162,13 +6178,13 @@
         <v>440417000</v>
       </c>
       <c r="D165" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E165">
         <v>440417</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6182,13 +6198,13 @@
         <v>440674000</v>
       </c>
       <c r="D166" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E166">
         <v>440674</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6202,13 +6218,13 @@
         <v>440703000</v>
       </c>
       <c r="D167" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E167">
         <v>440703</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6222,13 +6238,13 @@
         <v>440740000</v>
       </c>
       <c r="D168" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E168">
         <v>440740</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I168" t="s">
         <v>22</v>
@@ -6245,13 +6261,13 @@
         <v>440925000</v>
       </c>
       <c r="D169" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E169">
         <v>440925</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6265,13 +6281,13 @@
         <v>440940000</v>
       </c>
       <c r="D170" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E170">
         <v>440940</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6285,13 +6301,13 @@
         <v>441202000</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E171">
         <v>441202</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I171" t="s">
         <v>22</v>
@@ -6308,13 +6324,13 @@
         <v>441284000</v>
       </c>
       <c r="D172" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E172">
         <v>441284</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6328,13 +6344,13 @@
         <v>441408000</v>
       </c>
       <c r="D173" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E173">
         <v>441408</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I173" t="s">
         <v>22</v>
@@ -6351,13 +6367,13 @@
         <v>441542000</v>
       </c>
       <c r="D174" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E174">
         <v>441542</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I174" t="s">
         <v>22</v>
@@ -6374,13 +6390,13 @@
         <v>441788000</v>
       </c>
       <c r="D175" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E175">
         <v>441788</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6394,13 +6410,13 @@
         <v>441848000</v>
       </c>
       <c r="D176" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E176">
         <v>441848</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I176" t="s">
         <v>22</v>
@@ -6417,13 +6433,13 @@
         <v>442752000</v>
       </c>
       <c r="D177" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E177">
         <v>442752</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I177" t="s">
         <v>22</v>
@@ -6440,13 +6456,13 @@
         <v>443213000</v>
       </c>
       <c r="D178" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E178">
         <v>443213</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6460,13 +6476,13 @@
         <v>443387000</v>
       </c>
       <c r="D179" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E179">
         <v>443387</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6480,13 +6496,13 @@
         <v>443392000</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E180">
         <v>443392</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6500,13 +6516,13 @@
         <v>443454000</v>
       </c>
       <c r="D181" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E181">
         <v>443454</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I181" t="s">
         <v>22</v>
@@ -6523,1705 +6539,1705 @@
         <v>443700000</v>
       </c>
       <c r="D182" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E182">
         <v>443700</v>
       </c>
       <c r="F182" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>443723000</v>
+      </c>
+      <c r="B183">
+        <v>443723000</v>
+      </c>
+      <c r="C183">
+        <v>443723000</v>
+      </c>
+      <c r="D183" t="s">
+        <v>563</v>
+      </c>
+      <c r="E183">
+        <v>443723</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>443727000</v>
+      </c>
+      <c r="B184">
+        <v>201820000</v>
+      </c>
+      <c r="C184">
+        <v>443727000</v>
+      </c>
+      <c r="D184" t="s">
+        <v>326</v>
+      </c>
+      <c r="E184">
+        <v>443727</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I184" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>444044000</v>
+      </c>
+      <c r="B185">
+        <v>4030518000</v>
+      </c>
+      <c r="C185">
+        <v>444044000</v>
+      </c>
+      <c r="D185" t="s">
+        <v>327</v>
+      </c>
+      <c r="E185">
+        <v>444044</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I185" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>444070000</v>
+      </c>
+      <c r="B186">
+        <v>4094294000</v>
+      </c>
+      <c r="C186">
+        <v>444070000</v>
+      </c>
+      <c r="D186" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>443727000</v>
-      </c>
-      <c r="B183">
+      <c r="E186">
+        <v>444070</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I186" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>444247000</v>
+      </c>
+      <c r="B187">
+        <v>444247000</v>
+      </c>
+      <c r="C187">
+        <v>444247000</v>
+      </c>
+      <c r="D187" t="s">
+        <v>329</v>
+      </c>
+      <c r="E187">
+        <v>444247</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>444429000</v>
+      </c>
+      <c r="B188">
+        <v>444429000</v>
+      </c>
+      <c r="C188">
+        <v>444429000</v>
+      </c>
+      <c r="D188" t="s">
+        <v>331</v>
+      </c>
+      <c r="E188">
+        <v>444429</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>4000634000</v>
+      </c>
+      <c r="B189">
+        <v>73553000</v>
+      </c>
+      <c r="C189">
+        <v>4000634000</v>
+      </c>
+      <c r="D189" t="s">
+        <v>333</v>
+      </c>
+      <c r="E189">
+        <v>4000634</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H189" t="s">
+        <v>335</v>
+      </c>
+      <c r="I189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>4002359000</v>
+      </c>
+      <c r="B190">
+        <v>436081000</v>
+      </c>
+      <c r="C190">
+        <v>4002359000</v>
+      </c>
+      <c r="D190" t="s">
+        <v>336</v>
+      </c>
+      <c r="E190">
+        <v>4002359</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>4013643000</v>
+      </c>
+      <c r="B191">
+        <v>4013643000</v>
+      </c>
+      <c r="C191">
+        <v>4013643000</v>
+      </c>
+      <c r="D191" t="s">
+        <v>338</v>
+      </c>
+      <c r="E191">
+        <v>4013643</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4024659000</v>
+      </c>
+      <c r="B192">
         <v>201820000</v>
       </c>
-      <c r="C183">
-        <v>443727000</v>
-      </c>
-      <c r="D183" t="s">
-        <v>329</v>
-      </c>
-      <c r="E183">
-        <v>443727</v>
-      </c>
-      <c r="F183" s="1" t="s">
+      <c r="C192">
+        <v>4024659000</v>
+      </c>
+      <c r="D192" t="s">
+        <v>340</v>
+      </c>
+      <c r="E192">
+        <v>4024659</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H192" t="s">
+        <v>341</v>
+      </c>
+      <c r="I192" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4027537000</v>
+      </c>
+      <c r="B193">
+        <v>4027537000</v>
+      </c>
+      <c r="C193">
+        <v>4027537000</v>
+      </c>
+      <c r="D193" t="s">
+        <v>342</v>
+      </c>
+      <c r="E193">
+        <v>4027537</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>4028363000</v>
+      </c>
+      <c r="B194">
+        <v>4028363000</v>
+      </c>
+      <c r="C194">
+        <v>4028363000</v>
+      </c>
+      <c r="D194" t="s">
+        <v>343</v>
+      </c>
+      <c r="E194">
+        <v>4028363</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>4030518000</v>
+      </c>
+      <c r="B195">
+        <v>4030518000</v>
+      </c>
+      <c r="C195">
+        <v>4030518000</v>
+      </c>
+      <c r="D195" t="s">
+        <v>345</v>
+      </c>
+      <c r="E195">
+        <v>4030518</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>4038838000</v>
+      </c>
+      <c r="B196">
+        <v>432571000</v>
+      </c>
+      <c r="C196">
+        <v>4038838000</v>
+      </c>
+      <c r="D196" t="s">
+        <v>347</v>
+      </c>
+      <c r="E196">
+        <v>4038838</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I196" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>4043371000</v>
+      </c>
+      <c r="C197">
+        <v>4043371000</v>
+      </c>
+      <c r="D197" t="s">
+        <v>477</v>
+      </c>
+      <c r="E197">
+        <v>4043371</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H197" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4046338000</v>
+      </c>
+      <c r="B198">
+        <v>4046338000</v>
+      </c>
+      <c r="C198">
+        <v>4046338000</v>
+      </c>
+      <c r="D198" t="s">
+        <v>348</v>
+      </c>
+      <c r="E198">
+        <v>4046338</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>4058821000</v>
+      </c>
+      <c r="B199">
+        <v>4212540000</v>
+      </c>
+      <c r="C199">
+        <v>4058821000</v>
+      </c>
+      <c r="D199" t="s">
+        <v>350</v>
+      </c>
+      <c r="E199">
+        <v>4058821</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>4063434000</v>
+      </c>
+      <c r="B200">
+        <v>140168000</v>
+      </c>
+      <c r="C200">
+        <v>4063434000</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E200">
+        <v>4063434</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I200" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>4064161000</v>
+      </c>
+      <c r="B201">
+        <v>4212540000</v>
+      </c>
+      <c r="C201">
+        <v>4064161000</v>
+      </c>
+      <c r="D201" t="s">
+        <v>353</v>
+      </c>
+      <c r="E201">
+        <v>4064161</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I201" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>4067106000</v>
+      </c>
+      <c r="B202">
+        <v>4067106000</v>
+      </c>
+      <c r="C202">
+        <v>4067106000</v>
+      </c>
+      <c r="D202" t="s">
+        <v>355</v>
+      </c>
+      <c r="E202">
+        <v>4067106</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>4070552000</v>
+      </c>
+      <c r="B203">
+        <v>4164770000</v>
+      </c>
+      <c r="C203">
+        <v>4070552000</v>
+      </c>
+      <c r="D203" t="s">
+        <v>357</v>
+      </c>
+      <c r="E203">
+        <v>4070552</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H203" t="s">
+        <v>359</v>
+      </c>
+      <c r="I203" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>4074815000</v>
+      </c>
+      <c r="B204">
+        <v>4043371000</v>
+      </c>
+      <c r="C204">
+        <v>4074815000</v>
+      </c>
+      <c r="D204" t="s">
+        <v>360</v>
+      </c>
+      <c r="E204">
+        <v>4074815</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I204" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4079843000</v>
+      </c>
+      <c r="B205">
+        <v>4306655000</v>
+      </c>
+      <c r="C205">
+        <v>4079843000</v>
+      </c>
+      <c r="D205" t="s">
+        <v>361</v>
+      </c>
+      <c r="E205">
+        <v>4079843</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I205" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4091559000</v>
+      </c>
+      <c r="B206">
+        <v>378135000</v>
+      </c>
+      <c r="C206">
+        <v>4091559000</v>
+      </c>
+      <c r="D206" t="s">
+        <v>362</v>
+      </c>
+      <c r="E206">
+        <v>4091559</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I206" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>4092289000</v>
+      </c>
+      <c r="B207">
+        <v>4092289000</v>
+      </c>
+      <c r="C207">
+        <v>4092289000</v>
+      </c>
+      <c r="D207" t="s">
+        <v>364</v>
+      </c>
+      <c r="E207">
+        <v>4092289</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>4094294000</v>
+      </c>
+      <c r="B208">
+        <v>4094294000</v>
+      </c>
+      <c r="C208">
+        <v>4094294000</v>
+      </c>
+      <c r="D208" t="s">
         <v>526</v>
       </c>
-      <c r="I183" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>444044000</v>
-      </c>
-      <c r="B184">
-        <v>4030518000</v>
-      </c>
-      <c r="C184">
-        <v>444044000</v>
-      </c>
-      <c r="D184" t="s">
-        <v>330</v>
-      </c>
-      <c r="E184">
-        <v>444044</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I184" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>444070000</v>
-      </c>
-      <c r="B185">
-        <v>4094294000</v>
-      </c>
-      <c r="C185">
-        <v>444070000</v>
-      </c>
-      <c r="D185" t="s">
-        <v>331</v>
-      </c>
-      <c r="E185">
-        <v>444070</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I185" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>444247000</v>
-      </c>
-      <c r="B186">
-        <v>444247000</v>
-      </c>
-      <c r="C186">
-        <v>444247000</v>
-      </c>
-      <c r="D186" t="s">
-        <v>332</v>
-      </c>
-      <c r="E186">
-        <v>444247</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>444429000</v>
-      </c>
-      <c r="B187">
-        <v>444429000</v>
-      </c>
-      <c r="C187">
-        <v>444429000</v>
-      </c>
-      <c r="D187" t="s">
-        <v>334</v>
-      </c>
-      <c r="E187">
-        <v>444429</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>4000634000</v>
-      </c>
-      <c r="B188">
-        <v>73553000</v>
-      </c>
-      <c r="C188">
-        <v>4000634000</v>
-      </c>
-      <c r="D188" t="s">
-        <v>336</v>
-      </c>
-      <c r="E188">
-        <v>4000634</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H188" t="s">
-        <v>338</v>
-      </c>
-      <c r="I188" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>4002359000</v>
-      </c>
-      <c r="B189">
+      <c r="E208">
+        <v>4094294</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4098292000</v>
+      </c>
+      <c r="B209">
+        <v>4098292000</v>
+      </c>
+      <c r="C209">
+        <v>4098292000</v>
+      </c>
+      <c r="D209" t="s">
+        <v>366</v>
+      </c>
+      <c r="E209">
+        <v>4098292</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>4098597000</v>
+      </c>
+      <c r="B210">
         <v>436081000</v>
       </c>
-      <c r="C189">
-        <v>4002359000</v>
-      </c>
-      <c r="D189" t="s">
-        <v>339</v>
-      </c>
-      <c r="E189">
-        <v>4002359</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I189" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>4013643000</v>
-      </c>
-      <c r="B190">
-        <v>4013643000</v>
-      </c>
-      <c r="C190">
-        <v>4013643000</v>
-      </c>
-      <c r="D190" t="s">
-        <v>341</v>
-      </c>
-      <c r="E190">
-        <v>4013643</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>4024659000</v>
-      </c>
-      <c r="B191">
-        <v>201820000</v>
-      </c>
-      <c r="C191">
-        <v>4024659000</v>
-      </c>
-      <c r="D191" t="s">
-        <v>343</v>
-      </c>
-      <c r="E191">
-        <v>4024659</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H191" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>4027537000</v>
-      </c>
-      <c r="B192">
-        <v>4027537000</v>
-      </c>
-      <c r="C192">
-        <v>4027537000</v>
-      </c>
-      <c r="D192" t="s">
-        <v>345</v>
-      </c>
-      <c r="E192">
-        <v>4027537</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>4028363000</v>
-      </c>
-      <c r="B193">
-        <v>4028363000</v>
-      </c>
-      <c r="C193">
-        <v>4028363000</v>
-      </c>
-      <c r="D193" t="s">
-        <v>347</v>
-      </c>
-      <c r="E193">
-        <v>4028363</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="375" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>4030518000</v>
-      </c>
-      <c r="B194">
-        <v>4030518000</v>
-      </c>
-      <c r="C194">
-        <v>4030518000</v>
-      </c>
-      <c r="D194" t="s">
-        <v>349</v>
-      </c>
-      <c r="E194">
-        <v>4030518</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>4038838000</v>
-      </c>
-      <c r="B195">
-        <v>432571000</v>
-      </c>
-      <c r="C195">
-        <v>4038838000</v>
-      </c>
-      <c r="D195" t="s">
-        <v>351</v>
-      </c>
-      <c r="E195">
-        <v>4038838</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I195" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B196">
-        <v>4043371000</v>
-      </c>
-      <c r="C196">
-        <v>4043371000</v>
-      </c>
-      <c r="D196" t="s">
-        <v>481</v>
-      </c>
-      <c r="E196">
-        <v>4043371</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H196" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>4046338000</v>
-      </c>
-      <c r="B197">
-        <v>4046338000</v>
-      </c>
-      <c r="C197">
-        <v>4046338000</v>
-      </c>
-      <c r="D197" t="s">
-        <v>352</v>
-      </c>
-      <c r="E197">
-        <v>4046338</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>4058821000</v>
-      </c>
-      <c r="B198">
-        <v>4212540000</v>
-      </c>
-      <c r="C198">
-        <v>4058821000</v>
-      </c>
-      <c r="D198" t="s">
-        <v>354</v>
-      </c>
-      <c r="E198">
-        <v>4058821</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I198" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>4063434000</v>
-      </c>
-      <c r="B199">
-        <v>140168000</v>
-      </c>
-      <c r="C199">
-        <v>4063434000</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E199">
-        <v>4063434</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I199" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>4064161000</v>
-      </c>
-      <c r="B200">
-        <v>4212540000</v>
-      </c>
-      <c r="C200">
-        <v>4064161000</v>
-      </c>
-      <c r="D200" t="s">
-        <v>357</v>
-      </c>
-      <c r="E200">
-        <v>4064161</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I200" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>4067106000</v>
-      </c>
-      <c r="B201">
-        <v>4067106000</v>
-      </c>
-      <c r="C201">
-        <v>4067106000</v>
-      </c>
-      <c r="D201" t="s">
-        <v>359</v>
-      </c>
-      <c r="E201">
-        <v>4067106</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>4070552000</v>
-      </c>
-      <c r="B202">
-        <v>4164770000</v>
-      </c>
-      <c r="C202">
-        <v>4070552000</v>
-      </c>
-      <c r="D202" t="s">
-        <v>361</v>
-      </c>
-      <c r="E202">
-        <v>4070552</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H202" t="s">
-        <v>363</v>
-      </c>
-      <c r="I202" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>4074815000</v>
-      </c>
-      <c r="B203">
-        <v>4043371000</v>
-      </c>
-      <c r="C203">
-        <v>4074815000</v>
-      </c>
-      <c r="D203" t="s">
-        <v>364</v>
-      </c>
-      <c r="E203">
-        <v>4074815</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I203" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>4079843000</v>
-      </c>
-      <c r="B204">
-        <v>4306655000</v>
-      </c>
-      <c r="C204">
-        <v>4079843000</v>
-      </c>
-      <c r="D204" t="s">
-        <v>365</v>
-      </c>
-      <c r="E204">
-        <v>4079843</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="I204" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>4091559000</v>
-      </c>
-      <c r="B205">
-        <v>378135000</v>
-      </c>
-      <c r="C205">
-        <v>4091559000</v>
-      </c>
-      <c r="D205" t="s">
-        <v>366</v>
-      </c>
-      <c r="E205">
-        <v>4091559</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="I205" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>4092289000</v>
-      </c>
-      <c r="B206">
-        <v>4092289000</v>
-      </c>
-      <c r="C206">
-        <v>4092289000</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="C210">
+        <v>4098597000</v>
+      </c>
+      <c r="D210" t="s">
         <v>368</v>
       </c>
-      <c r="E206">
-        <v>4092289</v>
-      </c>
-      <c r="F206" s="1" t="s">
+      <c r="E210">
+        <v>4098597</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>4094294000</v>
-      </c>
-      <c r="B207">
-        <v>4094294000</v>
-      </c>
-      <c r="C207">
-        <v>4094294000</v>
-      </c>
-      <c r="D207" t="s">
-        <v>530</v>
-      </c>
-      <c r="E207">
-        <v>4094294</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>4098292000</v>
-      </c>
-      <c r="B208">
-        <v>4098292000</v>
-      </c>
-      <c r="C208">
-        <v>4098292000</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="I210" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>4101602000</v>
+      </c>
+      <c r="B211">
+        <v>4137275000</v>
+      </c>
+      <c r="C211">
+        <v>4101602000</v>
+      </c>
+      <c r="D211" t="s">
         <v>370</v>
       </c>
-      <c r="E208">
-        <v>4098292</v>
-      </c>
-      <c r="F208" s="1" t="s">
+      <c r="E211">
+        <v>4101602</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>4098597000</v>
-      </c>
-      <c r="B209">
-        <v>436081000</v>
-      </c>
-      <c r="C209">
-        <v>4098597000</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="I211" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>4103295000</v>
+      </c>
+      <c r="B212">
+        <v>44784217000</v>
+      </c>
+      <c r="C212">
+        <v>4103295000</v>
+      </c>
+      <c r="D212" t="s">
         <v>372</v>
       </c>
-      <c r="E209">
-        <v>4098597</v>
-      </c>
-      <c r="F209" s="1" t="s">
+      <c r="E212">
+        <v>4103295</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I212" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>4112853000</v>
+      </c>
+      <c r="B213">
+        <v>4112853000</v>
+      </c>
+      <c r="C213">
+        <v>4112853000</v>
+      </c>
+      <c r="D213" t="s">
         <v>373</v>
       </c>
-      <c r="I209" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>4101602000</v>
-      </c>
-      <c r="B210">
-        <v>4137275000</v>
-      </c>
-      <c r="C210">
-        <v>4101602000</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="E213">
+        <v>4112853</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="E210">
-        <v>4101602</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I210" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>4103295000</v>
-      </c>
-      <c r="B211">
-        <v>44784217000</v>
-      </c>
-      <c r="C211">
-        <v>4103295000</v>
-      </c>
-      <c r="D211" t="s">
-        <v>376</v>
-      </c>
-      <c r="E211">
-        <v>4103295</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I211" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>4112853000</v>
-      </c>
-      <c r="B212">
-        <v>4112853000</v>
-      </c>
-      <c r="C212">
-        <v>4112853000</v>
-      </c>
-      <c r="D212" t="s">
-        <v>377</v>
-      </c>
-      <c r="E212">
-        <v>4112853</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>4124836000</v>
-      </c>
-      <c r="B213">
-        <v>321052000</v>
-      </c>
-      <c r="C213">
-        <v>4124836000</v>
-      </c>
-      <c r="D213" t="s">
-        <v>379</v>
-      </c>
-      <c r="E213">
-        <v>4124836</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I213" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A214">
+        <v>4124836000</v>
+      </c>
+      <c r="B214">
+        <v>321052000</v>
+      </c>
+      <c r="C214">
+        <v>4124836000</v>
+      </c>
+      <c r="D214" t="s">
+        <v>375</v>
+      </c>
+      <c r="E214">
+        <v>4124836</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I214" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>4131909000</v>
       </c>
-      <c r="B214">
+      <c r="B215">
         <v>4131909000</v>
       </c>
-      <c r="C214">
+      <c r="C215">
         <v>4131909000</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D215" t="s">
+        <v>377</v>
+      </c>
+      <c r="E215">
+        <v>4131909</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>4133004000</v>
+      </c>
+      <c r="B216">
+        <v>4133004000</v>
+      </c>
+      <c r="C216">
+        <v>4133004000</v>
+      </c>
+      <c r="D216" t="s">
+        <v>379</v>
+      </c>
+      <c r="E216">
+        <v>4133004</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>4137275000</v>
+      </c>
+      <c r="B217">
+        <v>4137275000</v>
+      </c>
+      <c r="C217">
+        <v>4137275000</v>
+      </c>
+      <c r="D217" t="s">
         <v>381</v>
       </c>
-      <c r="E214">
-        <v>4131909</v>
-      </c>
-      <c r="F214" s="1" t="s">
+      <c r="E217">
+        <v>4137275</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>4133004000</v>
-      </c>
-      <c r="B215">
-        <v>4133004000</v>
-      </c>
-      <c r="C215">
-        <v>4133004000</v>
-      </c>
-      <c r="D215" t="s">
+    <row r="218" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>4138837000</v>
+      </c>
+      <c r="B218">
+        <v>4138837000</v>
+      </c>
+      <c r="C218">
+        <v>4138837000</v>
+      </c>
+      <c r="D218" t="s">
         <v>383</v>
       </c>
-      <c r="E215">
-        <v>4133004</v>
-      </c>
-      <c r="F215" s="1" t="s">
+      <c r="E218">
+        <v>4138837</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="H218" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>4139034000</v>
+      </c>
+      <c r="B219">
+        <v>4139034000</v>
+      </c>
+      <c r="C219">
+        <v>4139034000</v>
+      </c>
+      <c r="D219" t="s">
+        <v>386</v>
+      </c>
+      <c r="E219">
+        <v>4139034</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H219" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>4147411000</v>
+      </c>
+      <c r="B220">
+        <v>432571000</v>
+      </c>
+      <c r="C220">
+        <v>4147411000</v>
+      </c>
+      <c r="D220" t="s">
+        <v>388</v>
+      </c>
+      <c r="E220">
+        <v>4147411</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I220" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>4163261000</v>
+      </c>
+      <c r="B221">
+        <v>4163261000</v>
+      </c>
+      <c r="C221">
+        <v>4163261000</v>
+      </c>
+      <c r="D221" t="s">
+        <v>389</v>
+      </c>
+      <c r="E221">
+        <v>4163261</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>4164770000</v>
+      </c>
+      <c r="B222">
+        <v>4164770000</v>
+      </c>
+      <c r="C222">
+        <v>4164770000</v>
+      </c>
+      <c r="D222" t="s">
+        <v>391</v>
+      </c>
+      <c r="E222">
+        <v>4164770</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>4169095000</v>
+      </c>
+      <c r="B223">
+        <v>4094294000</v>
+      </c>
+      <c r="C223">
+        <v>4169095000</v>
+      </c>
+      <c r="D223" t="s">
+        <v>393</v>
+      </c>
+      <c r="E223">
+        <v>4169095</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I223" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>4174977000</v>
+      </c>
+      <c r="B224">
+        <v>378416000</v>
+      </c>
+      <c r="C224">
+        <v>4174977000</v>
+      </c>
+      <c r="D224" t="s">
+        <v>394</v>
+      </c>
+      <c r="E224">
+        <v>4174977</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I224" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>4175485000</v>
+      </c>
+      <c r="C225">
+        <v>4175485000</v>
+      </c>
+      <c r="D225" t="s">
+        <v>508</v>
+      </c>
+      <c r="E225">
+        <v>4175485</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>4180790000</v>
+      </c>
+      <c r="B226">
+        <v>4180790000</v>
+      </c>
+      <c r="C226">
+        <v>4180790000</v>
+      </c>
+      <c r="D226" t="s">
+        <v>395</v>
+      </c>
+      <c r="E226">
+        <v>4180790</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>4181343000</v>
+      </c>
+      <c r="B227">
+        <v>4181343000</v>
+      </c>
+      <c r="C227">
+        <v>4181343000</v>
+      </c>
+      <c r="D227" t="s">
+        <v>397</v>
+      </c>
+      <c r="E227">
+        <v>4181343</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>4181351000</v>
+      </c>
+      <c r="B228">
+        <v>4181351000</v>
+      </c>
+      <c r="C228">
+        <v>4181351000</v>
+      </c>
+      <c r="D228" t="s">
+        <v>399</v>
+      </c>
+      <c r="E228">
+        <v>4181351</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>4182210000</v>
+      </c>
+      <c r="B229">
+        <v>4182210000</v>
+      </c>
+      <c r="C229">
+        <v>4182210000</v>
+      </c>
+      <c r="D229" t="s">
+        <v>401</v>
+      </c>
+      <c r="E229">
+        <v>4182210</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>4182711000</v>
+      </c>
+      <c r="B230">
         <v>4137275000</v>
       </c>
-      <c r="B216">
-        <v>4137275000</v>
-      </c>
-      <c r="C216">
-        <v>4137275000</v>
-      </c>
-      <c r="D216" t="s">
-        <v>385</v>
-      </c>
-      <c r="E216">
-        <v>4137275</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>4138837000</v>
-      </c>
-      <c r="B217">
-        <v>4138837000</v>
-      </c>
-      <c r="C217">
-        <v>4138837000</v>
-      </c>
-      <c r="D217" t="s">
-        <v>387</v>
-      </c>
-      <c r="E217">
-        <v>4138837</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H217" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>4139034000</v>
-      </c>
-      <c r="B218">
-        <v>4139034000</v>
-      </c>
-      <c r="C218">
-        <v>4139034000</v>
-      </c>
-      <c r="D218" t="s">
-        <v>390</v>
-      </c>
-      <c r="E218">
-        <v>4139034</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H218" t="s">
+      <c r="C230">
+        <v>4182711000</v>
+      </c>
+      <c r="D230" t="s">
+        <v>403</v>
+      </c>
+      <c r="E230">
+        <v>4182711</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H230" t="s">
+        <v>405</v>
+      </c>
+      <c r="I230" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>4185711000</v>
+      </c>
+      <c r="B231">
+        <v>4094294000</v>
+      </c>
+      <c r="C231">
+        <v>4185711000</v>
+      </c>
+      <c r="D231" t="s">
+        <v>406</v>
+      </c>
+      <c r="E231">
+        <v>4185711</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I231" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>4185932000</v>
+      </c>
+      <c r="B232">
+        <v>4185932000</v>
+      </c>
+      <c r="C232">
+        <v>4185932000</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E232">
+        <v>4185932</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>4190307000</v>
+      </c>
+      <c r="B233">
+        <v>4190307000</v>
+      </c>
+      <c r="C233">
+        <v>4190307000</v>
+      </c>
+      <c r="D233" t="s">
+        <v>407</v>
+      </c>
+      <c r="E233">
+        <v>4190307</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>4195694000</v>
+      </c>
+      <c r="B234">
+        <v>4195694000</v>
+      </c>
+      <c r="C234">
+        <v>4195694000</v>
+      </c>
+      <c r="D234" t="s">
+        <v>408</v>
+      </c>
+      <c r="E234">
+        <v>4195694</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H234" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>4201096000</v>
+      </c>
+      <c r="B235">
+        <v>4190307000</v>
+      </c>
+      <c r="C235">
+        <v>4201096000</v>
+      </c>
+      <c r="D235" t="s">
+        <v>411</v>
+      </c>
+      <c r="E235">
+        <v>4201096</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I235" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>4212540000</v>
+      </c>
+      <c r="B236">
+        <v>4212540000</v>
+      </c>
+      <c r="C236">
+        <v>4212540000</v>
+      </c>
+      <c r="D236" t="s">
+        <v>413</v>
+      </c>
+      <c r="E236">
+        <v>4212540</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>4223659000</v>
+      </c>
+      <c r="B237">
+        <v>4094294000</v>
+      </c>
+      <c r="C237">
+        <v>4223659000</v>
+      </c>
+      <c r="D237" t="s">
+        <v>415</v>
+      </c>
+      <c r="E237">
+        <v>4223659</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I237" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>4236484000</v>
+      </c>
+      <c r="B238">
+        <v>4236484000</v>
+      </c>
+      <c r="C238">
+        <v>4236484000</v>
+      </c>
+      <c r="D238" t="s">
+        <v>416</v>
+      </c>
+      <c r="E238">
+        <v>4236484</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>4245975000</v>
+      </c>
+      <c r="B239">
+        <v>4245975000</v>
+      </c>
+      <c r="C239">
+        <v>4245975000</v>
+      </c>
+      <c r="D239" t="s">
+        <v>418</v>
+      </c>
+      <c r="E239">
+        <v>4245975</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>4246127000</v>
+      </c>
+      <c r="B240">
+        <v>4246127000</v>
+      </c>
+      <c r="C240">
+        <v>4246127000</v>
+      </c>
+      <c r="D240" t="s">
+        <v>420</v>
+      </c>
+      <c r="E240">
+        <v>4246127</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H240" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>4147411000</v>
-      </c>
-      <c r="B219">
-        <v>432571000</v>
-      </c>
-      <c r="C219">
-        <v>4147411000</v>
-      </c>
-      <c r="D219" t="s">
-        <v>392</v>
-      </c>
-      <c r="E219">
-        <v>4147411</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="I219" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>4163261000</v>
-      </c>
-      <c r="B220">
-        <v>4163261000</v>
-      </c>
-      <c r="C220">
-        <v>4163261000</v>
-      </c>
-      <c r="D220" t="s">
-        <v>393</v>
-      </c>
-      <c r="E220">
-        <v>4163261</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>4164770000</v>
-      </c>
-      <c r="B221">
-        <v>4164770000</v>
-      </c>
-      <c r="C221">
-        <v>4164770000</v>
-      </c>
-      <c r="D221" t="s">
-        <v>395</v>
-      </c>
-      <c r="E221">
-        <v>4164770</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>4169095000</v>
-      </c>
-      <c r="B222">
+    <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4253901000</v>
+      </c>
+      <c r="B241">
+        <v>73553000</v>
+      </c>
+      <c r="C241">
+        <v>4253901000</v>
+      </c>
+      <c r="D241" t="s">
+        <v>422</v>
+      </c>
+      <c r="E241">
+        <v>4253901</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I241" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>4256228000</v>
+      </c>
+      <c r="B242">
+        <v>4256228000</v>
+      </c>
+      <c r="C242">
+        <v>4256228000</v>
+      </c>
+      <c r="D242" t="s">
+        <v>424</v>
+      </c>
+      <c r="E242">
+        <v>4256228</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H242" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>4260535000</v>
+      </c>
+      <c r="B243">
+        <v>4043371000</v>
+      </c>
+      <c r="C243">
+        <v>4260535000</v>
+      </c>
+      <c r="D243" t="s">
+        <v>427</v>
+      </c>
+      <c r="E243">
+        <v>4260535</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H243" t="s">
+        <v>428</v>
+      </c>
+      <c r="I243" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>4266367000</v>
+      </c>
+      <c r="B244">
+        <v>4266367000</v>
+      </c>
+      <c r="C244">
+        <v>4266367000</v>
+      </c>
+      <c r="D244" t="s">
+        <v>429</v>
+      </c>
+      <c r="E244">
+        <v>4266367</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>4272240000</v>
+      </c>
+      <c r="B245">
         <v>4094294000</v>
       </c>
-      <c r="C222">
-        <v>4169095000</v>
-      </c>
-      <c r="D222" t="s">
-        <v>397</v>
-      </c>
-      <c r="E222">
-        <v>4169095</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I222" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>4174977000</v>
-      </c>
-      <c r="B223">
-        <v>378416000</v>
-      </c>
-      <c r="C223">
-        <v>4174977000</v>
-      </c>
-      <c r="D223" t="s">
-        <v>398</v>
-      </c>
-      <c r="E223">
-        <v>4174977</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I223" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B224">
-        <v>4175485000</v>
-      </c>
-      <c r="C224">
-        <v>4175485000</v>
-      </c>
-      <c r="D224" t="s">
-        <v>512</v>
-      </c>
-      <c r="E224">
-        <v>4175485</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>4180790000</v>
-      </c>
-      <c r="B225">
-        <v>4180790000</v>
-      </c>
-      <c r="C225">
-        <v>4180790000</v>
-      </c>
-      <c r="D225" t="s">
-        <v>399</v>
-      </c>
-      <c r="E225">
-        <v>4180790</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>4181343000</v>
-      </c>
-      <c r="B226">
-        <v>4181343000</v>
-      </c>
-      <c r="C226">
-        <v>4181343000</v>
-      </c>
-      <c r="D226" t="s">
-        <v>401</v>
-      </c>
-      <c r="E226">
-        <v>4181343</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>4181351000</v>
-      </c>
-      <c r="B227">
-        <v>4181351000</v>
-      </c>
-      <c r="C227">
-        <v>4181351000</v>
-      </c>
-      <c r="D227" t="s">
-        <v>403</v>
-      </c>
-      <c r="E227">
-        <v>4181351</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>4182210000</v>
-      </c>
-      <c r="B228">
-        <v>4182210000</v>
-      </c>
-      <c r="C228">
-        <v>4182210000</v>
-      </c>
-      <c r="D228" t="s">
-        <v>405</v>
-      </c>
-      <c r="E228">
-        <v>4182210</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>4182711000</v>
-      </c>
-      <c r="B229">
-        <v>4137275000</v>
-      </c>
-      <c r="C229">
-        <v>4182711000</v>
-      </c>
-      <c r="D229" t="s">
-        <v>407</v>
-      </c>
-      <c r="E229">
-        <v>4182711</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H229" t="s">
-        <v>409</v>
-      </c>
-      <c r="I229" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>4185711000</v>
-      </c>
-      <c r="B230">
-        <v>4094294000</v>
-      </c>
-      <c r="C230">
-        <v>4185711000</v>
-      </c>
-      <c r="D230" t="s">
-        <v>410</v>
-      </c>
-      <c r="E230">
-        <v>4185711</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I230" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>4185932000</v>
-      </c>
-      <c r="B231">
-        <v>4185932000</v>
-      </c>
-      <c r="C231">
-        <v>4185932000</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E231">
-        <v>4185932</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>4190307000</v>
-      </c>
-      <c r="B232">
-        <v>4190307000</v>
-      </c>
-      <c r="C232">
-        <v>4190307000</v>
-      </c>
-      <c r="D232" t="s">
-        <v>411</v>
-      </c>
-      <c r="E232">
-        <v>4190307</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>4195694000</v>
-      </c>
-      <c r="B233">
-        <v>4195694000</v>
-      </c>
-      <c r="C233">
-        <v>4195694000</v>
-      </c>
-      <c r="D233" t="s">
-        <v>412</v>
-      </c>
-      <c r="E233">
-        <v>4195694</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H233" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>4201096000</v>
-      </c>
-      <c r="B234">
-        <v>4190307000</v>
-      </c>
-      <c r="C234">
-        <v>4201096000</v>
-      </c>
-      <c r="D234" t="s">
-        <v>415</v>
-      </c>
-      <c r="E234">
-        <v>4201096</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="I234" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="C245">
+        <v>4272240000</v>
+      </c>
+      <c r="D245" t="s">
+        <v>431</v>
+      </c>
+      <c r="E245">
+        <v>4272240</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I245" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>4273391000</v>
+      </c>
+      <c r="B246">
+        <v>4273391000</v>
+      </c>
+      <c r="C246">
+        <v>4273391000</v>
+      </c>
+      <c r="D246" t="s">
+        <v>432</v>
+      </c>
+      <c r="E246">
+        <v>4273391</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>4281232000</v>
+      </c>
+      <c r="B247">
         <v>4212540000</v>
       </c>
-      <c r="B235">
-        <v>4212540000</v>
-      </c>
-      <c r="C235">
-        <v>4212540000</v>
-      </c>
-      <c r="D235" t="s">
-        <v>417</v>
-      </c>
-      <c r="E235">
-        <v>4212540</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>4223659000</v>
-      </c>
-      <c r="B236">
-        <v>4094294000</v>
-      </c>
-      <c r="C236">
-        <v>4223659000</v>
-      </c>
-      <c r="D236" t="s">
-        <v>419</v>
-      </c>
-      <c r="E236">
-        <v>4223659</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I236" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>4236484000</v>
-      </c>
-      <c r="B237">
-        <v>4236484000</v>
-      </c>
-      <c r="C237">
-        <v>4236484000</v>
-      </c>
-      <c r="D237" t="s">
-        <v>420</v>
-      </c>
-      <c r="E237">
-        <v>4236484</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>4245975000</v>
-      </c>
-      <c r="B238">
-        <v>4245975000</v>
-      </c>
-      <c r="C238">
-        <v>4245975000</v>
-      </c>
-      <c r="D238" t="s">
-        <v>422</v>
-      </c>
-      <c r="E238">
-        <v>4245975</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>4246127000</v>
-      </c>
-      <c r="B239">
-        <v>4246127000</v>
-      </c>
-      <c r="C239">
-        <v>4246127000</v>
-      </c>
-      <c r="D239" t="s">
-        <v>424</v>
-      </c>
-      <c r="E239">
-        <v>4246127</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H239" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>4253901000</v>
-      </c>
-      <c r="B240">
-        <v>73553000</v>
-      </c>
-      <c r="C240">
-        <v>4253901000</v>
-      </c>
-      <c r="D240" t="s">
-        <v>426</v>
-      </c>
-      <c r="E240">
-        <v>4253901</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="I240" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>4256228000</v>
-      </c>
-      <c r="B241">
-        <v>4256228000</v>
-      </c>
-      <c r="C241">
-        <v>4256228000</v>
-      </c>
-      <c r="D241" t="s">
-        <v>428</v>
-      </c>
-      <c r="E241">
-        <v>4256228</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H241" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>4260535000</v>
-      </c>
-      <c r="B242">
-        <v>4043371000</v>
-      </c>
-      <c r="C242">
-        <v>4260535000</v>
-      </c>
-      <c r="D242" t="s">
-        <v>431</v>
-      </c>
-      <c r="E242">
-        <v>4260535</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H242" t="s">
-        <v>432</v>
-      </c>
-      <c r="I242" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>4266367000</v>
-      </c>
-      <c r="B243">
-        <v>4266367000</v>
-      </c>
-      <c r="C243">
-        <v>4266367000</v>
-      </c>
-      <c r="D243" t="s">
-        <v>433</v>
-      </c>
-      <c r="E243">
-        <v>4266367</v>
-      </c>
-      <c r="F243" s="1" t="s">
+      <c r="C247">
+        <v>4281232000</v>
+      </c>
+      <c r="D247" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>4272240000</v>
-      </c>
-      <c r="B244">
-        <v>4094294000</v>
-      </c>
-      <c r="C244">
-        <v>4272240000</v>
-      </c>
-      <c r="D244" t="s">
+      <c r="E247">
+        <v>4281232</v>
+      </c>
+      <c r="F247" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E244">
-        <v>4272240</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I244" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>4273391000</v>
-      </c>
-      <c r="B245">
-        <v>4273391000</v>
-      </c>
-      <c r="C245">
-        <v>4273391000</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="I247" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>4284492000</v>
+      </c>
+      <c r="B248">
+        <v>140168000</v>
+      </c>
+      <c r="C248">
+        <v>4284492000</v>
+      </c>
+      <c r="D248" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E245">
-        <v>4273391</v>
-      </c>
-      <c r="F245" s="1" t="s">
+      <c r="E248">
+        <v>4284492</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I248" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>4285717000</v>
+      </c>
+      <c r="B249">
+        <v>4285717000</v>
+      </c>
+      <c r="C249">
+        <v>4285717000</v>
+      </c>
+      <c r="D249" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>4281232000</v>
-      </c>
-      <c r="B246">
-        <v>4212540000</v>
-      </c>
-      <c r="C246">
-        <v>4281232000</v>
-      </c>
-      <c r="D246" t="s">
+      <c r="E249">
+        <v>4285717</v>
+      </c>
+      <c r="F249" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="E246">
-        <v>4281232</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I246" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>4284492000</v>
-      </c>
-      <c r="B247">
-        <v>140168000</v>
-      </c>
-      <c r="C247">
-        <v>4284492000</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E247">
-        <v>4284492</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I247" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>4285717000</v>
-      </c>
-      <c r="B248">
-        <v>4285717000</v>
-      </c>
-      <c r="C248">
-        <v>4285717000</v>
-      </c>
-      <c r="D248" t="s">
-        <v>441</v>
-      </c>
-      <c r="E248">
-        <v>4285717</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>4286201000</v>
-      </c>
-      <c r="B249">
-        <v>4286201000</v>
-      </c>
-      <c r="C249">
-        <v>4286201000</v>
-      </c>
-      <c r="D249" t="s">
-        <v>443</v>
-      </c>
-      <c r="E249">
-        <v>4286201</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A250">
+        <v>4286201000</v>
+      </c>
+      <c r="B250">
+        <v>4286201000</v>
+      </c>
+      <c r="C250">
+        <v>4286201000</v>
+      </c>
+      <c r="D250" t="s">
+        <v>439</v>
+      </c>
+      <c r="E250">
+        <v>4286201</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>4290976000</v>
       </c>
-      <c r="B250">
+      <c r="B251">
         <v>4137275000</v>
       </c>
-      <c r="C250">
+      <c r="C251">
         <v>4290976000</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D251" t="s">
+        <v>441</v>
+      </c>
+      <c r="E251">
+        <v>4290976</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I251" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>4299535000</v>
+      </c>
+      <c r="B252">
+        <v>4299535000</v>
+      </c>
+      <c r="C252">
+        <v>4299535000</v>
+      </c>
+      <c r="D252" t="s">
+        <v>443</v>
+      </c>
+      <c r="E252">
+        <v>4299535</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>4306655000</v>
+      </c>
+      <c r="B253">
+        <v>4306655000</v>
+      </c>
+      <c r="C253">
+        <v>4306655000</v>
+      </c>
+      <c r="D253" t="s">
         <v>445</v>
       </c>
-      <c r="E250">
-        <v>4290976</v>
-      </c>
-      <c r="F250" s="1" t="s">
+      <c r="E253">
+        <v>4306655</v>
+      </c>
+      <c r="F253" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I250" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>4299535000</v>
-      </c>
-      <c r="B251">
-        <v>4299535000</v>
-      </c>
-      <c r="C251">
-        <v>4299535000</v>
-      </c>
-      <c r="D251" t="s">
+    </row>
+    <row r="254" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>4311499000</v>
+      </c>
+      <c r="B254">
+        <v>4311499000</v>
+      </c>
+      <c r="C254">
+        <v>4311499000</v>
+      </c>
+      <c r="D254" t="s">
         <v>447</v>
       </c>
-      <c r="E251">
-        <v>4299535</v>
-      </c>
-      <c r="F251" s="1" t="s">
+      <c r="E254">
+        <v>4311499</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>4306655000</v>
-      </c>
-      <c r="B252">
-        <v>4306655000</v>
-      </c>
-      <c r="C252">
-        <v>4306655000</v>
-      </c>
-      <c r="D252" t="s">
+      <c r="H254" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>4318985000</v>
+      </c>
+      <c r="B255">
+        <v>378416000</v>
+      </c>
+      <c r="C255">
+        <v>4318985000</v>
+      </c>
+      <c r="D255" t="s">
         <v>449</v>
       </c>
-      <c r="E252">
-        <v>4306655</v>
-      </c>
-      <c r="F252" s="1" t="s">
+      <c r="E255">
+        <v>4318985</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I255" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>4322024000</v>
+      </c>
+      <c r="B256">
+        <v>4322024000</v>
+      </c>
+      <c r="C256">
+        <v>4322024000</v>
+      </c>
+      <c r="D256" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>4311499000</v>
-      </c>
-      <c r="B253">
-        <v>4311499000</v>
-      </c>
-      <c r="C253">
-        <v>4311499000</v>
-      </c>
-      <c r="D253" t="s">
+      <c r="E256">
+        <v>4322024</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E253">
-        <v>4311499</v>
-      </c>
-      <c r="F253" s="1" t="s">
+      <c r="H256" t="s">
         <v>452</v>
-      </c>
-      <c r="H253" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>4318985000</v>
-      </c>
-      <c r="B254">
-        <v>378416000</v>
-      </c>
-      <c r="C254">
-        <v>4318985000</v>
-      </c>
-      <c r="D254" t="s">
-        <v>453</v>
-      </c>
-      <c r="E254">
-        <v>4318985</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I254" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>4322024000</v>
-      </c>
-      <c r="B255">
-        <v>4322024000</v>
-      </c>
-      <c r="C255">
-        <v>4322024000</v>
-      </c>
-      <c r="D255" t="s">
-        <v>454</v>
-      </c>
-      <c r="E255">
-        <v>4322024</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H255" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>4344489000</v>
-      </c>
-      <c r="B256">
-        <v>4137275000</v>
-      </c>
-      <c r="C256">
-        <v>4344489000</v>
-      </c>
-      <c r="D256" t="s">
-        <v>457</v>
-      </c>
-      <c r="E256">
-        <v>4344489</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I256" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A257">
+        <v>4344489000</v>
+      </c>
+      <c r="B257">
+        <v>4137275000</v>
+      </c>
+      <c r="C257">
+        <v>4344489000</v>
+      </c>
+      <c r="D257" t="s">
+        <v>453</v>
+      </c>
+      <c r="E257">
+        <v>4344489</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I257" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A258">
         <v>36712702000</v>
       </c>
-      <c r="B257">
+      <c r="B258">
         <v>36712702000</v>
       </c>
-      <c r="C257">
+      <c r="C258">
         <v>36712702000</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D258" t="s">
+        <v>454</v>
+      </c>
+      <c r="E258">
+        <v>36712702</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>37311061000</v>
+      </c>
+      <c r="B259">
+        <v>37311061000</v>
+      </c>
+      <c r="C259">
+        <v>37311061000</v>
+      </c>
+      <c r="D259" t="s">
+        <v>456</v>
+      </c>
+      <c r="E259">
+        <v>37311061</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>40479589000</v>
+      </c>
+      <c r="B260">
+        <v>321319000</v>
+      </c>
+      <c r="C260">
+        <v>40479589000</v>
+      </c>
+      <c r="D260" t="s">
         <v>458</v>
       </c>
-      <c r="E257">
-        <v>36712702</v>
-      </c>
-      <c r="F257" s="1" t="s">
+      <c r="E260">
+        <v>40479589</v>
+      </c>
+      <c r="F260" s="1" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>37311061000</v>
-      </c>
-      <c r="B258">
-        <v>37311061000</v>
-      </c>
-      <c r="C258">
-        <v>37311061000</v>
-      </c>
-      <c r="D258" t="s">
-        <v>460</v>
-      </c>
-      <c r="E258">
-        <v>37311061</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>40479589000</v>
-      </c>
-      <c r="B259">
-        <v>321319000</v>
-      </c>
-      <c r="C259">
-        <v>40479589000</v>
-      </c>
-      <c r="D259" t="s">
-        <v>462</v>
-      </c>
-      <c r="E259">
-        <v>40479589</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I259" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>40481901000</v>
-      </c>
-      <c r="B260">
-        <v>432571000</v>
-      </c>
-      <c r="C260">
-        <v>40481901000</v>
-      </c>
-      <c r="D260" t="s">
-        <v>464</v>
-      </c>
-      <c r="E260">
-        <v>40481901</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="I260" t="s">
         <v>22</v>
@@ -8229,212 +8245,235 @@
     </row>
     <row r="261" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A261">
+        <v>40481901000</v>
+      </c>
+      <c r="B261">
+        <v>432571000</v>
+      </c>
+      <c r="C261">
+        <v>40481901000</v>
+      </c>
+      <c r="D261" t="s">
+        <v>460</v>
+      </c>
+      <c r="E261">
+        <v>40481901</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I261" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A262">
         <v>40481902000</v>
       </c>
-      <c r="B261">
+      <c r="B262">
         <v>40481902000</v>
       </c>
-      <c r="C261">
+      <c r="C262">
         <v>40481902000</v>
       </c>
-      <c r="D261" t="s">
-        <v>465</v>
-      </c>
-      <c r="E261">
+      <c r="D262" t="s">
+        <v>461</v>
+      </c>
+      <c r="E262">
         <v>40481902</v>
       </c>
-      <c r="F261" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H261" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>40490918000</v>
-      </c>
-      <c r="B262">
-        <v>432571000</v>
-      </c>
-      <c r="C262">
-        <v>40490918000</v>
-      </c>
-      <c r="D262" t="s">
-        <v>468</v>
-      </c>
-      <c r="E262">
-        <v>40490918</v>
-      </c>
       <c r="F262" s="1" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="H262" t="s">
-        <v>24</v>
-      </c>
-      <c r="I262" t="s">
-        <v>22</v>
+        <v>463</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A263">
+        <v>40490918000</v>
+      </c>
+      <c r="B263">
+        <v>432571000</v>
+      </c>
+      <c r="C263">
+        <v>40490918000</v>
+      </c>
+      <c r="D263" t="s">
+        <v>464</v>
+      </c>
+      <c r="E263">
+        <v>40490918</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H263" t="s">
+        <v>24</v>
+      </c>
+      <c r="I263" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A264">
         <v>42535714000</v>
       </c>
-      <c r="B263">
+      <c r="B264">
         <v>4137275000</v>
       </c>
-      <c r="C263">
+      <c r="C264">
         <v>42535714000</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D264" t="s">
+        <v>465</v>
+      </c>
+      <c r="E264">
+        <v>42535714</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I264" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>43021132000</v>
+      </c>
+      <c r="B265">
+        <v>43021132000</v>
+      </c>
+      <c r="C265">
+        <v>43021132000</v>
+      </c>
+      <c r="D265" t="s">
+        <v>467</v>
+      </c>
+      <c r="E265">
+        <v>43021132</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>43021226000</v>
+      </c>
+      <c r="C266">
+        <v>43021226000</v>
+      </c>
+      <c r="D266" t="s">
+        <v>556</v>
+      </c>
+      <c r="E266">
+        <v>43021226</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H266" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>43530714000</v>
+      </c>
+      <c r="B267">
+        <v>4094294000</v>
+      </c>
+      <c r="C267">
+        <v>43530714000</v>
+      </c>
+      <c r="D267" t="s">
         <v>469</v>
       </c>
-      <c r="E263">
-        <v>42535714</v>
-      </c>
-      <c r="F263" s="1" t="s">
+      <c r="E267">
+        <v>43530714</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I267" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>44784217000</v>
+      </c>
+      <c r="B268">
+        <v>44784217000</v>
+      </c>
+      <c r="C268">
+        <v>44784217000</v>
+      </c>
+      <c r="D268" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="I263" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>43021132000</v>
-      </c>
-      <c r="B264">
-        <v>43021132000</v>
-      </c>
-      <c r="C264">
-        <v>43021132000</v>
-      </c>
-      <c r="D264" t="s">
+      <c r="E268">
+        <v>44784217</v>
+      </c>
+      <c r="F268" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E264">
-        <v>43021132</v>
-      </c>
-      <c r="F264" s="1" t="s">
+      <c r="H268" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B265">
-        <v>43021226000</v>
-      </c>
-      <c r="C265">
-        <v>43021226000</v>
-      </c>
-      <c r="D265" t="s">
-        <v>560</v>
-      </c>
-      <c r="E265">
-        <v>43021226</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H265" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>43530714000</v>
-      </c>
-      <c r="B266">
-        <v>4094294000</v>
-      </c>
-      <c r="C266">
-        <v>43530714000</v>
-      </c>
-      <c r="D266" t="s">
+    <row r="269" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>45763653000</v>
+      </c>
+      <c r="B269">
+        <v>45763653000</v>
+      </c>
+      <c r="C269">
+        <v>45763653000</v>
+      </c>
+      <c r="D269" t="s">
         <v>473</v>
       </c>
-      <c r="E266">
-        <v>43530714</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I266" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>44784217000</v>
-      </c>
-      <c r="B267">
-        <v>44784217000</v>
-      </c>
-      <c r="C267">
-        <v>44784217000</v>
-      </c>
-      <c r="D267" s="2" t="s">
+      <c r="E269">
+        <v>45763653</v>
+      </c>
+      <c r="F269" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E267">
-        <v>44784217</v>
-      </c>
-      <c r="F267" s="1" t="s">
+      <c r="H269" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>46271022000</v>
+      </c>
+      <c r="B270">
+        <v>4030518000</v>
+      </c>
+      <c r="C270">
+        <v>46271022000</v>
+      </c>
+      <c r="D270" t="s">
         <v>475</v>
       </c>
-      <c r="H267" t="s">
+      <c r="E270">
+        <v>46271022</v>
+      </c>
+      <c r="F270" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>45763653000</v>
-      </c>
-      <c r="B268">
-        <v>45763653000</v>
-      </c>
-      <c r="C268">
-        <v>45763653000</v>
-      </c>
-      <c r="D268" t="s">
-        <v>477</v>
-      </c>
-      <c r="E268">
-        <v>45763653</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H268" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>46271022000</v>
-      </c>
-      <c r="B269">
-        <v>4030518000</v>
-      </c>
-      <c r="C269">
-        <v>46271022000</v>
-      </c>
-      <c r="D269" t="s">
-        <v>479</v>
-      </c>
-      <c r="E269">
-        <v>46271022</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I269" t="s">
+      <c r="I270" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I269">
-    <sortState ref="A2:I269">
-      <sortCondition ref="C1:C269"/>
+  <autoFilter ref="A1:I270">
+    <sortState ref="A2:I270">
+      <sortCondition ref="C1:C270"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="564">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -523,9 +523,6 @@
   </si>
   <si>
     <t>Heart disease</t>
-  </si>
-  <si>
-    <t>Overview: Heart conditions that include diseased vessels, structural problems, and blood clot. Coronary heart disease (most common), arrhythmia, and myocardial infarction are some examples of heart disease. Also - congenital heart disease, dilated cardiomyopathy, heart faliure, Hypertrophic cardiomyopathy, mitral regurgitation, mitral valve prolapse, and pulmonary stenosis. Presentation: Common symptoms include chest pain, breathlessness, and heart palpitations. Nauseas, fatigue - may not have any symptoms until you have a heart attack, angina, stroke, or heart failure. Assessment: Physical exam, EKG, holter monitoring, echocardiogram, stress test, cardia catheterization, CT, CXR, MRIPlan: Medication (ACE inhibitors and ARBs (angiotensin II receptor blockers), surgery (angioplasty, coronary artery bypass surgery, surgery for heart valve repair, pacemakers), lifestyle changesPrognosis: One in every four deaths in the U.S. occurs as a result of heart disease. Most forms of heart disease are very treatable today.</t>
   </si>
   <si>
     <t>Otitis media</t>
@@ -1504,9 +1501,6 @@
     <t>To Do</t>
   </si>
   <si>
-    <t>Overview: [Deprecated in favor of arthropathy, ] Ankylosing spondylitis is a type of seronegative spondyloarthritis (arthritis - inflammation of joint, spondylo - central bones i.e. vertebra). It is called seronegative because it is negative for Rheumatoid Factor (i.e. rheumatoid arthritis). Seronegative spondyloarthritis also includes manifestations of psoriatic arthritis, reactive arthritis, IBD associated arthritis.Initial presentation: Gradually worsening chronic back pain in sacroiliac and apophyseal joints of spine, that are most commonly reported at night &lt;40 y/o, that improves with hot water/exercise/NSAIDS, but not relieved by rest. Assessment: There is no diagnostic test. Diagnosis is based on clinical judgment and elimination of other causes of spondyloarthritis. Best made by Rheumatologist. Commonly patients are confirmed to be negative for Rheumatoid factor and other autoantibodies. They are also tested for HLA-B27 because of a strong association. Plan: Symptom control: Physical therapy, NSAIDS, intraarticular corticosteroids, DMARDS. Slowing disease progression: anti-TNFs - adalimumab or infliximab; anti-IL17A (secukinumab, ixekizumab); Curative treatment: does not exist. Prognosis: This is a considered a life-long progressive debilitating illness, that may be slowed with certain treatments.</t>
-  </si>
-  <si>
     <t>Overview: [Deprecated in favor of Shock 201965000] Septicemia. Caused by the body's response to an infection. The body normally releases chemicals into the bloodstream to fight an infection. Sepsis occurs when the body's response to these chemicals is out of balance, triggering changes that can damage multiple organ systems. Stages = sepsis, severe sepsis, septic shockPresentation: fever (&gt; 101 F), or below 96.8 F; difficulty breathing, low blood pressure, fast heart rate, and mental confusion. damaged organs. Assessment: confirmed infection, abnormal WBC, CXR, CT, ultrasound, MRI; quick sequential organ failure Assessment: (qSOFA)= sepsis criteria (low BP, RR high, &amp; GCS &lt;15)Plan: Antibiotics, IVFs, vasoactive meds, insulin, corticosteroids Prognosis: Life-threatening, can result in death. Many people who survive will recover completely. Depends on the severity and preexisting conditions.</t>
   </si>
   <si>
@@ -1718,6 +1712,12 @@
   </si>
   <si>
     <t>Disorder of cellular component of blood (anemia, pancytopenia, leukopenia, thrombocytopenia)</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecate and delete] Heart conditions that include diseased vessels, structural problems, and blood clot. Coronary heart disease (most common), arrhythmia, and myocardial infarction are some examples of heart disease. Also - congenital heart disease, dilated cardiomyopathy, heart faliure, Hypertrophic cardiomyopathy, mitral regurgitation, mitral valve prolapse, and pulmonary stenosis. Presentation: Common symptoms include chest pain, breathlessness, and heart palpitations. Nauseas, fatigue - may not have any symptoms until you have a heart attack, angina, stroke, or heart failure. Assessment: Physical exam, EKG, holter monitoring, echocardiogram, stress test, cardia catheterization, CT, CXR, MRIPlan: Medication (ACE inhibitors and ARBs (angiotensin II receptor blockers), surgery (angioplasty, coronary artery bypass surgery, surgery for heart valve repair, pacemakers), lifestyle changesPrognosis: One in every four deaths in the U.S. occurs as a result of heart disease. Most forms of heart disease are very treatable today.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecated in favor of arthropathy, 73553000] Ankylosing spondylitis is a type of seronegative spondyloarthritis (arthritis - inflammation of joint, spondylo - central bones i.e. vertebra). It is called seronegative because it is negative for Rheumatoid Factor (i.e. rheumatoid arthritis). Seronegative spondyloarthritis also includes manifestations of psoriatic arthritis, reactive arthritis, IBD associated arthritis.Initial presentation: Gradually worsening chronic back pain in sacroiliac and apophyseal joints of spine, that are most commonly reported at night &lt;40 y/o, that improves with hot water/exercise/NSAIDS, but not relieved by rest. Assessment: There is no diagnostic test. Diagnosis is based on clinical judgment and elimination of other causes of spondyloarthritis. Best made by Rheumatologist. Commonly patients are confirmed to be negative for Rheumatoid factor and other autoantibodies. They are also tested for HLA-B27 because of a strong association. Plan: Symptom control: Physical therapy, NSAIDS, intraarticular corticosteroids, DMARDS. Slowing disease progression: anti-TNFs - adalimumab or infliximab; anti-IL17A (secukinumab, ixekizumab); Curative treatment: does not exist. Prognosis: This is a considered a life-long progressive debilitating illness, that may be slowed with certain treatments.</t>
   </si>
 </sst>
 </file>
@@ -2558,9 +2558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F277" sqref="F277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,7 +2621,7 @@
         <v>24134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2664,7 +2664,7 @@
         <v>27918</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2687,7 +2687,7 @@
         <v>30753</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -2710,7 +2710,7 @@
         <v>31317</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -2733,7 +2733,7 @@
         <v>31967</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -2776,10 +2776,10 @@
         <v>73553</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>75860</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -2845,7 +2845,7 @@
         <v>77074</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -2894,7 +2894,7 @@
         <v>80182</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>81893</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -3000,7 +3000,7 @@
         <v>81902</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,7 @@
         <v>132797</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -3106,7 +3106,7 @@
         <v>133169</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -3212,7 +3212,7 @@
         <v>137977</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -3275,7 +3275,7 @@
         <v>138994</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3361,7 +3361,7 @@
         <v>140352</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -3464,7 +3464,7 @@
         <v>192359</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -3550,7 +3550,7 @@
         <v>194133</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3593,7 +3593,7 @@
         <v>194992</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3616,7 +3616,7 @@
         <v>196523</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3791,7 +3791,7 @@
         <v>200219</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3863,7 +3863,7 @@
         <v>201254</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3886,7 +3886,7 @@
         <v>201340</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3909,7 +3909,7 @@
         <v>201606</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3943,16 +3943,16 @@
         <v>201820000</v>
       </c>
       <c r="D63" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E63">
         <v>201820</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
         <v>201826</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -4038,7 +4038,7 @@
         <v>254761</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -4144,7 +4144,7 @@
         <v>312327</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -4167,7 +4167,7 @@
         <v>312437</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -4210,7 +4210,7 @@
         <v>313217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -4233,7 +4233,7 @@
         <v>313223</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -4256,7 +4256,7 @@
         <v>313459</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>317009</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -4408,7 +4408,7 @@
         <v>317576</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4563,7 +4563,7 @@
         <v>321042</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H91" t="s">
         <v>24</v>
@@ -4612,7 +4612,7 @@
         <v>321318</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -4643,7 +4643,7 @@
         <v>321588000</v>
       </c>
       <c r="B95">
-        <v>321588000</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>321588000</v>
@@ -4655,10 +4655,13 @@
         <v>321588</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>167</v>
+        <v>562</v>
       </c>
       <c r="H95" t="s">
         <v>24</v>
+      </c>
+      <c r="I95" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4672,13 +4675,13 @@
         <v>372328000</v>
       </c>
       <c r="D96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E96">
         <v>372328</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4692,13 +4695,13 @@
         <v>373503000</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E97">
         <v>373503</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
@@ -4715,16 +4718,16 @@
         <v>374021000</v>
       </c>
       <c r="D98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E98">
         <v>374021</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H98" t="s">
         <v>172</v>
-      </c>
-      <c r="H98" t="s">
-        <v>173</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -4741,13 +4744,13 @@
         <v>374028000</v>
       </c>
       <c r="D99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E99">
         <v>374028</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -4764,13 +4767,13 @@
         <v>374366000</v>
       </c>
       <c r="D100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E100">
         <v>374366</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4784,13 +4787,13 @@
         <v>374377000</v>
       </c>
       <c r="D101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E101">
         <v>374377</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H101" t="s">
         <v>24</v>
@@ -4810,13 +4813,13 @@
         <v>374919000</v>
       </c>
       <c r="D102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E102">
         <v>374919</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -4833,13 +4836,13 @@
         <v>374954000</v>
       </c>
       <c r="D103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E103">
         <v>374954</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -4856,13 +4859,13 @@
         <v>375801000</v>
       </c>
       <c r="D104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E104">
         <v>375801</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4876,13 +4879,13 @@
         <v>375806000</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E105">
         <v>375806</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4896,13 +4899,13 @@
         <v>376713000</v>
       </c>
       <c r="D106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E106">
         <v>376713</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
@@ -4919,16 +4922,16 @@
         <v>377091000</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E107">
         <v>377091</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H107" t="s">
         <v>189</v>
-      </c>
-      <c r="H107" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4942,13 +4945,13 @@
         <v>378135000</v>
       </c>
       <c r="D108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E108">
         <v>378135</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="315" x14ac:dyDescent="0.25">
@@ -4962,16 +4965,16 @@
         <v>378143000</v>
       </c>
       <c r="D109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E109">
         <v>378143</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H109" t="s">
         <v>194</v>
-      </c>
-      <c r="H109" t="s">
-        <v>195</v>
       </c>
       <c r="I109" t="s">
         <v>22</v>
@@ -4988,13 +4991,13 @@
         <v>378253000</v>
       </c>
       <c r="D110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E110">
         <v>378253</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -5011,13 +5014,13 @@
         <v>378414000</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E111">
         <v>378414</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -5034,13 +5037,13 @@
         <v>378416000</v>
       </c>
       <c r="D112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E112">
         <v>378416</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5054,13 +5057,13 @@
         <v>378419000</v>
       </c>
       <c r="D113" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E113">
         <v>378419</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5074,13 +5077,13 @@
         <v>380378000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E114">
         <v>380378</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -5097,13 +5100,13 @@
         <v>381009000</v>
       </c>
       <c r="D115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E115">
         <v>381009</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
@@ -5120,13 +5123,13 @@
         <v>381114000</v>
       </c>
       <c r="D116" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E116">
         <v>381114</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5140,13 +5143,13 @@
         <v>381270000</v>
       </c>
       <c r="D117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E117">
         <v>381270</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5160,13 +5163,13 @@
         <v>381316000</v>
       </c>
       <c r="D118" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E118">
         <v>381316</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I118" t="s">
         <v>22</v>
@@ -5183,16 +5186,16 @@
         <v>381591000</v>
       </c>
       <c r="D119" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E119">
         <v>381591</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H119" t="s">
         <v>212</v>
-      </c>
-      <c r="H119" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5206,13 +5209,13 @@
         <v>432571000</v>
       </c>
       <c r="D120" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E120">
         <v>432571000</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5226,16 +5229,16 @@
         <v>432585000</v>
       </c>
       <c r="D121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E121">
         <v>432585</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H121" t="s">
         <v>215</v>
-      </c>
-      <c r="H121" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5249,13 +5252,13 @@
         <v>432595000</v>
       </c>
       <c r="D122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E122">
         <v>432595</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5269,13 +5272,13 @@
         <v>432791000</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E123">
         <v>432791</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I123" t="s">
         <v>22</v>
@@ -5292,13 +5295,13 @@
         <v>432867000</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E124">
         <v>432867</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5312,13 +5315,13 @@
         <v>432870000</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E125">
         <v>432870</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I125" t="s">
         <v>22</v>
@@ -5335,13 +5338,13 @@
         <v>432881000</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E126">
         <v>432881</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I126" t="s">
         <v>22</v>
@@ -5358,13 +5361,13 @@
         <v>432893000</v>
       </c>
       <c r="D127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E127">
         <v>432893</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -5381,13 +5384,13 @@
         <v>433595000</v>
       </c>
       <c r="D128" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E128">
         <v>433595</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -5404,13 +5407,13 @@
         <v>433736000</v>
       </c>
       <c r="D129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E129">
         <v>433736</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5424,13 +5427,13 @@
         <v>434119000</v>
       </c>
       <c r="D130" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E130">
         <v>434119</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5444,13 +5447,13 @@
         <v>434557000</v>
       </c>
       <c r="D131" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E131">
         <v>434557</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5464,13 +5467,13 @@
         <v>434584000</v>
       </c>
       <c r="D132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E132">
         <v>434584</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -5484,13 +5487,13 @@
         <v>434592000</v>
       </c>
       <c r="D133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E133">
         <v>434592</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -5507,13 +5510,13 @@
         <v>434610000</v>
       </c>
       <c r="D134" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E134">
         <v>434610</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5527,13 +5530,13 @@
         <v>434821000</v>
       </c>
       <c r="D135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E135">
         <v>434821</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I135" t="s">
         <v>22</v>
@@ -5550,13 +5553,13 @@
         <v>435224000</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E136">
         <v>435224</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I136" t="s">
         <v>22</v>
@@ -5573,13 +5576,13 @@
         <v>435783000</v>
       </c>
       <c r="D137" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E137">
         <v>435783</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -5593,13 +5596,13 @@
         <v>435785000</v>
       </c>
       <c r="D138" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E138">
         <v>435785</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I138" t="s">
         <v>22</v>
@@ -5616,13 +5619,13 @@
         <v>436073000</v>
       </c>
       <c r="D139" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E139">
         <v>436073</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5636,16 +5639,16 @@
         <v>436081000</v>
       </c>
       <c r="D140" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E140">
         <v>436081</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H140" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5659,13 +5662,13 @@
         <v>436096000</v>
       </c>
       <c r="D141" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E141">
         <v>436096</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I141" t="s">
         <v>22</v>
@@ -5682,13 +5685,13 @@
         <v>436100000</v>
       </c>
       <c r="D142" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E142">
         <v>436100</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5702,13 +5705,13 @@
         <v>436235000</v>
       </c>
       <c r="D143" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E143">
         <v>4307095</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I143" t="s">
         <v>22</v>
@@ -5725,13 +5728,13 @@
         <v>436642000</v>
       </c>
       <c r="D144" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E144">
         <v>436642</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I144" t="s">
         <v>22</v>
@@ -5748,13 +5751,13 @@
         <v>436665000</v>
       </c>
       <c r="D145" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E145">
         <v>436665</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5768,13 +5771,13 @@
         <v>436676000</v>
       </c>
       <c r="D146" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E146">
         <v>436676</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5788,13 +5791,13 @@
         <v>436962000</v>
       </c>
       <c r="D147" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E147">
         <v>436962</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I147" t="s">
         <v>22</v>
@@ -5811,13 +5814,13 @@
         <v>437082000</v>
       </c>
       <c r="D148" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E148">
         <v>437082</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
       <c r="I148" t="s">
         <v>22</v>
@@ -5834,13 +5837,13 @@
         <v>437222000</v>
       </c>
       <c r="D149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E149">
         <v>437222</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5854,13 +5857,13 @@
         <v>437233000</v>
       </c>
       <c r="D150" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E150">
         <v>437233</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I150" t="s">
         <v>22</v>
@@ -5877,13 +5880,13 @@
         <v>437312000</v>
       </c>
       <c r="D151" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E151">
         <v>437312</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I151" t="s">
         <v>22</v>
@@ -5900,13 +5903,13 @@
         <v>437541000</v>
       </c>
       <c r="D152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E152">
         <v>437541</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5920,16 +5923,16 @@
         <v>437663000</v>
       </c>
       <c r="D153" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E153">
         <v>437663</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H153" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I153" t="s">
         <v>22</v>
@@ -5946,13 +5949,13 @@
         <v>437833000</v>
       </c>
       <c r="D154" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E154">
         <v>437833</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5966,13 +5969,13 @@
         <v>438120000</v>
       </c>
       <c r="D155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E155">
         <v>438120</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5986,13 +5989,13 @@
         <v>438130000</v>
       </c>
       <c r="D156" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E156">
         <v>438130</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6006,13 +6009,13 @@
         <v>438409000</v>
       </c>
       <c r="D157" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E157">
         <v>438409</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -6026,13 +6029,13 @@
         <v>439393000</v>
       </c>
       <c r="D158" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E158">
         <v>439393</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6046,13 +6049,13 @@
         <v>439727000</v>
       </c>
       <c r="D159" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E159">
         <v>439727</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6072,7 +6075,7 @@
         <v>439776</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6086,16 +6089,16 @@
         <v>439777000</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E161">
         <v>439777</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H161" t="s">
         <v>286</v>
-      </c>
-      <c r="H161" t="s">
-        <v>287</v>
       </c>
       <c r="I161" t="s">
         <v>22</v>
@@ -6112,13 +6115,13 @@
         <v>439842000</v>
       </c>
       <c r="D162" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E162">
         <v>439842</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6132,13 +6135,13 @@
         <v>440377000</v>
       </c>
       <c r="D163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E163">
         <v>440377</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H163" t="s">
         <v>24</v>
@@ -6158,13 +6161,13 @@
         <v>440383000</v>
       </c>
       <c r="D164" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E164">
         <v>440383</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -6178,13 +6181,13 @@
         <v>440417000</v>
       </c>
       <c r="D165" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E165">
         <v>440417</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6198,13 +6201,13 @@
         <v>440674000</v>
       </c>
       <c r="D166" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E166">
         <v>440674</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6218,13 +6221,13 @@
         <v>440703000</v>
       </c>
       <c r="D167" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E167">
         <v>440703</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6238,13 +6241,13 @@
         <v>440740000</v>
       </c>
       <c r="D168" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E168">
         <v>440740</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I168" t="s">
         <v>22</v>
@@ -6261,13 +6264,13 @@
         <v>440925000</v>
       </c>
       <c r="D169" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E169">
         <v>440925</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6281,13 +6284,13 @@
         <v>440940000</v>
       </c>
       <c r="D170" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E170">
         <v>440940</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6301,13 +6304,13 @@
         <v>441202000</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E171">
         <v>441202</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I171" t="s">
         <v>22</v>
@@ -6324,13 +6327,13 @@
         <v>441284000</v>
       </c>
       <c r="D172" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E172">
         <v>441284</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6344,13 +6347,13 @@
         <v>441408000</v>
       </c>
       <c r="D173" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E173">
         <v>441408</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I173" t="s">
         <v>22</v>
@@ -6367,13 +6370,13 @@
         <v>441542000</v>
       </c>
       <c r="D174" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E174">
         <v>441542</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I174" t="s">
         <v>22</v>
@@ -6390,13 +6393,13 @@
         <v>441788000</v>
       </c>
       <c r="D175" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E175">
         <v>441788</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6410,13 +6413,13 @@
         <v>441848000</v>
       </c>
       <c r="D176" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E176">
         <v>441848</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I176" t="s">
         <v>22</v>
@@ -6433,13 +6436,13 @@
         <v>442752000</v>
       </c>
       <c r="D177" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E177">
         <v>442752</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I177" t="s">
         <v>22</v>
@@ -6456,13 +6459,13 @@
         <v>443213000</v>
       </c>
       <c r="D178" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E178">
         <v>443213</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6476,13 +6479,13 @@
         <v>443387000</v>
       </c>
       <c r="D179" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E179">
         <v>443387</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6496,13 +6499,13 @@
         <v>443392000</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E180">
         <v>443392</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6516,13 +6519,13 @@
         <v>443454000</v>
       </c>
       <c r="D181" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E181">
         <v>443454</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I181" t="s">
         <v>22</v>
@@ -6539,13 +6542,13 @@
         <v>443700000</v>
       </c>
       <c r="D182" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E182">
         <v>443700</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6559,13 +6562,13 @@
         <v>443723000</v>
       </c>
       <c r="D183" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E183">
         <v>443723</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6579,13 +6582,13 @@
         <v>443727000</v>
       </c>
       <c r="D184" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E184">
         <v>443727</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I184" t="s">
         <v>22</v>
@@ -6602,13 +6605,13 @@
         <v>444044000</v>
       </c>
       <c r="D185" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E185">
         <v>444044</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I185" t="s">
         <v>22</v>
@@ -6625,13 +6628,13 @@
         <v>444070000</v>
       </c>
       <c r="D186" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E186">
         <v>444070</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I186" t="s">
         <v>22</v>
@@ -6648,13 +6651,13 @@
         <v>444247000</v>
       </c>
       <c r="D187" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E187">
         <v>444247</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6668,13 +6671,13 @@
         <v>444429000</v>
       </c>
       <c r="D188" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E188">
         <v>444429</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6688,16 +6691,16 @@
         <v>4000634000</v>
       </c>
       <c r="D189" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E189">
         <v>4000634</v>
       </c>
       <c r="F189" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H189" t="s">
         <v>334</v>
-      </c>
-      <c r="H189" t="s">
-        <v>335</v>
       </c>
       <c r="I189" t="s">
         <v>22</v>
@@ -6714,13 +6717,13 @@
         <v>4002359000</v>
       </c>
       <c r="D190" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E190">
         <v>4002359</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I190" t="s">
         <v>22</v>
@@ -6737,13 +6740,13 @@
         <v>4013643000</v>
       </c>
       <c r="D191" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E191">
         <v>4013643</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6757,16 +6760,16 @@
         <v>4024659000</v>
       </c>
       <c r="D192" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E192">
         <v>4024659</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H192" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I192" t="s">
         <v>22</v>
@@ -6783,13 +6786,13 @@
         <v>4027537000</v>
       </c>
       <c r="D193" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E193">
         <v>4027537</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6803,13 +6806,13 @@
         <v>4028363000</v>
       </c>
       <c r="D194" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E194">
         <v>4028363</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="375" x14ac:dyDescent="0.25">
@@ -6823,13 +6826,13 @@
         <v>4030518000</v>
       </c>
       <c r="D195" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E195">
         <v>4030518</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6843,13 +6846,13 @@
         <v>4038838000</v>
       </c>
       <c r="D196" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E196">
         <v>4038838</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I196" t="s">
         <v>22</v>
@@ -6863,16 +6866,16 @@
         <v>4043371000</v>
       </c>
       <c r="D197" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E197">
         <v>4043371</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H197" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6886,13 +6889,13 @@
         <v>4046338000</v>
       </c>
       <c r="D198" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E198">
         <v>4046338</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -6906,13 +6909,13 @@
         <v>4058821000</v>
       </c>
       <c r="D199" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E199">
         <v>4058821</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -6929,13 +6932,13 @@
         <v>4063434000</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E200">
         <v>4063434</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I200" t="s">
         <v>22</v>
@@ -6952,13 +6955,13 @@
         <v>4064161000</v>
       </c>
       <c r="D201" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E201">
         <v>4064161</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I201" t="s">
         <v>22</v>
@@ -6975,13 +6978,13 @@
         <v>4067106000</v>
       </c>
       <c r="D202" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E202">
         <v>4067106</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6995,16 +6998,16 @@
         <v>4070552000</v>
       </c>
       <c r="D203" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E203">
         <v>4070552</v>
       </c>
       <c r="F203" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H203" t="s">
         <v>358</v>
-      </c>
-      <c r="H203" t="s">
-        <v>359</v>
       </c>
       <c r="I203" t="s">
         <v>22</v>
@@ -7021,13 +7024,13 @@
         <v>4074815000</v>
       </c>
       <c r="D204" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E204">
         <v>4074815</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I204" t="s">
         <v>22</v>
@@ -7044,13 +7047,13 @@
         <v>4079843000</v>
       </c>
       <c r="D205" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E205">
         <v>4079843</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I205" t="s">
         <v>22</v>
@@ -7067,13 +7070,13 @@
         <v>4091559000</v>
       </c>
       <c r="D206" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E206">
         <v>4091559</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I206" t="s">
         <v>22</v>
@@ -7090,13 +7093,13 @@
         <v>4092289000</v>
       </c>
       <c r="D207" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E207">
         <v>4092289</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7110,13 +7113,13 @@
         <v>4094294000</v>
       </c>
       <c r="D208" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E208">
         <v>4094294</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7130,13 +7133,13 @@
         <v>4098292000</v>
       </c>
       <c r="D209" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E209">
         <v>4098292</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7150,13 +7153,13 @@
         <v>4098597000</v>
       </c>
       <c r="D210" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E210">
         <v>4098597</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I210" t="s">
         <v>22</v>
@@ -7173,13 +7176,13 @@
         <v>4101602000</v>
       </c>
       <c r="D211" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E211">
         <v>4101602</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I211" t="s">
         <v>22</v>
@@ -7196,13 +7199,13 @@
         <v>4103295000</v>
       </c>
       <c r="D212" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E212">
         <v>4103295</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I212" t="s">
         <v>22</v>
@@ -7219,13 +7222,13 @@
         <v>4112853000</v>
       </c>
       <c r="D213" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E213">
         <v>4112853</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7239,13 +7242,13 @@
         <v>4124836000</v>
       </c>
       <c r="D214" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E214">
         <v>4124836</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I214" t="s">
         <v>22</v>
@@ -7262,13 +7265,13 @@
         <v>4131909000</v>
       </c>
       <c r="D215" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E215">
         <v>4131909</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -7282,13 +7285,13 @@
         <v>4133004000</v>
       </c>
       <c r="D216" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E216">
         <v>4133004</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -7302,13 +7305,13 @@
         <v>4137275000</v>
       </c>
       <c r="D217" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E217">
         <v>4137275</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="195" x14ac:dyDescent="0.25">
@@ -7322,16 +7325,16 @@
         <v>4138837000</v>
       </c>
       <c r="D218" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E218">
         <v>4138837</v>
       </c>
       <c r="F218" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H218" t="s">
         <v>384</v>
-      </c>
-      <c r="H218" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -7345,13 +7348,13 @@
         <v>4139034000</v>
       </c>
       <c r="D219" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E219">
         <v>4139034</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H219" t="s">
         <v>24</v>
@@ -7368,13 +7371,13 @@
         <v>4147411000</v>
       </c>
       <c r="D220" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E220">
         <v>4147411</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I220" t="s">
         <v>22</v>
@@ -7391,13 +7394,13 @@
         <v>4163261000</v>
       </c>
       <c r="D221" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E221">
         <v>4163261</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -7411,13 +7414,13 @@
         <v>4164770000</v>
       </c>
       <c r="D222" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E222">
         <v>4164770</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -7431,13 +7434,13 @@
         <v>4169095000</v>
       </c>
       <c r="D223" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E223">
         <v>4169095</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I223" t="s">
         <v>22</v>
@@ -7454,13 +7457,13 @@
         <v>4174977000</v>
       </c>
       <c r="D224" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E224">
         <v>4174977</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I224" t="s">
         <v>22</v>
@@ -7474,13 +7477,13 @@
         <v>4175485000</v>
       </c>
       <c r="D225" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E225">
         <v>4175485</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7494,13 +7497,13 @@
         <v>4180790000</v>
       </c>
       <c r="D226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E226">
         <v>4180790</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7514,13 +7517,13 @@
         <v>4181343000</v>
       </c>
       <c r="D227" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E227">
         <v>4181343</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7534,13 +7537,13 @@
         <v>4181351000</v>
       </c>
       <c r="D228" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E228">
         <v>4181351</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -7554,13 +7557,13 @@
         <v>4182210000</v>
       </c>
       <c r="D229" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E229">
         <v>4182210</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -7574,16 +7577,16 @@
         <v>4182711000</v>
       </c>
       <c r="D230" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E230">
         <v>4182711</v>
       </c>
       <c r="F230" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H230" t="s">
         <v>404</v>
-      </c>
-      <c r="H230" t="s">
-        <v>405</v>
       </c>
       <c r="I230" t="s">
         <v>22</v>
@@ -7600,13 +7603,13 @@
         <v>4185711000</v>
       </c>
       <c r="D231" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E231">
         <v>4185711</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I231" t="s">
         <v>22</v>
@@ -7623,13 +7626,13 @@
         <v>4185932000</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E232">
         <v>4185932</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7643,13 +7646,13 @@
         <v>4190307000</v>
       </c>
       <c r="D233" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E233">
         <v>4190307</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -7663,16 +7666,16 @@
         <v>4195694000</v>
       </c>
       <c r="D234" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E234">
         <v>4195694</v>
       </c>
       <c r="F234" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H234" t="s">
         <v>409</v>
-      </c>
-      <c r="H234" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -7686,13 +7689,13 @@
         <v>4201096000</v>
       </c>
       <c r="D235" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E235">
         <v>4201096</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I235" t="s">
         <v>22</v>
@@ -7709,13 +7712,13 @@
         <v>4212540000</v>
       </c>
       <c r="D236" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E236">
         <v>4212540</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -7729,13 +7732,13 @@
         <v>4223659000</v>
       </c>
       <c r="D237" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E237">
         <v>4223659</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I237" t="s">
         <v>22</v>
@@ -7752,13 +7755,13 @@
         <v>4236484000</v>
       </c>
       <c r="D238" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E238">
         <v>4236484</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -7772,13 +7775,13 @@
         <v>4245975000</v>
       </c>
       <c r="D239" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E239">
         <v>4245975</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7792,13 +7795,13 @@
         <v>4246127000</v>
       </c>
       <c r="D240" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E240">
         <v>4246127</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H240" t="s">
         <v>24</v>
@@ -7815,13 +7818,13 @@
         <v>4253901000</v>
       </c>
       <c r="D241" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E241">
         <v>4253901</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I241" t="s">
         <v>22</v>
@@ -7838,16 +7841,16 @@
         <v>4256228000</v>
       </c>
       <c r="D242" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E242">
         <v>4256228</v>
       </c>
       <c r="F242" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H242" t="s">
         <v>425</v>
-      </c>
-      <c r="H242" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -7861,16 +7864,16 @@
         <v>4260535000</v>
       </c>
       <c r="D243" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E243">
         <v>4260535</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H243" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I243" t="s">
         <v>22</v>
@@ -7887,13 +7890,13 @@
         <v>4266367000</v>
       </c>
       <c r="D244" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E244">
         <v>4266367</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7907,13 +7910,13 @@
         <v>4272240000</v>
       </c>
       <c r="D245" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E245">
         <v>4272240</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I245" t="s">
         <v>22</v>
@@ -7930,13 +7933,13 @@
         <v>4273391000</v>
       </c>
       <c r="D246" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E246">
         <v>4273391</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7950,13 +7953,13 @@
         <v>4281232000</v>
       </c>
       <c r="D247" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E247">
         <v>4281232</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I247" t="s">
         <v>22</v>
@@ -7973,13 +7976,13 @@
         <v>4284492000</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E248">
         <v>4284492</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I248" t="s">
         <v>22</v>
@@ -7996,13 +7999,13 @@
         <v>4285717000</v>
       </c>
       <c r="D249" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E249">
         <v>4285717</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -8016,13 +8019,13 @@
         <v>4286201000</v>
       </c>
       <c r="D250" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E250">
         <v>4286201</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -8036,13 +8039,13 @@
         <v>4290976000</v>
       </c>
       <c r="D251" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E251">
         <v>4290976</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I251" t="s">
         <v>22</v>
@@ -8059,13 +8062,13 @@
         <v>4299535000</v>
       </c>
       <c r="D252" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E252">
         <v>4299535</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -8079,13 +8082,13 @@
         <v>4306655000</v>
       </c>
       <c r="D253" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E253">
         <v>4306655</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8099,13 +8102,13 @@
         <v>4311499000</v>
       </c>
       <c r="D254" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E254">
         <v>4311499</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H254" t="s">
         <v>24</v>
@@ -8122,13 +8125,13 @@
         <v>4318985000</v>
       </c>
       <c r="D255" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E255">
         <v>4318985</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I255" t="s">
         <v>22</v>
@@ -8145,16 +8148,16 @@
         <v>4322024000</v>
       </c>
       <c r="D256" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E256">
         <v>4322024</v>
       </c>
       <c r="F256" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H256" t="s">
         <v>451</v>
-      </c>
-      <c r="H256" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -8168,13 +8171,13 @@
         <v>4344489000</v>
       </c>
       <c r="D257" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E257">
         <v>4344489</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I257" t="s">
         <v>22</v>
@@ -8191,13 +8194,13 @@
         <v>36712702000</v>
       </c>
       <c r="D258" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E258">
         <v>36712702</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -8211,13 +8214,13 @@
         <v>37311061000</v>
       </c>
       <c r="D259" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E259">
         <v>37311061</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -8231,13 +8234,13 @@
         <v>40479589000</v>
       </c>
       <c r="D260" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E260">
         <v>40479589</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I260" t="s">
         <v>22</v>
@@ -8254,13 +8257,13 @@
         <v>40481901000</v>
       </c>
       <c r="D261" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E261">
         <v>40481901</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I261" t="s">
         <v>22</v>
@@ -8277,16 +8280,16 @@
         <v>40481902000</v>
       </c>
       <c r="D262" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E262">
         <v>40481902</v>
       </c>
       <c r="F262" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H262" t="s">
         <v>462</v>
-      </c>
-      <c r="H262" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8300,13 +8303,13 @@
         <v>40490918000</v>
       </c>
       <c r="D263" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E263">
         <v>40490918</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H263" t="s">
         <v>24</v>
@@ -8326,13 +8329,13 @@
         <v>42535714000</v>
       </c>
       <c r="D264" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E264">
         <v>42535714</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I264" t="s">
         <v>22</v>
@@ -8349,13 +8352,13 @@
         <v>43021132000</v>
       </c>
       <c r="D265" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E265">
         <v>43021132</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -8366,16 +8369,16 @@
         <v>43021226000</v>
       </c>
       <c r="D266" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E266">
         <v>43021226</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H266" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8389,13 +8392,13 @@
         <v>43530714000</v>
       </c>
       <c r="D267" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E267">
         <v>43530714</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I267" t="s">
         <v>22</v>
@@ -8412,16 +8415,16 @@
         <v>44784217000</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E268">
         <v>44784217</v>
       </c>
       <c r="F268" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H268" t="s">
         <v>471</v>
-      </c>
-      <c r="H268" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -8435,13 +8438,13 @@
         <v>45763653000</v>
       </c>
       <c r="D269" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E269">
         <v>45763653</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H269" t="s">
         <v>24</v>
@@ -8458,13 +8461,13 @@
         <v>46271022000</v>
       </c>
       <c r="D270" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E270">
         <v>46271022</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I270" t="s">
         <v>22</v>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -15,14 +15,14 @@
     <sheet name="PhenotypeDescription" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$271</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="565">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>Myocarditis</t>
-  </si>
-  <si>
-    <t>Overview: Inflammatory disease of the myocardium (heart muscle) due to infectious or non infectious (autoimmune disease, drug hypersensitivity, toxins). Acute myocarditis is a condition with symptoms of heart failure developing over three months or less. Chronic myocarditis is myocarditis developing over greater than three months. Inflammatory cardiomyopathy is defined as myocarditis that is accompanied by cardiac dysfunction, and may lead to dilated cardiomyopathy or other cardiomyopathies. Presentation: Chest pain, fatigue, heart failure, cardiogenic shock, arrhythmias, sudden death. Assessment: ECG, CBC (to evaluate for eosinophilic myocarditis), serum troponin, BNP or pro BNP, chest X ray, cardiac imaging (echocardiogram, angiogram, MRI). As last resort biopsy of the heart muscle. Plan: Treat underlying cause (antibiotics for bacterial infection, withdrawal of toxins) management of heart failure if present, critical care as appropriate, treatment of arrhythmias, anticoagulation if needed. Prognosis: Variable, from self-limited to death.</t>
   </si>
   <si>
     <t>Heart failure</t>
@@ -1177,9 +1174,6 @@
     <t>Pericarditis</t>
   </si>
   <si>
-    <t>Overview: Inflammation of the pericardial fibroelastic sac - classified into five subtypes, Acute and recurrent pericarditis, Pericardial effusion without major hemodynamic compromise, Cardiac tamponade with hemodynamic compromise, Constrictive pericarditis, Effusive-constrictive pericarditis. If myocardial inflammation is also present  then the term myopericarditis or perimyocarditis is used. Presentation: Sharp chest pain improved by sitting up and leaning forward. If pericardiatis is due to infection, fever may be present. Assessment: Auscultation for pericardial friction rub; ECG showing widespread ST elevations, chest x ray, cardiac markers (troponin) elevation, pericardiocentesis/pericardial biopsy, CBC, sed rate, CRP, echocardiography. Blood cultures for fever, rheumatology workup in young women. Plan: NSAIDs (nonsteroidal anti-inflammatory drugs) with colchicine or aspirin. If this treatment fails, further workup needed to rule out atypical forms of pericarditis including tuberculosis, cancer, and inflammatory disease. Most low risk patients may be managed in ambulatory settings, high risk patients need to be hospitalized. High risk features include fever, sub-acute onset, hemodynamic compromise/cardiac tamponade, immunosuppression, on anticoagulant therapy, acute trauma, elevated cardiac enzymes. Prognosis: Patients with acute idiopathic or viral pericarditis have a good long-term prognosis - typically self-limited over 2 weeks with NSAID treatment resulting in good long-term prognosis. Cardiac tamponade rarely occurs in patients with acute idiopathic pericarditis and is more common in patients with a specific underlying etiology such as malignancy, tuberculosis, or purulent pericarditis. Constrictive pericarditis may occur in approximately 1 percent of patients with acute idiopathic pericarditis and is also more common in patients with a specific etiology.</t>
-  </si>
-  <si>
     <t>cohort definition for each subtype</t>
   </si>
   <si>
@@ -1718,6 +1712,15 @@
   </si>
   <si>
     <t>Overview: [Deprecated in favor of arthropathy, 73553000] Ankylosing spondylitis is a type of seronegative spondyloarthritis (arthritis - inflammation of joint, spondylo - central bones i.e. vertebra). It is called seronegative because it is negative for Rheumatoid Factor (i.e. rheumatoid arthritis). Seronegative spondyloarthritis also includes manifestations of psoriatic arthritis, reactive arthritis, IBD associated arthritis.Initial presentation: Gradually worsening chronic back pain in sacroiliac and apophyseal joints of spine, that are most commonly reported at night &lt;40 y/o, that improves with hot water/exercise/NSAIDS, but not relieved by rest. Assessment: There is no diagnostic test. Diagnosis is based on clinical judgment and elimination of other causes of spondyloarthritis. Best made by Rheumatologist. Commonly patients are confirmed to be negative for Rheumatoid factor and other autoantibodies. They are also tested for HLA-B27 because of a strong association. Plan: Symptom control: Physical therapy, NSAIDS, intraarticular corticosteroids, DMARDS. Slowing disease progression: anti-TNFs - adalimumab or infliximab; anti-IL17A (secukinumab, ixekizumab); Curative treatment: does not exist. Prognosis: This is a considered a life-long progressive debilitating illness, that may be slowed with certain treatments.</t>
+  </si>
+  <si>
+    <t>Inflammatory of disorder of mediastinum</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecate in favor of Inflammatory disorder of mediastinum 4189294000] Inflammatory disease of the myocardium (heart muscle) due to infectious or non infectious (autoimmune disease, drug hypersensitivity, toxins). Acute myocarditis is a condition with symptoms of heart failure developing over three months or less. Chronic myocarditis is myocarditis developing over greater than three months. Inflammatory cardiomyopathy is defined as myocarditis that is accompanied by cardiac dysfunction, and may lead to dilated cardiomyopathy or other cardiomyopathies. Presentation: Chest pain, fatigue, heart failure, cardiogenic shock, arrhythmias, sudden death. Assessment: ECG, CBC (to evaluate for eosinophilic myocarditis), serum troponin, BNP or pro BNP, chest X ray, cardiac imaging (echocardiogram, angiogram, MRI). As last resort biopsy of the heart muscle. Plan: Treat underlying cause (antibiotics for bacterial infection, withdrawal of toxins) management of heart failure if present, critical care as appropriate, treatment of arrhythmias, anticoagulation if needed. Prognosis: Variable, from self-limited to death.</t>
+  </si>
+  <si>
+    <t>Overview: [Deprecate in favor of Inflammatory disorder of mediastinum 4189294000] Inflammation of the pericardial fibroelastic sac - classified into five subtypes, Acute and recurrent pericarditis, Pericardial effusion without major hemodynamic compromise, Cardiac tamponade with hemodynamic compromise, Constrictive pericarditis, Effusive-constrictive pericarditis. If myocardial inflammation is also present  then the term myopericarditis or perimyocarditis is used. Presentation: Sharp chest pain improved by sitting up and leaning forward. If pericardiatis is due to infection, fever may be present. Assessment: Auscultation for pericardial friction rub; ECG showing widespread ST elevations, chest x ray, cardiac markers (troponin) elevation, pericardiocentesis/pericardial biopsy, CBC, sed rate, CRP, echocardiography. Blood cultures for fever, rheumatology workup in young women. Plan: NSAIDs (nonsteroidal anti-inflammatory drugs) with colchicine or aspirin. If this treatment fails, further workup needed to rule out atypical forms of pericarditis including tuberculosis, cancer, and inflammatory disease. Most low risk patients may be managed in ambulatory settings, high risk patients need to be hospitalized. High risk features include fever, sub-acute onset, hemodynamic compromise/cardiac tamponade, immunosuppression, on anticoagulant therapy, acute trauma, elevated cardiac enzymes. Prognosis: Patients with acute idiopathic or viral pericarditis have a good long-term prognosis - typically self-limited over 2 weeks with NSAID treatment resulting in good long-term prognosis. Cardiac tamponade rarely occurs in patients with acute idiopathic pericarditis and is more common in patients with a specific underlying etiology such as malignancy, tuberculosis, or purulent pericarditis. Constrictive pericarditis may occur in approximately 1 percent of patients with acute idiopathic pericarditis and is also more common in patients with a specific etiology.</t>
   </si>
 </sst>
 </file>
@@ -2556,11 +2559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F277" sqref="F277"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,7 +2624,7 @@
         <v>24134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2664,7 +2667,7 @@
         <v>27918</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2687,7 +2690,7 @@
         <v>30753</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -2710,7 +2713,7 @@
         <v>31317</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -2733,7 +2736,7 @@
         <v>31967</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -2776,10 +2779,10 @@
         <v>73553</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2799,7 +2802,7 @@
         <v>75860</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -2845,7 +2848,7 @@
         <v>77074</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -2894,7 +2897,7 @@
         <v>80182</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2977,7 +2980,7 @@
         <v>81893</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -3000,7 +3003,7 @@
         <v>81902</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3083,7 +3086,7 @@
         <v>132797</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -3106,7 +3109,7 @@
         <v>133169</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -3212,7 +3215,7 @@
         <v>137977</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -3275,7 +3278,7 @@
         <v>138994</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3361,7 +3364,7 @@
         <v>140352</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -3464,7 +3467,7 @@
         <v>192359</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -3550,7 +3553,7 @@
         <v>194133</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3593,7 +3596,7 @@
         <v>194992</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3616,7 +3619,7 @@
         <v>196523</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3791,7 +3794,7 @@
         <v>200219</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3863,7 +3866,7 @@
         <v>201254</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3886,7 +3889,7 @@
         <v>201340</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3909,7 +3912,7 @@
         <v>201606</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3943,16 +3946,16 @@
         <v>201820000</v>
       </c>
       <c r="D63" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E63">
         <v>201820</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H63" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3972,7 +3975,7 @@
         <v>201826</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -4038,7 +4041,7 @@
         <v>254761</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -4144,7 +4147,7 @@
         <v>312327</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -4167,7 +4170,7 @@
         <v>312437</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -4210,7 +4213,7 @@
         <v>313217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -4233,7 +4236,7 @@
         <v>313223</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -4256,7 +4259,7 @@
         <v>313459</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -4302,12 +4305,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>314383000</v>
       </c>
       <c r="B80">
-        <v>314383000</v>
+        <v>4189294000</v>
       </c>
       <c r="C80">
         <v>314383000</v>
@@ -4319,7 +4322,10 @@
         <v>314383</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>137</v>
+        <v>563</v>
+      </c>
+      <c r="I80" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -4333,16 +4339,16 @@
         <v>316139000</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E81">
         <v>316139</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" t="s">
         <v>139</v>
-      </c>
-      <c r="H81" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4356,16 +4362,16 @@
         <v>316866000</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E82">
         <v>316866</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H82" t="s">
         <v>142</v>
-      </c>
-      <c r="H82" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4379,13 +4385,13 @@
         <v>317009000</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E83">
         <v>317009</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -4402,13 +4408,13 @@
         <v>317576000</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E84">
         <v>317576</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4425,13 +4431,13 @@
         <v>318443000</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E85">
         <v>318443</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H85" t="s">
         <v>24</v>
@@ -4448,13 +4454,13 @@
         <v>318736000</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E86">
         <v>318736</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4468,13 +4474,13 @@
         <v>318800000</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E87">
         <v>318800</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4488,13 +4494,13 @@
         <v>319041000</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E88">
         <v>319041</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4508,16 +4514,16 @@
         <v>319049000</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E89">
         <v>319049</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H89" t="s">
         <v>155</v>
-      </c>
-      <c r="H89" t="s">
-        <v>156</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -4534,13 +4540,13 @@
         <v>320749000</v>
       </c>
       <c r="D90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E90">
         <v>320749</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -4557,13 +4563,13 @@
         <v>321042000</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E91">
         <v>321042</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H91" t="s">
         <v>24</v>
@@ -4583,16 +4589,16 @@
         <v>321052000</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E92">
         <v>321052</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H92" t="s">
         <v>161</v>
-      </c>
-      <c r="H92" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4606,13 +4612,13 @@
         <v>321318000</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E93">
         <v>321318</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -4629,13 +4635,13 @@
         <v>321319000</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E94">
         <v>321319</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4649,13 +4655,13 @@
         <v>321588000</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E95">
         <v>321588</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H95" t="s">
         <v>24</v>
@@ -4675,13 +4681,13 @@
         <v>372328000</v>
       </c>
       <c r="D96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E96">
         <v>372328</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4695,13 +4701,13 @@
         <v>373503000</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E97">
         <v>373503</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
@@ -4718,16 +4724,16 @@
         <v>374021000</v>
       </c>
       <c r="D98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E98">
         <v>374021</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H98" t="s">
         <v>171</v>
-      </c>
-      <c r="H98" t="s">
-        <v>172</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -4744,13 +4750,13 @@
         <v>374028000</v>
       </c>
       <c r="D99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E99">
         <v>374028</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -4767,13 +4773,13 @@
         <v>374366000</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E100">
         <v>374366</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4787,13 +4793,13 @@
         <v>374377000</v>
       </c>
       <c r="D101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E101">
         <v>374377</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H101" t="s">
         <v>24</v>
@@ -4813,13 +4819,13 @@
         <v>374919000</v>
       </c>
       <c r="D102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E102">
         <v>374919</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -4836,13 +4842,13 @@
         <v>374954000</v>
       </c>
       <c r="D103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E103">
         <v>374954</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -4859,13 +4865,13 @@
         <v>375801000</v>
       </c>
       <c r="D104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E104">
         <v>375801</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4879,13 +4885,13 @@
         <v>375806000</v>
       </c>
       <c r="D105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E105">
         <v>375806</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4899,13 +4905,13 @@
         <v>376713000</v>
       </c>
       <c r="D106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E106">
         <v>376713</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
@@ -4922,16 +4928,16 @@
         <v>377091000</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E107">
         <v>377091</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H107" t="s">
         <v>188</v>
-      </c>
-      <c r="H107" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4945,13 +4951,13 @@
         <v>378135000</v>
       </c>
       <c r="D108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E108">
         <v>378135</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="315" x14ac:dyDescent="0.25">
@@ -4965,16 +4971,16 @@
         <v>378143000</v>
       </c>
       <c r="D109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E109">
         <v>378143</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H109" t="s">
         <v>193</v>
-      </c>
-      <c r="H109" t="s">
-        <v>194</v>
       </c>
       <c r="I109" t="s">
         <v>22</v>
@@ -4991,13 +4997,13 @@
         <v>378253000</v>
       </c>
       <c r="D110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E110">
         <v>378253</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -5014,13 +5020,13 @@
         <v>378414000</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E111">
         <v>378414</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -5037,13 +5043,13 @@
         <v>378416000</v>
       </c>
       <c r="D112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E112">
         <v>378416</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5057,13 +5063,13 @@
         <v>378419000</v>
       </c>
       <c r="D113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E113">
         <v>378419</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5077,13 +5083,13 @@
         <v>380378000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E114">
         <v>380378</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -5100,13 +5106,13 @@
         <v>381009000</v>
       </c>
       <c r="D115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E115">
         <v>381009</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
@@ -5123,13 +5129,13 @@
         <v>381114000</v>
       </c>
       <c r="D116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E116">
         <v>381114</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5143,13 +5149,13 @@
         <v>381270000</v>
       </c>
       <c r="D117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E117">
         <v>381270</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5163,13 +5169,13 @@
         <v>381316000</v>
       </c>
       <c r="D118" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E118">
         <v>381316</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I118" t="s">
         <v>22</v>
@@ -5186,16 +5192,16 @@
         <v>381591000</v>
       </c>
       <c r="D119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E119">
         <v>381591</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H119" t="s">
         <v>211</v>
-      </c>
-      <c r="H119" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5209,13 +5215,13 @@
         <v>432571000</v>
       </c>
       <c r="D120" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E120">
         <v>432571000</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5229,16 +5235,16 @@
         <v>432585000</v>
       </c>
       <c r="D121" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E121">
         <v>432585</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H121" t="s">
         <v>214</v>
-      </c>
-      <c r="H121" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5252,13 +5258,13 @@
         <v>432595000</v>
       </c>
       <c r="D122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E122">
         <v>432595</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5272,13 +5278,13 @@
         <v>432791000</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E123">
         <v>432791</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I123" t="s">
         <v>22</v>
@@ -5295,13 +5301,13 @@
         <v>432867000</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E124">
         <v>432867</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5315,13 +5321,13 @@
         <v>432870000</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E125">
         <v>432870</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I125" t="s">
         <v>22</v>
@@ -5338,13 +5344,13 @@
         <v>432881000</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E126">
         <v>432881</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I126" t="s">
         <v>22</v>
@@ -5361,13 +5367,13 @@
         <v>432893000</v>
       </c>
       <c r="D127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E127">
         <v>432893</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -5384,13 +5390,13 @@
         <v>433595000</v>
       </c>
       <c r="D128" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E128">
         <v>433595</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -5407,13 +5413,13 @@
         <v>433736000</v>
       </c>
       <c r="D129" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E129">
         <v>433736</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5427,13 +5433,13 @@
         <v>434119000</v>
       </c>
       <c r="D130" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E130">
         <v>434119</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5447,13 +5453,13 @@
         <v>434557000</v>
       </c>
       <c r="D131" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E131">
         <v>434557</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5467,13 +5473,13 @@
         <v>434584000</v>
       </c>
       <c r="D132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E132">
         <v>434584</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -5487,13 +5493,13 @@
         <v>434592000</v>
       </c>
       <c r="D133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E133">
         <v>434592</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -5510,13 +5516,13 @@
         <v>434610000</v>
       </c>
       <c r="D134" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E134">
         <v>434610</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5530,13 +5536,13 @@
         <v>434821000</v>
       </c>
       <c r="D135" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E135">
         <v>434821</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I135" t="s">
         <v>22</v>
@@ -5553,13 +5559,13 @@
         <v>435224000</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E136">
         <v>435224</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I136" t="s">
         <v>22</v>
@@ -5576,13 +5582,13 @@
         <v>435783000</v>
       </c>
       <c r="D137" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E137">
         <v>435783</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -5596,13 +5602,13 @@
         <v>435785000</v>
       </c>
       <c r="D138" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E138">
         <v>435785</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I138" t="s">
         <v>22</v>
@@ -5619,13 +5625,13 @@
         <v>436073000</v>
       </c>
       <c r="D139" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E139">
         <v>436073</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5639,16 +5645,16 @@
         <v>436081000</v>
       </c>
       <c r="D140" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E140">
         <v>436081</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H140" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5662,13 +5668,13 @@
         <v>436096000</v>
       </c>
       <c r="D141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E141">
         <v>436096</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I141" t="s">
         <v>22</v>
@@ -5685,13 +5691,13 @@
         <v>436100000</v>
       </c>
       <c r="D142" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E142">
         <v>436100</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5705,13 +5711,13 @@
         <v>436235000</v>
       </c>
       <c r="D143" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E143">
         <v>4307095</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I143" t="s">
         <v>22</v>
@@ -5728,13 +5734,13 @@
         <v>436642000</v>
       </c>
       <c r="D144" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E144">
         <v>436642</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I144" t="s">
         <v>22</v>
@@ -5751,13 +5757,13 @@
         <v>436665000</v>
       </c>
       <c r="D145" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E145">
         <v>436665</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5771,13 +5777,13 @@
         <v>436676000</v>
       </c>
       <c r="D146" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E146">
         <v>436676</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5791,13 +5797,13 @@
         <v>436962000</v>
       </c>
       <c r="D147" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E147">
         <v>436962</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I147" t="s">
         <v>22</v>
@@ -5814,13 +5820,13 @@
         <v>437082000</v>
       </c>
       <c r="D148" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E148">
         <v>437082</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I148" t="s">
         <v>22</v>
@@ -5837,13 +5843,13 @@
         <v>437222000</v>
       </c>
       <c r="D149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E149">
         <v>437222</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -5857,13 +5863,13 @@
         <v>437233000</v>
       </c>
       <c r="D150" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E150">
         <v>437233</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I150" t="s">
         <v>22</v>
@@ -5880,13 +5886,13 @@
         <v>437312000</v>
       </c>
       <c r="D151" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E151">
         <v>437312</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I151" t="s">
         <v>22</v>
@@ -5903,13 +5909,13 @@
         <v>437541000</v>
       </c>
       <c r="D152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E152">
         <v>437541</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5923,16 +5929,16 @@
         <v>437663000</v>
       </c>
       <c r="D153" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E153">
         <v>437663</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H153" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I153" t="s">
         <v>22</v>
@@ -5949,13 +5955,13 @@
         <v>437833000</v>
       </c>
       <c r="D154" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E154">
         <v>437833</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5969,13 +5975,13 @@
         <v>438120000</v>
       </c>
       <c r="D155" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E155">
         <v>438120</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5989,13 +5995,13 @@
         <v>438130000</v>
       </c>
       <c r="D156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E156">
         <v>438130</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6009,13 +6015,13 @@
         <v>438409000</v>
       </c>
       <c r="D157" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E157">
         <v>438409</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -6029,13 +6035,13 @@
         <v>439393000</v>
       </c>
       <c r="D158" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E158">
         <v>439393</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6049,13 +6055,13 @@
         <v>439727000</v>
       </c>
       <c r="D159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E159">
         <v>439727</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6075,7 +6081,7 @@
         <v>439776</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6089,16 +6095,16 @@
         <v>439777000</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E161">
         <v>439777</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H161" t="s">
         <v>285</v>
-      </c>
-      <c r="H161" t="s">
-        <v>286</v>
       </c>
       <c r="I161" t="s">
         <v>22</v>
@@ -6115,13 +6121,13 @@
         <v>439842000</v>
       </c>
       <c r="D162" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E162">
         <v>439842</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6135,13 +6141,13 @@
         <v>440377000</v>
       </c>
       <c r="D163" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E163">
         <v>440377</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H163" t="s">
         <v>24</v>
@@ -6161,13 +6167,13 @@
         <v>440383000</v>
       </c>
       <c r="D164" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E164">
         <v>440383</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -6181,13 +6187,13 @@
         <v>440417000</v>
       </c>
       <c r="D165" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E165">
         <v>440417</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6201,13 +6207,13 @@
         <v>440674000</v>
       </c>
       <c r="D166" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E166">
         <v>440674</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6221,13 +6227,13 @@
         <v>440703000</v>
       </c>
       <c r="D167" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E167">
         <v>440703</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -6241,13 +6247,13 @@
         <v>440740000</v>
       </c>
       <c r="D168" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E168">
         <v>440740</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I168" t="s">
         <v>22</v>
@@ -6264,13 +6270,13 @@
         <v>440925000</v>
       </c>
       <c r="D169" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E169">
         <v>440925</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6284,13 +6290,13 @@
         <v>440940000</v>
       </c>
       <c r="D170" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E170">
         <v>440940</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -6304,13 +6310,13 @@
         <v>441202000</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E171">
         <v>441202</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I171" t="s">
         <v>22</v>
@@ -6327,13 +6333,13 @@
         <v>441284000</v>
       </c>
       <c r="D172" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E172">
         <v>441284</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6347,13 +6353,13 @@
         <v>441408000</v>
       </c>
       <c r="D173" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E173">
         <v>441408</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I173" t="s">
         <v>22</v>
@@ -6370,13 +6376,13 @@
         <v>441542000</v>
       </c>
       <c r="D174" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E174">
         <v>441542</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I174" t="s">
         <v>22</v>
@@ -6393,13 +6399,13 @@
         <v>441788000</v>
       </c>
       <c r="D175" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E175">
         <v>441788</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6413,13 +6419,13 @@
         <v>441848000</v>
       </c>
       <c r="D176" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E176">
         <v>441848</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I176" t="s">
         <v>22</v>
@@ -6436,13 +6442,13 @@
         <v>442752000</v>
       </c>
       <c r="D177" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E177">
         <v>442752</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I177" t="s">
         <v>22</v>
@@ -6459,13 +6465,13 @@
         <v>443213000</v>
       </c>
       <c r="D178" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E178">
         <v>443213</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6479,13 +6485,13 @@
         <v>443387000</v>
       </c>
       <c r="D179" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E179">
         <v>443387</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6499,13 +6505,13 @@
         <v>443392000</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E180">
         <v>443392</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6519,13 +6525,13 @@
         <v>443454000</v>
       </c>
       <c r="D181" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E181">
         <v>443454</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I181" t="s">
         <v>22</v>
@@ -6542,13 +6548,13 @@
         <v>443700000</v>
       </c>
       <c r="D182" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E182">
         <v>443700</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6562,13 +6568,13 @@
         <v>443723000</v>
       </c>
       <c r="D183" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E183">
         <v>443723</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6582,13 +6588,13 @@
         <v>443727000</v>
       </c>
       <c r="D184" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E184">
         <v>443727</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I184" t="s">
         <v>22</v>
@@ -6605,13 +6611,13 @@
         <v>444044000</v>
       </c>
       <c r="D185" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E185">
         <v>444044</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I185" t="s">
         <v>22</v>
@@ -6628,13 +6634,13 @@
         <v>444070000</v>
       </c>
       <c r="D186" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E186">
         <v>444070</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I186" t="s">
         <v>22</v>
@@ -6651,13 +6657,13 @@
         <v>444247000</v>
       </c>
       <c r="D187" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E187">
         <v>444247</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6671,13 +6677,13 @@
         <v>444429000</v>
       </c>
       <c r="D188" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E188">
         <v>444429</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6691,16 +6697,16 @@
         <v>4000634000</v>
       </c>
       <c r="D189" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E189">
         <v>4000634</v>
       </c>
       <c r="F189" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H189" t="s">
         <v>333</v>
-      </c>
-      <c r="H189" t="s">
-        <v>334</v>
       </c>
       <c r="I189" t="s">
         <v>22</v>
@@ -6717,13 +6723,13 @@
         <v>4002359000</v>
       </c>
       <c r="D190" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E190">
         <v>4002359</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I190" t="s">
         <v>22</v>
@@ -6740,13 +6746,13 @@
         <v>4013643000</v>
       </c>
       <c r="D191" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E191">
         <v>4013643</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6760,16 +6766,16 @@
         <v>4024659000</v>
       </c>
       <c r="D192" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E192">
         <v>4024659</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H192" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I192" t="s">
         <v>22</v>
@@ -6786,13 +6792,13 @@
         <v>4027537000</v>
       </c>
       <c r="D193" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E193">
         <v>4027537</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6806,13 +6812,13 @@
         <v>4028363000</v>
       </c>
       <c r="D194" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E194">
         <v>4028363</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="375" x14ac:dyDescent="0.25">
@@ -6826,13 +6832,13 @@
         <v>4030518000</v>
       </c>
       <c r="D195" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E195">
         <v>4030518</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -6846,13 +6852,13 @@
         <v>4038838000</v>
       </c>
       <c r="D196" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E196">
         <v>4038838</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I196" t="s">
         <v>22</v>
@@ -6866,16 +6872,16 @@
         <v>4043371000</v>
       </c>
       <c r="D197" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E197">
         <v>4043371</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H197" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6889,13 +6895,13 @@
         <v>4046338000</v>
       </c>
       <c r="D198" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E198">
         <v>4046338</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -6909,13 +6915,13 @@
         <v>4058821000</v>
       </c>
       <c r="D199" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E199">
         <v>4058821</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -6932,13 +6938,13 @@
         <v>4063434000</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E200">
         <v>4063434</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I200" t="s">
         <v>22</v>
@@ -6955,13 +6961,13 @@
         <v>4064161000</v>
       </c>
       <c r="D201" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E201">
         <v>4064161</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I201" t="s">
         <v>22</v>
@@ -6978,13 +6984,13 @@
         <v>4067106000</v>
       </c>
       <c r="D202" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E202">
         <v>4067106</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -6998,16 +7004,16 @@
         <v>4070552000</v>
       </c>
       <c r="D203" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E203">
         <v>4070552</v>
       </c>
       <c r="F203" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H203" t="s">
         <v>357</v>
-      </c>
-      <c r="H203" t="s">
-        <v>358</v>
       </c>
       <c r="I203" t="s">
         <v>22</v>
@@ -7024,13 +7030,13 @@
         <v>4074815000</v>
       </c>
       <c r="D204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E204">
         <v>4074815</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I204" t="s">
         <v>22</v>
@@ -7047,13 +7053,13 @@
         <v>4079843000</v>
       </c>
       <c r="D205" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E205">
         <v>4079843</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I205" t="s">
         <v>22</v>
@@ -7070,13 +7076,13 @@
         <v>4091559000</v>
       </c>
       <c r="D206" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E206">
         <v>4091559</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I206" t="s">
         <v>22</v>
@@ -7093,13 +7099,13 @@
         <v>4092289000</v>
       </c>
       <c r="D207" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E207">
         <v>4092289</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7113,13 +7119,13 @@
         <v>4094294000</v>
       </c>
       <c r="D208" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E208">
         <v>4094294</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7133,13 +7139,13 @@
         <v>4098292000</v>
       </c>
       <c r="D209" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E209">
         <v>4098292</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7153,13 +7159,13 @@
         <v>4098597000</v>
       </c>
       <c r="D210" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E210">
         <v>4098597</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I210" t="s">
         <v>22</v>
@@ -7176,13 +7182,13 @@
         <v>4101602000</v>
       </c>
       <c r="D211" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E211">
         <v>4101602</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I211" t="s">
         <v>22</v>
@@ -7199,13 +7205,13 @@
         <v>4103295000</v>
       </c>
       <c r="D212" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E212">
         <v>4103295</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I212" t="s">
         <v>22</v>
@@ -7222,13 +7228,13 @@
         <v>4112853000</v>
       </c>
       <c r="D213" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E213">
         <v>4112853</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7242,13 +7248,13 @@
         <v>4124836000</v>
       </c>
       <c r="D214" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E214">
         <v>4124836</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I214" t="s">
         <v>22</v>
@@ -7265,13 +7271,13 @@
         <v>4131909000</v>
       </c>
       <c r="D215" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E215">
         <v>4131909</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -7285,13 +7291,13 @@
         <v>4133004000</v>
       </c>
       <c r="D216" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E216">
         <v>4133004</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -7305,13 +7311,13 @@
         <v>4137275000</v>
       </c>
       <c r="D217" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E217">
         <v>4137275</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="195" x14ac:dyDescent="0.25">
@@ -7319,22 +7325,25 @@
         <v>4138837000</v>
       </c>
       <c r="B218">
-        <v>4138837000</v>
+        <v>4189294000</v>
       </c>
       <c r="C218">
         <v>4138837000</v>
       </c>
       <c r="D218" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E218">
         <v>4138837</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>383</v>
+        <v>564</v>
       </c>
       <c r="H218" t="s">
-        <v>384</v>
+        <v>382</v>
+      </c>
+      <c r="I218" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -7348,13 +7357,13 @@
         <v>4139034000</v>
       </c>
       <c r="D219" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E219">
         <v>4139034</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H219" t="s">
         <v>24</v>
@@ -7371,13 +7380,13 @@
         <v>4147411000</v>
       </c>
       <c r="D220" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E220">
         <v>4147411</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I220" t="s">
         <v>22</v>
@@ -7394,13 +7403,13 @@
         <v>4163261000</v>
       </c>
       <c r="D221" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E221">
         <v>4163261</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -7414,13 +7423,13 @@
         <v>4164770000</v>
       </c>
       <c r="D222" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E222">
         <v>4164770</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -7434,13 +7443,13 @@
         <v>4169095000</v>
       </c>
       <c r="D223" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E223">
         <v>4169095</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I223" t="s">
         <v>22</v>
@@ -7457,13 +7466,13 @@
         <v>4174977000</v>
       </c>
       <c r="D224" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E224">
         <v>4174977</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I224" t="s">
         <v>22</v>
@@ -7477,13 +7486,13 @@
         <v>4175485000</v>
       </c>
       <c r="D225" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E225">
         <v>4175485</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -7497,13 +7506,13 @@
         <v>4180790000</v>
       </c>
       <c r="D226" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E226">
         <v>4180790</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7517,13 +7526,13 @@
         <v>4181343000</v>
       </c>
       <c r="D227" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E227">
         <v>4181343</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7537,13 +7546,13 @@
         <v>4181351000</v>
       </c>
       <c r="D228" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E228">
         <v>4181351</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -7557,13 +7566,13 @@
         <v>4182210000</v>
       </c>
       <c r="D229" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E229">
         <v>4182210</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -7577,16 +7586,16 @@
         <v>4182711000</v>
       </c>
       <c r="D230" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E230">
         <v>4182711</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H230" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I230" t="s">
         <v>22</v>
@@ -7603,13 +7612,13 @@
         <v>4185711000</v>
       </c>
       <c r="D231" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E231">
         <v>4185711</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I231" t="s">
         <v>22</v>
@@ -7626,56 +7635,50 @@
         <v>4185932000</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E232">
         <v>4185932</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
+        <v>4189294000</v>
+      </c>
+      <c r="B233">
+        <v>4189294000</v>
+      </c>
+      <c r="C233">
+        <v>4189294000</v>
+      </c>
+      <c r="D233" t="s">
+        <v>562</v>
+      </c>
+      <c r="E233">
+        <v>4189294</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>4190307000</v>
       </c>
-      <c r="B233">
+      <c r="B234">
         <v>4190307000</v>
       </c>
-      <c r="C233">
+      <c r="C234">
         <v>4190307000</v>
       </c>
-      <c r="D233" t="s">
-        <v>406</v>
-      </c>
-      <c r="E233">
+      <c r="D234" t="s">
+        <v>404</v>
+      </c>
+      <c r="E234">
         <v>4190307</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>4195694000</v>
-      </c>
-      <c r="B234">
-        <v>4195694000</v>
-      </c>
-      <c r="C234">
-        <v>4195694000</v>
-      </c>
-      <c r="D234" t="s">
-        <v>407</v>
-      </c>
-      <c r="E234">
-        <v>4195694</v>
-      </c>
       <c r="F234" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H234" t="s">
-        <v>409</v>
+        <v>287</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -7689,36 +7692,39 @@
         <v>4201096000</v>
       </c>
       <c r="D235" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E235">
         <v>4201096</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I235" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>4212540000</v>
+        <v>4195694000</v>
       </c>
       <c r="B236">
-        <v>4212540000</v>
+        <v>4195694000</v>
       </c>
       <c r="C236">
-        <v>4212540000</v>
+        <v>4195694000</v>
       </c>
       <c r="D236" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E236">
-        <v>4212540</v>
+        <v>4195694</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
+      </c>
+      <c r="H236" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -7732,79 +7738,76 @@
         <v>4223659000</v>
       </c>
       <c r="D237" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E237">
         <v>4223659</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I237" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A238">
+        <v>4212540000</v>
+      </c>
+      <c r="B238">
+        <v>4212540000</v>
+      </c>
+      <c r="C238">
+        <v>4212540000</v>
+      </c>
+      <c r="D238" t="s">
+        <v>410</v>
+      </c>
+      <c r="E238">
+        <v>4212540</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>4236484000</v>
       </c>
-      <c r="B238">
+      <c r="B239">
         <v>4236484000</v>
       </c>
-      <c r="C238">
+      <c r="C239">
         <v>4236484000</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D239" t="s">
+        <v>413</v>
+      </c>
+      <c r="E239">
+        <v>4236484</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>4245975000</v>
+      </c>
+      <c r="B240">
+        <v>4245975000</v>
+      </c>
+      <c r="C240">
+        <v>4245975000</v>
+      </c>
+      <c r="D240" t="s">
         <v>415</v>
       </c>
-      <c r="E238">
-        <v>4236484</v>
-      </c>
-      <c r="F238" s="1" t="s">
+      <c r="E240">
+        <v>4245975</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>4245975000</v>
-      </c>
-      <c r="B239">
-        <v>4245975000</v>
-      </c>
-      <c r="C239">
-        <v>4245975000</v>
-      </c>
-      <c r="D239" t="s">
-        <v>417</v>
-      </c>
-      <c r="E239">
-        <v>4245975</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>4246127000</v>
-      </c>
-      <c r="B240">
-        <v>4246127000</v>
-      </c>
-      <c r="C240">
-        <v>4246127000</v>
-      </c>
-      <c r="D240" t="s">
-        <v>419</v>
-      </c>
-      <c r="E240">
-        <v>4246127</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H240" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -7818,39 +7821,39 @@
         <v>4253901000</v>
       </c>
       <c r="D241" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E241">
         <v>4253901</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I241" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>4256228000</v>
+        <v>4246127000</v>
       </c>
       <c r="B242">
-        <v>4256228000</v>
+        <v>4246127000</v>
       </c>
       <c r="C242">
-        <v>4256228000</v>
+        <v>4246127000</v>
       </c>
       <c r="D242" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E242">
-        <v>4256228</v>
+        <v>4246127</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H242" t="s">
-        <v>425</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -7864,39 +7867,42 @@
         <v>4260535000</v>
       </c>
       <c r="D243" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E243">
         <v>4260535</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H243" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I243" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>4266367000</v>
+        <v>4256228000</v>
       </c>
       <c r="B244">
-        <v>4266367000</v>
+        <v>4256228000</v>
       </c>
       <c r="C244">
-        <v>4266367000</v>
+        <v>4256228000</v>
       </c>
       <c r="D244" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E244">
-        <v>4266367</v>
+        <v>4256228</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
+      </c>
+      <c r="H244" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7910,36 +7916,36 @@
         <v>4272240000</v>
       </c>
       <c r="D245" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E245">
         <v>4272240</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I245" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>4273391000</v>
+        <v>4266367000</v>
       </c>
       <c r="B246">
-        <v>4273391000</v>
+        <v>4266367000</v>
       </c>
       <c r="C246">
-        <v>4273391000</v>
+        <v>4266367000</v>
       </c>
       <c r="D246" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E246">
-        <v>4273391</v>
+        <v>4266367</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -7953,13 +7959,13 @@
         <v>4281232000</v>
       </c>
       <c r="D247" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E247">
         <v>4281232</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I247" t="s">
         <v>22</v>
@@ -7976,56 +7982,56 @@
         <v>4284492000</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E248">
         <v>4284492</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I248" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A249">
+        <v>4273391000</v>
+      </c>
+      <c r="B249">
+        <v>4273391000</v>
+      </c>
+      <c r="C249">
+        <v>4273391000</v>
+      </c>
+      <c r="D249" t="s">
+        <v>429</v>
+      </c>
+      <c r="E249">
+        <v>4273391</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>4285717000</v>
       </c>
-      <c r="B249">
+      <c r="B250">
         <v>4285717000</v>
       </c>
-      <c r="C249">
+      <c r="C250">
         <v>4285717000</v>
       </c>
-      <c r="D249" t="s">
-        <v>436</v>
-      </c>
-      <c r="E249">
+      <c r="D250" t="s">
+        <v>434</v>
+      </c>
+      <c r="E250">
         <v>4285717</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>4286201000</v>
-      </c>
-      <c r="B250">
-        <v>4286201000</v>
-      </c>
-      <c r="C250">
-        <v>4286201000</v>
-      </c>
-      <c r="D250" t="s">
-        <v>438</v>
-      </c>
-      <c r="E250">
-        <v>4286201</v>
-      </c>
       <c r="F250" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -8039,79 +8045,76 @@
         <v>4290976000</v>
       </c>
       <c r="D251" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E251">
         <v>4290976</v>
       </c>
       <c r="F251" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I251" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>4286201000</v>
+      </c>
+      <c r="B252">
+        <v>4286201000</v>
+      </c>
+      <c r="C252">
+        <v>4286201000</v>
+      </c>
+      <c r="D252" t="s">
+        <v>436</v>
+      </c>
+      <c r="E252">
+        <v>4286201</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>4299535000</v>
+      </c>
+      <c r="B253">
+        <v>4299535000</v>
+      </c>
+      <c r="C253">
+        <v>4299535000</v>
+      </c>
+      <c r="D253" t="s">
+        <v>440</v>
+      </c>
+      <c r="E253">
+        <v>4299535</v>
+      </c>
+      <c r="F253" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I251" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>4299535000</v>
-      </c>
-      <c r="B252">
-        <v>4299535000</v>
-      </c>
-      <c r="C252">
-        <v>4299535000</v>
-      </c>
-      <c r="D252" t="s">
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>4306655000</v>
+      </c>
+      <c r="B254">
+        <v>4306655000</v>
+      </c>
+      <c r="C254">
+        <v>4306655000</v>
+      </c>
+      <c r="D254" t="s">
         <v>442</v>
       </c>
-      <c r="E252">
-        <v>4299535</v>
-      </c>
-      <c r="F252" s="1" t="s">
+      <c r="E254">
+        <v>4306655</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>4306655000</v>
-      </c>
-      <c r="B253">
-        <v>4306655000</v>
-      </c>
-      <c r="C253">
-        <v>4306655000</v>
-      </c>
-      <c r="D253" t="s">
-        <v>444</v>
-      </c>
-      <c r="E253">
-        <v>4306655</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>4311499000</v>
-      </c>
-      <c r="B254">
-        <v>4311499000</v>
-      </c>
-      <c r="C254">
-        <v>4311499000</v>
-      </c>
-      <c r="D254" t="s">
-        <v>446</v>
-      </c>
-      <c r="E254">
-        <v>4311499</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H254" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -8125,39 +8128,39 @@
         <v>4318985000</v>
       </c>
       <c r="D255" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E255">
         <v>4318985</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I255" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>4322024000</v>
+        <v>4311499000</v>
       </c>
       <c r="B256">
-        <v>4322024000</v>
+        <v>4311499000</v>
       </c>
       <c r="C256">
-        <v>4322024000</v>
+        <v>4311499000</v>
       </c>
       <c r="D256" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E256">
-        <v>4322024</v>
+        <v>4311499</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H256" t="s">
-        <v>451</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -8171,56 +8174,59 @@
         <v>4344489000</v>
       </c>
       <c r="D257" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E257">
         <v>4344489</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I257" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A258">
+        <v>4322024000</v>
+      </c>
+      <c r="B258">
+        <v>4322024000</v>
+      </c>
+      <c r="C258">
+        <v>4322024000</v>
+      </c>
+      <c r="D258" t="s">
+        <v>447</v>
+      </c>
+      <c r="E258">
+        <v>4322024</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H258" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>36712702000</v>
       </c>
-      <c r="B258">
+      <c r="B259">
         <v>36712702000</v>
       </c>
-      <c r="C258">
+      <c r="C259">
         <v>36712702000</v>
       </c>
-      <c r="D258" t="s">
-        <v>453</v>
-      </c>
-      <c r="E258">
+      <c r="D259" t="s">
+        <v>451</v>
+      </c>
+      <c r="E259">
         <v>36712702</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>37311061000</v>
-      </c>
-      <c r="B259">
-        <v>37311061000</v>
-      </c>
-      <c r="C259">
-        <v>37311061000</v>
-      </c>
-      <c r="D259" t="s">
-        <v>455</v>
-      </c>
-      <c r="E259">
-        <v>37311061</v>
-      </c>
       <c r="F259" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -8234,13 +8240,13 @@
         <v>40479589000</v>
       </c>
       <c r="D260" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E260">
         <v>40479589</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I260" t="s">
         <v>22</v>
@@ -8257,39 +8263,36 @@
         <v>40481901000</v>
       </c>
       <c r="D261" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E261">
         <v>40481901</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I261" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>40481902000</v>
+        <v>37311061000</v>
       </c>
       <c r="B262">
-        <v>40481902000</v>
+        <v>37311061000</v>
       </c>
       <c r="C262">
-        <v>40481902000</v>
+        <v>37311061000</v>
       </c>
       <c r="D262" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E262">
-        <v>40481902</v>
+        <v>37311061</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H262" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8303,13 +8306,13 @@
         <v>40490918000</v>
       </c>
       <c r="D263" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E263">
         <v>40490918</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H263" t="s">
         <v>24</v>
@@ -8329,56 +8332,59 @@
         <v>42535714000</v>
       </c>
       <c r="D264" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E264">
         <v>42535714</v>
       </c>
       <c r="F264" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I264" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>40481902000</v>
+      </c>
+      <c r="B265">
+        <v>40481902000</v>
+      </c>
+      <c r="C265">
+        <v>40481902000</v>
+      </c>
+      <c r="D265" t="s">
+        <v>458</v>
+      </c>
+      <c r="E265">
+        <v>40481902</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H265" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>43021132000</v>
+      </c>
+      <c r="B266">
+        <v>43021132000</v>
+      </c>
+      <c r="C266">
+        <v>43021132000</v>
+      </c>
+      <c r="D266" t="s">
+        <v>464</v>
+      </c>
+      <c r="E266">
+        <v>43021132</v>
+      </c>
+      <c r="F266" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="I264" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>43021132000</v>
-      </c>
-      <c r="B265">
-        <v>43021132000</v>
-      </c>
-      <c r="C265">
-        <v>43021132000</v>
-      </c>
-      <c r="D265" t="s">
-        <v>466</v>
-      </c>
-      <c r="E265">
-        <v>43021132</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B266">
-        <v>43021226000</v>
-      </c>
-      <c r="C266">
-        <v>43021226000</v>
-      </c>
-      <c r="D266" t="s">
-        <v>554</v>
-      </c>
-      <c r="E266">
-        <v>43021226</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H266" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -8392,62 +8398,62 @@
         <v>43530714000</v>
       </c>
       <c r="D267" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E267">
         <v>43530714</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I267" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
+        <v>43021226000</v>
+      </c>
+      <c r="B268">
+        <v>43021226000</v>
+      </c>
+      <c r="C268">
+        <v>43021226000</v>
+      </c>
+      <c r="D268" t="s">
+        <v>552</v>
+      </c>
+      <c r="E268">
+        <v>43021226</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H268" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A269">
         <v>44784217000</v>
       </c>
-      <c r="B268">
+      <c r="B269">
         <v>44784217000</v>
       </c>
-      <c r="C268">
+      <c r="C269">
         <v>44784217000</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D269" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E269">
+        <v>44784217</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H269" t="s">
         <v>469</v>
-      </c>
-      <c r="E268">
-        <v>44784217</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H268" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>45763653000</v>
-      </c>
-      <c r="B269">
-        <v>45763653000</v>
-      </c>
-      <c r="C269">
-        <v>45763653000</v>
-      </c>
-      <c r="D269" t="s">
-        <v>472</v>
-      </c>
-      <c r="E269">
-        <v>45763653</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H269" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="270" x14ac:dyDescent="0.25">
@@ -8461,22 +8467,45 @@
         <v>46271022000</v>
       </c>
       <c r="D270" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E270">
         <v>46271022</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I270" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="271" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>45763653000</v>
+      </c>
+      <c r="B271">
+        <v>45763653000</v>
+      </c>
+      <c r="C271">
+        <v>45763653000</v>
+      </c>
+      <c r="D271" t="s">
+        <v>470</v>
+      </c>
+      <c r="E271">
+        <v>45763653</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H271" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I270">
-    <sortState ref="A2:I270">
-      <sortCondition ref="C1:C270"/>
+  <autoFilter ref="A1:I271">
+    <sortState ref="A3:I271">
+      <sortCondition ref="C1:C271"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -2561,9 +2561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7681,93 +7681,93 @@
         <v>287</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A235">
+        <v>4195694000</v>
+      </c>
+      <c r="B235">
+        <v>4195694000</v>
+      </c>
+      <c r="C235">
+        <v>4195694000</v>
+      </c>
+      <c r="D235" t="s">
+        <v>405</v>
+      </c>
+      <c r="E235">
+        <v>4195694</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H235" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>4201096000</v>
       </c>
-      <c r="B235">
+      <c r="B236">
         <v>4190307000</v>
       </c>
-      <c r="C235">
+      <c r="C236">
         <v>4201096000</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D236" t="s">
         <v>408</v>
       </c>
-      <c r="E235">
+      <c r="E236">
         <v>4201096</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="F236" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I235" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>4195694000</v>
-      </c>
-      <c r="B236">
-        <v>4195694000</v>
-      </c>
-      <c r="C236">
-        <v>4195694000</v>
-      </c>
-      <c r="D236" t="s">
-        <v>405</v>
-      </c>
-      <c r="E236">
-        <v>4195694</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H236" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I236" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A237">
+        <v>4212540000</v>
+      </c>
+      <c r="B237">
+        <v>4212540000</v>
+      </c>
+      <c r="C237">
+        <v>4212540000</v>
+      </c>
+      <c r="D237" t="s">
+        <v>410</v>
+      </c>
+      <c r="E237">
+        <v>4212540</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>4223659000</v>
       </c>
-      <c r="B237">
+      <c r="B238">
         <v>4094294000</v>
       </c>
-      <c r="C237">
+      <c r="C238">
         <v>4223659000</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D238" t="s">
         <v>412</v>
       </c>
-      <c r="E237">
+      <c r="E238">
         <v>4223659</v>
       </c>
-      <c r="F237" s="1" t="s">
+      <c r="F238" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="I237" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>4212540000</v>
-      </c>
-      <c r="B238">
-        <v>4212540000</v>
-      </c>
-      <c r="C238">
-        <v>4212540000</v>
-      </c>
-      <c r="D238" t="s">
-        <v>410</v>
-      </c>
-      <c r="E238">
-        <v>4212540</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>411</v>
+      <c r="I238" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7810,208 +7810,208 @@
         <v>416</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A241">
+        <v>4246127000</v>
+      </c>
+      <c r="B241">
+        <v>4246127000</v>
+      </c>
+      <c r="C241">
+        <v>4246127000</v>
+      </c>
+      <c r="D241" t="s">
+        <v>417</v>
+      </c>
+      <c r="E241">
+        <v>4246127</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H241" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>4253901000</v>
       </c>
-      <c r="B241">
+      <c r="B242">
         <v>73553000</v>
       </c>
-      <c r="C241">
+      <c r="C242">
         <v>4253901000</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D242" t="s">
         <v>419</v>
       </c>
-      <c r="E241">
+      <c r="E242">
         <v>4253901</v>
       </c>
-      <c r="F241" s="1" t="s">
+      <c r="F242" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I241" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>4246127000</v>
-      </c>
-      <c r="B242">
-        <v>4246127000</v>
-      </c>
-      <c r="C242">
-        <v>4246127000</v>
-      </c>
-      <c r="D242" t="s">
-        <v>417</v>
-      </c>
-      <c r="E242">
-        <v>4246127</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H242" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="I242" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A243">
+        <v>4256228000</v>
+      </c>
+      <c r="B243">
+        <v>4256228000</v>
+      </c>
+      <c r="C243">
+        <v>4256228000</v>
+      </c>
+      <c r="D243" t="s">
+        <v>421</v>
+      </c>
+      <c r="E243">
+        <v>4256228</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H243" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>4260535000</v>
       </c>
-      <c r="B243">
+      <c r="B244">
         <v>4043371000</v>
       </c>
-      <c r="C243">
+      <c r="C244">
         <v>4260535000</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D244" t="s">
         <v>424</v>
       </c>
-      <c r="E243">
+      <c r="E244">
         <v>4260535</v>
       </c>
-      <c r="F243" s="1" t="s">
+      <c r="F244" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H243" t="s">
+      <c r="H244" t="s">
         <v>425</v>
       </c>
-      <c r="I243" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>4256228000</v>
-      </c>
-      <c r="B244">
-        <v>4256228000</v>
-      </c>
-      <c r="C244">
-        <v>4256228000</v>
-      </c>
-      <c r="D244" t="s">
-        <v>421</v>
-      </c>
-      <c r="E244">
-        <v>4256228</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="H244" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I244" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A245">
+        <v>4266367000</v>
+      </c>
+      <c r="B245">
+        <v>4266367000</v>
+      </c>
+      <c r="C245">
+        <v>4266367000</v>
+      </c>
+      <c r="D245" t="s">
+        <v>426</v>
+      </c>
+      <c r="E245">
+        <v>4266367</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246">
         <v>4272240000</v>
       </c>
-      <c r="B245">
+      <c r="B246">
         <v>4094294000</v>
       </c>
-      <c r="C245">
+      <c r="C246">
         <v>4272240000</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D246" t="s">
         <v>428</v>
       </c>
-      <c r="E245">
+      <c r="E246">
         <v>4272240</v>
       </c>
-      <c r="F245" s="1" t="s">
+      <c r="F246" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="I245" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>4266367000</v>
-      </c>
-      <c r="B246">
-        <v>4266367000</v>
-      </c>
-      <c r="C246">
-        <v>4266367000</v>
-      </c>
-      <c r="D246" t="s">
-        <v>426</v>
-      </c>
-      <c r="E246">
-        <v>4266367</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="I246" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A247">
+        <v>4273391000</v>
+      </c>
+      <c r="B247">
+        <v>4273391000</v>
+      </c>
+      <c r="C247">
+        <v>4273391000</v>
+      </c>
+      <c r="D247" t="s">
+        <v>429</v>
+      </c>
+      <c r="E247">
+        <v>4273391</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A248">
         <v>4281232000</v>
       </c>
-      <c r="B247">
+      <c r="B248">
         <v>4212540000</v>
       </c>
-      <c r="C247">
+      <c r="C248">
         <v>4281232000</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D248" t="s">
         <v>431</v>
       </c>
-      <c r="E247">
+      <c r="E248">
         <v>4281232</v>
       </c>
-      <c r="F247" s="1" t="s">
+      <c r="F248" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I247" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="I248" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>4284492000</v>
       </c>
-      <c r="B248">
+      <c r="B249">
         <v>140168000</v>
       </c>
-      <c r="C248">
+      <c r="C249">
         <v>4284492000</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D249" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E248">
+      <c r="E249">
         <v>4284492</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="F249" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I248" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>4273391000</v>
-      </c>
-      <c r="B249">
-        <v>4273391000</v>
-      </c>
-      <c r="C249">
-        <v>4273391000</v>
-      </c>
-      <c r="D249" t="s">
-        <v>429</v>
-      </c>
-      <c r="E249">
-        <v>4273391</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>430</v>
+      <c r="I249" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -8036,45 +8036,45 @@
     </row>
     <row r="251" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>4290976000</v>
+        <v>4286201000</v>
       </c>
       <c r="B251">
-        <v>4137275000</v>
+        <v>4286201000</v>
       </c>
       <c r="C251">
-        <v>4290976000</v>
+        <v>4286201000</v>
       </c>
       <c r="D251" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E251">
-        <v>4290976</v>
+        <v>4286201</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I251" t="s">
-        <v>22</v>
+        <v>437</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>4286201000</v>
+        <v>4290976000</v>
       </c>
       <c r="B252">
-        <v>4286201000</v>
+        <v>4137275000</v>
       </c>
       <c r="C252">
-        <v>4286201000</v>
+        <v>4290976000</v>
       </c>
       <c r="D252" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E252">
-        <v>4286201</v>
+        <v>4290976</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="I252" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -8117,96 +8117,96 @@
         <v>443</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A255">
+        <v>4311499000</v>
+      </c>
+      <c r="B255">
+        <v>4311499000</v>
+      </c>
+      <c r="C255">
+        <v>4311499000</v>
+      </c>
+      <c r="D255" t="s">
+        <v>444</v>
+      </c>
+      <c r="E255">
+        <v>4311499</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H255" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A256">
         <v>4318985000</v>
       </c>
-      <c r="B255">
+      <c r="B256">
         <v>378416000</v>
       </c>
-      <c r="C255">
+      <c r="C256">
         <v>4318985000</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D256" t="s">
         <v>446</v>
       </c>
-      <c r="E255">
+      <c r="E256">
         <v>4318985</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="F256" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="I255" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>4311499000</v>
-      </c>
-      <c r="B256">
-        <v>4311499000</v>
-      </c>
-      <c r="C256">
-        <v>4311499000</v>
-      </c>
-      <c r="D256" t="s">
-        <v>444</v>
-      </c>
-      <c r="E256">
-        <v>4311499</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H256" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I256" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A257">
+        <v>4322024000</v>
+      </c>
+      <c r="B257">
+        <v>4322024000</v>
+      </c>
+      <c r="C257">
+        <v>4322024000</v>
+      </c>
+      <c r="D257" t="s">
+        <v>447</v>
+      </c>
+      <c r="E257">
+        <v>4322024</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H257" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A258">
         <v>4344489000</v>
       </c>
-      <c r="B257">
+      <c r="B258">
         <v>4137275000</v>
       </c>
-      <c r="C257">
+      <c r="C258">
         <v>4344489000</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D258" t="s">
         <v>450</v>
       </c>
-      <c r="E257">
+      <c r="E258">
         <v>4344489</v>
       </c>
-      <c r="F257" s="1" t="s">
+      <c r="F258" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="I257" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>4322024000</v>
-      </c>
-      <c r="B258">
-        <v>4322024000</v>
-      </c>
-      <c r="C258">
-        <v>4322024000</v>
-      </c>
-      <c r="D258" t="s">
-        <v>447</v>
-      </c>
-      <c r="E258">
-        <v>4322024</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H258" t="s">
-        <v>449</v>
+      <c r="I258" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -8229,142 +8229,142 @@
         <v>452</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A260">
+        <v>37311061000</v>
+      </c>
+      <c r="B260">
+        <v>37311061000</v>
+      </c>
+      <c r="C260">
+        <v>37311061000</v>
+      </c>
+      <c r="D260" t="s">
+        <v>453</v>
+      </c>
+      <c r="E260">
+        <v>37311061</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A261">
         <v>40479589000</v>
       </c>
-      <c r="B260">
+      <c r="B261">
         <v>321319000</v>
       </c>
-      <c r="C260">
+      <c r="C261">
         <v>40479589000</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D261" t="s">
         <v>455</v>
       </c>
-      <c r="E260">
+      <c r="E261">
         <v>40479589</v>
       </c>
-      <c r="F260" s="1" t="s">
+      <c r="F261" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I260" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="I261" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A262">
         <v>40481901000</v>
       </c>
-      <c r="B261">
+      <c r="B262">
         <v>432571000</v>
       </c>
-      <c r="C261">
+      <c r="C262">
         <v>40481901000</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D262" t="s">
         <v>457</v>
       </c>
-      <c r="E261">
+      <c r="E262">
         <v>40481901</v>
       </c>
-      <c r="F261" s="1" t="s">
+      <c r="F262" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="I261" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>37311061000</v>
-      </c>
-      <c r="B262">
-        <v>37311061000</v>
-      </c>
-      <c r="C262">
-        <v>37311061000</v>
-      </c>
-      <c r="D262" t="s">
-        <v>453</v>
-      </c>
-      <c r="E262">
-        <v>37311061</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I262" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>40490918000</v>
+        <v>40481902000</v>
       </c>
       <c r="B263">
-        <v>432571000</v>
+        <v>40481902000</v>
       </c>
       <c r="C263">
-        <v>40490918000</v>
+        <v>40481902000</v>
       </c>
       <c r="D263" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E263">
-        <v>40490918</v>
+        <v>40481902</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="H263" t="s">
-        <v>24</v>
-      </c>
-      <c r="I263" t="s">
-        <v>22</v>
+        <v>460</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A264">
+        <v>40490918000</v>
+      </c>
+      <c r="B264">
+        <v>432571000</v>
+      </c>
+      <c r="C264">
+        <v>40490918000</v>
+      </c>
+      <c r="D264" t="s">
+        <v>461</v>
+      </c>
+      <c r="E264">
+        <v>40490918</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H264" t="s">
+        <v>24</v>
+      </c>
+      <c r="I264" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A265">
         <v>42535714000</v>
       </c>
-      <c r="B264">
+      <c r="B265">
         <v>4137275000</v>
       </c>
-      <c r="C264">
+      <c r="C265">
         <v>42535714000</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D265" t="s">
         <v>462</v>
       </c>
-      <c r="E264">
+      <c r="E265">
         <v>42535714</v>
       </c>
-      <c r="F264" s="1" t="s">
+      <c r="F265" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I264" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>40481902000</v>
-      </c>
-      <c r="B265">
-        <v>40481902000</v>
-      </c>
-      <c r="C265">
-        <v>40481902000</v>
-      </c>
-      <c r="D265" t="s">
-        <v>458</v>
-      </c>
-      <c r="E265">
-        <v>40481902</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H265" t="s">
-        <v>460</v>
+      <c r="I265" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -8387,50 +8387,50 @@
         <v>465</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
+        <v>43021226000</v>
+      </c>
+      <c r="B267">
+        <v>43021226000</v>
+      </c>
+      <c r="C267">
+        <v>43021226000</v>
+      </c>
+      <c r="D267" t="s">
+        <v>552</v>
+      </c>
+      <c r="E267">
+        <v>43021226</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H267" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A268">
         <v>43530714000</v>
       </c>
-      <c r="B267">
+      <c r="B268">
         <v>4094294000</v>
       </c>
-      <c r="C267">
+      <c r="C268">
         <v>43530714000</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D268" t="s">
         <v>466</v>
       </c>
-      <c r="E267">
+      <c r="E268">
         <v>43530714</v>
       </c>
-      <c r="F267" s="1" t="s">
+      <c r="F268" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I267" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>43021226000</v>
-      </c>
-      <c r="B268">
-        <v>43021226000</v>
-      </c>
-      <c r="C268">
-        <v>43021226000</v>
-      </c>
-      <c r="D268" t="s">
-        <v>552</v>
-      </c>
-      <c r="E268">
-        <v>43021226</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H268" t="s">
-        <v>488</v>
+      <c r="I268" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -8456,55 +8456,55 @@
         <v>469</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A270">
+        <v>45763653000</v>
+      </c>
+      <c r="B270">
+        <v>45763653000</v>
+      </c>
+      <c r="C270">
+        <v>45763653000</v>
+      </c>
+      <c r="D270" t="s">
+        <v>470</v>
+      </c>
+      <c r="E270">
+        <v>45763653</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H270" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A271">
         <v>46271022000</v>
       </c>
-      <c r="B270">
+      <c r="B271">
         <v>4030518000</v>
       </c>
-      <c r="C270">
+      <c r="C271">
         <v>46271022000</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D271" t="s">
         <v>472</v>
       </c>
-      <c r="E270">
+      <c r="E271">
         <v>46271022</v>
       </c>
-      <c r="F270" s="1" t="s">
+      <c r="F271" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I270" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>45763653000</v>
-      </c>
-      <c r="B271">
-        <v>45763653000</v>
-      </c>
-      <c r="C271">
-        <v>45763653000</v>
-      </c>
-      <c r="D271" t="s">
-        <v>470</v>
-      </c>
-      <c r="E271">
-        <v>45763653</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H271" t="s">
-        <v>24</v>
+      <c r="I271" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I271">
-    <sortState ref="A3:I271">
+    <sortState ref="A2:I271">
       <sortCondition ref="C1:C271"/>
     </sortState>
   </autoFilter>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -2561,9 +2561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="A1:I271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="566">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -1721,6 +1721,9 @@
   </si>
   <si>
     <t>Overview: [Deprecate in favor of Inflammatory disorder of mediastinum 4189294000] Inflammation of the pericardial fibroelastic sac - classified into five subtypes, Acute and recurrent pericarditis, Pericardial effusion without major hemodynamic compromise, Cardiac tamponade with hemodynamic compromise, Constrictive pericarditis, Effusive-constrictive pericarditis. If myocardial inflammation is also present  then the term myopericarditis or perimyocarditis is used. Presentation: Sharp chest pain improved by sitting up and leaning forward. If pericardiatis is due to infection, fever may be present. Assessment: Auscultation for pericardial friction rub; ECG showing widespread ST elevations, chest x ray, cardiac markers (troponin) elevation, pericardiocentesis/pericardial biopsy, CBC, sed rate, CRP, echocardiography. Blood cultures for fever, rheumatology workup in young women. Plan: NSAIDs (nonsteroidal anti-inflammatory drugs) with colchicine or aspirin. If this treatment fails, further workup needed to rule out atypical forms of pericarditis including tuberculosis, cancer, and inflammatory disease. Most low risk patients may be managed in ambulatory settings, high risk patients need to be hospitalized. High risk features include fever, sub-acute onset, hemodynamic compromise/cardiac tamponade, immunosuppression, on anticoagulant therapy, acute trauma, elevated cardiac enzymes. Prognosis: Patients with acute idiopathic or viral pericarditis have a good long-term prognosis - typically self-limited over 2 weeks with NSAID treatment resulting in good long-term prognosis. Cardiac tamponade rarely occurs in patients with acute idiopathic pericarditis and is more common in patients with a specific underlying etiology such as malignancy, tuberculosis, or purulent pericarditis. Constrictive pericarditis may occur in approximately 1 percent of patients with acute idiopathic pericarditis and is also more common in patients with a specific etiology.</t>
+  </si>
+  <si>
+    <t>Autism spectrum disorder</t>
   </si>
 </sst>
 </file>
@@ -2561,9 +2564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="A1:I271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6074,8 +6077,8 @@
       <c r="C160">
         <v>439776000</v>
       </c>
-      <c r="D160">
-        <v>0</v>
+      <c r="D160" t="s">
+        <v>565</v>
       </c>
       <c r="E160">
         <v>439776</v>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -15,14 +15,14 @@
     <sheet name="PhenotypeDescription" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$270</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="564">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -907,12 +907,6 @@
   </si>
   <si>
     <t>Overview: Pain and inflammation occur when too much uric acid crystallizes and deposits in the joints. Form of arthritis. Gout occurs when urate crystals accumulate in your joint, causing the inflammation and intense pain of a gout attackPresentation: Sudden, severe attacks of pain, swelling, redness and tenderness in the joints, often the joint at the base of the big toe. Symptoms come and go. Tophi - large, visible bumps made of urate crystals. Assessment: joint fluid test (from the affected joint), blood levels of uric acid and creatinine, xray, ultrasound, sual energy CT scan Plan: NSAIDs, Colchicine, Corticosteroids; xanthine oxidase inhibitors (XOIs) and uricosurics to prevent gout complications Prognosis: Early gout diagnosis, therapy enables most patients to live a normal life. Gout is a highly treatable form of arthritis.</t>
-  </si>
-  <si>
-    <t>Trigeminal nerve disorder</t>
-  </si>
-  <si>
-    <t>Overview: Trigeminal (fifth) nerve, largest of the cranial nerve - supplies sensation to the skin of the face and anterior half of head. Motor component - muscles of mastication and tensor tympani of middle ear hearing. Most commonly disorder is Trigeminal neuralgia (tic douloureux) TN - mainly due to compression of the trigeminal nerve root, demyelination (multiple sclerosis). Trigemenial nerve disorder may also present without pain, e.g. trigeminal neuropathy with sensory loss on the face, with weakness of muscles of masticatio- deviation of jaw on opening. Presentation: TN is characterized by recurrent brief episodes of excruciating unilateral electric shock like pain in the lips, gums, cheek or chin. TN is mosstly clustered among middle-aged and elderly persons are affected, with ~ 60% in women. Assessment: TN is a clinical diagnosis - but detailed investigation using neuroimaging to identify cause. Rule out herpes zoster, post traumatic.  Plan: carbamazepine or oxcarbazepine is first line. Gabapentin for non responders. Lidocaine, phenytoin for rescue therapy. Occassionally surgery (gamma knife radiosurgery, rhizotomy, microvascular decompression). Prognosis: highly variable, may go into months of remission. recurrence is common.</t>
   </si>
   <si>
     <t>Takayasu's disease</t>
@@ -2562,11 +2556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167:XFD167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,7 +2621,7 @@
         <v>24134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2670,7 +2664,7 @@
         <v>27918</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2693,7 +2687,7 @@
         <v>30753</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -2716,7 +2710,7 @@
         <v>31317</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -2739,7 +2733,7 @@
         <v>31967</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -2785,7 +2779,7 @@
         <v>287</v>
       </c>
       <c r="H9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2805,7 +2799,7 @@
         <v>75860</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -2851,7 +2845,7 @@
         <v>77074</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -2900,7 +2894,7 @@
         <v>80182</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2983,7 +2977,7 @@
         <v>81893</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -3006,7 +3000,7 @@
         <v>81902</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3089,7 +3083,7 @@
         <v>132797</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -3112,7 +3106,7 @@
         <v>133169</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -3218,7 +3212,7 @@
         <v>137977</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -3281,7 +3275,7 @@
         <v>138994</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3367,7 +3361,7 @@
         <v>140352</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -3470,7 +3464,7 @@
         <v>192359</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -3556,7 +3550,7 @@
         <v>194133</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3599,7 +3593,7 @@
         <v>194992</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3622,7 +3616,7 @@
         <v>196523</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3797,7 +3791,7 @@
         <v>200219</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3869,7 +3863,7 @@
         <v>201254</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3892,7 +3886,7 @@
         <v>201340</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3915,7 +3909,7 @@
         <v>201606</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3949,7 +3943,7 @@
         <v>201820000</v>
       </c>
       <c r="D63" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E63">
         <v>201820</v>
@@ -3958,7 +3952,7 @@
         <v>287</v>
       </c>
       <c r="H63" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3978,7 +3972,7 @@
         <v>201826</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -4044,7 +4038,7 @@
         <v>254761</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -4150,7 +4144,7 @@
         <v>312327</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -4173,7 +4167,7 @@
         <v>312437</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -4216,7 +4210,7 @@
         <v>313217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -4239,7 +4233,7 @@
         <v>313223</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -4262,7 +4256,7 @@
         <v>313459</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -4325,7 +4319,7 @@
         <v>314383</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
@@ -4394,7 +4388,7 @@
         <v>317009</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -4417,7 +4411,7 @@
         <v>317576</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4572,7 +4566,7 @@
         <v>321042</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H91" t="s">
         <v>24</v>
@@ -4621,7 +4615,7 @@
         <v>321318</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -4664,7 +4658,7 @@
         <v>321588</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H95" t="s">
         <v>24</v>
@@ -4710,7 +4704,7 @@
         <v>373503</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
@@ -4759,7 +4753,7 @@
         <v>374028</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -4802,7 +4796,7 @@
         <v>374377</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H101" t="s">
         <v>24</v>
@@ -5006,7 +5000,7 @@
         <v>378253</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -5029,7 +5023,7 @@
         <v>378414</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -5092,7 +5086,7 @@
         <v>380378</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -5218,7 +5212,7 @@
         <v>432571000</v>
       </c>
       <c r="D120" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E120">
         <v>432571000</v>
@@ -5267,7 +5261,7 @@
         <v>432595</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5330,7 +5324,7 @@
         <v>432870</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I125" t="s">
         <v>22</v>
@@ -5399,7 +5393,7 @@
         <v>433595</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -5502,7 +5496,7 @@
         <v>434592</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -5657,7 +5651,7 @@
         <v>248</v>
       </c>
       <c r="H140" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5677,7 +5671,7 @@
         <v>436096</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I141" t="s">
         <v>22</v>
@@ -5720,7 +5714,7 @@
         <v>4307095</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I143" t="s">
         <v>22</v>
@@ -5806,7 +5800,7 @@
         <v>436962</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I147" t="s">
         <v>22</v>
@@ -5829,7 +5823,7 @@
         <v>437082</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I148" t="s">
         <v>22</v>
@@ -5895,7 +5889,7 @@
         <v>437312</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I151" t="s">
         <v>22</v>
@@ -5938,7 +5932,7 @@
         <v>437663</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H153" t="s">
         <v>269</v>
@@ -6078,7 +6072,7 @@
         <v>439776000</v>
       </c>
       <c r="D160" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E160">
         <v>439776</v>
@@ -6150,7 +6144,7 @@
         <v>440377</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H163" t="s">
         <v>24</v>
@@ -6221,62 +6215,62 @@
     </row>
     <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>440703000</v>
+        <v>440740000</v>
       </c>
       <c r="B167">
-        <v>440703000</v>
+        <v>4137275000</v>
       </c>
       <c r="C167">
-        <v>440703000</v>
+        <v>440740000</v>
       </c>
       <c r="D167" t="s">
         <v>295</v>
       </c>
       <c r="E167">
-        <v>440703</v>
+        <v>440740</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>440740000</v>
+        <v>440925000</v>
       </c>
       <c r="B168">
-        <v>4137275000</v>
+        <v>440925000</v>
       </c>
       <c r="C168">
-        <v>440740000</v>
+        <v>440925000</v>
       </c>
       <c r="D168" t="s">
         <v>297</v>
       </c>
       <c r="E168">
-        <v>440740</v>
+        <v>440925</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I168" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>440925000</v>
+        <v>440940000</v>
       </c>
       <c r="B169">
-        <v>440925000</v>
+        <v>440940000</v>
       </c>
       <c r="C169">
-        <v>440925000</v>
+        <v>440940000</v>
       </c>
       <c r="D169" t="s">
         <v>299</v>
       </c>
       <c r="E169">
-        <v>440925</v>
+        <v>440940</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>300</v>
@@ -6284,151 +6278,154 @@
     </row>
     <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>440940000</v>
+        <v>441202000</v>
       </c>
       <c r="B170">
-        <v>440940000</v>
+        <v>43021226000</v>
       </c>
       <c r="C170">
-        <v>440940000</v>
-      </c>
-      <c r="D170" t="s">
+        <v>441202000</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>301</v>
       </c>
       <c r="E170">
-        <v>440940</v>
+        <v>441202</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="I170" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>441202000</v>
+        <v>441284000</v>
       </c>
       <c r="B171">
-        <v>43021226000</v>
+        <v>441284000</v>
       </c>
       <c r="C171">
-        <v>441202000</v>
-      </c>
-      <c r="D171" s="2" t="s">
+        <v>441284000</v>
+      </c>
+      <c r="D171" t="s">
         <v>303</v>
       </c>
       <c r="E171">
-        <v>441202</v>
+        <v>441284</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I171" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>441284000</v>
+        <v>441408000</v>
       </c>
       <c r="B172">
-        <v>441284000</v>
+        <v>4094294000</v>
       </c>
       <c r="C172">
-        <v>441284000</v>
+        <v>441408000</v>
       </c>
       <c r="D172" t="s">
         <v>305</v>
       </c>
       <c r="E172">
-        <v>441284</v>
+        <v>441408</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="I172" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>441408000</v>
+        <v>441542000</v>
       </c>
       <c r="B173">
         <v>4094294000</v>
       </c>
       <c r="C173">
-        <v>441408000</v>
+        <v>441542000</v>
       </c>
       <c r="D173" t="s">
+        <v>306</v>
+      </c>
+      <c r="E173">
+        <v>441542</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>441788000</v>
+      </c>
+      <c r="B174">
+        <v>441788000</v>
+      </c>
+      <c r="C174">
+        <v>441788000</v>
+      </c>
+      <c r="D174" t="s">
         <v>307</v>
       </c>
-      <c r="E173">
-        <v>441408</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I173" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>441542000</v>
-      </c>
-      <c r="B174">
-        <v>4094294000</v>
-      </c>
-      <c r="C174">
-        <v>441542000</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="E174">
+        <v>441788</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E174">
-        <v>441542</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I174" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>441788000</v>
+        <v>441848000</v>
       </c>
       <c r="B175">
-        <v>441788000</v>
+        <v>0</v>
       </c>
       <c r="C175">
-        <v>441788000</v>
+        <v>441848000</v>
       </c>
       <c r="D175" t="s">
         <v>309</v>
       </c>
       <c r="E175">
-        <v>441788</v>
+        <v>441848</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I175" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>441848000</v>
+        <v>442752000</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>4094294000</v>
       </c>
       <c r="C176">
-        <v>441848000</v>
+        <v>442752000</v>
       </c>
       <c r="D176" t="s">
         <v>311</v>
       </c>
       <c r="E176">
-        <v>441848</v>
+        <v>442752</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>312</v>
+        <v>543</v>
       </c>
       <c r="I176" t="s">
         <v>22</v>
@@ -6436,42 +6433,39 @@
     </row>
     <row r="177" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>442752000</v>
+        <v>443213000</v>
       </c>
       <c r="B177">
-        <v>4094294000</v>
+        <v>443213000</v>
       </c>
       <c r="C177">
-        <v>442752000</v>
+        <v>443213000</v>
       </c>
       <c r="D177" t="s">
+        <v>312</v>
+      </c>
+      <c r="E177">
+        <v>443213</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E177">
-        <v>442752</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I177" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>443213000</v>
+        <v>443387000</v>
       </c>
       <c r="B178">
-        <v>443213000</v>
+        <v>443387000</v>
       </c>
       <c r="C178">
-        <v>443213000</v>
+        <v>443387000</v>
       </c>
       <c r="D178" t="s">
         <v>314</v>
       </c>
       <c r="E178">
-        <v>443213</v>
+        <v>443387</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>315</v>
@@ -6479,693 +6473,696 @@
     </row>
     <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>443387000</v>
+        <v>443392000</v>
       </c>
       <c r="B179">
-        <v>443387000</v>
+        <v>443392000</v>
       </c>
       <c r="C179">
-        <v>443387000</v>
-      </c>
-      <c r="D179" t="s">
+        <v>443392000</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>316</v>
       </c>
       <c r="E179">
-        <v>443387</v>
+        <v>443392</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>443392000</v>
+        <v>443454000</v>
       </c>
       <c r="B180">
-        <v>443392000</v>
+        <v>381591000</v>
       </c>
       <c r="C180">
-        <v>443392000</v>
-      </c>
-      <c r="D180" s="3" t="s">
+        <v>443454000</v>
+      </c>
+      <c r="D180" t="s">
         <v>318</v>
       </c>
       <c r="E180">
-        <v>443392</v>
+        <v>443454</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I180" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>443454000</v>
+        <v>443700000</v>
       </c>
       <c r="B181">
-        <v>381591000</v>
+        <v>443700000</v>
       </c>
       <c r="C181">
-        <v>443454000</v>
+        <v>443700000</v>
       </c>
       <c r="D181" t="s">
         <v>320</v>
       </c>
       <c r="E181">
-        <v>443454</v>
+        <v>443700</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I181" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>443700000</v>
+        <v>443723000</v>
       </c>
       <c r="B182">
-        <v>443700000</v>
+        <v>443723000</v>
       </c>
       <c r="C182">
-        <v>443700000</v>
+        <v>443723000</v>
       </c>
       <c r="D182" t="s">
+        <v>557</v>
+      </c>
+      <c r="E182">
+        <v>443723</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>443727000</v>
+      </c>
+      <c r="B183">
+        <v>201820000</v>
+      </c>
+      <c r="C183">
+        <v>443727000</v>
+      </c>
+      <c r="D183" t="s">
         <v>322</v>
       </c>
-      <c r="E182">
-        <v>443700</v>
-      </c>
-      <c r="F182" s="1" t="s">
+      <c r="E183">
+        <v>443727</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>444044000</v>
+      </c>
+      <c r="B184">
+        <v>4030518000</v>
+      </c>
+      <c r="C184">
+        <v>444044000</v>
+      </c>
+      <c r="D184" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>443723000</v>
-      </c>
-      <c r="B183">
-        <v>443723000</v>
-      </c>
-      <c r="C183">
-        <v>443723000</v>
-      </c>
-      <c r="D183" t="s">
-        <v>559</v>
-      </c>
-      <c r="E183">
-        <v>443723</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>443727000</v>
-      </c>
-      <c r="B184">
-        <v>201820000</v>
-      </c>
-      <c r="C184">
-        <v>443727000</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="E184">
+        <v>444044</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I184" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>444070000</v>
+      </c>
+      <c r="B185">
+        <v>4094294000</v>
+      </c>
+      <c r="C185">
+        <v>444070000</v>
+      </c>
+      <c r="D185" t="s">
         <v>324</v>
       </c>
-      <c r="E184">
-        <v>443727</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I184" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>444044000</v>
-      </c>
-      <c r="B185">
-        <v>4030518000</v>
-      </c>
-      <c r="C185">
-        <v>444044000</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="E185">
+        <v>444070</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I185" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>444247000</v>
+      </c>
+      <c r="B186">
+        <v>444247000</v>
+      </c>
+      <c r="C186">
+        <v>444247000</v>
+      </c>
+      <c r="D186" t="s">
         <v>325</v>
       </c>
-      <c r="E185">
-        <v>444044</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I185" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>444070000</v>
-      </c>
-      <c r="B186">
-        <v>4094294000</v>
-      </c>
-      <c r="C186">
-        <v>444070000</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="E186">
+        <v>444247</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E186">
-        <v>444070</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I186" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>444247000</v>
+        <v>444429000</v>
       </c>
       <c r="B187">
-        <v>444247000</v>
+        <v>444429000</v>
       </c>
       <c r="C187">
-        <v>444247000</v>
+        <v>444429000</v>
       </c>
       <c r="D187" t="s">
         <v>327</v>
       </c>
       <c r="E187">
-        <v>444247</v>
+        <v>444429</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>444429000</v>
+        <v>4000634000</v>
       </c>
       <c r="B188">
-        <v>444429000</v>
+        <v>73553000</v>
       </c>
       <c r="C188">
-        <v>444429000</v>
+        <v>4000634000</v>
       </c>
       <c r="D188" t="s">
         <v>329</v>
       </c>
       <c r="E188">
-        <v>444429</v>
+        <v>4000634</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="H188" t="s">
+        <v>331</v>
+      </c>
+      <c r="I188" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>4000634000</v>
+        <v>4002359000</v>
       </c>
       <c r="B189">
-        <v>73553000</v>
+        <v>436081000</v>
       </c>
       <c r="C189">
-        <v>4000634000</v>
+        <v>4002359000</v>
       </c>
       <c r="D189" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E189">
-        <v>4000634</v>
+        <v>4002359</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H189" t="s">
         <v>333</v>
       </c>
       <c r="I189" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>4002359000</v>
+        <v>4013643000</v>
       </c>
       <c r="B190">
-        <v>436081000</v>
+        <v>4013643000</v>
       </c>
       <c r="C190">
-        <v>4002359000</v>
+        <v>4013643000</v>
       </c>
       <c r="D190" t="s">
         <v>334</v>
       </c>
       <c r="E190">
-        <v>4002359</v>
+        <v>4013643</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I190" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>4013643000</v>
+        <v>4024659000</v>
       </c>
       <c r="B191">
-        <v>4013643000</v>
+        <v>201820000</v>
       </c>
       <c r="C191">
-        <v>4013643000</v>
+        <v>4024659000</v>
       </c>
       <c r="D191" t="s">
         <v>336</v>
       </c>
       <c r="E191">
-        <v>4013643</v>
+        <v>4024659</v>
       </c>
       <c r="F191" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H191" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>4024659000</v>
+        <v>4027537000</v>
       </c>
       <c r="B192">
-        <v>201820000</v>
+        <v>4027537000</v>
       </c>
       <c r="C192">
-        <v>4024659000</v>
+        <v>4027537000</v>
       </c>
       <c r="D192" t="s">
         <v>338</v>
       </c>
       <c r="E192">
-        <v>4024659</v>
+        <v>4027537</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H192" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4028363000</v>
+      </c>
+      <c r="B193">
+        <v>4028363000</v>
+      </c>
+      <c r="C193">
+        <v>4028363000</v>
+      </c>
+      <c r="D193" t="s">
         <v>339</v>
       </c>
-      <c r="I192" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>4027537000</v>
-      </c>
-      <c r="B193">
-        <v>4027537000</v>
-      </c>
-      <c r="C193">
-        <v>4027537000</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="E193">
+        <v>4028363</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E193">
-        <v>4027537</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>4028363000</v>
+        <v>4030518000</v>
       </c>
       <c r="B194">
-        <v>4028363000</v>
+        <v>4030518000</v>
       </c>
       <c r="C194">
-        <v>4028363000</v>
+        <v>4030518000</v>
       </c>
       <c r="D194" t="s">
         <v>341</v>
       </c>
       <c r="E194">
-        <v>4028363</v>
+        <v>4030518</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>4030518000</v>
+        <v>4038838000</v>
       </c>
       <c r="B195">
-        <v>4030518000</v>
+        <v>432571000</v>
       </c>
       <c r="C195">
-        <v>4030518000</v>
+        <v>4038838000</v>
       </c>
       <c r="D195" t="s">
         <v>343</v>
       </c>
       <c r="E195">
-        <v>4030518</v>
+        <v>4038838</v>
       </c>
       <c r="F195" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I195" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>4043371000</v>
+      </c>
+      <c r="C196">
+        <v>4043371000</v>
+      </c>
+      <c r="D196" t="s">
+        <v>472</v>
+      </c>
+      <c r="E196">
+        <v>4043371</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H196" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>4046338000</v>
+      </c>
+      <c r="B197">
+        <v>4046338000</v>
+      </c>
+      <c r="C197">
+        <v>4046338000</v>
+      </c>
+      <c r="D197" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>4038838000</v>
-      </c>
-      <c r="B196">
-        <v>432571000</v>
-      </c>
-      <c r="C196">
-        <v>4038838000</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="E197">
+        <v>4046338</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E196">
-        <v>4038838</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I196" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B197">
-        <v>4043371000</v>
-      </c>
-      <c r="C197">
-        <v>4043371000</v>
-      </c>
-      <c r="D197" t="s">
-        <v>474</v>
-      </c>
-      <c r="E197">
-        <v>4043371</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H197" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>4046338000</v>
+        <v>4058821000</v>
       </c>
       <c r="B198">
-        <v>4046338000</v>
+        <v>4212540000</v>
       </c>
       <c r="C198">
-        <v>4046338000</v>
+        <v>4058821000</v>
       </c>
       <c r="D198" t="s">
         <v>346</v>
       </c>
       <c r="E198">
-        <v>4046338</v>
+        <v>4058821</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="I198" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>4058821000</v>
+        <v>4063434000</v>
       </c>
       <c r="B199">
+        <v>140168000</v>
+      </c>
+      <c r="C199">
+        <v>4063434000</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E199">
+        <v>4063434</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>4064161000</v>
+      </c>
+      <c r="B200">
         <v>4212540000</v>
       </c>
-      <c r="C199">
-        <v>4058821000</v>
-      </c>
-      <c r="D199" t="s">
-        <v>348</v>
-      </c>
-      <c r="E199">
-        <v>4058821</v>
-      </c>
-      <c r="F199" s="1" t="s">
+      <c r="C200">
+        <v>4064161000</v>
+      </c>
+      <c r="D200" t="s">
         <v>349</v>
       </c>
-      <c r="I199" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>4063434000</v>
-      </c>
-      <c r="B200">
-        <v>140168000</v>
-      </c>
-      <c r="C200">
-        <v>4063434000</v>
-      </c>
-      <c r="D200" s="3" t="s">
+      <c r="E200">
+        <v>4064161</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E200">
-        <v>4063434</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I200" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>4064161000</v>
+        <v>4067106000</v>
       </c>
       <c r="B201">
-        <v>4212540000</v>
+        <v>4067106000</v>
       </c>
       <c r="C201">
-        <v>4064161000</v>
+        <v>4067106000</v>
       </c>
       <c r="D201" t="s">
         <v>351</v>
       </c>
       <c r="E201">
-        <v>4064161</v>
+        <v>4067106</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I201" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>4067106000</v>
+        <v>4070552000</v>
       </c>
       <c r="B202">
-        <v>4067106000</v>
+        <v>4164770000</v>
       </c>
       <c r="C202">
-        <v>4067106000</v>
+        <v>4070552000</v>
       </c>
       <c r="D202" t="s">
         <v>353</v>
       </c>
       <c r="E202">
-        <v>4067106</v>
+        <v>4070552</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>355</v>
+      </c>
+      <c r="I202" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>4070552000</v>
+        <v>4074815000</v>
       </c>
       <c r="B203">
-        <v>4164770000</v>
+        <v>4043371000</v>
       </c>
       <c r="C203">
-        <v>4070552000</v>
+        <v>4074815000</v>
       </c>
       <c r="D203" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E203">
-        <v>4070552</v>
+        <v>4074815</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H203" t="s">
+        <v>478</v>
+      </c>
+      <c r="I203" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>4079843000</v>
+      </c>
+      <c r="B204">
+        <v>4306655000</v>
+      </c>
+      <c r="C204">
+        <v>4079843000</v>
+      </c>
+      <c r="D204" t="s">
         <v>357</v>
       </c>
-      <c r="I203" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>4074815000</v>
-      </c>
-      <c r="B204">
-        <v>4043371000</v>
-      </c>
-      <c r="C204">
-        <v>4074815000</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="E204">
+        <v>4079843</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I204" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4091559000</v>
+      </c>
+      <c r="B205">
+        <v>378135000</v>
+      </c>
+      <c r="C205">
+        <v>4091559000</v>
+      </c>
+      <c r="D205" t="s">
         <v>358</v>
       </c>
-      <c r="E204">
-        <v>4074815</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I204" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>4079843000</v>
-      </c>
-      <c r="B205">
-        <v>4306655000</v>
-      </c>
-      <c r="C205">
-        <v>4079843000</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="E205">
+        <v>4091559</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E205">
-        <v>4079843</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="I205" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>4091559000</v>
+        <v>4092289000</v>
       </c>
       <c r="B206">
-        <v>378135000</v>
+        <v>4092289000</v>
       </c>
       <c r="C206">
-        <v>4091559000</v>
+        <v>4092289000</v>
       </c>
       <c r="D206" t="s">
         <v>360</v>
       </c>
       <c r="E206">
-        <v>4091559</v>
+        <v>4092289</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="I206" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>4092289000</v>
+        <v>4094294000</v>
       </c>
       <c r="B207">
-        <v>4092289000</v>
+        <v>4094294000</v>
       </c>
       <c r="C207">
-        <v>4092289000</v>
+        <v>4094294000</v>
       </c>
       <c r="D207" t="s">
+        <v>520</v>
+      </c>
+      <c r="E207">
+        <v>4094294</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>4098292000</v>
+      </c>
+      <c r="B208">
+        <v>4098292000</v>
+      </c>
+      <c r="C208">
+        <v>4098292000</v>
+      </c>
+      <c r="D208" t="s">
         <v>362</v>
       </c>
-      <c r="E207">
-        <v>4092289</v>
-      </c>
-      <c r="F207" s="1" t="s">
+      <c r="E208">
+        <v>4098292</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>4094294000</v>
-      </c>
-      <c r="B208">
-        <v>4094294000</v>
-      </c>
-      <c r="C208">
-        <v>4094294000</v>
-      </c>
-      <c r="D208" t="s">
-        <v>522</v>
-      </c>
-      <c r="E208">
-        <v>4094294</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>4098292000</v>
+        <v>4098597000</v>
       </c>
       <c r="B209">
-        <v>4098292000</v>
+        <v>436081000</v>
       </c>
       <c r="C209">
-        <v>4098292000</v>
+        <v>4098597000</v>
       </c>
       <c r="D209" t="s">
         <v>364</v>
       </c>
       <c r="E209">
-        <v>4098292</v>
+        <v>4098597</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I209" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>4098597000</v>
+        <v>4101602000</v>
       </c>
       <c r="B210">
-        <v>436081000</v>
+        <v>4137275000</v>
       </c>
       <c r="C210">
-        <v>4098597000</v>
+        <v>4101602000</v>
       </c>
       <c r="D210" t="s">
         <v>366</v>
       </c>
       <c r="E210">
-        <v>4098597</v>
+        <v>4101602</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>367</v>
@@ -7174,864 +7171,861 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>4101602000</v>
+        <v>4103295000</v>
       </c>
       <c r="B211">
-        <v>4137275000</v>
+        <v>44784217000</v>
       </c>
       <c r="C211">
-        <v>4101602000</v>
+        <v>4103295000</v>
       </c>
       <c r="D211" t="s">
         <v>368</v>
       </c>
       <c r="E211">
-        <v>4101602</v>
+        <v>4103295</v>
       </c>
       <c r="F211" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I211" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>4112853000</v>
+      </c>
+      <c r="B212">
+        <v>4112853000</v>
+      </c>
+      <c r="C212">
+        <v>4112853000</v>
+      </c>
+      <c r="D212" t="s">
         <v>369</v>
       </c>
-      <c r="I211" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>4103295000</v>
-      </c>
-      <c r="B212">
-        <v>44784217000</v>
-      </c>
-      <c r="C212">
-        <v>4103295000</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="E212">
+        <v>4112853</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E212">
-        <v>4103295</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I212" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>4112853000</v>
+        <v>4124836000</v>
       </c>
       <c r="B213">
-        <v>4112853000</v>
+        <v>321052000</v>
       </c>
       <c r="C213">
-        <v>4112853000</v>
+        <v>4124836000</v>
       </c>
       <c r="D213" t="s">
         <v>371</v>
       </c>
       <c r="E213">
-        <v>4112853</v>
+        <v>4124836</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="I213" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="214" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>4124836000</v>
+        <v>4131909000</v>
       </c>
       <c r="B214">
-        <v>321052000</v>
+        <v>4131909000</v>
       </c>
       <c r="C214">
-        <v>4124836000</v>
+        <v>4131909000</v>
       </c>
       <c r="D214" t="s">
         <v>373</v>
       </c>
       <c r="E214">
-        <v>4124836</v>
+        <v>4131909</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="I214" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>4131909000</v>
+        <v>4133004000</v>
       </c>
       <c r="B215">
-        <v>4131909000</v>
+        <v>4133004000</v>
       </c>
       <c r="C215">
-        <v>4131909000</v>
+        <v>4133004000</v>
       </c>
       <c r="D215" t="s">
         <v>375</v>
       </c>
       <c r="E215">
-        <v>4131909</v>
+        <v>4133004</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>4133004000</v>
+        <v>4137275000</v>
       </c>
       <c r="B216">
-        <v>4133004000</v>
+        <v>4137275000</v>
       </c>
       <c r="C216">
-        <v>4133004000</v>
+        <v>4137275000</v>
       </c>
       <c r="D216" t="s">
         <v>377</v>
       </c>
       <c r="E216">
-        <v>4133004</v>
+        <v>4137275</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>4137275000</v>
+        <v>4138837000</v>
       </c>
       <c r="B217">
-        <v>4137275000</v>
+        <v>4189294000</v>
       </c>
       <c r="C217">
-        <v>4137275000</v>
+        <v>4138837000</v>
       </c>
       <c r="D217" t="s">
         <v>379</v>
       </c>
       <c r="E217">
-        <v>4137275</v>
+        <v>4138837</v>
       </c>
       <c r="F217" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H217" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="I217" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>4138837000</v>
+        <v>4139034000</v>
       </c>
       <c r="B218">
-        <v>4189294000</v>
+        <v>4139034000</v>
       </c>
       <c r="C218">
-        <v>4138837000</v>
+        <v>4139034000</v>
       </c>
       <c r="D218" t="s">
         <v>381</v>
       </c>
       <c r="E218">
-        <v>4138837</v>
+        <v>4139034</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>564</v>
+        <v>382</v>
       </c>
       <c r="H218" t="s">
-        <v>382</v>
-      </c>
-      <c r="I218" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>4139034000</v>
+        <v>4147411000</v>
       </c>
       <c r="B219">
-        <v>4139034000</v>
+        <v>432571000</v>
       </c>
       <c r="C219">
-        <v>4139034000</v>
+        <v>4147411000</v>
       </c>
       <c r="D219" t="s">
         <v>383</v>
       </c>
       <c r="E219">
-        <v>4139034</v>
+        <v>4147411</v>
       </c>
       <c r="F219" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I219" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>4163261000</v>
+      </c>
+      <c r="B220">
+        <v>4163261000</v>
+      </c>
+      <c r="C220">
+        <v>4163261000</v>
+      </c>
+      <c r="D220" t="s">
         <v>384</v>
       </c>
-      <c r="H219" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>4147411000</v>
-      </c>
-      <c r="B220">
-        <v>432571000</v>
-      </c>
-      <c r="C220">
-        <v>4147411000</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="E220">
+        <v>4163261</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E220">
-        <v>4147411</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="I220" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>4163261000</v>
+        <v>4164770000</v>
       </c>
       <c r="B221">
-        <v>4163261000</v>
+        <v>4164770000</v>
       </c>
       <c r="C221">
-        <v>4163261000</v>
+        <v>4164770000</v>
       </c>
       <c r="D221" t="s">
         <v>386</v>
       </c>
       <c r="E221">
-        <v>4163261</v>
+        <v>4164770</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>4164770000</v>
+        <v>4169095000</v>
       </c>
       <c r="B222">
-        <v>4164770000</v>
+        <v>4094294000</v>
       </c>
       <c r="C222">
-        <v>4164770000</v>
+        <v>4169095000</v>
       </c>
       <c r="D222" t="s">
         <v>388</v>
       </c>
       <c r="E222">
-        <v>4164770</v>
+        <v>4169095</v>
       </c>
       <c r="F222" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I222" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>4174977000</v>
+      </c>
+      <c r="B223">
+        <v>378416000</v>
+      </c>
+      <c r="C223">
+        <v>4174977000</v>
+      </c>
+      <c r="D223" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>4169095000</v>
-      </c>
-      <c r="B223">
-        <v>4094294000</v>
-      </c>
-      <c r="C223">
-        <v>4169095000</v>
-      </c>
-      <c r="D223" t="s">
+      <c r="E223">
+        <v>4174977</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I223" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>4175485000</v>
+      </c>
+      <c r="C224">
+        <v>4175485000</v>
+      </c>
+      <c r="D224" t="s">
+        <v>502</v>
+      </c>
+      <c r="E224">
+        <v>4175485</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>4180790000</v>
+      </c>
+      <c r="B225">
+        <v>4180790000</v>
+      </c>
+      <c r="C225">
+        <v>4180790000</v>
+      </c>
+      <c r="D225" t="s">
         <v>390</v>
       </c>
-      <c r="E223">
-        <v>4169095</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I223" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>4174977000</v>
-      </c>
-      <c r="B224">
-        <v>378416000</v>
-      </c>
-      <c r="C224">
-        <v>4174977000</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="E225">
+        <v>4180790</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E224">
-        <v>4174977</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="I224" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B225">
-        <v>4175485000</v>
-      </c>
-      <c r="C225">
-        <v>4175485000</v>
-      </c>
-      <c r="D225" t="s">
-        <v>504</v>
-      </c>
-      <c r="E225">
-        <v>4175485</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>4180790000</v>
+        <v>4181343000</v>
       </c>
       <c r="B226">
-        <v>4180790000</v>
+        <v>4181343000</v>
       </c>
       <c r="C226">
-        <v>4180790000</v>
+        <v>4181343000</v>
       </c>
       <c r="D226" t="s">
         <v>392</v>
       </c>
       <c r="E226">
-        <v>4180790</v>
+        <v>4181343</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>4181343000</v>
+        <v>4181351000</v>
       </c>
       <c r="B227">
-        <v>4181343000</v>
+        <v>4181351000</v>
       </c>
       <c r="C227">
-        <v>4181343000</v>
+        <v>4181351000</v>
       </c>
       <c r="D227" t="s">
         <v>394</v>
       </c>
       <c r="E227">
-        <v>4181343</v>
+        <v>4181351</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>4181351000</v>
+        <v>4182210000</v>
       </c>
       <c r="B228">
-        <v>4181351000</v>
+        <v>4182210000</v>
       </c>
       <c r="C228">
-        <v>4181351000</v>
+        <v>4182210000</v>
       </c>
       <c r="D228" t="s">
         <v>396</v>
       </c>
       <c r="E228">
-        <v>4181351</v>
+        <v>4182210</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>4182210000</v>
+        <v>4182711000</v>
       </c>
       <c r="B229">
-        <v>4182210000</v>
+        <v>4137275000</v>
       </c>
       <c r="C229">
-        <v>4182210000</v>
+        <v>4182711000</v>
       </c>
       <c r="D229" t="s">
         <v>398</v>
       </c>
       <c r="E229">
-        <v>4182210</v>
+        <v>4182711</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="H229" t="s">
+        <v>400</v>
+      </c>
+      <c r="I229" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>4182711000</v>
+        <v>4185711000</v>
       </c>
       <c r="B230">
-        <v>4137275000</v>
+        <v>4094294000</v>
       </c>
       <c r="C230">
-        <v>4182711000</v>
+        <v>4185711000</v>
       </c>
       <c r="D230" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E230">
-        <v>4182711</v>
+        <v>4185711</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H230" t="s">
-        <v>402</v>
+        <v>546</v>
       </c>
       <c r="I230" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>4185711000</v>
+        <v>4185932000</v>
       </c>
       <c r="B231">
-        <v>4094294000</v>
+        <v>4185932000</v>
       </c>
       <c r="C231">
-        <v>4185711000</v>
-      </c>
-      <c r="D231" t="s">
-        <v>403</v>
+        <v>4185932000</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="E231">
-        <v>4185711</v>
+        <v>4185932</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I231" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>4185932000</v>
+        <v>4189294000</v>
       </c>
       <c r="B232">
-        <v>4185932000</v>
+        <v>4189294000</v>
       </c>
       <c r="C232">
-        <v>4185932000</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>553</v>
+        <v>4189294000</v>
+      </c>
+      <c r="D232" t="s">
+        <v>560</v>
       </c>
       <c r="E232">
-        <v>4185932</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>554</v>
+        <v>4189294</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>4189294000</v>
+        <v>4190307000</v>
       </c>
       <c r="B233">
-        <v>4189294000</v>
+        <v>4190307000</v>
       </c>
       <c r="C233">
-        <v>4189294000</v>
+        <v>4190307000</v>
       </c>
       <c r="D233" t="s">
-        <v>562</v>
+        <v>402</v>
       </c>
       <c r="E233">
-        <v>4189294</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4190307</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A234">
+        <v>4195694000</v>
+      </c>
+      <c r="B234">
+        <v>4195694000</v>
+      </c>
+      <c r="C234">
+        <v>4195694000</v>
+      </c>
+      <c r="D234" t="s">
+        <v>403</v>
+      </c>
+      <c r="E234">
+        <v>4195694</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H234" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>4201096000</v>
+      </c>
+      <c r="B235">
         <v>4190307000</v>
       </c>
-      <c r="B234">
-        <v>4190307000</v>
-      </c>
-      <c r="C234">
-        <v>4190307000</v>
-      </c>
-      <c r="D234" t="s">
-        <v>404</v>
-      </c>
-      <c r="E234">
-        <v>4190307</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>4195694000</v>
-      </c>
-      <c r="B235">
-        <v>4195694000</v>
-      </c>
       <c r="C235">
-        <v>4195694000</v>
+        <v>4201096000</v>
       </c>
       <c r="D235" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E235">
-        <v>4195694</v>
+        <v>4201096</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H235" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="I235" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>4201096000</v>
+        <v>4212540000</v>
       </c>
       <c r="B236">
-        <v>4190307000</v>
+        <v>4212540000</v>
       </c>
       <c r="C236">
-        <v>4201096000</v>
+        <v>4212540000</v>
       </c>
       <c r="D236" t="s">
         <v>408</v>
       </c>
       <c r="E236">
-        <v>4201096</v>
+        <v>4212540</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I236" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>4212540000</v>
+        <v>4223659000</v>
       </c>
       <c r="B237">
-        <v>4212540000</v>
+        <v>4094294000</v>
       </c>
       <c r="C237">
-        <v>4212540000</v>
+        <v>4223659000</v>
       </c>
       <c r="D237" t="s">
         <v>410</v>
       </c>
       <c r="E237">
-        <v>4212540</v>
+        <v>4223659</v>
       </c>
       <c r="F237" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I237" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>4236484000</v>
+      </c>
+      <c r="B238">
+        <v>4236484000</v>
+      </c>
+      <c r="C238">
+        <v>4236484000</v>
+      </c>
+      <c r="D238" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>4223659000</v>
-      </c>
-      <c r="B238">
-        <v>4094294000</v>
-      </c>
-      <c r="C238">
-        <v>4223659000</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="E238">
+        <v>4236484</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E238">
-        <v>4223659</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I238" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>4236484000</v>
+        <v>4245975000</v>
       </c>
       <c r="B239">
-        <v>4236484000</v>
+        <v>4245975000</v>
       </c>
       <c r="C239">
-        <v>4236484000</v>
+        <v>4245975000</v>
       </c>
       <c r="D239" t="s">
         <v>413</v>
       </c>
       <c r="E239">
-        <v>4236484</v>
+        <v>4245975</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>4245975000</v>
+        <v>4246127000</v>
       </c>
       <c r="B240">
-        <v>4245975000</v>
+        <v>4246127000</v>
       </c>
       <c r="C240">
-        <v>4245975000</v>
+        <v>4246127000</v>
       </c>
       <c r="D240" t="s">
         <v>415</v>
       </c>
       <c r="E240">
-        <v>4245975</v>
+        <v>4246127</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="H240" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>4246127000</v>
+        <v>4253901000</v>
       </c>
       <c r="B241">
-        <v>4246127000</v>
+        <v>73553000</v>
       </c>
       <c r="C241">
-        <v>4246127000</v>
+        <v>4253901000</v>
       </c>
       <c r="D241" t="s">
         <v>417</v>
       </c>
       <c r="E241">
-        <v>4246127</v>
+        <v>4253901</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H241" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="I241" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>4253901000</v>
+        <v>4256228000</v>
       </c>
       <c r="B242">
-        <v>73553000</v>
+        <v>4256228000</v>
       </c>
       <c r="C242">
-        <v>4253901000</v>
+        <v>4256228000</v>
       </c>
       <c r="D242" t="s">
         <v>419</v>
       </c>
       <c r="E242">
-        <v>4253901</v>
+        <v>4256228</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I242" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H242" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>4256228000</v>
+        <v>4260535000</v>
       </c>
       <c r="B243">
-        <v>4256228000</v>
+        <v>4043371000</v>
       </c>
       <c r="C243">
-        <v>4256228000</v>
+        <v>4260535000</v>
       </c>
       <c r="D243" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E243">
-        <v>4256228</v>
+        <v>4260535</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="H243" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="I243" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>4260535000</v>
+        <v>4266367000</v>
       </c>
       <c r="B244">
-        <v>4043371000</v>
+        <v>4266367000</v>
       </c>
       <c r="C244">
-        <v>4260535000</v>
+        <v>4266367000</v>
       </c>
       <c r="D244" t="s">
         <v>424</v>
       </c>
       <c r="E244">
-        <v>4260535</v>
+        <v>4266367</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H244" t="s">
         <v>425</v>
       </c>
-      <c r="I244" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>4266367000</v>
+        <v>4272240000</v>
       </c>
       <c r="B245">
-        <v>4266367000</v>
+        <v>4094294000</v>
       </c>
       <c r="C245">
-        <v>4266367000</v>
+        <v>4272240000</v>
       </c>
       <c r="D245" t="s">
         <v>426</v>
       </c>
       <c r="E245">
-        <v>4266367</v>
+        <v>4272240</v>
       </c>
       <c r="F245" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I245" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>4273391000</v>
+      </c>
+      <c r="B246">
+        <v>4273391000</v>
+      </c>
+      <c r="C246">
+        <v>4273391000</v>
+      </c>
+      <c r="D246" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>4272240000</v>
-      </c>
-      <c r="B246">
-        <v>4094294000</v>
-      </c>
-      <c r="C246">
-        <v>4272240000</v>
-      </c>
-      <c r="D246" t="s">
+      <c r="E246">
+        <v>4273391</v>
+      </c>
+      <c r="F246" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E246">
-        <v>4272240</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I246" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>4273391000</v>
+        <v>4281232000</v>
       </c>
       <c r="B247">
-        <v>4273391000</v>
+        <v>4212540000</v>
       </c>
       <c r="C247">
-        <v>4273391000</v>
+        <v>4281232000</v>
       </c>
       <c r="D247" t="s">
         <v>429</v>
       </c>
       <c r="E247">
-        <v>4273391</v>
+        <v>4281232</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="I247" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>4281232000</v>
+        <v>4284492000</v>
       </c>
       <c r="B248">
-        <v>4212540000</v>
+        <v>140168000</v>
       </c>
       <c r="C248">
-        <v>4281232000</v>
-      </c>
-      <c r="D248" t="s">
+        <v>4284492000</v>
+      </c>
+      <c r="D248" s="3" t="s">
         <v>431</v>
       </c>
       <c r="E248">
-        <v>4281232</v>
+        <v>4284492</v>
       </c>
       <c r="F248" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I248" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>4285717000</v>
+      </c>
+      <c r="B249">
+        <v>4285717000</v>
+      </c>
+      <c r="C249">
+        <v>4285717000</v>
+      </c>
+      <c r="D249" t="s">
         <v>432</v>
       </c>
-      <c r="I248" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>4284492000</v>
-      </c>
-      <c r="B249">
-        <v>140168000</v>
-      </c>
-      <c r="C249">
-        <v>4284492000</v>
-      </c>
-      <c r="D249" s="3" t="s">
+      <c r="E249">
+        <v>4285717</v>
+      </c>
+      <c r="F249" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E249">
-        <v>4284492</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="I249" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>4285717000</v>
+        <v>4286201000</v>
       </c>
       <c r="B250">
-        <v>4285717000</v>
+        <v>4286201000</v>
       </c>
       <c r="C250">
-        <v>4285717000</v>
+        <v>4286201000</v>
       </c>
       <c r="D250" t="s">
         <v>434</v>
       </c>
       <c r="E250">
-        <v>4285717</v>
+        <v>4286201</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>435</v>
@@ -8039,237 +8033,240 @@
     </row>
     <row r="251" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>4286201000</v>
+        <v>4290976000</v>
       </c>
       <c r="B251">
-        <v>4286201000</v>
+        <v>4137275000</v>
       </c>
       <c r="C251">
-        <v>4286201000</v>
+        <v>4290976000</v>
       </c>
       <c r="D251" t="s">
         <v>436</v>
       </c>
       <c r="E251">
-        <v>4286201</v>
+        <v>4290976</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I251" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>4290976000</v>
+        <v>4299535000</v>
       </c>
       <c r="B252">
-        <v>4137275000</v>
+        <v>4299535000</v>
       </c>
       <c r="C252">
-        <v>4290976000</v>
+        <v>4299535000</v>
       </c>
       <c r="D252" t="s">
         <v>438</v>
       </c>
       <c r="E252">
-        <v>4290976</v>
+        <v>4299535</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I252" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>4299535000</v>
+        <v>4306655000</v>
       </c>
       <c r="B253">
-        <v>4299535000</v>
+        <v>4306655000</v>
       </c>
       <c r="C253">
-        <v>4299535000</v>
+        <v>4306655000</v>
       </c>
       <c r="D253" t="s">
         <v>440</v>
       </c>
       <c r="E253">
-        <v>4299535</v>
+        <v>4306655</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>4306655000</v>
+        <v>4311499000</v>
       </c>
       <c r="B254">
-        <v>4306655000</v>
+        <v>4311499000</v>
       </c>
       <c r="C254">
-        <v>4306655000</v>
+        <v>4311499000</v>
       </c>
       <c r="D254" t="s">
         <v>442</v>
       </c>
       <c r="E254">
-        <v>4306655</v>
+        <v>4311499</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="H254" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>4311499000</v>
+        <v>4318985000</v>
       </c>
       <c r="B255">
-        <v>4311499000</v>
+        <v>378416000</v>
       </c>
       <c r="C255">
-        <v>4311499000</v>
+        <v>4318985000</v>
       </c>
       <c r="D255" t="s">
         <v>444</v>
       </c>
       <c r="E255">
-        <v>4311499</v>
+        <v>4318985</v>
       </c>
       <c r="F255" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I255" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>4322024000</v>
+      </c>
+      <c r="B256">
+        <v>4322024000</v>
+      </c>
+      <c r="C256">
+        <v>4322024000</v>
+      </c>
+      <c r="D256" t="s">
         <v>445</v>
       </c>
-      <c r="H255" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>4318985000</v>
-      </c>
-      <c r="B256">
-        <v>378416000</v>
-      </c>
-      <c r="C256">
-        <v>4318985000</v>
-      </c>
-      <c r="D256" t="s">
+      <c r="E256">
+        <v>4322024</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E256">
-        <v>4318985</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I256" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="H256" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>4322024000</v>
+        <v>4344489000</v>
       </c>
       <c r="B257">
-        <v>4322024000</v>
+        <v>4137275000</v>
       </c>
       <c r="C257">
-        <v>4322024000</v>
+        <v>4344489000</v>
       </c>
       <c r="D257" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E257">
-        <v>4322024</v>
+        <v>4344489</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H257" t="s">
-        <v>449</v>
+        <v>501</v>
+      </c>
+      <c r="I257" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>4344489000</v>
+        <v>36712702000</v>
       </c>
       <c r="B258">
-        <v>4137275000</v>
+        <v>36712702000</v>
       </c>
       <c r="C258">
-        <v>4344489000</v>
+        <v>36712702000</v>
       </c>
       <c r="D258" t="s">
+        <v>449</v>
+      </c>
+      <c r="E258">
+        <v>36712702</v>
+      </c>
+      <c r="F258" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E258">
-        <v>4344489</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I258" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>36712702000</v>
+        <v>37311061000</v>
       </c>
       <c r="B259">
-        <v>36712702000</v>
+        <v>37311061000</v>
       </c>
       <c r="C259">
-        <v>36712702000</v>
+        <v>37311061000</v>
       </c>
       <c r="D259" t="s">
         <v>451</v>
       </c>
       <c r="E259">
-        <v>36712702</v>
+        <v>37311061</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>37311061000</v>
+        <v>40479589000</v>
       </c>
       <c r="B260">
-        <v>37311061000</v>
+        <v>321319000</v>
       </c>
       <c r="C260">
-        <v>37311061000</v>
+        <v>40479589000</v>
       </c>
       <c r="D260" t="s">
         <v>453</v>
       </c>
       <c r="E260">
-        <v>37311061</v>
+        <v>40479589</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="I260" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>40479589000</v>
+        <v>40481901000</v>
       </c>
       <c r="B261">
-        <v>321319000</v>
+        <v>432571000</v>
       </c>
       <c r="C261">
-        <v>40479589000</v>
+        <v>40481901000</v>
       </c>
       <c r="D261" t="s">
         <v>455</v>
       </c>
       <c r="E261">
-        <v>40479589</v>
+        <v>40481901</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="I261" t="s">
         <v>22</v>
@@ -8277,236 +8274,213 @@
     </row>
     <row r="262" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>40481901000</v>
+        <v>40481902000</v>
       </c>
       <c r="B262">
+        <v>40481902000</v>
+      </c>
+      <c r="C262">
+        <v>40481902000</v>
+      </c>
+      <c r="D262" t="s">
+        <v>456</v>
+      </c>
+      <c r="E262">
+        <v>40481902</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H262" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>40490918000</v>
+      </c>
+      <c r="B263">
         <v>432571000</v>
       </c>
-      <c r="C262">
-        <v>40481901000</v>
-      </c>
-      <c r="D262" t="s">
-        <v>457</v>
-      </c>
-      <c r="E262">
-        <v>40481901</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I262" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>40481902000</v>
-      </c>
-      <c r="B263">
-        <v>40481902000</v>
-      </c>
       <c r="C263">
-        <v>40481902000</v>
+        <v>40490918000</v>
       </c>
       <c r="D263" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E263">
-        <v>40481902</v>
+        <v>40490918</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="H263" t="s">
-        <v>460</v>
+        <v>24</v>
+      </c>
+      <c r="I263" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>40490918000</v>
+        <v>42535714000</v>
       </c>
       <c r="B264">
-        <v>432571000</v>
+        <v>4137275000</v>
       </c>
       <c r="C264">
-        <v>40490918000</v>
+        <v>42535714000</v>
       </c>
       <c r="D264" t="s">
+        <v>460</v>
+      </c>
+      <c r="E264">
+        <v>42535714</v>
+      </c>
+      <c r="F264" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E264">
-        <v>40490918</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H264" t="s">
-        <v>24</v>
-      </c>
       <c r="I264" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>42535714000</v>
+        <v>43021132000</v>
       </c>
       <c r="B265">
-        <v>4137275000</v>
+        <v>43021132000</v>
       </c>
       <c r="C265">
-        <v>42535714000</v>
+        <v>43021132000</v>
       </c>
       <c r="D265" t="s">
         <v>462</v>
       </c>
       <c r="E265">
-        <v>42535714</v>
+        <v>43021132</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I265" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>43021132000</v>
+        <v>43021226000</v>
       </c>
       <c r="B266">
-        <v>43021132000</v>
+        <v>43021226000</v>
       </c>
       <c r="C266">
-        <v>43021132000</v>
+        <v>43021226000</v>
       </c>
       <c r="D266" t="s">
+        <v>550</v>
+      </c>
+      <c r="E266">
+        <v>43021226</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H266" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>43530714000</v>
+      </c>
+      <c r="B267">
+        <v>4094294000</v>
+      </c>
+      <c r="C267">
+        <v>43530714000</v>
+      </c>
+      <c r="D267" t="s">
         <v>464</v>
       </c>
-      <c r="E266">
-        <v>43021132</v>
-      </c>
-      <c r="F266" s="1" t="s">
+      <c r="E267">
+        <v>43530714</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I267" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>44784217000</v>
+      </c>
+      <c r="B268">
+        <v>44784217000</v>
+      </c>
+      <c r="C268">
+        <v>44784217000</v>
+      </c>
+      <c r="D268" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>43021226000</v>
-      </c>
-      <c r="B267">
-        <v>43021226000</v>
-      </c>
-      <c r="C267">
-        <v>43021226000</v>
-      </c>
-      <c r="D267" t="s">
-        <v>552</v>
-      </c>
-      <c r="E267">
-        <v>43021226</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H267" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>43530714000</v>
-      </c>
-      <c r="B268">
-        <v>4094294000</v>
-      </c>
-      <c r="C268">
-        <v>43530714000</v>
-      </c>
-      <c r="D268" t="s">
+      <c r="E268">
+        <v>44784217</v>
+      </c>
+      <c r="F268" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E268">
-        <v>43530714</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="I268" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="H268" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>44784217000</v>
+        <v>45763653000</v>
       </c>
       <c r="B269">
-        <v>44784217000</v>
+        <v>45763653000</v>
       </c>
       <c r="C269">
-        <v>44784217000</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>467</v>
+        <v>45763653000</v>
+      </c>
+      <c r="D269" t="s">
+        <v>468</v>
       </c>
       <c r="E269">
-        <v>44784217</v>
+        <v>45763653</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H269" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>45763653000</v>
+        <v>46271022000</v>
       </c>
       <c r="B270">
-        <v>45763653000</v>
+        <v>4030518000</v>
       </c>
       <c r="C270">
-        <v>45763653000</v>
+        <v>46271022000</v>
       </c>
       <c r="D270" t="s">
         <v>470</v>
       </c>
       <c r="E270">
-        <v>45763653</v>
+        <v>46271022</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="H270" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>46271022000</v>
-      </c>
-      <c r="B271">
-        <v>4030518000</v>
-      </c>
-      <c r="C271">
-        <v>46271022000</v>
-      </c>
-      <c r="D271" t="s">
-        <v>472</v>
-      </c>
-      <c r="E271">
-        <v>46271022</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I271" t="s">
+      <c r="I270" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I271">
+  <autoFilter ref="A1:I270">
     <sortState ref="A2:I271">
       <sortCondition ref="C1:C271"/>
     </sortState>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -15,14 +15,14 @@
     <sheet name="PhenotypeDescription" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$271</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="566">
   <si>
     <t>oldPhenotypeId</t>
   </si>
@@ -907,6 +907,12 @@
   </si>
   <si>
     <t>Overview: Pain and inflammation occur when too much uric acid crystallizes and deposits in the joints. Form of arthritis. Gout occurs when urate crystals accumulate in your joint, causing the inflammation and intense pain of a gout attackPresentation: Sudden, severe attacks of pain, swelling, redness and tenderness in the joints, often the joint at the base of the big toe. Symptoms come and go. Tophi - large, visible bumps made of urate crystals. Assessment: joint fluid test (from the affected joint), blood levels of uric acid and creatinine, xray, ultrasound, sual energy CT scan Plan: NSAIDs, Colchicine, Corticosteroids; xanthine oxidase inhibitors (XOIs) and uricosurics to prevent gout complications Prognosis: Early gout diagnosis, therapy enables most patients to live a normal life. Gout is a highly treatable form of arthritis.</t>
+  </si>
+  <si>
+    <t>Trigeminal nerve disorder</t>
+  </si>
+  <si>
+    <t>Overview: Trigeminal (fifth) nerve, largest of the cranial nerve - supplies sensation to the skin of the face and anterior half of head. Motor component - muscles of mastication and tensor tympani of middle ear hearing. Most commonly disorder is Trigeminal neuralgia (tic douloureux) TN - mainly due to compression of the trigeminal nerve root, demyelination (multiple sclerosis). Trigemenial nerve disorder may also present without pain, e.g. trigeminal neuropathy with sensory loss on the face, with weakness of muscles of masticatio- deviation of jaw on opening. Presentation: TN is characterized by recurrent brief episodes of excruciating unilateral electric shock like pain in the lips, gums, cheek or chin. TN is mosstly clustered among middle-aged and elderly persons are affected, with ~ 60% in women. Assessment: TN is a clinical diagnosis - but detailed investigation using neuroimaging to identify cause. Rule out herpes zoster, post traumatic.  Plan: carbamazepine or oxcarbazepine is first line. Gabapentin for non responders. Lidocaine, phenytoin for rescue therapy. Occassionally surgery (gamma knife radiosurgery, rhizotomy, microvascular decompression). Prognosis: highly variable, may go into months of remission. recurrence is common.</t>
   </si>
   <si>
     <t>Takayasu's disease</t>
@@ -2556,11 +2562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A167" sqref="A167:XFD167"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,7 +2627,7 @@
         <v>24134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -2664,7 +2670,7 @@
         <v>27918</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -2687,7 +2693,7 @@
         <v>30753</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -2710,7 +2716,7 @@
         <v>31317</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -2733,7 +2739,7 @@
         <v>31967</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -2779,7 +2785,7 @@
         <v>287</v>
       </c>
       <c r="H9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2799,7 +2805,7 @@
         <v>75860</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -2845,7 +2851,7 @@
         <v>77074</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -2894,7 +2900,7 @@
         <v>80182</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -2977,7 +2983,7 @@
         <v>81893</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -3000,7 +3006,7 @@
         <v>81902</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3083,7 +3089,7 @@
         <v>132797</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -3106,7 +3112,7 @@
         <v>133169</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -3212,7 +3218,7 @@
         <v>137977</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -3275,7 +3281,7 @@
         <v>138994</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -3361,7 +3367,7 @@
         <v>140352</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -3464,7 +3470,7 @@
         <v>192359</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -3550,7 +3556,7 @@
         <v>194133</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -3593,7 +3599,7 @@
         <v>194992</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3616,7 +3622,7 @@
         <v>196523</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3791,7 +3797,7 @@
         <v>200219</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3863,7 +3869,7 @@
         <v>201254</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3886,7 +3892,7 @@
         <v>201340</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3909,7 +3915,7 @@
         <v>201606</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3943,7 +3949,7 @@
         <v>201820000</v>
       </c>
       <c r="D63" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E63">
         <v>201820</v>
@@ -3952,7 +3958,7 @@
         <v>287</v>
       </c>
       <c r="H63" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3972,7 +3978,7 @@
         <v>201826</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -4038,7 +4044,7 @@
         <v>254761</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -4144,7 +4150,7 @@
         <v>312327</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -4167,7 +4173,7 @@
         <v>312437</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -4210,7 +4216,7 @@
         <v>313217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -4233,7 +4239,7 @@
         <v>313223</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -4256,7 +4262,7 @@
         <v>313459</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
@@ -4319,7 +4325,7 @@
         <v>314383</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
@@ -4388,7 +4394,7 @@
         <v>317009</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -4411,7 +4417,7 @@
         <v>317576</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4566,7 +4572,7 @@
         <v>321042</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H91" t="s">
         <v>24</v>
@@ -4615,7 +4621,7 @@
         <v>321318</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -4658,7 +4664,7 @@
         <v>321588</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H95" t="s">
         <v>24</v>
@@ -4704,7 +4710,7 @@
         <v>373503</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
@@ -4753,7 +4759,7 @@
         <v>374028</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -4796,7 +4802,7 @@
         <v>374377</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H101" t="s">
         <v>24</v>
@@ -5000,7 +5006,7 @@
         <v>378253</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -5023,7 +5029,7 @@
         <v>378414</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -5086,7 +5092,7 @@
         <v>380378</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -5212,7 +5218,7 @@
         <v>432571000</v>
       </c>
       <c r="D120" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E120">
         <v>432571000</v>
@@ -5261,7 +5267,7 @@
         <v>432595</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5324,7 +5330,7 @@
         <v>432870</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I125" t="s">
         <v>22</v>
@@ -5393,7 +5399,7 @@
         <v>433595</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -5496,7 +5502,7 @@
         <v>434592</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -5651,7 +5657,7 @@
         <v>248</v>
       </c>
       <c r="H140" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5671,7 +5677,7 @@
         <v>436096</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="I141" t="s">
         <v>22</v>
@@ -5714,7 +5720,7 @@
         <v>4307095</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I143" t="s">
         <v>22</v>
@@ -5800,7 +5806,7 @@
         <v>436962</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I147" t="s">
         <v>22</v>
@@ -5823,7 +5829,7 @@
         <v>437082</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="I148" t="s">
         <v>22</v>
@@ -5889,7 +5895,7 @@
         <v>437312</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I151" t="s">
         <v>22</v>
@@ -5932,7 +5938,7 @@
         <v>437663</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H153" t="s">
         <v>269</v>
@@ -6072,7 +6078,7 @@
         <v>439776000</v>
       </c>
       <c r="D160" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E160">
         <v>439776</v>
@@ -6144,7 +6150,7 @@
         <v>440377</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H163" t="s">
         <v>24</v>
@@ -6215,62 +6221,62 @@
     </row>
     <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>440740000</v>
+        <v>440703000</v>
       </c>
       <c r="B167">
-        <v>4137275000</v>
+        <v>440703000</v>
       </c>
       <c r="C167">
-        <v>440740000</v>
+        <v>440703000</v>
       </c>
       <c r="D167" t="s">
         <v>295</v>
       </c>
       <c r="E167">
-        <v>440740</v>
+        <v>440703</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I167" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>440925000</v>
+        <v>440740000</v>
       </c>
       <c r="B168">
-        <v>440925000</v>
+        <v>4137275000</v>
       </c>
       <c r="C168">
-        <v>440925000</v>
+        <v>440740000</v>
       </c>
       <c r="D168" t="s">
         <v>297</v>
       </c>
       <c r="E168">
-        <v>440925</v>
+        <v>440740</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="I168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>440940000</v>
+        <v>440925000</v>
       </c>
       <c r="B169">
-        <v>440940000</v>
+        <v>440925000</v>
       </c>
       <c r="C169">
-        <v>440940000</v>
+        <v>440925000</v>
       </c>
       <c r="D169" t="s">
         <v>299</v>
       </c>
       <c r="E169">
-        <v>440940</v>
+        <v>440925</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>300</v>
@@ -6278,154 +6284,151 @@
     </row>
     <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>441202000</v>
+        <v>440940000</v>
       </c>
       <c r="B170">
-        <v>43021226000</v>
+        <v>440940000</v>
       </c>
       <c r="C170">
-        <v>441202000</v>
-      </c>
-      <c r="D170" s="2" t="s">
+        <v>440940000</v>
+      </c>
+      <c r="D170" t="s">
         <v>301</v>
       </c>
       <c r="E170">
-        <v>441202</v>
+        <v>440940</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I170" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>441284000</v>
+        <v>441202000</v>
       </c>
       <c r="B171">
-        <v>441284000</v>
+        <v>43021226000</v>
       </c>
       <c r="C171">
-        <v>441284000</v>
-      </c>
-      <c r="D171" t="s">
+        <v>441202000</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>303</v>
       </c>
       <c r="E171">
-        <v>441284</v>
+        <v>441202</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="I171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>441408000</v>
+        <v>441284000</v>
       </c>
       <c r="B172">
-        <v>4094294000</v>
+        <v>441284000</v>
       </c>
       <c r="C172">
-        <v>441408000</v>
+        <v>441284000</v>
       </c>
       <c r="D172" t="s">
         <v>305</v>
       </c>
       <c r="E172">
-        <v>441408</v>
+        <v>441284</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="I172" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>441542000</v>
+        <v>441408000</v>
       </c>
       <c r="B173">
         <v>4094294000</v>
       </c>
       <c r="C173">
+        <v>441408000</v>
+      </c>
+      <c r="D173" t="s">
+        <v>307</v>
+      </c>
+      <c r="E173">
+        <v>441408</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>441542000</v>
       </c>
-      <c r="D173" t="s">
-        <v>306</v>
-      </c>
-      <c r="E173">
+      <c r="B174">
+        <v>4094294000</v>
+      </c>
+      <c r="C174">
+        <v>441542000</v>
+      </c>
+      <c r="D174" t="s">
+        <v>308</v>
+      </c>
+      <c r="E174">
         <v>441542</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I173" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="F174" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I174" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>441788000</v>
       </c>
-      <c r="B174">
+      <c r="B175">
         <v>441788000</v>
       </c>
-      <c r="C174">
+      <c r="C175">
         <v>441788000</v>
-      </c>
-      <c r="D174" t="s">
-        <v>307</v>
-      </c>
-      <c r="E174">
-        <v>441788</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>441848000</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>441848000</v>
       </c>
       <c r="D175" t="s">
         <v>309</v>
       </c>
       <c r="E175">
-        <v>441848</v>
+        <v>441788</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I175" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>442752000</v>
+        <v>441848000</v>
       </c>
       <c r="B176">
-        <v>4094294000</v>
+        <v>0</v>
       </c>
       <c r="C176">
-        <v>442752000</v>
+        <v>441848000</v>
       </c>
       <c r="D176" t="s">
         <v>311</v>
       </c>
       <c r="E176">
-        <v>442752</v>
+        <v>441848</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>543</v>
+        <v>312</v>
       </c>
       <c r="I176" t="s">
         <v>22</v>
@@ -6433,39 +6436,42 @@
     </row>
     <row r="177" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A177">
+        <v>442752000</v>
+      </c>
+      <c r="B177">
+        <v>4094294000</v>
+      </c>
+      <c r="C177">
+        <v>442752000</v>
+      </c>
+      <c r="D177" t="s">
+        <v>313</v>
+      </c>
+      <c r="E177">
+        <v>442752</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I177" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>443213000</v>
       </c>
-      <c r="B177">
+      <c r="B178">
         <v>443213000</v>
       </c>
-      <c r="C177">
+      <c r="C178">
         <v>443213000</v>
-      </c>
-      <c r="D177" t="s">
-        <v>312</v>
-      </c>
-      <c r="E177">
-        <v>443213</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>443387000</v>
-      </c>
-      <c r="B178">
-        <v>443387000</v>
-      </c>
-      <c r="C178">
-        <v>443387000</v>
       </c>
       <c r="D178" t="s">
         <v>314</v>
       </c>
       <c r="E178">
-        <v>443387</v>
+        <v>443213</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>315</v>
@@ -6473,696 +6479,693 @@
     </row>
     <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>443392000</v>
+        <v>443387000</v>
       </c>
       <c r="B179">
-        <v>443392000</v>
+        <v>443387000</v>
       </c>
       <c r="C179">
-        <v>443392000</v>
-      </c>
-      <c r="D179" s="3" t="s">
+        <v>443387000</v>
+      </c>
+      <c r="D179" t="s">
         <v>316</v>
       </c>
       <c r="E179">
-        <v>443392</v>
+        <v>443387</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>443454000</v>
+        <v>443392000</v>
       </c>
       <c r="B180">
-        <v>381591000</v>
+        <v>443392000</v>
       </c>
       <c r="C180">
-        <v>443454000</v>
-      </c>
-      <c r="D180" t="s">
+        <v>443392000</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>318</v>
       </c>
       <c r="E180">
-        <v>443454</v>
+        <v>443392</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I180" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>443700000</v>
+        <v>443454000</v>
       </c>
       <c r="B181">
-        <v>443700000</v>
+        <v>381591000</v>
       </c>
       <c r="C181">
-        <v>443700000</v>
+        <v>443454000</v>
       </c>
       <c r="D181" t="s">
         <v>320</v>
       </c>
       <c r="E181">
-        <v>443700</v>
+        <v>443454</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A182">
+        <v>443700000</v>
+      </c>
+      <c r="B182">
+        <v>443700000</v>
+      </c>
+      <c r="C182">
+        <v>443700000</v>
+      </c>
+      <c r="D182" t="s">
+        <v>322</v>
+      </c>
+      <c r="E182">
+        <v>443700</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>443723000</v>
       </c>
-      <c r="B182">
+      <c r="B183">
         <v>443723000</v>
       </c>
-      <c r="C182">
+      <c r="C183">
         <v>443723000</v>
       </c>
-      <c r="D182" t="s">
-        <v>557</v>
-      </c>
-      <c r="E182">
+      <c r="D183" t="s">
+        <v>559</v>
+      </c>
+      <c r="E183">
         <v>443723</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="184" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>443727000</v>
       </c>
-      <c r="B183">
+      <c r="B184">
         <v>201820000</v>
       </c>
-      <c r="C183">
+      <c r="C184">
         <v>443727000</v>
       </c>
-      <c r="D183" t="s">
-        <v>322</v>
-      </c>
-      <c r="E183">
+      <c r="D184" t="s">
+        <v>324</v>
+      </c>
+      <c r="E184">
         <v>443727</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I183" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="F184" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I184" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>444044000</v>
       </c>
-      <c r="B184">
+      <c r="B185">
         <v>4030518000</v>
       </c>
-      <c r="C184">
+      <c r="C185">
         <v>444044000</v>
       </c>
-      <c r="D184" t="s">
-        <v>323</v>
-      </c>
-      <c r="E184">
+      <c r="D185" t="s">
+        <v>325</v>
+      </c>
+      <c r="E185">
         <v>444044</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I184" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="F185" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I185" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>444070000</v>
       </c>
-      <c r="B185">
+      <c r="B186">
         <v>4094294000</v>
       </c>
-      <c r="C185">
+      <c r="C186">
         <v>444070000</v>
       </c>
-      <c r="D185" t="s">
-        <v>324</v>
-      </c>
-      <c r="E185">
+      <c r="D186" t="s">
+        <v>326</v>
+      </c>
+      <c r="E186">
         <v>444070</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I185" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="F186" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I186" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>444247000</v>
       </c>
-      <c r="B186">
+      <c r="B187">
         <v>444247000</v>
       </c>
-      <c r="C186">
+      <c r="C187">
         <v>444247000</v>
-      </c>
-      <c r="D186" t="s">
-        <v>325</v>
-      </c>
-      <c r="E186">
-        <v>444247</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>444429000</v>
-      </c>
-      <c r="B187">
-        <v>444429000</v>
-      </c>
-      <c r="C187">
-        <v>444429000</v>
       </c>
       <c r="D187" t="s">
         <v>327</v>
       </c>
       <c r="E187">
-        <v>444429</v>
+        <v>444247</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>4000634000</v>
+        <v>444429000</v>
       </c>
       <c r="B188">
-        <v>73553000</v>
+        <v>444429000</v>
       </c>
       <c r="C188">
-        <v>4000634000</v>
+        <v>444429000</v>
       </c>
       <c r="D188" t="s">
         <v>329</v>
       </c>
       <c r="E188">
-        <v>4000634</v>
+        <v>444429</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H188" t="s">
+    </row>
+    <row r="189" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>4000634000</v>
+      </c>
+      <c r="B189">
+        <v>73553000</v>
+      </c>
+      <c r="C189">
+        <v>4000634000</v>
+      </c>
+      <c r="D189" t="s">
         <v>331</v>
       </c>
-      <c r="I188" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="E189">
+        <v>4000634</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H189" t="s">
+        <v>333</v>
+      </c>
+      <c r="I189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>4002359000</v>
       </c>
-      <c r="B189">
+      <c r="B190">
         <v>436081000</v>
       </c>
-      <c r="C189">
+      <c r="C190">
         <v>4002359000</v>
-      </c>
-      <c r="D189" t="s">
-        <v>332</v>
-      </c>
-      <c r="E189">
-        <v>4002359</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I189" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>4013643000</v>
-      </c>
-      <c r="B190">
-        <v>4013643000</v>
-      </c>
-      <c r="C190">
-        <v>4013643000</v>
       </c>
       <c r="D190" t="s">
         <v>334</v>
       </c>
       <c r="E190">
-        <v>4013643</v>
+        <v>4002359</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>4024659000</v>
+        <v>4013643000</v>
       </c>
       <c r="B191">
-        <v>201820000</v>
+        <v>4013643000</v>
       </c>
       <c r="C191">
-        <v>4024659000</v>
+        <v>4013643000</v>
       </c>
       <c r="D191" t="s">
         <v>336</v>
       </c>
       <c r="E191">
-        <v>4024659</v>
+        <v>4013643</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H191" t="s">
         <v>337</v>
       </c>
-      <c r="I191" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>4027537000</v>
+        <v>4024659000</v>
       </c>
       <c r="B192">
-        <v>4027537000</v>
+        <v>201820000</v>
       </c>
       <c r="C192">
-        <v>4027537000</v>
+        <v>4024659000</v>
       </c>
       <c r="D192" t="s">
         <v>338</v>
       </c>
       <c r="E192">
+        <v>4024659</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H192" t="s">
+        <v>339</v>
+      </c>
+      <c r="I192" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4027537000</v>
+      </c>
+      <c r="B193">
+        <v>4027537000</v>
+      </c>
+      <c r="C193">
+        <v>4027537000</v>
+      </c>
+      <c r="D193" t="s">
+        <v>340</v>
+      </c>
+      <c r="E193">
         <v>4027537</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="194" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>4028363000</v>
       </c>
-      <c r="B193">
+      <c r="B194">
         <v>4028363000</v>
       </c>
-      <c r="C193">
+      <c r="C194">
         <v>4028363000</v>
-      </c>
-      <c r="D193" t="s">
-        <v>339</v>
-      </c>
-      <c r="E193">
-        <v>4028363</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="375" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>4030518000</v>
-      </c>
-      <c r="B194">
-        <v>4030518000</v>
-      </c>
-      <c r="C194">
-        <v>4030518000</v>
       </c>
       <c r="D194" t="s">
         <v>341</v>
       </c>
       <c r="E194">
-        <v>4030518</v>
+        <v>4028363</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>4038838000</v>
+        <v>4030518000</v>
       </c>
       <c r="B195">
-        <v>432571000</v>
+        <v>4030518000</v>
       </c>
       <c r="C195">
-        <v>4038838000</v>
+        <v>4030518000</v>
       </c>
       <c r="D195" t="s">
         <v>343</v>
       </c>
       <c r="E195">
+        <v>4030518</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>4038838000</v>
+      </c>
+      <c r="B196">
+        <v>432571000</v>
+      </c>
+      <c r="C196">
+        <v>4038838000</v>
+      </c>
+      <c r="D196" t="s">
+        <v>345</v>
+      </c>
+      <c r="E196">
         <v>4038838</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I195" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B196">
+      <c r="F196" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I196" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B197">
         <v>4043371000</v>
       </c>
-      <c r="C196">
+      <c r="C197">
         <v>4043371000</v>
       </c>
-      <c r="D196" t="s">
-        <v>472</v>
-      </c>
-      <c r="E196">
+      <c r="D197" t="s">
+        <v>474</v>
+      </c>
+      <c r="E197">
         <v>4043371</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H196" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="H197" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>4046338000</v>
       </c>
-      <c r="B197">
+      <c r="B198">
         <v>4046338000</v>
       </c>
-      <c r="C197">
+      <c r="C198">
         <v>4046338000</v>
-      </c>
-      <c r="D197" t="s">
-        <v>344</v>
-      </c>
-      <c r="E197">
-        <v>4046338</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>4058821000</v>
-      </c>
-      <c r="B198">
-        <v>4212540000</v>
-      </c>
-      <c r="C198">
-        <v>4058821000</v>
       </c>
       <c r="D198" t="s">
         <v>346</v>
       </c>
       <c r="E198">
-        <v>4058821</v>
+        <v>4046338</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I198" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A199">
+        <v>4058821000</v>
+      </c>
+      <c r="B199">
+        <v>4212540000</v>
+      </c>
+      <c r="C199">
+        <v>4058821000</v>
+      </c>
+      <c r="D199" t="s">
+        <v>348</v>
+      </c>
+      <c r="E199">
+        <v>4058821</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>4063434000</v>
       </c>
-      <c r="B199">
+      <c r="B200">
         <v>140168000</v>
       </c>
-      <c r="C199">
+      <c r="C200">
         <v>4063434000</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E199">
+      <c r="D200" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E200">
         <v>4063434</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I199" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="F200" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I200" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>4064161000</v>
       </c>
-      <c r="B200">
+      <c r="B201">
         <v>4212540000</v>
       </c>
-      <c r="C200">
+      <c r="C201">
         <v>4064161000</v>
-      </c>
-      <c r="D200" t="s">
-        <v>349</v>
-      </c>
-      <c r="E200">
-        <v>4064161</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I200" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>4067106000</v>
-      </c>
-      <c r="B201">
-        <v>4067106000</v>
-      </c>
-      <c r="C201">
-        <v>4067106000</v>
       </c>
       <c r="D201" t="s">
         <v>351</v>
       </c>
       <c r="E201">
-        <v>4067106</v>
+        <v>4064161</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I201" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>4070552000</v>
+        <v>4067106000</v>
       </c>
       <c r="B202">
-        <v>4164770000</v>
+        <v>4067106000</v>
       </c>
       <c r="C202">
-        <v>4070552000</v>
+        <v>4067106000</v>
       </c>
       <c r="D202" t="s">
         <v>353</v>
       </c>
       <c r="E202">
-        <v>4070552</v>
+        <v>4067106</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H202" t="s">
+    </row>
+    <row r="203" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>4070552000</v>
+      </c>
+      <c r="B203">
+        <v>4164770000</v>
+      </c>
+      <c r="C203">
+        <v>4070552000</v>
+      </c>
+      <c r="D203" t="s">
         <v>355</v>
       </c>
-      <c r="I202" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="E203">
+        <v>4070552</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H203" t="s">
+        <v>357</v>
+      </c>
+      <c r="I203" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>4074815000</v>
       </c>
-      <c r="B203">
+      <c r="B204">
         <v>4043371000</v>
       </c>
-      <c r="C203">
+      <c r="C204">
         <v>4074815000</v>
       </c>
-      <c r="D203" t="s">
-        <v>356</v>
-      </c>
-      <c r="E203">
+      <c r="D204" t="s">
+        <v>358</v>
+      </c>
+      <c r="E204">
         <v>4074815</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="I203" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="F204" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I204" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>4079843000</v>
       </c>
-      <c r="B204">
+      <c r="B205">
         <v>4306655000</v>
       </c>
-      <c r="C204">
+      <c r="C205">
         <v>4079843000</v>
       </c>
-      <c r="D204" t="s">
-        <v>357</v>
-      </c>
-      <c r="E204">
+      <c r="D205" t="s">
+        <v>359</v>
+      </c>
+      <c r="E205">
         <v>4079843</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I204" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="F205" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I205" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>4091559000</v>
       </c>
-      <c r="B205">
+      <c r="B206">
         <v>378135000</v>
       </c>
-      <c r="C205">
+      <c r="C206">
         <v>4091559000</v>
-      </c>
-      <c r="D205" t="s">
-        <v>358</v>
-      </c>
-      <c r="E205">
-        <v>4091559</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="I205" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>4092289000</v>
-      </c>
-      <c r="B206">
-        <v>4092289000</v>
-      </c>
-      <c r="C206">
-        <v>4092289000</v>
       </c>
       <c r="D206" t="s">
         <v>360</v>
       </c>
       <c r="E206">
-        <v>4092289</v>
+        <v>4091559</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I206" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A207">
+        <v>4092289000</v>
+      </c>
+      <c r="B207">
+        <v>4092289000</v>
+      </c>
+      <c r="C207">
+        <v>4092289000</v>
+      </c>
+      <c r="D207" t="s">
+        <v>362</v>
+      </c>
+      <c r="E207">
+        <v>4092289</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>4094294000</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <v>4094294000</v>
       </c>
-      <c r="C207">
+      <c r="C208">
         <v>4094294000</v>
       </c>
-      <c r="D207" t="s">
-        <v>520</v>
-      </c>
-      <c r="E207">
+      <c r="D208" t="s">
+        <v>522</v>
+      </c>
+      <c r="E208">
         <v>4094294</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="F208" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="209" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>4098292000</v>
       </c>
-      <c r="B208">
+      <c r="B209">
         <v>4098292000</v>
       </c>
-      <c r="C208">
+      <c r="C209">
         <v>4098292000</v>
-      </c>
-      <c r="D208" t="s">
-        <v>362</v>
-      </c>
-      <c r="E208">
-        <v>4098292</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>4098597000</v>
-      </c>
-      <c r="B209">
-        <v>436081000</v>
-      </c>
-      <c r="C209">
-        <v>4098597000</v>
       </c>
       <c r="D209" t="s">
         <v>364</v>
       </c>
       <c r="E209">
-        <v>4098597</v>
+        <v>4098292</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I209" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>4101602000</v>
+        <v>4098597000</v>
       </c>
       <c r="B210">
-        <v>4137275000</v>
+        <v>436081000</v>
       </c>
       <c r="C210">
-        <v>4101602000</v>
+        <v>4098597000</v>
       </c>
       <c r="D210" t="s">
         <v>366</v>
       </c>
       <c r="E210">
-        <v>4101602</v>
+        <v>4098597</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>367</v>
@@ -7171,861 +7174,864 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>4103295000</v>
+        <v>4101602000</v>
       </c>
       <c r="B211">
-        <v>44784217000</v>
+        <v>4137275000</v>
       </c>
       <c r="C211">
-        <v>4103295000</v>
+        <v>4101602000</v>
       </c>
       <c r="D211" t="s">
         <v>368</v>
       </c>
       <c r="E211">
+        <v>4101602</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I211" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>4103295000</v>
+      </c>
+      <c r="B212">
+        <v>44784217000</v>
+      </c>
+      <c r="C212">
+        <v>4103295000</v>
+      </c>
+      <c r="D212" t="s">
+        <v>370</v>
+      </c>
+      <c r="E212">
         <v>4103295</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I211" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="F212" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I212" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>4112853000</v>
       </c>
-      <c r="B212">
+      <c r="B213">
         <v>4112853000</v>
       </c>
-      <c r="C212">
+      <c r="C213">
         <v>4112853000</v>
-      </c>
-      <c r="D212" t="s">
-        <v>369</v>
-      </c>
-      <c r="E212">
-        <v>4112853</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>4124836000</v>
-      </c>
-      <c r="B213">
-        <v>321052000</v>
-      </c>
-      <c r="C213">
-        <v>4124836000</v>
       </c>
       <c r="D213" t="s">
         <v>371</v>
       </c>
       <c r="E213">
-        <v>4124836</v>
+        <v>4112853</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I213" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="214" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>4131909000</v>
+        <v>4124836000</v>
       </c>
       <c r="B214">
-        <v>4131909000</v>
+        <v>321052000</v>
       </c>
       <c r="C214">
-        <v>4131909000</v>
+        <v>4124836000</v>
       </c>
       <c r="D214" t="s">
         <v>373</v>
       </c>
       <c r="E214">
-        <v>4131909</v>
+        <v>4124836</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I214" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>4133004000</v>
+        <v>4131909000</v>
       </c>
       <c r="B215">
-        <v>4133004000</v>
+        <v>4131909000</v>
       </c>
       <c r="C215">
-        <v>4133004000</v>
+        <v>4131909000</v>
       </c>
       <c r="D215" t="s">
         <v>375</v>
       </c>
       <c r="E215">
-        <v>4133004</v>
+        <v>4131909</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>4137275000</v>
+        <v>4133004000</v>
       </c>
       <c r="B216">
-        <v>4137275000</v>
+        <v>4133004000</v>
       </c>
       <c r="C216">
-        <v>4137275000</v>
+        <v>4133004000</v>
       </c>
       <c r="D216" t="s">
         <v>377</v>
       </c>
       <c r="E216">
-        <v>4137275</v>
+        <v>4133004</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>4138837000</v>
+        <v>4137275000</v>
       </c>
       <c r="B217">
-        <v>4189294000</v>
+        <v>4137275000</v>
       </c>
       <c r="C217">
-        <v>4138837000</v>
+        <v>4137275000</v>
       </c>
       <c r="D217" t="s">
         <v>379</v>
       </c>
       <c r="E217">
-        <v>4138837</v>
+        <v>4137275</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="H217" t="s">
         <v>380</v>
       </c>
-      <c r="I217" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>4139034000</v>
+        <v>4138837000</v>
       </c>
       <c r="B218">
-        <v>4139034000</v>
+        <v>4189294000</v>
       </c>
       <c r="C218">
-        <v>4139034000</v>
+        <v>4138837000</v>
       </c>
       <c r="D218" t="s">
         <v>381</v>
       </c>
       <c r="E218">
-        <v>4139034</v>
+        <v>4138837</v>
       </c>
       <c r="F218" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H218" t="s">
         <v>382</v>
       </c>
-      <c r="H218" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I218" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>4147411000</v>
+        <v>4139034000</v>
       </c>
       <c r="B219">
-        <v>432571000</v>
+        <v>4139034000</v>
       </c>
       <c r="C219">
-        <v>4147411000</v>
+        <v>4139034000</v>
       </c>
       <c r="D219" t="s">
         <v>383</v>
       </c>
       <c r="E219">
+        <v>4139034</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H219" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>4147411000</v>
+      </c>
+      <c r="B220">
+        <v>432571000</v>
+      </c>
+      <c r="C220">
+        <v>4147411000</v>
+      </c>
+      <c r="D220" t="s">
+        <v>385</v>
+      </c>
+      <c r="E220">
         <v>4147411</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I219" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="F220" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I220" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>4163261000</v>
       </c>
-      <c r="B220">
+      <c r="B221">
         <v>4163261000</v>
       </c>
-      <c r="C220">
+      <c r="C221">
         <v>4163261000</v>
-      </c>
-      <c r="D220" t="s">
-        <v>384</v>
-      </c>
-      <c r="E220">
-        <v>4163261</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>4164770000</v>
-      </c>
-      <c r="B221">
-        <v>4164770000</v>
-      </c>
-      <c r="C221">
-        <v>4164770000</v>
       </c>
       <c r="D221" t="s">
         <v>386</v>
       </c>
       <c r="E221">
-        <v>4164770</v>
+        <v>4163261</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>4169095000</v>
+        <v>4164770000</v>
       </c>
       <c r="B222">
-        <v>4094294000</v>
+        <v>4164770000</v>
       </c>
       <c r="C222">
-        <v>4169095000</v>
+        <v>4164770000</v>
       </c>
       <c r="D222" t="s">
         <v>388</v>
       </c>
       <c r="E222">
+        <v>4164770</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>4169095000</v>
+      </c>
+      <c r="B223">
+        <v>4094294000</v>
+      </c>
+      <c r="C223">
+        <v>4169095000</v>
+      </c>
+      <c r="D223" t="s">
+        <v>390</v>
+      </c>
+      <c r="E223">
         <v>4169095</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I222" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="F223" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I223" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>4174977000</v>
       </c>
-      <c r="B223">
+      <c r="B224">
         <v>378416000</v>
       </c>
-      <c r="C223">
+      <c r="C224">
         <v>4174977000</v>
       </c>
-      <c r="D223" t="s">
-        <v>389</v>
-      </c>
-      <c r="E223">
+      <c r="D224" t="s">
+        <v>391</v>
+      </c>
+      <c r="E224">
         <v>4174977</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="I223" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B224">
+      <c r="F224" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I224" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B225">
         <v>4175485000</v>
       </c>
-      <c r="C224">
+      <c r="C225">
         <v>4175485000</v>
       </c>
-      <c r="D224" t="s">
-        <v>502</v>
-      </c>
-      <c r="E224">
+      <c r="D225" t="s">
+        <v>504</v>
+      </c>
+      <c r="E225">
         <v>4175485</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="F225" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="226" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>4180790000</v>
       </c>
-      <c r="B225">
+      <c r="B226">
         <v>4180790000</v>
       </c>
-      <c r="C225">
+      <c r="C226">
         <v>4180790000</v>
-      </c>
-      <c r="D225" t="s">
-        <v>390</v>
-      </c>
-      <c r="E225">
-        <v>4180790</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>4181343000</v>
-      </c>
-      <c r="B226">
-        <v>4181343000</v>
-      </c>
-      <c r="C226">
-        <v>4181343000</v>
       </c>
       <c r="D226" t="s">
         <v>392</v>
       </c>
       <c r="E226">
-        <v>4181343</v>
+        <v>4180790</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>4181351000</v>
+        <v>4181343000</v>
       </c>
       <c r="B227">
-        <v>4181351000</v>
+        <v>4181343000</v>
       </c>
       <c r="C227">
-        <v>4181351000</v>
+        <v>4181343000</v>
       </c>
       <c r="D227" t="s">
         <v>394</v>
       </c>
       <c r="E227">
-        <v>4181351</v>
+        <v>4181343</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>4182210000</v>
+        <v>4181351000</v>
       </c>
       <c r="B228">
-        <v>4182210000</v>
+        <v>4181351000</v>
       </c>
       <c r="C228">
-        <v>4182210000</v>
+        <v>4181351000</v>
       </c>
       <c r="D228" t="s">
         <v>396</v>
       </c>
       <c r="E228">
-        <v>4182210</v>
+        <v>4181351</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>4182711000</v>
+        <v>4182210000</v>
       </c>
       <c r="B229">
-        <v>4137275000</v>
+        <v>4182210000</v>
       </c>
       <c r="C229">
-        <v>4182711000</v>
+        <v>4182210000</v>
       </c>
       <c r="D229" t="s">
         <v>398</v>
       </c>
       <c r="E229">
-        <v>4182711</v>
+        <v>4182210</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H229" t="s">
+    </row>
+    <row r="230" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>4182711000</v>
+      </c>
+      <c r="B230">
+        <v>4137275000</v>
+      </c>
+      <c r="C230">
+        <v>4182711000</v>
+      </c>
+      <c r="D230" t="s">
         <v>400</v>
       </c>
-      <c r="I229" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="E230">
+        <v>4182711</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H230" t="s">
+        <v>402</v>
+      </c>
+      <c r="I230" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A231">
         <v>4185711000</v>
       </c>
-      <c r="B230">
+      <c r="B231">
         <v>4094294000</v>
       </c>
-      <c r="C230">
+      <c r="C231">
         <v>4185711000</v>
       </c>
-      <c r="D230" t="s">
-        <v>401</v>
-      </c>
-      <c r="E230">
+      <c r="D231" t="s">
+        <v>403</v>
+      </c>
+      <c r="E231">
         <v>4185711</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I230" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="F231" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I231" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>4185932000</v>
       </c>
-      <c r="B231">
+      <c r="B232">
         <v>4185932000</v>
       </c>
-      <c r="C231">
+      <c r="C232">
         <v>4185932000</v>
       </c>
-      <c r="D231" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="E231">
+      <c r="D232" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E232">
         <v>4185932</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>4189294000</v>
-      </c>
-      <c r="B232">
-        <v>4189294000</v>
-      </c>
-      <c r="C232">
-        <v>4189294000</v>
-      </c>
-      <c r="D232" t="s">
-        <v>560</v>
-      </c>
-      <c r="E232">
-        <v>4189294</v>
+      <c r="F232" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
+        <v>4189294000</v>
+      </c>
+      <c r="B233">
+        <v>4189294000</v>
+      </c>
+      <c r="C233">
+        <v>4189294000</v>
+      </c>
+      <c r="D233" t="s">
+        <v>562</v>
+      </c>
+      <c r="E233">
+        <v>4189294</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>4190307000</v>
       </c>
-      <c r="B233">
+      <c r="B234">
         <v>4190307000</v>
       </c>
-      <c r="C233">
+      <c r="C234">
         <v>4190307000</v>
       </c>
-      <c r="D233" t="s">
-        <v>402</v>
-      </c>
-      <c r="E233">
+      <c r="D234" t="s">
+        <v>404</v>
+      </c>
+      <c r="E234">
         <v>4190307</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="F234" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="235" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>4195694000</v>
       </c>
-      <c r="B234">
+      <c r="B235">
         <v>4195694000</v>
       </c>
-      <c r="C234">
+      <c r="C235">
         <v>4195694000</v>
       </c>
-      <c r="D234" t="s">
-        <v>403</v>
-      </c>
-      <c r="E234">
+      <c r="D235" t="s">
+        <v>405</v>
+      </c>
+      <c r="E235">
         <v>4195694</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H234" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="F235" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H235" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>4201096000</v>
       </c>
-      <c r="B235">
+      <c r="B236">
         <v>4190307000</v>
       </c>
-      <c r="C235">
+      <c r="C236">
         <v>4201096000</v>
-      </c>
-      <c r="D235" t="s">
-        <v>406</v>
-      </c>
-      <c r="E235">
-        <v>4201096</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I235" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>4212540000</v>
-      </c>
-      <c r="B236">
-        <v>4212540000</v>
-      </c>
-      <c r="C236">
-        <v>4212540000</v>
       </c>
       <c r="D236" t="s">
         <v>408</v>
       </c>
       <c r="E236">
-        <v>4212540</v>
+        <v>4201096</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I236" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>4223659000</v>
+        <v>4212540000</v>
       </c>
       <c r="B237">
-        <v>4094294000</v>
+        <v>4212540000</v>
       </c>
       <c r="C237">
-        <v>4223659000</v>
+        <v>4212540000</v>
       </c>
       <c r="D237" t="s">
         <v>410</v>
       </c>
       <c r="E237">
+        <v>4212540</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>4223659000</v>
+      </c>
+      <c r="B238">
+        <v>4094294000</v>
+      </c>
+      <c r="C238">
+        <v>4223659000</v>
+      </c>
+      <c r="D238" t="s">
+        <v>412</v>
+      </c>
+      <c r="E238">
         <v>4223659</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I237" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="F238" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I238" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>4236484000</v>
       </c>
-      <c r="B238">
+      <c r="B239">
         <v>4236484000</v>
       </c>
-      <c r="C238">
+      <c r="C239">
         <v>4236484000</v>
-      </c>
-      <c r="D238" t="s">
-        <v>411</v>
-      </c>
-      <c r="E238">
-        <v>4236484</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>4245975000</v>
-      </c>
-      <c r="B239">
-        <v>4245975000</v>
-      </c>
-      <c r="C239">
-        <v>4245975000</v>
       </c>
       <c r="D239" t="s">
         <v>413</v>
       </c>
       <c r="E239">
-        <v>4245975</v>
+        <v>4236484</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>4246127000</v>
+        <v>4245975000</v>
       </c>
       <c r="B240">
-        <v>4246127000</v>
+        <v>4245975000</v>
       </c>
       <c r="C240">
-        <v>4246127000</v>
+        <v>4245975000</v>
       </c>
       <c r="D240" t="s">
         <v>415</v>
       </c>
       <c r="E240">
-        <v>4246127</v>
+        <v>4245975</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H240" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>4253901000</v>
+        <v>4246127000</v>
       </c>
       <c r="B241">
-        <v>73553000</v>
+        <v>4246127000</v>
       </c>
       <c r="C241">
-        <v>4253901000</v>
+        <v>4246127000</v>
       </c>
       <c r="D241" t="s">
         <v>417</v>
       </c>
       <c r="E241">
-        <v>4253901</v>
+        <v>4246127</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I241" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="H241" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>4256228000</v>
+        <v>4253901000</v>
       </c>
       <c r="B242">
-        <v>4256228000</v>
+        <v>73553000</v>
       </c>
       <c r="C242">
-        <v>4256228000</v>
+        <v>4253901000</v>
       </c>
       <c r="D242" t="s">
         <v>419</v>
       </c>
       <c r="E242">
-        <v>4256228</v>
+        <v>4253901</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="H242" t="s">
+      <c r="I242" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>4256228000</v>
+      </c>
+      <c r="B243">
+        <v>4256228000</v>
+      </c>
+      <c r="C243">
+        <v>4256228000</v>
+      </c>
+      <c r="D243" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>4260535000</v>
-      </c>
-      <c r="B243">
-        <v>4043371000</v>
-      </c>
-      <c r="C243">
-        <v>4260535000</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="E243">
+        <v>4256228</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="E243">
-        <v>4260535</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="H243" t="s">
         <v>423</v>
       </c>
-      <c r="I243" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>4266367000</v>
+        <v>4260535000</v>
       </c>
       <c r="B244">
-        <v>4266367000</v>
+        <v>4043371000</v>
       </c>
       <c r="C244">
-        <v>4266367000</v>
+        <v>4260535000</v>
       </c>
       <c r="D244" t="s">
         <v>424</v>
       </c>
       <c r="E244">
-        <v>4266367</v>
+        <v>4260535</v>
       </c>
       <c r="F244" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H244" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I244" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>4272240000</v>
+        <v>4266367000</v>
       </c>
       <c r="B245">
-        <v>4094294000</v>
+        <v>4266367000</v>
       </c>
       <c r="C245">
-        <v>4272240000</v>
+        <v>4266367000</v>
       </c>
       <c r="D245" t="s">
         <v>426</v>
       </c>
       <c r="E245">
+        <v>4266367</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>4272240000</v>
+      </c>
+      <c r="B246">
+        <v>4094294000</v>
+      </c>
+      <c r="C246">
+        <v>4272240000</v>
+      </c>
+      <c r="D246" t="s">
+        <v>428</v>
+      </c>
+      <c r="E246">
         <v>4272240</v>
       </c>
-      <c r="F245" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I245" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="F246" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I246" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A247">
         <v>4273391000</v>
       </c>
-      <c r="B246">
+      <c r="B247">
         <v>4273391000</v>
       </c>
-      <c r="C246">
+      <c r="C247">
         <v>4273391000</v>
-      </c>
-      <c r="D246" t="s">
-        <v>427</v>
-      </c>
-      <c r="E246">
-        <v>4273391</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>4281232000</v>
-      </c>
-      <c r="B247">
-        <v>4212540000</v>
-      </c>
-      <c r="C247">
-        <v>4281232000</v>
       </c>
       <c r="D247" t="s">
         <v>429</v>
       </c>
       <c r="E247">
-        <v>4281232</v>
+        <v>4273391</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I247" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A248">
+        <v>4281232000</v>
+      </c>
+      <c r="B248">
+        <v>4212540000</v>
+      </c>
+      <c r="C248">
+        <v>4281232000</v>
+      </c>
+      <c r="D248" t="s">
+        <v>431</v>
+      </c>
+      <c r="E248">
+        <v>4281232</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I248" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>4284492000</v>
       </c>
-      <c r="B248">
+      <c r="B249">
         <v>140168000</v>
       </c>
-      <c r="C248">
+      <c r="C249">
         <v>4284492000</v>
       </c>
-      <c r="D248" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E248">
+      <c r="D249" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E249">
         <v>4284492</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I248" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="F249" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I249" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>4285717000</v>
       </c>
-      <c r="B249">
+      <c r="B250">
         <v>4285717000</v>
       </c>
-      <c r="C249">
+      <c r="C250">
         <v>4285717000</v>
-      </c>
-      <c r="D249" t="s">
-        <v>432</v>
-      </c>
-      <c r="E249">
-        <v>4285717</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>4286201000</v>
-      </c>
-      <c r="B250">
-        <v>4286201000</v>
-      </c>
-      <c r="C250">
-        <v>4286201000</v>
       </c>
       <c r="D250" t="s">
         <v>434</v>
       </c>
       <c r="E250">
-        <v>4286201</v>
+        <v>4285717</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>435</v>
@@ -8033,240 +8039,237 @@
     </row>
     <row r="251" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>4290976000</v>
+        <v>4286201000</v>
       </c>
       <c r="B251">
-        <v>4137275000</v>
+        <v>4286201000</v>
       </c>
       <c r="C251">
-        <v>4290976000</v>
+        <v>4286201000</v>
       </c>
       <c r="D251" t="s">
         <v>436</v>
       </c>
       <c r="E251">
-        <v>4290976</v>
+        <v>4286201</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I251" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>4299535000</v>
+        <v>4290976000</v>
       </c>
       <c r="B252">
-        <v>4299535000</v>
+        <v>4137275000</v>
       </c>
       <c r="C252">
-        <v>4299535000</v>
+        <v>4290976000</v>
       </c>
       <c r="D252" t="s">
         <v>438</v>
       </c>
       <c r="E252">
-        <v>4299535</v>
+        <v>4290976</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I252" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>4306655000</v>
+        <v>4299535000</v>
       </c>
       <c r="B253">
-        <v>4306655000</v>
+        <v>4299535000</v>
       </c>
       <c r="C253">
-        <v>4306655000</v>
+        <v>4299535000</v>
       </c>
       <c r="D253" t="s">
         <v>440</v>
       </c>
       <c r="E253">
-        <v>4306655</v>
+        <v>4299535</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>4311499000</v>
+        <v>4306655000</v>
       </c>
       <c r="B254">
-        <v>4311499000</v>
+        <v>4306655000</v>
       </c>
       <c r="C254">
-        <v>4311499000</v>
+        <v>4306655000</v>
       </c>
       <c r="D254" t="s">
         <v>442</v>
       </c>
       <c r="E254">
-        <v>4311499</v>
+        <v>4306655</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H254" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>4318985000</v>
+        <v>4311499000</v>
       </c>
       <c r="B255">
-        <v>378416000</v>
+        <v>4311499000</v>
       </c>
       <c r="C255">
-        <v>4318985000</v>
+        <v>4311499000</v>
       </c>
       <c r="D255" t="s">
         <v>444</v>
       </c>
       <c r="E255">
+        <v>4311499</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H255" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>4318985000</v>
+      </c>
+      <c r="B256">
+        <v>378416000</v>
+      </c>
+      <c r="C256">
+        <v>4318985000</v>
+      </c>
+      <c r="D256" t="s">
+        <v>446</v>
+      </c>
+      <c r="E256">
         <v>4318985</v>
       </c>
-      <c r="F255" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I255" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="F256" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I256" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>4322024000</v>
       </c>
-      <c r="B256">
+      <c r="B257">
         <v>4322024000</v>
       </c>
-      <c r="C256">
+      <c r="C257">
         <v>4322024000</v>
       </c>
-      <c r="D256" t="s">
-        <v>445</v>
-      </c>
-      <c r="E256">
+      <c r="D257" t="s">
+        <v>447</v>
+      </c>
+      <c r="E257">
         <v>4322024</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H256" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>4344489000</v>
-      </c>
-      <c r="B257">
-        <v>4137275000</v>
-      </c>
-      <c r="C257">
-        <v>4344489000</v>
-      </c>
-      <c r="D257" t="s">
+      <c r="F257" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E257">
-        <v>4344489</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I257" t="s">
-        <v>22</v>
+      <c r="H257" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A258">
+        <v>4344489000</v>
+      </c>
+      <c r="B258">
+        <v>4137275000</v>
+      </c>
+      <c r="C258">
+        <v>4344489000</v>
+      </c>
+      <c r="D258" t="s">
+        <v>450</v>
+      </c>
+      <c r="E258">
+        <v>4344489</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I258" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>36712702000</v>
       </c>
-      <c r="B258">
+      <c r="B259">
         <v>36712702000</v>
       </c>
-      <c r="C258">
+      <c r="C259">
         <v>36712702000</v>
-      </c>
-      <c r="D258" t="s">
-        <v>449</v>
-      </c>
-      <c r="E258">
-        <v>36712702</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>37311061000</v>
-      </c>
-      <c r="B259">
-        <v>37311061000</v>
-      </c>
-      <c r="C259">
-        <v>37311061000</v>
       </c>
       <c r="D259" t="s">
         <v>451</v>
       </c>
       <c r="E259">
-        <v>37311061</v>
+        <v>36712702</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>40479589000</v>
+        <v>37311061000</v>
       </c>
       <c r="B260">
-        <v>321319000</v>
+        <v>37311061000</v>
       </c>
       <c r="C260">
-        <v>40479589000</v>
+        <v>37311061000</v>
       </c>
       <c r="D260" t="s">
         <v>453</v>
       </c>
       <c r="E260">
-        <v>40479589</v>
+        <v>37311061</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I260" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>40481901000</v>
+        <v>40479589000</v>
       </c>
       <c r="B261">
-        <v>432571000</v>
+        <v>321319000</v>
       </c>
       <c r="C261">
-        <v>40481901000</v>
+        <v>40479589000</v>
       </c>
       <c r="D261" t="s">
         <v>455</v>
       </c>
       <c r="E261">
-        <v>40481901</v>
+        <v>40479589</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>513</v>
+        <v>456</v>
       </c>
       <c r="I261" t="s">
         <v>22</v>
@@ -8274,213 +8277,236 @@
     </row>
     <row r="262" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A262">
+        <v>40481901000</v>
+      </c>
+      <c r="B262">
+        <v>432571000</v>
+      </c>
+      <c r="C262">
+        <v>40481901000</v>
+      </c>
+      <c r="D262" t="s">
+        <v>457</v>
+      </c>
+      <c r="E262">
+        <v>40481901</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I262" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A263">
         <v>40481902000</v>
       </c>
-      <c r="B262">
+      <c r="B263">
         <v>40481902000</v>
       </c>
-      <c r="C262">
+      <c r="C263">
         <v>40481902000</v>
       </c>
-      <c r="D262" t="s">
-        <v>456</v>
-      </c>
-      <c r="E262">
+      <c r="D263" t="s">
+        <v>458</v>
+      </c>
+      <c r="E263">
         <v>40481902</v>
       </c>
-      <c r="F262" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H262" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>40490918000</v>
-      </c>
-      <c r="B263">
-        <v>432571000</v>
-      </c>
-      <c r="C263">
-        <v>40490918000</v>
-      </c>
-      <c r="D263" t="s">
+      <c r="F263" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E263">
-        <v>40490918</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>514</v>
-      </c>
       <c r="H263" t="s">
-        <v>24</v>
-      </c>
-      <c r="I263" t="s">
-        <v>22</v>
+        <v>460</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A264">
+        <v>40490918000</v>
+      </c>
+      <c r="B264">
+        <v>432571000</v>
+      </c>
+      <c r="C264">
+        <v>40490918000</v>
+      </c>
+      <c r="D264" t="s">
+        <v>461</v>
+      </c>
+      <c r="E264">
+        <v>40490918</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H264" t="s">
+        <v>24</v>
+      </c>
+      <c r="I264" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A265">
         <v>42535714000</v>
       </c>
-      <c r="B264">
+      <c r="B265">
         <v>4137275000</v>
       </c>
-      <c r="C264">
+      <c r="C265">
         <v>42535714000</v>
-      </c>
-      <c r="D264" t="s">
-        <v>460</v>
-      </c>
-      <c r="E264">
-        <v>42535714</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I264" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>43021132000</v>
-      </c>
-      <c r="B265">
-        <v>43021132000</v>
-      </c>
-      <c r="C265">
-        <v>43021132000</v>
       </c>
       <c r="D265" t="s">
         <v>462</v>
       </c>
       <c r="E265">
-        <v>43021132</v>
+        <v>42535714</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I265" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A266">
+        <v>43021132000</v>
+      </c>
+      <c r="B266">
+        <v>43021132000</v>
+      </c>
+      <c r="C266">
+        <v>43021132000</v>
+      </c>
+      <c r="D266" t="s">
+        <v>464</v>
+      </c>
+      <c r="E266">
+        <v>43021132</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267">
         <v>43021226000</v>
       </c>
-      <c r="B266">
+      <c r="B267">
         <v>43021226000</v>
       </c>
-      <c r="C266">
+      <c r="C267">
         <v>43021226000</v>
       </c>
-      <c r="D266" t="s">
-        <v>550</v>
-      </c>
-      <c r="E266">
+      <c r="D267" t="s">
+        <v>552</v>
+      </c>
+      <c r="E267">
         <v>43021226</v>
       </c>
-      <c r="F266" s="1" t="s">
+      <c r="F267" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H266" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="H267" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A268">
         <v>43530714000</v>
       </c>
-      <c r="B267">
+      <c r="B268">
         <v>4094294000</v>
       </c>
-      <c r="C267">
+      <c r="C268">
         <v>43530714000</v>
       </c>
-      <c r="D267" t="s">
-        <v>464</v>
-      </c>
-      <c r="E267">
+      <c r="D268" t="s">
+        <v>466</v>
+      </c>
+      <c r="E268">
         <v>43530714</v>
       </c>
-      <c r="F267" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I267" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="F268" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I268" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A269">
         <v>44784217000</v>
       </c>
-      <c r="B268">
+      <c r="B269">
         <v>44784217000</v>
       </c>
-      <c r="C268">
+      <c r="C269">
         <v>44784217000</v>
       </c>
-      <c r="D268" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E268">
+      <c r="D269" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E269">
         <v>44784217</v>
       </c>
-      <c r="F268" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H268" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="F269" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H269" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A270">
         <v>45763653000</v>
       </c>
-      <c r="B269">
+      <c r="B270">
         <v>45763653000</v>
       </c>
-      <c r="C269">
+      <c r="C270">
         <v>45763653000</v>
-      </c>
-      <c r="D269" t="s">
-        <v>468</v>
-      </c>
-      <c r="E269">
-        <v>45763653</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H269" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>46271022000</v>
-      </c>
-      <c r="B270">
-        <v>4030518000</v>
-      </c>
-      <c r="C270">
-        <v>46271022000</v>
       </c>
       <c r="D270" t="s">
         <v>470</v>
       </c>
       <c r="E270">
-        <v>46271022</v>
+        <v>45763653</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="I270" t="s">
+      <c r="H270" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>46271022000</v>
+      </c>
+      <c r="B271">
+        <v>4030518000</v>
+      </c>
+      <c r="C271">
+        <v>46271022000</v>
+      </c>
+      <c r="D271" t="s">
+        <v>472</v>
+      </c>
+      <c r="E271">
+        <v>46271022</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I271" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I270">
+  <autoFilter ref="A1:I271">
     <sortState ref="A2:I271">
       <sortCondition ref="C1:C271"/>
     </sortState>

--- a/extras/PhenotypeDescription.xlsx
+++ b/extras/PhenotypeDescription.xlsx
@@ -9,14 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="PhenotypeDescription" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeDescription!$A$1:$I$271</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -54,6 +51,12 @@
     <t>Neck pain</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Musculoskeletal or neurological pain in the neck. Neck pain can have causes that aren't due to underlying disease. Presentation: Neck muscle tightness or spasms; decreased ability to move neck. Maybe associated with headache, neck tenderness, muscle weakness or numbness. Assessment: History and physical exam, imaging tests, electromyography (EMG for pinched nerve). Plan: Pain relivers, muscle relaxants, tricyclic antidepressants; physical therpay, Transcutaneous electrical nerve stimulation (TENS), short-term immobilization; corticosteroid injections, or surgery (if compression) Prognosis: Improves gradually with treatment. Seek immediate care if severe neck pain results from an injury, such as a motor vehicle accident, diving accident or fall.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Hypoglycemia</t>
   </si>
   <si>
@@ -63,39 +66,60 @@
     <t>Eosinophilic esophagitis</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] This is a chronic, immune/antigen-mediated, esophageal disease characterized clinically by symptoms related to esophageal dysfunction and histologically by eosinophil-predominant inflammation. Presentation: Adults and teenagers frequently present with dysphagia and food impactions. Children may have symptoms of feeding difficulties, gastroesophageal reflux symptoms, and abdominal pain. Dysphagia, food impaction, chest pain that is often centrally located and may not respond to antacids, symptoms of gastroesophageal reflux disease-like symptoms/refractory heartburn along with upper abdominal pain. Assessment: This is a diagnosis of exclusion, by excluding other causes of the symptoms along with upper endoscopy with esophageal biopsies showing histological findings of eosinophilia (eosinophil predominant inflammation on biopsy). Plan: Management involves dietary, pharmacologic and endoscopic interventions – using combination of elimination diets, acid suppression, topical steroids in esophageus, and esophageal dilatation in stricture. Prognosis: untreated patients may have progressive lifelong symptoms, that maybe episodic. Long-term natural history of disease is not established.</t>
+  </si>
+  <si>
     <t>Esophagitis</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] Inflammation that damages the esophagus (mouth to the stomach). Presentation: Painful, difficult swallowing and chest pain with eating. Heartburn, and acid regurgitation. Assessment: Presenting symptoms and history. Esophagitis can be caused by a number of different conditions affecting the digestive system. Tests include: barium xray and endoscopy. Plan: Treatments depend on the cause and severity of damage, can include medications and surgery. Lifestyle changes. Prognosis: Short-term, resolves within days to weeks</t>
+  </si>
+  <si>
     <t>Dysphagia</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Swallowing difficulties, can range from mild difficulty to complete and painful blockage. Presentation: Coughing or chocking when eating or drinking, briging food back up or through the nose, drooling, frequent heatburn, gagging, aspiration pneumonia Assessment: History and physical, barium x-ray, swallowing study, endoscopy, manometry - more common in older adults. People with certain neurological or nervous system disorders are more likely to experience difficulty swallowing. Plan: Early detection and treatment of the identified causePrognosis: Sometimes the cause cannot be identified. Dependent on the cause of dysphagia and frequency.</t>
+  </si>
+  <si>
     <t>Nausea</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A queasy sensation including an urge to vomit, and can occur without vomiting. Retching differs from vomiting in the absence of expulsion of gastric content. Patients may confuse vomiting with regurgitation, which is the return of esophageal contents to the hypopharynx with little effort. Many causes of nausea - gastric rhythm disturbance is a peripheral mechanism underlying nausea from various causes. Common causes - drugs like opiod and cannabis, side effect of chemotherapy, gastrointestinal organic etiology e.g. cholelithiasis, bowel obstruction, gastroparesis, gastrointestinal bleeding. Neurologic etiology such as vestibular neuritis with vertigo, headache. Hormonal etiology such as in pregnancy. Infectious like gastroenteritis. Presentation: Uncomfortable, bothersome, disabling feeling in the chest, upper abdomen, or back of the throat. Assessment: Self-report. Plan: Depends on the cause. Resting, eating bland foods, and avoiding strong stimuli to reduce nausea. OTC motion sickness medication may also help. Hydration. Drugs like metoclopramide, ondansetron, prochlorperazine, domperidone, erythromycin and droperidol. Prognosis: Usually acute and short-lived, but can be prolonged. If experience nausea in combination with other symptoms that may require medical attention.</t>
+  </si>
+  <si>
     <t>Disorder of optic nerve</t>
   </si>
   <si>
-    <t>Overview: optic nerve connects retinal ganglion cells to visual nuclei, and is considered an extension of CNS and not a peripheral nerve with four segments (intraocular/optic disc, intraorbial, optic foramen, intracranial part. Presentation: optic nerve lesions produce monocular visual loss usually associated with afferent pupillary defect, central vision loss (scotoma), dyschromatopsia, papillitis/optic neuritis, optic atrophy. Optic neuritis ON (in young) and ischemic optic neuropathy ION (older, &gt; 50) are two most common optic nerve disease. Anterior ION (optic disc) &amp; Posterior ION (retrobulbar). Nonarteritic ION is the most common ION, and can be AION or PION. AION is common with giant cell arteritis and &gt; 70 yr. Optic neuritis is an inflammatory, demyelinating condition that is highly associated with multiple sclerosis (MS), some ON are associated with infections - west nile, cat scratch, toxoplasmosis or may be a complication of meningitis, or vasculitis. Postviral optic neuritis has been associated with measles, mumps, chickenpox, influenza, and Epstein-Barr virus, typically follow clinical infection by 1 to 3 weeks - more common in children and often bilateral. Bilateral ON may occur in GB syndrome. Sarcoidosis may be associated with ON - often bilateral. Chronic relapsing inflammatory optic neuropathy (CRION)is rare, relapsing autoimmune optic neuritis without know causes like sarcoidosis, lupus, MS, etc. Compressive optic neuropathies are slowly progressing vision loss due to compression from neoplasia or other mass in region.  ON may be genetic - Leber and Kjer's. Drugs and toxins may cause ON - e.g ethambutol, and potentially infliximab, sildenafil, amiodarone.  Presentation: maybe acute, sub-acute or chronic and is different based on etiology. NION is commonly acute, monoocular, painless visual loss with optic disc swelling. ON is acute, painful, monocular visual loss in younger (18 to 40 y) - that evolves over several days. Assessment: opthalmologic exam and MRI is usually essential. Gadolinimum MRI shows lesion in 90% of ON, but does not show in ION. Plan: no effective treatment for ION. ON may be management with methylprednisolone. Prognosis: IONs have poor prognosis compared to ON.</t>
+    <t>Overview: optic nerve connects retinal ganglion cells to visual nuclei, and is considered an extension of CNS and not a peripheral nerve with four segments (intraocular/optic disc, intraorbial, optic foramen, intracranial part. Presentation: optic nerve lesions produce monocular visual loss usually associated with afferent pupillary defect, central vision loss (scotoma), dyschromatopsia, papillitis/optic neuritis, optic atrophy. Optic neuritis ON (in young) and ischemic optic neuropathy ION (older, &gt; 50) are two most common optic nerve disease. Anterior ION (optic disc) &amp; Posterior ION (retrobulbar). Nonarteritic ION is the most common ION, and can be AION or PION. AION is common with giant cell arteritis and &gt; 70 yr. Optic neuritis is an inflammatory, demyelinating condition that is highly associated with multiple sclerosis (MS), some ON are associated with infections - west nile, cat scratch, toxoplasmosis or may be a complication of meningitis, or vasculitis. Postviral optic neuritis has been associated with measles, mumps, chickenpox, influenza, and Epstein-Barr virus, typically follow clinical infection by 1 to 3 weeks - more common in children and often bilateral. Bilateral ON may occur in GB syndrome. Sarcoidosis may be associated with ON - often bilateral. Chronic relapsing inflammatory optic neuropathy (CRION)is rare, relapsing autoimmune optic neuritis without know causes like sarcoidosis, lupus, MS, etc. Compressive optic neuropathies are slowly progressing vision loss due to compression from neoplasia or other mass in region. ON may be genetic - Leber and Kjer's. Drugs and toxins may cause ON - e.g ethambutol, and potentially infliximab, sildenafil, amiodarone. Presentation: maybe acute, sub-acute or chronic and is different based on etiology. NION is commonly acute, monoocular, painless visual loss with optic disc swelling. ON is acute, painful, monocular visual loss in younger (18 to 40 y) - that evolves over several days. Assessment: opthalmologic exam and MRI is usually essential. Gadolinimum MRI shows lesion in 90% of ON, but does not show in ION. Plan: no effective treatment for ION. ON may be management with methylprednisolone. Prognosis: IONs have poor prognosis compared to ON.</t>
   </si>
   <si>
     <t>Arthropathy</t>
   </si>
   <si>
+    <t>Overview: Presentation: Assessment: Plan: Prognosis:</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
     <t>Constipation</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Constipation is presence for atleast 3 months of straining, lumpy hard stools, sensation of incomplete evacuation, use of digital maneuvers, sensation of anorectal obstruction or blockage. It is a deviation from normal stooling pattern which has variable definition based on persons age. Presentation: Commonly self reported, and associated with abdominal pain, bloating and discomfort. Assessment: Rule out organic causes. Constipation is most commonly functional in nature. Can be medication-induced constipation (from opioids, NSAIDs, iron supplements, etc) Plan: Education, biofeedback, drinking more fluids, high-fiber foods, stool softeners and laxatives. Prognosis: Acute and treatable using stool softeners and laxatives.</t>
+  </si>
+  <si>
     <t>Myasthenia gravis</t>
   </si>
   <si>
     <t>Overview: [Deprecate in favor of Neuromuscular junction disorder 4027537000] The most common acquired disorder of neuromuscular transmission. Autoimmune. Two major types: ocular (eye muscles and eyelids involved) and generalized disease (ocular, bulbar, limb and/or respiratory muscles involved) Presentation: Fluctuating skeletal muscle weakness which worsens later in the day and after exercise. Double vision or ptosis (weakness of the eyelid muscles). Difficulty speaking swallowing or fatigue with chewing. Difficulty smiling. weak neck muscles. Severe cases involve weakness of respiratory muscles. Assessment: serum antibodies to acetylcholine receptor (AChR), muscle specific receptor tyrosine kinase (muSK) or lipoprotein receptor related protein 4 (LPR4). One half of patients with MG are seropositive for one of these antibodies. Chest CT to evaluate for thymoma (neoplasm of the thymus, which is a fetal remnant initially responsible for maturation of T cells). EMG. Plan: Pyridostigmine (inhibits breakdown of ACh by the acetylcholinesterase so nerves work better) steroids and NSAIDs, short acting therapies such as plasma exchange and IVIG. Thymectomy as a last resort (surgery to remove thymus). Avoid drugs which exacerbate symptoms (fluorquinolone antibiotics, careful use of anesthesia agents, magnesium sulfate, checkpoint inhibitors). Respiratory infections can exacerbate MS, so annual flu vaccination and q5-10 year pneumonia vaccination recommended. AVOID LIVE ATTENUATED VACCINES. Prognosis: Symptoms are initially transient with symptom free intervals. Symptoms typically worsen over time and reach their worst within 3 years. Can be fatal if respiratory muscle involvement is not addressed.</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Joint pain</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Physical discomfort where two or more bones meet to form a joint, ranging from mild to disabling. Many different conditions can lead to joint pain, including osteoarthritis, rheumatoid arthritis, bursitis, gout, strains, sprains, and other injuries. Joint pain is extremely common. Knee pain most common complaint. Presentation: limited or decreased mobility, pain or tenderness upon palpation Assessment: Self-report, physical exam, x-rays to rule-out injury and to identify arthritis-related joint damage. Screen for certain autoimmune disorders. Sedimentation rate test to measure the level of inflammation in the body or a complete blood count (CBC). Plan: Medication - nonsteroidal anti-inflammatory drug (NSAID) such as aspirin, ibuprofen, or naproxen sodium, physical therapy, or alternative treatments. Tylenol, opioids, muscle relaxants, or antidepressants and antiepileptic drugs (interfere with pain signals)Prognosis: Depends on the cause. Early detection and diagnosis can allow for effective treatment of the underlying cause of discomfort.</t>
+  </si>
+  <si>
     <t>Needs revision - non specific</t>
   </si>
   <si>
@@ -108,6 +132,9 @@
     <t>Dermatomyositis</t>
   </si>
   <si>
+    <t>Overview: Autoimmune condition that causes skin changes and muscle weakness (idiopathic inflammatory myopathy). Unknown cause. Presentation: Red skin rash around the eyelids, red bumps around the joints (Gottron papules), arm and leg muscle weakness, joint pain. Assessment: Clinical exam, blood analysis - creatine kinase (CK) and lactic dehydrogenase (LDH), autoantibodies; skin or muscle biopsy, Electromyography (EMG), MRI to scan muscles. Plan: Manage symptoms - corticosteroids, immunosuppressants, physical therapy, and exercise. Prognosis: Symptom improvement. Chronic - can last for years or be lifelong. Muscle weakness gets worse over time and leads to stiff joints and muscle wasting.</t>
+  </si>
+  <si>
     <t>Fetal growth restriction</t>
   </si>
   <si>
@@ -129,9 +156,15 @@
     <t>Ulcerative colitis</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] is a disease with recurring episodes of inflammation limited to the mucosal layer of the colon, especially rectum. The key differences compared to Crohn’s disease is continuos fashion involvement starting from rectum. Presentation: pain in colonic area, bloody diarrhoea, tenesmus and urgency. Chronic long-term disease maybe associated with strictures and obstruction. Assessment: Exclude other causes of symptoms such as infectious colitis, tough to differentiate from Crohn’s disease. Plan: Management depends on severity of symptoms, extent of disease, and risk of disease progression. Followup colonoscopy to monitor (colon cancer screening). Mesalamine, glucocorticosteroids, 5-ASA, Prognosis: Lifelong disease with potential for long-term remissions with periodic flares. Complications or disease progression may be associated with narrowing strictures and development of colon cancer.</t>
+  </si>
+  <si>
     <t>Urinary tract infectious disease</t>
   </si>
   <si>
+    <t>Overview: Urinary Tract Infection (UTI). An infection in any part of the urinary system, the kidneys, bladder, or urethra. Occurs when bacteria enters the urinary tract through the urethra and begin to multiply in the bladder. Presentation: strong urge to urinate, burning sensation when urinating, cloudy/can be red/pink urine, urinary frequency, pelvic pain in women. (depends too on whihc part of the urinary tract is infected - acute pyelonephritis, cyctitis, urethritis). Assessment: Urinalysis, urine culture, if frequent infections or abnormality in urinary tract = ultrasound, CT, MRI, or cystoscopy. Plan: Antibiotics, analgesics (relieve burning) Prognosis: Symptoms clear up within a few days of treatment</t>
+  </si>
+  <si>
     <t>Psoriatic arthritis</t>
   </si>
   <si>
@@ -153,13 +186,19 @@
     <t>Sepsis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Shock 201965000] Septicemia. Caused by the body's response to an infection. The body normally releases chemicals into the bloodstream to fight an infection. Sepsis occurs when the body's response to these chemicals is out of balance, triggering changes that can damage multiple organ systems. Stages = sepsis, severe sepsis, septic shockPresentation: fever (&gt; 101 F), or below 96.8 F; difficulty breathing, low blood pressure, fast heart rate, and mental confusion. damaged organs. Assessment: confirmed infection, abnormal WBC, CXR, CT, ultrasound, MRI; quick sequential organ failure Assessment: (qSOFA)= sepsis criteria (low BP, RR high, &amp; GCS &lt;15)Plan: Antibiotics, IVFs, vasoactive meds, insulin, corticosteroids Prognosis: Life-threatening, can result in death. Many people who survive will recover completely. Depends on the severity and preexisting conditions.</t>
+  </si>
+  <si>
     <t>Myelofibrosis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Myeloproliferative disorder, 4175485000] Rare blood cancer, a form of chronic leukemia were bone marrow is replaced by fibrous scar tissue losing its ability to produce normal blood cells. Primary (occurs on its own) or Secondary (as the result of a separate disease)Presentation: anemia, pale, enlarged spleen, portal HTN, nigt sweats, fever, itching, frequent infections, blood clots, bone or joint pain, bruising, and extramedullary hematopoiesis. Assessment: Clinical exam, CBC (elevated WBC and platelets and lower RBCs), Elevated levels of uric acid, bilirubin, and lactic dehydrogenase; gene mutation analysis - JAK2, CALR, or MPL mutation, bone marrow aspiration &amp; biopsy, ultrasound (enlarged spleen), Myeloproliferative Neoplasm-Symptom Assessment Form Total Symptom Score (MPN-SAF TSS). Plan: multikinase inhibitor (ruxolitinib), glucocorticoids, androgens, immunomodulators, chmoe and blood transfusions, if needed splenectomy or radiation therapy; allogenic hematopoietic stem cell transplantation (HSCT) is a potential cure. Prognosis: Serious &amp; progressive disease, can progress to acute myeloid leukemia (AML); many factors to eval for Prognosis: - International Prognosis: scoring system (IPSS)</t>
+  </si>
+  <si>
     <t>Thyroiditis</t>
   </si>
   <si>
-    <t>Overview: diverse group of disorders characterized by some form of thyroid inflammation, causing acute or chronic, painful or painless thyroiditis. Major diagnostic criterias are dominated by presence of pain and tenderness. Pain and tenderness occurs with subacute thyroiditis with unregulated thyroid hormone level fluctuations - includes de Quervains, subacute granulomatous - thought to post viral illness. Infectious thyroiditis is also painful and tender and may be acute - e.g. bacterial with abscess suppurative, or chronic infection.  Pain and tenderness is absense in silent/lymphocytic/painless thyroiditis that may occur secondary to autoimmune causes (hashimotos). Postpartum thyroiditis is known to occur within 1 year of parturition - and history of pregnancy is an important classifier. Drugs like interferon alfa, interleukin-2, amiodarone, lithium, tyrosine kinase inhibitors, check point inhibitors immunotherapy may cause painless non tender thyroiditis. Presentation: Painful thyroiditis has obvious symptoms of pain in thyroid region, seasonality (summer) in pattern may exist because etiology is commonly thought to be post viral. Painless thyroiditis have history of hyperthyroidism like symptoms followed by hypothyroidism - however rarely are these symptoms severe, and are almost always transient many go undetected. Assessment: TSH followed by T3 and T4. Physical exam to confirm tenderness. Subacute/acute thyroiditis is a clinical diagnosis. Medication review, anti thyroid antibodies, thyroid ultrasound. Plan: Find and treat underlying cause of thyroid inflammation (medications, surgery). Beta blockers for bothersome thyroiditis. If symptomatic hypothyroidism, consider T4 (levothyroxine) therapy. Pain management if needed. Prognosis: Typically excellent prognosis.</t>
+    <t>Overview: diverse group of disorders characterized by some form of thyroid inflammation, causing acute or chronic, painful or painless thyroiditis. Major diagnostic criterias are dominated by presence of pain and tenderness. Pain and tenderness occurs with subacute thyroiditis with unregulated thyroid hormone level fluctuations - includes de Quervains, subacute granulomatous - thought to post viral illness. Infectious thyroiditis is also painful and tender and may be acute - e.g. bacterial with abscess suppurative, or chronic infection. Pain and tenderness is absense in silent/lymphocytic/painless thyroiditis that may occur secondary to autoimmune causes (hashimotos). Postpartum thyroiditis is known to occur within 1 year of parturition - and history of pregnancy is an important classifier. Drugs like interferon alfa, interleukin-2, amiodarone, lithium, tyrosine kinase inhibitors, check point inhibitors immunotherapy may cause painless non tender thyroiditis. Presentation: Painful thyroiditis has obvious symptoms of pain in thyroid region, seasonality (summer) in pattern may exist because etiology is commonly thought to be post viral. Painless thyroiditis have history of hyperthyroidism like symptoms followed by hypothyroidism - however rarely are these symptoms severe, and are almost always transient many go undetected. Assessment: TSH followed by T3 and T4. Physical exam to confirm tenderness. Subacute/acute thyroiditis is a clinical diagnosis. Medication review, anti thyroid antibodies, thyroid ultrasound. Plan: Find and treat underlying cause of thyroid inflammation (medications, surgery). Beta blockers for bothersome thyroiditis. If symptomatic hypothyroidism, consider T4 (levothyroxine) therapy. Pain management if needed. Prognosis: Typically excellent prognosis.</t>
   </si>
   <si>
     <t>Atopic dermatitis</t>
@@ -183,6 +222,9 @@
     <t>Jaundice</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A condition in which the skin, whites of the eyes and mucous membranes turn yellow because of a high level of bilirubin. Jaundice may occur if the liver cannot process RBCs as they break down. Normal in healthy newborns (neonatal jaundice) and usually clears on its own. At other ages, it may signal infection or liver disease. Types: Hepatocellular jaundice, Hemolytic jaundice, and Obstructive jaundice. Presentation: (Adult jaundice) - caused by infection then can see fever, chills, abdominal pain, flu-like ymptoms, change in skin color, dark urine and/or clay-colored stool. Can also have wgt loss and pruritus; signs of liver disease (bruising, spide angiomas, palmar erythema) Assessment: UA (positive for bilirubin), CBC and bilirubin levels, ultrasound and CT, liver exam and biopsy Plan: Jaundice usually does not require treatment in adults, but treat the underlying cause Prognosis: As underlying condition goes away or improves, jaundice goes away.</t>
+  </si>
+  <si>
     <t>Chronic lymphoid leukemia</t>
   </si>
   <si>
@@ -198,6 +240,9 @@
     <t>Myelodysplastic syndrome</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Myeloproliferative disorder, 4175485000] (MDS). Disease maybe part of the spectrum of acute myeloid leukemia (AML) but with lower percentage of blast cells in peripheral blood and bone marrow (by definition &lt; 20%). It is a group of hematologic malignancies characterized by clonal hematopoesis of one or more cell lines leading to anemia, neutropenia or thrombocytopenia. Presentation: high variability but depends on underlying cell line impacted. Cytopenia related fatigure, infections, or asymptomatic. Assessment: Suspected in all patients with symptoms of anemia, infections, or bleeding/bruising.. Complete blood count/smear, bone marrow examination, iron statining to detect ring sideroblasts. Diagnosis is based on pathological examination along with cytogentic. Plan: Treat the symptomatic anemia, thrombocytopenia, recurrent infections. Rx with granulocyte CSF and granulocyte-macrophage CSF may be beneficial in somePrognosis: Chronic disease where progression to bone marrow failure has poor prognosis.</t>
+  </si>
+  <si>
     <t>Myelitis transverse</t>
   </si>
   <si>
@@ -219,6 +264,9 @@
     <t>Acute myeloid leukemia</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Myeloproliferative disorder, 4175485000] is a group of agressive blood cancers that arise from bone marrow that results in production of abnormal myeloblasts (an excess of immature white blood cells), red blood cells, or platelets. Different types of AML. Presentation: Early signs and symptoms of AML may be like the flu - fever, SOB, easy bruising or bleeding, petechiae, weakness, feeling tired, weight oass and loss of appetiteAssessment: History and physical, CBC (abnormal), peripheral blood smear, bone marrow aspiration &amp; biopsy, cytogenetic analysis, immunophenotyping, and reverse transcription-polymerase chain reaction (RT-PCR) Plan: Depends on AML subtype, and whether the leukemia has spread outside the blood and bone marrow. Treatment can include: chemo, radiation, chemo w/ stem cell transplant, and other anticancer drugs Prognosis: Depends on age, AML subtype, co-morbidities, initial dx or recurrent. With current treatment regimens, 65%–70% of people with AML reach a complete remission.</t>
+  </si>
+  <si>
     <t>Hypothyroidism</t>
   </si>
   <si>
@@ -246,6 +294,9 @@
     <t>Renal failure syndrome</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of 4030518000, Renal Impairment] Action myoclonus–renal failure syndrome. Causes episodes of involuntary muscle jerking or twitching (myoclonus) and, often, kidney (renal) disease. A rare form of progressive myoclonus epilepsy associated with severe renal dysfunction. AMRF syndrome is caused by mutations in the SCARB2 gene. This condition is inherited in an autosomal recessive pattern. Presentation: Neurologic symptoms - involuntary rhythmic shaking (tremor) in the fingers and hands; over time, tremors can affect other parts of the body, such as the head, torso, legs, and tongue. Eventually, the tremors worsen to become myoclonic jerks, and precede to renal manisfestations (proteinuria, nephrotic syndrome and end-stage renal disease. Assessment: Genetic testing, EEG, renal functionPlan: Treatment of neurologic manifestations, antiepileptic drugs, genetic counseling, treatment of renal manifestations (dialysis, transplant). Prognosis: Lifelong follow including regular monitoring of antiepileptic drug treatment and renal function. Disease manifestations are usually evident in the late teens or early twenties.</t>
+  </si>
+  <si>
     <t>Gastrointestinal hemorrhage</t>
   </si>
   <si>
@@ -261,12 +312,15 @@
     <t>End-stage renal disease</t>
   </si>
   <si>
-    <t>Overview:  [depcreated in favor of 4030518000, Renal Impairment] End Stage Kidney Disease is stage 5 chronic kidney disease that has an estimated glomerular filtration rate (eGFR &lt;15 mL/min/1.73 m2) . Presentation: Early stages of chronic kidney disease may be asymptomatic, but as patients progress to ESKD signs/symptoms of uremia are common including volume overload, hyperkalemia, metabolic acidosis, hypertension, anemia, and mineral and bone disorders. Assessment: Monitor kidney function, metabolic panel, daily weight to ensure no fluid overload, check for anemia and need for erythopoetin, check Creatinine if not on dialysis. Plan: Evaluate for cause of loss of kidney function. Monitor kidney size, when still functional, using Ultrasound. Once end stage kidney disease (ESKD) is established prep dialysis (catheter, fistula) and dialysis related management. Prognosis: Long term disease, benefits from kidney transplantation. Will usually need long term dialysis. Higher mortality.</t>
+    <t>Overview: [depcreated in favor of 4030518000, Renal Impairment] End Stage Kidney Disease is stage 5 chronic kidney disease that has an estimated glomerular filtration rate (eGFR &lt;15 mL/min/1.73 m2) . Presentation: Early stages of chronic kidney disease may be asymptomatic, but as patients progress to ESKD signs/symptoms of uremia are common including volume overload, hyperkalemia, metabolic acidosis, hypertension, anemia, and mineral and bone disorders. Assessment: Monitor kidney function, metabolic panel, daily weight to ensure no fluid overload, check for anemia and need for erythopoetin, check Creatinine if not on dialysis. Plan: Evaluate for cause of loss of kidney function. Monitor kidney size, when still functional, using Ultrasound. Once end stage kidney disease (ESKD) is established prep dialysis (catheter, fistula) and dialysis related management. Prognosis: Long term disease, benefits from kidney transplantation. Will usually need long term dialysis. Higher mortality.</t>
   </si>
   <si>
     <t>Low back pain</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A common, painful condition affecting the lower portion of the spine. Acute back pain comes on suddenly, often after an injury from sports or heavy lifting. Pain that lasts more than three months is considered chronic. Presentation: Dull ache to a stabbing or shooting sensation, hard to move or stand up straight, leg numbness or pins/needles Assessment: Self-report of pain, bone scan, discography, electrogiagnostics (EMG, evoked potential studies), imaging studiesPlan: Physical therpay and pain relievers - Nonsteroidal anti-inflammatory, analgesics, muscle relaxants, narcotics; topical pain relief; acupuncture, masssage; maybe spinal injections or surgery, implanted verve stimulators Prognosis: Favorable prognosis, most cases recover within a short period of time; but can have chronic low back pain</t>
+  </si>
+  <si>
     <t>Prelabor Rupture of Membranes</t>
   </si>
   <si>
@@ -276,13 +330,19 @@
     <t>Celiac disease</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of 4043371000, Inflammatory Disoder of Gastrointestinal tract] Celiac disease is a type of gastrointestinal malabsorption condition associated with abdominal discomfort and diarrhoea, commonly caused by immune reaction to gluten in wheat containing diet.Initial presentation: Most common presentation at diagnosis include chronic or recurrent diarrhea or constipation, malabsorption (bulky, foul-smelling, floating stools due to steatorrhea), unexpected weight loss, abdominal pain, distension, flatulence or bloating. The severity of symptoms appears to correlate with both histologic severity and tissue transglutaminase titers. However, the disease spectrum ranges from no symptoms, relapsing symptoms, to severe debilitating symptoms. Assessment: Clinical judgment using combination of symptoms, prior probability of celiac disease based on clinical scenarios such as (decreases probability): absence of significant chronic diarrhea/steatorrhea or weight loss, absence of family history, being of Chinese, Japanese, or Sub-Saharan African descent. If prior probability is high, then serologic testing and small bowel biopsy may help with establishing diagnosis. Exclude other similar conditions like Irritable bowel syndrome, small intestinal bacterial overgrowth, lactose intolerance, chronic pancreatitis, microscopic colitis, and inflammatory bowel disease. Plan: Diet management (gluten), symptom management. Prognosis: This is a life-long condition, although occasionally remission is possible after prolonger dietary treatment.</t>
+  </si>
+  <si>
     <t>Diarrhea</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Loose, watery stools that occur more frequently than usual. Diarrhea is usually caused by a virus or, sometimes, contaminated food. Less frequently, it can be a sign of another disorder, such as inflammatory bowel disease or irritable bowel syndrome. Presentation: Frequent, loose, watery stools and belly pain. Plan: Replacing lost fluids with an oral rehydration solution (ORS) may help prevent dehydration. Over-the-counter antidiarrheal drugs such as Pepto-Bismol and Kaopectate may help. Prognosis: Most cases clear on their own. Some infections may need antibiotics. Severe cases can cause enough dehydration to require intravenous fluids.</t>
+  </si>
+  <si>
     <t>Acute kidney injury or Acute renal failure syndrome</t>
   </si>
   <si>
-    <t>Overview:  [depcreated in favor of 4030518000, Renal Impairment] Acute Kidney Injury (formerly known as acute renal failure) is a type of organ failure that is almost always because of pre-renal or renal (acute tubular necrosis) etiology. It is diagnosed by a criteria that is a combination of either increase in serum creatine (laboratory) or severe reduction in urine volume. Presentation: Most prerenal causes have symptoms of reduced urine output associated with decreased tissue perfusion insults (e.g. vomiting, diarrhoes, bleeding, sepsis that have lead to volume depletion, hypotension), while renal causes maybe because of exposure to nephrotoxins including drugs that may have blood and sediments in urine. Tachycardia and signs of uremia may occur. Assessment: Urinalysis, Fractional Extraction of Sodium, Ultrasound of kidney/pelvis. Search for etiology. Plan: eliminate the cause of injury when possible. Maintain renal perfusion and fluid balance. Renal biopsy in some cases. Prognosis: may recover to baseline, or may progress to chronic kidney disease.</t>
+    <t>Overview: [depcreated in favor of 4030518000, Renal Impairment] Acute Kidney Injury (formerly known as acute renal failure) is a type of organ failure that is almost always because of pre-renal or renal (acute tubular necrosis) etiology. It is diagnosed by a criteria that is a combination of either increase in serum creatine (laboratory) or severe reduction in urine volume. Presentation: Most prerenal causes have symptoms of reduced urine output associated with decreased tissue perfusion insults (e.g. vomiting, diarrhoes, bleeding, sepsis that have lead to volume depletion, hypotension), while renal causes maybe because of exposure to nephrotoxins including drugs that may have blood and sediments in urine. Tachycardia and signs of uremia may occur. Assessment: Urinalysis, Fractional Extraction of Sodium, Ultrasound of kidney/pelvis. Search for etiology. Plan: eliminate the cause of injury when possible. Maintain renal perfusion and fluid balance. Renal biopsy in some cases. Prognosis: may recover to baseline, or may progress to chronic kidney disease.</t>
   </si>
   <si>
     <t>Viral hepatitis C</t>
@@ -309,7 +369,7 @@
     <t>Cervical cancer</t>
   </si>
   <si>
-    <t>Overview: Cancer of the uterine cervix is the 3rd most common GYN cancer diagnosis  HPV is central to the development of cervical neoplasia. Most common histologic types of cervical cancer are squamous cell (70 % of cervical cancers) and adenocarcinoma (25 %) Presentation: Frequently asymptomatic, irregular or heavy vaginal bleeding, postcoital bleeding, vaginal discharge Assessment: pap test, pelivc exam (visualization of the cervix), cervical cytology, HPV testing, cervical biopsy and coloscopyPlan: surgery (hysterectomy, cervicectomy, cryosurgery), radiation, and chemotherapyPrognosis: Mean age at diagnosis is 50 y/o. detected at an early stage, the better the prognosis. If cervical cancer has spread to surrounding tissues or organs and/or the regional lymph nodes, the 5-year survival rate is 56%.</t>
+    <t>Overview: Cancer of the uterine cervix is the 3rd most common GYN cancer diagnosis HPV is central to the development of cervical neoplasia. Most common histologic types of cervical cancer are squamous cell (70 % of cervical cancers) and adenocarcinoma (25 %) Presentation: Frequently asymptomatic, irregular or heavy vaginal bleeding, postcoital bleeding, vaginal discharge Assessment: pap test, pelivc exam (visualization of the cervix), cervical cytology, HPV testing, cervical biopsy and coloscopyPlan: surgery (hysterectomy, cervicectomy, cryosurgery), radiation, and chemotherapyPrognosis: Mean age at diagnosis is 50 y/o. detected at an early stage, the better the prognosis. If cervical cancer has spread to surrounding tissues or organs and/or the regional lymph nodes, the 5-year survival rate is 56%.</t>
   </si>
   <si>
     <t>Renal cancer</t>
@@ -327,6 +387,9 @@
     <t>Abdominal pain</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Commonly classified into acute vs chronic - although there is no established definition to differentiate the two. Abdominal pain that is new in onset in past few days and may still be accelerating is generally considered acute. Presentation: pain is described by position, chronology (onset, duration, frequency), severity (scale 1 to 10), aggravating and reliving factors. Assement: If acute abdomen a determination needs to be made if this is an emergency (unstable vital signs, signs of peritonitis or perforation). Localized pain that is considered non urgent may have different management based on location e.g. right upper quadrant is investigated for liver/gall bladder disease, while epi gastric area pain is managed for gastritis/ulcer. Ultrasound of the abdomen or CT abdomen as needed. Plan: Depends on the underlying etiology. Prognosis: Abdominal pain is most commonly benign and self-limited.</t>
+  </si>
+  <si>
     <t>Autoimmune hepatitis</t>
   </si>
   <si>
@@ -342,25 +405,40 @@
     <t>Type 1 diabetes mellitus</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] Type 1 diabetes mellitus (T1DM), is one of the most common chronic diseases in childhood and is caused by insulin deficiency following (auto-antibody mediated) destruction of the insulin-producing pancreatic beta cells. Type 1 accounts for about 80% of Diabetes Mellitus in childhood and about 25% of adults. Its incidence varies by geography, age, gender, family history and ethnicity - and is associated with both genetic and environmental risk factors. A chronic condition in which the pancreas produces little or no insulin to control blood sugar levels. T1 was previously called insulin-dependent diabetes or juvenile diabetes. T1a (85% - have detectable autoantibodies for pancreatic beta cells), T1b (no detectable autoantibodies, for pancreatic beta cells). Presentation: Hyperglycemia without acidosis is the most common presentation of childhood T1DM in most populations - with polyuria, polydipsia and weight loss detected in ambulatory settings. Diabetic Ketoacidosis (DKA, hyperglycemia and ketoacidosis) is second most common presentation - but severe symptoms compared to those without acidosis. Bed-wetting in kids who previously did not wet the bed. Some may be silent. Assessment: First step establish DM diagnosis using any one of glycated hemoglobin (A1C) &gt;= 6.5, fasting plasma glucose &gt;= 126, random venous plasma glucose &gt;= 200, oral gluocse tt &gt;= 200. ). There is no set of criteria or diagnostic test can consistently distinguish between T1 and T2 - but may be based on a combination of body habitus (T2 - obese), age (T1- younger), insulin resistance (T2 - acanthosis nigricans), Antibodies (T1 - pancreatic islet-specific pancreatic autoantibodies), high fasting insulin (in T2) and C-peptides (in T2). Plan: diabetes education, blood sugar monitoring, insulin therapy, diet, and exercise. Age based care - challenging with young children. Prognosis: Careful management leads to risk reduction.</t>
+  </si>
+  <si>
     <t>Gastritis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of 4043371000, Inflammatory Disoder of Gastrointestinal tract] Inflammation or erosion of the lining of the stomach, acute or chronic Presentation: upper belly pain, N/V, indigestion Assessment: clinical exam and palpation, Upper endoscopy and biopsy, screen for anemia and H. Pylori infection, fecal occult blood test Plan: Depends on the cause. Antacids, proton pump inhibitors, H-2 blockers, antibiotics . B12 shots if caused by pernicious anemia (vit B12 anemia)Prognosis: Improve quickly with treatment and elimination of irritating foods</t>
+  </si>
+  <si>
     <t>Crohn's disease</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] Is a disease with transmural inflammation anywhere in GI tract commonly with ulceration, by skip areas of involvement (ie, segments of normal-appearing bowel interrupted by areas of disease). The transmural inflammatory nature of Crohn disease may lead to fibrosis and strictures, leading to narrowing and obstructive clinical presentations. Also common are microperforation related symptoms because of sinus tracts and fistula formation. Crohn disease most commonly involves the ileum and proximal colon; however, any part of the gastrointestinal tract may be affected.Initial presentation: Common presentation are abdominal pain, diarrhea (with or without gross bleeding), fatigue, and weight loss. Assessment: Symptoms (eg, right lower quadrant abdominal pain, chronic intermittent diarrhea, fatigue, weight loss) and laboratory tests (eg, anemia, vitamin B12 deficiency, vitamin D deficiency). The diagnosis is established based results of colonoscopy with biopsy and histo pathologic examination that demonstrates segmental and transmural inflammation of the luminal gastrointestinal tract. Plan: Complex management that involves symptom management, diet management and drug therapy. Disease flares may occur, sometimes needing hospitalization. Prognosis: Life-long condition, with occasional remissions. It can progress to colon cancer.</t>
+  </si>
+  <si>
     <t>Kidney stone</t>
   </si>
   <si>
     <t>Overview: Also called renal calculi, nephrolithiasis or urolithiasis are hard deposits made of minerals and salts that form inside the kidneys, but can develop anywhere along the urinary tract. Presentation: Severe pain (renal colic), usually in the side of the abdomen, N/V, blood in urine, can have fever and chills. If small kidney stone, may not have any pain or symptoms as the stone passes through the urinary tract. Assessment: History and physical, Blood tests (BUN and creatinine for kidney functioning), UA - Rule out obstruction - abdominal films, intravenous pyelogram (IVP), ultrasound of the kidney Plan: Pain relievers (narcotics) and drinking lots of water to help pass the stone. Medical procedures (lithotripsy) may be needed to remove or break up larger stones. Antibiotics if infection present. Large stones usually require surgical removal. Prognosis: Can have renal deterioration with certain stone types.</t>
   </si>
   <si>
+    <t>Diabetes Mellitus</t>
+  </si>
+  <si>
     <t>Type 2 diabetes mellitus</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] Type 2 DM accounts for 90% of all DM, and the generic use of Diabetes Mellitus almost always refers to Type 2.It is hyperglycemia and related complications usually due to progressive loss of insulin secretion from the pancreatic beta cells with background of insulin resistance. It is a state of 'relative' insulin deficiency - where insulin even when present may be less effective due to resistance. Presentation: The classic symptoms of hyperglycemia (including polyuria, polydipsia, nocturia, blurred vision, and weight loss) but these are most commonly observered in retrospect with most common mode of diagnosis is screening in asymptomatic patients, or seeking emergency care for hyperosmolar hyperglycemic state without ketoacidosis. Assessment: Oral glucose tolerance test and HbA1c, fasting blood glucose, lipid, liver function testsPlan: Initial management is achieve normoglycemic state with lifestyle modification - weight, diet. Metformin is commonly recommended first line, but treatment choices vary with presence of other risk factors. Progression may lead to dependence on insulin. Prognosis: life long disease that is amenable and managed</t>
+  </si>
+  <si>
     <t>Shock</t>
   </si>
   <si>
-    <t>Overview: Four types of non mutually exclusion shocks are recognized: distributive (septic, non septic - anaphylatic, neurogenic, SIRS), cardiogenic (cardiomyopathic - MI, arrythomogenic, mechanical), hypovolemic (hemorrhagic, non-hemorrhagic - diarrhoea, vomiting), and obstructive (pulmonary embolism, tension pneumothorax, pericardial tamponade, constrictive pericarditis). Cardiogenic shock is a subtype of shock phenotype where there is inability of the heart to pump an adequate amount of blood leading to decreased oxygen and nutrient delivery to the tissues and, if tissue perfusion reduction is prolonged, potentially end-organ damage and multi-system failure. Acute myocardial infarction (MI) with left ventricular failure is the most common cause of cardiogenic shock. Cardiogenic shock is the leading cause of death in patients with acute MI. Cardiogenic shock has persistent hypotension (systolic blood pressure &lt;80 to 90 mmHg or mean arterial pressure 30 mmHg lower than baseline) with severe reduction in the cardiac index (&lt;1.8 L/min per m2 without support or &lt;2 to 2.2 L/min per m2 with support) with adequate filling pressures. Other causes of cardiogenic shock include acute mitral valve regurgitation, rupture of ventricular septal or free walls, cardiac tamponade. Septic shock is a subtype of shock phenotype with distributive type of shock. SIRS is a clinical syndrome that is characterized by a robust inflammatory response to infectious (or non infectious) insult. Sepsis, defined as a dysregulated host response to infection resulting in life-threatening organ dysfunction. There is a continuum of severity ranging from sepsis to septic shock. Staphylococcal toxic shock syndrome is a type of sepsis and a type of septic shock. Presentation: The cardinal features of shock, irrespective of shock type, include clinical manifestations of hypoperfusion such as hypotension (which occurs in most patients), oliguria, abnormal mental status, cold clammy skin, and evidence of metabolic acidosis on laboratory testing. The "classic" patient with cardiogenic shock has severe systemic hypotension, signs of systemic hypoperfusion (eg, cool extremities, oliguria, and/or alteration in mental status), and respiratory distress due to pulmonary congestion. Shock is a physiologic continumm that begins with inciting event that triggers physiological changes. Pre-shock/compensated shock is characterized by compensatory responses to diminished tissue perfusion - tachycardia, peripheral vasoconstriction, elevated systemic blood pressure. Shock - compensatory mechanisms are overwhelmed, organ dysfunction may start with dyspnea, restlessnes, diaphoresis, metabolic acidosis, hypotension. End-organ dysfunction including anuria, acute renal failure, acidemia, comma, death. Cardiogenic shock presentation is similar to other forms of shock (see shock phenotype) along with evidence of myocardial insult to explain the shock such as MI. Most patients who develop cardiogenic shock due to acute MI do so after hospital admission for MI because of eventual failure of intial compensatory mechanisms that protected the individual from hemodynamic failure with about 50% developing within 24 hours of infarct. Sepsis shock may be expected to have sepsis symptoms such as fever, tachycardia, elevated respiratory rate, abnormal white blood count, and severely ill looking.  Assessment: find the cause, evaluate for septic or cardiogenic or other causes. Diagnosis of cardiogenic shock requires strong clinical judgment by looking for some combination of difficulty breathing, hypotension, hypoperfusion, pulmonary congestion - supported by ECG abnormalality, chest x ray with pulmonary congestion, and wall motion abnormality on echocardiogram. To identify infection in suspected sepsis - blood/urine/sputum cultures, wound cultures if a wound present, lumbar puncture if indicated clinically,lactate level. Plan: Treat as emergency. ICU admission, hemodynamic monitoring with pulmonary artery catheterization if needed, vasopressor drugs (norepinephrine, dopamine), supplemental oxygen/ventilatory support, pH managment of lactic acidosis. Treat the cause. Cardiogenic shock- diagnostic coronary angiography, attempt reperfusion of heart if MI, coronary artery revascularization. fluid replenishment, hemodynamic monitoring and management, airway management and ventillation. For sepsis - may need to start with broad spectrum antibiotics after cultures are drawn (even when pending), and then narrow antibiotics based on results of susceptibility testing. Prognosis: highly variable. Cardiogenic shock - early revascularization has better prognosis.</t>
+    <t>Overview: Four types of non mutually exclusion shocks are recognized: distributive (septic, non septic - anaphylatic, neurogenic, SIRS), cardiogenic (cardiomyopathic - MI, arrythomogenic, mechanical), hypovolemic (hemorrhagic, non-hemorrhagic - diarrhoea, vomiting), and obstructive (pulmonary embolism, tension pneumothorax, pericardial tamponade, constrictive pericarditis). Cardiogenic shock is a subtype of shock phenotype where there is inability of the heart to pump an adequate amount of blood leading to decreased oxygen and nutrient delivery to the tissues and, if tissue perfusion reduction is prolonged, potentially end-organ damage and multi-system failure. Acute myocardial infarction (MI) with left ventricular failure is the most common cause of cardiogenic shock. Cardiogenic shock is the leading cause of death in patients with acute MI. Cardiogenic shock has persistent hypotension (systolic blood pressure &lt;80 to 90 mmHg or mean arterial pressure 30 mmHg lower than baseline) with severe reduction in the cardiac index (&lt;1.8 L/min per m2 without support or &lt;2 to 2.2 L/min per m2 with support) with adequate filling pressures. Other causes of cardiogenic shock include acute mitral valve regurgitation, rupture of ventricular septal or free walls, cardiac tamponade. Septic shock is a subtype of shock phenotype with distributive type of shock. SIRS is a clinical syndrome that is characterized by a robust inflammatory response to infectious (or non infectious) insult. Sepsis, defined as a dysregulated host response to infection resulting in life-threatening organ dysfunction. There is a continuum of severity ranging from sepsis to septic shock. Staphylococcal toxic shock syndrome is a type of sepsis and a type of septic shock. Presentation: The cardinal features of shock, irrespective of shock type, include clinical manifestations of hypoperfusion such as hypotension (which occurs in most patients), oliguria, abnormal mental status, cold clammy skin, and evidence of metabolic acidosis on laboratory testing. The "classic" patient with cardiogenic shock has severe systemic hypotension, signs of systemic hypoperfusion (eg, cool extremities, oliguria, and/or alteration in mental status), and respiratory distress due to pulmonary congestion. Shock is a physiologic continumm that begins with inciting event that triggers physiological changes. Pre-shock/compensated shock is characterized by compensatory responses to diminished tissue perfusion - tachycardia, peripheral vasoconstriction, elevated systemic blood pressure. Shock - compensatory mechanisms are overwhelmed, organ dysfunction may start with dyspnea, restlessnes, diaphoresis, metabolic acidosis, hypotension. End-organ dysfunction including anuria, acute renal failure, acidemia, comma, death. Cardiogenic shock presentation is similar to other forms of shock (see shock phenotype) along with evidence of myocardial insult to explain the shock such as MI. Most patients who develop cardiogenic shock due to acute MI do so after hospital admission for MI because of eventual failure of intial compensatory mechanisms that protected the individual from hemodynamic failure with about 50% developing within 24 hours of infarct. Sepsis shock may be expected to have sepsis symptoms such as fever, tachycardia, elevated respiratory rate, abnormal white blood count, and severely ill looking. Assessment: find the cause, evaluate for septic or cardiogenic or other causes. Diagnosis of cardiogenic shock requires strong clinical judgment by looking for some combination of difficulty breathing, hypotension, hypoperfusion, pulmonary congestion - supported by ECG abnormalality, chest x ray with pulmonary congestion, and wall motion abnormality on echocardiogram. To identify infection in suspected sepsis - blood/urine/sputum cultures, wound cultures if a wound present, lumbar puncture if indicated clinically,lactate level. Plan: Treat as emergency. ICU admission, hemodynamic monitoring with pulmonary artery catheterization if needed, vasopressor drugs (norepinephrine, dopamine), supplemental oxygen/ventilatory support, pH managment of lactic acidosis. Treat the cause. Cardiogenic shock- diagnostic coronary angiography, attempt reperfusion of heart if MI, coronary artery revascularization. fluid replenishment, hemodynamic monitoring and management, airway management and ventillation. For sepsis - may need to start with broad spectrum antibiotics after cultures are drawn (even when pending), and then narrow antibiotics based on results of susceptibility testing. Prognosis: highly variable. Cardiogenic shock - early revascularization has better prognosis.</t>
   </si>
   <si>
     <t>Create cohort definitions for cardiogenic shock, septic shock (with subtype toxic shock syndrome), hypovolemic shock, mixed type shock</t>
@@ -375,6 +453,9 @@
     <t>Cough</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Cough is commonly classified by duration with acute cough lasting &lt; 3 weeks, sub-acute (3 to 8 weeks), chronic (&gt; 8 weeks). Cough is the result of irritation to cough receptors that are triggered by chemical/mechanical stimuli and are present in many areas in the body including pericardium, diaphragm, stomach. Presentation: Cough is a common manifestation of several conditions. Acute cough may be a symptom of an infection, while the chronic cough may be because of gastroesophageal reflux disease, asthma, drugs like ACE inhibitors, chronic bronchitis, eosinophilc bronchitis, lung cancer, smoking etc. Assessment: History is most important for diagnosis to understand the duration and inciting factors of the cough. Assessment: depends on the underlying suspected cause. Plan: Specific treatment is to identify and treat the underlying disease. Non specific treatment includes centrally acting antitussive agents like dextromethorphan, codeine, morphine. Prognosis: Good, if eliciting agent may be identified and eliminated.</t>
+  </si>
+  <si>
     <t>Chronic obstructive lung disease</t>
   </si>
   <si>
@@ -402,43 +483,61 @@
     <t>Acute myocardial infarction</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of ischemic heart disease, 4185932000] Medical emergency, anoxic tissue injury to myocardium because of decreased blood suppy due to blockage of coronary blood vessels. Presentation: Tightness or pain in the chest, neck, back, or arms, shortness of breath, sweating, N/V as well as fatigue, lightheadedness, abnormal heartbeat, and anxiety. Assessment: Risk factors (HTN, high chol levels, diabetes, obesity, smoking, age, family hx), EKG, troponin (looking for heart damage), stress test, angiogram, and echocardiogramPlan: Immediate priority of thrombolysis and/or reperfusion of the myocardium. Blood thinner (aspirin), thrombolytics, antiplatelet, nitroglycerin, beta-blockers, ACE inhibitors. Cardiac stents or CABG Prognosis: Recovery from a heart attack depends on how much heart damage occurs and and how quickly emergency care is received. New events may occur in future. After recovery from the acute event, patient may develop chronic symptoms of myocardial injury including congestive heart failure.</t>
+  </si>
+  <si>
     <t>Dyspnea</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Subjective feeling of difficultly or labored breathing, maybe acute new onset, or chronic long standing. Commonly caused because of respiratory causes, but maybe secondary to cardiovascular (Congestive heart failure) or neuromuscular/obstruction. Presentation: Labored breathing of varying duration and exacerbated by activity. Maybe associated with panic, anxiety and airhunger. Assessment: Determine if acute or chronice, if cardiovascular or pulmonary or other reasons. Plan: Ensure adequate oxygenation, and manage hypercapnia. Specific management depends on cause. Prognosis: Acute dyspnea is commonly resolved after correcting the inciting cause. Chronic disease during lung or cardiovacscular disease may recur, relapse or worsen based on underlying disease.</t>
+  </si>
+  <si>
     <t>Thromboangiitis obliterans</t>
   </si>
   <si>
-    <t>Overview: Previously known as Buerger's disease, TAO is characterized by  a nonatherosclerotic (not due to cholesterol plaque), segmental inflammatory thrombotic vessel occlusions, that affects the small to medium-sized arteries and veins of the extremities (upper and lower). It is distinguished pathologically from other forms of vasculitis by a highly cellular, inflammatory intraluminal thrombus but no fibrinoid necrosis and the presence of an intact internal elastic membrane. Although smoking is important to the pathogenesis, the specific etiologic mechanism remains unknown. Inflammatory, immunologic, and endothelial factors play a role.  Most common in young tobacco and marijuana smokers. Presentation: Ischemia of the distal extremities (fingers/toes/hands/feet), ischemic digit ulcers or digit gangrene. In people typically younger than age 45 years, the condition is distinguished from other forms of vasculitis by a highly cellular, inflammatory intraluminal thrombus with relative sparing of the vessel wall and, more specifically, sparing of the internal elastic lamina. Although distal vessel involvement causes distal ischemia in other vasculitides, serologic markers are negative in thromboangiitis obliterans. Assessment: Painful ulceration or ischemia of part or all of fingers/toes due to lack of blood supply not reversible with heat. Allen test (to evaluate for blood flow in the radial and ulnar artery) should be performed - if positive in the wrist of a young smoker is highy predictive of TAO. CBC, CMP, UA, serologies for sed rate, CRP, ANA, RF, complement, cryoglobulins, hyprecoagulability test, toxicology (cocaine, amphetamine, cannabis). Plan: Tobacco and/or marijuanna cessation. Calcium channel blockers, IV prostaglandins or phosphodiesterase inhibitorss to vasodilate. Interventional revascularization. Prognosis: Amputation of affected digits if medical therapy, revascularization and smoking cessation does not reverse the damages.</t>
+    <t>Overview: Previously known as Buerger's disease, TAO is characterized by a nonatherosclerotic (not due to cholesterol plaque), segmental inflammatory thrombotic vessel occlusions, that affects the small to medium-sized arteries and veins of the extremities (upper and lower). It is distinguished pathologically from other forms of vasculitis by a highly cellular, inflammatory intraluminal thrombus but no fibrinoid necrosis and the presence of an intact internal elastic membrane. Although smoking is important to the pathogenesis, the specific etiologic mechanism remains unknown. Inflammatory, immunologic, and endothelial factors play a role. Most common in young tobacco and marijuana smokers. Presentation: Ischemia of the distal extremities (fingers/toes/hands/feet), ischemic digit ulcers or digit gangrene. In people typically younger than age 45 years, the condition is distinguished from other forms of vasculitis by a highly cellular, inflammatory intraluminal thrombus with relative sparing of the vessel wall and, more specifically, sparing of the internal elastic lamina. Although distal vessel involvement causes distal ischemia in other vasculitides, serologic markers are negative in thromboangiitis obliterans. Assessment: Painful ulceration or ischemia of part or all of fingers/toes due to lack of blood supply not reversible with heat. Allen test (to evaluate for blood flow in the radial and ulnar artery) should be performed - if positive in the wrist of a young smoker is highy predictive of TAO. CBC, CMP, UA, serologies for sed rate, CRP, ANA, RF, complement, cryoglobulins, hyprecoagulability test, toxicology (cocaine, amphetamine, cannabis). Plan: Tobacco and/or marijuanna cessation. Calcium channel blockers, IV prostaglandins or phosphodiesterase inhibitorss to vasodilate. Interventional revascularization. Prognosis: Amputation of affected digits if medical therapy, revascularization and smoking cessation does not reverse the damages.</t>
   </si>
   <si>
     <t>Atrial fibrillation</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Cardiac Arrythmia, 44784217000] Afib is a quivering or irregular heartbeat (arrhythmia) that can lead to blood clots, stroke, heart failure and other heart-related complications, poor blood flow. Presentation: Can have no symptoms, or can have palpitations, SOB, fatigue, very irregular and rapid heart rate - episodes come and go or develop Afib that does not go away Assessment:ECG (dx Afib), holter monitor, echo, r/o thyroid issues, stress test and CXR Plan: anti-arrhythmic meds, digoxin, beta blockers, calcium channel blockers, anticouagulants, cardioversion, ablation Prognosis: Chronic, serious condition but usually not life-threatening, can have a normal and active life if treated</t>
+  </si>
+  <si>
     <t>Granulomatosis with polyangiitis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of 4137275000 Vasculitis] A spectrum of vasculitis associated with ANCA (antineutrophil cytoplasmic autoantibody). Previously known as Churg-Strauss disease. Presentation: fatigue, fever, weight loss, arthralgias, rhinosinusitis, cough and dyspnea, urinary abnormalities (an active urine sediment) with or without renal insufficiency, purpura, and neurologic dysfunction. Assessment: Nasal or oral inflammation (painful or painless oral ulcers, or purulent or bloody nasal discharge), Abnormal chest radiograph showing nodules, fixed infiltrates, or cavities, Abnormal urinary sediment (microscopic hematuria with or without red cell casts), Granulomatous inflammation on biopsy of an artery or perivascular area. Plan: If organ threatening (kidney involvement such as glmerulonephritis, pulmonary hemorrhage, progressive neuropathy, pericarditis or myocarditis) - glucocorticoids PLUS cyclophosphamide or rituximab. Treatment failure may require plasma exchange. Typically requires maintenance therapy after control of acute episode. Non life threatening disease can be treated with glucocorticoids plus methotrexate. Prognosis: can progress rapidly over days, or slowly over months. Can relapse.</t>
+  </si>
+  <si>
     <t>Sleep apnea</t>
   </si>
   <si>
+    <t>Overview: A potentially serious sleep disorder in which breathing repeatedly stops and starts. Involuntary cessation of breathing that occurs while asleep. Presentation: snoring loudly and feeling tired even after a full night's sleep, dry mouth, insomnia, irritability. Assessment: sleep history, overnight monitoring at a sleep center (Nocturnal polysomnography)Plan: lifestyle changes, Continuous positive airway pressure (CPAP), oral appliances (keeping the throat open), surgery. Prognosis: Can be diagnosed and treated.</t>
+  </si>
+  <si>
     <t>Thrombotic microangiopathy</t>
   </si>
   <si>
-    <t>Overview: TMA is potentially life threatening condition due to abnormalities in the vessel wall of arterioles and capillaries leading to microvascular thrombosis. It almost always leads to microagniopathic hemolytic anemia (MAHA) and thrombocytopenia - but MAHA and thrombocytopenia may be caused by several other conditions. Before making diagnosis of TMA, other systemic disorders that can cause MAHA and thrombocytopenia need to be excluded including - HELLP syndrome, systemic malignanices, sepsis and systemic infections, systemic rheumatic disorders like SLE, systemic sclerosis, stem cell or organ transplant, DIC etc. TMA is classified into two main types, Primary TMA (heriditary thrombotic thrombocytopenic purpura TTP, acquired TTP, shiga toxin mediated hemolytic uremic syndrome (ST-HUS), drug-induced TMA (DITMA) sydrome, complement-mediated TMA. DITMA is an acquired condition resulting from exposure to a drug (eg, medication, other substance) that induces formation of drug-dependent antibodies or causes direct tissue toxicity that results in the formation of platelet-rich thrombi in small arterioles or capillaries. Presentation: Common initial presentations include unexplained anemia or thrombocytopenia, unexplained neurologic findings (suspected stroke or transient ischemic attack), or other acute illness. Diarrhoes if ST-HUS. Assessment: peripheral smear to confirm anemia, hemolysis and/or thrombocytopenia. Tissue biopsy (usually of kidney) is required for pathologic diagnosis, but clinical diagnosis is commonly performed by the observation of microagniopathic hemolytic anemia (MAHA) and thrombocytopenia.  LDH, evaluate for shiga toxin (especially in the presence of hemolytic uremic syndrome), serum creatinine, urine output daily. Exclude other systemic disorder (HELLP). Plan: Treatment of underlyng condition, plasma exchange, or anti-complement therapy. revascularization for cardiac microangiopathy. platelet transfusion for severe thrombocytopenia, red blood cell transfusion for severe anemia. Prognosis: Poor in the absence of therapy, including myocardial ischemia, renal failure.</t>
+    <t>Overview: TMA is potentially life threatening condition due to abnormalities in the vessel wall of arterioles and capillaries leading to microvascular thrombosis. It almost always leads to microagniopathic hemolytic anemia (MAHA) and thrombocytopenia - but MAHA and thrombocytopenia may be caused by several other conditions. Before making diagnosis of TMA, other systemic disorders that can cause MAHA and thrombocytopenia need to be excluded including - HELLP syndrome, systemic malignanices, sepsis and systemic infections, systemic rheumatic disorders like SLE, systemic sclerosis, stem cell or organ transplant, DIC etc. TMA is classified into two main types, Primary TMA (heriditary thrombotic thrombocytopenic purpura TTP, acquired TTP, shiga toxin mediated hemolytic uremic syndrome (ST-HUS), drug-induced TMA (DITMA) sydrome, complement-mediated TMA. DITMA is an acquired condition resulting from exposure to a drug (eg, medication, other substance) that induces formation of drug-dependent antibodies or causes direct tissue toxicity that results in the formation of platelet-rich thrombi in small arterioles or capillaries. Presentation: Common initial presentations include unexplained anemia or thrombocytopenia, unexplained neurologic findings (suspected stroke or transient ischemic attack), or other acute illness. Diarrhoes if ST-HUS. Assessment: peripheral smear to confirm anemia, hemolysis and/or thrombocytopenia. Tissue biopsy (usually of kidney) is required for pathologic diagnosis, but clinical diagnosis is commonly performed by the observation of microagniopathic hemolytic anemia (MAHA) and thrombocytopenia. LDH, evaluate for shiga toxin (especially in the presence of hemolytic uremic syndrome), serum creatinine, urine output daily. Exclude other systemic disorder (HELLP). Plan: Treatment of underlyng condition, plasma exchange, or anti-complement therapy. revascularization for cardiac microangiopathy. platelet transfusion for severe thrombocytopenia, red blood cell transfusion for severe anemia. Prognosis: Poor in the absence of therapy, including myocardial ischemia, renal failure.</t>
   </si>
   <si>
     <t>Kawasaki's disease</t>
   </si>
   <si>
-    <t>Overview: [Deprecate in favor of vasculitis 4137275000] aka mucocutaneous lymph node syndrome is a vasculities of childhood (rare in adults) affecting medium-sized arteries throughout the body. Typpically self-limited with fever and and inflammation lasting about 2 weeks withouth therapy, but may lead to complications such as coronary artery aneurysms, heart failure, myocardial infarction, arrythmia, peripheral arterial occulsion. Presentation: fever (&gt; 5 days) with signs of mucocutaneous inflammation (fissured lips, injected pharynx, strawberry tongue, mucositis), bilateral bulbar conjunctival injection, erythema of palms or soles, edema, desquamation of periungual areas, polymorphous rash, cervical lymphadenopathy, arthritis. Diagnosis is by clinical judgment and ruling out other causes. Assessment: The condition most often affects kids younger than 5 years old. Need to rule out other diseases like infectious conjunctivitis, pharyngitis etc - no specific test available. Plan: Lower fever and inflammation and prevent heart damage.  Treatment with intravenous immune globulin (IVIG) within the first 10 days of illness may reduce the prevalence of coronary artery (CA) aneurysms. Prognosis: Treatable and most recover. Signs and symptoms slowly go away unless complications develop (can take up to 8 weeks to resolve).</t>
+    <t>Overview: [Deprecate in favor of vasculitis 4137275000] aka mucocutaneous lymph node syndrome is a vasculities of childhood (rare in adults) affecting medium-sized arteries throughout the body. Typpically self-limited with fever and and inflammation lasting about 2 weeks withouth therapy, but may lead to complications such as coronary artery aneurysms, heart failure, myocardial infarction, arrythmia, peripheral arterial occulsion. Presentation: fever (&gt; 5 days) with signs of mucocutaneous inflammation (fissured lips, injected pharynx, strawberry tongue, mucositis), bilateral bulbar conjunctival injection, erythema of palms or soles, edema, desquamation of periungual areas, polymorphous rash, cervical lymphadenopathy, arthritis. Diagnosis is by clinical judgment and ruling out other causes. Assessment: The condition most often affects kids younger than 5 years old. Need to rule out other diseases like infectious conjunctivitis, pharyngitis etc - no specific test available. Plan: Lower fever and inflammation and prevent heart damage. Treatment with intravenous immune globulin (IVIG) within the first 10 days of illness may reduce the prevalence of coronary artery (CA) aneurysms. Prognosis: Treatable and most recover. Signs and symptoms slowly go away unless complications develop (can take up to 8 weeks to resolve).</t>
   </si>
   <si>
     <t>Myocarditis</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Inflammatory disorder of mediastinum 4189294000] Inflammatory disease of the myocardium (heart muscle) due to infectious or non infectious (autoimmune disease, drug hypersensitivity, toxins). Acute myocarditis is a condition with symptoms of heart failure developing over three months or less. Chronic myocarditis is myocarditis developing over greater than three months. Inflammatory cardiomyopathy is defined as myocarditis that is accompanied by cardiac dysfunction, and may lead to dilated cardiomyopathy or other cardiomyopathies. Presentation: Chest pain, fatigue, heart failure, cardiogenic shock, arrhythmias, sudden death. Assessment: ECG, CBC (to evaluate for eosinophilic myocarditis), serum troponin, BNP or pro BNP, chest X ray, cardiac imaging (echocardiogram, angiogram, MRI). As last resort biopsy of the heart muscle. Plan: Treat underlying cause (antibiotics for bacterial infection, withdrawal of toxins) management of heart failure if present, critical care as appropriate, treatment of arrhythmias, anticoagulation if needed. Prognosis: Variable, from self-limited to death.</t>
+  </si>
+  <si>
     <t>Heart failure</t>
   </si>
   <si>
-    <t>Overview: For use of generic term, 'heart failure' consider the cohort definition for 'acute decompensated left heart failure' that is managed as an emergency. The other cohort definition options include chronic stable compensated left heart failure, corpulmonale (right heart failure) with pulmonary hypertension. Heart Failure is a clinical syndrome of dyspnea, fatigue and fluid retention because of the inability of the heart to pump sufficient blood to meet the  metabolic demands of peripheral tissues, or ability to do so only at abnormally high cardiac filling pressures. Classified in many ways, low output vs high output cardiac failure, left-side vs right-side cardiac failure, backward vs forwad cardiac failure, systolic vs diastolic cardiac failure, based on ejection fraction (&lt; 40%, 40 to 49%, &gt;= 50% HF with presevered ejection fraction), functional level (Class 1 to 4 - symptoms at rest). Congestive heart failure is left-sided heart failure and is associated with pulmonary edema. Presentation: From pulmonary edema such as Progressive dyspnea, paroxysmal noctural dysnpnea, orthopnea, abdominal or peripheral congestion/edema, tiredness, dizziness. In some cases of chronic compensated heart failure, the patient may be asymptomatic. Assessment: Evaluate the cause (including precipitating cause if acute on chronic) with extensive investigation on incident acute heart failure. BNP, ProBNP, ECG, ECHO to measure ejection fraction and wall motion abnormalities, CXR, catheterization, stress test, sleep study etc. Assess grade based on NYHA. Plan: depends on the type of cardiac failure. Congestive heart failure - diuresis, morphine, nitrates, oxygen NIV, position. For low perfusion - inotropes, mechanical support. In addition care cordination and cardiac rehabilitation, goal of treatment is to improve quality of life and reduce hospitalization, slow progression. Diuretics, beta blockers, ACE-/ARBs are part of initial therapy. Manage complications such as arrythmia with need for defibrillator and anticoagulants, heart transplant. Prognosis: depends on grade, progression and presence of complications. Life long chronic disease. If well managed, can lead to compensated aymptomatic state.</t>
+    <t>Overview: For use of generic term, 'heart failure' consider the cohort definition for 'acute decompensated left heart failure' that is managed as an emergency. The other cohort definition options include chronic stable compensated left heart failure, corpulmonale (right heart failure) with pulmonary hypertension. Heart Failure is a clinical syndrome of dyspnea, fatigue and fluid retention because of the inability of the heart to pump sufficient blood to meet the metabolic demands of peripheral tissues, or ability to do so only at abnormally high cardiac filling pressures. Classified in many ways, low output vs high output cardiac failure, left-side vs right-side cardiac failure, backward vs forwad cardiac failure, systolic vs diastolic cardiac failure, based on ejection fraction (&lt; 40%, 40 to 49%, &gt;= 50% HF with presevered ejection fraction), functional level (Class 1 to 4 - symptoms at rest). Congestive heart failure is left-sided heart failure and is associated with pulmonary edema. Presentation: From pulmonary edema such as Progressive dyspnea, paroxysmal noctural dysnpnea, orthopnea, abdominal or peripheral congestion/edema, tiredness, dizziness. In some cases of chronic compensated heart failure, the patient may be asymptomatic. Assessment: Evaluate the cause (including precipitating cause if acute on chronic) with extensive investigation on incident acute heart failure. BNP, ProBNP, ECG, ECHO to measure ejection fraction and wall motion abnormalities, CXR, catheterization, stress test, sleep study etc. Assess grade based on NYHA. Plan: depends on the type of cardiac failure. Congestive heart failure - diuresis, morphine, nitrates, oxygen NIV, position. For low perfusion - inotropes, mechanical support. In addition care cordination and cardiac rehabilitation, goal of treatment is to improve quality of life and reduce hospitalization, slow progression. Diuretics, beta blockers, ACE-/ARBs are part of initial therapy. Manage complications such as arrythmia with need for defibrillator and anticoagulants, heart transplant. Prognosis: depends on grade, progression and presence of complications. Life long chronic disease. If well managed, can lead to compensated aymptomatic state.</t>
   </si>
   <si>
     <t>acute decompensated left heart failure' that is managed as an emergency. The other cohort definition options include chronic stable compensated left heart failure, corpulmonale (right heart failure) with pulmonary hypertension. Funcitonal status. Decompensation of chronic (acute on) heart failure. incident heart failure. surrogates for stages in heart failure</t>
@@ -447,7 +546,7 @@
     <t>Hypertensive disorder</t>
   </si>
   <si>
-    <t>Overview: A condition in which the force of the blood against the artery walls is too high. Elevated or increased blood pressure (BP); High blood pressure; Hypertension (HTN); Systemic hypertension. Primary (essential) hypertension and Seconday hypertension (caused by and underlying condition). Presentation: No signs and symptoms. can have headaches, SOB or nosebleeds (these occur when blood pressure reaches a severe stage). Assessment: Stage 1 HTN - systolic pressure ranging from 130 to 139 mm Hg or a diastolic pressure ranging from 80 to 89 mm Hg; and Stage 2 - systolic pressure of 140 mm Hg or higher or a diastolic pressure of 90 mm Hg or higher. 2 - 3 BP readings each at three or more separate appointments before diagnosing. Plan: Lifestyle, medications - Thiazide diuretics, Angiotensin-converting enzyme (ACE) inhibitors, Angiotensin II receptor blockers (ARBs), calcium channel blockers, alpha-beta blockers (many other meds). Prognosis:  If untreated, it can cause health conditions, such as heart disease and stroke.</t>
+    <t>Overview: A condition in which the force of the blood against the artery walls is too high. Elevated or increased blood pressure (BP); High blood pressure; Hypertension (HTN); Systemic hypertension. Primary (essential) hypertension and Seconday hypertension (caused by and underlying condition). Presentation: No signs and symptoms. can have headaches, SOB or nosebleeds (these occur when blood pressure reaches a severe stage). Assessment: Stage 1 HTN - systolic pressure ranging from 130 to 139 mm Hg or a diastolic pressure ranging from 80 to 89 mm Hg; and Stage 2 - systolic pressure of 140 mm Hg or higher or a diastolic pressure of 90 mm Hg or higher. 2 - 3 BP readings each at three or more separate appointments before diagnosing. Plan: Lifestyle, medications - Thiazide diuretics, Angiotensin-converting enzyme (ACE) inhibitors, Angiotensin II receptor blockers (ARBs), calcium channel blockers, alpha-beta blockers (many other meds). Prognosis: If untreated, it can cause health conditions, such as heart disease and stroke.</t>
   </si>
   <si>
     <t>update description</t>
@@ -456,9 +555,15 @@
     <t>Asthma</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of hypersensitity disorder, 43021226000] Chronic (long-term) condition that causes the airways in the lungs to become inflamed and narrow (mild-moderate-severe)Presentation: Symptoms vary from person to person and changes over time, SOB, chest tighness, wheezing when exhaling, coughing, asthma attacks brought on by a triggger (exercise, occupational irritants, allergies) Assessment: History and physical, spirometry, and peak flows Plan: Bronchodilator, inhaled corticosteroids, allergy medicines (prevention of asthma attacks) Prognosis: Cannot be cured, but its symptoms can be controlled. Sever asthma attacks can be life-threatening.</t>
+  </si>
+  <si>
     <t>Coronary arteriosclerosis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Chronic Coronary Syndrome 4185932000] is a pathological diagnosis of atherosclerotic changes in the coronary blood vessels. Presentation: The prevalence of coronary arteriosclerosis in population is almost 100%, with only a small number of individuals having symptomatic areteriosclerosis (ischemia). Assessment: evaluation is usually done after the first symptom suspected to be due to coronary vascular disease. Plan: risk factor management such as lipid management. Prognosis: may be managed with life style modfication or pharmacological interventions.</t>
+  </si>
+  <si>
     <t>Arteriosclerotic vascular disease</t>
   </si>
   <si>
@@ -501,6 +606,9 @@
     <t>Cardiac arrest</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Shock, 201965000] Sudden, unexpected loss of heart function, breathing, and consciousnessPresentation: loss of consciousness and unresponsiveness, collapse, no pulse, no breathing Assessment: Physical exam - unresponsive, no pulse. If survive - determine the cause Plan: Medical emergency, CPR and defibrillation; if survival - beta blockers, (ACE) inhibitors, Implantable cardioverter-defibrillator (ICD), Coronary angioplasty/surgery, Radiofrequency catheter ablation, or heart surgery Prognosis: If not treated immediately, sudden cardiac arrest can lead to death</t>
+  </si>
+  <si>
     <t>Peripheral vascular disease</t>
   </si>
   <si>
@@ -513,15 +621,21 @@
     <t>Angina pectoris</t>
   </si>
   <si>
+    <t>Overview:[Deprecated in favor of chronic coronary syndrome, 4185932000] (angina, stable or unstable, prinzmetal, microvascular) chest pain or discomfort due to coronary heart disease/attributable to myocardial ischemia. Presentation: Classic angina pectoris is described as a pressure, heaviness, tightness, or constriction in the center or left of the chest that is precipitated by exertion and relieved by rest. Can also present: neck or jaw pain, SOB, nausea, diaphoresis, or fatigue. Assessment: H&amp;P - characteristics of the discomfort, precipitating factors, social &amp; family history; tachycardia, elevated BP, new/changes in heart sounds. various types of chest pain - pleuritic pain, pain radiating into the lower extremities. EKG, (ST-segment depression), CXR, cardiac biomarkers (troponin), Echo, nuclear stress test, Coronary Angiography and Cardiac Catheterization. Plan: lifestyle changes, nitrates, aspirin, clot-preventing drugs, beta blockers, statins, calcium channel blockers, ACE inhibitors or ARBs; angioplasty, stents, CABG Prognosis: Unstable angina is a medical emergency, adverse outcomes are unstable angina, MI, and sudden death</t>
+  </si>
+  <si>
     <t>Cardiomyopathy</t>
   </si>
   <si>
-    <t>Overview: Cardiomyopathies were originally defined as disorders that were idiopathic, but in North American clinical practice the terms "ischemic," "valvular," and "hypertensive cardiomyopathy" were commonly used causing dismbiguation. Multiple attempts were made including2006 AHA scientific statement definition "Cardiomyopathies are a heterogeneous group of diseases of the myocardium associated with mechanical and/or electrical dysfunction that usually (but not invariably) exhibit inappropriate ventricular hypertrophy or dilation and are due to a variety of causes that frequently are genetic. Cardiomyopathies either are confined to the heart or are a part of generalized systemic disorders, often leading to cardiovascular death or progressive heart failure-related disability." Two groups: primary cardiomyopathies (predominantly involving the heart) and secondary cardiomyopathies (accompanied by other organ system involvement). The primary cardiomyopathies are subdivided into genetic, mixed (predominantly nongenetic), or acquired (nongenetic). The genetic cardiomyopathies include Hypertrophic cardiomyopathy (HCM), Arrhythmogenic right ventricular cardiomyopathy/dysplasia (ARVC/D), left ventricular noncompaction, PRKAG2 and Danon glycogen storage diseases, conduction defects, mitochondrial myopathies, and ion channel disorders. The mixed cardiomyopathies include Dilated cardiomyopathy (DCM) and Restrictive cardiomyopathy (RCM). The acquired cardiomyopathies include myocarditis, stress-induced (takotsubo), peripartum, tachycardia-induced, and infants of insulin-dependent diabetic mothers. This was followed in 2008 by ESC, as "A myocardial disorder in which the heart muscle is structurally and functionally abnormal in the absence of coronary artery disease, hypertension, valvular disease and congenital heart disease sufficient to explain the observed myocardial abnormality". The clinical ideas describing the breadth of cardiomyopathy is still evolving but functionally echocardiogram evaluation is a functional way to classify cardiomyopathy into either  dilated, hypertrophic, arrhythmogenic right ventricular, or restrictive cardiomyopathy. Systolic dysfunction is characterized by a decrease in myocardial contractility, i.e. myocardial contractility is decreased globally and commonly compensated thru LV enlargementi.e. dilated cardiomyopathy. Diastolic dysfunction refers to cardiac dysfunction in which LV relaxation and filling is abnormal and is accompanied by elevated filling pressures (eg, hypertrophic cardiomyopathy, restrictive cardiomyopathy, LV noncompaction), valvular heart disease, pericardial disease. Some cardiac disorders may present as more than one type of cardiomyopathy e.g. amyloid cardiomyopathy with both hypertrophic and restrictive. Cardiac sarcoidosis with wall motion abnormality and ventricular arrythmias. DCM, with Left ventricular cavity dilatation, is associated with viruses and gene mutations. some definitions exclude ischemic cardiomyopathy which appears similar to DCM. In general HCM, would not include pathologic hypertrophy secondary to pathologic loading conditions such as hypertension and valve disease. Atheletes heart, i.e. physiologic cardiomyopathy is not considered cardiomyopathy. RCM is characterized by nondilated ventricles with impaired ventricular filling, commonly without muscle hypertrophy but wall may appear thick because of infiltrative disease (amyloidosis) or storage disease (Fabry). Stress Cardiomyopathy, aka apical ballooning syndrome, takotsubo cardiomyopathy, broken heart syndrome, and stress-induced cardiomyopathy, is a type of acquired cardiomyopathy characterized by transient regional systolic dysfunction of the left ventricle (LV), mimicking myocardial infarction, but in the absence of angiographic evidence of obstructive coronary artery disease or acute plaque rupture. In most cases of stress cardiomyopathy, the regional wall motion abnormality extends beyond the territory perfused by a single epicardial coronary artery. Presentation: Cardiomyopathy may present with broad set of signs and symptoms including fatigure, dyspnea, chest pain, palpitations, presyncope and syncope and depends on whether the person is functional vs decompensated. Assessment: ECG often with QTc prolongation greather than 500 ms; ecocardiogram, urgent coronary angiography (for this diagnosis, there needs to be an absence of atherosclerotic coronary artery disease). Troponin and BNP or proBNP serial levels. Plan: Highly personalized care. Manage heart failure, arrythmias, rehabilitation, education. Anticoagulation sometimes indicated. Prognosis: depends on degree of damage. Many with HCM may have normal life expectancy. Prognosis: worse with older age and abnormal left heart pump function (LVEF&lt;40%). Risk of sudden cardiac death. May benefit from cardiac transplantation.</t>
+    <t>Overview: Cardiomyopathies were originally defined as disorders that were idiopathic, but in North American clinical practice the terms "ischemic," "valvular," and "hypertensive cardiomyopathy" were commonly used causing dismbiguation. Multiple attempts were made including2006 AHA scientific statement definition "Cardiomyopathies are a heterogeneous group of diseases of the myocardium associated with mechanical and/or electrical dysfunction that usually (but not invariably) exhibit inappropriate ventricular hypertrophy or dilation and are due to a variety of causes that frequently are genetic. Cardiomyopathies either are confined to the heart or are a part of generalized systemic disorders, often leading to cardiovascular death or progressive heart failure-related disability." Two groups: primary cardiomyopathies (predominantly involving the heart) and secondary cardiomyopathies (accompanied by other organ system involvement). The primary cardiomyopathies are subdivided into genetic, mixed (predominantly nongenetic), or acquired (nongenetic). The genetic cardiomyopathies include Hypertrophic cardiomyopathy (HCM), Arrhythmogenic right ventricular cardiomyopathy/dysplasia (ARVC/D), left ventricular noncompaction, PRKAG2 and Danon glycogen storage diseases, conduction defects, mitochondrial myopathies, and ion channel disorders. The mixed cardiomyopathies include Dilated cardiomyopathy (DCM) and Restrictive cardiomyopathy (RCM). The acquired cardiomyopathies include myocarditis, stress-induced (takotsubo), peripartum, tachycardia-induced, and infants of insulin-dependent diabetic mothers. This was followed in 2008 by ESC, as "A myocardial disorder in which the heart muscle is structurally and functionally abnormal in the absence of coronary artery disease, hypertension, valvular disease and congenital heart disease sufficient to explain the observed myocardial abnormality". The clinical ideas describing the breadth of cardiomyopathy is still evolving but functionally echocardiogram evaluation is a functional way to classify cardiomyopathy into either dilated, hypertrophic, arrhythmogenic right ventricular, or restrictive cardiomyopathy. Systolic dysfunction is characterized by a decrease in myocardial contractility, i.e. myocardial contractility is decreased globally and commonly compensated thru LV enlargementi.e. dilated cardiomyopathy. Diastolic dysfunction refers to cardiac dysfunction in which LV relaxation and filling is abnormal and is accompanied by elevated filling pressures (eg, hypertrophic cardiomyopathy, restrictive cardiomyopathy, LV noncompaction), valvular heart disease, pericardial disease. Some cardiac disorders may present as more than one type of cardiomyopathy e.g. amyloid cardiomyopathy with both hypertrophic and restrictive. Cardiac sarcoidosis with wall motion abnormality and ventricular arrythmias. DCM, with Left ventricular cavity dilatation, is associated with viruses and gene mutations. some definitions exclude ischemic cardiomyopathy which appears similar to DCM. In general HCM, would not include pathologic hypertrophy secondary to pathologic loading conditions such as hypertension and valve disease. Atheletes heart, i.e. physiologic cardiomyopathy is not considered cardiomyopathy. RCM is characterized by nondilated ventricles with impaired ventricular filling, commonly without muscle hypertrophy but wall may appear thick because of infiltrative disease (amyloidosis) or storage disease (Fabry). Stress Cardiomyopathy, aka apical ballooning syndrome, takotsubo cardiomyopathy, broken heart syndrome, and stress-induced cardiomyopathy, is a type of acquired cardiomyopathy characterized by transient regional systolic dysfunction of the left ventricle (LV), mimicking myocardial infarction, but in the absence of angiographic evidence of obstructive coronary artery disease or acute plaque rupture. In most cases of stress cardiomyopathy, the regional wall motion abnormality extends beyond the territory perfused by a single epicardial coronary artery. Presentation: Cardiomyopathy may present with broad set of signs and symptoms including fatigure, dyspnea, chest pain, palpitations, presyncope and syncope and depends on whether the person is functional vs decompensated. Assessment: ECG often with QTc prolongation greather than 500 ms; ecocardiogram, urgent coronary angiography (for this diagnosis, there needs to be an absence of atherosclerotic coronary artery disease). Troponin and BNP or proBNP serial levels. Plan: Highly personalized care. Manage heart failure, arrythmias, rehabilitation, education. Anticoagulation sometimes indicated. Prognosis: depends on degree of damage. Many with HCM may have normal life expectancy. Prognosis: worse with older age and abnormal left heart pump function (LVEF&lt;40%). Risk of sudden cardiac death. May benefit from cardiac transplantation.</t>
   </si>
   <si>
     <t>Heart disease</t>
   </si>
   <si>
+    <t>Overview: [Deprecate and delete] Heart conditions that include diseased vessels, structural problems, and blood clot. Coronary heart disease (most common), arrhythmia, and myocardial infarction are some examples of heart disease. Also - congenital heart disease, dilated cardiomyopathy, heart faliure, Hypertrophic cardiomyopathy, mitral regurgitation, mitral valve prolapse, and pulmonary stenosis. Presentation: Common symptoms include chest pain, breathlessness, and heart palpitations. Nauseas, fatigue - may not have any symptoms until you have a heart attack, angina, stroke, or heart failure. Assessment: Physical exam, EKG, holter monitoring, echocardiogram, stress test, cardia catheterization, CT, CXR, MRIPlan: Medication (ACE inhibitors and ARBs (angiotensin II receptor blockers), surgery (angioplasty, coronary artery bypass surgery, surgery for heart valve repair, pacemakers), lifestyle changesPrognosis: One in every four deaths in the U.S. occurs as a result of heart disease. Most forms of heart disease are very treatable today.</t>
+  </si>
+  <si>
     <t>Otitis media</t>
   </si>
   <si>
@@ -531,6 +645,9 @@
     <t>Transient ischemic attack</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Cerebrovascular disease, 381591000] A brief stroke-like attack that, despite resolving within minutes to hours, still requires immediate medical attention to distinguish from an actual stroke. "Ministroke" - which can be a warning of a future stroke. The blockage (to the brain) is temporary and blood flow returns on its own. Presentation: weakness on one side of the body, vision problems, and slurred speechAssessment: physical exam, carotid ultrasonography, CT, MRI, arteriographyPlan: Determine cause, anti-platelet drugs, anticoagulants, surgery - endarterectomy, carotid angioplasty/stenting Prognosis: Does not cause permanent damage.</t>
+  </si>
+  <si>
     <t>Acute disseminated encephalomyelitis</t>
   </si>
   <si>
@@ -543,6 +660,9 @@
     <t>Age related macular degeneration</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Retinal Disorder, 378416000] (AMD) is an eye disease that can blur the sharp, central vision needed for activities like reading and driving. “Age-related” means that it often happens in older people. “Macular” means it affects the macula (a part of your eye). Macular degeneration (wears down) causes loss in the center of the field of vision. Another form of macular degeneration, called Stargardt disease or juvenile macular degeneration, affects children and young adults. Presentation: Blurred vision is most common. Visual: partial loss of vision, abnormality where straight lines appear wavy, blurred vision, distorted vision, inability to see in dim light, or seeing spots, and new and abnormal blood vesselsAssessment: Routine eye exam, Amsler grid eye test, angiography (specifically OCT - looking at blood vessels in the retina)Plan: Combination of vitamins and minerals (AREDS formula) may reduce disease progression. Surgery may also be an option. Prognosis: Chronic: can last for years or be lifelong. There is no cure, treatment slows the disease and can prevent severe loss of vision.</t>
+  </si>
+  <si>
     <t>Sensori neural hearing loss Deafness neurosensory</t>
   </si>
   <si>
@@ -552,6 +672,9 @@
     <t>Paresis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A weakness of voluntary movement. Can be unilateral or bilateral, localized or generalized. Presentation: Acute or insidious onset of weakness of voluntary movement. Double vision. Assessment: Brain, spinal cord imaging by MRI or CT scan, history of tick bites, physical exam with hypo or hyperreflexic deep tendon reflexes, restricted range of motion of eye muscles, evaluate for poisoning if history indicates, potassium, glucose, calcium, magnesium, phosphate levels, cbc, blood cultures, ECG, TSH. Plan: Treat underlying cause, if found. In some cases physical therapy helpful. Prognosis: Depends upon cause of paresis.</t>
+  </si>
+  <si>
     <t>Multiple sclerosis</t>
   </si>
   <si>
@@ -579,13 +702,13 @@
     <t>Hemorrhagic stroke</t>
   </si>
   <si>
-    <t>Overview: [Deprecate in favor of 381591000, Cerebrovascular disease] Cerebral hemorrhage with high mortality and morbidity. It is distinct from ischemic strokes. Two types: Intracerebral hemorrhage or Subarachnoid hemorrhage. Head trauma, HTN, aneurysms and arteriovenous malformations (AVMs) can cause hemorrhagic strokes. Presentation: Symptoms vary based on the location of the hemorrhage. Sudden weakness, paralysis or numbness, inability to speak, difficulty walking, irregular breathing, N/V, severe headache, loss of consciousness Assessment:Neuro exam, computed tomography (CT) scan or magnetic resonance imaging (MRI) scan. Lumbar puncture; MRI angiographyPlan: Depends on the location and size of the bleed - reversal of anticouagulation (as needed), medications (antihypertensives, and diuretics), surgery Prognosis: Life threatening. Death usually occurs within the first two days. For those who survive a brain hemorrhage, recovery is slow.</t>
+    <t>Overview: [Deprecate in favor of 381591000, Cerebrovascular disease] Cerebral hemorrhage with high mortality and morbidity. It is distinct from ischemic strokes. Two types: Intracerebral hemorrhage or Subarachnoid hemorrhage. Head trauma, HTN, aneurysms and arteriovenous malformations (AVMs) can cause hemorrhagic strokes. Presentation: Symptoms vary based on the location of the hemorrhage. Sudden weakness, paralysis or numbness, inability to speak, difficulty walking, irregular breathing, N/V, severe headache, loss of consciousness Assessment:Neuro exam, computed tomography (CT) scan or magnetic resonance imaging (MRI) scan. Lumbar puncture; MRI angiographyPlan: Depends on the location and size of the bleed - reversal of anticouagulation (as needed), medications (antihypertensives, and diuretics), surgery Prognosis: Life threatening. Death usually occurs within the first two days. For those who survive a brain hemorrhage, recovery is slow.</t>
   </si>
   <si>
     <t>Seizure</t>
   </si>
   <si>
-    <t>Overview: A seizure is a sudden change in behavior, movements or feelings, or levels of consciousness caused by electrical hypersynchronization of neuronal networks in the cerebral cortex. There are three subtypes : Acute symptomatic seizure refers to a seizure that occurs at the time of a systemic insult or in close temporal association with a documented brain insult;  Unprovoked seizure refers to a seizure of unknown etiology as well as one that occurs in relation to a preexisting brain lesion or progressive nervous system disorder; Epilepsy (or epilepsy syndrome) - Two or more distinct unprovoked seizure &gt; 24 hours apart,  or a tendency to have recurrent seizures is epilepsy. Seizures are either focal or generalized (various types), or unknown onset. Most seizures can be categorized as either focal or generalized according to whether the onset of electrical activity involves a focal region of the brain or both sides of the brain simultaneously. Presentation: mild to severe, temporary confusion, staring spell, uncontrollable jerking movements of arms/legs, loss of awareness/consciousness, cognitive or emotional symptoms, such as fear, anxiety or deja vu. Assessment: is to determine if cause of seizure because of a systemic insult (i.e. potentially reversible e.g. metabolic derangements, drug or alcohol withdrawal) or an intrinsic dysfunction of the central nervous system (i.e. underlying brain pathology and long-term). The later is also commonly unprovoked seizures. Compared with children and young adults, older adults with a first seizure are more likely to have a cause of seizure identified by an initial evaluation and neuroimaging.. Review symptoms and hx of seizures; neuro exam, blood samples for infections, genetic conditions, blood sugar level and any electrolyte imbalances, lumbar puncture, EEG, CT, MRI, PET, Single-photon emission computerized tomography (SPECT). Plan: anti-seizure medications (if more than one seizure); if meds do not work - surgery, vagus nerve stimulation, other types of neurostimulations. Prognosis: Can achieve good seizure control with medication. Impacts daily life, need personal safety.</t>
+    <t>Overview: A seizure is a sudden change in behavior, movements or feelings, or levels of consciousness caused by electrical hypersynchronization of neuronal networks in the cerebral cortex. There are three subtypes : Acute symptomatic seizure refers to a seizure that occurs at the time of a systemic insult or in close temporal association with a documented brain insult; Unprovoked seizure refers to a seizure of unknown etiology as well as one that occurs in relation to a preexisting brain lesion or progressive nervous system disorder; Epilepsy (or epilepsy syndrome) - Two or more distinct unprovoked seizure &gt; 24 hours apart, or a tendency to have recurrent seizures is epilepsy. Seizures are either focal or generalized (various types), or unknown onset. Most seizures can be categorized as either focal or generalized according to whether the onset of electrical activity involves a focal region of the brain or both sides of the brain simultaneously. Presentation: mild to severe, temporary confusion, staring spell, uncontrollable jerking movements of arms/legs, loss of awareness/consciousness, cognitive or emotional symptoms, such as fear, anxiety or deja vu. Assessment: is to determine if cause of seizure because of a systemic insult (i.e. potentially reversible e.g. metabolic derangements, drug or alcohol withdrawal) or an intrinsic dysfunction of the central nervous system (i.e. underlying brain pathology and long-term). The later is also commonly unprovoked seizures. Compared with children and young adults, older adults with a first seizure are more likely to have a cause of seizure identified by an initial evaluation and neuroimaging.. Review symptoms and hx of seizures; neuro exam, blood samples for infections, genetic conditions, blood sugar level and any electrolyte imbalances, lumbar puncture, EEG, CT, MRI, PET, Single-photon emission computerized tomography (SPECT). Plan: anti-seizure medications (if more than one seizure); if meds do not work - surgery, vagus nerve stimulation, other types of neurostimulations. Prognosis: Can achieve good seizure control with medication. Impacts daily life, need personal safety.</t>
   </si>
   <si>
     <t>Separate acute asymptomatic seizure into phenotype; separate generalized vs focal seizure</t>
@@ -600,7 +723,7 @@
     <t>Encephalitis</t>
   </si>
   <si>
-    <t>Overview: [Deprecate in favor of Inflammation of Central Nervous System 4190307000] Encephalitis is inflammation of brain tissue leading to abnormalities of brain function such as altered mental status, motor or sensory deficits, altered behavior, personality changes and speech or movement disorders. Encephalitis commonly overlaps with meningitis, and although the term meningoencephalitis exists it is common for patients to misclassified as having only meningitis when there is underlying encephalitis. Viral encephalitis may be due to primary infection for the central nervous system by the virus, or postinfectious encephalitis (acute disseminated encephalomyeltis ADEM, probably immune mediated response including demyelination, more common in children) where a virus cannot be detected in neurons. Herpes simplex 1 is the most common viral etiology for viral encephalitis. Post vaccination encephalitis can occur if live attenuated viral vaccines given to people with immune compromise. Non viral etiologies like primary intracranial or metastatic tumors, adverse effects of medications, and autoimmune or paraneoplastic diseases may mimic viral encephalitis. Presentation:  Range of symptoms from subtle mental status changess to unresponsiveness in the absence of meningeal irritation (unless meningoencephalitis is present). Altered mental status (ranging from confusion to obtunded), seizures, and focal neurologic abnormalities including hemiparesis, cranial nerve palsies, exaggerted DTRs or pathologic reflexes. ADEM symptoms start after a lag time of a few days to two months, with the typical presentation of acute onset of multifocal neurologic symptoms with encephalopathy with rapid deterioration prompting hospitalization. Most ADEM patients have motor deficits (single or multiple limb paralysis), sensory deficits, and brainstem dysfunction (oculomotor deficits). Encephalopathy is not required for diagnosis in adults, but required in children. Assessment: Workup for West Nile Virus, evaluate for rash, rabies, varicella zoster virus, parotitis (mumps encephalitis). MRI during acute illness to r/o space occupying lesions and to guide further diagnostics/therapeutics. Temporal lobe involvement on MRI supports HSV, which can be confirmed by HSV PCR from LP. Lumbar puncture with opening pressure, cell count, glucose and protein, HIV and enteroviruses. It is important to know the patients immune status as this will determine both the presentation and the type of pathogen that might be causing the disease (i.e. opportunistic infections like toxoplasmic encephlitis and cryptococcal meningitis). Plan: Acyclovir initiated until HSV encephalitis is ruled out, withdrawl of possible offending drugs, r/o delerium. ADEM is managed with immune suppression with glucocorticoids; empiric acyclovir until infectious etiology excluded, IVIG or plasma exchange for treatment failures. Supportive care. Prognosis: Complete recovery only occurs in 10-46% of adult patients. Prognosis: Short term outcomes good for 60%, mild to severe impairment can include poor concentration, behavioral and speech disorders, and memory loss. Can be disabling.</t>
+    <t>Overview: [Deprecate in favor of Inflammation of Central Nervous System 4190307000] Encephalitis is inflammation of brain tissue leading to abnormalities of brain function such as altered mental status, motor or sensory deficits, altered behavior, personality changes and speech or movement disorders. Encephalitis commonly overlaps with meningitis, and although the term meningoencephalitis exists it is common for patients to misclassified as having only meningitis when there is underlying encephalitis. Viral encephalitis may be due to primary infection for the central nervous system by the virus, or postinfectious encephalitis (acute disseminated encephalomyeltis ADEM, probably immune mediated response including demyelination, more common in children) where a virus cannot be detected in neurons. Herpes simplex 1 is the most common viral etiology for viral encephalitis. Post vaccination encephalitis can occur if live attenuated viral vaccines given to people with immune compromise. Non viral etiologies like primary intracranial or metastatic tumors, adverse effects of medications, and autoimmune or paraneoplastic diseases may mimic viral encephalitis. Presentation: Range of symptoms from subtle mental status changess to unresponsiveness in the absence of meningeal irritation (unless meningoencephalitis is present). Altered mental status (ranging from confusion to obtunded), seizures, and focal neurologic abnormalities including hemiparesis, cranial nerve palsies, exaggerted DTRs or pathologic reflexes. ADEM symptoms start after a lag time of a few days to two months, with the typical presentation of acute onset of multifocal neurologic symptoms with encephalopathy with rapid deterioration prompting hospitalization. Most ADEM patients have motor deficits (single or multiple limb paralysis), sensory deficits, and brainstem dysfunction (oculomotor deficits). Encephalopathy is not required for diagnosis in adults, but required in children. Assessment: Workup for West Nile Virus, evaluate for rash, rabies, varicella zoster virus, parotitis (mumps encephalitis). MRI during acute illness to r/o space occupying lesions and to guide further diagnostics/therapeutics. Temporal lobe involvement on MRI supports HSV, which can be confirmed by HSV PCR from LP. Lumbar puncture with opening pressure, cell count, glucose and protein, HIV and enteroviruses. It is important to know the patients immune status as this will determine both the presentation and the type of pathogen that might be causing the disease (i.e. opportunistic infections like toxoplasmic encephlitis and cryptococcal meningitis). Plan: Acyclovir initiated until HSV encephalitis is ruled out, withdrawl of possible offending drugs, r/o delerium. ADEM is managed with immune suppression with glucocorticoids; empiric acyclovir until infectious etiology excluded, IVIG or plasma exchange for treatment failures. Supportive care. Prognosis: Complete recovery only occurs in 10-46% of adult patients. Prognosis: Short term outcomes good for 60%, mild to severe impairment can include poor concentration, behavioral and speech disorders, and memory loss. Can be disabling.</t>
   </si>
   <si>
     <t>cohort definitions for viral encephalitis, post infectious encephalitis, herpes simplex encephalitis, post vaccination encephalitis, encephalomeningitis, non viral encephalitis</t>
@@ -609,13 +732,19 @@
     <t>Headache</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] one of the most common medical condition, but in about 90% of cases it is either migraine, tension-type (most common), and cluster headache. The generic term headache would be used to describe these three sub-types of headache. Presentation: Migraine is recurrent attacks, often unilateral, throbbing/pulsatile quality often accompanied by nausea, vomiting, photophobia. Tension-type headache - bilateteral, nonthrobbing headache without other associated features. Cluster headache - severe unilateral headaches accompanied by autonmic phenomena like congestion, edema, sweating, miosis. Secondary headaches are special cases of headache due to underlying cause such as systemic disorder (acute hypertension, meningitis) or neurological (increased intracranial pressure). The common use of term headache, should not include secondary headache. Assessment: rule out serious underlying pathology and secondary causes such as meningitis, trauma, etc. all may suggest need for CT scan of head. Look for red-flags. Photophobia, Incapcitiy and Nausea are screening for migraine. Plan: Acute or headaches because of secondary causes should involve management of underlying etiology (not part of this phenotype). Migraine headache management is to reduce frequency of symptoms/attacks. Simple analgesics NSAIDS. Triptans, muscle relaxants, antihistamine (cocktail)Prognosis: varible - may go into remission</t>
+  </si>
+  <si>
     <t>Retinal detachment</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Reinal Disorder, 378416000] An emergency when the retina pulls away from supportive tissue at the back of the eye. Many causes but most often related to aging or eye injury. A torn retina usually has the same symptoms as a detached retina. Detachment types: rhematogenous (most common), tractional, and exudative. Presentation: Sudden appearance of floaters and flashes of light (vision), loss of peripheral vision, darkened or a "curtain" over vision Assessment: Dilated eye exam, self-report, ultrasound or optical coherence tomography (OCT) eye scanPlan: Laser surgery, freezing treatment (cryopexy) , or other types of surgery Prognosis: Medical emergency. Prompt medical treatment can often save vision in the eye but can cause permanent vision loss.</t>
+  </si>
+  <si>
     <t>Retinal disorder</t>
   </si>
   <si>
-    <t>Overview: Common retinal conditions include floaters, macular degeneration, diabetic retinopathy, retinal tear or detachment, and retinitis pigmentosa. Retinal diseases can affect any part of the retina. Presentation: Sudden appearance of floaters, flashes of light (photopsia), blurred vision, reduced peripheral vision, or loss of vision Assessment: Eye exams, Amsler grid test, Optical coherence tomography (OCT), Fundus autofluorescence (FAF), angiography, ultrasoundPlan: Laser surgery, scatter laser photocoagulation, cryopexy, pneumatic retinopexy, scleral buckling, vitrectomy, injecting medicine into the eye, retinal prosthesis  Prognosis: Can stop or slow the disease and preserve, improve or restore vision. Untreated, can cause severe vision loss or blindness.</t>
+    <t>Overview: Common retinal conditions include floaters, macular degeneration, diabetic retinopathy, retinal tear or detachment, and retinitis pigmentosa. Retinal diseases can affect any part of the retina. Presentation: Sudden appearance of floaters, flashes of light (photopsia), blurred vision, reduced peripheral vision, or loss of vision Assessment: Eye exams, Amsler grid test, Optical coherence tomography (OCT), Fundus autofluorescence (FAF), angiography, ultrasoundPlan: Laser surgery, scatter laser photocoagulation, cryopexy, pneumatic retinopexy, scleral buckling, vitrectomy, injecting medicine into the eye, retinal prosthesis Prognosis: Can stop or slow the disease and preserve, improve or restore vision. Untreated, can cause severe vision loss or blindness.</t>
   </si>
   <si>
     <t>Alzheimer's disease</t>
@@ -627,10 +756,13 @@
     <t>Epilepsy</t>
   </si>
   <si>
+    <t>Overview: [Deprecate epilepsy in favor of seizure, 377091000] A central nervous system (neurological) disorder in which brain activity becomes abnormal, causing seizures or periods of unusual behavior, sensations, and sometimes loss of awareness. At least two unprovoked seizures are generally required for an epilepsy diagnosis. Epilepsy is characterized by unpredictable seizures and can cause other health problems. Presentation: Seizure symptoms include - temporary confusion, straring spell, uncontrollable jerking movements of the arms and legs, loss of consciousness or awareness. Seizures are classified as focal/partial or general (seizure involve all areas of hte brain, types are absence, tonic, atonic, clonic, myoclonic, and tonic-clonic seizures) Assessment: Neurological exam, Electroencephalogram (EEG), CT Scan, MRI, Positron emission tomography (PET), Single-photon emission computerized tomography (SPECT), neuropsychological tests Plan: anti-epileptic medication, brain surgery (if meds do not work,remove the area of the brain where the seizure originates)Prognosis: May require lifelong treatment to control seizures, but for others, the seizures eventually go away. Some children with epilepsy may outgrow the condition with age.</t>
+  </si>
+  <si>
     <t>Chronic inflammatory demyelinating polyradiculoneuropathy</t>
   </si>
   <si>
-    <t>Overview: [Deprecate in favor of  Demyelinating disease of central nervous system 375801000] aka - Chronic inflammatory demyelinating polyneuropathy, is an acquired, immune-mediated neuropathy, affecting peripheral nerves and nerve roots. It is characterized by a relapsing-remitting or progressive course, glucocorticoid responsiveness, and electrodiagnostic or pathologic features of demyelination. Presentation: symmetric dysfunction of the nerves which signal muscles. Weakness in proximal as well as distal (upper and lower arms, legs) musculature. If sensory nerves are involved, they are involved to a lesser extent. Involvement can start with proximal or distal extremity. Disease must either progress or relapse over greater than 8 weeks time. Assessment: History, neurologic exam, EMG, Nerve conduction studies, LP, serologic testing for antibodies. Plan: Treat with IVIG, glucocorticoids, plasma exchange as standard of care. Prognosis: Limited data as to Prognosis: but up to 30% of patients can achieve cure or remission.</t>
+    <t>Overview: [Deprecate in favor of Demyelinating disease of central nervous system 375801000] aka - Chronic inflammatory demyelinating polyneuropathy, is an acquired, immune-mediated neuropathy, affecting peripheral nerves and nerve roots. It is characterized by a relapsing-remitting or progressive course, glucocorticoid responsiveness, and electrodiagnostic or pathologic features of demyelination. Presentation: symmetric dysfunction of the nerves which signal muscles. Weakness in proximal as well as distal (upper and lower arms, legs) musculature. If sensory nerves are involved, they are involved to a lesser extent. Involvement can start with proximal or distal extremity. Disease must either progress or relapse over greater than 8 weeks time. Assessment: History, neurologic exam, EMG, Nerve conduction studies, LP, serologic testing for antibodies. Plan: Treat with IVIG, glucocorticoids, plasma exchange as standard of care. Prognosis: Limited data as to Prognosis: but up to 30% of patients can achieve cure or remission.</t>
   </si>
   <si>
     <t>Microcephalus</t>
@@ -660,6 +792,9 @@
     <t>cerebrovascular disease (with/without prior cerebrovascular accident), TIA, ischemic stroke, hemorrhagic stroke,</t>
   </si>
   <si>
+    <t>Malignant lymphoma</t>
+  </si>
+  <si>
     <t>Coagulopathy</t>
   </si>
   <si>
@@ -672,6 +807,9 @@
     <t>Amyloidosis</t>
   </si>
   <si>
+    <t>Overview: Buildup of amyloid proteins in the heart, kidneys, liver, spleen, nervous system, and digestive tract. Amyloid is not normally found in the body. Presentation: Depends on which organs are affected. Swelling, fatigue and weakness, shortness of breath, and numbness, tingling, or pain in the hands or feet. Assessment: Varies as depends on the organs affected. Blood and urine tests looking for abnormal proteins, biopsy (looking for amyloid deposit), echocardiogram, MRI, nuclear imaging. Plan: Depending on the type of amyloidosis, medications, chemotherapy, or a stem-cell transplant, dialysis, organ transplant. Prognosis: No cure for amyloidosis. Some varieties may lead to life-threatening organ failure. Early diagnosis can help prevent further organ damage.</t>
+  </si>
+  <si>
     <t>Angioedema</t>
   </si>
   <si>
@@ -687,10 +825,13 @@
     <t>Thrombocytopenic disorder</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Disorder of cellular component 443723000] low platelet count = Thrombocytopenia. Fewer than 150,000 platelets per microliter. Platelets stop bleeding by clumping and forming plugs in blood vessel injuries. Presentation: Thrombocytopenia is associated with varying risks of bleeding, thrombosis, and other potential complications - but are most often asymptomatic. Risks are dependent on absolute platelet count and underlying disease that lead to thrombocytopenia. Excessive bruising (purpura), prolonged bleeding from cuts, gum or nose bleeding, blood in urine or stools. Assessment: There is no 'safe' platelet count and range of normal is broad. CBC, including platelets, physical exam for spleen enlargement. Plan: Depends on cause and severity. Blood or platelet transfusions, corticosteroids, surgery (remove spleen, splenectomy). Prognosis: Treated early and effectively - leads to better outcomes.</t>
+  </si>
+  <si>
     <t>Pancytopenia</t>
   </si>
   <si>
-    <t>Overview: Low counts for all three types of blood cells: red blood cells, white blood cells, and platelets - disruption of the bone marrow ability to produce new blood cells (many different pancytopenia causes) Presentation: fatigue, weakness, bleeding and bruising, prone to infection, pale, tachycardiaAssessment: CBC, reticulocyte count, PT/PTT, LFTs, Vit B-12, bone marrow aspiration &amp; biopsy Plan: Depends on underlying cause. RBC or platelet transfusions. stimulating factors. bone marrow transplant. May not treat if expecting pancytopenia (cancer w/ chemo treatments) Prognosis: Depends on the underlying condition.  Able to treat the specific blood cell deficiency.</t>
+    <t>Overview: Low counts for all three types of blood cells: red blood cells, white blood cells, and platelets - disruption of the bone marrow ability to produce new blood cells (many different pancytopenia causes) Presentation: fatigue, weakness, bleeding and bruising, prone to infection, pale, tachycardiaAssessment: CBC, reticulocyte count, PT/PTT, LFTs, Vit B-12, bone marrow aspiration &amp; biopsy Plan: Depends on underlying cause. RBC or platelet transfusions. stimulating factors. bone marrow transplant. May not treat if expecting pancytopenia (cancer w/ chemo treatments) Prognosis: Depends on the underlying condition. Able to treat the specific blood cell deficiency.</t>
   </si>
   <si>
     <t>Myasthenic syndrome</t>
@@ -702,6 +843,9 @@
     <t>Edema</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Edema is palpable swelling produced by expansion of the interstitial fluid volume. Massive edema is sometime called anasarca. Although the term edema is broad and includes peripheral edema, pulmonary edema, ascites, and other forms of edema, which include lymphedema, nonpitting edema, and periorbital and scrotal edema - this phenotype is limited to peripheral edema. Presentation: Peripheral edema commonly occurs in gravity dependent areas like legs and buttocks. Edema may be pitting or nonpitting; with pitting edema being more common. Pitting edema is defined by the presence of tissue depression after pressure is applied to the edematous area for at least five seconds. Assessment: Peripheral edema is rarely life threatening by itself compared to pulmonary edema. The cause of peripheral edema maybe identified with detail history and whether the edema is localized or generalized. Plan: Treat the cause where possible. Diuretic may be used for some types of generalized retention edema (e.g. congestive heart failure, cirrhosis)Prognosis: depends on underlying cause. Chronic peripheral edema may lead to fibrosis in tissue.</t>
+  </si>
+  <si>
     <t>Obesity</t>
   </si>
   <si>
@@ -729,6 +873,9 @@
     <t>B-cell lymphoma</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] A type of cancer that forms in B cells (a type of immune system cell). Most B-cell lymphomas are non-Hodgkin lymphomas. There are many different types of B-cell non-Hodgkin lymphomas. These include Burkitt lymphoma, chronic lymphocytic leukemia/small lymphocytic lymphoma (CLL/SLL), diffuse large B-cell lymphoma, follicular lymphoma, and mantle cell lymphoma. Presentation: One of the most common symptoms associated with lymphoma is the presence of swollen lymph nodes, also known as lymphadenopathy. The enlarged nodes do not cause pain but may be uncomfortable and felt beneath the skin, particularly in the neck and armpits. Other symptoms include night sweats or fevers, unexplained weight loss, or a lack of appetite. In more severe cases, patients experience difficulty breathing, pain and distention, and fatigue. Assessment: A biopsy is the only way to diagnose non-Hodgkin lymphoma. This involves taking a sample of cells using a small needle. Plan: The most common treatments to address B-cell lymphoma are radiation therapy, particularly in early stages and to respond to eventual complications; curative and palliative chemotherapy; and biologic therapy. However, the treatment is usually personalized to both the stage of the disease and the type of lymphoma. Prognosis: The overall five-year relative survival rate for non-Hodgkin’s lymphoma is 70 percent. This varies a lot according to the type of B-cell lymphoma and stage at diagnosis. Some types of B-cell lymphomas can be cured. Treatment can slow progression in others.</t>
+  </si>
+  <si>
     <t>Hyperkalemia</t>
   </si>
   <si>
@@ -738,7 +885,7 @@
     <t>Systemic inflammatory response syndrome</t>
   </si>
   <si>
-    <t>Overview:  [Deprecated in favor of 201965000 Shock] A clinical syndrome that is the result of dysregulated inflammation Presentation: Two or more of the following abnormalities in: temperature, heart rate, respiratory rate, white blood cell count. Assessment: blood, urine, sputum cultures, CBC, serology workup for vasculitis and other autoimmune disorders, abdominal imaging and amylase/lipase levels for pancreatitis, (burns surgery and cancers can also cause this syndrome) Plan: Supportive care (respiratory support, fluids, pressors. Treat underlying infection. Treat underlying disease process. steroids, immune modulators such as anti-IL-6 antibody. Prognosis: Similar to sepsis - high mortality rate. Survivors have a long term increased risk of death compared to patients who do not have this syndrome.</t>
+    <t>Overview: [Deprecated in favor of 201965000 Shock] A clinical syndrome that is the result of dysregulated inflammation Presentation: Two or more of the following abnormalities in: temperature, heart rate, respiratory rate, white blood cell count. Assessment: blood, urine, sputum cultures, CBC, serology workup for vasculitis and other autoimmune disorders, abdominal imaging and amylase/lipase levels for pancreatitis, (burns surgery and cancers can also cause this syndrome) Plan: Supportive care (respiratory support, fluids, pressors. Treat underlying infection. Treat underlying disease process. steroids, immune modulators such as anti-IL-6 antibody. Prognosis: Similar to sepsis - high mortality rate. Survivors have a long term increased risk of death compared to patients who do not have this syndrome.</t>
   </si>
   <si>
     <t>Leukopenia</t>
@@ -756,7 +903,7 @@
     <t>Meningitis</t>
   </si>
   <si>
-    <t>Overview: [Deprecate in favor of Inflammation of Central Nervous System 4190307000] Meningitis is inflammation of the meninges, manifest by cerebrospinal fluid (CSF) pleocytosis. Classified in Aseptic vs bacterial meningitis based on detection of bacteria in CSF. Aseptic meningitis, is meningeal inflammation with negative cultures for routine bacterial pathogens in a patient who did not receive antibiotics before lumbar puncture, and is thought to be due to either infectious (viral, usually enteroviruses) and noninfectious causes. The terms aseptic meningitis and viral meningitis are used synonymously because virus is the most common cause of aseptic meningits. Other infectious etiology for aseptic meningitis may include enterovirus, mycobacteria, fungi etc. Non infectious causes of aseptic meningitis includes medicines or malignancies. Bacterial meningitis has a more severe, acute presentation with significantly more morbidity compared to aseptic meningitis - and is commonly associated with  bacterial infections such as sinusitis or otitis, pneumonia, and endocarditis. Presentation: Fever, headache, altered mental status, stiff neck/nuchal rigidity, photophobia. Unlike patients with encephalitis, cerebral function is usually normal and this is an important distinguishing feature. Meningitis may make patient appear lethargic or distracted secondary to severe headache. In meningitis, unlike encephalitis, there is no altered mental status, motor or sensory deficits, altered behavior and personality changes, speech or movement disorders. Seizures and postictal states may be seen with meningitis and this does not imply encephalitis. Assessment: Lumbar puncture (opening pressure, cell differential and count less than 250/microliter, modest elevation in CSF protein, normal CSF glucose, bacterial cultures including syphillis and Lyme, viral (HIV, Varicella, mumps, West Nile, enteroviruses) and fungal studies). If no cause found, consider drug induced meningitis (NSAIDs, IVIG, Bactrim) or malignancy - diagnosis of exclusion. Plan: Supportive care, if patient requires admission often given acyclovir until ruled out of herpesvirus etiology. Antibiotics for bacterial meningitis and some viral meningitis patients with risk factors. Prognosis: viral meningitis most commonly the disease is self-limited even without specific therapy.</t>
+    <t>Overview: [Deprecate in favor of Inflammation of Central Nervous System 4190307000] Meningitis is inflammation of the meninges, manifest by cerebrospinal fluid (CSF) pleocytosis. Classified in Aseptic vs bacterial meningitis based on detection of bacteria in CSF. Aseptic meningitis, is meningeal inflammation with negative cultures for routine bacterial pathogens in a patient who did not receive antibiotics before lumbar puncture, and is thought to be due to either infectious (viral, usually enteroviruses) and noninfectious causes. The terms aseptic meningitis and viral meningitis are used synonymously because virus is the most common cause of aseptic meningits. Other infectious etiology for aseptic meningitis may include enterovirus, mycobacteria, fungi etc. Non infectious causes of aseptic meningitis includes medicines or malignancies. Bacterial meningitis has a more severe, acute presentation with significantly more morbidity compared to aseptic meningitis - and is commonly associated with bacterial infections such as sinusitis or otitis, pneumonia, and endocarditis. Presentation: Fever, headache, altered mental status, stiff neck/nuchal rigidity, photophobia. Unlike patients with encephalitis, cerebral function is usually normal and this is an important distinguishing feature. Meningitis may make patient appear lethargic or distracted secondary to severe headache. In meningitis, unlike encephalitis, there is no altered mental status, motor or sensory deficits, altered behavior and personality changes, speech or movement disorders. Seizures and postictal states may be seen with meningitis and this does not imply encephalitis. Assessment: Lumbar puncture (opening pressure, cell differential and count less than 250/microliter, modest elevation in CSF protein, normal CSF glucose, bacterial cultures including syphillis and Lyme, viral (HIV, Varicella, mumps, West Nile, enteroviruses) and fungal studies). If no cause found, consider drug induced meningitis (NSAIDs, IVIG, Bactrim) or malignancy - diagnosis of exclusion. Plan: Supportive care, if patient requires admission often given acyclovir until ruled out of herpesvirus etiology. Antibiotics for bacterial meningitis and some viral meningitis patients with risk factors. Prognosis: viral meningitis most commonly the disease is self-limited even without specific therapy.</t>
   </si>
   <si>
     <t>Psychotic disorder</t>
@@ -771,9 +918,15 @@
     <t>Overview: To do. The immunosecretory disorders are a diverse group of diseases associated with proliferation of an abnormal clone of immunoglobulin (Ig)-synthesizing, terminally differentiated B cells. These disorders include multiple myeloma (MM) and its variants, plasmacytoma, Waldenstrom macroglobulinemia, monoclonal gammopathy of undetermined significance, and monoclonal Ig deposition diseases, the latter including primary amyloidosis and nonamyloidotic types. These disorders are histologically composed of plasma cells, or plasmacytoid cells which produce Ig that is synthesized and usually secreted and can be deposited in some diseases. The Ig can be complete or can be composed of either heavy or light chains and is termed M-(monoclonal) protein.</t>
   </si>
   <si>
+    <t>To Do</t>
+  </si>
+  <si>
     <t>Chronic pain</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Pain that is ongoing and usually lasts longer than six months, persistent pain signals in the nervous system. Chronic pain linked to headaches, arthritis, cancer, nerve pain, back pain, and fibromyalgia pain, past injuries Presentation: tense muscles, limited ability to move around, a lack of energy, appetite changes. Emotional effects of chronic pain include depression, anger, anxiety, sleep distrubance Assessment: self-diagnosable - dull ache, throbbing, stiffness, throbbing; no labs or images (except for acute injury leading to acute pain) Plan: Pain specialist when needed - medicine, physical therapy, acupuncture, local electrical stimulation, relaxation therapiesPrognosis: Very common, can be helped if the cause of pain is understood, chronic pain can persist for years</t>
+  </si>
+  <si>
     <t>Narcolepsy</t>
   </si>
   <si>
@@ -783,6 +936,9 @@
     <t>Hyposmia</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Hyposmia or microsmia, is a reduced ability to smell and to detect odors. hyposmia, is one of the non-motor symptoms of Parkinson’s disease. Anosmia is no odors can be detected. COVID-19 has presented sudden hyposmia as a most prominent disease manifestation. Presentation: Self-report of sense of smell changes Assessment: Physical exam, history, scratch-and-sniff tests, endoscopy Plan: Medication, surgery, determine underlying cause Prognosis: Hyposmia that is due to a seasonal allergy or a cold usually improves without treatment. If a person loses their sense of smell after a head injury or a significant inflammatory injury to the olfactory system, a complete recovery may not be possible. Many lose sense of smell with age.</t>
+  </si>
+  <si>
     <t>Behcet's syndrome</t>
   </si>
   <si>
@@ -792,7 +948,7 @@
     <t>Bipolar disorder</t>
   </si>
   <si>
-    <t>Overview: Formerly called manic-depressive illness, includes episodes of depression alternate with episodes of mania or a less severe form of mania called hypomania. Mania is characterized by excessive physical activity and feelings of elation that are greatly out of proportion to the situation. Classified into Bipolar I disorder and Bipolar II disorder. Presentation: Have one or more periods of excessive sadness and loss of interest in life and one or more periods of elation, extreme energy, and often irritability, with periods of relatively normal mood in between. Assessment: Pattern of symptoms. Rule-out other disorders. Plan: Drugs that stabilize mood, such as lithium and certain antiseizure drugs, antipsychotics, antidepressants, psychotherapyPrognosis: No cure for bipolar disorder, it is a highly treatable disease.  Can worsen with age or over time if this condition is left untreated.</t>
+    <t>Overview: Formerly called manic-depressive illness, includes episodes of depression alternate with episodes of mania or a less severe form of mania called hypomania. Mania is characterized by excessive physical activity and feelings of elation that are greatly out of proportion to the situation. Classified into Bipolar I disorder and Bipolar II disorder. Presentation: Have one or more periods of excessive sadness and loss of interest in life and one or more periods of elation, extreme energy, and often irritability, with periods of relatively normal mood in between. Assessment: Pattern of symptoms. Rule-out other disorders. Plan: Drugs that stabilize mood, such as lithium and certain antiseizure drugs, antipsychotics, antidepressants, psychotherapyPrognosis: No cure for bipolar disorder, it is a highly treatable disease. Can worsen with age or over time if this condition is left untreated.</t>
   </si>
   <si>
     <t>Posttraumatic stress disorder</t>
@@ -804,9 +960,15 @@
     <t>Insomnia</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Insomnia is a common sleep disorder in which a person has trouble falling and/or staying asleep. Insomnia can be acute or chronic in nature. Presentation: Having trouble getting to sleep or staying asleep more than 3 nights a week for 3 months is considered chronic, compromised daytime function, fatigue/malaise, behavior problems (hyperactivity, impulsivity, aggression)Assessment: Self-reported based on sleep history, sleep diary, behavioral or adjustment issues presentPlan: Insomnia may be addressed with cognitive behavioral therapy (CBT) prior to medications which can be used in conjunction with CBT such as benzodiazepine receptor agonists (BZRAs, including benzodiazepines and nonbenzodiazepine BZRAs, or "z drugs"), sedating antidepressants, melatonin agonists, orexin receptor antagonists, and antipsychotics. Prognosis: Insomnia can be resolved to healthy sleep patterns if success is achieved with medication and/or CBT</t>
+  </si>
+  <si>
     <t>Ankylosing spondylitis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of arthropathy, 73553000] Ankylosing spondylitis is a type of seronegative spondyloarthritis (arthritis - inflammation of joint, spondylo - central bones i.e. vertebra). It is called seronegative because it is negative for Rheumatoid Factor (i.e. rheumatoid arthritis). Seronegative spondyloarthritis also includes manifestations of psoriatic arthritis, reactive arthritis, IBD associated arthritis.Initial presentation: Gradually worsening chronic back pain in sacroiliac and apophyseal joints of spine, that are most commonly reported at night &lt;40 y/o, that improves with hot water/exercise/NSAIDS, but not relieved by rest. Assessment: There is no diagnostic test. Diagnosis is based on clinical judgment and elimination of other causes of spondyloarthritis. Best made by Rheumatologist. Commonly patients are confirmed to be negative for Rheumatoid factor and other autoantibodies. They are also tested for HLA-B27 because of a strong association. Plan: Symptom control: Physical therapy, NSAIDS, intraarticular corticosteroids, DMARDS. Slowing disease progression: anti-TNFs - adalimumab or infliximab; anti-IL17A (secukinumab, ixekizumab); Curative treatment: does not exist. Prognosis: This is a considered a life-long progressive debilitating illness, that may be slowed with certain treatments.</t>
+  </si>
+  <si>
     <t>Respiratory syncytial virus infection</t>
   </si>
   <si>
@@ -816,12 +978,15 @@
     <t>Multiple myeloma</t>
   </si>
   <si>
-    <t>Overview: [Deprecated in favor of Immunosecretory disorder 436081000] A cancer that forms in a type of white blood cell called a plasma cell. Causes cancer cells to accumulate in the bone marrow, where they crowd out healthy blood cells and produce abnormal proteins. Three stages are I - III. There are alos other plasma cell disorders (Monoclonal gammopathy of uncertain significance (MGUS), smoldering multiple myeloma, Solitary plasmacytoma, and light chain amyloidosis)Presentation: Can have no symptoms (smoldering multiple myeloma). Bone pain, nausea, constipation, loss of appetite, confusion, fatigue, frequent infections, weight loss, weakness, and excessive thirst Assessment: Thrombocytopenia, and leukopenia and anemia. Blood tests may reveal M proteins and beta-2-microglobulin (produced by myeloma cells), urine tests (Bence Jones proteins), bone marrow aspiration and biopsy (FISH - fluorescence in situ hybridization), imaging tests Plan: Stabilize and slow the progress of multiple myeloma. If no signs, no treatement. If signs and progression - targeted therapy, biological, chemotherapy, radiation, corticosteroids, bone marrow transplant Prognosis: No cure, but can be managed successfully in many patients for years</t>
+    <t>Overview: [Deprecated in favor of Immunosecretory disorder 436081000] A cancer that forms in a type of white blood cell called a plasma cell. Causes cancer cells to accumulate in the bone marrow, where they crowd out healthy blood cells and produce abnormal proteins. Three stages are I - III. There are alos other plasma cell disorders (Monoclonal gammopathy of uncertain significance (MGUS), smoldering multiple myeloma, Solitary plasmacytoma, and light chain amyloidosis)Presentation: Can have no symptoms (smoldering multiple myeloma). Bone pain, nausea, constipation, loss of appetite, confusion, fatigue, frequent infections, weight loss, weakness, and excessive thirst Assessment: Thrombocytopenia, and leukopenia and anemia. Blood tests may reveal M proteins and beta-2-microglobulin (produced by myeloma cells), urine tests (Bence Jones proteins), bone marrow aspiration and biopsy (FISH - fluorescence in situ hybridization), imaging tests Plan: Stabilize and slow the progress of multiple myeloma. If no signs, no treatement. If signs and progression - targeted therapy, biological, chemotherapy, radiation, corticosteroids, bone marrow transplant Prognosis: No cure, but can be managed successfully in many patients for years</t>
   </si>
   <si>
     <t>Bleeding</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Unexpected/unanticipated loss of blood, commonly above anticipated. Presentation: Blood coming out of a body part that is not physiological. Plan: Monitor and treat hemodynamic instability. Stop the bleeding, by tracing the cause. Bleeding into body cavities (e.g. abdomen is harder to manage. Prognosis: Depends on site and cause. In the presence of coagulpathy and/or hemodynamic instability, may lead to death.</t>
+  </si>
+  <si>
     <t>Glaucoma</t>
   </si>
   <si>
@@ -831,6 +996,9 @@
     <t>Fever</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Body temperature is regulated by hypothalamus with normal range between 36.5 to 37.5C with rectal temperature slightly higher. Fever is elevation of body temperature above normal variations with temperature above 38.3C accepted to high enough is most cases. It is caused due to change in hypothalamic set point. Hyperthermia may occur without change in hypothalamic set point - so not all hyperthermia is fever e.g. heat stroke is not fever. Presenation: May be accompanied by chills, rigors/shivering because of increased heat production from muscles. Assessment: exclude hyperthermia. Check for infections, toxins. Plan: treat the cause. Symptoms may be managed with antipyretics. Prognosis: most are short lived, with identifiable or suspected etiology. Rarely may be fever of unknown origin.</t>
+  </si>
+  <si>
     <t>Broad (cohorts of interest - fever of unknown origin, viral fever, fever by age category very young/infants/children/adult, fever with known etiology like pneumonia, sepsis, bacterial infections, low grade vs high grade)</t>
   </si>
   <si>
@@ -861,7 +1029,7 @@
     <t>Pre-eclampsia</t>
   </si>
   <si>
-    <t>Overview: Preeclampsia is a multisystem progressive disorder that is characterized by the new onset of hypertension and proteinuria in pregnant women &gt; 20 weeks of gestation. Usually asymptomaic, but significant end-organ dysfunction, e.g. proteinuria maybe present. Pre-eclampsia commonly occurs in last half of pregnancy and in postpartum period. If the women was hypertensive prior to pregnancy, then it is consider preeclampsia superimposed on  hypertenson. Sign of end organ damage such as protienuria is needed for diagnosis, hypertension in the absence of such an evidence of end organ damage may be considered gestational hypertension. Presentation: is non specific and requires a high degree of suspicion. symptoms may include headache, epigastric pain, oliguria, peripheral edema. Risk of HELLP syndrome. Plan: check blood pressure and signs of end organ damage. Severe preeclampsia is an indication for induced delivery.  The cure for preeclampsia is delivery of the fetus if the disease becomes severe (showing early signs of end organ damage). Monitoring of amniotic fluid index, nonstress testing, fetal biometry to monitor for intrauterin growth restriction. management of blood pressure with antihypertensives such as nifedipine or labetalol. If pre-eclampsia develops severe features, admit and treat with MgSO4 for convulvion prophylaxis.  Prognosis: can progress to eclampsia which may be fatal. Disease is considered progressive during pregnancy and early post partum period. Sequelae of pre-eclampsia can include small for dates baby, preterm birth, HELLP syndrome, seizures, death. Careful monitoring of blood pressure and urine throughout pregnancy allows for early intervention to mitigate risk.</t>
+    <t>Overview: Preeclampsia is a multisystem progressive disorder that is characterized by the new onset of hypertension and proteinuria in pregnant women &gt; 20 weeks of gestation. Usually asymptomaic, but significant end-organ dysfunction, e.g. proteinuria maybe present. Pre-eclampsia commonly occurs in last half of pregnancy and in postpartum period. If the women was hypertensive prior to pregnancy, then it is consider preeclampsia superimposed on hypertenson. Sign of end organ damage such as protienuria is needed for diagnosis, hypertension in the absence of such an evidence of end organ damage may be considered gestational hypertension. Presentation: is non specific and requires a high degree of suspicion. symptoms may include headache, epigastric pain, oliguria, peripheral edema. Risk of HELLP syndrome. Plan: check blood pressure and signs of end organ damage. Severe preeclampsia is an indication for induced delivery. The cure for preeclampsia is delivery of the fetus if the disease becomes severe (showing early signs of end organ damage). Monitoring of amniotic fluid index, nonstress testing, fetal biometry to monitor for intrauterin growth restriction. management of blood pressure with antihypertensives such as nifedipine or labetalol. If pre-eclampsia develops severe features, admit and treat with MgSO4 for convulvion prophylaxis. Prognosis: can progress to eclampsia which may be fatal. Disease is considered progressive during pregnancy and early post partum period. Sequelae of pre-eclampsia can include small for dates baby, preterm birth, HELLP syndrome, seizures, death. Careful monitoring of blood pressure and urine throughout pregnancy allows for early intervention to mitigate risk.</t>
   </si>
   <si>
     <t>Human immunodeficiency virus infection</t>
@@ -870,6 +1038,9 @@
     <t>Overview: HIV infections may be caused by one of two retroviruses, HIV-1 or HIV-2. HIV causes AIDS and interferes with the body's ability to fight infections. The virus can be transmitted through contact with infected blood, semen, or vaginal fluids. Presentation: Flu-like symptoms such as fever, sore throat, and fatigue, swollen lymph nodes. Then the disease is usually asymptomatic until it progresses to AIDS. AIDS symptoms include weight loss, fever or night sweats, fatigue, and recurrent infections. Assessment: Signs and symptoms, history. CD4 count, viral count. AIDS is diagnosed when the CD4 count falls below 200 cells per microliter of blood or when extreme wasting or certain serious opportunistic infections or cancers develop. Plan: Prevention and screening. Antiretroviral drugs, prevent opportunistic infections, relieve symptoms Prognosis: Exposure to HIV does not always lead to infection, and some people who have had repeated exposures over many years remain uninfected. No effective HIV vaccine to prevent HIV infection or slow the progression of AIDS in people who are already infected. No cure exists for AIDS, but strict adherence to anti-retroviral therapy (ART) can dramatically slow the disease's progress, prevent secondary infections and complications, and prolong life.</t>
   </si>
   <si>
+    <t>Autism spectrum disorder</t>
+  </si>
+  <si>
     <t>Overview: (ASD) is a complex developmental condition that involves persistent challenges in social interaction, speech and nonverbal communication, and restricted/repetitive behaviors. ASD includes conditions that were previously considered separate — autism, Asperger's syndrome, childhood disintegrative disorder and pervasive developmental disorder. Neurological and developmental disorder beginning early in childhood. Presentation: developmental delays, obsessive traits, body rocking, flapping of hands, unusual reactions, social issues,no eye contact Assessment: symptoms and severity vary, there are many causes. Dx is difficult - no diagnositic tests, observation of social interaction, communication, and behaviors. Criteria in the Diagnostic and Statistical Manual of Mental Disorders Plan: Maximize the child's ability to function by reducing symptoms and supporting development and learning. Behavior programs, antipsychotics, SRIs, stimulants/hyperactivity drugsPrognosis: No cure for ASD, intensive, early treatment can make a big difference in the lives of many children - lasts throughout a person's life.</t>
   </si>
   <si>
@@ -885,12 +1056,12 @@
     <t>Disorder of acoustic nerve</t>
   </si>
   <si>
-    <t>Overview: Presentation: Assessment: Plan: Prognosis:</t>
-  </si>
-  <si>
     <t>Paralysis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Loss of voluntary movement. Can be unilateral or bilateral, localized or generalized. Presentation: Acute or insidious onset of complete loss of voluntary movement. Double vision. Assessment: Brain, spinal cord imaging by MRI or CT scan, history of tick bites, physical exam with hypo or hyperreflexic deep tendon reflexes, restricted range of motion of eye muscles, evaluate for poisoning if history indicates, potassium, glucose, calcium, magnesium, phosphate levels, cbc, blood cultures, ECG, TSH. Lumbar puncture. Plan: Treat underlying cause, if found. In some cases physical therapy helpful. Prognosis: Depends upon cause of paralysis</t>
+  </si>
+  <si>
     <t>Depressive disorder</t>
   </si>
   <si>
@@ -912,17 +1083,13 @@
     <t>Trigeminal nerve disorder</t>
   </si>
   <si>
-    <t>Overview: Trigeminal (fifth) nerve, largest of the cranial nerve - supplies sensation to the skin of the face and anterior half of head. Motor component - muscles of mastication and tensor tympani of middle ear hearing. Most commonly disorder is Trigeminal neuralgia (tic douloureux) TN - mainly due to compression of the trigeminal nerve root, demyelination (multiple sclerosis). Trigemenial nerve disorder may also present without pain, e.g. trigeminal neuropathy with sensory loss on the face, with weakness of muscles of masticatio- deviation of jaw on opening. Presentation: TN is characterized by recurrent brief episodes of excruciating unilateral electric shock like pain in the lips, gums, cheek or chin. TN is mosstly clustered among middle-aged and elderly persons are affected, with ~ 60% in women. Assessment: TN is a clinical diagnosis - but detailed investigation using neuroimaging to identify cause. Rule out herpes zoster, post traumatic.  Plan: carbamazepine or oxcarbazepine is first line. Gabapentin for non responders. Lidocaine, phenytoin for rescue therapy. Occassionally surgery (gamma knife radiosurgery, rhizotomy, microvascular decompression). Prognosis: highly variable, may go into months of remission. recurrence is common.</t>
+    <t>Overview: Trigeminal (fifth) nerve, largest of the cranial nerve - supplies sensation to the skin of the face and anterior half of head. Motor component - muscles of mastication and tensor tympani of middle ear hearing. Most commonly disorder is Trigeminal neuralgia (tic douloureux) TN - mainly due to compression of the trigeminal nerve root, demyelination (multiple sclerosis). Trigemenial nerve disorder may also present without pain, e.g. trigeminal neuropathy with sensory loss on the face, with weakness of muscles of masticatio- deviation of jaw on opening. Presentation: TN is characterized by recurrent brief episodes of excruciating unilateral electric shock like pain in the lips, gums, cheek or chin. TN is mosstly clustered among middle-aged and elderly persons are affected, with ~ 60% in women. Assessment: TN is a clinical diagnosis - but detailed investigation using neuroimaging to identify cause. Rule out herpes zoster, post traumatic. Plan: carbamazepine or oxcarbazepine is first line. Gabapentin for non responders. Lidocaine, phenytoin for rescue therapy. Occassionally surgery (gamma knife radiosurgery, rhizotomy, microvascular decompression). Prognosis: highly variable, may go into months of remission. recurrence is common.</t>
   </si>
   <si>
     <t>Takayasu's disease</t>
   </si>
   <si>
-    <t>Overview: [Deprecate in favor of Vasculitis 4137275000]  is a large vessel vasculitis of aorta and its branches that predominantly affects women. _x000D_
-Presentation: Like giant cell arteritis, patients most commonly have constitutional symptoms of along with claudication pain in arms, legs - cyanosis, low grade fever, weak pulses, discrepant BP between arms. The symptoms are slow in onset and diagnosis maybe delayed._x000D_
-Assessment: Diagnosis is based on clinical presentation, with imaging of arteria tree showing smoothly tapered luminal narrowing or occlusion of large blood vessels._x000D_
-Plan: Systemic glucocorticosteroids, DMARS (methotrexate, azathioprine, leflunomide, mycophenolate), biologics (TNF inhibitors). _x000D_
-Prognosis: Chronic long-term disease of fluctuating course with apparent exacerbations and remissions in the inflammatory processes. 5-year survival is reported to be between80 to 90%.</t>
+    <t>Overview: [Deprecate in favor of Vasculitis 4137275000] is a large vessel vasculitis of aorta and its branches that predominantly affects women. Presentation: Like giant cell arteritis, patients most commonly have constitutional symptoms of along with claudication pain in arms, legs - cyanosis, low grade fever, weak pulses, discrepant BP between arms. The symptoms are slow in onset and diagnosis maybe delayed. Assessment: Diagnosis is based on clinical presentation, with imaging of arteria tree showing smoothly tapered luminal narrowing or occlusion of large blood vessels. Plan: Systemic glucocorticosteroids, DMARS (methotrexate, azathioprine, leflunomide, mycophenolate), biologics (TNF inhibitors). Prognosis: Chronic long-term disease of fluctuating course with apparent exacerbations and remissions in the inflammatory processes. 5-year survival is reported to be between80 to 90%.</t>
   </si>
   <si>
     <t>Suicide</t>
@@ -952,9 +1119,15 @@
     <t>Vomiting</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Forcefully expelling the stomach's contents out of the mouth. Vomiting can have causes that aren't due to underlying disease.Emesis is vomiting. Presentation: self-reported: nausea, retching and vomiting, cold sweat, pallor, salivation Assessment: Nauseous, stomachache, time plus onset, CBC (dehydration), electrolytes, CXR and Abdominal xray (for obstruction), drug levels Plan: Depends on the underlying cause. Drinking plenty of water and sports drinks containing electrolytes can help prevent dehydration. Antiemetics, antacids, anti-anxiety (if related to an anxiety condition)Prognosis: Common symptom of many conditions. Vomiting can be concerning if showing signs of severe dehydration, or it accompanies chest pain, sudden and severe abdominal pain, a high fever, or a stiff neck. (sequelae - aspiration, Mallory Weiss syndrome, boerhaave's syndrome, hypovolemia, electrolyte imbalance)</t>
+  </si>
+  <si>
     <t>Anxiety</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A feeling of fear or apprehension about what's to come that are strong enough to interfere with daily activities. Examples of anxiety disorders include panic attacks, obsessive-compulsive disorder, and post-traumatic stress disorder. Presentation: Stress that's out of proportion to the impact of the event, inability to set aside a worry, and restlessness. increased heart rate, fast breathing, and trouble concentrating or sleeping Assessment: Diagnosis requires a lengthy process of physical examinations, mental health evaluations, and psychological questionnairesPlan: Psychotherapy and medication (antidepressants and sedatives), lifestyle changes Prognosis: Anxiety may not go away, but can be managed and live a healthy, happy life</t>
+  </si>
+  <si>
     <t>Human papilloma virus infection</t>
   </si>
   <si>
@@ -970,6 +1143,9 @@
     <t>Muscle pain</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Muscle pain. Soreness and achiness in the muscles that can range from mild to severe and present with many diseases (also see fibromyalgia, polymyalgia). Muscle pain is a possible symptom of COVID-19Presentation: Pain in a local area, or more widespread, joint or muscle pain, tired and weak Assessment: Clinical examination, self-diagnosis, xray (if injury); if prolonged - then lab studies (selective testing)Plan: Rest area with pain, OTC pain relivers, ice/heat, stretching, massage Prognosis: Depends on the underlying cause</t>
+  </si>
+  <si>
     <t>Stillbirth</t>
   </si>
   <si>
@@ -1000,15 +1176,27 @@
     <t>Overview: Eclampsia is the convulsive manifestation of preeclampsia and is described as new-onset, generalized, tonic-clonic seizures or coma in a woman with preeclampsia (including HELLP syndrome - hemolysis, elevated liver enzymes, low platelets). Many times, a woman may develop eclampsia with only an observation of gestational hypertension and no formal diagnosis of preeclampsia. Presentation: generalized tonic clonic seizures while pregnant, occassionally without any prior signs/symptoms. Commonly occurs between 20 to 30 weeks of pregnancy. Plan: Clinical diagnosis. Evaluate the cause. Prevent maternal hypoxemia. Prognosis:</t>
   </si>
   <si>
+    <t>Disorder of cellular component of blood (anemia, pancytopenia, leukopenia, thrombocytopenia)</t>
+  </si>
+  <si>
     <t>Diabetic ketoacidosis</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] one of the two main serious acute complications of diabetes mellitus. DKA is an anion gap metabolic acidosis that is managed commonly in critical care unit as a medical emergency. See more in Type 1 diabetes. Presentation: frequent urination, extreme thirst, high blood sugar levels and high urine ketones; N/V, fruity-smelling breath. comma at presentation is common, altered mental status. Assessment: level of consciousness and alertness, anion gap, blood glucose, potassium and sodium, ABG, CXR to look for infection (like pneumonia)Plan: fluid replacement/hydration, insulin, potassium and electrolye correction, maintain blood pressurePrognosis: usually recovers in a few days with discharge from intensive care unit. Long term diabetes management is critical to prevent relapse.</t>
+  </si>
+  <si>
     <t>Acute tubular necrosis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of renal impairment, 4030518000] Kidney injury caused by damage to the kidney tubule cells (kidney cells that reabsorb fluid and minerals from urine as it forms). Common causes are low blood flow to the kidneys (such as caused by low blood pressure), drugs that damage the kidneys, and severe bodywide infections. Can lead to acute kidney failure. Presentation: Can have no symptoms. Kidney injury severe - dehydration, excessive thirst, low urine output, swelling, fluid retention, N/V, confusion, drowsyAssessment: Blood and urine tests. blood urea nitrogen (BUN), creatinine, and electrolyte levels Plan: Treatment is directed at the cause - stopping drugs that are damaging the kidneys, giving IVFs to raise blood pressure, and giving antibiotics to treat infection. Dietary restrictions. Diuretics, and potassium-controlling drugs. Dialysis may be needed. Prognosis: Outcome depends on correction of the disorder that caused ATN. Responds rapidly to treatment, kidney function usually returns to normal in 1 to 3 weeks. May progress to chronic kidney disease</t>
+  </si>
+  <si>
     <t>Tachycardia</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] heart beat more than 100 times per minute (more than normal due to conditions unrelated to normal physiological stress). Types: atrial fib, atrial flutter, SVT, V tach, V fibPresentation: SOB, fsat heart rate, palpitations, chest pain, syncopeAssessment: EKG, Holter, Electrophysiological test, cardiac imaging, stress test, tilt table test, Plan: slow the heart rate down - vagal maneuvers, anti-arrhythmic, cardioversion, catheter ablation, pacemaker, ICD, heart surgeryPrognosis: Treating the underlying problem may prevent or minimize tachycardia episodes.</t>
+  </si>
+  <si>
     <t>Venous thromboembolism</t>
   </si>
   <si>
@@ -1045,6 +1233,9 @@
     <t>Gestational diabetes mellitus</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] blood sugar levels become high during pregnancy. Presentation: thirsty, hungrier, urinary frequency; can have excess weight gain; can have no symptoms. Assessment:Usually happens in the second half of pregnancy (24 - 28 wks). glucose challenge or glucose screening test. Plan: Women with class A1 can manage it through diet and exercise. Those who have class A2 need to take insulin or other medications. Blood sugar monitoring. Lifestyle changes, diet. Prognosis: Gestational diabetes goes away after you give birth. Higher risk of developing type 2 diabetes later in life.</t>
+  </si>
+  <si>
     <t>needs updated description</t>
   </si>
   <si>
@@ -1066,6 +1257,12 @@
     <t>Non-Hodgkin's lymphoma</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] Cancer that starts in the lymphatic system. Occurs when the body produces too many abnormal lymphocytes, a type of white blood cell. Most types of NHL are categorized as either B-cell lymphoma or T-cell lymphoma. NHL is more common than Hodgkin’s lymphoma. Lymphoma refers to a malignancy of the lymphatic system. Presentation: Abdominal pain or swelling, chest pain, painless/swollen lymph nodes, coughing, fatigue, fever, weight loss, night sweats Assessment: Physical exams to check the size and condition of lymph nodes and enlarged liver or spleen. lymph node biopsy, bone marrow biopsy and aspiration, and imaging Plan: Treatment can wait until the disease progresses. Biologics, chemotherapy, radiation, stem cell transplant, radioimmunotherapy Prognosis: The subtype of NHL predicts the necessity of early treatment, the response to treatment, the type of treatment required, and the prognosis.</t>
+  </si>
+  <si>
+    <t>Inflammatory disorder of digestive tract</t>
+  </si>
+  <si>
     <t>Multifocal motor neuropathy</t>
   </si>
   <si>
@@ -1081,6 +1278,9 @@
     <t>Pustular psoriasis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Psoriasis, 140168000] This is a chronic inflammatory condition that is characterized by crops of sterile pustules on the palms and soles. It is considered distinct from Palmoplantar plaque psoriasis, which is plaque psoriasis that primarily involves the palmoplantar area. In palmoplantar plaque psoriasis, there is erythematous, scaly plaques on the palms and/or soles, but pustules are absent. Presentation: Recurrent crops of discrete 1 to 10 mm sterile pustules limited to the palms and/or soles. Erythema, scaling, fissuring, hyperkeratosis, yellow-brown macules are often found in long standing conditions. Assessment: Clinical diagnosis based on key characteristic is the limitation to palms and soles, after elimination of fungal and bacterial infections. Skin biopsy is not necessary. Plan: Skin moisturization, avoidance of irritants along with topical corticosteroids, photochemotherapy that involves oral agent like methoxsalen prior to phototherapy. Prognosis: Lifelong disease with poor quality of life if no resolution.</t>
+  </si>
+  <si>
     <t>Cirrhosis of liver</t>
   </si>
   <si>
@@ -1096,7 +1296,7 @@
     <t>Miller Fisher syndrome</t>
   </si>
   <si>
-    <t>Overview: [Deprecate in favor of  4164770000 Guillain-Barré syndrome]An auto-immune, antibody mediated variation of Guillan-Barre syndrome in which there is eye muscle weakness or paralysis, abnormal gait (ataxia) and areflexia (absence of reflexes). Presentation: Ophthalmoplegia, ataxia, areflexia. Only 1/4 of cases develop limb weakness. Assessment: Nerve conduction studies (NCS, EMG)(should be normal, as opposed to abnormal in GBS), lumbar puncture evaluation, tests for anti-self antibody in the blood, history of C. jejuni infection. No alterations in consciousness. Diagnosis of exclusion of other etiologies. Plan: Cessation of offending agent (vaccine, treatment of infection), supportive care including eye muscle rehabilitation and gait training, Prognosis: Self-limited, variable persistence of symptoms. Typically resolved within 28 days of onset.</t>
+    <t>Overview: [Deprecate in favor of 4164770000 Guillain-Barré syndrome]An auto-immune, antibody mediated variation of Guillan-Barre syndrome in which there is eye muscle weakness or paralysis, abnormal gait (ataxia) and areflexia (absence of reflexes). Presentation: Ophthalmoplegia, ataxia, areflexia. Only 1/4 of cases develop limb weakness. Assessment: Nerve conduction studies (NCS, EMG)(should be normal, as opposed to abnormal in GBS), lumbar puncture evaluation, tests for anti-self antibody in the blood, history of C. jejuni infection. No alterations in consciousness. Diagnosis of exclusion of other etiologies. Plan: Cessation of offending agent (vaccine, treatment of infection), supportive care including eye muscle rehabilitation and gait training, Prognosis: Self-limited, variable persistence of symptoms. Typically resolved within 28 days of onset.</t>
   </si>
   <si>
     <t>May not needs to be a phenotype. Merge to Guillan Barre syndrome?</t>
@@ -1105,9 +1305,15 @@
     <t>Inflammatory bowel disease</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] Inflammatory bowel disease (IBD) is made up of ulcerative colitis and Crohn disease. The two conditions have significant overlap in clinical and pathologic factors but are different enough to be considered distinct diseases. While, Ulcerative colitis affects the colon, Crohn disease may involve any part of the gastrointestinal tract. Presentation: See Crohns and UC. IBD is combinationAssessment: See Crohns and UC. IBD is combinationPlan: See Crohns and UC. IBD is combination Prognosis: See Crohns and UC. IBD is combination</t>
+  </si>
+  <si>
     <t>Neonatal death</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Death, 4306655000] Death of a newborn between 1 day and 4 weeks after birth. This applies to full term infants -- preterm infants that are born prior to viability have slightly different criteria for timing Presentation: Live birth of a term or otherwise viable infant followed by cessation of breathing, heartbeat, and brain function within 28 days. Absence of pupillary response to light, absenceof motor response to pain. 5 minutes of respiratory arrest. Assessment: If event does not result in sudden death, evaluate for infection, evaluate for cardiopulmonary defects or dysfunction. Plan: If underlying cause found, treat. Prognosis: Fatal.</t>
+  </si>
+  <si>
     <t>Facial palsy</t>
   </si>
   <si>
@@ -1120,6 +1326,9 @@
     <t>Overview: A birth at which a child is born alive. Refers to the complete expulsion or extraction from its mother of a product of conception, irrespective of the duration of the pregnancy, which, after such separation, breathes or shows any other evidence of life. Presentation: Vaginal birth or by Caesarean section with a fetus showing signs of life -voluntary movement, heartbeatAssessment: physical exam of signs of life Plan: Airway, breathing, circulation Prognosis: Not all pregnancies result in live births.</t>
   </si>
   <si>
+    <t>Clinical Signs and Symptoms</t>
+  </si>
+  <si>
     <t>Antiphospholipid syndrome</t>
   </si>
   <si>
@@ -1135,12 +1344,15 @@
     <t>Henoch-Schönlein purpura</t>
   </si>
   <si>
-    <t>Overview: [Deprecate, in favor of 4137275000 Vasculitis] Immunoglobulin A vasculitis (IgA vasculitis [IgAV]; formerly called Henoch-Schönlein purpura [HSP]), is the most common form of systemic vasculitis in children. A primarily pediatric condition that is an IgA mediated vasculitis most commonly seen in ages 3-15 years, with predominant occurrence in winter often one to two weeks after a viral upper respiratory tract infection. Presentation: Disease is characterized by tetrad of manifestations of palpable purpura in patients with neither thrombocytopenia nor coagulopathy, arthritis/arthralgia, abdominal pain and renal disease. Palpable purpura (raised purple lesions) symmetrically distributed over legs and buttocks, trunk usually spared. Swelling and joint pain affecting ankles and knees most commonly. Abdominal pain and severe GI disorders are rare but significant sequelae. Assessment: The diagnosis of IgAV is typically based upon clinical manifestations of the disease (palpable purpura without thrombocytopenia or coagulopathy and two or three of the remaining clinical features: arthritis/arthralgia, abdominal pain, and renal disease). However, the classic rash of IgAV is not the initial presenting sign in approximately one-quarter of affected individuals.  It may be difficult to make the diagnosis of IgAV prior to the appearance of a rash in patients who present with other clinical manifestations, such as abdominal pain or arthritis, particularly in isolation. In patients with incomplete or unusual presentations, a biopsy of an affected organ (eg, skin or kidney) that demonstrates leukocytoclastic vasculitis with a predominance of IgA deposition confirms the diagnosis of IgAV. CMP, UA for protein, red blood cells, casts. Skin biopsy for IgA deposition in small vessel walls if needed. Plan: Corticosteroids for abdominal symptoms and prevention of abdominal complications. If IgAV nephritis is present, steroids and other immunosuppressive drugs have been used. Evaluate for infection including Hep A and B, mycoplasma. Prognosis: Typically self-limited except in cases of severe kidney disease. Long term follow up needed as renal disease can manifest after recovery from initial presentation</t>
+    <t>Overview: [Deprecate, in favor of 4137275000 Vasculitis] Immunoglobulin A vasculitis (IgA vasculitis [IgAV]; formerly called Henoch-Schönlein purpura [HSP]), is the most common form of systemic vasculitis in children. A primarily pediatric condition that is an IgA mediated vasculitis most commonly seen in ages 3-15 years, with predominant occurrence in winter often one to two weeks after a viral upper respiratory tract infection. Presentation: Disease is characterized by tetrad of manifestations of palpable purpura in patients with neither thrombocytopenia nor coagulopathy, arthritis/arthralgia, abdominal pain and renal disease. Palpable purpura (raised purple lesions) symmetrically distributed over legs and buttocks, trunk usually spared. Swelling and joint pain affecting ankles and knees most commonly. Abdominal pain and severe GI disorders are rare but significant sequelae. Assessment: The diagnosis of IgAV is typically based upon clinical manifestations of the disease (palpable purpura without thrombocytopenia or coagulopathy and two or three of the remaining clinical features: arthritis/arthralgia, abdominal pain, and renal disease). However, the classic rash of IgAV is not the initial presenting sign in approximately one-quarter of affected individuals. It may be difficult to make the diagnosis of IgAV prior to the appearance of a rash in patients who present with other clinical manifestations, such as abdominal pain or arthritis, particularly in isolation. In patients with incomplete or unusual presentations, a biopsy of an affected organ (eg, skin or kidney) that demonstrates leukocytoclastic vasculitis with a predominance of IgA deposition confirms the diagnosis of IgAV. CMP, UA for protein, red blood cells, casts. Skin biopsy for IgA deposition in small vessel walls if needed. Plan: Corticosteroids for abdominal symptoms and prevention of abdominal complications. If IgAV nephritis is present, steroids and other immunosuppressive drugs have been used. Evaluate for infection including Hep A and B, mycoplasma. Prognosis: Typically self-limited except in cases of severe kidney disease. Long term follow up needed as renal disease can manifest after recovery from initial presentation</t>
   </si>
   <si>
     <t>Ventricular tachycardia</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Cardiac Arrythmia, 44784217000] (VT) is a fast, abnormal heart rate. It starts in the heart’s lower chambers, called the ventricles. VT is defined as 3 or more heartbeats in a row, at a rate of more than 100 beats a minute. May last for only a few seconds or for a longer period of time. Presentation: fast heart beat, palpitations, dizzy, chest pain, neck tightness, SOB, can present with sudden cardiac arrest Assessment: EKG, can be dx during a stress test Plan: beta-blocker or antiarrhythmic. For VT that is sustained or life-threatening, an implantable cardiac defibrillator (ICD), catheter ablation. For sustained VT - defibrillator, or cardioversion Prognosis: May have mild symptoms, or no symptoms at all. But for others, VT can be very dangerous. It can lead to sudden cardiac arrest and death.</t>
+  </si>
+  <si>
     <t>Breast cancer</t>
   </si>
   <si>
@@ -1168,12 +1380,15 @@
     <t>Vasculitis</t>
   </si>
   <si>
-    <t>Overview: (plural: vasculitides) are serious and sometimes fatal diseases that require prompt recognition and therapy. They are defined by the presence of inflammatory leukocytes in vessel walls (sign of inflammation) with reactive damage to mural structures that may lead to compromised lumen with restriction of blood flow to tissues and associated acute or chronic organ/tissue damage. Also known as angiitis and arteritis - the naming conventions are changing with eponyms being replaced. Most important recent name changes include 'eosinophilic granulomatosis with polyangiitis EGPA' for Churg-Strauss syndrome; 'granulomatosis with polyangiitis GPA' for Wegener's granulomatosis; 'immunoglobulin A (IgA) vasculitis IgAV' for Henoch-Schönlein purpura (HSP); 'anti-C1q vasculitis' for 'hypocomplementemic urticarial vasculitis'; 'cryoglobulinemic vasculitis' for essential cryoglobulinemic vasculitis. Antineutrophil cytoplasmic antibody (ANCA)-associated vasculitis (AAV) includes three disorders - microscopic polyangiitis (MPA), GPA, and EGPA. Non-infectious vasculitides are classified primarily by the predominant vessel involved - although some forms of vasculitis may not show predilection to one vessel type. Large Vessel Vasculitis (Takayasu’s arteritis, Giant cell arteritis); Medium vessel arteritis (polyarteritis nodosa, Kawasaki disease - mucocutaneous lymph node syndrome); Small vessel vasculitis (ANCA associated vasculitis, MPA (GPA, EGPA), Immune complex small vessel vasculitis (anti glomerular basement membrane disease - GBM, Cryoglobulinemic, IgA, anti-C1a; variable vessel (Behçet , Cogan).  Single organ cutaneous vasculitis (Cutaneous small vessel vasculitis) is a syndrome defined as a single-organ, skin-isolated small vessel vasculitis or angiitis, without systemic vasculitis or glomerulonephritis i.e. without the involvement of other organ systems such as the heart, lungs, GI system, kidney or arthritis - and may be due to medication exposure (common etiology) such as penicillins, cephalosporins, sulfonamides (including most loop and thiazide-type diuretics), phenytoin, and allopurinol, or infections such as Hepatitis B/C, HIV, chronic bacteremias like endocarditis, shunts. Kawasaki's, aka mucocutaneous lymph node syndrome is a vasculitides of childhood (rare in adults), typically self-limited with fever and inflammation lasting about 2 weeks without therapy, but may lead to complications such as coronary artery aneurysms, heart failure, myocardial infarction, arrythmia, peripheral arterial occlusion.  Henoch-Schönlein purpura is the most common form of systemic vasculitis in children, a primarily pediatric condition that is an IgA mediated vasculitis most commonly seen in ages 3-15 years, with predominant occurrence in winter often one to two weeks after a viral upper respiratory tract infection. Presentation: Vasculitis is rare but should be considered in patients who present with systemic or constitutional symptoms in combination with evidence of single and/or multiorgan dysfunction. Include, fever, headache, fatigue, wt loss, general aches and pains, night sweats, rash, numbness or weakness. Behçet is associated with painful, recurrent oral ulcers M &gt; F. Kawasaki has fever (&gt; 5 days) with signs of mucocutaneous inflammation (fissured lips, injected pharynx, strawberry tongue, mucositis), bilateral bulbar conjunctival injection, erythema of palms or soles, edema, desquamation of periungual areas, polymorphous rash, cervical lymphadenopathy, arthritis. Henoch-Schönlein purpura is characterized by tetrad of manifestations of palpable purpura  (raised purple lesions, symmetrically distributed over legs and buttocks, trunk usually spared) in patients with neither thrombocytopenia nor coagulopathy, arthritis/arthralgia, abdominal pain and renal disease. Assessment: C-reactive protein, CBC, anti-neutrophil cytoplasmic antibodies test, urinalysis, x-rays, ultrasound, CT, MRI, PET, angiography, biopsy (affected area). Plan: Control the inflammation and resolve underlying disease triggering the vasculitis. If due to external exposure, identify and discontinue. Remission induction and remission maintenance using corticosteroids, steroid-sparing meds. Disease specific treatments are possible for some sub-types. Maintenance may include surgery if vasculitis caused an aneurysm or blocked arteries. Prognosis: Limited data. Depends on type of vasculitis and organs involved and how serious. Some initial success with treatment, some have flare-ups, and some vasculitis does not go away and requires ongoing treatment. IVIG for Kawasaki’s may reduce complications such as coronary artery aneurysm. Henoch-Schönlein purpura is typically self limited.</t>
+    <t>Overview: (plural: vasculitides) are serious and sometimes fatal diseases that require prompt recognition and therapy. They are defined by the presence of inflammatory leukocytes in vessel walls (sign of inflammation) with reactive damage to mural structures that may lead to compromised lumen with restriction of blood flow to tissues and associated acute or chronic organ/tissue damage. Also known as angiitis and arteritis - the naming conventions are changing with eponyms being replaced. Most important recent name changes include 'eosinophilic granulomatosis with polyangiitis EGPA' for Churg-Strauss syndrome; 'granulomatosis with polyangiitis GPA' for Wegener's granulomatosis; 'immunoglobulin A (IgA) vasculitis IgAV' for Henoch-Schönlein purpura (HSP); 'anti-C1q vasculitis' for 'hypocomplementemic urticarial vasculitis'; 'cryoglobulinemic vasculitis' for essential cryoglobulinemic vasculitis. Antineutrophil cytoplasmic antibody (ANCA)-associated vasculitis (AAV) includes three disorders - microscopic polyangiitis (MPA), GPA, and EGPA. Non-infectious vasculitides are classified primarily by the predominant vessel involved - although some forms of vasculitis may not show predilection to one vessel type. Large Vessel Vasculitis (Takayasu’s arteritis, Giant cell arteritis); Medium vessel arteritis (polyarteritis nodosa, Kawasaki disease - mucocutaneous lymph node syndrome); Small vessel vasculitis (ANCA associated vasculitis, MPA (GPA, EGPA), Immune complex small vessel vasculitis (anti glomerular basement membrane disease - GBM, Cryoglobulinemic, IgA, anti-C1a; variable vessel (Behçet , Cogan). Single organ cutaneous vasculitis (Cutaneous small vessel vasculitis) is a syndrome defined as a single-organ, skin-isolated small vessel vasculitis or angiitis, without systemic vasculitis or glomerulonephritis i.e. without the involvement of other organ systems such as the heart, lungs, GI system, kidney or arthritis - and may be due to medication exposure (common etiology) such as penicillins, cephalosporins, sulfonamides (including most loop and thiazide-type diuretics), phenytoin, and allopurinol, or infections such as Hepatitis B/C, HIV, chronic bacteremias like endocarditis, shunts. Kawasaki's, aka mucocutaneous lymph node syndrome is a vasculitides of childhood (rare in adults), typically self-limited with fever and inflammation lasting about 2 weeks without therapy, but may lead to complications such as coronary artery aneurysms, heart failure, myocardial infarction, arrythmia, peripheral arterial occlusion. Henoch-Schönlein purpura is the most common form of systemic vasculitis in children, a primarily pediatric condition that is an IgA mediated vasculitis most commonly seen in ages 3-15 years, with predominant occurrence in winter often one to two weeks after a viral upper respiratory tract infection. Presentation: Vasculitis is rare but should be considered in patients who present with systemic or constitutional symptoms in combination with evidence of single and/or multiorgan dysfunction. Include, fever, headache, fatigue, wt loss, general aches and pains, night sweats, rash, numbness or weakness. Behçet is associated with painful, recurrent oral ulcers M &gt; F. Kawasaki has fever (&gt; 5 days) with signs of mucocutaneous inflammation (fissured lips, injected pharynx, strawberry tongue, mucositis), bilateral bulbar conjunctival injection, erythema of palms or soles, edema, desquamation of periungual areas, polymorphous rash, cervical lymphadenopathy, arthritis. Henoch-Schönlein purpura is characterized by tetrad of manifestations of palpable purpura (raised purple lesions, symmetrically distributed over legs and buttocks, trunk usually spared) in patients with neither thrombocytopenia nor coagulopathy, arthritis/arthralgia, abdominal pain and renal disease. Assessment: C-reactive protein, CBC, anti-neutrophil cytoplasmic antibodies test, urinalysis, x-rays, ultrasound, CT, MRI, PET, angiography, biopsy (affected area). Plan: Control the inflammation and resolve underlying disease triggering the vasculitis. If due to external exposure, identify and discontinue. Remission induction and remission maintenance using corticosteroids, steroid-sparing meds. Disease specific treatments are possible for some sub-types. Maintenance may include surgery if vasculitis caused an aneurysm or blocked arteries. Prognosis: Limited data. Depends on type of vasculitis and organs involved and how serious. Some initial success with treatment, some have flare-ups, and some vasculitis does not go away and requires ongoing treatment. IVIG for Kawasaki’s may reduce complications such as coronary artery aneurysm. Henoch-Schönlein purpura is typically self limited.</t>
   </si>
   <si>
     <t>Pericarditis</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Inflammatory disorder of mediastinum 4189294000] Inflammation of the pericardial fibroelastic sac - classified into five subtypes, Acute and recurrent pericarditis, Pericardial effusion without major hemodynamic compromise, Cardiac tamponade with hemodynamic compromise, Constrictive pericarditis, Effusive-constrictive pericarditis. If myocardial inflammation is also present then the term myopericarditis or perimyocarditis is used. Presentation: Sharp chest pain improved by sitting up and leaning forward. If pericardiatis is due to infection, fever may be present. Assessment: Auscultation for pericardial friction rub; ECG showing widespread ST elevations, chest x ray, cardiac markers (troponin) elevation, pericardiocentesis/pericardial biopsy, CBC, sed rate, CRP, echocardiography. Blood cultures for fever, rheumatology workup in young women. Plan: NSAIDs (nonsteroidal anti-inflammatory drugs) with colchicine or aspirin. If this treatment fails, further workup needed to rule out atypical forms of pericarditis including tuberculosis, cancer, and inflammatory disease. Most low risk patients may be managed in ambulatory settings, high risk patients need to be hospitalized. High risk features include fever, sub-acute onset, hemodynamic compromise/cardiac tamponade, immunosuppression, on anticoagulant therapy, acute trauma, elevated cardiac enzymes. Prognosis: Patients with acute idiopathic or viral pericarditis have a good long-term prognosis - typically self-limited over 2 weeks with NSAID treatment resulting in good long-term prognosis. Cardiac tamponade rarely occurs in patients with acute idiopathic pericarditis and is more common in patients with a specific underlying etiology such as malignancy, tuberculosis, or purulent pericarditis. Constrictive pericarditis may occur in approximately 1 percent of patients with acute idiopathic pericarditis and is also more common in patients with a specific etiology.</t>
+  </si>
+  <si>
     <t>cohort definition for each subtype</t>
   </si>
   <si>
@@ -1186,6 +1401,9 @@
     <t>Follicular non-Hodgkin's lymphoma</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] is the most common subtype of Non-hodgkins lymphoma, but may have wide variations. Presentation: painless peripheral adenopathy in the cervical, axillary, inguinal, and/or femoral regions that may increase and decrease spontaneously. Most patients are asymptomatic despite widespread disease. Occassionally there may be night sweats. Assessment: excisional biopsy confirms diagnosis. Bone marrow Assessment: and imaging is needed to determine extent of disease. Plan: Most patients only need close followup. Treatment options include chemotherapy (Bendamustine plus rituximab, RCHOP) or immunotherapy alone (rituximab)Prognosis: very good 10 year survival except in rare agressive subtypes. Some patients may go into spontaneous remissions.</t>
+  </si>
+  <si>
     <t>Prostate cancer</t>
   </si>
   <si>
@@ -1201,9 +1419,18 @@
     <t>Bradycardia</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Slower than normal heart rate. Adults at rest usually beat between 60 and 100 times a minute. Bradycarida is fewer than 60 beats per minute. Depends on age and physical condition. Presentation: near-fainting or fainting, dizzy, fatigure, SOB, chest pain, confusion Assessment: Symptoms and history, EKG, or Holter monitor Plan: Borderline or occasional bradycardia may not require treatment. Change in medications, pacemaker Prognosis: Bradycardia can be treated and cured.</t>
+  </si>
+  <si>
     <t>Diabetic Retinopathy</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Retinal Disorder, 378416000] Complication of diabetes affecting the eyes (usually both eyes), damage to the blood vessels in the retina. Poorly controlled blood sugar is a risk factor. Can develop in anyone who has type 1 or type 2 diabetes.Early diabetic retinopathy — called nonproliferative diabetic retinopathy (NPDR) and Advanced diabetic retinopathy - more severe type, is proliferative diabetic retinopathy (PDR). Presentation: Floaters, blurriness, dark areas of vision, difficulty seeing colors Assessment: dilated eye exam, vision test, Fluorescein angiography, optical coherence tomography (OCT) examPlan: Manage diabetes and blood sugar level. Early - no treatment right away. Advanced - surgical treatment/laser treatment - photocoagulation, Panretinal photocoagulation, Vitrectomy, injecting medicine into the eye (vascular endothelial growth factor (VEGF) inhibitors)Prognosis: Blindness can occur. Diabetes is lifeling condition, so future retinal damage and vision loss are always possible.</t>
+  </si>
+  <si>
+    <t>Myeloproliferative disorder</t>
+  </si>
+  <si>
     <t>Colon cancer</t>
   </si>
   <si>
@@ -1240,13 +1467,25 @@
     <t>Anosmia</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] partial (hyposmia) or complete (anosmia) loss of smell. Presentation: Food tastes bland, possible weight loss, poor nutrition, stuffy nose (common cold or sinusitis). Assessment: self-report; H&amp;P - chronis sinusitis, COVID-19, nasal polyps; University of Pennsylvania Smell Identification Test (UPSIT); Butanol threshold test; CBC, sed rate, LFTs, thyroid profile. Plan: Depends on the etiology; Nasal and paranasal sinus diseases are the most common causes of olfactory abnormalities; Glucocorticoids, antihistamines, and possible surgery. Prognosis: Depends upon etiology - If obstruction, remove the obstruction. No effective treatment for olfactory and taste impairment caused by viral infections and/or head trauma. Can be permanent. Main neurological symptom and one of the earliest and commonly reported indicators of COVID-19</t>
+  </si>
+  <si>
+    <t>Ischemic heart disease</t>
+  </si>
+  <si>
+    <t>Overview: Ischemic heart disease includes acute (unstable), chronic (stable) and acute on chronic (unstable) ischemic heart disease. Chronic coronary syndrome, stable ischemic heart disease, coronary heart disease, coronary artery disease, are terms used to describe a syndrome due to inadequate supply of blood to the myocardium due to obstruction of the epicardial coronary arteries, usually from atherosclerosis (arteriosclerosis is vessel narrowing, hardening. atherosclerosis is a subtype of arteriosclerosis due to cholestrol plaque). This is distinct from Acute Coronary syndrome (acute myocardial infarction and unstable angina). Although a few people in this category may have acute (unstable) disease, the vast majority have a chronic (stable) disease - stable ischemic heart disease. Unless otherwise specified, this phenotype describes individuals with such chronic stable disease. While some may have history of prior myocardial infaction, others may have had silent infarction of heart that was incidentally found. An important subtype is left main coronary artery disease (LMCAD) and is a diagnosis made via coronary arteriography, and maybe suggested based on ECG pattern on stress testing. Left main equivalent disease, defined as severe (≥70 percent) proximal left anterior descending coronary artery and proximal left circumflex disease. Presentation: People with this disease may have Angina pectoris, chest discomfort that occurs predictably and reproducibly at a certain level of exertion and is relieved with rest or nitroglycerin. Many maybe asymptomatic with symptoms only detected in stress testing. Hypertension and hyperlipidemia frequently present. Assessment: extent and severity of coronary disease can be assessed by stress testing, cardiac imaging, and angiography. history or pathologic Q waves on an electrocardiogram, or wall motion abnormalities on echocardiogram may help identify old myocardial infarction. Plan: secure the diagnosis, assess the extent of disease, relieve symptoms, and prevent future cardiac events such as acute coronary syndromes. Risk reduction (control of hypertension, lipids, weight loss, control of diabetes, exercise, antiplatelet therapy), antianginal therapy use of nitrites. Decrease cardiac demands with calcium channel blockers, beta blockers, supportive care. If LMCAD is detected, strong consider revascularization including coronary artery bypass graft. Prognosis: Coronary artery disease can lead to fatal myocardial infarction without adequate management. Most patients with significant LMCAD are symptomatic and are at higher risk of cardiovascular events, without revascularization, three-year survival is as low as 30% - CABG is recommended over PCI (controversial).</t>
+  </si>
+  <si>
+    <t>Inflammatory of disorder of mediastinum</t>
+  </si>
+  <si>
     <t>Inflammation of Central Nervous System</t>
   </si>
   <si>
     <t>Acute respiratory distress syndrome</t>
   </si>
   <si>
-    <t>Overview: Acute respiratory distress syndrome (ARDS) is an acute, diffuse, inflammatory form of lung injury. Presentation: progressive symptoms of dyspnea, increasing oxygen requirement, alveolar infiltrates on chest imaging within 72 hours of symptoms. In addition to respiratory symptoms, symptoms of inciting agent such as sepsis, trauma, smoke inhalation, pneumonia, inflammatory or autoimmune conditions, vasculitis etc. The presence of cardiac failure or fluid overload should not fully explain the symptoms. Assessment: physical exam, chest imaging, rule out cardiac causes (cardio pulmonary edema) with EKG +/- echo, BNP. Look for etiology/inciting agent. Bronchoscopy. Plan: Supportive care with management of hypoxemia with supplemental oxygenation including mechanical ventillation if needed. Sedation and analgesia if needed for ventillation. Hemodynamic monitoring and support. Glucose control. DVT prophylaxis. Infection control and prevention. Identify and remove inciting agent.  Prognosis: in short term may be progressive with complications if inciting agent is not removed. Complications may arise from mechanical ventillation. Delirium of critically ill may occur. In past had high mortality rate of about 50%, but has now declined. In long term, patients may have experience sequela from such complications or tissue injury.</t>
+    <t>Overview: Acute respiratory distress syndrome (ARDS) is an acute, diffuse, inflammatory form of lung injury. Presentation: progressive symptoms of dyspnea, increasing oxygen requirement, alveolar infiltrates on chest imaging within 72 hours of symptoms. In addition to respiratory symptoms, symptoms of inciting agent such as sepsis, trauma, smoke inhalation, pneumonia, inflammatory or autoimmune conditions, vasculitis etc. The presence of cardiac failure or fluid overload should not fully explain the symptoms. Assessment: physical exam, chest imaging, rule out cardiac causes (cardio pulmonary edema) with EKG +/- echo, BNP. Look for etiology/inciting agent. Bronchoscopy. Plan: Supportive care with management of hypoxemia with supplemental oxygenation including mechanical ventillation if needed. Sedation and analgesia if needed for ventillation. Hemodynamic monitoring and support. Glucose control. DVT prophylaxis. Infection control and prevention. Identify and remove inciting agent. Prognosis: in short term may be progressive with complications if inciting agent is not removed. Complications may arise from mechanical ventillation. Delirium of critically ill may occur. In past had high mortality rate of about 50%, but has now declined. In long term, patients may have experience sequela from such complications or tissue injury.</t>
   </si>
   <si>
     <t>create cohorts by cause of ARDS (Direct lung injury vs indirect lung injury)</t>
@@ -1255,7 +1494,7 @@
     <t>Aseptic meningitis</t>
   </si>
   <si>
-    <t>Overview: [Deprecate in favor of Inflammation of Central Nervous System 4190307000] Patient has evidence of meningeal inflammation without evidence of bacterial infections (maybe because of enterovirus, mycobacteria, fungi etc), or non infectious causes such as medicines or malignancies. Presentation: Fever, headache, altered mental status, stiff neck, photophobia similar to bacterial meningitis. Unlike patients with encephalitis, their cerebral function remains normal and is an important distinguishing feature. Meningitis may cause lethargic or distractions by headache, but cerebral function is normal - without altered mental status, motor or sensory deficits, altered behavior and personality changes, and speech or movement disorders. Seizures and postictal states can be seen with meningitis alone and should not be construed as definitive evidence of encephalitis. Assessment: Lumbar puncture (opening pressure, cell differential and count less than 250/microliter, modest elevation in CSF protein, normal CSF glucose, bacterial cultures including syphillis and Lyme, viral (HIV, Varicella, mumps, West Nile, enteroviruses) and fungal studies). If no cause found, consider drug induced meningitis (NSAIDs, IVIG, Bactrim) or malignancy - diagnosis of exclusion. Plan: Supportive care, if patient requires admission often given acyclovir until ruled out of herpesvirus etiology. Antibiotics sometimes used based on patient risk factors. Enteroviruses  is the most common reason for aseptic meningitis. Prognosis: most commonly the disease is self-limited even without specific therapy.</t>
+    <t>Overview: [Deprecate in favor of Inflammation of Central Nervous System 4190307000] Patient has evidence of meningeal inflammation without evidence of bacterial infections (maybe because of enterovirus, mycobacteria, fungi etc), or non infectious causes such as medicines or malignancies. Presentation: Fever, headache, altered mental status, stiff neck, photophobia similar to bacterial meningitis. Unlike patients with encephalitis, their cerebral function remains normal and is an important distinguishing feature. Meningitis may cause lethargic or distractions by headache, but cerebral function is normal - without altered mental status, motor or sensory deficits, altered behavior and personality changes, and speech or movement disorders. Seizures and postictal states can be seen with meningitis alone and should not be construed as definitive evidence of encephalitis. Assessment: Lumbar puncture (opening pressure, cell differential and count less than 250/microliter, modest elevation in CSF protein, normal CSF glucose, bacterial cultures including syphillis and Lyme, viral (HIV, Varicella, mumps, West Nile, enteroviruses) and fungal studies). If no cause found, consider drug induced meningitis (NSAIDs, IVIG, Bactrim) or malignancy - diagnosis of exclusion. Plan: Supportive care, if patient requires admission often given acyclovir until ruled out of herpesvirus etiology. Antibiotics sometimes used based on patient risk factors. Enteroviruses is the most common reason for aseptic meningitis. Prognosis: most commonly the disease is self-limited even without specific therapy.</t>
   </si>
   <si>
     <t>Chronic liver disease</t>
@@ -1267,6 +1506,9 @@
     <t>Fatigue</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Acute fatigue - present less than 1 week, transient fatigue present 1 week to less than 1 month, prolonged fatigue if present 1 month to less than 6 months. Chronic fatigue is present greater than 6 months. A subjective diagnosis for patients greater than or equal to 5 years of age which is a new symptom for which fatigue is the primary complaint, it is not relieved by rest and interferes with an individual's ability to function. Presentation: Difficulty or inability to initiate activity (subjective sense of weakness), reduced capacity to maintain activity (easy fatigability) difficulty with concentration, memory, and emotional stability (mental fatigue) Assessment: Medical causes need to be ruled out -- including excessive daytime sleepiness (sleep disorders including sleep apnea); anemia, infection, cancer, cardiopulmonary disease, substance abuse, psychiatric issues and others. Plan: Correct/treat underlying medical conditions Prognosis: Patients require support for their symptoms, cognitive behavioral therapy can help, exercise can help. Acute fatigue has better Prognosis: than chronic fatigue.</t>
+  </si>
+  <si>
     <t>Paraesthesia</t>
   </si>
   <si>
@@ -1303,6 +1545,9 @@
     <t>Colonic diverticulitis</t>
   </si>
   <si>
+    <t>Overview: [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] The term 'Colonic diverticulitis' would imply 'acute colonic diverticulitis with or without complications'. Diverticulitis is defined as inflammation of a diverticulum. A diverticulum is a sac-like protrusion of the colonic wall. Diverticulosis is defined by the presence of diverticula. Diverticulosis may be asymptomatic or symptomatic. Diverticular disease is defined as clinically significant and symptomatic diverticulosis due to diverticular bleeding, diverticulitis, segmental colitis associated with diverticula, or symptomatic uncomplicated diverticular disease. Diverticulitis is a sub-type of diverticular disease that maybe acute or chronic, uncomplicated or complicated (abscess, fistula, bowel obstruction, perforation). Acute diverticulitis is defined as inflammation, generally considered to be due to microperforation of a diverticulum. Simple or uncomplicated diverticulitis is defined as acute diverticulitis without an associated complication. Complicated diverticulitis is defined as diverticulitis with one of the following associated complications: bowel obstruction, abscess, fistula, or perforation. Diverticular bleeding may be painless hematochezia. Segmental colitis is inflammation in the interdiverticular mucosa without involving diverticular orifice. Symptomatic diverticular disease may have pain without observable inflammation. Presentation: Approximately 4% of diverticulosis develop acute diverticulitis. Presentation depends on the severity of underlying inflammation and complications. Abdominal pain, usually in the left lower quadrant, abdominal tenderness, and elevated white blood cells. Assessment: CT scan often shows thickening of the colon wall, can show abscess (or perforation if present). Plan: If not tolerating PO intake, then admission to hospital, bowel rest, antibiotics, surgical consult. If tolerating PO, oral antibiotics, bland diet. Colonoscopy when the acute event concludes. Prognosis: Good short term, but if multiple attacks may need surgery to excise the affected portion of the colon.</t>
+  </si>
+  <si>
     <t>note - consider cohort definitions for diverticular disease without diverticulitis, diverticular disease with diverticulitis (with complication, without complication), diverticular bleed without diverticulitis</t>
   </si>
   <si>
@@ -1315,6 +1560,9 @@
     <t>Malaise</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A general feeling of discomfort, illness, or lack of well-being. Scores of illnesses or disorders (and medicines) can lead to different degrees of malaisePresentation: Might have fatigue, pain, and a lack of interest in usual activitiesAssessment: Physical exam Plan: Treatment based on exam and tests. Prognosis: Not a disease, need to look for other symptoms to reach a diagnosis.</t>
+  </si>
+  <si>
     <t>Suicidality</t>
   </si>
   <si>
@@ -1330,6 +1578,9 @@
     <t>Guttate psoriasis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Psoriasis, 140168000] This is a sub-type of psoriasis with presentation different from plaque psoriasis. Most patients with new onset of guttate psoriasis have no previous history of psoriasis. Presentation: Guttate psoriasis is characterized by the abrupt (acute) appearance of multiple small, psoriatic papules and plaques, commonly in a child or young adult with no previous history of psoriasis. It occurs less commonly among patients with pre-existing psoriasis. The papules and plaques are usually less than 1 cm in diameter (giving rise to the name "guttate," which means "drop-like"). The trunk and proximal extremities are the primary sites of involvements. There is a strong association between recent infection (usually streptococcal pharyngitis) and guttate psoriasis. Assessment: Diagnosis is by clinical examination. A skin biopsy is occasionally used. Plan: Overlaps with chronic plaque psoriasis such as phototherapy and topical agents. Prognosis: May spontaneously remit, over course of weeks or months. Disease may progress to chronic plaque psoriasis. Disease remission is the most common course.</t>
+  </si>
+  <si>
     <t>Lupus nephritis</t>
   </si>
   <si>
@@ -1369,6 +1620,9 @@
     <t>Degeneration of retina</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Retinal Disorder, 378416000] Retinal degeneration is the deterioration of the retina caused by the progressive death of its cells. Includes: Age-related macular degeneration (AMD), diabetic retinopathy, tear/detachment. Presentation: vision changes or loss, gradual or sudden change in the quality of vision, see floating specks, straight lines appear distorted, blurred vision. Assessment: Self-report, Eye exam, Amsler grid test, Optical coherence tomography (OCT), Fundus autofluorescence (FAF), various angiography tests. Plan: early detection, laser surgery, cryopexy, scleral buckling, vitrectomy, injecting medicine into the eye, retinal prosthesis. Prognosis: No cure, treat to slow it down and prevent severe loss of vision - many times the damage cannot be reversed</t>
+  </si>
+  <si>
     <t>Pulmonary hypertension</t>
   </si>
   <si>
@@ -1381,6 +1635,9 @@
     <t>Microscopic polyangiitis</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of vasculitis, 4137275000] A spectrum of vasculitis associated with ANCA (antineutrophil cytoplasmic autoantibody). Presentation: Typically presents in older adults. Fever, anorexia, weight loss. Also fatigue, fever, weight loss, arthralgias, rhinosinusitis, cough shortness of breath, abnormal urine +/- renal insufficiency, purpura, neurologic dysfunction. Assessment: Biopsy is the gold standard for diagnosis when possible. ANCA+ in serum. CBC may show high platelet count (&gt;400,000/mL), evaluate for viral hepatitis, HIV, urine protein, serum BUN/Cr and glomerular filtration rate. Chest CT for pulmonary symptoms. Plan: If organ threatining (kidney involvement such as glmerulonephritis, pulmonary hemorrhage, progressive neuropathy, pericarditis or myocarditis) - glucocorticoids PUS cyclophosphamide or rituximab. Treatment failure may require plasma exchange. Typically requires maintenance therapy after control of acute episode. Non life threatening disease can be treated with glucocorticoids plus methotrexate. Prognosis: can progress rapidly over days, or slowly over months. Can relapse.</t>
+  </si>
+  <si>
     <t>Preterm birth</t>
   </si>
   <si>
@@ -1402,6 +1659,9 @@
     <t>Mantle cell lymphoma</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] A rare, aggressive type of non-Hodgkin lymphoma (NHL). It develops when B-cells (also called B-lymphocytes) become abnormal. B-cells are white blood cells that fight infection. The abnormal B-cells (lymphoma cells) usually build up in lymph nodes, but they can affect other parts of the body. Presentation: loss of appetite and weight, fever, night sweats, N/V, swollen lymph nodes (neck, armpits, or groin), belly bloating, pressure in the lower back , fatigue. Assessment: physical exam, blood tests, lymph node biopsy, CT scan; distinguished by overexpression of cyclinD1 (a protein that stimulates cell growth). Determine extent of disease. Mantle Cell International Prognostic Index (MIPI). Plan: Chemo, stem cell transplant. Prognosis: Poor prognosis, median survival is about 5- 7 years. Not curable. Relapses are common.</t>
+  </si>
+  <si>
     <t>Malignant neoplasm of anorectum</t>
   </si>
   <si>
@@ -1414,6 +1674,9 @@
     <t>Marginal zone lymphoma</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] (MZL) is a group of indolent (slow growing) NHL B-cell lymphomas, which account for approximately eight percent of all NHL cases. The average age at diagnosis is 60 years, and it is slightly more common in women than in men. Presentation: Assessment: Plan: immunotherapy and chemotherapy. Common initial treatments are bendamustine (Treanda) plus rituximab and R-CHOP (rituximab, cyclophosphamide, doxorubicin, vincristine, and prednisone), Prognosis: depends on the type, the stage and location of the disease, the patient’s age and overall health, and any lymphoma-related signs or symptoms.</t>
+  </si>
+  <si>
     <t>Antineutrophil cytoplasmic antibody positive vasculitis</t>
   </si>
   <si>
@@ -1426,9 +1689,15 @@
     <t>Overview: aka encephalopathy, ICU syndrome, ICU psychosis. Toxic-metabolic encephalopathy (TME) is an acute condition of global cerebral dysfunction without primary structural brain disease that encompasses delirium and acute confusional state. it is thought to be due to organic stress on CNS during critical illness. TME is common among critically ill patients, and is usually a consequence of systemic illness. Alcohol withdrawl syndrome related delirium is not included. Specific subtypes - septic encephalopathy, hepatic encephalopathy, uremic encephalopathy, hyponatremic or hypernatremic encephalopathy, wernicke encephalopathy - confusion, ataxia and opathalmoplegia, hypoxic-ischemic encephalopathy, posst transplanation encephalopathy. Exclude other causes such as alcohol withdrawl, meningitis, encephalitis, brain tumors, nonconvulsive seizures, traumatic brain injury, right hemisphere stroke, etc. Presentation: non specific, but with some combination of confusion and delirium - more common in older individuals. Confusion is inability to maintain a coherent stream of thought or action. Delirium is a confusional state with superimposed hyperactivity of the sympathetic limb of the autonomic nervous system with consequent signs including tremor, tachycardia, diaphoresis, and mydriasis. In TME, level of alertness is an indicator of severity. Assessment: lumbar puncture to exclude meningitis. EEG may show global cerebral dysfunction and exclude subclinical seizures. CT/MRI of brain. Plan: treat the underlying cause. physical restraints if needed. Haloperidol for agitation. Thiamine for history of alcoholism, malnutrition, cancer, renal failure etc. Prognosis: depends on the underlying cause. In rare cases may progress into structural brain damage.</t>
   </si>
   <si>
+    <t>Hypersensitivity condition</t>
+  </si>
+  <si>
     <t>Altered smell or taste</t>
   </si>
   <si>
+    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] subjective symptoms related to smell or taste with high variation. Presentation: For taste - reports may be of diminished (hypogeusia), absent (ageusia), altered (dysgeusia), disturbance (aliageusia) or unpleasant (phanogeusia) in absence of stimuli. Hypogeusia is most common complaint. For smell - hyposmia, ansomia, parosmia or dysosmia. Assessment: search for etiology. Eliminate external causes such as drugs, environment, rule out nutritional and metabolic disorders, nerve damage, psychological. Plan: eliminate the cause. Prognosis: depends on underlying causes. If cause is eliminate, may recover quickly.</t>
+  </si>
+  <si>
     <t>Cardiac arrhythmia</t>
   </si>
   <si>
@@ -1441,296 +1710,20 @@
     <t>Fracture of bone of hip region</t>
   </si>
   <si>
-    <t>Overview: Hip fractures occur when a person breaks the bone between the pelvis and knee and these fractures are known as femoral-neck fractures or intertrochanteric or subtrochanteric fractures. Presentation: With hip fractures patients will often complain of severe hip pain and are unable to walk. The physical examination commonly reveals an abducted and externally rotated hip with leg-length discrepancy. Assessment: Hip fractures are generally done with x-ray but an MRI or bone scan could look for hairline fractures. Plan: Treatment usually involves a combination of surgery, rehabilitation, and medication. The surgical options include internal repair using screws, total hip replacement, and partial hip replacement. Prognosis: A hip fracture is a serious injury with complications that can be life-threatening. Hip fracture has an overall 1-year mortality rate that varies from 14% to 36% among patients aged 65 or above, especially after 5 to 10 years after fracture, and in addition, the survivors have a shorter life expectancy.</t>
+    <t>Overview: Hip fractures occur when a person breaks the bone between the pelvis and knee and these fractures are known as femoral-neck fractures or intertrochanteric or subtrochanteric fractures. Presentation: With hip fractures patients will often complain of severe hip pain and are unable to walk. The physical examination commonly reveals an abducted and externally rotated hip with leg-length discrepancy. Assessment: Hip fractures are generally done with x-ray but an MRI or bone scan could look for hairline fractures. Plan: Treatment usually involves a combination of surgery, rehabilitation, and medication. The surgical options include internal repair using screws, total hip replacement, and partial hip replacement. Prognosis: A hip fracture is a serious injury with complications that can be life-threatening. Hip fracture has an overall 1-year mortality rate that varies from 14% to 36% among patients aged 65 or above, especially after 5 to 10 years after fracture, and in addition, the survivors have a shorter life expectancy.</t>
   </si>
   <si>
     <t>Chronic kidney disease</t>
   </si>
   <si>
     <t>Overview: [depcreated in favor of 4030518000, Renal Impairment] Chronic Kidney Disease (CKD) is a heterogeneous group of common disorders characterized by alterations in kidney structure and function, which a range of severity manifestation that depend on the underlying cause . describes the gradual loss of kidney function with care strategies that range from prevention, early detection, to advanced management like transplant and dialysis. The term "end-stage kidney disease" (ESKD) generally refers to chronic kidney failure treated with either dialysis or transplantation. CKD is defined by the presence of kidney damage or decreased kidney function for three or more months, irrespective of the cause. This persistence of the damage or decreased function for at least three months is necessary to distinguish CKD from acute kidney disease. Kidney damage refers to pathologic abnormalities, whether established via kidney biopsy or imaging studies, or inferred from markers such as urinary sediment abnormalities or increased rates of urinary albumin excretion. Decreased kidney function refers to a decreased glomerular filtration rate (GFR), which is usually estimated (eGFR) using serum creatinine and one of several available equations. History of kidney transplantation even if normal kidney funciton is CKD. Presentation: CKD is usually asymptomatic in its early stages, as symptoms appear in later stages of disease or secondary to complications. The disease is commonly recognized by hormonal and metabolic complications such as anemia and hyperparathyroidism. Symptoms and signs are commonly slowly evolving non-specific features such as fatigue, hypertension, electrolyte imbalances, dyspnea and abnormal heart rhythm. Assessment: For kidney damage (albuminuria, urinary sediments, imaging changes, biopsy findings of glomerular, vascular or tubulointerstial disease, history of kidney transplantation even if normal kidney funciton is CKD). Kidney function - GFR is the best indicator and decling GFR is hallmark of progressive CKD. &lt; 60 mL/min per 1.73 m2 is diagnostics, &lt; 15 mL/min per 1.73 m2 or treatment by dialysis is kidney failure. Evidence of chronicity (with repeat testing) is essential to establish chronicity and rule out acute kidney disease. CKD staging is performed using a combination of kidney damage (albuminuria) and function (GFR), and represent those with more severe disease and thus higher risk for progression and complications. Cause of CKD is essential part of assessment and is an indicator of prognosis. Plan: Is highly varied and depends on the stage and cause of disease. Many early stage may not need a specialist. Prognosis: depends on stage and cause, optimal management can slow down progression with good prognosis.</t>
-  </si>
-  <si>
-    <t>Inflammatory disorder of digestive tract</t>
-  </si>
-  <si>
-    <t>To do</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] This is a chronic, immune/antigen-mediated, esophageal disease characterized clinically by symptoms related to esophageal dysfunction and histologically by eosinophil-predominant inflammation. Presentation: Adults and teenagers frequently present with dysphagia and food impactions. Children may have symptoms of feeding difficulties, gastroesophageal reflux symptoms, and abdominal pain. Dysphagia, food impaction, chest pain that is often centrally located and may not respond to antacids, symptoms of gastroesophageal reflux disease-like symptoms/refractory heartburn along with upper abdominal pain. Assessment: This is a diagnosis of exclusion, by excluding other causes of the symptoms along with upper endoscopy with esophageal biopsies showing histological findings of eosinophilia (eosinophil predominant inflammation on biopsy). Plan: Management involves dietary, pharmacologic and endoscopic interventions – using combination of elimination diets, acid suppression, topical steroids in esophageus, and esophageal dilatation in stricture. Prognosis: untreated patients may have progressive lifelong symptoms, that maybe episodic. Long-term natural history of disease is not established.</t>
-  </si>
-  <si>
-    <t>Overview:  [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] Inflammation that damages the esophagus (mouth to the stomach). Presentation: Painful, difficult swallowing and chest pain with eating. Heartburn, and acid regurgitation. Assessment: Presenting symptoms and history. Esophagitis can be caused by a number of different conditions affecting the digestive system. Tests include: barium xray and endoscopy. Plan: Treatments depend on the cause and severity of damage, can include medications and surgery. Lifestyle changes. Prognosis: Short-term, resolves within days to weeks</t>
-  </si>
-  <si>
-    <t>Overview:  [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] is a disease with recurring episodes of inflammation limited to the mucosal layer of the colon, especially rectum. The key differences compared to Crohn’s disease is continuos fashion involvement starting from rectum. Presentation: pain in colonic area, bloody diarrhoea, tenesmus and urgency. Chronic long-term disease maybe associated with strictures and obstruction. Assessment: Exclude other causes of symptoms such as infectious colitis, tough to differentiate from Crohn’s disease. Plan: Management depends on severity of symptoms, extent of disease, and risk of disease progression. Followup colonoscopy to monitor (colon cancer screening). Mesalamine, glucocorticosteroids, 5-ASA, Prognosis: Lifelong disease with potential for long-term remissions with periodic flares. Complications or disease progression may be associated with narrowing strictures and development of colon cancer.</t>
-  </si>
-  <si>
-    <t>Overview:  [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] Is a disease with transmural inflammation anywhere in GI tract commonly with ulceration, by skip areas of involvement (ie, segments of normal-appearing bowel interrupted by areas of disease). The transmural inflammatory nature of Crohn disease may lead to fibrosis and strictures, leading to narrowing and obstructive clinical presentations. Also common are microperforation related symptoms because of sinus tracts and fistula formation. Crohn disease most commonly involves the ileum and proximal colon; however, any part of the gastrointestinal tract may be affected.Initial presentation: Common presentation are abdominal pain, diarrhea (with or without gross bleeding), fatigue, and weight loss. Assessment: Symptoms (eg, right lower quadrant abdominal pain, chronic intermittent diarrhea, fatigue, weight loss) and laboratory tests (eg, anemia, vitamin B12 deficiency, vitamin D deficiency). The diagnosis is established based results of colonoscopy with biopsy and histo pathologic examination that demonstrates segmental and transmural inflammation of the luminal gastrointestinal tract. Plan: Complex management that involves symptom management, diet management and drug therapy. Disease flares may occur, sometimes needing hospitalization. Prognosis: Life-long condition, with occasional remissions. It can progress to colon cancer.</t>
-  </si>
-  <si>
-    <t>Overview:  [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] Inflammatory bowel disease (IBD) is made up of ulcerative colitis and Crohn disease. The two conditions have significant overlap in clinical and pathologic factors but are different enough to be considered distinct diseases. While, Ulcerative colitis affects the colon, Crohn disease may involve any part of the gastrointestinal tract. Presentation: See Crohns and UC. IBD is combinationAssessment: See Crohns and UC. IBD is combinationPlan: See Crohns and UC. IBD is combination Prognosis: See Crohns and UC. IBD is combination</t>
-  </si>
-  <si>
-    <t>Overview:  [Deprecate in favor of Inflammatory disorder of digestive tract, 4043371000] The term 'Colonic diverticulitis' would imply 'acute colonic diverticulitis with or without complications'. Diverticulitis is defined as inflammation of a diverticulum. A diverticulum is a sac-like protrusion of the colonic wall. Diverticulosis is defined by the presence of diverticula. Diverticulosis may be asymptomatic or symptomatic. Diverticular disease is defined as clinically significant and symptomatic diverticulosis due to diverticular bleeding, diverticulitis, segmental colitis associated with diverticula, or symptomatic uncomplicated diverticular disease. Diverticulitis is a sub-type of diverticular disease that maybe acute or chronic, uncomplicated or complicated (abscess, fistula, bowel obstruction, perforation). Acute diverticulitis is defined as inflammation, generally considered to be due to microperforation of a diverticulum. Simple or uncomplicated diverticulitis is defined as acute diverticulitis without an associated complication. Complicated diverticulitis is defined as diverticulitis with one of the following associated complications: bowel obstruction, abscess, fistula, or perforation. Diverticular bleeding may be painless hematochezia. Segmental colitis is inflammation in the interdiverticular mucosa without involving diverticular orifice. Symptomatic diverticular disease may have pain without observable inflammation. Presentation: Approximately 4% of diverticulosis develop acute diverticulitis. Presentation depends on the severity of underlying inflammation and complications. Abdominal pain, usually in the left lower quadrant, abdominal tenderness, and elevated white blood cells. Assessment: CT scan often shows thickening of the colon wall, can show abscess (or perforation if present). Plan: If not tolerating PO intake, then admission to hospital, bowel rest, antibiotics, surgical consult. If tolerating PO, oral antibiotics, bland diet. Colonoscopy when the acute event concludes. Prognosis: Good short term, but if multiple attacks may need surgery to excise the affected portion of the colon.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of 4137275000 Vasculitis] A spectrum of vasculitis associated with ANCA (antineutrophil cytoplasmic autoantibody). Previously known as Churg-Strauss disease. Presentation: fatigue, fever, weight loss, arthralgias, rhinosinusitis, cough and dyspnea, urinary abnormalities (an active urine sediment) with or without renal insufficiency, purpura, and neurologic dysfunction. Assessment: Nasal or oral inflammation (painful or painless oral ulcers, or purulent or bloody nasal discharge), Abnormal chest radiograph showing nodules, fixed infiltrates, or cavities, Abnormal urinary sediment (microscopic hematuria with or without red cell casts), Granulomatous inflammation on biopsy of an artery or perivascular area. Plan: If organ threatening (kidney involvement such as glmerulonephritis, pulmonary hemorrhage, progressive neuropathy, pericarditis or myocarditis) - glucocorticoids PLUS cyclophosphamide or rituximab. Treatment failure may require plasma exchange. Typically requires maintenance therapy after control of acute episode. Non life threatening disease can be treated with glucocorticoids plus methotrexate. Prognosis: can progress rapidly over days, or slowly over months. Can relapse.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Chronic Coronary Syndrome 4185932000] is a pathological diagnosis of atherosclerotic changes in the coronary blood vessels. Presentation: The prevalence of coronary arteriosclerosis in population is almost 100%, with only a small number of individuals having symptomatic areteriosclerosis (ischemia). Assessment: evaluation is usually done after the first symptom suspected to be due to coronary vascular disease. Plan: risk factor management such as lipid management. Prognosis: may be managed with life style modfication or pharmacological interventions.</t>
-  </si>
-  <si>
-    <t>Overview:  [Deprecated in favor of 4030518000, Renal Impairment] Action myoclonus–renal failure syndrome. Causes episodes of involuntary muscle jerking or twitching (myoclonus) and, often, kidney (renal) disease. A rare form of progressive myoclonus epilepsy associated with severe renal dysfunction. AMRF syndrome is caused by mutations in the SCARB2 gene. This condition is inherited in an autosomal recessive pattern. Presentation: Neurologic symptoms - involuntary rhythmic shaking (tremor) in the fingers and hands; over time, tremors can affect other parts of the body, such as the head, torso, legs, and tongue. Eventually, the tremors worsen to become myoclonic jerks, and precede to renal manisfestations (proteinuria, nephrotic syndrome and end-stage renal disease. Assessment: Genetic testing, EEG, renal functionPlan: Treatment of neurologic manifestations, antiepileptic drugs, genetic counseling, treatment of renal manifestations (dialysis, transplant). Prognosis: Lifelong follow including regular monitoring of antiepileptic drug treatment and renal function. Disease manifestations are usually evident in the late teens or early twenties.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Cerebrovascular disease, 381591000] A brief stroke-like attack that, despite resolving within minutes to hours, still requires immediate medical attention to distinguish from an actual stroke. "Ministroke" - which can be a warning of a future stroke. The blockage (to the brain) is temporary and blood flow returns on its own. Presentation: weakness on one side of the body, vision problems, and slurred speechAssessment: physical exam, carotid ultrasonography, CT, MRI, arteriographyPlan: Determine cause, anti-platelet drugs, anticoagulants, surgery - endarterectomy, carotid angioplasty/stenting  Prognosis: Does not cause permanent damage.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of 4043371000, Inflammatory Disoder of Gastrointestinal tract] Celiac disease is a type of gastrointestinal malabsorption condition associated with abdominal discomfort and diarrhoea, commonly caused by immune reaction to gluten in wheat containing diet.Initial presentation: Most common presentation at diagnosis include chronic or recurrent diarrhea or constipation, malabsorption (bulky, foul-smelling, floating stools due to steatorrhea), unexpected weight loss, abdominal pain, distension, flatulence or bloating. The severity of symptoms appears to correlate with both histologic severity and tissue transglutaminase titers. However, the disease spectrum ranges from no symptoms, relapsing symptoms, to severe debilitating symptoms. Assessment: Clinical judgment using combination of symptoms, prior probability of celiac disease based on clinical scenarios such as (decreases probability): absence of significant chronic diarrhea/steatorrhea or weight loss, absence of family history, being of Chinese, Japanese, or Sub-Saharan African descent. If prior probability is high, then serologic testing and small bowel biopsy may help with establishing diagnosis. Exclude other similar conditions like Irritable bowel syndrome, small intestinal bacterial overgrowth, lactose intolerance, chronic pancreatitis, microscopic colitis, and inflammatory bowel disease. Plan: Diet management (gluten), symptom management. Prognosis: This is a life-long condition, although occasionally remission is possible after prolonger dietary treatment.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of 4043371000, Inflammatory Disoder of Gastrointestinal tract] Inflammation or erosion of the lining of the stomach, acute or chronic Presentation: upper belly pain, N/V, indigestion Assessment: clinical exam and palpation, Upper endoscopy and biopsy, screen for anemia and H. Pylori infection, fecal occult blood test Plan: Depends on the cause. Antacids, proton pump inhibitors, H-2 blockers, antibiotics . B12 shots if caused by pernicious anemia (vit B12 anemia)Prognosis: Improve quickly with treatment and elimination of irritating foods</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Shock 201965000] Septicemia. Caused by the body's response to an infection. The body normally releases chemicals into the bloodstream to fight an infection. Sepsis occurs when the body's response to these chemicals is out of balance, triggering changes that can damage multiple organ systems. Stages = sepsis, severe sepsis, septic shockPresentation: fever (&gt; 101 F), or below 96.8 F; difficulty breathing, low blood pressure, fast heart rate, and mental confusion. damaged organs. Assessment: confirmed infection, abnormal WBC, CXR, CT, ultrasound, MRI; quick sequential organ failure Assessment: (qSOFA)= sepsis criteria (low BP, RR high, &amp; GCS &lt;15)Plan: Antibiotics, IVFs, vasoactive meds, insulin, corticosteroids Prognosis: Life-threatening, can result in death. Many people who survive will recover completely. Depends on the severity and preexisting conditions.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Psoriasis, 140168000] This is a chronic inflammatory condition that is characterized by crops of sterile pustules on the palms and soles. It is considered distinct from Palmoplantar plaque psoriasis, which is plaque psoriasis that primarily involves the palmoplantar area. In palmoplantar plaque psoriasis, there is erythematous, scaly plaques on the palms and/or soles, but pustules are absent. Presentation: Recurrent crops of discrete 1 to 10 mm sterile pustules limited to the palms and/or soles. Erythema, scaling, fissuring, hyperkeratosis, yellow-brown macules are often found in long standing conditions. Assessment: Clinical diagnosis based on key characteristic is the limitation to palms and soles, after elimination of fungal and bacterial infections. Skin biopsy is not necessary. Plan: Skin moisturization, avoidance of irritants along with topical corticosteroids, photochemotherapy that involves oral agent like methoxsalen prior to phototherapy. Prognosis: Lifelong disease with poor quality of life if no resolution.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Psoriasis, 140168000] This is a sub-type of psoriasis with presentation different from plaque psoriasis. Most patients with new onset of guttate psoriasis have no previous history of psoriasis. Presentation: Guttate psoriasis is characterized by the abrupt (acute) appearance of multiple small, psoriatic papules and plaques, commonly in a child or young adult with no previous history of psoriasis. It occurs less commonly among patients with pre-existing psoriasis. The papules and plaques are usually less than 1 cm in diameter (giving rise to the name "guttate," which means "drop-like"). The trunk and proximal extremities are the primary sites of involvements. There is a strong association between recent infection (usually streptococcal pharyngitis) and guttate psoriasis. Assessment: Diagnosis is by clinical examination. A skin biopsy is occasionally used. Plan: Overlaps with chronic plaque psoriasis such as phototherapy and topical agents. Prognosis: May spontaneously remit, over course of weeks or months. Disease may progress to chronic plaque psoriasis. Disease remission is the most common course.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate epilepsy in favor of seizure, 377091000] A central nervous system (neurological) disorder in which brain activity becomes abnormal, causing seizures or periods of unusual behavior, sensations, and sometimes loss of awareness. At least two unprovoked seizures are generally required for an epilepsy diagnosis. Epilepsy is characterized by unpredictable seizures and can cause other health problems. Presentation: Seizure symptoms include - temporary confusion, straring spell, uncontrollable jerking movements of the arms and legs, loss of consciousness or awareness. Seizures are classified as focal/partial or general (seizure involve all areas of hte brain, types are absence, tonic, atonic, clonic, myoclonic, and tonic-clonic seizures) Assessment: Neurological exam, Electroencephalogram (EEG), CT Scan, MRI, Positron emission tomography (PET), Single-photon emission computerized tomography (SPECT), neuropsychological tests Plan: anti-epileptic medication, brain surgery (if meds do not work,remove the area of the brain where the seizure originates)Prognosis: May require lifelong treatment to control seizures, but for others, the seizures eventually go away. Some children with epilepsy may outgrow the condition with age.</t>
-  </si>
-  <si>
-    <t>Overview: Autoimmune condition that causes skin changes and muscle weakness (idiopathic inflammatory myopathy). Unknown cause. Presentation: Red skin rash around the eyelids, red bumps around the joints (Gottron papules), arm and leg muscle weakness, joint pain. Assessment: Clinical exam, blood analysis - creatine kinase (CK) and lactic dehydrogenase (LDH), autoantibodies; skin or muscle biopsy, Electromyography (EMG), MRI to scan muscles. Plan: Manage symptoms - corticosteroids, immunosuppressants, physical therapy, and exercise. Prognosis: Symptom improvement. Chronic - can last for years or be lifelong. Muscle weakness gets worse over time and leads to stiff joints and muscle wasting.</t>
-  </si>
-  <si>
-    <t>Overview: Urinary Tract Infection (UTI). An infection in any part of the urinary system, the kidneys, bladder, or urethra. Occurs when bacteria enters the urinary tract through the urethra and begin to multiply in the bladder. Presentation: strong urge to urinate, burning sensation when urinating, cloudy/can be red/pink urine, urinary frequency, pelvic pain in women. (depends too on whihc part of the urinary tract is infected - acute pyelonephritis, cyctitis, urethritis). Assessment: Urinalysis, urine culture, if frequent infections or abnormality in urinary tract = ultrasound, CT, MRI, or cystoscopy. Plan: Antibiotics, analgesics (relieve burning) Prognosis: Symptoms clear up within a few days of treatment</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Shock, 201965000] Sudden, unexpected loss of heart function, breathing, and consciousnessPresentation: loss of consciousness and unresponsiveness, collapse, no pulse, no breathing Assessment: Physical exam - unresponsive, no pulse. If survive - determine the cause Plan: Medical emergency, CPR and defibrillation; if survival - beta blockers, (ACE) inhibitors, Implantable cardioverter-defibrillator (ICD), Coronary angioplasty/surgery, Radiofrequency catheter ablation, or heart surgery Prognosis: If not treated immediately, sudden cardiac arrest can lead to death</t>
-  </si>
-  <si>
-    <t>Overview:[Deprecated in favor of chronic coronary syndrome, 4185932000] (angina, stable or unstable, prinzmetal, microvascular) chest pain or discomfort due to coronary heart disease/attributable to myocardial ischemia. Presentation: Classic angina pectoris is described as a pressure, heaviness, tightness, or constriction in the center or left of the chest that is precipitated by exertion and relieved by rest. Can also present: neck or jaw pain, SOB, nausea, diaphoresis, or fatigue. Assessment: H&amp;P - characteristics of the discomfort, precipitating factors, social &amp; family history; tachycardia, elevated BP, new/changes in heart sounds. various types of chest pain - pleuritic pain, pain radiating into the lower extremities. EKG, (ST-segment depression), CXR, cardiac biomarkers (troponin), Echo, nuclear stress test, Coronary Angiography and Cardiac Catheterization. Plan: lifestyle changes, nitrates, aspirin, clot-preventing drugs, beta blockers, statins, calcium channel blockers, ACE inhibitors or ARBs; angioplasty, stents, CABG Prognosis: Unstable angina is a medical emergency, adverse outcomes are unstable angina, MI, and sudden death</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Reinal Disorder, 378416000] An emergency when the retina pulls away from supportive tissue at the back of the eye. Many causes but most often related to aging or eye injury. A torn retina usually has the same symptoms as a detached retina. Detachment types: rhematogenous (most common), tractional, and exudative. Presentation: Sudden appearance of floaters and flashes of light (vision), loss of peripheral vision, darkened or a "curtain" over vision Assessment: Dilated eye exam, self-report, ultrasound or optical coherence tomography (OCT) eye scanPlan: Laser surgery, freezing treatment (cryopexy) , or other types of surgery Prognosis: Medical emergency. Prompt medical treatment can often save vision in the eye but can cause permanent vision loss.</t>
-  </si>
-  <si>
-    <t>Overview: Buildup of amyloid proteins in the heart, kidneys, liver, spleen, nervous system, and digestive tract. Amyloid is not normally found in the body. Presentation: Depends on which organs are affected. Swelling, fatigue and weakness, shortness of breath, and numbness, tingling, or pain in the hands or feet. Assessment: Varies as depends on the organs affected. Blood and urine tests looking for abnormal proteins, biopsy (looking for amyloid deposit), echocardiogram, MRI, nuclear imaging. Plan: Depending on the type of amyloidosis, medications, chemotherapy, or a stem-cell transplant, dialysis, organ transplant. Prognosis: No cure for amyloidosis. Some varieties may lead to life-threatening organ failure. Early diagnosis can help prevent further organ damage.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of renal impairment, 4030518000] Kidney injury caused by damage to the kidney tubule cells (kidney cells that reabsorb fluid and minerals from urine as it forms). Common causes are low blood flow to the kidneys (such as caused by low blood pressure), drugs that damage the kidneys, and severe bodywide infections. Can lead to acute kidney failure. Presentation: Can have no symptoms. Kidney injury severe - dehydration, excessive thirst, low urine output, swelling, fluid retention, N/V, confusion, drowsyAssessment: Blood and urine tests. blood urea nitrogen (BUN), creatinine, and electrolyte levels Plan: Treatment is directed at the cause - stopping drugs that are damaging the kidneys, giving IVFs to raise blood pressure, and giving antibiotics to treat infection. Dietary restrictions. Diuretics, and potassium-controlling drugs. Dialysis may be needed. Prognosis: Outcome depends on correction of the disorder that caused ATN. Responds rapidly to treatment, kidney function usually returns to normal in 1 to 3 weeks. May progress to chronic kidney disease</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Cardiac Arrythmia, 44784217000] Afib is a quivering or irregular heartbeat (arrhythmia) that can lead to blood clots, stroke, heart failure and other heart-related complications, poor blood flow. Presentation: Can have no symptoms, or can have palpitations, SOB, fatigue, very irregular and rapid heart rate - episodes come and go or develop Afib that does not go away Assessment:ECG (dx Afib), holter monitor, echo, r/o thyroid issues, stress test and CXR Plan: anti-arrhythmic meds, digoxin, beta blockers, calcium channel blockers, anticouagulants, cardioversion, ablation Prognosis: Chronic, serious condition but usually not life-threatening, can have a normal and active life if treated</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Cardiac Arrythmia, 44784217000] (VT) is a fast, abnormal heart rate. It starts in the heart’s lower chambers, called the ventricles. VT is defined as 3 or more heartbeats in a row, at a rate of more than 100 beats a minute. May last for only a few seconds or for a longer period of time. Presentation: fast heart beat, palpitations, dizzy, chest pain, neck tightness, SOB, can present with sudden cardiac arrest Assessment: EKG, can be dx during a stress test Plan: beta-blocker or antiarrhythmic. For VT that is sustained or life-threatening, an implantable cardiac defibrillator (ICD), catheter ablation. For sustained VT - defibrillator, or cardioversion  Prognosis: May have mild symptoms, or no symptoms at all. But for others, VT can be very dangerous. It can lead to sudden cardiac arrest and death.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Death, 4306655000] Death of a newborn between 1 day and 4 weeks after birth. This applies to full term infants -- preterm infants that are born prior to viability have slightly different criteria for timing Presentation: Live birth of a term or otherwise viable infant followed by cessation of breathing, heartbeat, and brain function within 28 days. Absence of pupillary response to light, absenceof motor response to pain. 5 minutes of respiratory arrest. Assessment: If event does not result in sudden death, evaluate for infection, evaluate for cardiopulmonary defects or dysfunction. Plan: If underlying cause found, treat. Prognosis: Fatal.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of vasculitis, 4137275000] A spectrum of vasculitis associated with ANCA (antineutrophil cytoplasmic autoantibody). Presentation: Typically presents in older adults. Fever, anorexia, weight loss. Also fatigue, fever, weight loss, arthralgias, rhinosinusitis, cough shortness of breath, abnormal urine +/- renal insufficiency, purpura, neurologic dysfunction. Assessment: Biopsy is the gold standard for diagnosis when possible. ANCA+ in serum. CBC may show high platelet count (&gt;400,000/mL), evaluate for viral hepatitis, HIV, urine protein, serum BUN/Cr and glomerular filtration rate. Chest CT for pulmonary symptoms. Plan: If organ threatining (kidney involvement such as glmerulonephritis, pulmonary hemorrhage, progressive neuropathy, pericarditis or myocarditis) - glucocorticoids PUS cyclophosphamide or rituximab. Treatment failure may require plasma exchange. Typically requires maintenance therapy after control of acute episode. Non life threatening disease can be treated with glucocorticoids plus methotrexate. Prognosis: can progress rapidly over days, or slowly over months. Can relapse.</t>
-  </si>
-  <si>
-    <t>Myeloproliferative disorder</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Myeloproliferative disorder, 4175485000] Rare blood cancer, a form of chronic leukemia were bone marrow is replaced by fibrous scar tissue losing its ability to produce normal blood cells. Primary (occurs on its own) or Secondary (as the result of a separate disease)Presentation: anemia, pale, enlarged spleen, portal HTN, nigt sweats, fever, itching, frequent infections, blood clots, bone or joint pain, bruising, and extramedullary hematopoiesis. Assessment: Clinical exam, CBC (elevated WBC and platelets and lower RBCs), Elevated levels of uric acid, bilirubin, and lactic dehydrogenase; gene mutation analysis - JAK2, CALR, or MPL mutation, bone marrow aspiration &amp; biopsy, ultrasound (enlarged spleen), Myeloproliferative Neoplasm-Symptom Assessment Form Total Symptom Score (MPN-SAF TSS). Plan: multikinase inhibitor (ruxolitinib), glucocorticoids, androgens, immunomodulators, chmoe and blood transfusions, if needed splenectomy or radiation therapy; allogenic hematopoietic stem cell transplantation (HSCT) is a potential cure. Prognosis: Serious &amp; progressive disease, can progress to acute myeloid leukemia (AML); many factors to eval for Prognosis: - International Prognosis: scoring system (IPSS)</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Myeloproliferative disorder, 4175485000]  (MDS). Disease maybe part of the spectrum of acute myeloid leukemia (AML) but with lower percentage of blast cells in peripheral blood and bone marrow (by definition &lt; 20%). It is a group of hematologic malignancies characterized by clonal hematopoesis of one or more cell lines leading to anemia, neutropenia or thrombocytopenia. Presentation: high variability but depends on underlying cell line impacted. Cytopenia related fatigure, infections, or asymptomatic. Assessment: Suspected in all patients with symptoms of anemia, infections, or bleeding/bruising.. Complete blood count/smear, bone marrow examination, iron statining to detect ring sideroblasts. Diagnosis is based on pathological examination along with cytogentic. Plan: Treat the symptomatic anemia, thrombocytopenia, recurrent infections. Rx with granulocyte CSF and granulocyte-macrophage CSF may be beneficial in somePrognosis: Chronic disease where progression to bone marrow failure has poor prognosis.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Myeloproliferative disorder, 4175485000] is a group of agressive blood cancers that arise from bone marrow that results in production of abnormal myeloblasts (an excess of immature white blood cells), red blood cells, or platelets. Different types of AML. Presentation: Early signs and symptoms of AML may be like the flu - fever, SOB, easy bruising or bleeding, petechiae, weakness, feeling tired, weight oass and loss of appetiteAssessment: History and physical, CBC (abnormal), peripheral blood smear, bone marrow aspiration &amp; biopsy, cytogenetic analysis, immunophenotyping, and reverse transcription-polymerase chain reaction (RT-PCR) Plan: Depends on AML subtype, and whether the leukemia has spread outside the blood and bone marrow. Treatment can include: chemo, radiation, chemo w/ stem cell transplant, and other anticancer drugs Prognosis: Depends on age, AML subtype, co-morbidities, initial dx or recurrent. With current treatment regimens, 65%–70% of people with AML reach a complete remission.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Retinal Disorder, 378416000] Complication of diabetes affecting the eyes (usually both eyes), damage to the blood vessels in the retina. Poorly controlled blood sugar is a risk factor. Can develop in anyone who has type 1 or type 2 diabetes.Early diabetic retinopathy — called nonproliferative diabetic retinopathy (NPDR) and Advanced diabetic retinopathy - more severe type, is proliferative diabetic retinopathy (PDR). Presentation: Floaters, blurriness, dark areas of vision, difficulty seeing colors Assessment: dilated eye exam, vision test, Fluorescein angiography, optical coherence tomography (OCT) examPlan: Manage diabetes and blood sugar level. Early - no treatment right away. Advanced - surgical treatment/laser treatment - photocoagulation, Panretinal photocoagulation, Vitrectomy, injecting medicine into the eye (vascular endothelial growth factor (VEGF) inhibitors)Prognosis: Blindness can occur. Diabetes is lifeling condition, so future retinal damage and vision loss are always possible.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Retinal Disorder, 378416000] Retinal degeneration is the deterioration of the retina caused by the progressive death of its cells. Includes: Age-related macular degeneration (AMD), diabetic retinopathy, tear/detachment. Presentation: vision changes or loss, gradual or sudden change in the quality of vision, see floating specks, straight lines appear distorted, blurred vision. Assessment: Self-report, Eye exam, Amsler grid test,  Optical coherence tomography (OCT), Fundus autofluorescence (FAF), various angiography tests. Plan: early detection, laser surgery, cryopexy,  scleral buckling, vitrectomy, injecting medicine into the eye, retinal prosthesis. Prognosis: No cure, treat to slow it down and prevent severe loss of vision - many times the damage cannot be reversed</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Retinal Disorder, 378416000] (AMD) is an eye disease that can blur the sharp, central vision needed for activities like reading and driving. “Age-related” means that it often happens in older people. “Macular” means it affects the macula (a part of your eye). Macular degeneration (wears down) causes loss in the center of the field of vision. Another form of macular degeneration, called Stargardt disease or juvenile macular degeneration, affects children and young adults. Presentation: Blurred vision is most common. Visual: partial loss of vision, abnormality where straight lines appear wavy, blurred vision, distorted vision, inability to see in dim light, or seeing spots, and new and abnormal blood vesselsAssessment: Routine eye exam, Amsler grid eye test, angiography (specifically OCT - looking at blood vessels in the retina)Plan: Combination of vitamins and minerals (AREDS formula) may reduce disease progression. Surgery may also be an option. Prognosis: Chronic: can last for years or be lifelong. There is no cure, treatment slows the disease and can prevent severe loss of vision.</t>
-  </si>
-  <si>
-    <t>Malignant lymphoma</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] A type of cancer that forms in B cells (a type of immune system cell). Most B-cell lymphomas are non-Hodgkin lymphomas. There are many different types of B-cell non-Hodgkin lymphomas. These include Burkitt lymphoma, chronic lymphocytic leukemia/small lymphocytic lymphoma (CLL/SLL), diffuse large B-cell lymphoma, follicular lymphoma, and mantle cell lymphoma. Presentation: One of the most common symptoms associated with lymphoma is the presence of swollen lymph nodes, also known as lymphadenopathy. The enlarged nodes do not cause pain but may be uncomfortable and felt beneath the skin, particularly in the neck and armpits. Other symptoms include night sweats or fevers, unexplained weight loss, or a lack of appetite. In more severe cases, patients experience difficulty breathing, pain and distention, and fatigue. Assessment: A biopsy is the only way to diagnose non-Hodgkin lymphoma. This involves taking a sample of cells using a small needle. Plan: The most common treatments to address B-cell lymphoma are radiation therapy, particularly in early stages and to respond to eventual complications; curative and palliative chemotherapy; and biologic therapy. However, the treatment is usually personalized to both the stage of the disease and the type of lymphoma. Prognosis: The overall five-year relative survival rate for non-Hodgkin’s lymphoma is 70 percent. This varies a lot according to the type of B-cell lymphoma and stage at diagnosis. Some types of B-cell lymphomas can be cured. Treatment can slow progression in others.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] Cancer that starts in the lymphatic system. Occurs when the body produces too many abnormal lymphocytes, a type of white blood cell. Most types of NHL are categorized as either B-cell lymphoma or T-cell lymphoma. NHL is more common than Hodgkin’s lymphoma. Lymphoma refers to a malignancy of the lymphatic system. Presentation: Abdominal pain or swelling, chest pain, painless/swollen lymph nodes, coughing, fatigue, fever, weight loss, night sweats Assessment: Physical exams to check the size and condition of lymph nodes and enlarged liver or spleen. lymph node biopsy, bone marrow biopsy and aspiration, and imaging Plan: Treatment can wait until the disease progresses. Biologics, chemotherapy, radiation, stem cell transplant, radioimmunotherapy Prognosis: The subtype of NHL predicts the necessity of early treatment, the response to treatment, the type of treatment required, and the prognosis.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] is the most common subtype of Non-hodgkins lymphoma, but may have wide variations. Presentation: painless peripheral adenopathy in the cervical, axillary, inguinal, and/or femoral regions that may increase and decrease spontaneously. Most patients are asymptomatic despite widespread disease. Occassionally there may be night sweats. Assessment: excisional biopsy confirms diagnosis. Bone marrow Assessment: and imaging is needed to determine extent of disease. Plan: Most patients only need close followup. Treatment options include chemotherapy (Bendamustine plus rituximab, RCHOP) or immunotherapy alone (rituximab)Prognosis: very good 10 year survival except in rare agressive subtypes. Some patients may go into spontaneous remissions.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] A rare, aggressive type of non-Hodgkin lymphoma (NHL). It develops when B-cells (also called B-lymphocytes) become abnormal. B-cells are white blood cells that fight infection. The abnormal B-cells (lymphoma cells) usually build up in lymph nodes, but they can affect other parts of the body. Presentation: loss of appetite and weight, fever, night sweats, N/V, swollen lymph nodes (neck, armpits, or groin), belly bloating, pressure in the lower back , fatigue. Assessment: physical exam, blood tests, lymph node biopsy, CT scan; distinguished by overexpression of cyclinD1 (a protein that stimulates cell growth). Determine extent of disease. Mantle Cell International Prognostic Index (MIPI). Plan: Chemo, stem cell transplant. Prognosis: Poor prognosis, median survival is about 5- 7  years. Not curable. Relapses are common.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Malignant Lymphoma, 432571000] (MZL) is a group of indolent (slow growing) NHL B-cell lymphomas, which account for approximately eight percent of all NHL cases. The average age at diagnosis is 60 years, and it is slightly more common in women than in men. Presentation: Assessment: Plan: immunotherapy and chemotherapy. Common initial treatments are bendamustine (Treanda) plus rituximab and R-CHOP (rituximab, cyclophosphamide, doxorubicin, vincristine, and prednisone), Prognosis: depends on the type, the stage and location of the disease, the patient’s age and overall health, and any lymphoma-related signs or symptoms.</t>
-  </si>
-  <si>
-    <t>Diabetes Mellitus</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] one of the two main serious acute complications of diabetes mellitus. DKA is an anion gap metabolic acidosis that is managed commonly in critical care unit as a medical emergency. See more in Type 1 diabetes. Presentation: frequent urination, extreme thirst, high blood sugar levels and high urine ketones; N/V, fruity-smelling breath. comma at presentation is common, altered mental status. Assessment: level of consciousness and alertness, anion gap, blood glucose, potassium and sodium, ABG, CXR to look for infection (like pneumonia)Plan: fluid replacement/hydration, insulin, potassium and electrolye correction, maintain blood pressurePrognosis: usually recovers in a few days with discharge from intensive care unit. Long term diabetes management is critical to prevent relapse.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] Type 1 diabetes mellitus (T1DM), is one of the most common chronic diseases in childhood and is caused by insulin deficiency following (auto-antibody mediated) destruction of the insulin-producing pancreatic beta cells. Type 1 accounts for about 80% of Diabetes Mellitus in childhood and about 25% of adults. Its incidence varies by geography, age, gender, family history and ethnicity - and is associated with both genetic and environmental risk factors. A chronic condition in which the pancreas produces little or no insulin to control blood sugar levels. T1 was previously called insulin-dependent diabetes or juvenile diabetes.  T1a (85% - have detectable autoantibodies for pancreatic beta cells), T1b (no detectable autoantibodies, for pancreatic beta cells). Presentation: Hyperglycemia without acidosis is the most common presentation of childhood T1DM in most populations - with polyuria, polydipsia and weight loss detected in ambulatory settings. Diabetic Ketoacidosis (DKA, hyperglycemia and ketoacidosis) is second most common presentation - but severe symptoms compared to those without acidosis. Bed-wetting in kids who previously did not wet the bed. Some may be silent. Assessment: First step establish DM diagnosis using any one of glycated hemoglobin (A1C) &gt;= 6.5, fasting plasma glucose &gt;= 126, random venous plasma glucose &gt;= 200, oral gluocse tt &gt;= 200. ). There is no set of criteria or diagnostic test can consistently distinguish between T1 and T2 - but may be based on a combination of body habitus (T2 - obese), age (T1- younger), insulin resistance (T2 - acanthosis nigricans), Antibodies (T1 - pancreatic islet-specific pancreatic autoantibodies), high fasting insulin (in T2) and C-peptides (in T2). Plan: diabetes education, blood sugar monitoring, insulin therapy, diet, and exercise. Age based care - challenging with young children. Prognosis: Careful management leads to risk reduction.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] Type 2 DM accounts for 90% of all DM, and the generic use of Diabetes Mellitus almost always refers to Type 2.It is hyperglycemia and related complications usually due to progressive loss of insulin secretion from the pancreatic beta cells with background of insulin resistance. It is a state of 'relative' insulin deficiency - where insulin even when present may be less effective due to resistance. Presentation: The classic symptoms of hyperglycemia (including polyuria, polydipsia, nocturia, blurred vision, and weight loss) but these are most commonly observered in retrospect with most common mode of diagnosis is screening in asymptomatic patients, or seeking emergency care for hyperosmolar hyperglycemic state without ketoacidosis. Assessment: Oral glucose tolerance test and HbA1c, fasting blood glucose, lipid, liver function testsPlan: Initial management is achieve normoglycemic state with lifestyle modification - weight, diet. Metformin is commonly recommended first line, but treatment choices vary with presence of other risk factors. Progression may lead to dependence on insulin. Prognosis: life long disease that is amenable and managed</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate in favor of Diabetes Mellitus, 20182000] blood sugar levels become high during pregnancy. Presentation: thirsty, hungrier, urinary frequency; can have excess weight gain; can have no symptoms. Assessment:Usually happens in the second half of pregnancy (24 - 28 wks). glucose challenge or glucose screening test. Plan: Women with class A1 can manage it through diet and exercise. Those who have class A2 need to take insulin or other medications. Blood sugar monitoring. Lifestyle changes, diet. Prognosis: Gestational diabetes goes away after you give birth. Higher risk of developing type 2 diabetes later in life.</t>
-  </si>
-  <si>
-    <t>Clinical Signs and Symptoms</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Musculoskeletal or neurological pain in the neck. Neck pain can have causes that aren't due to underlying disease. Presentation: Neck muscle tightness or spasms; decreased ability to move neck. Maybe associated with headache, neck tenderness, muscle weakness or numbness. Assessment: History and physical exam, imaging tests, electromyography (EMG for pinched nerve). Plan: Pain relivers, muscle relaxants, tricyclic antidepressants; physical therpay, Transcutaneous electrical nerve stimulation (TENS), short-term immobilization; corticosteroid injections, or surgery (if compression) Prognosis: Improves gradually with treatment. Seek immediate care if severe neck pain results from an injury, such as a motor vehicle accident, diving accident or fall.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Swallowing difficulties, can range from mild difficulty to complete and painful blockage. Presentation: Coughing or chocking when eating or drinking, briging food back up or through the nose, drooling, frequent heatburn, gagging, aspiration pneumonia Assessment: History and physical, barium x-ray, swallowing study, endoscopy, manometry - more common in older adults. People with certain neurological or nervous system disorders are more likely to experience difficulty swallowing. Plan: Early detection and treatment of the identified causePrognosis: Sometimes the cause cannot be identified. Dependent on the cause of dysphagia and frequency.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A queasy sensation including an urge to vomit, and can occur without vomiting. Retching differs from vomiting in the absence of expulsion of gastric content. Patients may confuse vomiting with regurgitation, which is the return of esophageal contents to the hypopharynx with little effort.  Many causes of nausea - gastric rhythm disturbance is a peripheral mechanism underlying nausea from various causes. Common causes - drugs like opiod and cannabis, side effect of chemotherapy, gastrointestinal organic etiology e.g. cholelithiasis, bowel obstruction, gastroparesis, gastrointestinal bleeding. Neurologic etiology such as vestibular neuritis with vertigo, headache. Hormonal etiology such as in pregnancy. Infectious like gastroenteritis. Presentation: Uncomfortable, bothersome, disabling feeling in the chest, upper abdomen, or back of the throat. Assessment: Self-report.  Plan: Depends on the cause. Resting, eating bland foods, and avoiding strong stimuli to reduce nausea. OTC motion sickness medication may also help. Hydration. Drugs like metoclopramide, ondansetron, prochlorperazine, domperidone, erythromycin and droperidol. Prognosis: Usually acute and short-lived, but can be prolonged. If experience nausea in combination with other symptoms that may require medical attention.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Constipation is presence for atleast 3 months of straining, lumpy hard stools, sensation of incomplete evacuation, use of digital maneuvers, sensation of anorectal obstruction or blockage. It is a deviation from normal stooling pattern which has variable definition based on persons age. Presentation: Commonly self reported, and associated with abdominal pain, bloating and discomfort. Assessment: Rule out organic causes. Constipation is most commonly functional in nature. Can be medication-induced constipation (from opioids, NSAIDs, iron supplements, etc) Plan: Education, biofeedback, drinking more fluids, high-fiber foods, stool softeners and laxatives. Prognosis: Acute and treatable using stool softeners and laxatives.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Physical discomfort where two or more bones meet to form a joint, ranging from mild to disabling. Many different conditions can lead to joint pain, including osteoarthritis, rheumatoid arthritis, bursitis, gout, strains, sprains, and other injuries. Joint pain is extremely common. Knee pain most common complaint. Presentation: limited or decreased mobility, pain or tenderness upon palpation Assessment: Self-report, physical exam, x-rays to rule-out injury and to identify arthritis-related joint damage. Screen for certain autoimmune disorders. Sedimentation rate test to measure the level of inflammation in the body or a complete blood count (CBC). Plan: Medication - nonsteroidal anti-inflammatory drug (NSAID) such as aspirin, ibuprofen, or naproxen sodium, physical therapy, or alternative treatments. Tylenol, opioids, muscle relaxants, or antidepressants and antiepileptic drugs (interfere with pain signals)Prognosis: Depends on the cause. Early detection and diagnosis can allow for effective treatment of the underlying cause of discomfort.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A condition in which the skin, whites of the eyes and mucous membranes turn yellow because of a high level of bilirubin. Jaundice may occur if the liver cannot process RBCs as they break down. Normal in healthy newborns (neonatal jaundice) and usually clears on its own. At other ages, it may signal infection or liver disease. Types: Hepatocellular jaundice, Hemolytic jaundice, and Obstructive jaundice. Presentation: (Adult jaundice) - caused by infection then can see fever, chills, abdominal pain, flu-like ymptoms, change in skin color, dark urine and/or clay-colored stool. Can also have wgt loss and pruritus; signs of liver disease (bruising, spide angiomas, palmar erythema) Assessment: UA (positive for bilirubin), CBC and bilirubin levels, ultrasound and CT, liver exam and biopsy Plan: Jaundice usually does not require treatment in adults, but treat the underlying cause Prognosis: As underlying condition goes away or improves, jaundice goes away.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A common, painful condition affecting the lower portion of the spine. Acute back pain comes on suddenly, often after an injury from sports or heavy lifting. Pain that lasts more than three months is considered chronic. Presentation: Dull ache to a stabbing or shooting sensation, hard to move or stand up straight, leg numbness or pins/needles Assessment: Self-report of pain, bone scan, discography, electrogiagnostics (EMG, evoked potential studies), imaging studiesPlan: Physical therpay and pain relievers - Nonsteroidal anti-inflammatory, analgesics, muscle relaxants, narcotics; topical pain relief; acupuncture, masssage; maybe spinal injections or surgery, implanted verve stimulators Prognosis: Favorable prognosis, most cases recover within a short period of time; but can have chronic low back pain</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Loose, watery stools that occur more frequently than usual. Diarrhea is usually caused by a virus or, sometimes, contaminated food. Less frequently, it can be a sign of another disorder, such as inflammatory bowel disease or irritable bowel syndrome. Presentation: Frequent, loose, watery stools and belly pain. Plan: Replacing lost fluids with an oral rehydration solution (ORS) may help prevent dehydration. Over-the-counter antidiarrheal drugs such as Pepto-Bismol and Kaopectate may help. Prognosis: Most cases clear on their own. Some infections may need antibiotics. Severe cases can cause enough dehydration to require intravenous fluids.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Cough is commonly classified by duration with acute cough lasting &lt; 3 weeks, sub-acute (3 to 8 weeks), chronic (&gt; 8 weeks). Cough is the result of irritation to cough receptors that are triggered by chemical/mechanical stimuli and are present in many areas in the body including pericardium, diaphragm, stomach. Presentation: Cough is a common manifestation of several conditions. Acute cough may be a symptom of an infection, while the chronic cough may be because of gastroesophageal reflux disease, asthma, drugs like ACE inhibitors, chronic bronchitis, eosinophilc bronchitis, lung cancer, smoking etc. Assessment: History is most important for diagnosis to understand the duration and inciting factors of the cough. Assessment: depends on the underlying suspected cause. Plan: Specific treatment is to identify and treat the underlying disease. Non specific treatment includes centrally acting antitussive agents like dextromethorphan, codeine, morphine. Prognosis: Good, if eliciting agent may be identified and eliminated.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Commonly classified into acute vs chronic - although there is no established definition to differentiate the two. Abdominal pain that is new in onset in past few days and may still be accelerating is generally considered acute. Presentation: pain is described by position, chronology (onset, duration, frequency), severity (scale 1 to 10), aggravating and reliving factors. Assement: If acute abdomen a determination needs to be made if this is an emergency (unstable vital signs, signs of peritonitis or perforation). Localized pain that is considered non urgent may have different management based on location e.g. right upper quadrant is investigated for liver/gall bladder disease, while epi gastric area pain is managed for gastritis/ulcer. Ultrasound of the abdomen or CT abdomen as needed. Plan: Depends on the underlying etiology. Prognosis: Abdominal pain is most commonly benign and self-limited.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Subjective feeling of difficultly or labored breathing, maybe acute new onset, or chronic long standing. Commonly caused because of respiratory causes, but maybe secondary to cardiovascular (Congestive heart failure) or neuromuscular/obstruction. Presentation: Labored breathing of varying duration and exacerbated by activity. Maybe associated with panic, anxiety and airhunger. Assessment: Determine if acute or chronice, if cardiovascular or pulmonary or other reasons. Plan: Ensure adequate oxygenation, and manage hypercapnia. Specific management depends on cause. Prognosis: Acute dyspnea is commonly resolved after correcting the inciting cause. Chronic disease during lung or cardiovacscular disease may recur, relapse or worsen based on underlying disease.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A weakness of voluntary movement. Can be unilateral or bilateral, localized or generalized. Presentation: Acute or insidious onset of weakness of voluntary movement. Double vision. Assessment: Brain, spinal cord imaging by MRI or CT scan, history of tick bites, physical exam with hypo or hyperreflexic deep tendon reflexes, restricted range of motion of eye muscles, evaluate for poisoning if history indicates, potassium, glucose, calcium, magnesium, phosphate levels, cbc, blood cultures, ECG, TSH. Plan: Treat underlying cause, if found. In some cases physical therapy helpful. Prognosis: Depends upon cause of paresis.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] one of the most common medical condition, but in about 90% of cases it is either migraine, tension-type (most common), and cluster headache. The generic term headache would be used to describe these three sub-types of headache. Presentation: Migraine is recurrent attacks, often unilateral, throbbing/pulsatile quality often accompanied by nausea, vomiting, photophobia. Tension-type headache - bilateteral, nonthrobbing headache without other associated features. Cluster headache - severe unilateral headaches accompanied by autonmic phenomena like congestion, edema, sweating, miosis. Secondary headaches are special cases of headache due to underlying cause such as systemic disorder (acute hypertension, meningitis) or neurological (increased intracranial pressure). The common use of term headache, should not include secondary headache. Assessment: rule out serious underlying pathology and secondary causes such as meningitis, trauma, etc. all may suggest need for CT scan of head. Look for red-flags. Photophobia, Incapcitiy and Nausea are screening for migraine. Plan: Acute or headaches because of secondary causes should involve management of underlying etiology (not part of this phenotype). Migraine headache management is to reduce frequency of symptoms/attacks. Simple analgesics NSAIDS. Triptans, muscle relaxants, antihistamine (cocktail)Prognosis: varible - may go into remission</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Edema is palpable swelling produced by expansion of the interstitial fluid volume. Massive edema is sometime called anasarca. Although the term edema is broad and includes peripheral edema, pulmonary edema, ascites, and other forms of edema, which include lymphedema, nonpitting edema, and periorbital and scrotal edema - this phenotype is limited to peripheral edema. Presentation: Peripheral edema commonly occurs in gravity dependent areas like legs and buttocks. Edema may be pitting or nonpitting; with pitting edema being more common. Pitting edema is defined by the presence of tissue depression after pressure is applied to the edematous area for at least five seconds. Assessment: Peripheral edema is rarely life threatening by itself compared to pulmonary edema. The cause of peripheral edema maybe identified with detail history and whether the edema is localized or generalized. Plan: Treat the cause where possible. Diuretic may be used for some types of generalized retention edema (e.g. congestive heart failure, cirrhosis)Prognosis: depends on underlying cause. Chronic peripheral edema may lead to fibrosis in tissue.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Pain that is ongoing and usually lasts longer than six months, persistent pain signals in the nervous system. Chronic pain linked to headaches, arthritis, cancer, nerve pain, back pain, and fibromyalgia pain, past injuries Presentation: tense muscles, limited ability to move around, a lack of energy, appetite changes. Emotional effects of chronic pain include depression, anger, anxiety, sleep distrubance Assessment: self-diagnosable - dull ache, throbbing, stiffness, throbbing; no labs or images (except for acute injury leading to acute pain) Plan: Pain specialist when needed - medicine, physical therapy, acupuncture, local electrical stimulation, relaxation therapiesPrognosis: Very common, can be helped if the cause of pain is understood, chronic pain can persist for years</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Hyposmia or microsmia, is a reduced ability to smell and to detect odors. hyposmia, is one of the non-motor symptoms of Parkinson’s disease. Anosmia is no odors can be detected. COVID-19 has presented sudden hyposmia as a most prominent disease manifestation. Presentation: Self-report of sense of smell changes Assessment: Physical exam, history, scratch-and-sniff tests, endoscopy Plan: Medication, surgery, determine underlying cause Prognosis: Hyposmia that is due to a seasonal allergy or a cold usually improves without treatment. If a person loses their sense of smell after a head injury or a significant inflammatory injury to the olfactory system, a complete recovery may not be possible. Many lose sense of smell with age.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Insomnia is a common sleep disorder in which a person has trouble falling and/or staying asleep. Insomnia can be acute or chronic in nature. Presentation: Having trouble getting to sleep or staying asleep more than 3 nights a week for 3 months is considered chronic, compromised daytime function, fatigue/malaise, behavior problems (hyperactivity, impulsivity, aggression)Assessment: Self-reported based on sleep history, sleep diary, behavioral or adjustment issues presentPlan: Insomnia may be addressed with cognitive behavioral therapy (CBT) prior to medications which can be used in conjunction with CBT such as benzodiazepine receptor agonists (BZRAs, including benzodiazepines and nonbenzodiazepine BZRAs, or "z drugs"), sedating antidepressants, melatonin agonists, orexin receptor antagonists, and antipsychotics. Prognosis: Insomnia can be resolved to healthy sleep patterns if success is achieved with medication and/or CBT</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Unexpected/unanticipated loss of blood, commonly above anticipated. Presentation: Blood coming out of a body part that is not physiological. Plan: Monitor and treat hemodynamic instability. Stop the bleeding, by tracing the cause. Bleeding into body cavities (e.g. abdomen is harder to manage. Prognosis: Depends on site and cause. In the presence of coagulpathy and/or hemodynamic instability, may lead to death.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Body temperature is regulated by hypothalamus with normal range between 36.5 to 37.5C with rectal temperature slightly higher. Fever is elevation of body temperature above normal variations with temperature above 38.3C accepted to high enough is most cases. It is caused due to change in hypothalamic set point. Hyperthermia may occur without change in hypothalamic set point - so not all hyperthermia is fever e.g. heat stroke is not fever. Presenation: May be accompanied by chills, rigors/shivering because of increased heat production from muscles. Assessment: exclude hyperthermia. Check for infections, toxins. Plan: treat the cause. Symptoms may be managed with antipyretics. Prognosis: most are short lived, with identifiable or suspected etiology. Rarely may be fever of unknown origin.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Loss of voluntary movement. Can be unilateral or bilateral, localized or generalized. Presentation: Acute or insidious onset of complete loss of voluntary movement. Double vision. Assessment: Brain, spinal cord imaging by MRI or CT scan, history of tick bites, physical exam with hypo or hyperreflexic deep tendon reflexes, restricted range of motion of eye muscles, evaluate for poisoning if history indicates, potassium, glucose, calcium, magnesium, phosphate levels, cbc, blood cultures, ECG, TSH. Lumbar puncture. Plan: Treat underlying cause, if found. In some cases physical therapy helpful. Prognosis: Depends upon cause of paralysis</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Forcefully expelling the stomach's contents out of the mouth. Vomiting can have causes that aren't due to underlying disease.Emesis is vomiting. Presentation: self-reported: nausea, retching and vomiting, cold sweat, pallor, salivation Assessment: Nauseous, stomachache, time plus onset, CBC (dehydration), electrolytes, CXR and Abdominal xray (for obstruction), drug levels Plan: Depends on the underlying cause. Drinking plenty of water and sports drinks containing electrolytes can help prevent dehydration. Antiemetics, antacids, anti-anxiety (if related to an anxiety condition)Prognosis: Common symptom of many conditions. Vomiting can be concerning if showing signs of severe dehydration, or it accompanies chest pain, sudden and severe abdominal pain, a high fever, or a stiff neck. (sequelae - aspiration, Mallory Weiss syndrome, boerhaave's syndrome, hypovolemia, electrolyte imbalance)</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A feeling of fear or apprehension about what's to come that are strong enough to interfere with daily activities. Examples of anxiety disorders include panic attacks, obsessive-compulsive disorder, and post-traumatic stress disorder. Presentation: Stress that's out of proportion to the impact of the event, inability to set aside a worry, and restlessness. increased heart rate, fast breathing, and trouble concentrating or sleeping Assessment: Diagnosis requires a lengthy process of physical examinations, mental health evaluations, and psychological questionnairesPlan: Psychotherapy and medication (antidepressants and sedatives), lifestyle changes Prognosis: Anxiety may not go away, but can be managed and live a healthy, happy life</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Muscle pain. Soreness and achiness in the muscles that can range from mild to severe and present with many diseases (also see fibromyalgia, polymyalgia). Muscle pain is a possible symptom of COVID-19Presentation: Pain in a local area, or more widespread, joint or muscle pain, tired and weak Assessment: Clinical examination, self-diagnosis, xray (if injury); if prolonged - then lab studies (selective testing)Plan: Rest area with pain, OTC pain relivers, ice/heat, stretching, massage Prognosis: Depends on the underlying cause</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] heart beat more than 100 times per minute (more than normal due to conditions unrelated to normal physiological stress). Types: atrial fib, atrial flutter, SVT, V tach, V fibPresentation: SOB, fsat heart rate, palpitations, chest pain, syncopeAssessment: EKG, Holter, Electrophysiological test, cardiac imaging, stress test, tilt table test, Plan: slow the heart rate down - vagal maneuvers, anti-arrhythmic, cardioversion, catheter ablation, pacemaker, ICD, heart surgeryPrognosis: Treating the underlying problem may prevent or minimize tachycardia episodes.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Slower than normal heart rate. Adults at rest usually beat between 60 and 100 times a minute. Bradycarida is fewer than 60 beats per minute. Depends on age and physical condition. Presentation: near-fainting or fainting, dizzy, fatigure, SOB, chest pain, confusion Assessment: Symptoms and history, EKG, or Holter monitor Plan: Borderline or occasional bradycardia may not require treatment. Change in medications, pacemaker Prognosis: Bradycardia can be treated and cured.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] partial (hyposmia) or complete (anosmia) loss of smell. Presentation: Food tastes bland, possible weight loss, poor nutrition, stuffy nose (common cold or sinusitis). Assessment: self-report; H&amp;P - chronis sinusitis, COVID-19, nasal polyps; University of Pennsylvania Smell Identification Test (UPSIT); Butanol threshold test; CBC, sed rate, LFTs, thyroid profile. Plan: Depends on the etiology; Nasal and paranasal sinus diseases are the most common causes of olfactory abnormalities; Glucocorticoids, antihistamines, and possible surgery. Prognosis: Depends upon etiology - If obstruction, remove the obstruction. No effective treatment for olfactory and taste impairment caused by viral infections and/or head trauma. Can be permanent. Main neurological symptom and one of the earliest and commonly reported indicators of COVID-19</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] Acute fatigue - present less than 1 week, transient fatigue present 1 week to less than 1 month, prolonged fatigue if present 1 month to less than 6 months. Chronic fatigue is present greater than 6 months. A subjective diagnosis for patients greater than or equal to 5 years of age which is a new symptom for which fatigue is the primary complaint, it is not relieved by rest and interferes with an individual's ability to function. Presentation: Difficulty or inability to initiate activity (subjective sense of weakness), reduced capacity to maintain activity (easy fatigability) difficulty with concentration, memory, and emotional stability (mental fatigue) Assessment: Medical causes need to be ruled out -- including excessive daytime sleepiness (sleep disorders including sleep apnea); anemia, infection, cancer, cardiopulmonary disease, substance abuse, psychiatric issues and others. Plan: Correct/treat underlying medical conditions Prognosis: Patients require support for their symptoms, cognitive behavioral therapy can help, exercise can help. Acute fatigue has better Prognosis: than chronic fatigue.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] A general feeling of discomfort, illness, or lack of well-being. Scores of illnesses or disorders (and medicines) can lead to different degrees of malaisePresentation: Might have fatigue, pain, and a lack of interest in usual activitiesAssessment: Physical exam Plan: Treatment based on exam and tests. Prognosis: Not a disease, need to look for other symptoms to reach a diagnosis.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of Clinical Signs and Symptoms 4094294000] subjective symptoms related to smell or taste with high variation. Presentation: For taste - reports may be of diminished (hypogeusia), absent (ageusia), altered (dysgeusia), disturbance (aliageusia) or unpleasant (phanogeusia) in absence of stimuli. Hypogeusia is most common complaint. For smell - hyposmia, ansomia, parosmia or dysosmia. Assessment: search for etiology. Eliminate external causes such as drugs, environment, rule out nutritional and metabolic disorders, nerve damage, psychological. Plan: eliminate the cause. Prognosis: depends on underlying causes. If cause is eliminate, may recover quickly.</t>
-  </si>
-  <si>
-    <t>Hypersensitivity condition</t>
-  </si>
-  <si>
-    <t>Ischemic heart disease</t>
-  </si>
-  <si>
-    <t>Overview: Ischemic heart disease includes acute (unstable), chronic (stable) and acute on chronic (unstable) ischemic heart disease. Chronic coronary syndrome, stable ischemic heart disease, coronary heart disease, coronary artery disease, are terms used to describe a syndrome due to inadequate supply of blood to the myocardium due to obstruction of the epicardial coronary arteries, usually from atherosclerosis (arteriosclerosis is vessel narrowing, hardening. atherosclerosis is a subtype of arteriosclerosis due to cholestrol plaque). This is distinct from Acute Coronary syndrome (acute myocardial infarction and unstable angina). Although a few people in this category may have acute (unstable) disease, the vast majority have a chronic (stable) disease - stable ischemic heart disease. Unless otherwise specified, this phenotype describes individuals with such chronic stable disease. While some may have history of prior myocardial infaction, others may have had silent infarction of heart that was incidentally found. An important subtype is left main coronary artery disease (LMCAD) and is a diagnosis made via coronary arteriography, and maybe suggested based on ECG pattern on stress testing. Left main equivalent disease, defined as severe (≥70 percent) proximal left anterior descending coronary artery and proximal left circumflex disease. Presentation: People with this disease may have Angina pectoris, chest discomfort that occurs predictably and reproducibly at a certain level of exertion and is relieved with rest or nitroglycerin. Many maybe asymptomatic with symptoms only detected in stress testing. Hypertension and hyperlipidemia frequently present. Assessment: extent and severity of coronary disease can be assessed by stress testing, cardiac imaging, and angiography. history or pathologic Q waves on an electrocardiogram, or wall motion abnormalities on echocardiogram may help identify old myocardial infarction. Plan:  secure the diagnosis, assess the extent of disease, relieve symptoms, and prevent future cardiac events such as acute coronary syndromes. Risk reduction (control of hypertension, lipids, weight loss, control of diabetes, exercise, antiplatelet therapy), antianginal therapy use of nitrites. Decrease cardiac demands with calcium channel blockers, beta blockers, supportive care. If LMCAD is detected, strong consider revascularization including coronary artery bypass graft. Prognosis: Coronary artery disease can lead to fatal myocardial infarction without adequate management. Most patients with significant LMCAD are symptomatic and are at higher risk of cardiovascular events, without revascularization, three-year survival is as low as 30% - CABG is recommended over PCI (controversial).</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate in favor of ischemic heart disease, 4185932000] Medical emergency, anoxic tissue injury to myocardium because of decreased blood suppy due to blockage of coronary blood vessels. Presentation: Tightness or pain in the chest, neck, back, or arms, shortness of breath, sweating, N/V as well as fatigue, lightheadedness, abnormal heartbeat, and anxiety. Assessment: Risk factors (HTN, high chol levels, diabetes, obesity, smoking, age, family hx), EKG, troponin (looking for heart damage), stress test, angiogram, and echocardiogramPlan: Immediate priority of thrombolysis and/or reperfusion of the myocardium. Blood thinner (aspirin), thrombolytics, antiplatelet, nitroglycerin, beta-blockers, ACE inhibitors. Cardiac stents or CABG Prognosis: Recovery from a heart attack depends on how much heart damage occurs and and how quickly emergency care is received. New events may occur in future. After recovery from the acute event, patient may develop chronic symptoms of myocardial injury including congestive heart failure.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate in favor of hypersensitity disorder, 43021226000] Chronic (long-term) condition that causes the airways in the lungs to become inflamed and narrow (mild-moderate-severe)Presentation: Symptoms vary from person to person and changes over time, SOB, chest tighness, wheezing when exhaling, coughing, asthma attacks brought on by a triggger (exercise, occupational irritants, allergies) Assessment: History and physical, spirometry, and peak flows Plan: Bronchodilator, inhaled corticosteroids, allergy medicines (prevention of asthma attacks) Prognosis: Cannot be cured, but its symptoms can be controlled. Sever asthma attacks can be life-threatening.</t>
-  </si>
-  <si>
-    <t>Overview: A potentially serious sleep disorder in which breathing repeatedly stops and starts. Involuntary cessation of breathing that occurs while asleep. Presentation: snoring loudly and feeling tired even after a full night's sleep, dry mouth, insomnia, irritability. Assessment: sleep history, overnight monitoring at a sleep center (Nocturnal polysomnography)Plan: lifestyle changes, Continuous positive airway pressure (CPAP), oral appliances (keeping the throat open), surgery. Prognosis: Can be diagnosed and treated.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate in favor of Disorder of cellular component 443723000] low platelet count = Thrombocytopenia. Fewer than 150,000 platelets per microliter. Platelets stop bleeding by clumping and forming plugs in blood vessel injuries. Presentation: Thrombocytopenia is associated with varying  risks of bleeding, thrombosis, and other potential complications - but are most often asymptomatic. Risks are dependent on absolute platelet count and underlying disease that lead to thrombocytopenia. Excessive bruising (purpura), prolonged bleeding from cuts, gum or nose bleeding, blood in urine or stools. Assessment: There is no 'safe' platelet count and range of normal is broad. CBC, including platelets, physical exam for spleen enlargement. Plan: Depends on cause and severity. Blood or platelet transfusions, corticosteroids, surgery (remove spleen, splenectomy). Prognosis: Treated early and effectively - leads to better outcomes.</t>
-  </si>
-  <si>
-    <t>Disorder of cellular component of blood (anemia, pancytopenia, leukopenia, thrombocytopenia)</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate and delete] Heart conditions that include diseased vessels, structural problems, and blood clot. Coronary heart disease (most common), arrhythmia, and myocardial infarction are some examples of heart disease. Also - congenital heart disease, dilated cardiomyopathy, heart faliure, Hypertrophic cardiomyopathy, mitral regurgitation, mitral valve prolapse, and pulmonary stenosis. Presentation: Common symptoms include chest pain, breathlessness, and heart palpitations. Nauseas, fatigue - may not have any symptoms until you have a heart attack, angina, stroke, or heart failure. Assessment: Physical exam, EKG, holter monitoring, echocardiogram, stress test, cardia catheterization, CT, CXR, MRIPlan: Medication (ACE inhibitors and ARBs (angiotensin II receptor blockers), surgery (angioplasty, coronary artery bypass surgery, surgery for heart valve repair, pacemakers), lifestyle changesPrognosis: One in every four deaths in the U.S. occurs as a result of heart disease. Most forms of heart disease are very treatable today.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecated in favor of arthropathy, 73553000] Ankylosing spondylitis is a type of seronegative spondyloarthritis (arthritis - inflammation of joint, spondylo - central bones i.e. vertebra). It is called seronegative because it is negative for Rheumatoid Factor (i.e. rheumatoid arthritis). Seronegative spondyloarthritis also includes manifestations of psoriatic arthritis, reactive arthritis, IBD associated arthritis.Initial presentation: Gradually worsening chronic back pain in sacroiliac and apophyseal joints of spine, that are most commonly reported at night &lt;40 y/o, that improves with hot water/exercise/NSAIDS, but not relieved by rest. Assessment: There is no diagnostic test. Diagnosis is based on clinical judgment and elimination of other causes of spondyloarthritis. Best made by Rheumatologist. Commonly patients are confirmed to be negative for Rheumatoid factor and other autoantibodies. They are also tested for HLA-B27 because of a strong association. Plan: Symptom control: Physical therapy, NSAIDS, intraarticular corticosteroids, DMARDS. Slowing disease progression: anti-TNFs - adalimumab or infliximab; anti-IL17A (secukinumab, ixekizumab); Curative treatment: does not exist. Prognosis: This is a considered a life-long progressive debilitating illness, that may be slowed with certain treatments.</t>
-  </si>
-  <si>
-    <t>Inflammatory of disorder of mediastinum</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate in favor of Inflammatory disorder of mediastinum 4189294000] Inflammatory disease of the myocardium (heart muscle) due to infectious or non infectious (autoimmune disease, drug hypersensitivity, toxins). Acute myocarditis is a condition with symptoms of heart failure developing over three months or less. Chronic myocarditis is myocarditis developing over greater than three months. Inflammatory cardiomyopathy is defined as myocarditis that is accompanied by cardiac dysfunction, and may lead to dilated cardiomyopathy or other cardiomyopathies. Presentation: Chest pain, fatigue, heart failure, cardiogenic shock, arrhythmias, sudden death. Assessment: ECG, CBC (to evaluate for eosinophilic myocarditis), serum troponin, BNP or pro BNP, chest X ray, cardiac imaging (echocardiogram, angiogram, MRI). As last resort biopsy of the heart muscle. Plan: Treat underlying cause (antibiotics for bacterial infection, withdrawal of toxins) management of heart failure if present, critical care as appropriate, treatment of arrhythmias, anticoagulation if needed. Prognosis: Variable, from self-limited to death.</t>
-  </si>
-  <si>
-    <t>Overview: [Deprecate in favor of Inflammatory disorder of mediastinum 4189294000] Inflammation of the pericardial fibroelastic sac - classified into five subtypes, Acute and recurrent pericarditis, Pericardial effusion without major hemodynamic compromise, Cardiac tamponade with hemodynamic compromise, Constrictive pericarditis, Effusive-constrictive pericarditis. If myocardial inflammation is also present  then the term myopericarditis or perimyocarditis is used. Presentation: Sharp chest pain improved by sitting up and leaning forward. If pericardiatis is due to infection, fever may be present. Assessment: Auscultation for pericardial friction rub; ECG showing widespread ST elevations, chest x ray, cardiac markers (troponin) elevation, pericardiocentesis/pericardial biopsy, CBC, sed rate, CRP, echocardiography. Blood cultures for fever, rheumatology workup in young women. Plan: NSAIDs (nonsteroidal anti-inflammatory drugs) with colchicine or aspirin. If this treatment fails, further workup needed to rule out atypical forms of pericarditis including tuberculosis, cancer, and inflammatory disease. Most low risk patients may be managed in ambulatory settings, high risk patients need to be hospitalized. High risk features include fever, sub-acute onset, hemodynamic compromise/cardiac tamponade, immunosuppression, on anticoagulant therapy, acute trauma, elevated cardiac enzymes. Prognosis: Patients with acute idiopathic or viral pericarditis have a good long-term prognosis - typically self-limited over 2 weeks with NSAID treatment resulting in good long-term prognosis. Cardiac tamponade rarely occurs in patients with acute idiopathic pericarditis and is more common in patients with a specific underlying etiology such as malignancy, tuberculosis, or purulent pericarditis. Constrictive pericarditis may occur in approximately 1 percent of patients with acute idiopathic pericarditis and is also more common in patients with a specific etiology.</t>
-  </si>
-  <si>
-    <t>Autism spectrum disorder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1865,26 +1858,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF24292E"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2064,12 +2039,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2231,16 +2200,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2564,22 +2525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="146.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2597,7 +2545,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -2610,7 +2558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24134000</v>
       </c>
@@ -2626,14 +2574,14 @@
       <c r="E2">
         <v>24134</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>523</v>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24609000</v>
       </c>
@@ -2644,16 +2592,16 @@
         <v>24609000</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>24609</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>27918000</v>
       </c>
@@ -2664,19 +2612,19 @@
         <v>27918000</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>27918</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>476</v>
+      <c r="F4" t="s">
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30753000</v>
       </c>
@@ -2687,19 +2635,19 @@
         <v>30753000</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>30753</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>477</v>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31317000</v>
       </c>
@@ -2709,20 +2657,20 @@
       <c r="C6">
         <v>31317000</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
       <c r="E6">
         <v>31317</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>524</v>
+      <c r="F6" t="s">
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31967000</v>
       </c>
@@ -2732,20 +2680,20 @@
       <c r="C7">
         <v>31967000</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
       <c r="E7">
         <v>31967</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>525</v>
+      <c r="F7" t="s">
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>37436000</v>
       </c>
@@ -2756,13 +2704,13 @@
         <v>37436000</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>374360</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
+      <c r="F8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2776,19 +2724,19 @@
         <v>73553000</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>73553</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>287</v>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>75860000</v>
       </c>
@@ -2799,19 +2747,19 @@
         <v>75860000</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>75860</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>526</v>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>76685000</v>
       </c>
@@ -2822,19 +2770,19 @@
         <v>76685000</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>76685</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
+      <c r="F11" t="s">
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>77074000</v>
       </c>
@@ -2845,22 +2793,22 @@
         <v>77074000</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>77074</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>527</v>
+      <c r="F12" t="s">
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80180000</v>
       </c>
@@ -2871,19 +2819,19 @@
         <v>80180000</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>80180</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
+      <c r="F13" t="s">
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>80182000</v>
       </c>
@@ -2894,16 +2842,16 @@
         <v>80182000</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>80182</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>80204000</v>
       </c>
@@ -2913,17 +2861,17 @@
       <c r="C15">
         <v>80204000</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
+      <c r="D15" t="s">
+        <v>38</v>
       </c>
       <c r="E15">
         <v>80204</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>80502000</v>
       </c>
@@ -2934,16 +2882,16 @@
         <v>80502000</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>80502</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80809000</v>
       </c>
@@ -2954,19 +2902,19 @@
         <v>80809000</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>80809</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
+      <c r="F17" t="s">
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>81893000</v>
       </c>
@@ -2977,19 +2925,19 @@
         <v>81893000</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>81893</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>478</v>
+      <c r="F18" t="s">
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>81902000</v>
       </c>
@@ -3000,16 +2948,16 @@
         <v>81902000</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>81902</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>81931000</v>
       </c>
@@ -3020,19 +2968,19 @@
         <v>81931000</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>81931</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>37</v>
+      <c r="F20" t="s">
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>132702000</v>
       </c>
@@ -3043,16 +2991,16 @@
         <v>132702000</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>132702</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>132703000</v>
       </c>
@@ -3063,16 +3011,16 @@
         <v>132703000</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>132703</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>132797000</v>
       </c>
@@ -3083,19 +3031,19 @@
         <v>132797000</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>132797</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>489</v>
+      <c r="F23" t="s">
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>133169000</v>
       </c>
@@ -3106,19 +3054,19 @@
         <v>133169000</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>133169</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>505</v>
+      <c r="F24" t="s">
+        <v>57</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>133444000</v>
       </c>
@@ -3129,16 +3077,16 @@
         <v>133444000</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E25">
         <v>133444</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>133834000</v>
       </c>
@@ -3148,20 +3096,20 @@
       <c r="C26">
         <v>133834000</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
+      <c r="D26" t="s">
+        <v>60</v>
       </c>
       <c r="E26">
         <v>133834</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>47</v>
+      <c r="F26" t="s">
+        <v>61</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>134442000</v>
       </c>
@@ -3172,16 +3120,16 @@
         <v>134442000</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>134442</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>136774000</v>
       </c>
@@ -3191,17 +3139,17 @@
       <c r="C28">
         <v>136774000</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>50</v>
+      <c r="D28" t="s">
+        <v>64</v>
       </c>
       <c r="E28">
         <v>136774</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>137977000</v>
       </c>
@@ -3212,19 +3160,19 @@
         <v>137977000</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E29">
         <v>137977</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>528</v>
+      <c r="F29" t="s">
+        <v>67</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>138379000</v>
       </c>
@@ -3235,16 +3183,16 @@
         <v>138379000</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E30">
         <v>138379</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>138502000</v>
       </c>
@@ -3255,16 +3203,16 @@
         <v>138502000</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>138502</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>138994000</v>
       </c>
@@ -3275,19 +3223,19 @@
         <v>138994000</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E32">
         <v>138994</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>506</v>
+      <c r="F32" t="s">
+        <v>73</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>139803000</v>
       </c>
@@ -3298,19 +3246,19 @@
         <v>139803000</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>139803</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>59</v>
+      <c r="F33" t="s">
+        <v>75</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>139899000</v>
       </c>
@@ -3321,16 +3269,16 @@
         <v>139899000</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E34">
         <v>139899</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>140168000</v>
       </c>
@@ -3340,17 +3288,17 @@
       <c r="C35">
         <v>140168000</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>62</v>
+      <c r="D35" t="s">
+        <v>78</v>
       </c>
       <c r="E35">
         <v>140168</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>140352000</v>
       </c>
@@ -3361,19 +3309,19 @@
         <v>140352000</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>140352</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>507</v>
+      <c r="F36" t="s">
+        <v>81</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>140673000</v>
       </c>
@@ -3384,16 +3332,16 @@
         <v>140673000</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>140673</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>141232000</v>
       </c>
@@ -3404,16 +3352,16 @@
         <v>141232000</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E38">
         <v>141232</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>141456000</v>
       </c>
@@ -3424,16 +3372,16 @@
         <v>141456000</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E39">
         <v>141456</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>141933000</v>
       </c>
@@ -3444,16 +3392,16 @@
         <v>141933000</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E40">
         <v>141933</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>192359000</v>
       </c>
@@ -3464,19 +3412,19 @@
         <v>192359000</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E41">
         <v>192359</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>484</v>
+      <c r="F41" t="s">
+        <v>91</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>192671000</v>
       </c>
@@ -3487,16 +3435,16 @@
         <v>192671000</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E42">
         <v>192671</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>192675000</v>
       </c>
@@ -3507,16 +3455,16 @@
         <v>192675000</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E43">
         <v>192675</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>193782000</v>
       </c>
@@ -3527,19 +3475,19 @@
         <v>193782000</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E44">
         <v>193782</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>79</v>
+      <c r="F44" t="s">
+        <v>97</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>194133000</v>
       </c>
@@ -3550,19 +3498,19 @@
         <v>194133000</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E45">
         <v>194133</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>529</v>
+      <c r="F45" t="s">
+        <v>99</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>194702000</v>
       </c>
@@ -3573,16 +3521,16 @@
         <v>194702000</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E46">
         <v>194702</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>194992000</v>
       </c>
@@ -3592,20 +3540,20 @@
       <c r="C47">
         <v>194992000</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>83</v>
+      <c r="D47" t="s">
+        <v>102</v>
       </c>
       <c r="E47">
         <v>194992</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>486</v>
+      <c r="F47" t="s">
+        <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>196523000</v>
       </c>
@@ -3616,19 +3564,19 @@
         <v>196523000</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E48">
         <v>196523</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>530</v>
+      <c r="F48" t="s">
+        <v>105</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>197320000</v>
       </c>
@@ -3639,19 +3587,19 @@
         <v>197320000</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E49">
         <v>197320</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>86</v>
+      <c r="F49" t="s">
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>197494000</v>
       </c>
@@ -3662,19 +3610,19 @@
         <v>197494000</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E50">
         <v>197494</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>88</v>
+      <c r="F50" t="s">
+        <v>109</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>197508000</v>
       </c>
@@ -3685,16 +3633,16 @@
         <v>197508000</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E51">
         <v>197508</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>198571000</v>
       </c>
@@ -3705,22 +3653,22 @@
         <v>198571000</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E52">
         <v>198571</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>92</v>
+      <c r="F52" t="s">
+        <v>113</v>
       </c>
       <c r="H52" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>198984000</v>
       </c>
@@ -3731,16 +3679,16 @@
         <v>198984000</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E53">
         <v>198984</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>198985000</v>
       </c>
@@ -3751,16 +3699,16 @@
         <v>198985000</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E54">
         <v>198985</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>199074000</v>
       </c>
@@ -3771,16 +3719,16 @@
         <v>199074000</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E55">
         <v>199074</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>200219000</v>
       </c>
@@ -3791,19 +3739,19 @@
         <v>200219000</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E56">
         <v>200219</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>532</v>
+      <c r="F56" t="s">
+        <v>122</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>200762000</v>
       </c>
@@ -3814,19 +3762,19 @@
         <v>200762000</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E57">
         <v>200762</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>102</v>
+      <c r="F57" t="s">
+        <v>124</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201214000</v>
       </c>
@@ -3837,22 +3785,22 @@
         <v>201214000</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E58">
         <v>201214</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>104</v>
+      <c r="F58" t="s">
+        <v>126</v>
       </c>
       <c r="H58" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201254000</v>
       </c>
@@ -3863,19 +3811,19 @@
         <v>201254000</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E59">
         <v>201254</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>519</v>
+      <c r="F59" t="s">
+        <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201340000</v>
       </c>
@@ -3885,20 +3833,20 @@
       <c r="C60">
         <v>201340000</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>106</v>
+      <c r="D60" t="s">
+        <v>129</v>
       </c>
       <c r="E60">
         <v>201340</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>487</v>
+      <c r="F60" t="s">
+        <v>130</v>
       </c>
       <c r="I60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>201606000</v>
       </c>
@@ -3909,19 +3857,19 @@
         <v>201606000</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="E61">
         <v>201606</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>479</v>
+      <c r="F61" t="s">
+        <v>132</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>201620000</v>
       </c>
@@ -3932,13 +3880,13 @@
         <v>201620000</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E62">
         <v>201620</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>109</v>
+      <c r="F62" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3949,19 +3897,19 @@
         <v>201820000</v>
       </c>
       <c r="D63" t="s">
-        <v>517</v>
+        <v>135</v>
       </c>
       <c r="E63">
         <v>201820</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>287</v>
+      <c r="F63" t="s">
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>201826000</v>
       </c>
@@ -3972,19 +3920,19 @@
         <v>201826000</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E64">
         <v>201826</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>520</v>
+      <c r="F64" t="s">
+        <v>137</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>201965000</v>
       </c>
@@ -3995,19 +3943,19 @@
         <v>201965000</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E65">
         <v>201965</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>112</v>
+      <c r="F65" t="s">
+        <v>139</v>
       </c>
       <c r="H65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>254443000</v>
       </c>
@@ -4018,16 +3966,16 @@
         <v>254443000</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E66">
         <v>254443</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>254761000</v>
       </c>
@@ -4038,19 +3986,19 @@
         <v>254761000</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E67">
         <v>254761</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>531</v>
+      <c r="F67" t="s">
+        <v>144</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>255573000</v>
       </c>
@@ -4061,16 +4009,16 @@
         <v>255573000</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E68">
         <v>255573</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>255848000</v>
       </c>
@@ -4081,16 +4029,16 @@
         <v>255848000</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E69">
         <v>255848</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>257007000</v>
       </c>
@@ -4100,20 +4048,20 @@
       <c r="C70">
         <v>257007000</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>121</v>
+      <c r="D70" t="s">
+        <v>149</v>
       </c>
       <c r="E70">
         <v>257007</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>122</v>
+      <c r="F70" t="s">
+        <v>150</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>257628000</v>
       </c>
@@ -4124,16 +4072,16 @@
         <v>257628000</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E71">
         <v>257628</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>312327000</v>
       </c>
@@ -4143,20 +4091,20 @@
       <c r="C72">
         <v>312327000</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>125</v>
+      <c r="D72" t="s">
+        <v>153</v>
       </c>
       <c r="E72">
         <v>312327</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>555</v>
+      <c r="F72" t="s">
+        <v>154</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>312437000</v>
       </c>
@@ -4167,19 +4115,19 @@
         <v>312437000</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="E73">
         <v>312437</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>533</v>
+      <c r="F73" t="s">
+        <v>156</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>312939000</v>
       </c>
@@ -4190,16 +4138,16 @@
         <v>312939000</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="E74">
         <v>312939</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>313217000</v>
       </c>
@@ -4210,19 +4158,19 @@
         <v>313217000</v>
       </c>
       <c r="D75" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E75">
         <v>313217</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>500</v>
+      <c r="F75" t="s">
+        <v>160</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>313223000</v>
       </c>
@@ -4233,19 +4181,19 @@
         <v>313223000</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="E76">
         <v>313223</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>482</v>
+      <c r="F76" t="s">
+        <v>162</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>313459000</v>
       </c>
@@ -4256,16 +4204,16 @@
         <v>313459000</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E77">
         <v>313459</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>313800000</v>
       </c>
@@ -4276,16 +4224,16 @@
         <v>313800000</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="E78">
         <v>313800</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>314381000</v>
       </c>
@@ -4296,19 +4244,19 @@
         <v>314381000</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="E79">
         <v>314381</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>135</v>
+      <c r="F79" t="s">
+        <v>168</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>314383000</v>
       </c>
@@ -4318,20 +4266,20 @@
       <c r="C80">
         <v>314383000</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>136</v>
+      <c r="D80" t="s">
+        <v>169</v>
       </c>
       <c r="E80">
         <v>314383</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>563</v>
+      <c r="F80" t="s">
+        <v>170</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>316139000</v>
       </c>
@@ -4341,20 +4289,20 @@
       <c r="C81">
         <v>316139000</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>137</v>
+      <c r="D81" t="s">
+        <v>171</v>
       </c>
       <c r="E81">
         <v>316139</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>138</v>
+      <c r="F81" t="s">
+        <v>172</v>
       </c>
       <c r="H81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>316866000</v>
       </c>
@@ -4365,42 +4313,42 @@
         <v>316866000</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="E82">
         <v>316866</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>141</v>
+      <c r="F82" t="s">
+        <v>175</v>
       </c>
       <c r="H82" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>317009000</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83">
         <v>43021226000</v>
       </c>
       <c r="C83">
         <v>317009000</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="E83">
         <v>317009</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>556</v>
+      <c r="F83" t="s">
+        <v>178</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>317576000</v>
       </c>
@@ -4411,19 +4359,19 @@
         <v>317576000</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E84">
         <v>317576</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>483</v>
+      <c r="F84" t="s">
+        <v>180</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>318443000</v>
       </c>
@@ -4433,20 +4381,20 @@
       <c r="C85">
         <v>318443000</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>145</v>
+      <c r="D85" t="s">
+        <v>181</v>
       </c>
       <c r="E85">
         <v>318443</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>146</v>
+      <c r="F85" t="s">
+        <v>182</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>318736000</v>
       </c>
@@ -4457,16 +4405,16 @@
         <v>318736000</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E86">
         <v>318736</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>318800000</v>
       </c>
@@ -4476,17 +4424,17 @@
       <c r="C87">
         <v>318800000</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>149</v>
+      <c r="D87" t="s">
+        <v>185</v>
       </c>
       <c r="E87">
         <v>318800</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>319041000</v>
       </c>
@@ -4497,16 +4445,16 @@
         <v>319041000</v>
       </c>
       <c r="D88" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="E88">
         <v>319041</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>319049000</v>
       </c>
@@ -4517,22 +4465,22 @@
         <v>319049000</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="E89">
         <v>319049</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>154</v>
+      <c r="F89" t="s">
+        <v>190</v>
       </c>
       <c r="H89" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>320749000</v>
       </c>
@@ -4543,19 +4491,19 @@
         <v>320749000</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="E90">
         <v>320749</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>157</v>
+      <c r="F90" t="s">
+        <v>193</v>
       </c>
       <c r="I90" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>321042000</v>
       </c>
@@ -4565,23 +4513,23 @@
       <c r="C91">
         <v>321042000</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>158</v>
+      <c r="D91" t="s">
+        <v>194</v>
       </c>
       <c r="E91">
         <v>321042</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>495</v>
+      <c r="F91" t="s">
+        <v>195</v>
       </c>
       <c r="H91" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I91" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>321052000</v>
       </c>
@@ -4592,19 +4540,19 @@
         <v>321052000</v>
       </c>
       <c r="D92" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="E92">
         <v>321052</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>160</v>
+      <c r="F92" t="s">
+        <v>197</v>
       </c>
       <c r="H92" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>321318000</v>
       </c>
@@ -4614,20 +4562,20 @@
       <c r="C93">
         <v>321318000</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>162</v>
+      <c r="D93" t="s">
+        <v>199</v>
       </c>
       <c r="E93">
         <v>321318</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>496</v>
+      <c r="F93" t="s">
+        <v>200</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>321319000</v>
       </c>
@@ -4637,17 +4585,17 @@
       <c r="C94">
         <v>321319000</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>163</v>
+      <c r="D94" t="s">
+        <v>201</v>
       </c>
       <c r="E94">
         <v>321319</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>321588000</v>
       </c>
@@ -4657,23 +4605,23 @@
       <c r="C95">
         <v>321588000</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>165</v>
+      <c r="D95" t="s">
+        <v>203</v>
       </c>
       <c r="E95">
         <v>321588</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>560</v>
+      <c r="F95" t="s">
+        <v>204</v>
       </c>
       <c r="H95" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>372328000</v>
       </c>
@@ -4684,16 +4632,16 @@
         <v>372328000</v>
       </c>
       <c r="D96" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="E96">
         <v>372328</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>373503000</v>
       </c>
@@ -4703,20 +4651,20 @@
       <c r="C97">
         <v>373503000</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>168</v>
+      <c r="D97" t="s">
+        <v>207</v>
       </c>
       <c r="E97">
         <v>373503</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>485</v>
+      <c r="F97" t="s">
+        <v>208</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>374021000</v>
       </c>
@@ -4727,22 +4675,22 @@
         <v>374021000</v>
       </c>
       <c r="D98" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E98">
         <v>374021</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>170</v>
+      <c r="F98" t="s">
+        <v>210</v>
       </c>
       <c r="H98" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>374028000</v>
       </c>
@@ -4753,19 +4701,19 @@
         <v>374028000</v>
       </c>
       <c r="D99" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="E99">
         <v>374028</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>510</v>
+      <c r="F99" t="s">
+        <v>213</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>374366000</v>
       </c>
@@ -4776,16 +4724,16 @@
         <v>374366000</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="E100">
         <v>374366</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>374377000</v>
       </c>
@@ -4796,22 +4744,22 @@
         <v>374377000</v>
       </c>
       <c r="D101" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="E101">
         <v>374377</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>534</v>
+      <c r="F101" t="s">
+        <v>217</v>
       </c>
       <c r="H101" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I101" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>374919000</v>
       </c>
@@ -4822,19 +4770,19 @@
         <v>374919000</v>
       </c>
       <c r="D102" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="E102">
         <v>374919</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>177</v>
+      <c r="F102" t="s">
+        <v>219</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>374954000</v>
       </c>
@@ -4845,16 +4793,16 @@
         <v>374954000</v>
       </c>
       <c r="D103" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="E103">
         <v>374954</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>179</v>
+      <c r="F103" t="s">
+        <v>221</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4868,16 +4816,16 @@
         <v>375801000</v>
       </c>
       <c r="D104" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="E104">
         <v>375801</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>375806000</v>
       </c>
@@ -4888,16 +4836,16 @@
         <v>375806000</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="E105">
         <v>375806</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>376713000</v>
       </c>
@@ -4908,19 +4856,19 @@
         <v>376713000</v>
       </c>
       <c r="D106" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="E106">
         <v>376713</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>185</v>
+      <c r="F106" t="s">
+        <v>227</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>377091000</v>
       </c>
@@ -4930,20 +4878,20 @@
       <c r="C107">
         <v>377091000</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>186</v>
+      <c r="D107" t="s">
+        <v>228</v>
       </c>
       <c r="E107">
         <v>377091</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>187</v>
+      <c r="F107" t="s">
+        <v>229</v>
       </c>
       <c r="H107" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>378135000</v>
       </c>
@@ -4954,16 +4902,16 @@
         <v>378135000</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="E108">
         <v>378135</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>378143000</v>
       </c>
@@ -4974,22 +4922,22 @@
         <v>378143000</v>
       </c>
       <c r="D109" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="E109">
         <v>378143</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>192</v>
+      <c r="F109" t="s">
+        <v>234</v>
       </c>
       <c r="H109" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="I109" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>378253000</v>
       </c>
@@ -5000,19 +4948,19 @@
         <v>378253000</v>
       </c>
       <c r="D110" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="E110">
         <v>378253</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>535</v>
+      <c r="F110" t="s">
+        <v>237</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>378414000</v>
       </c>
@@ -5022,20 +4970,20 @@
       <c r="C111">
         <v>378414000</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>195</v>
+      <c r="D111" t="s">
+        <v>238</v>
       </c>
       <c r="E111">
         <v>378414</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>497</v>
+      <c r="F111" t="s">
+        <v>239</v>
       </c>
       <c r="I111" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>378416000</v>
       </c>
@@ -5046,16 +4994,16 @@
         <v>378416000</v>
       </c>
       <c r="D112" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="E112">
         <v>378416</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>378419000</v>
       </c>
@@ -5066,16 +5014,16 @@
         <v>378419000</v>
       </c>
       <c r="D113" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="E113">
         <v>378419</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>380378000</v>
       </c>
@@ -5085,20 +5033,20 @@
       <c r="C114">
         <v>380378000</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>200</v>
+      <c r="D114" t="s">
+        <v>244</v>
       </c>
       <c r="E114">
         <v>380378</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>492</v>
+      <c r="F114" t="s">
+        <v>245</v>
       </c>
       <c r="I114" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>381009000</v>
       </c>
@@ -5109,19 +5057,19 @@
         <v>381009000</v>
       </c>
       <c r="D115" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="E115">
         <v>381009</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>202</v>
+      <c r="F115" t="s">
+        <v>247</v>
       </c>
       <c r="I115" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>381114000</v>
       </c>
@@ -5132,16 +5080,16 @@
         <v>381114000</v>
       </c>
       <c r="D116" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="E116">
         <v>381114</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>381270000</v>
       </c>
@@ -5152,16 +5100,16 @@
         <v>381270000</v>
       </c>
       <c r="D117" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="E117">
         <v>381270</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>381316000</v>
       </c>
@@ -5172,19 +5120,19 @@
         <v>381316000</v>
       </c>
       <c r="D118" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="E118">
         <v>381316</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>208</v>
+      <c r="F118" t="s">
+        <v>253</v>
       </c>
       <c r="I118" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>381591000</v>
       </c>
@@ -5195,16 +5143,16 @@
         <v>381591000</v>
       </c>
       <c r="D119" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="E119">
         <v>381591</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>210</v>
+      <c r="F119" t="s">
+        <v>255</v>
       </c>
       <c r="H119" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5218,16 +5166,16 @@
         <v>432571000</v>
       </c>
       <c r="D120" t="s">
-        <v>511</v>
+        <v>257</v>
       </c>
       <c r="E120">
         <v>432571000</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>432585000</v>
       </c>
@@ -5238,19 +5186,19 @@
         <v>432585000</v>
       </c>
       <c r="D121" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="E121">
         <v>432585</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>213</v>
+      <c r="F121" t="s">
+        <v>259</v>
       </c>
       <c r="H121" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>432595000</v>
       </c>
@@ -5261,16 +5209,16 @@
         <v>432595000</v>
       </c>
       <c r="D122" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="E122">
         <v>432595</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>432791000</v>
       </c>
@@ -5280,20 +5228,20 @@
       <c r="C123">
         <v>432791000</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>216</v>
+      <c r="D123" t="s">
+        <v>263</v>
       </c>
       <c r="E123">
         <v>432791</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>217</v>
+      <c r="F123" t="s">
+        <v>264</v>
       </c>
       <c r="I123" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>432867000</v>
       </c>
@@ -5303,63 +5251,63 @@
       <c r="C124">
         <v>432867000</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>218</v>
+      <c r="D124" t="s">
+        <v>265</v>
       </c>
       <c r="E124">
         <v>432867</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>432870000</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125">
         <v>443723000</v>
       </c>
       <c r="C125">
         <v>432870000</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>220</v>
+      <c r="D125" t="s">
+        <v>267</v>
       </c>
       <c r="E125">
         <v>432870</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>558</v>
+      <c r="F125" t="s">
+        <v>268</v>
       </c>
       <c r="I125" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>432881000</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126">
         <v>443723000</v>
       </c>
       <c r="C126">
         <v>432881000</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>221</v>
+      <c r="D126" t="s">
+        <v>269</v>
       </c>
       <c r="E126">
         <v>432881</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>222</v>
+      <c r="F126" t="s">
+        <v>270</v>
       </c>
       <c r="I126" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>432893000</v>
       </c>
@@ -5370,19 +5318,19 @@
         <v>432893000</v>
       </c>
       <c r="D127" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="E127">
         <v>432893</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>224</v>
+      <c r="F127" t="s">
+        <v>272</v>
       </c>
       <c r="I127" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>433595000</v>
       </c>
@@ -5393,19 +5341,19 @@
         <v>433595000</v>
       </c>
       <c r="D128" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="E128">
         <v>433595</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>536</v>
+      <c r="F128" t="s">
+        <v>274</v>
       </c>
       <c r="I128" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>433736000</v>
       </c>
@@ -5416,16 +5364,16 @@
         <v>433736000</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="E129">
         <v>433736</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>434119000</v>
       </c>
@@ -5436,16 +5384,16 @@
         <v>434119000</v>
       </c>
       <c r="D130" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="E130">
         <v>434119</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>434557000</v>
       </c>
@@ -5456,16 +5404,16 @@
         <v>434557000</v>
       </c>
       <c r="D131" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="E131">
         <v>434557</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>434584000</v>
       </c>
@@ -5476,16 +5424,16 @@
         <v>434584000</v>
       </c>
       <c r="D132" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="E132">
         <v>434584</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>434592000</v>
       </c>
@@ -5496,19 +5444,19 @@
         <v>434592000</v>
       </c>
       <c r="D133" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="E133">
         <v>434592</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>512</v>
+      <c r="F133" t="s">
+        <v>284</v>
       </c>
       <c r="I133" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>434610000</v>
       </c>
@@ -5519,16 +5467,16 @@
         <v>434610000</v>
       </c>
       <c r="D134" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="E134">
         <v>434610</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>434821000</v>
       </c>
@@ -5539,42 +5487,42 @@
         <v>434821000</v>
       </c>
       <c r="D135" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="E135">
         <v>434821</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>238</v>
+      <c r="F135" t="s">
+        <v>288</v>
       </c>
       <c r="I135" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>435224000</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136">
         <v>443723000</v>
       </c>
       <c r="C136">
         <v>435224000</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>239</v>
+      <c r="D136" t="s">
+        <v>289</v>
       </c>
       <c r="E136">
         <v>435224</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>240</v>
+      <c r="F136" t="s">
+        <v>290</v>
       </c>
       <c r="I136" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>435783000</v>
       </c>
@@ -5585,16 +5533,16 @@
         <v>435783000</v>
       </c>
       <c r="D137" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="E137">
         <v>435783</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>435785000</v>
       </c>
@@ -5605,19 +5553,19 @@
         <v>435785000</v>
       </c>
       <c r="D138" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="E138">
         <v>435785</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>244</v>
+      <c r="F138" t="s">
+        <v>294</v>
       </c>
       <c r="I138" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>436073000</v>
       </c>
@@ -5628,16 +5576,16 @@
         <v>436073000</v>
       </c>
       <c r="D139" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="E139">
         <v>436073</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>436081000</v>
       </c>
@@ -5648,19 +5596,19 @@
         <v>436081000</v>
       </c>
       <c r="D140" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="E140">
         <v>436081</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>248</v>
+      <c r="F140" t="s">
+        <v>298</v>
       </c>
       <c r="H140" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>436096000</v>
       </c>
@@ -5671,19 +5619,19 @@
         <v>436096000</v>
       </c>
       <c r="D141" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="E141">
         <v>436096</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>537</v>
+      <c r="F141" t="s">
+        <v>301</v>
       </c>
       <c r="I141" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>436100000</v>
       </c>
@@ -5694,16 +5642,16 @@
         <v>436100000</v>
       </c>
       <c r="D142" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="E142">
         <v>436100</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>436235000</v>
       </c>
@@ -5714,19 +5662,19 @@
         <v>436235000</v>
       </c>
       <c r="D143" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="E143">
         <v>4307095</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>538</v>
+      <c r="F143" t="s">
+        <v>305</v>
       </c>
       <c r="I143" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>436642000</v>
       </c>
@@ -5737,19 +5685,19 @@
         <v>436642000</v>
       </c>
       <c r="D144" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="E144">
         <v>436642</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>254</v>
+      <c r="F144" t="s">
+        <v>307</v>
       </c>
       <c r="I144" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>436665000</v>
       </c>
@@ -5760,16 +5708,16 @@
         <v>436665000</v>
       </c>
       <c r="D145" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="E145">
         <v>436665</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>436676000</v>
       </c>
@@ -5780,16 +5728,16 @@
         <v>436676000</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="E146">
         <v>436676</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>436962000</v>
       </c>
@@ -5800,19 +5748,19 @@
         <v>436962000</v>
       </c>
       <c r="D147" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="E147">
         <v>436962</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>539</v>
+      <c r="F147" t="s">
+        <v>313</v>
       </c>
       <c r="I147" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>437082000</v>
       </c>
@@ -5823,19 +5771,19 @@
         <v>437082000</v>
       </c>
       <c r="D148" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E148">
         <v>437082</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>561</v>
+      <c r="F148" t="s">
+        <v>315</v>
       </c>
       <c r="I148" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>437222000</v>
       </c>
@@ -5846,16 +5794,16 @@
         <v>437222000</v>
       </c>
       <c r="D149" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="E149">
         <v>437222</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>437233000</v>
       </c>
@@ -5866,19 +5814,19 @@
         <v>437233000</v>
       </c>
       <c r="D150" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="E150">
         <v>437233</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>264</v>
+      <c r="F150" t="s">
+        <v>319</v>
       </c>
       <c r="I150" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>437312000</v>
       </c>
@@ -5889,19 +5837,19 @@
         <v>437312000</v>
       </c>
       <c r="D151" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="E151">
         <v>437312</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>540</v>
+      <c r="F151" t="s">
+        <v>321</v>
       </c>
       <c r="I151" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>437541000</v>
       </c>
@@ -5912,16 +5860,16 @@
         <v>437541000</v>
       </c>
       <c r="D152" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="E152">
         <v>437541</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>437663000</v>
       </c>
@@ -5932,22 +5880,22 @@
         <v>437663000</v>
       </c>
       <c r="D153" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="E153">
         <v>437663</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>541</v>
+      <c r="F153" t="s">
+        <v>325</v>
       </c>
       <c r="H153" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="I153" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>437833000</v>
       </c>
@@ -5958,16 +5906,16 @@
         <v>437833000</v>
       </c>
       <c r="D154" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="E154">
         <v>437833</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>438120000</v>
       </c>
@@ -5978,16 +5926,16 @@
         <v>438120000</v>
       </c>
       <c r="D155" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="E155">
         <v>438120</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>438130000</v>
       </c>
@@ -5998,16 +5946,16 @@
         <v>438130000</v>
       </c>
       <c r="D156" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="E156">
         <v>438130</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>438409000</v>
       </c>
@@ -6018,16 +5966,16 @@
         <v>438409000</v>
       </c>
       <c r="D157" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="E157">
         <v>438409</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>439393000</v>
       </c>
@@ -6038,16 +5986,16 @@
         <v>439393000</v>
       </c>
       <c r="D158" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="E158">
         <v>439393</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>439727000</v>
       </c>
@@ -6058,16 +6006,16 @@
         <v>439727000</v>
       </c>
       <c r="D159" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="E159">
         <v>439727</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>439776000</v>
       </c>
@@ -6078,16 +6026,16 @@
         <v>439776000</v>
       </c>
       <c r="D160" t="s">
-        <v>565</v>
+        <v>339</v>
       </c>
       <c r="E160">
         <v>439776</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>439777000</v>
       </c>
@@ -6097,20 +6045,20 @@
       <c r="C161">
         <v>439777000</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>283</v>
+      <c r="D161" t="s">
+        <v>341</v>
       </c>
       <c r="E161">
         <v>439777</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>284</v>
+      <c r="F161" t="s">
+        <v>342</v>
       </c>
       <c r="H161" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="I161" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6124,16 +6072,16 @@
         <v>439842000</v>
       </c>
       <c r="D162" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="E162">
         <v>439842</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>440377000</v>
       </c>
@@ -6144,22 +6092,22 @@
         <v>440377000</v>
       </c>
       <c r="D163" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="E163">
         <v>440377</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>542</v>
+      <c r="F163" t="s">
+        <v>346</v>
       </c>
       <c r="H163" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I163" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>440383000</v>
       </c>
@@ -6170,16 +6118,16 @@
         <v>440383000</v>
       </c>
       <c r="D164" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="E164">
         <v>440383</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>440417000</v>
       </c>
@@ -6190,16 +6138,16 @@
         <v>440417000</v>
       </c>
       <c r="D165" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="E165">
         <v>440417</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>440674000</v>
       </c>
@@ -6210,16 +6158,16 @@
         <v>440674000</v>
       </c>
       <c r="D166" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="E166">
         <v>440674</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>440703000</v>
       </c>
@@ -6230,16 +6178,16 @@
         <v>440703000</v>
       </c>
       <c r="D167" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="E167">
         <v>440703</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>440740000</v>
       </c>
@@ -6250,16 +6198,16 @@
         <v>440740000</v>
       </c>
       <c r="D168" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="E168">
         <v>440740</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>298</v>
+      <c r="F168" t="s">
+        <v>356</v>
       </c>
       <c r="I168" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -6273,16 +6221,16 @@
         <v>440925000</v>
       </c>
       <c r="D169" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="E169">
         <v>440925</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>440940000</v>
       </c>
@@ -6293,16 +6241,16 @@
         <v>440940000</v>
       </c>
       <c r="D170" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="E170">
         <v>440940</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>441202000</v>
       </c>
@@ -6312,20 +6260,20 @@
       <c r="C171">
         <v>441202000</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>303</v>
+      <c r="D171" t="s">
+        <v>361</v>
       </c>
       <c r="E171">
         <v>441202</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>304</v>
+      <c r="F171" t="s">
+        <v>362</v>
       </c>
       <c r="I171" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>441284000</v>
       </c>
@@ -6336,16 +6284,16 @@
         <v>441284000</v>
       </c>
       <c r="D172" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="E172">
         <v>441284</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>441408000</v>
       </c>
@@ -6356,19 +6304,19 @@
         <v>441408000</v>
       </c>
       <c r="D173" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="E173">
         <v>441408</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>543</v>
+      <c r="F173" t="s">
+        <v>366</v>
       </c>
       <c r="I173" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>441542000</v>
       </c>
@@ -6379,19 +6327,19 @@
         <v>441542000</v>
       </c>
       <c r="D174" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="E174">
         <v>441542</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>544</v>
+      <c r="F174" t="s">
+        <v>368</v>
       </c>
       <c r="I174" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>441788000</v>
       </c>
@@ -6402,13 +6350,13 @@
         <v>441788000</v>
       </c>
       <c r="D175" t="s">
-        <v>309</v>
+        <v>369</v>
       </c>
       <c r="E175">
         <v>441788</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>310</v>
+      <c r="F175" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6422,19 +6370,19 @@
         <v>441848000</v>
       </c>
       <c r="D176" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="E176">
         <v>441848</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>312</v>
+      <c r="F176" t="s">
+        <v>372</v>
       </c>
       <c r="I176" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>442752000</v>
       </c>
@@ -6445,19 +6393,19 @@
         <v>442752000</v>
       </c>
       <c r="D177" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="E177">
         <v>442752</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>545</v>
+      <c r="F177" t="s">
+        <v>374</v>
       </c>
       <c r="I177" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>443213000</v>
       </c>
@@ -6468,16 +6416,16 @@
         <v>443213000</v>
       </c>
       <c r="D178" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="E178">
         <v>443213</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F178" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>443387000</v>
       </c>
@@ -6488,16 +6436,16 @@
         <v>443387000</v>
       </c>
       <c r="D179" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="E179">
         <v>443387</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>443392000</v>
       </c>
@@ -6507,17 +6455,17 @@
       <c r="C180">
         <v>443392000</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>318</v>
+      <c r="D180" t="s">
+        <v>379</v>
       </c>
       <c r="E180">
         <v>443392</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>443454000</v>
       </c>
@@ -6528,19 +6476,19 @@
         <v>443454000</v>
       </c>
       <c r="D181" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="E181">
         <v>443454</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>321</v>
+      <c r="F181" t="s">
+        <v>382</v>
       </c>
       <c r="I181" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>443700000</v>
       </c>
@@ -6551,13 +6499,13 @@
         <v>443700000</v>
       </c>
       <c r="D182" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="E182">
         <v>443700</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>323</v>
+      <c r="F182" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6571,16 +6519,16 @@
         <v>443723000</v>
       </c>
       <c r="D183" t="s">
-        <v>559</v>
+        <v>385</v>
       </c>
       <c r="E183">
         <v>443723</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>443727000</v>
       </c>
@@ -6591,19 +6539,19 @@
         <v>443727000</v>
       </c>
       <c r="D184" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="E184">
         <v>443727</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>518</v>
+      <c r="F184" t="s">
+        <v>387</v>
       </c>
       <c r="I184" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>444044000</v>
       </c>
@@ -6614,19 +6562,19 @@
         <v>444044000</v>
       </c>
       <c r="D185" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="E185">
         <v>444044</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>499</v>
+      <c r="F185" t="s">
+        <v>389</v>
       </c>
       <c r="I185" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>444070000</v>
       </c>
@@ -6637,19 +6585,19 @@
         <v>444070000</v>
       </c>
       <c r="D186" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="E186">
         <v>444070</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>546</v>
+      <c r="F186" t="s">
+        <v>391</v>
       </c>
       <c r="I186" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>444247000</v>
       </c>
@@ -6660,16 +6608,16 @@
         <v>444247000</v>
       </c>
       <c r="D187" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="E187">
         <v>444247</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>444429000</v>
       </c>
@@ -6680,16 +6628,16 @@
         <v>444429000</v>
       </c>
       <c r="D188" t="s">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="E188">
         <v>444429</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4000634000</v>
       </c>
@@ -6700,22 +6648,22 @@
         <v>4000634000</v>
       </c>
       <c r="D189" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="E189">
         <v>4000634</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>332</v>
+      <c r="F189" t="s">
+        <v>397</v>
       </c>
       <c r="H189" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="I189" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>4002359000</v>
       </c>
@@ -6726,19 +6674,19 @@
         <v>4002359000</v>
       </c>
       <c r="D190" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="E190">
         <v>4002359</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>335</v>
+      <c r="F190" t="s">
+        <v>400</v>
       </c>
       <c r="I190" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>4013643000</v>
       </c>
@@ -6749,16 +6697,16 @@
         <v>4013643000</v>
       </c>
       <c r="D191" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
       <c r="E191">
         <v>4013643</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>4024659000</v>
       </c>
@@ -6769,19 +6717,19 @@
         <v>4024659000</v>
       </c>
       <c r="D192" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="E192">
         <v>4024659</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>521</v>
+      <c r="F192" t="s">
+        <v>404</v>
       </c>
       <c r="H192" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="I192" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6795,16 +6743,16 @@
         <v>4027537000</v>
       </c>
       <c r="D193" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="E193">
         <v>4027537</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4028363000</v>
       </c>
@@ -6815,16 +6763,16 @@
         <v>4028363000</v>
       </c>
       <c r="D194" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="E194">
         <v>4028363</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4030518000</v>
       </c>
@@ -6835,16 +6783,16 @@
         <v>4030518000</v>
       </c>
       <c r="D195" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="E195">
         <v>4030518</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4038838000</v>
       </c>
@@ -6855,16 +6803,16 @@
         <v>4038838000</v>
       </c>
       <c r="D196" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="E196">
         <v>4038838</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>513</v>
+      <c r="F196" t="s">
+        <v>412</v>
       </c>
       <c r="I196" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6875,19 +6823,19 @@
         <v>4043371000</v>
       </c>
       <c r="D197" t="s">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="E197">
         <v>4043371</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>287</v>
+      <c r="F197" t="s">
+        <v>25</v>
       </c>
       <c r="H197" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4046338000</v>
       </c>
@@ -6898,16 +6846,16 @@
         <v>4046338000</v>
       </c>
       <c r="D198" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
       <c r="E198">
         <v>4046338</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>4058821000</v>
       </c>
@@ -6918,19 +6866,19 @@
         <v>4058821000</v>
       </c>
       <c r="D199" t="s">
-        <v>348</v>
+        <v>416</v>
       </c>
       <c r="E199">
         <v>4058821</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>349</v>
+      <c r="F199" t="s">
+        <v>417</v>
       </c>
       <c r="I199" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>4063434000</v>
       </c>
@@ -6940,20 +6888,20 @@
       <c r="C200">
         <v>4063434000</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>350</v>
+      <c r="D200" t="s">
+        <v>418</v>
       </c>
       <c r="E200">
         <v>4063434</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>490</v>
+      <c r="F200" t="s">
+        <v>419</v>
       </c>
       <c r="I200" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>4064161000</v>
       </c>
@@ -6964,19 +6912,19 @@
         <v>4064161000</v>
       </c>
       <c r="D201" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="E201">
         <v>4064161</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>352</v>
+      <c r="F201" t="s">
+        <v>421</v>
       </c>
       <c r="I201" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>4067106000</v>
       </c>
@@ -6987,16 +6935,16 @@
         <v>4067106000</v>
       </c>
       <c r="D202" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="E202">
         <v>4067106</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4070552000</v>
       </c>
@@ -7007,22 +6955,22 @@
         <v>4070552000</v>
       </c>
       <c r="D203" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="E203">
         <v>4070552</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>356</v>
+      <c r="F203" t="s">
+        <v>425</v>
       </c>
       <c r="H203" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="I203" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4074815000</v>
       </c>
@@ -7033,19 +6981,19 @@
         <v>4074815000</v>
       </c>
       <c r="D204" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="E204">
         <v>4074815</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>480</v>
+      <c r="F204" t="s">
+        <v>428</v>
       </c>
       <c r="I204" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4079843000</v>
       </c>
@@ -7056,19 +7004,19 @@
         <v>4079843000</v>
       </c>
       <c r="D205" t="s">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="E205">
         <v>4079843</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>502</v>
+      <c r="F205" t="s">
+        <v>430</v>
       </c>
       <c r="I205" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4091559000</v>
       </c>
@@ -7079,19 +7027,19 @@
         <v>4091559000</v>
       </c>
       <c r="D206" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="E206">
         <v>4091559</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>361</v>
+      <c r="F206" t="s">
+        <v>432</v>
       </c>
       <c r="I206" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4092289000</v>
       </c>
@@ -7102,13 +7050,13 @@
         <v>4092289000</v>
       </c>
       <c r="D207" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="E207">
         <v>4092289</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>363</v>
+      <c r="F207" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7122,16 +7070,16 @@
         <v>4094294000</v>
       </c>
       <c r="D208" t="s">
-        <v>522</v>
+        <v>435</v>
       </c>
       <c r="E208">
         <v>4094294</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4098292000</v>
       </c>
@@ -7142,16 +7090,16 @@
         <v>4098292000</v>
       </c>
       <c r="D209" t="s">
-        <v>364</v>
+        <v>436</v>
       </c>
       <c r="E209">
         <v>4098292</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F209" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>4098597000</v>
       </c>
@@ -7162,19 +7110,19 @@
         <v>4098597000</v>
       </c>
       <c r="D210" t="s">
-        <v>366</v>
+        <v>438</v>
       </c>
       <c r="E210">
         <v>4098597</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>367</v>
+      <c r="F210" t="s">
+        <v>439</v>
       </c>
       <c r="I210" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4101602000</v>
       </c>
@@ -7185,19 +7133,19 @@
         <v>4101602000</v>
       </c>
       <c r="D211" t="s">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="E211">
         <v>4101602</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>369</v>
+      <c r="F211" t="s">
+        <v>441</v>
       </c>
       <c r="I211" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4103295000</v>
       </c>
@@ -7208,19 +7156,19 @@
         <v>4103295000</v>
       </c>
       <c r="D212" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
       <c r="E212">
         <v>4103295</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>501</v>
+      <c r="F212" t="s">
+        <v>443</v>
       </c>
       <c r="I212" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4112853000</v>
       </c>
@@ -7231,16 +7179,16 @@
         <v>4112853000</v>
       </c>
       <c r="D213" t="s">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="E213">
         <v>4112853</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F213" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>4124836000</v>
       </c>
@@ -7251,19 +7199,19 @@
         <v>4124836000</v>
       </c>
       <c r="D214" t="s">
-        <v>373</v>
+        <v>446</v>
       </c>
       <c r="E214">
         <v>4124836</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>374</v>
+      <c r="F214" t="s">
+        <v>447</v>
       </c>
       <c r="I214" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4131909000</v>
       </c>
@@ -7274,16 +7222,16 @@
         <v>4131909000</v>
       </c>
       <c r="D215" t="s">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="E215">
         <v>4131909</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4133004000</v>
       </c>
@@ -7294,16 +7242,16 @@
         <v>4133004000</v>
       </c>
       <c r="D216" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="E216">
         <v>4133004</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F216" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4137275000</v>
       </c>
@@ -7314,16 +7262,16 @@
         <v>4137275000</v>
       </c>
       <c r="D217" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="E217">
         <v>4137275</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="F217" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4138837000</v>
       </c>
@@ -7334,22 +7282,22 @@
         <v>4138837000</v>
       </c>
       <c r="D218" t="s">
-        <v>381</v>
+        <v>454</v>
       </c>
       <c r="E218">
         <v>4138837</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>564</v>
+      <c r="F218" t="s">
+        <v>455</v>
       </c>
       <c r="H218" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="I218" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4139034000</v>
       </c>
@@ -7360,19 +7308,19 @@
         <v>4139034000</v>
       </c>
       <c r="D219" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="E219">
         <v>4139034</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>384</v>
+      <c r="F219" t="s">
+        <v>458</v>
       </c>
       <c r="H219" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4147411000</v>
       </c>
@@ -7383,19 +7331,19 @@
         <v>4147411000</v>
       </c>
       <c r="D220" t="s">
-        <v>385</v>
+        <v>459</v>
       </c>
       <c r="E220">
         <v>4147411</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>514</v>
+      <c r="F220" t="s">
+        <v>460</v>
       </c>
       <c r="I220" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4163261000</v>
       </c>
@@ -7406,16 +7354,16 @@
         <v>4163261000</v>
       </c>
       <c r="D221" t="s">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="E221">
         <v>4163261</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="F221" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4164770000</v>
       </c>
@@ -7426,16 +7374,16 @@
         <v>4164770000</v>
       </c>
       <c r="D222" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="E222">
         <v>4164770</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4169095000</v>
       </c>
@@ -7446,19 +7394,19 @@
         <v>4169095000</v>
       </c>
       <c r="D223" t="s">
-        <v>390</v>
+        <v>465</v>
       </c>
       <c r="E223">
         <v>4169095</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>547</v>
+      <c r="F223" t="s">
+        <v>466</v>
       </c>
       <c r="I223" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4174977000</v>
       </c>
@@ -7469,16 +7417,16 @@
         <v>4174977000</v>
       </c>
       <c r="D224" t="s">
-        <v>391</v>
+        <v>467</v>
       </c>
       <c r="E224">
         <v>4174977</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>508</v>
+      <c r="F224" t="s">
+        <v>468</v>
       </c>
       <c r="I224" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -7489,16 +7437,16 @@
         <v>4175485000</v>
       </c>
       <c r="D225" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="E225">
         <v>4175485</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F225" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4180790000</v>
       </c>
@@ -7509,16 +7457,16 @@
         <v>4180790000</v>
       </c>
       <c r="D226" t="s">
-        <v>392</v>
+        <v>470</v>
       </c>
       <c r="E226">
         <v>4180790</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F226" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4181343000</v>
       </c>
@@ -7529,16 +7477,16 @@
         <v>4181343000</v>
       </c>
       <c r="D227" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="E227">
         <v>4181343</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F227" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4181351000</v>
       </c>
@@ -7549,16 +7497,16 @@
         <v>4181351000</v>
       </c>
       <c r="D228" t="s">
-        <v>396</v>
+        <v>474</v>
       </c>
       <c r="E228">
         <v>4181351</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4182210000</v>
       </c>
@@ -7569,16 +7517,16 @@
         <v>4182210000</v>
       </c>
       <c r="D229" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="E229">
         <v>4182210</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="F229" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4182711000</v>
       </c>
@@ -7589,22 +7537,22 @@
         <v>4182711000</v>
       </c>
       <c r="D230" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="E230">
         <v>4182711</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>401</v>
+      <c r="F230" t="s">
+        <v>479</v>
       </c>
       <c r="H230" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="I230" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4185711000</v>
       </c>
@@ -7615,19 +7563,19 @@
         <v>4185711000</v>
       </c>
       <c r="D231" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="E231">
         <v>4185711</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>548</v>
+      <c r="F231" t="s">
+        <v>482</v>
       </c>
       <c r="I231" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4185932000</v>
       </c>
@@ -7637,14 +7585,14 @@
       <c r="C232">
         <v>4185932000</v>
       </c>
-      <c r="D232" s="3" t="s">
-        <v>553</v>
+      <c r="D232" t="s">
+        <v>483</v>
       </c>
       <c r="E232">
         <v>4185932</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>554</v>
+      <c r="F232" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7658,7 +7606,7 @@
         <v>4189294000</v>
       </c>
       <c r="D233" t="s">
-        <v>562</v>
+        <v>485</v>
       </c>
       <c r="E233">
         <v>4189294</v>
@@ -7675,16 +7623,16 @@
         <v>4190307000</v>
       </c>
       <c r="D234" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="E234">
         <v>4190307</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="F234" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4195694000</v>
       </c>
@@ -7695,19 +7643,19 @@
         <v>4195694000</v>
       </c>
       <c r="D235" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="E235">
         <v>4195694</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>406</v>
+      <c r="F235" t="s">
+        <v>488</v>
       </c>
       <c r="H235" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4201096000</v>
       </c>
@@ -7718,19 +7666,19 @@
         <v>4201096000</v>
       </c>
       <c r="D236" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="E236">
         <v>4201096</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>409</v>
+      <c r="F236" t="s">
+        <v>491</v>
       </c>
       <c r="I236" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4212540000</v>
       </c>
@@ -7741,16 +7689,16 @@
         <v>4212540000</v>
       </c>
       <c r="D237" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="E237">
         <v>4212540</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F237" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>4223659000</v>
       </c>
@@ -7761,19 +7709,19 @@
         <v>4223659000</v>
       </c>
       <c r="D238" t="s">
-        <v>412</v>
+        <v>494</v>
       </c>
       <c r="E238">
         <v>4223659</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>549</v>
+      <c r="F238" t="s">
+        <v>495</v>
       </c>
       <c r="I238" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4236484000</v>
       </c>
@@ -7784,16 +7732,16 @@
         <v>4236484000</v>
       </c>
       <c r="D239" t="s">
-        <v>413</v>
+        <v>496</v>
       </c>
       <c r="E239">
         <v>4236484</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="F239" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4245975000</v>
       </c>
@@ -7804,16 +7752,16 @@
         <v>4245975000</v>
       </c>
       <c r="D240" t="s">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="E240">
         <v>4245975</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F240" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4246127000</v>
       </c>
@@ -7824,19 +7772,19 @@
         <v>4246127000</v>
       </c>
       <c r="D241" t="s">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="E241">
         <v>4246127</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>418</v>
+      <c r="F241" t="s">
+        <v>501</v>
       </c>
       <c r="H241" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4253901000</v>
       </c>
@@ -7847,19 +7795,19 @@
         <v>4253901000</v>
       </c>
       <c r="D242" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="E242">
         <v>4253901</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>420</v>
+      <c r="F242" t="s">
+        <v>503</v>
       </c>
       <c r="I242" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4256228000</v>
       </c>
@@ -7870,19 +7818,19 @@
         <v>4256228000</v>
       </c>
       <c r="D243" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="E243">
         <v>4256228</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>422</v>
+      <c r="F243" t="s">
+        <v>505</v>
       </c>
       <c r="H243" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4260535000</v>
       </c>
@@ -7893,22 +7841,22 @@
         <v>4260535000</v>
       </c>
       <c r="D244" t="s">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="E244">
         <v>4260535</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>481</v>
+      <c r="F244" t="s">
+        <v>508</v>
       </c>
       <c r="H244" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
       <c r="I244" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4266367000</v>
       </c>
@@ -7919,16 +7867,16 @@
         <v>4266367000</v>
       </c>
       <c r="D245" t="s">
-        <v>426</v>
+        <v>510</v>
       </c>
       <c r="E245">
         <v>4266367</v>
       </c>
-      <c r="F245" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F245" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4272240000</v>
       </c>
@@ -7939,19 +7887,19 @@
         <v>4272240000</v>
       </c>
       <c r="D246" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
       <c r="E246">
         <v>4272240</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>550</v>
+      <c r="F246" t="s">
+        <v>513</v>
       </c>
       <c r="I246" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>4273391000</v>
       </c>
@@ -7962,16 +7910,16 @@
         <v>4273391000</v>
       </c>
       <c r="D247" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="E247">
         <v>4273391</v>
       </c>
-      <c r="F247" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F247" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4281232000</v>
       </c>
@@ -7982,19 +7930,19 @@
         <v>4281232000</v>
       </c>
       <c r="D248" t="s">
-        <v>431</v>
+        <v>516</v>
       </c>
       <c r="E248">
         <v>4281232</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>432</v>
+      <c r="F248" t="s">
+        <v>517</v>
       </c>
       <c r="I248" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4284492000</v>
       </c>
@@ -8004,20 +7952,20 @@
       <c r="C249">
         <v>4284492000</v>
       </c>
-      <c r="D249" s="3" t="s">
-        <v>433</v>
+      <c r="D249" t="s">
+        <v>518</v>
       </c>
       <c r="E249">
         <v>4284492</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>491</v>
+      <c r="F249" t="s">
+        <v>519</v>
       </c>
       <c r="I249" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>4285717000</v>
       </c>
@@ -8028,16 +7976,16 @@
         <v>4285717000</v>
       </c>
       <c r="D250" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="E250">
         <v>4285717</v>
       </c>
-      <c r="F250" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F250" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4286201000</v>
       </c>
@@ -8048,16 +7996,16 @@
         <v>4286201000</v>
       </c>
       <c r="D251" t="s">
-        <v>436</v>
+        <v>522</v>
       </c>
       <c r="E251">
         <v>4286201</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F251" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4290976000</v>
       </c>
@@ -8068,19 +8016,19 @@
         <v>4290976000</v>
       </c>
       <c r="D252" t="s">
-        <v>438</v>
+        <v>524</v>
       </c>
       <c r="E252">
         <v>4290976</v>
       </c>
-      <c r="F252" s="1" t="s">
-        <v>439</v>
+      <c r="F252" t="s">
+        <v>525</v>
       </c>
       <c r="I252" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4299535000</v>
       </c>
@@ -8091,13 +8039,13 @@
         <v>4299535000</v>
       </c>
       <c r="D253" t="s">
-        <v>440</v>
+        <v>526</v>
       </c>
       <c r="E253">
         <v>4299535</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>441</v>
+      <c r="F253" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -8111,16 +8059,16 @@
         <v>4306655000</v>
       </c>
       <c r="D254" t="s">
-        <v>442</v>
+        <v>528</v>
       </c>
       <c r="E254">
         <v>4306655</v>
       </c>
-      <c r="F254" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F254" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4311499000</v>
       </c>
@@ -8131,19 +8079,19 @@
         <v>4311499000</v>
       </c>
       <c r="D255" t="s">
-        <v>444</v>
+        <v>530</v>
       </c>
       <c r="E255">
         <v>4311499</v>
       </c>
-      <c r="F255" s="1" t="s">
-        <v>445</v>
+      <c r="F255" t="s">
+        <v>531</v>
       </c>
       <c r="H255" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4318985000</v>
       </c>
@@ -8154,19 +8102,19 @@
         <v>4318985000</v>
       </c>
       <c r="D256" t="s">
-        <v>446</v>
+        <v>532</v>
       </c>
       <c r="E256">
         <v>4318985</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>509</v>
+      <c r="F256" t="s">
+        <v>533</v>
       </c>
       <c r="I256" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4322024000</v>
       </c>
@@ -8177,19 +8125,19 @@
         <v>4322024000</v>
       </c>
       <c r="D257" t="s">
-        <v>447</v>
+        <v>534</v>
       </c>
       <c r="E257">
         <v>4322024</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>448</v>
+      <c r="F257" t="s">
+        <v>535</v>
       </c>
       <c r="H257" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4344489000</v>
       </c>
@@ -8200,19 +8148,19 @@
         <v>4344489000</v>
       </c>
       <c r="D258" t="s">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="E258">
         <v>4344489</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>503</v>
+      <c r="F258" t="s">
+        <v>538</v>
       </c>
       <c r="I258" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>36712702000</v>
       </c>
@@ -8223,16 +8171,16 @@
         <v>36712702000</v>
       </c>
       <c r="D259" t="s">
-        <v>451</v>
+        <v>539</v>
       </c>
       <c r="E259">
         <v>36712702</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="F259" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>37311061000</v>
       </c>
@@ -8243,16 +8191,16 @@
         <v>37311061000</v>
       </c>
       <c r="D260" t="s">
-        <v>453</v>
+        <v>541</v>
       </c>
       <c r="E260">
         <v>37311061</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="F260" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>40479589000</v>
       </c>
@@ -8263,19 +8211,19 @@
         <v>40479589000</v>
       </c>
       <c r="D261" t="s">
-        <v>455</v>
+        <v>543</v>
       </c>
       <c r="E261">
         <v>40479589</v>
       </c>
-      <c r="F261" s="1" t="s">
-        <v>456</v>
+      <c r="F261" t="s">
+        <v>544</v>
       </c>
       <c r="I261" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>40481901000</v>
       </c>
@@ -8286,19 +8234,19 @@
         <v>40481901000</v>
       </c>
       <c r="D262" t="s">
-        <v>457</v>
+        <v>545</v>
       </c>
       <c r="E262">
         <v>40481901</v>
       </c>
-      <c r="F262" s="1" t="s">
-        <v>515</v>
+      <c r="F262" t="s">
+        <v>546</v>
       </c>
       <c r="I262" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>40481902000</v>
       </c>
@@ -8309,19 +8257,19 @@
         <v>40481902000</v>
       </c>
       <c r="D263" t="s">
-        <v>458</v>
+        <v>547</v>
       </c>
       <c r="E263">
         <v>40481902</v>
       </c>
-      <c r="F263" s="1" t="s">
-        <v>459</v>
+      <c r="F263" t="s">
+        <v>548</v>
       </c>
       <c r="H263" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>40490918000</v>
       </c>
@@ -8332,22 +8280,22 @@
         <v>40490918000</v>
       </c>
       <c r="D264" t="s">
-        <v>461</v>
+        <v>550</v>
       </c>
       <c r="E264">
         <v>40490918</v>
       </c>
-      <c r="F264" s="1" t="s">
-        <v>516</v>
+      <c r="F264" t="s">
+        <v>551</v>
       </c>
       <c r="H264" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I264" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>42535714000</v>
       </c>
@@ -8358,19 +8306,19 @@
         <v>42535714000</v>
       </c>
       <c r="D265" t="s">
-        <v>462</v>
+        <v>552</v>
       </c>
       <c r="E265">
         <v>42535714</v>
       </c>
-      <c r="F265" s="1" t="s">
-        <v>463</v>
+      <c r="F265" t="s">
+        <v>553</v>
       </c>
       <c r="I265" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>43021132000</v>
       </c>
@@ -8381,13 +8329,13 @@
         <v>43021132000</v>
       </c>
       <c r="D266" t="s">
-        <v>464</v>
+        <v>554</v>
       </c>
       <c r="E266">
         <v>43021132</v>
       </c>
-      <c r="F266" s="1" t="s">
-        <v>465</v>
+      <c r="F266" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -8401,19 +8349,19 @@
         <v>43021226000</v>
       </c>
       <c r="D267" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E267">
         <v>43021226</v>
       </c>
-      <c r="F267" s="1" t="s">
-        <v>287</v>
+      <c r="F267" t="s">
+        <v>25</v>
       </c>
       <c r="H267" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>43530714000</v>
       </c>
@@ -8424,19 +8372,19 @@
         <v>43530714000</v>
       </c>
       <c r="D268" t="s">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="E268">
         <v>43530714</v>
       </c>
-      <c r="F268" s="1" t="s">
-        <v>551</v>
+      <c r="F268" t="s">
+        <v>558</v>
       </c>
       <c r="I268" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>44784217000</v>
       </c>
@@ -8446,20 +8394,20 @@
       <c r="C269">
         <v>44784217000</v>
       </c>
-      <c r="D269" s="3" t="s">
-        <v>467</v>
+      <c r="D269" t="s">
+        <v>559</v>
       </c>
       <c r="E269">
         <v>44784217</v>
       </c>
-      <c r="F269" s="1" t="s">
-        <v>468</v>
+      <c r="F269" t="s">
+        <v>560</v>
       </c>
       <c r="H269" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>45763653000</v>
       </c>
@@ -8470,19 +8418,19 @@
         <v>45763653000</v>
       </c>
       <c r="D270" t="s">
-        <v>470</v>
+        <v>562</v>
       </c>
       <c r="E270">
         <v>45763653</v>
       </c>
-      <c r="F270" s="1" t="s">
-        <v>471</v>
+      <c r="F270" t="s">
+        <v>563</v>
       </c>
       <c r="H270" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>46271022000</v>
       </c>
@@ -8493,25 +8441,19 @@
         <v>46271022000</v>
       </c>
       <c r="D271" t="s">
-        <v>472</v>
+        <v>564</v>
       </c>
       <c r="E271">
         <v>46271022</v>
       </c>
-      <c r="F271" s="1" t="s">
-        <v>473</v>
+      <c r="F271" t="s">
+        <v>565</v>
       </c>
       <c r="I271" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I271">
-    <sortState ref="A2:I271">
-      <sortCondition ref="C1:C271"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>